--- a/US Labor Statistics/US_Labor_Statistics.xlsx
+++ b/US Labor Statistics/US_Labor_Statistics.xlsx
@@ -5,17 +5,17 @@
   <workbookPr publishItems="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aishw\Downloads\ExcelDashboardDatasets-211110-193440\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excel\US Labor Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95604A63-8A5E-4EB0-8454-17A71A625A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA28D150-BC44-4D9A-9995-2D63C0072C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{DB438AB8-0F60-4224-9C67-97043B861F24}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{DB438AB8-0F60-4224-9C67-97043B861F24}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Populations" sheetId="3" r:id="rId2"/>
-    <sheet name="Data Prep" sheetId="2" r:id="rId3"/>
+    <sheet name="Data" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Populations" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="Data Prep" sheetId="2" state="hidden" r:id="rId3"/>
     <sheet name="Dashboard" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -31,8 +31,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="ShowAllWorksheets" guid="{A1F01C08-243B-48FC-94A8-F102AEB1706D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="8" showFormulaBar="0"/>
     <customWorkbookView name="Dashboard" guid="{948164EF-B902-4A6C-8E3C-A935061C5153}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="8" showFormulaBar="0"/>
-    <customWorkbookView name="ShowAllWorksheets" guid="{A1F01C08-243B-48FC-94A8-F102AEB1706D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="8" showFormulaBar="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -391,14 +391,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -480,12 +481,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -699,16 +700,16 @@
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8021586</c:v>
+                  <c:v>27033069</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8120224</c:v>
+                  <c:v>27186117</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8251469</c:v>
+                  <c:v>27304411</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8142043</c:v>
+                  <c:v>26277342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1035,7 +1036,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Finance</c:v>
+                  <c:v>Trade &amp; Transportation</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Others</c:v>
@@ -1050,10 +1051,10 @@
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>8142043</c:v>
+                  <c:v>26277342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108507296</c:v>
+                  <c:v>90371997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1383,7 +1384,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90040.666666666672</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1401,7 +1402,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>49366.8125</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1717,16 +1718,16 @@
                 <c:formatCode>[$$-409]#,##0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>77330.083333333328</c:v>
+                  <c:v>43391.395833333336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80167.854166666672</c:v>
+                  <c:v>44830.666666666664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82837.375</c:v>
+                  <c:v>46352.958333333336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90040.666666666672</c:v>
+                  <c:v>49366.8125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1947,2579 +1948,2585 @@
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v5.2</cx:f>
-              <cx:v>Employee Per 1000 Capita</cx:v>
+              <cx:v>Average Wages</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="0"/>
           <cx:layoutPr>
             <cx:geography cultureLanguage="en-US" cultureRegion="IN" attribution="Powered by Bing">
               <cx:geoCache provider="{E9337A44-BEBE-4D9F-B70C-5C5E7DAFC167}">
-                <cx:binary>1F1pc9s4tv0rqXx+dBPEQmJqeqqGlGTZjh2347gz/YWlOA53ggu4/vp3aMmJzSixp9rvVUnd1WpL
-gnBxD+5+Af3ztv/HbXq3qd70WZrX/7jtf38bal3847ff6tvwLtvUR1l0W6lafdVHtyr7TX39Gt3e
-/fal2nRRHvxmmYT9dhtuKn3Xv/3XP/FtwZ16p243OlL5H81dNVzd1U2q61+8t/etN5svWZQvolpX
-0a0mv7/9d7r5vMk2b9/c5TrSw/VQ3P3+9smH3r75bf5VP0z7JgVluvmCsdQ6soVgljClef+gb9+k
-Kg92bxuOOHKYSallWnL7eJj7YpNh/AsIuidn8+VLdVfXWND986OBT6jH6+/evrlVTa4npgXg3+9v
-P+aRvvvy5oPe6Lv67ZuoVt72A56alvDxw/2af3vK9n/9c/YCuDB75REyc5Y999aPwFTRqPLXBIYd
-WZJalkPYlu/2U2AIIUcAjkvBxT1wZAbM8wT9BJiHgXNg/jpIYP6M6luV11H+wJ6/LzOMHQkqJacQ
-mgeZeCIz8simluRc0m8ytZXXrcy8iKT94DwaOoPnz5ODhMdTqao2X9TroUOdIykdzk1mbbkPwXiM
-DjH5EWe2QwVU3WNYXkLKflS+j5yB4r0/SFBWwCT68orKzHKOOOSBWFQ+BcOxjphjU2Y5+0XlBZTs
-h+TbwBkiq8M0L94mjb6qKo9eERRqH1mcCSHJzvTPBYXII0FsyyaMPKi5J/LyIpr2w/N4PTOEvH8f
-pMxc3+U5HJy7uwel8vftDOXwveB2mY6z1WTWTHjEEWUUGD74bnj/MUAvImk/Po+GzuC5vjhIeN6H
-0SvaGGYeMcI5ZdL+ZuEf2xioNduUlDvWTnKg9h4j8xw1+0HZjprh8X59kHj8u0o2eb2BO7/lyytI
-CztyYPhNSvhWWzlPpUXC1FAJ1PhOmvjD3LtI5gUU7cfl+1pm2Pz76iCxWdylm25TvaYmk0em6djC
-ojtsZm6AzY+YcASjBBBOjxk2L6FoPzbfR86wWSwPEpsziEtzmwwPe/cV5MY+4hbiFQDwVGAcfmQ5
-tm0yJragsIdJtwLzElL2g/J95AyUs/8cJCiegu2/1dFtox9Y9PdxYeSI25xwSvneOMaGjaEO8gPW
-TFheSM1+aJ4MnqHjXR8kOudRXaumil4PGoSYVNiwI4zsdcwmU2PbCDD5Tp2Jh7m3kvMSivbD833k
-DJvzw4w0z6PbMAo2r5uccWxmS9vZuV4/ajWbmtKWCHvuHz9g8zxFP8PmYeQcm5ODlJvjO1UFrxpw
-WkeCQWMxuRObWcDp0CPGGLWZufPQZgmaFxC0H5lvA2fAHB9mqHnyZRO+ZjDDjqgjTdt6CPNnEkMI
-8p3IZcITmAWYzxKyH47dsBkYJ4uDlJKT/Eu0edXEvzyaVJMtH5LLcuaWCbhlxDGF3PkFM7fsBQT9
-BJaHlcyBOcyI/yRNo1xFrxhhIuonEBKG3PLWdMwExZFHhDmT1f8e5TyO+l9C0U+g+baWOTaHmc78
-oBodvvE2lQJGmwfn6O/7zJQeSZNKZpGdhYEFeZKXMZEjgHlB8Wyv8X85Xftxmo+fofXBO0wVp7pX
-xIhZR6bNBLcZ25s7k/RoUmyCmLv3Zw7ayTPU7EdmO2qGx8lh2v/zTV1vbsOmvtP6NdWbdYRsP9wv
-+Mf3D/JUeGwUnE2OXgAHpejHeu3F9OyHZjZ8htH5YWJ09trZTQeFMmZbEgmZfeBIhKSOCbfgIcM2
-w+h5evaD8zBuhsrZh4PUZO9UE9Wv7K6ZR9KBtRFiZ1Jm7pokMDnEQSPHzmmYuWsvImk/No+GzuB5
-d5hCc3HXbl6z7EzlEeWCMY6A//4xc9gIEYhsOBTarsIGjfdYsT1Pz35gHsbNULm4OUihOd9E+SvW
-AhhH1XLqXHqkqR77aEIeWUQQBidhC9pMYJ4lZz8mu2EzSM4PswpwvqmGdJN/ediur+A5o2tmKgPw
-mfqyBSqZBJ1ococGPOrHIvISSn4GyMMa5pgsDlNMoqkBQOnNA4P+PihsKvBLgrLlLiEG/fRYVCQ7
-IhKdM2gTfJj0IcH8Alp+Asv3ZcxxOcw8wJQyn/4tiuiBSX8fmalt1kJF81ukPxMbpALQl2khY7Zr
-QpsFMS8k6mcQPVrRHKTDdMzOVa5fNYvG7CNEKpxIZJPvH9Bbj0WHmECIoSNN0Ll9eZ6Un8DyMHAO
-yfVB6rMLVf3f5GjQfkmRTf7mlM0am21k0Rz4ZEJs+5rNmei8nK79MM3Hz9C68A4TrbvP1aZOXtP4
-oP6M3j9q2zscYGMeS5CUR4h7EJE+GKdZGfriBRT9BKFvI+fYHKa3donWwHpI282rtm8iG+1IdG/u
-XAPTnDkHtn3kUMeZEgbfgp/HnttLqdqP0dPRM5wu/32gMtS9WW+yog6j12x+YvRIOBzpgYdGjpkp
-Ql6NQ8gsFHy2pmrmzF3cvZCs/UjNhs+gulgfLFSnd1V9N7yeTzeVdyhA4HR/V4eNMigcPhz22sqT
-nDkOE6Ofp+nnID2MnSN0erAInd/10e0rVqopO0Jph6IhfWeSZpJETHFETAcgOlCGj5XdhM3z1Pwc
-m4exc2zODxab/6gqeeDR34+HUNRBisBi00HBfe42GjwRDZnQgrs0wtypAz7PUfRzdLYj59j85yCx
-ub7rX7UrmqCzljoMJc8tMDMvAV4cBWjwEnbnO5EifSw4z5KzH5XdsBkk158OEpJtxLDYJK+b3LHR
-7SQoVBXOEt4/nvrXwAvQTUdAH+zNU2ReStV+gJ6OnuF0cZgZuPdJisaoVz0djVjVoYBp12oz97El
-eqdhb0zTRj/hDsPH0vMSivbj833kDJv3ZwcpQ++ru0C9ZpsnOj2QI0C3za45fZaAI5Z5hJMehNCZ
-J/A8IT8BZLeAORxXBwnHVYij829O6tctIqBlXVgOTj7v2p7lrN42RToEpbbp2Pr9A/7bY3F5KVX7
-EXo6eobT1clB4rRtKHp10wM/msIVQ9i5xWGWgptMj0VNlB7ELMZ5KT37EXo6eobQh8M0Oh/1JnzY
-xX/fj54q1mjBQTZgZ3FmSbf7Wx9sdBNYYuZBP0fHfkS2o2ZIfLw+SFn5c1C4LCV4PTCmoEZKYYmf
-nChE9hM2hqC/wNyl2B7m3lbhXkDQflS+DZwB8+dhhjQ3d1WG2sgDc/6+lOACDtPmFv6ZJQBwJkoA
-LymQA7h/zHLSL6BkPyLfBs4QuTlMUbmJcLLjVbPRuEwAxTQkXtBeuzcB4BwJBJkOe7iVY47MCyj6
-CTTfRs6xOcws9J8b5J/zQL+qt4xYE64wt52fGPx7bxmHcx5OtM2c5pfRtB+fx2NnCP15oAjd1frN
-/4EIQUSYhb7oh/wzQHhccHNMXMdBbWQ3d6mcmff850vJ+glOT4fPobo5CJ/g9pc3h21jja39efLJ
-//bSNImwH9KEfOZTiJBNQw8uEmoPve1zJ+3pTWY/p2c/RLOL0J4s4f/pmrSfX6H27Za5xUZvlvfX
-0z26Re3X794vF3fmzYbugsO9DsOWdydffn9rTRfYPUJw+pJnw8pHA+82tf79rYHgFEkDtB4io4Ao
-Vk59Bx1kYvsW7BquWSE2XAsbpiufmiN+fzudZcBZExz6cRAqmfDa376pp7MteAtfB8eQTOUkvPyw
-wkuVDkiEfGPH7u83eZNdqijXNa7kM823b4rt5yYyOXPwQDiGHjwGuqiNoKC43VzBSuDj5H/KKmiq
-TEq1Nuw6d+MhVB9kYuloGTgyW0YW/9RlbXueGkXkxk3xKQ24cWJ29oWlmjTxsjFMFkXNsj9km+WX
-aWPecN8MIrdIy3ilWOcsxsagJxWxU48Nhr2Kh75zndq+KNI2ca2eXMZ9V20kzc5Fl55Tozv2deEv
-dMWl13QZd9O2cdy2ir42ZhNdZOCjV9pF7ja5Kl3TcEa351bnRuZ4pqR5KUhNXVl1G9V3vcuTajmw
-IXErHX2t0zhZZDQYlrZyLmzaH3eRXXhFkH+VSX7ekfbK73nosqhZMSs5b4bxksXDmRngU1VsuH0Y
-bYZCq4Uqx1uuk9O0JbfKFp/KoV6p1E+9Kgvpn37J1lHlCLcza7lUtT+6ueFcEE0/JW26sc2RrMyg
-uzKr5HzigM4aZ8GS9Gtc5IZXBzpe0XRQC5p1idsEdui2XXsd0O7KyXvhOZYITqpU3nZ+Io9JyNZB
-MJwljaVORpz28oyuBmNM02M8OrXCxvL6pL8W4XDVFexTSJPToE83VRlv1Mgv7JBWwhWsXjIsqGO4
-LEoPlywFVgPVq1IWpWuw5HRkje/2Oszc3Api11JglBVWvuvzSrvSMsNllEjtNUarznQRDcvAmHgZ
-ZpuGDJ1rDmPi6k4N3jRXwfABoxwvu9q81FZ33ITjGXGCzDNa86ywleG1SfiVpvgYJ9F5kvRnFsBZ
-O0oKN46wQsWGm9HXvptqkS4iSY1FUmOiNnLiRSjZ+K7i8akaxpuKlb4b8v46M/miH/LOy8NKL3yF
-fv62k8vU6m8dNZ61VhB5cVhFF0lpf4p687NT0veyi4gnOrIaLL0eeVOty769Hku+jqJCY6PSdZAB
-I8N0Ui/RrXabZjwTagiXXQc8JSX0VNrYCf2otVtaGXWL2rzJA3IraafdrK9yVwfpKbHb67Jqrlmf
-fs3MePBMofSiyfpr6pPQTSJdrFJLyeUojNAjJIq8e76TXFxIyT6pMo9XyJBdFLilbqWncVinG/Y2
-tiIVnyK7Gtaix3Y0SH9RWEbxV+wb0rPjcFhUht/+QQW2XdoHvjeUjHuD1O26tIf2tFS8Pakz4Zz0
-rWG8T8IhXZZjkb3PjWJYmWHanmZhWXuWkVJcN1r/NbSVeEecpAiwa1RUskWVhEW8kFlJF3Yydhvf
-VpXhBoWViuOYlflNkvs3WW+IZjGyWkZuZkVeH/oXLE/+qujQekmfLvtQDN5Io0Whh2pZsj4kiwoN
-X7Eb9VVw6igdu8IuL1IjvMwVU8vOYDfKIIFXN5wv24Zv+nyobvPcaiCVcbhMRek69hC7xSjFKouy
-ZmENyr8kmms3yLH9x9i6VUQVbl1mhRu2pid6i6yorYDbABFoRmzD0ifmoreY8x4N6M1xb2HTDYn9
-yTbERWOV3YnfVl+NrjpjIkFh/ttdq3v0OOzHTItLy5a45Qaib3ObTO8/0uJRLFgTd4las9ZIXNqU
-2vOd/iLi5fnoE+H+ejZYnh9mkzBoFNeDMeKIyaY8mk2yrsnFYOfrAKK+yElyaqU0dAWFQv/1TEjq
-zmdCp6VjYzJcEovjSU9n6my7p7FfqLWlk430oQ0ndRyTbvBo7dbqBP9nrn49J7L7P87pwPJTXPMw
-PT+dM6C5DJ3az9eD5uGS1+216iHYBmXrzuCpN603TcezqoZ2+/XUFG72j3Pj2lUUfQgnNpv48Yiz
-RRJ0Yzw4+brOKrqIVeZcDr4IJ3VxFqs4WZuyv+3qvl0lXduexm0NuZU5datwuA2Fj+06njVBC6tL
-+VrKzPDiplpaTnfWCahvR1iFlzDsVRWf56JaZby96rPgxuRhthA9u2ic1PB6peQx56r4T8C58JgD
-9fDrle7ZQhQ3nFgcxzFMjk7mpwu10khmymL5OrTqFVPmpSnHy2ysymc4OmVtfuAoI3RyrRyGrTTj
-qOyI0+NN7FWZspO67y8HErGlmUIJ50LGi9pJznVAsj/Sdri0tZn9EQawoWwMvpYt9PLkqsQJHAhi
-9WeBUfuu7JprQ4oLWrXHoQN1z4so84IgFMdlb/WfAm4Nx1lgFcs+GqKzxqzqqzzpb/oKZr+xInaq
-IydbdkKrM5ZHX/2ICzdPUqDYO+q4N+KvvhpvnKBZjbqG8S7oOhz4OgzzyAuy0Xdp0Z8ltpF6VjNe
-2kNJXcvCd0vH+KviyeDZBD7WrwHbo2EobjaVNppgbAv30zwFbLQNVTKD5uuxI/fuRA/NxgtLuEZH
-17+eCx72D5jxqZLj4I4oHB2Z3n8kBZU1RHbKhnzNk/aK1dFppp5TmPeS9NTvlbbAkXs2/Vfi4pCn
-c0RhmejUNPO1km2xqqPe8pg/3k6aPhrpcKwr/zSx2Foa1kXny3Bp5+mp0ft/1nH82RFt7lpZW7lO
-GtN1G8OIhxLaqRiyc0KCr6Po6NL2o2SdUjG6Maed25hj/S6NxLJ1io+OxsuidoITNkSDl3L4Lciy
-aK+UZbGyKit0qSyt46YvtGta0VeeYwuWUXLe9slpwoPBc0QMB5V08H5J4eV5GHmtqa9UboVLRkfU
-en9lYdgeiQUWEnkc6GHkpa2nDMutQvdqyPI1SREotGEWebjoGx68kWDNITgQwd1apINzkXFReH5d
-me5Isvc6xl72k3xpiLxZdf7YuVoQtWhC81MXF3ThmPboJq248BtbeI3PL0JpxQteQRMVqlMLOx5u
-TKu7HWvTjezoQ0/hHcoSC66M/jgJzZsBjphb+GFxTNPuWBbdVcBF48YV9icroPhq0XauNFi8yPxU
-Hlt8vJFF1aIH61dM2iMku6uBpm4/i8x41AWlnequzdedky/g4vSu3YEcZjauXwTPIIL6zI9y4sAK
-Q60RYjk/yGTJ6IC715p8XVl1viSiVgvHj099WCpJgM+osCXHAQFSa0FNxTE8wCA9FwkcwEb5wlW5
-LLwoa8ulFGPmRmmt3XxwPtcJeWe0zvtUZrUXSnj7fa7oghb1bRaPV306nGX2ZIyxzQKabPxu8lI7
-y4tH87xs8kXcK8uDu7psdeysNCC9Dy9H1tNFxPFBWSWnwtAYUXTtqvAb7aajDk96p7+8D4L8vFeL
-TifqNG+660gjkHSSoPHGEqEeH7vrSgemOzDpStpeWwm5LI3olFJ4a8RuFlGeDIvpf4wMr/jttCGL
-pl0RVtXLSYzqnl8ou7sWwRRA8MSAPBWGl5bwlkw/Pu/LxFnYBT5dGfxTGXOImPbLd5L3t5XWi64B
-g+M0Oo8oYhbZwxVnKfsUh+1VhzOKHlV83ebZqdHGp2NWlm4VQIC1Tk8RFB9nPixLFLTYmJAO0enz
-lPC/wrrLTxPCL9q6XVCrGrwpMOrHKjruykqdOfDsU80+WVX0nD0We8Qbvg7uFUfiCTvKnNnJdKBx
-aTGerWt7uM3r9qo2YfdahFk+h1hP/td9qK20JCst4endy3we6tXQ1Z1bxhhWZnSR6DxeykQunLai
-9iLVQenhBHO+lH0zrFNSGwjQkqx0AxYtyzwNbksjledFJcPFGMAu6jGU73Locm+06YVlQMfEerhp
-Kdwts6KFJ8yo8fpAJ27qwLMOEBjCHoZUAZAAbrYdN9e6hQatLH1VOQhJZZOet01zxXgTHatU9Muo
-Suii7MazLOyuYz9zFhkxRper4VbUY7GqCn1lIzpYJ5G4aGFEEGQ211T0l5M3r+0H+7rLaV1uTc82
-NXOriqGKgnD3mw3f/vzXtcrw7/1PCXx/cfrJh+9/4VKz7W9F/PJTuJRqKhPW8w9N1Hz7LhCzo27K
-aj3544cU20OKaZZE2/70xE/efJJhe5JPfKjW3SfKGCzvNx37Q35tlpZ8lJmbxu3Sa0IcSZtS3PuB
-m9dxpvF7eg2XTjzUjijHhdST+7fLryEnh/hluklvd8/hLrlGcFoVFx+jMY7giIrEHdX/VYLtqf85
-zYjYRSK5jkACXUXWXK5IXOWkS/idQ3zdyKVVsAKOm1m00XjDeVMkG2ZUvF7lSCENbKEtJKB6z1C+
-+TnIK4b8gbLga53KkA/NIpFGXq47maX1ecqzwhhclfS8+MwTDaW7MISAR+IFts3InQ2D3VylCP/T
-jePwwr+lGS3FRSCisqBuRqIapLCCV9n7kJi6yxdByqukcFXHs+wdgWsJkoMsI8MZshZ5/NWoW4Ux
-jyDdbf3HWUi0hDzy99CIaKK9V+I0/XTmBOya+WI2bFUTitC58zuVx+VaZ1Cl65S1dWWvR6TDos4b
-owLXmKemH1n+MwHfvVn+7gtiflyoON1SSlHaRTgiZ2Z7jKlTC1NEX2KS0CTytKIc8ayUloEkZtV3
-AZJFVagDhiQPM8Yiv+xge+GaEzZ5eqdahHmduEqVtCIX6GEq8d6veTTTzyZ+jAO/lWLiZLuAI4D7
-bp+6X4kIS2wNo70I68QAcWPW2eKvouZ588dgOA3DbU7fxGwPJvvmw+8cbG8Emc7LPZ3P7vsCPofZ
-XIxZxa3S7YOwjF1TJRFXblXj4sX/bj6b4OIxB+ubWh7ZfXPQY5+fdj4heRvFF34ctMaHPIkH00Ke
-KLXpMq9LG0v+9YRPfTUsbCqlOJDJqW98kvOnC0Qm10D2khpfhFG1mCoY7cAuV6nDNDXdvNJC/JVw
-09fo/voVY2ebfZqXSdy2gi4cCwes5/MWzaCQ3KTOl2CAEAu3NYu0/hQy38oDt4ujJnqf+/gFIUQU
-oUKvzjPLfprdmJaNrAKqCpZEeGX9mN3gbWSYfUi/GHZql9TjnSn4BprJ0CdqRNx1ERlEkXOalEPz
-IalNcwxdVJVTMOXXjHi6w0AJt5CvQiPldJoZ7RYzALSIkOFEyu/Wl2POq2NVFpmPnLCf1XI4Hpyq
-Byq/nvLHxeNYtUDLLYKY6S6v2aYO7dBPsa+qL0x0UJurgYiRJCtedU3NlpHjM/FX1YDrJQIGdFL9
-pUykMeWyjZRZdM9sBDIzDWCAROHlXvPhkkRcsfN0BwZyjLkstPEZZ8bszFgjtz5pmKxXIX6mqOli
-NjJ45/VgFW4vLQqqeGSGzYesEMgN5wap8g8yC7MqX5RcVdZV1kZ5/fnXPJsM1CPlaCPqRLhn4jwz
-bgyGtMyUc9P5TmWWY/+5r5DpNl2zSUwwy+w7ylEQqSiktbCSchIaZPenp6gImmeYZT2NdXA/EZIB
-WCIXKFlRHDiY2dGS5tmo4txC5BxShMi6CIo6OtYGbeDAUzhc4w2SiINJVn7YG7720Hs1TH53UeJ2
-diMksGGk59NLqkxw3DWVsY0yTZf2eKkcOoUAtOzxqSikNb5mCDJRrxLDruiqcKqW1t7Q5YV6zvWG
-Q/GEw1iaJPiZEmLhiiWOOwBnS9N9guJYo4aPNGgTRFW6KkV7NaZjpG616SRW7g4aBacb28oNON6Z
-oUhWrXuRpahkjZkgOlih+tF0H6FRKrCjs2NK8lPajjDZeWTIvj1mXVrgrbqJBFZtFR1MlMbuwYSR
-9k38BQeDgBVZwMAKre3Q0B5PmxgB+xSQ468tf4KoV9Np4V9pxZkycHBaAZIwJZbgc5k/qCXSjUwM
-ojSu28xWUMNbVWSFTt8mHtyqMMifMajWzABMUyJyNi0THiCSTXOvw4wVxL3o7eu6IdghesCNaNFx
-OWrwh8UFU3zpd4bqa1ekdADD09bPk00GYQGXuqpP9aWNFI4fr3zNnPYKFsNqryr0XSSbPjOQWdV9
-XouLHWwITXKwsk+dHM4XchkTHEHST0AYcUTwJIdYtlemyhQo4UmCPZ0IPTlpv+Y2kzPdg8XbAqfk
-cQAEv8Dyo/WD6NZGYPbDdRgOIvVdZHIQWfkdQt8LYY2sGpZlWInCQWHPkjFiqaqMylMzbWjP3QKl
-HuOsCjKDnftZaFOv7FQf3JpRaq47v2FikdgI4b6wOB2rq0yJDD93N5K0e89aYvbjwolziZAaKQxW
-IynUcae9qMrQ75UrMjMj76hZEbnI80oSL+51gyIL0vDlGLth3las94I+aSEM7Vh1Q+r2Bo9ZvJIW
-adgHkeqBBZ7Zk6ZrjgvZhcRfqsEP9IkObRPstMe0G0f4dNiKxUmfDH7jlnURi1Ur7YAueGb043Un
-lBXdNCwN/AVl2iLeAF9CDS6SBrVcyMjqEi/gabDG3Xd6USoTAaUvc9M8Jh0JrRXSxU5oLotEZezj
-wNsgMT5KZfb9da97qs+NWufGlcl8u/nCUcSqPo52G+TKLZQiYf2H7Mc0OfYjuParUTEnU65MFLVC
-z67GunQ+kyx28i+hVai2X2CrDOWdbHTXmV6SdjWJ19rPS+4soLM5qmx+ZiSoFBLbSJJj5ESsOg3v
-QienCOq9nlCnYucjVS229EiqughRDzS1MJd5zorCPmmkH4Xpu5z3SRks4zZAsutdx/0gilY+y7qG
-X/m5RcsTEbMwcFbYK4IiK9qOpqy8tHaiTrqBwUSpF6FfodRx0gW1ESK/EWW9UF4iOwYF2xZRwz8p
-oxG8PsHm6Azf62hWw7luij7Gl+iBIq//PrVQIRLv9fZFI4pSvIdfT2GYblQ1Kz+PTSktVEpEVQTW
-mvSGYdveEPOksY/7PCZZ6nIUzab6NDciLCegHEZl0/sDfqLNi3koefB+6IqusC9RLI27dGUn1LCK
-k6QZpNO+FzHlkXRLKSf/0a5QNUpu7MD3jfGMsbQGp4yhhMo+h9YuQ35mUL+y03ckKiOSXsZxFzv+
-skMXRB0sVYTMYuVBZU0kDa2RmtbSDMIhKhdmkcSVs8i1afD8kxVYOebL4lTKj03glKVXwWcBZy2n
-iWBBPCLC6UtAP61Styzl5FCxsMbqvSIkORWrOOwmjtFUJ3hSdajhemf2pPJZqwPH9mSnFTbAmMMV
-PdayyvC5YrvUUPMR7CtjGw/YktrHbGlIJvedRBM8pGChxf8kaT/xOWcyRiBlNEYFKIw8cUJ2V5a4
-iaBcVVGEWoDXOWSwSy9yQt4YQJA1ZXOj47yJcvDLCEd1HDYjI/25E9sTyRGQLsYPAjsLM1C8VX72
-jX7aYKIyJuT5YOA1ZDIn1rQtwUdhYp2yAw0tftwPa9ytp6ooLT8j2gzxGu8LJT4knPmSeqyTcNbd
-wg4JeLHbPf5YS3ylHRvT4nw93DOjwa6pPKu2E4Aj+cinv2jNk3NqRpXxYcdqY/vxByZvPwevDk0n
-tlVkIIDkRth+RvqpiKrjKKcDFl1aI35l1A0sGkTmB2qKQEmXb4FSY6ux1Wo9NFVwkhM5+NwlSdgO
-4r3MGgUutVaW4iNWgXio8uCS+q10E3MIAHeQcQsvpnZglp/lloMKjT1YYbldU2hFzVAiI5+jF2I9
-NE6IYeYW2u32EH6Sgj8C7TN44nY6Lb4XQwhWBKSapglZKPDioErTDj+ORsQafYqV0om92400NkMD
-KrHI6VtIVNUYh445it1V63AifctQY+xG/KFSqpi9NEyOoPFkRBdkXxwHU/RhLruoUZBpeR9TFnUH
-fKPWtsrPRAQ5tk/NnWxafNX62K41EjnTF1rt9MRatECBI7k5iUM28on+vBFB2H1s0iANolUeONjs
-YUlJQNfoPbGJPqPbvRLFtdT28Y7lMkY3hIl6IEVVwIUFUJg8LqIEdr4l5SjMj/DcYqddFKWhUeYz
-68DH5DwO8cttC50WiEPTrpy8bMAUNie2CiZxbmBf8VoyNAKJ9gTOYj+cUlmnvVpr1FWzzEslS7PW
-9esAIR6RpMHnQ13WeILTyNOLrGzw3+E+ocDNjsCtL5HISi/aRPuIu7sqxuwkDFR7I3K/N7KlP4zT
-3u8kVHm86mlpQcM4VZg2zjLNYGKzZW/kvqxPuISp6v9jij6GvglSpZJkvculxDoNq3jVhGmuituB
-1TgDvi7iEOw4pvcyUyonBcNqVP798YaGjur0x5J2YSfWerv0XgY1WISS6JhgRaig13wpRpNAy+mK
-TewjyGWAmbj2fNri21jXqZMOHCCNNa1XR+h0M9wKG3wKpiKErQbKISNyALgROsklCuzRILJzWpAK
-nxADmeS75U2N6MfEzQ5oEiE8rfxVk5eVb50EfjniO8ZtmOSjsxMRXslZgtjWJwkXf2XZkKjc02ma
-DvwsQ4YHK9Wsi5CBChJHQ1VS4Q+wefUATROvkPycmNdElIC/VoPemvwyTvMAw3Ef3v8S92XNdeJs
-mL+IKrHD5QDnHO9x7Nif7RtVnKQBgUALEhK/fh7ifDOxuyapqbmYqq7uatvnsGl532cDV/m8ojyj
-wcUK8g0ipjJme0M5G2x31/lA42z5nHjJPT04ygLfHbNVpKNuJuhjsqTKQ1pkL0kL1SEkX9ird5wp
-SDZcVTbxfdvgKd2Hm4oUuP3m7U6yZQZqEPekj+3FuqWc5p+HzazBvUIxjVZxE7LMXrDeoqEOVohs
-POQ+ZL8GCrkbFv9fENPYo15FZQ1lwCpestJ3MnyFFCobb7JMCk+hyZv1EvwDPRZz9IAdLR7TSo/A
-KkDfjGGuHssiWYflC2kla9uapj7u3N2ao7aR30vbWxk9a1qAmjypwVhe1kG06eER2rYomSuD3cHZ
-agnDGTVlnqelCQ1GOWdlVFv8MMgtKD3Asq75dSVvz1IKhma+Rh6o3y/r53IzjnZf/0rf7qsJqv99
-8vaa738x/URaKIv2n6UhCfAXvvX7H9LYpPgLa6Ydh+pHKjCVW1SL9GZbfCgODBN1n5Ul33/za8ii
-psRKVMKVh1+9YRf7chq0tXIePAzUC4oUt6bL23WGLHEC0pH4jZbR+SqnfZa3wZbg7msAdPhPgrJs
-OZcbwfhOCLCiG4LnhvMC/oeP/jpQqkpsaSDe8LDfOrapZ1sOwmYSJvk8vC1Yw2j2b5aIfMJoCEa5
-45daZSpJGt5yOUObJzMT3Js+FbjmZQWEbS/6qN3LuC5xOEZux/20zM8JF8wD9hEQU2af5CLaMfZm
-Wt0+JnO6RUNfpZ2eOD90bMRsPL7dEEin9kVvgPEX35voMGCXXRSPeXH4c3v1oaEHqof1ASM4wuKW
-hdn+8qvfscxugbTIDSK67+Y5w1nnbeswG9YZy6wMkn0GQfu6zy7by/3c/3z4HZH5DbHZD5/tIBfi
-ZnZ5zUfERhk3QwGaZ/e/lkaG5Wm//0DiRuQw/qlt/wCoYTYRIMQ4FiJX8e+frOJvSo21GGRBUUr+
-d4yQAdKhWgqaJJ/wHp19dJdZtz9U0zM84TlRCR7Zr8Xxz+fyHkKATw7jp8A7rYoMXBDG+Qc8kdo4
-8gum3j1y+7CM9Wm41+Na4x2xh21G6fy3+/zvAyLXAsBBVpQR5NnlR0i+UyQcOaF30k3YKNoBO/55
-DsVf9vJrZv/5AsMdEPzfD3a/QkhwCOR9MEIjwj7+cEA3sqSdljG7+7VirN1WYBD5LPZpenSJLuyR
-Cbqpz2aNPaQOZtrXc+iUgvtAbwn2o7+c0fuRjjNCK7VHUMeQhkAT8hHC9CUJ1tzH8g5M7D6pVtR1
-mOPODBTrel/YHo+gS8yO5UPquu+IMuj2E4HwQ5qtthKd/THloMsJhCwAgWos9RJ/jvlBw5seCodY
-1usb9ijeltm/XMQHLAQIZ4aXBqBaxnCOE9BQ76drISMUzTqbX6cxDcC3MTBN2IqtJwt21pim4Og0
-ZPLAflg6AT1QgqsQSuSA7XCc7MCM7Syd3zfwqd9Ge5lg+s/8L6hN+GG24USBv+ZYpsDUg6b/uK64
-GPBjOW3xq6ZRhrWYLVqM5ha7bC+mepUeTHod5NzidzP2eXTSxbD54H4Vgp7rUo2shWJ/I5BvdBJy
-hmqCVQFQqUkBitxlvGw3juK6dMCiooB5YIhY9kd869BTLOZ/Gz4fQF1cCl7KCEsECUFr4S3OHwY0
-QO9J2smKlzyd030pf6ukKDUlBlMI0RmGN/VvxMzbLmJ+MhUClQp+5dYlxjjDaP87V5B8wAdxcsiu
-AUYPbQ3WlH8Ni8ENmtNuFi8CtZ+Sh1gPRXIdhV3sL2ONSlFWJbXj9sg7531emU6tsoMGK1qzu1Zu
-NDhTPIG8QwUGKGAB3BXDxCWWQ4A0mHR/PLOOdymFtznQQqHYsD1uY7aDwARVIZ5Cj7uPBzRDk4of
-vsHcBXcOzy5OGda7Sm+kXYpGpDrWxyw3+7Mb3I7RNvLn4cui3WGAYgZwAo4SRC/OvA9Q8431IlIO
-sFJnEyD10qrQ3ifxvC1XSg1UVePIVQRFfku5O2sTEKHPUzHR5NESu9dvedECYLYS5Xv8l7HxfnEF
-EpzhpVBQwe5LHpDKj4rmmHrI40sxvkBCplVbuYjkQlfrzObxHALnFcvMn9eBj0RHlAO5BQa/KwhA
-C348ImpC3a08Xp/jzeyDcTXJzqz8auUzK1GzUxZv2ErXyCy6vYYOO8c4/fNpRB+vPIbnCEoc7Ciw
-DIHs+DApttgaCXkpf+TJxJe4WmYUhD9m2UmsRt2gp/CgIJ3vby3kg1hxRJfOaJeLJbIzdOz5OqKC
-jVp5OaKah1ZOjYWv9BqCU1iKgPS1TDc3X2IQka5iAB97USUUrDMme0cwDmfbocY4p2xY9plvsfd/
-QmpALnwVDyoGl/DnK/64rsHUVqCy368aVxtDv/F+AR4y2k2r1PkDil4CwUGqIAG9jOy2j9sE/G1y
-1oXrTtM47Ar4T7v8VCEEmdiHdAzpe0Tv0cHvQzqSPfqJs15E8b5ESgDt4VGOdmeLthQtl2/oynf9
-Q+jR/D+qPJSYRn++pPclGCgqGCkxcHdRClhG/P/7K1r95nq1pcMZNERqSOuc8zx+yeCA+GsV8u9D
-QRcASW6G93kDZ/u4e3EacW/arD1768ZsCoAYW2kELdbfGNsPgkN8OxQaUIBGoOgBhaC4fH9ZE1k6
-ypwovxEGpu5XZRFlw94tqxiS5zO7FlC91YQnKsqrXI0AwqDsI6Gul3hy+QNbCerAP9/tXxKR30oj
-0Di4BSWEOz/5bXjm3p8ZIViD8r7TJ7XBiKQPUep2Ut8gRdvM/+htAi9cz7oF7VVWnG4A8qolbZeQ
-X6KRgjSoredBAJS/ihLAwuSW07Rt5zOPti2db6jrh9D5mkZYXp+1lBwIlWIQsMsDH80WLTWZSaZ5
-U6gULMhV7MI5zm7Lt71ryIATxZ/oxEPproe2syWkPMZmfQi4mkFCcgYMKO95MwZMYIj86h3zAB+D
-7+et4wN4UmDxyX5WmG8o0PDzbq4dj7BgAbXbO7TVRgGwhjkqAOHA5ILbje43M/lNrMcdqAje2k6B
-QgDPjYgi3Ppq0AsPYVPTsBP0TSbykZnqv2i0REcD8d1bj/mzucUusuL+brLY+6tcWoD+gH2GLDqI
-YsYh+QDAx14QzMy+rUfHkTt+AtU6svEhBiJRxjeZX8pEnLOMBDtOq63C1uXfILJy9TqWTTcYDkYM
-4HgOArhi3VLMtA7M3K6EVxIZtWl0W8Kilq+HVkJRLr+kvrTb/AVU8L56oz0nUXYzLxr87pdegAhs
-G4xzsPLHTskwZDUPgQf844EK6uIizdwavYSp80txA0aDis9TWbIhOrBJBwQgJV7X4pYaFk7UjYdp
-9ni2zeqiTXl4EQEa2xpdc5gWtU88Xa+GUi96q1B6rT2AzrJQqAH6juhTQqAVfs0IH3zX0ARYyFTx
-fOLqaQIoHpgKvtB9e/mFjkjUfm12VXCU1Ow4dWMWGQAcP1tgcJJ7C++nZa+K3obG+LNRn/JxAJqm
-SghLBEyUJOMh5DvtnOM0omGIqnUIbAk1rZqLezGVwQgHVNqmVde2633qe4g/fb/SU5/Y+Kwn8XbO
-lbNnAJnnu1xlsCeUaXeT91DTg86z6gvFoD5L2nTWFWZf98qUGJ9a0sMpZCC4r2inkiNwSKD90ZRe
-FoK8zAOm47SK7Cpbe9HkSQeXoSSBOrLcJQc29+bTxsaFHCIZL4fCk3jEiM34t06Y+yhMxKVKgvaS
-W73AsQN2EHqO9szOpoQRcC0+56KTqGFF/x3GQdqMnWihHZ6mJqWlvCi2iB89nVDxTHDO4asLP9UJ
-m/Ljiq88LwCVvSo3mxNqfPpdlsN4Glw4bpUvWXrsGJnvRQLatBqBnusqiOf2YXVb8XUMphQoq+Ff
-1iLqDyRayAW8wF1fzUEQXyVgUI5q0Xj5A8vpZ/A6PWQ/S1x+D8HCA2oKRXhnI9b1R+Gn4BBqvtxp
-mwALxlLQaO/MRawVhMUpX4ua5iXtiqfeRqU/R7VtvukoYeFhNmIBAtXzzleQ0RY/iiXNeRPQQF3w
-EqV3k4QL++xsPADC4vNlqpdQwkHWzV8J0+LKIQn/UmfhPkJputcLrV0vHJCGa5IP9hzEZHDRD3EX
-Qczfj9/DdY2natsKmBYX6B2fVyHXHzIIXB314fZVazZHqJ4FZI3bpjFyu1GMMCXOyjRiWwd3kZlW
-thUJRX/jwxwLMdCu2q7xGF/AojCKC+WkOkbCRJfpyF0FEu4xXf03YigMgyGmj9VmacD6kL5qHbd5
-k/o5PiT5Mt2ILlHPXsBGxQhKuVZXBv7SYajzvk1FFZg4+YoqbK7iaJxO8BHDYEP48tmF0/BZd34Z
-4PNc2gfZefmknOBRJZ1xNQ2VYBXD+aG6KECHYOK5bqsTV6y3ZaQ7uMc2y74yLmDBbAl/xFsmZSWE
-DT+X4HfPRaSK2ihCL5J+Sr7qInNXbAuVBSOcGByULhU1gQRYaNqrrAjmvhrDofyqAuA0TYHWmVUp
-0/I2W7PhiIU+y+qy3/KzJZy7W/Sk6GPWTj1E8yRO1rjwxITNvqqYPqyAMB82ybfiJEXiKyZ5+8Pj
-hpy6JTfmgA7d3y+qTGmlEgkxzdDCmtJZe56VgzhJQARh1cLm+lBOS/kaw7b0hSk6v9rNbj8MBnhj
-8zm6TlBEnwh2ikY6udyj9Q+qdJ3sVaD08LKReYKJI6QQOIHpu+k8SbCXOaxIhPUFoPp0yM7gUKG1
-0BM7DfDjPkAiFeP8bXQRkik+sizWz6BM5G0Jn+9Z6MfynnMFr4Jm8uByLLlAKHl/MyVkuVAmWW8n
-TdUXVRTJt3iwWBwi6e1N4jkmD+iGT2G8mEun8vW8X+E+AaReTCea8aQBcgnlJxDp8nwLFL2iWN4+
-b1HRPRQQTj7LrVi+YMNvzzDZ8ustDBb061l/HEuaXkF8FMb1wsuxKTYPGx+BpOu4tcF8O4AdvW3d
-LGSNLogc1crks1hM0gL33GBtLhNziaZ8AHDLZ3jDt5JjzebuEOdDcRZCjlFbsSWfCtvGIE1V8D2g
-EaRcVz5Ntr6sPXfAmZrcgG0sroY0tvlyIEj2HWHFKAW9WgPR3gIAH28CeLEex0V9xWdacHB9+Kg5
-KhhmcnbjSgYVYyrC/qKcRfRiAmrWeuxWco221jz0kbXy1MEhmtRlF+aXCZ1VcSwJn0pYhgvRQGKT
-wKICKVJTlBvPK7bBYFDxmE43c4Dy/dIHMse9zsi6qCtZWnDwoVPhej4lkn+KXRJ8zqeyhzXAqW4+
-dLD23LG2t/wANY7vLnk/zH0TqCmFsJDSMDjlVuvtDk5LZbrTXnqQppRuHucBd21e291jVWRqrMMc
-lUudckPtNYBspuvYhO2XNd9gZJ/JmF1B9UbDZg1RIl4uwBGWx7QHMKewjsBFkMK9SdoJLfSZXbL8
-Io0cmdgXWMxoZCvvJCnNRYTFjpwXCcjakxz9pJrO6tTcl0E7MHSb7ViqCv7sFokLQVK6+z5Ghwj3
-fTJ+nj2MC6c1A+BXk1xG5GotmZvqSIFivc5HLKcNwKCtmUE6XDBEO9RZmA8XS+CdZp9GH2TlFuP2
-T8TxBhA6H3ZEQkQprFtLwoql8RnLxgjcp54xHwooT2oT+ogfktCM3dVu684qPoGBq7fFyamKuQcn
-nxsYVqc+SedDu6br9dCj/WuY691Z3MJX3GQF6XKwFUyF50OrBJQiJs19Fa0QJmVLtNwEaenymjOa
-6CpPhhgsCeiUx1AE6rstUZrESvjoNM80jA+t7SJkHaCE64K5hmwKsMta5V1254NkzlGYmcL3Y42V
-dMEfzCTokTEOSDlkxSGm+iltZejKw8DzMO8OInJzml6Hgc3MA2Q2nJ4xWSRfW2tftq1rH9pOvLSl
-SFmFLoHfr1DdHWhB1Ylg7yBYIzIFYUK+XY4+Gm9UjFAJ26myFlJsooL/mIiK85Tfq2nMGqUyX5mi
-T7C82oV/W1q6HfN5hMCidfQa2o+C1KHTq2w27DXJbam7+D5Hr6ya3gKFx3DAeIFQu1+/w6s+fBZy
-0sVB53l7pedpvjdSL+3BONiOzsHntXkVcFee85nJJprkeBwkTaG8JuGhXLr5cqBpcB0NLoG/BnKS
-udWQFZXoipooongjhYHJfXNRNFZIVBt5Q0orEewQZvMNoLJ1ORdqhVtWr8TVcmhZnWTaigrWNAq4
-FNifOdcZLu7gQT/eb1T13ykUSfLEoHxoFObkCvfaoG6wyWPv77MBKQ8M5QVOgd5h0+mPZg8DMZPo
-Hlnfhi/gRNwRcsryNJOSH3ORs9uAEVVbnnVPZOIPIwPo0aJvO+YRZc/zGi1zlcbz/BwTqi5MFFNX
-UeVYUfcAHC+oiHDRLQH32DtbowePPzF0JRd2DftvQxfnLwNtw6chjNcrC01Nkwo5n8cg8x5Bi0bD
-vqQ5UcWMyOuM0hhlK9bGfQwm35Jh79H9xPdN20X6dbZF0COPoIdEBTTfnJ1P6dTPtVa9Q9DEuCHw
-ROYrC+t4xDJSZUHP0utR6Oi16zoYoiLkkSDFZcy7oh7wvTWICYyJzov0nGcmyht08HZUKLWG9oKL
-efmPQNPW1YOIY/KCfXdVsEkWqz0LliFrFsGCs16m0cOu6DqGmx1M1ftAfEpTx14NrKzYHdB4HmdD
-oVOdaRpfQVShLoWH3A+mN1Q0V04b8YpQGdfXGgSQrXo7um/L4jFXMCfRphkBfuk7ojjwS2gl7GFi
-Nr4A4ozwiLV3G2p5IKQ/EGNj6RFZG8tl4tG+VQGqkaUZqQzSQyA54G2y2fRx0eP4nAvr6gGoaDOS
-QJIbs+bhPXQPRQm9Jkq4KlvWbjytqKkusPhN68HJrmOo5EpUntDXBfNN3K1hAEvqDjp5hIeIgxIW
-On1oBTGIamSbdCwZ7LGFmE6WfKjZgBoNiTPoYm1NvewjlNTxRLenSZtp+BTN4aobNBV0wIpWZvOG
-YJnQtKM/BSRiU/IpMzEtqiGUffx1BEIaTLUNCsfoEVKGwZHroZuzuazRbLtEIHmi49rUOfbb1Dcd
-lAXFWBkQF4lvJuspHy59QYHoIP7ClaG4HS1Aq7hyYDRKc1RGyP6pbYdkbpsVUwUEN0xC8aQq6+Sc
-LccWpdp0bjoT8H+0RPRAeuigTOXTIZVQQdxTEoEVPwlIWJepUT4JCLtlRgx4DkkAIathyEMBO2sh
-Fsfl/+BBmRPcR80m35Sic+lTqtKou3+j0QKxU8HLWO6kVRRSJy4Rx7iLqqDk2nlkzMMt/94mlLjs
-BAphw3yTIfJCno1Yu6CrpgL4W4DGlrI1ww6B5Xh5NB3whOJqQT3pbggriU9q02ojh9MG3QGeFnY8
-RCy8xoWZLG9S+P38dBkbXN5W9XBVR7qGHDHm9D5e4PjPDhkw2T6+IMZIxIU0cb+gxEHr0MqjEAUS
-ciCgnpsB+tDrCDJbVO6ixIrpkWyilyI59UvOvRfgxyw4rh4WbmXGNTm0k0v68SBWaCFLQAfTXFxt
-qPyKAw3GjALdtbQUpgoTWSaH3G9xcoIigz+KwowPAXSPC9J5kKdYJQZz5wAdIP9OpgFFFoieTg2H
-OdNwW1oFBaGrtkhCFrJlxv8klC5K+FJvUwDBZ2Do+quZ0Lgeosxcs9B7fhAxh4zWlpDoiGC8Z6Vb
-83OJCi6v4kn4BFbhdZhOaiHQl7tCrDCLEzt8FxuhA5bWhNMqwz5qmiXe/J3ug9WhPgjGAwpQNIiU
-iTQ9qSxZeANfpnsNNuq8qMJ2leFdMfRD2qx40eA3BaO6gn/WojOYtgAGZ6JY2B1QTSh9ZjqEB3xv
-A7cDLiioo6nehq49wj5maXDkBszUg4lkOdWUJPN8SDzRZ6Ge8+fRjgnwypxG7VwDT+xhPPW51zcc
-USjIhiGpWZ4gSoOgDe4C6J9rqO2kRX0URlB8Atu6adF48yqRKMOvHaQQDvE7Q37IhwwhAq2ewdqY
-FDwiVM+CQ1QXeaObYkpLiAWCpTuBosODyV0bVDFUz2dyj9OqDfCy1w1SMowNWn42AZlxnXCrZqFA
-rgUedpOUtCgPDKq3HwFkpcAOmWivAizD+gW95dp9zhlXe9EVR/0ZKpjsQiV52r9iiUTqQWwTdjev
-Mb2GgL393qoQd75YNwchMTUARratd5XoyfpQuNTcrmrscAlw14EUyfmM1TTn4OWGtLwLgR7mTcnm
-9TwEZtE3K1SL/1njBPbGdNDJ2ZQwBuG4Su8lbefjEk3kKVM6rMocCvFOjRvIKL35Ci4ifwOrZ9Q3
-kdEW1qhxAhdU9ra0522moBvW0wahfkthuS/WctxFa2iGazHlPjqCu4cChsTwOzatRUoNIBpQe321
-iBzC77jVEkXB5PV1bIS5aqMQASokbQXSyiC9+7K6fIEfZJlwldBp5S+J6ooW8URd8kkGe8Gr8ZYM
-RAEF3vcV7PUleOBB9l2DDZ1BEwu05HbjAACqLRMiOwwW0ucmJrw/bNLhM4hZ0ecQ9HHR2Fj8s+pu
-OkRUu3pdUv+cY7Wwl26ZlGhGaYs7narF4HBpKtEP9ACBeDRfxyONLotuHHIIOKnnlQppeRkEXfTq
-x364cIHQt1BRsxrq3OgrCGAzwVuXl77uU81UnSP8yzdm9UxXoyoWejBdX4xYf1U8InUn8ulxydb0
-MUDSgrsBcDUgsySZua9GwcPnvoQWreKQyN3M0P6RQ76mHj1BGYHAk5Sk/MBD1n0ZUqfWGvsmqjqU
-500XK1ns9y37tMYrUOg4mulNgYiWJwn9W1tZMz7Hms9PapnnChGngB6hdYeEtbUY8qN6boOVtKit
-XFAHqDyulQGTrQG7vEytCc4Vw6RuVD/knxazzBdLKkFrqny4AiyQnwWUFI8AjPscw6DNXkW0xQeX
-EH1nlY/OB7yaFUkFtlj3ao1wiBonIDw5tCVnOu6mrNlK5DpVvC/daUojO97BxNs3CtgWUq90ktQy
-Ts0B5Ut4Ofm5g2p7DZ866t1TSZewEtoQGBDT4cCLkf4DwwdpkjRZHgqU+6cwoeHrDG/QE8FH0ipw
-uHFgt55ALxcIKgj6k7ALZl1hvsI6stwKQzyyfpaZhJgH223ZBgMqmjDhJ+wHSB4whUbsRg7ZID59
-tcpI/YcB62gKh0ZFIksQkXpdOD8GxZjcsy5OeJ0A1D8XYgph/4QGfojjb94A/FeHQQAOUq/YoAZu
-GzCHIOyf0NDOXNypRM9JigiQTmKV13ilHFSjSsKWDV7fecYlqAZIQeZPiYfI0Z/WCLRk1MQzcUiD
-IKZD3sQ5LDZ+eaC9W9Nv6ZTMwxmbC74kNU0UWQIkDaTJqrB4DdAZgmqDco2VYZ+RBpLocEPZWBCP
-sJAhU8SdG+8AYlZZ5NJjkkxr8ZJN07IHs4lhdCPWsRQ0aIM6DwqyJvBZ20JqmED9CqMIynjoXT0s
-2pg0MBglKcj7Tsw/iAx8rhvIhSChPmix+qGDerJvB+g4kYG223swBiVYkJa1G5GfbVwsaGH62GVK
-Pc7FSi1rIJEp0PeBHe8du2Fs1mZu9IqXVYQHImKj5asZNhv6Ct+CjD0obhKUZNUmOqwMZxQ2a1bW
-AKz3K0mylpTjqWudzeV/TNBuUVr1tECMWgWXUp65y2DR6Jcvmdd0zGpHyiK3xz+zc+/5bJCGSJ3N
-4PREWiU4OlAy76m5PvVgu9s+/z7MYucz+Jv0jQ/liAcezGCl/sK+vlcl7UeEixtc5e50hZ14Twr4
-XX8HbK5YCBxjP/jbEe2brjBOJwXVgM67xEAGbIkLYHrrkUCi3y75/yrM4f+UwfB7BMP/U+LD/78w
-h3f5vb+HOUCUBu7+fwkI/5Xm8D/G398jusc/vH3iV44DgpgQ5BBBgQFNHlSF+1B5i0ndcxygzgjh
-zU+R1gQW+l2OA1QSsKqjDEASzi4iAl+756Sme8QDAWENqzcYigiv4/1vVsUvB/wfs1I/qJVwOiHE
-4PCmw6eZQIv3gf3GzPCcg1H+0ZFNsH9GJHHFpFlXpASgOV9Y5B8ZXAHLUft4xO6jocr75ugo4F2Z
-01lGRxHs1S80k1CwQntFCQq0Yhw696AIh96qVonItgxzFCANAjBjC0YNvT5ySJGbw4yOPoU5UA1V
-tUQE60O3GDSbYGpbKIASNBZojzZD0uIU6xZte+WAD2DKjasLCnqcLMicvva6o1Ai/fYgf92t3zMc
-PogToZiBFhAJt1AmZilczR/vzgx6CCzrlv6AzcKWI2ykOUoRlAdxPFyXLbZMMI5hP/F/ZIb8mi+Q
-AO0irwjQNK4HGRmte/jzKf0MkfvfogCcEtLDQoRep3hFZgyZ4ocHlrPIwUmp2u/hSKCAR+QocN0N
-niIswl2Q9QDPOUQDIasAYRYGtbITA+BnIuBvBSq9S7xykwbsYiRWI990o+2GcMrR4VEcFgTVbI8w
-ScJvBMPBgGCNbRtC/BkvE51KwL4a+NRf1rb3cg/IP3GTU7zoriBwY2eYC+/XNtoNrg+GcfpBVmxN
-94CHgvmOjwiMu/3z3fsoNiSYNNB07jIPCIpxvPcH8iOX5Yas0O9w0eLFiQcx0iGB+4TAOu3inCWf
-Vj3vMRk+S0d4gwXktvYO8nAowv58Ju83kP2SY0QVxDtpDm0UFLfvzyREXi9iD1n2HYInld2kwjPs
-1ooHaDsuWp1tiM/78xH/dZPTGK9VhZYYaXf5nnL5/ogICw2AvObxt9Egd8k30otd6WmLbbe4/flY
-+yD8bZDi6rBwJVB2YsAX8b9yKKJ+GgfRp9F3F7a6T35EHuhdd460Koy7dpb7LR59Bt3j4c8H/vdF
-Ygxl+z/IDsOi+2Ffhi4MWg826G/Y9Q0ywlg+wsRMo6DH3f3zocJ/P0JY3CNSZAjzw+JNPtxQBjvr
-AF0K/65HZEzlZ31Jp4cRXISESQdeyVZ8cuVGCb+aezXt5jHbQQvJdC4g1OIjFkQK/o/y8jNSzHLg
-LJ2dovFqsK0q/JlZE2j1zv580v96MHjFF/LucpB+Idmju98PgrAcigiqw+nb5BeFs4CdcIDYMfTI
-A5tnniEQjXI7/1U7Fv77wewhXBB0wUGQwKD94cA0gENaqDR4hVw6jLa6RH9ugEcUAorzOoxHgORn
-mCZD/hW8OTjCBmW4QpIbTMuR/dLD0YYaH9b5bUGEUMjKYzxlENSl3Ce6aP5yl4qPz3aXT6c/pwnS
-Uovw47NN21UobtT82hUwUSGbufDLdqtBxWFQbZ603p5KLSCBhfG1x2zSE8ruANC091gsyyFp/TcM
-QM7+yRA3gm/oabLb5GyYzOyftwUY8hisLqmD0u1JtyW6JmD6OUj4yo5QQSPLUy0ZtuEpDi2eSMfp
-vkQHGhkqvok8TPef0bMu7nnzewkBkHejuBcRYzu0S7Z+97FFidxzGGUHyPlWZAnjP7LVhH1YwX2j
-t1tM/zJ9mpAtB9kg0ihwjqFg5QQoDtjPE9pEwaaDyRxEwdsS5/aLVXuUg2b4CbyPALVxS7oum/HM
-os7timoedz0SOxnAtL0nKvAdMQyCjAGr8mgtoR/RK3h86L7Cfhf59HCx8OyUWtctnxeALtjMvHR7
-PIOGuQKJEKwtcej/+rdiOPORC9V6kd3E4Ezksyx6gHs0sbK/HpOpQNcVajdddmhhzIUBuYSx5EBk
-4db1tkciRmEhjYUmmSKJCYJ34MmYbaKQC5qaOZkEXGm/LiBly08VPF4cnrGGELpLOFMyYfhp1+6L
-2C97oNR0l7Ajft1zVuvd2vzf75BCBuoQ91CadMg6h+fPVfH/ZO9MlutGsmz7K2U1hwx9M6jJ7S97
-ihRFaQKjKAl96wAc8K9/y0llhUhlkBZvWJaTrFJI5L0AHO6n2XudVHncg9HJNIlhblM2x8VpuCYU
-yPquukUhuXNe2I78AymHtDipy35EEWql2BSqrWMERG1LG2stW7sEHZfHRq+XSxMBrfvpYMdj0eSx
-n1cf68FrAuo/jqOXC00+m3dqQgvGqklwO/LMEJ3zC0l6rBjYNjy60DkxXJivj101T9zDZp5yPh+d
-L/Cvm7A0oVRvVABiFxa0X0/a6KcY1xJucmt2+LvFJ1rkIvKo9XH74s+tsYQjK+AbB/bELrDt0Qdz
-MY0d6/XbO53Ln5LQ6RDbRZTZ+C3N0mjb7gjWij8ZyRBwdlF6H/hK0IT1B8kx19/Fjcjt/bVPi3B5
-XMIO987GwfToHiY/1CSsvMpCHbfFk1lkF0IneffZ6PIHqOaLzuJzN9L3uKN/nP8cZ6lpLCoM9Jor
-CQHdQz7M8A1oI/h6ierQerptw5r/7ayw5AUOsDHAGxFKEWVgf+Q9X/pF6c0jLQjE8s7RTJMU8gK/
-tAcexZPwBHEjFbfWcqbbICuQPG7TBoX4cphmU+TVuS7i8gu7XvR8P0Usple1k2U6Hy8ihYEDrDOV
-qE1u3gJXy6JpY4Uugl3g8GWaqx26xJ1Hw7N1dkOxJK5J80yVKSVEs1VX3kL/3F6HAiS3u40qSd+e
-QIGm3YXveVPRr1JzKDtQ4ehdskt4DllMWS0f9ROuM9wlFml+ICbjmAkTzD3tkW5oxHouhTAk3VcB
-IxrZiODZdG6YNd5DLXCFoyGiHpIwp6HqYheJhGiiOdRURBAvWzZitpvt4CQ5BbKkHZso+pevEdfI
-kB5iJx/Rtq7Cgm3Wf1TSMzDTsdkuXDPSgUJl4D7SOU2Ts6JJRyu4GOZI6MWTIdtkJQ5ywS4ANEOv
-SxPHAWsodjJ6vKeNahR/19nTiHFVefid70RXc5c2VcHzqFezaVhjd0FNw2bLzetu5CnVlqvnB8CX
-lfyuqDP1Ljhy81m5Zob5edqZQyv5l6QwWrsNnlfvS4U5VfN1NOQ6IiStT9ieWnf2uX9DSifpYuIu
-8i5Y9iBYUFPXO0tz5OlrLX2IlMA9hKVQfHGYQWBL1i6sAr4/2yXH0bQwh8CBGOu1vHmhW+pDdhhG
-rReffS+DQhuE/cL+sISp4V7O5gJlgv5o5bmHthtqLils+qaH1mbrEAu3VLE8VmFHNvIrD2HX1zcH
-45QDc7ugJdBB3Etz6RhH0DsKGQkDPJJNF8s63kKSjbubX5iihsN/2U6LDPjGQS4N7lIDjYUXOx8V
-4fQhzMYnUufzsq4yqf9ucSm52AD1Zh04o5nX272g1KfuLINV6aAgwtcpV0Siicn7aSQZb64bxjjT
-VrBUgvbCzth2NyKiuGWsAmUtOHtrWfY3ZjWXty+QMX7dTsXOb6axffyTG4MMLeu+Zuy5avd3yBiK
-q6W5okMEL7t1PMnoj/fxMSXHKmqMYbLWHc/oHXyMGyylDdiiN5bhywuITN65xWysotJeYrgsf8+S
-ibCLm/0utpVsTp+JMv5QnEsTDePud6pMkttolLLAH4ITsVBEXf0btgwNq0DreQIb4eYbhBncwVY9
-rIYAWtQ6jeH6XD3TZqgU9nmzN9tgacH7Uk+dX0BnXMMV6m6oWdUrr/f/Qs8wTCPo2z3tnUTNK3MK
-Wn8T/f9waHLPGcf1GLRNsNLAhsHc/wMaTRMWzDPZWB6gDFqtzuAYyQW2EASOV7+ib3Mpsa18lEnV
-oDWWTaYP1LZyqtb7JBevbd1NG8uehmljmgkxyrPNSsSm5IXBF61jTfwZORGUtrXoYyViI+Hl7kId
-PvYc4LwOKboVtobKM3WEmRlLbMWMsSllUuoLa2V4qrpE27S8tJs4emDpa9DJUHuJrfZLEPA7d6NH
-M0gzvwudOQS5pfi2y7MbbOyqzL/3agGPZI+4KSiiPbQGag3t2Hlsk54QRPZhgePF3jPoiyhYmsRu
-YLBB07CX5SEsT3kaGxKG5oYmj2dukYL4yjkAMMDGdaht8mzjWI2VyYUSl4TUm1D79npDrEqbM1pi
-xiI0kUz94AbRO9MnJ6SUmW/aJ2nAZ4+BChpIIq6nvYZ0efToEo3SYqMWMOj4/gLKCztK4QbaOGjn
-VsQ3quNWWEz56TFbZPtn35w9jL3/TeI/b3a+nQf1WdLkE8fi0LY6lqrbQIcsaTRoxxxD7fzB+jka
-YgEujHCSptCK85C6wSpo45l7G5m9x+1nD9c+iOap3IMnQ59Sv04w12q4jwW6PXY0P5L621tOrF2f
-beLmUbNfMvRQP8vR4MayzeT6G4wgilg+/7oTqoPbtBpbRxGRBnXKb2yqQYtBCwt6NvILA3s3eHST
-OOCjV82xd1/SxirwOOjHyIFpWXekf+NwG3bxzBU7ea2RbjQ3A5pndVJMMr1S6DHi6MtUBB5COlq1
-SSWPLuEow2fwA3FVlmp18anvxylLj61Z66DCHHJtX5VQ9DkUQxRW/n1Fvc6a15lE4DEwacgmSklw
-ZnBcTk3b997BbBMxhVdqSO0mO/NjRLL9YVGufg8cNBRc6lQQZN6WwtWvCA4YXfAC18o/iCeaMg+5
-VZIaZ52lF5gTAyGy950doMDc4H/Xpyti4YRDk+40geoaWDdRoM/0IeLNwdfrETwjsxbWJneAIQgq
-gOK95r/rf01UQitLlmHAcWmlfC+K92mgQ8MCsbgO5p1Wf9vn16MY6MPdlqNseKi9gJ9QYcpxpuQr
-bbwk6w/wDnFqr6uOtVCus4WYIN+hTtJrt6ztqD6vpJVMA0hcEVq0WIcKqfKmZIARz3Y0porPqhVy
-plvzCeabC8ZQMN9makj5kiDK+oepB9ZRrUSBAJ/NZYEae+ZKayhwQXg266zCLMqdRfJAxmYiIeWB
-CDcivCTx5Dmj41G4TaVN/oQZZMF7N6MVKR6m1Jq5KfFz5CMScyLWEE3Yc7XZDAVl2f7KiENVM8Rn
-NyeJttbVCQYK9ErkLKiUDBT5j9pvqK5Mxi6ZaydtU9IRZIrwHw4Q0Z3x1lelA4zJkBb330gjnXQH
-Pt11Pa/C0kk+XR0dyCdtw/qIRZzw1IaKgm6zmUNDReusn7yaGAWvAUQ7ghD2AGV15LzHjkleUuj8
-geXke3w8pb1Y6a2yZU/2D23g0QrcolRh6R8sLAWkKoBulsfnV6+egM7gvDCqCIcQoC2IW5thwgnC
-wsBTwtc0YoyzLMnADGV9abrzXHfcEKUzbg/wKTdSovjkFVeOTNpz3y9cgtdF5skea+I8XvtzoPCB
-oJcvD6GwySk42AwXyJwzo8YJdn5ZNPyayB2Yy7XPu1pHojaDsthn5HPWOBdJwVva5ZPFJkXAP/po
-siS785Y2ts4CnxOLMlb6SzegY5ZkzVvGcIPVECoyXhc5AQudJMlk9cu0rnmkmTXqr+6zhTrl1krZ
-84etMdcuzJeW4gj/UC2sKNhSesMaeIwMj5pBD2VPCkKh6AykDtBCp5l1hr487xzRLHSgW1mFXpVv
-V43+Tc0oBMAaOTR0AsYcv6oHhrNud0al/DbHg84zp9QoU2+D0LwroTKNPdf7zke+rqpRpqK97DHw
-zkXXTuD0spy3YK8KYdkN3zygN+zwz0ujDA1d2X376v78KHzLYBEd3TCiNfWqsgqsslUT1YlviHn1
-/tT4rsNMtJnNmr3r7c96qgb+Xj/WUIDAcjzsy8D4/uhKIY8Xpe7Hf5udaiSRoWVusxK9wU15DdO+
-0kZthVateBhr1wPoP9KGZqBRO9jk3VQhdGcjIuXVe8/zzvyr91GjcNIhUuAJzoTA7yR/evvr/3Gr
-wH6aFgBm0yEdt19DOOc+roaEjvsDpgL8yFsOKJ0WcriSQr39UX+sOYfCcEQriE4QvurX9W7CqAx+
-qt8+MN7JYRRBvKDNuQMyoF8RP07ku0vudQuFiaoW49ZtZiRRYWfIwcsl18PYChPq9w9g8PQehQCW
-KuIIHY0Dwo70mRVHsCQJJhb+/AOaodlfsttV3vHta399m+mawoKhSEublGEhr1ekrIcZcW3ifKUm
-Qd68pNCsHsM60On825/0+i7bHiANGrFwYQI6SK+L1wWBIfze3PrKdMagOB/aUqfmWe46HPKpraPG
-tz/wZbOfpgngFcrONHlBNRA06Uv/DUHDfBHFZrL0X3vER6wgrEx6m2NT1PyEuO8g1CEZSpaUOXeF
-l3Iyvv0FnuQEv7+BhFqaFAGCjhnIXPrrncVN0tJqg/prl8LSq7f0slSxpeqRRjniUh22TH2qQ2Pf
-dfX+/asobniDLnlVPsC39Cifb84vxAil/4W3uIHsSragnpmxIMuaEJ2gM6DQXmVWgeVba6z0YTkt
-Y8MwtjQ2efERUNFDzzdDMFI8smDVyozwjRLdFjBRZg/HjNZyiCcE8ycfIyahwy4DzzZZjMg6fZwD
-HiS2AZmkj/i27VF7roPnAr0gtGfXxD6qgyYsIk8Rn23pYDnOETdRtRGA2CiPJTmE6BN7guNLkaUu
-KMu+ffv/WHDarGvq2Q+R7fy5tEcyi9Qw1fKlgcNHzJqA1SXhiNSgI4BfJeu3P1K/ty8eOFstkmN6
-NMhukEm9atDQKFu0jlx+wZCra4xjFvnFuYf6pTAuTPEE9nXLaCSJmi2oaxRhy0p/m7e/xusrR6ft
-MjcWbg2XTeP91SFa+10teZbpl6Kh/HmSVf1QfbILieLeFsM7pKfXO4gm/AQOBVDfQcvovh7/hOAm
-ydJWiK+TZp3deXmgl0Wetzqyevu6/g0Qm/kGuDjB8nAuABt4+UoncoZ+Uk/2p1oMZriJR8uHcJ1Q
-RiXTzXLJ6bCi4V3xfwIKNqzL2XOiO5I1rw9XLWVdSjCkPLp/32IZJQ61lKsD9YyRpPdg4Hkr0iZH
-n712Z8CRPmI5v+ElnEJfl4mLiu7I7WRYDhdngDfQE1YN3Smypkrv1yQExdwd0VZmS7mrGzNx3xkl
-9ep+c4eBSjkm7yliuD87ph5sggjHxvxprIC0IpxuaFUUDFtrqNO9fb+dV+tZP1M2L8hCEToy9tFX
-61k2LTVVy41vQ7d5+qzRo3RaTIxI42hiq2cLeu69l4h0uAv1XOsq6a8/9dOoKwQoMLm5nhvoeia5
-oCal2xW6Mnk0CuBf6kzwqmKHy9qqkPsFMRvvDgMASI8zQFakJb8af3SLdBPJKHObd0eFpuLvpqbS
-D1x5OZ9iPHXHg+fSxGRRAYUrq2V7tB+fQaPBxMbfbIY+04XlXy003kjWbk7Pg3MvjqlyOKvFqiQl
-kLdvafjy8WnNG518aDKawcbUDvPVEu64gik0mbiC3SK4hz3mIUOmPXrwi7B1qfEzNylx5whzBoi/
-Tesyb7Kyi/JuguyKlBwTAk3ThEHGxhJCIAfY+SkmfxVX5SymdM3cQfuQRfl1VQfm49S6ol0BvE2Z
-/Rck/uXkxc1pambinBMpVWTr6VRsDJE7nxV95Okkxk8Kx7uMTHdD1bC4M5QxkByUM+YkSFFXLqdS
-sWMKsHMeLP2EE2jptvTEy7uUHj4DMG26BHk7AJduCkkLb7DKr6gmvNMF1XqGL6UzLaicfXBrcz4/
-tGljecj//ZQSRiLEHrNLfSsDZ7zLHAepZGgabo3c0mu/FGMkvjNxGvucKwRhUTwe8nmEekCTQs/h
-orm8nmWUGSsYPdMJ+NDtILGFrsI0zz+Poe9TNY/HYjPIvrlVyOE3hJ/aGmIY7tr0zWt3WMxv8OLE
-VytQ7qd09MZ1ClGfsYoi2yKDzt6Z1vZys2ZB0FZmM/MIFTSn5bWcpqH8E3ReUn/nec14wUHJb/2y
-0cNqe9P/9M7ye3FAPX9YgFBOH/PEcK8jkli5hHZ9VH/3zaBCIzSbt1bd2gK7IQMEXWck/0ua6poW
-YVC8E4/9sfKfLhOtDi0bNvHXsonRE1FTuH31vasZBAFaumXQRuVg+nvnmHj6TX8dw09X6do2+hxG
-NXEgv04iZ5yqNvrxFNxAwzvj2BwXq4aEJ9vMaRl8rO0q/piJ2GihaXlRu3Hgipd71KD+Zi4HZF+I
-9fzL3u+jkxqH8SfOW0GcNJbDXVURvNhDzbhfe7Dca3PK65/V6IRnNeXZ68le7M9RTp66YliK2QJs
-TS6dKmIdG0HlU70p6MVZMqKw1kfL97xJhnUO625nJZ75gLjZWSue3zux0CsRHrdEhwGEQdwXSHZ/
-jFW1mLI3u+GivjMVkJuPPSndO01eHmY1P+BSQUbPMIjNaCfwTbve8A9uvXjvghH17vbiyWiUFlkd
-YkCEY4waeHmAWwW8MI+C8fdkBGBPOa0vUKd7QbQRdEnAcLvwxIJqmDETGm3FgICmOjTUrc4nnKbY
-O4LEuFRW4h6wCFE46+Poa4W9DMtMYZxnSx2cLbhVapxqt9RAy0tQ8djWfRpjTI1joMa5RDkdr4M2
-Cj4SNk7NTs81X/w8u3CCNtsXVIoPWdK0l5U3lMOmicWISSIdP5meXVwbteao+LMld449SCwizHO7
-lWWU5uu0M7mAdIbcA3ibFkCQdzlAfs7EG9czwrMsXdzPlqaqMt0Bq8M7y17fu9f3FgQT6b5PNhvY
-+v37Ld8ZKQnz3AMwJDirL3Dt5Hdt5izLpuhq88KS5BLvfOKf2KeANAvVLXok6K/I1V5+JJ7wsoeY
-lf/I29w9oWxmVFAoFuOUQmW+oxExsNN7Sf8d0Gd5lyXzcJZlkXkNWMbZvb2zPc2denn5WtsNLwwG
-4r+Dm8rKA3tW1z+SmQYDeXsTf216hWEYrrEHNIZRNKuxauJyNXjUCjd56jM6FznshjpJFK1peFbp
-pm98BrwPKPIp/VJCrw2Rnhd+Jg6d48wX/pgmx8QLEnfVBJENgXqxGCiYtGY1YqQImzXoMK/dG9yW
-neaknTNYbOIfyMA48yGEXC2z5DjLgaXsEsnpvW6srDiraPMSUTrVlKzKroSnMsmcHi5zMu4YD7Fs
-iUXEzWDP9TGtSgfTfwBNm5VIu2jNwCRx5URZTcsVRd3MQAz6SoNflsw2R/twLttICKBNrY+uNsRr
-eUScgjECTrz9GcBPdo8Pc/jpZjb+YjHl+PHefjp/7j+slOhpSKwFze2Pup5jM1WDiSbFDyCtZsCk
-5Cj/hspjYXoFj4ycKviuxKjt58a3hbG5TLbxp7Z672u8VGqzDbJGtQSZoy+MXGoDLxcsSilRCRWU
-P+LKZ2je0wPxFZzxs6zE0moqiEeAvsfd4qfxto3i+UvKhJ+WdaKs23fuyb95YeGKUltm60Br+Vqx
-q6pRTg3OkR9JYPo3nW+Jj3ZpGJuAwu4p5+J4MZbdcNK6dXUsZ8c6H+qAg4xJsvNVhpEbQXINwz6D
-SvMT5XznrUIGmL6HUHuZA+hb5qN39XjF0UyTVL66ZROjt6qoc8cfVL275BORhSfWVBJhEghzurB9
-RhOtpFDQrsLea36mCvLPSsV2K/dO0Ig7LyqTM5OpsJ/sHt/peuQU2PV5X3K7kzxYQ+pgNP3Tvf1H
-Pov/w0Mz/9ZnQQipJ/r8vdHisigf0qZiCNPvEzOffuiX1yJyP7iUS4gSHQrIxFCcI89eC+Slzgco
-Zqg6n1IYsv3/NVs4gf6bJySnr8GVv4wWjvOB1eNBROGb6Z8L/4nRgsrkizOOAJKSNueNFu/bFkWH
-V4uxn4qwnn2rO3FxBBO6l7shnYYdzuPw2kvrtMGBlxjIvwSywG3R+6OBF8LLv5eUY9ECzJBXVL2u
-qiiL98wbcfpbeK3laZhEWX41+HX/deqz4Iun/PoktZLydEBjuYmMot/Ai8qqE3uOEa2gP6KVlNdn
-OZLE5kuN0eucQlur9tVi7ROpJgR8TN/ZVZPs6dRCKw4PQE0w2w3d4t9Pch5DGi9esAHYmZ7liPDc
-rcP08HqNrizMHqbBSO9HpNjEP31TJDusgIV/NuDTpuRB2cjEUo7cLp1XlYSfIi/KFONMsAu7UrVo
-vwSXm86iD4hAltyNDyRHTj9vOWkQPZ7UkLvpSHc2UYMHcjCoMFbaCkTPKi65n9jpFzYoYF8Mq5Ob
-caIBjWAytsxHKUsh1bZIM2YE0koTnsKnQau/WCP3hc258sea06wOqT6tZ7zJnLlpqDrX2nh566p1
-4TPMCL4B7uOUzQJNRaPy72joF+EVdAgZXLChIZy5iBuZtrGHNRL3F8SFxtEEsn9l4mBeof5xVvSL
-+1WOK/aY0q/ZA+mybxBDjNnKESbFT6uW10yX8nZ+1C4P6DyLrSzHcr1otl7WCEY1hFVx1huZs2cs
-UHVsmmHcF/XUYfurG6b70kU8hvgqA5ppu6qqyRj9NLkkyYK/kJYzzr6k2ABsc1Y5Y1cOQkXxdV/J
-6jNemqFdFXEZMixhai/L3P/EwKfk2kk6cSXTKbgmB5q+pJjZN0lkxSc90INr1kOzW6YmuyvFHF+V
-drN8xoaCJU2OI+wI+CQbGCPBRRQV8R1+W+cwp75xyQz6eVghaox2U9A7ZzGa0T0k6kwx77ovlru2
-C71VgJ3vE2dNfQMkrrDAtuECZJxI56ACwAA+r5tFqWPd276/igZRbWE0DEeJPXRPNym5c2jmnkYq
-SHHet568pYUjllXY9nHONKm+/Gmh1GPiTqCIcBNO9y2iAoB4QPGvmMUXHHvp3eZdsBH56Dor15mD
-M8zk6A5RJ5T0v9EsXI5JYp9aM2MMMKJgaM4XnvWIL+EavGF9R9u+3tNdbb9JO/1sdf3EtIwwPOFJ
-V9ulxQWwiDY8V5gdr2MO+ZOaWQG3ieWo+9FRVbVD4GE/5k1vnhoQQEF7dE5wwsC/aMeAtx9T1MUH
-yzO7bYrokScY5DeI/sd7pKrl5wUd5GdHDhljHbqw+NwZNbKTgjeMueXEVFDat1Eghx3h1ilYYqQE
-lHL2lLuXyzqqvRM5iwgf+IIDf8XPGpdWTtilPMU0NUwZ2RUyzlmbsmdGziQ4qSeLQeupF+LOzAZD
-bFyjW7YN1c41op5U3xeigqBMwRmY69YT8gTKDZNPFs++c0FlXw5G/ylT/U1Oivp99hrojjB5TOiA
-0gm8tU20fhv0uXta4Q8+o1FAzSgX8Qbq3RHLUnC+yL7j1RjFDR2HcuP1ZvPoj4AkWqmaK4dBnd8Y
-9NZTBjXKeYXmtT3FhupCQnK9td+VtrsCrUuDQ0XJOdaG8cvgGUwXIUCNi8qEwGARx+YzoB1mRD7g
-nc5+lMCUaUB0Z/YYyy3N2Rn41ejc22mcHdBs2+FqlnI5s+cWj1vhS8EUdZucvnBT8p1uNnZ9o2s7
-AC+a6yIX0KnawUJoTreeSeoZeVgZ66JaWsERPdjpMH9spCsg5CTSuUH/HX6jgmWg28lG22GQiIy2
-YNyWj64Rh2fNVHsPo8f49cinfMUoRot9bjSd+SqxaD5gpk7FypaueU5kZd2C4xIXQRKNWHRHR6JK
-YSzMSlBcbip4+CjPrfAMXweQpEwULFEPVpU5PzJvvv5oSX85IiUTa35psk7ymAk6RYv6qXPnM2Ow
-0V2HbfjIWBvvZ2O437O2s5nTjNphrQe7QG7LkTznBi+5QRY8p+F55BTFWWo2PmRC9ZiaeATRvDQr
-ZBCfGrO/meGVrkOrB2MRU6ShO5nuMsvy9mamouvO6put4dspU7CEFIfESC9KbDc7Yrx409e99RkT
-j7vPqWvseN8fc1WHHztbSDLlEjBdYLGDpH17IvMCHlsfe+W5Rzls7Yl6Om9qMzlAANHcBBphe5rE
-zTUrt9rUZiSvsqXpv3cz5NWV3VolYY8b3iV+7J7wDSkvowVdN14Ls7EsvApor+HtUGo2R0SR9ppW
-zLxZhJmBFoR2hc272Q/4GzbuOA9f7L5PN2XYkIMFxddBWN9yHOBrxfF4NskqGdHqocJyw64Ci9sU
-m7lK4dM6s/hpYTXfgkAbb3I6U6Rvst82SUi9NGxCiDNGfJNNlrig/DbsGaPT8S2y/nKihWFtc4ZW
-JSvXrkIabqlxlONpn7np2qvlN9Tt5dcOFT1JY1h8Zw6YtV2AgTDpPvyahuWPvsjE0YFcsCb8Ljad
-x/+HLjda4TX1D1M2mEczL90Ntg0KzjTVzxRknseIGSDsnamxHzzSR5eq/DVoC+fEFjls0SHvjiMB
-yXZEfnFw3EbsgpnIi26Dty/sdDpFFceUyHJu0dZYJC/moob1DO0WsbCoHwdPMrPKLW+zMbHW45L6
-BzkxtyHz0DnL9lC7IBfNNrJ3VIEfO7O9HnFpI4OvoYLlas8WbawWx7i3MjIOHDL44plcwORNE1qG
-2VwEbX8dAM2NRLdXkiQchqPcmGn9MQRUdZI3KtmBxwgZw2faKz+r7RUQ2ROhyoTJhOW5UxnGx0jM
-cl/S4TmgdU82yqmujaK+YnZsuhsqOKGqgbbkl8t1NI3WBtRMuRdDSxdBtfUGAkDIXJnR2teTo9iE
-A+fSGGa4eJER3A4uPBWVx80aDOaPDnPL1oNvsMoQXK7srPU4yIqU88AZryVls8cM7ss2MFh+DVIr
-f57qa9+YmLeJrXQ1eaO1NoH8HOeqjw55DQgmoUlyUg3LNWTfr1gqnmvG/8mlbpf2x//899/mUnD2
-yNj/PpViflzTP3xvfk+lnn/mX6510/7AMJYwAnDgWw5ahN8yqegDPScXDy3WGMJ8Epm6gQ39P//t
-Wh/Itcm7fLJt+te/Z1P+B1IfhoOTSXlISMzon2RTT2XwvypmnokmIQxAZDE1BNEMbviXxRCzSlts
-WMo4BejSYQa0MBcv430/RW7dn+QmFuhuVUQhvZM9hQc/886cqKwAauNj9oJh5TWL2yYnGi1UOOe1
-YaMAWVZgihKT0CYs+0zsxyIf5nhfYC3LsjM8gRNIHcV/pXXDJDQ+i8rqJDuVcCpW45ye0UkFDgM6
-NQwM0gZDrgEtQlk8oQDpgLp1pPbEdDHWoy923aNLaHx8mMsNSH/ddA9dim3XYTqPaXSZZcNWPmcg
-1VM64j2lJuVznhIsBkkLROoubP9TgXiuGLzz1lA1sFDi/P1rc/FD/tfJj178WH5/cX792K83J3A+
-sBujW3WBAGgGExWFXzWIwPvg8V+obyMkYt4cf/PXi8NrRgcN4Q+NNBArf5Uhwg80zQEd8zfmk2n3
-n7w4MCJeliFcJB5mQCOLtU+5HWvayzfHpkRYOYR+B1h0mbOue4SVGK/64hSIonc6m3033SSeiAnE
-M2YyMn19uCaFm6p9ASytWPf9VELlLaIMmtiIaGHswcK1oHmTJHYzjhlh7oMC8G/CgL+1mg15kRRM
-mNlYmKtuZ/jo9/gEH0prWSf8qttJEzqHolHXeLdvmxaoJiisgio1Q5wFk+QCseqdXJ2jK/W0TSa0
-PjLZCL9UO5j3UWEBajWMzP5YA2k7EYBGt0SlEGFbflD6gbHljZ8vGEEvNpZhWR+ZpmZsK2FEP1G9
-NiYYamfGmVup/phgdeiJIov2wZmsYaukiNbKFTleXG4UYlP8iUH6jeePOMAQ/LS0pp54tgcxjXQy
-avAXjkdV5O6aPjA/KDw0Q7BIcfgTDkZV9HnKsVas6zI076kLqHO/nSIMlZE6VOasDoMU/XEyRj7d
-CiWnK1MNdyIborXMGmdcpUys9VYu0x3ZaISjDn0ejtXGbhPjyzg63k045FVFIcOxzvpQALWTnlXe
-LQVD4ShNYOrtK5Ccq2I2+W0lk34uw7Y0fqpURuvZ6eIT4B3pd4MU/qJlgv3+6fsRJ/dHVjYjAXL+
-92iXRF0rBthPa1QYtdyZPe39cVyAqoat2mXod4AjLQN68mnUBrvMPkvQmCCWGAeMrWe+Hac490B9
-q4MvBibSp15QZHuHac3wmGJwhzVMEeAWzXHq3cEml57G3ZAl9n1r4MvfWe0SmnuWijqMxDr3pBGE
-TaMQlEd0ViGER9+bA+mmqVTJzCKnvEnbfrnv2lScMSI6us3VFO5Sx+59ei0d/gxvTE7jzk2BRyGk
-gObDbOOWh43ttPBXKPAR9jZcZI6abespW9R7D1zLqvC6Qa78aPBXc96qL6qWyz50RbRHVuD8lL4j
-0ZH1FeOuyeVnHJc2qTPeRHNIL4qy4XdF2Cgxlfm2tNeIa3nCq6lvAPAOjGH7CCdgOccEwej4psg2
-ajDj88qvMnhjxNV7dGrWDnKdc4d0vNhTlzEaTAQpGO55yKpwX1gmXZjGvac5OJ5h/Plch9Cq1svU
-kYhjrjPUdirK8wpGL3o5y/eZdabiNW003CJmUZ8kceja5FJhf6lU2VxBqaiuhcEIVAlE8crLXOtk
-TJgratlMEqmQQx0UjrAtciB1krpdAWvPls5alp7zabZ8pkRWS6jRtD4vKgkCMXzBi2HjJIXbRrGy
-HqZ5q+uL4HjjXK1HKYw9AhdxPjpRfjnj5z2tDeldDbiSthP1VM3tFebI6N8yzlehEblnZdRlDLyc
-zeCe6TvZeWxZyePS5zmHRnPERgfqrI2KTU1QJZHaNPBSFwa71muTn3lQXcRLb+T9XB/QF3Q3RONt
-vpUTWMYxnZwMMVWtPs3ewkTpvEsvJgQiJ8psQY35sLntLmDcNTM0G0wANNuMbQ3MjbkV5eBimK+x
-oow1lHnJRmFREJEQvnx/OWVMR3Odzkp8jrh+5+jGas6PbdVoIpdKKDfEtGjhpYyUeUisBmjVXsb1
-dzjUVBo0FtXTtl/3pZ3e+oxAVih0+mJt91V+Og1aG0m9GK8rgiRKjn4r1n00zfsUsvdaLtVDA9Br
-22ew4pq4Cy6aZTRui4LxWavRTnHVyjl3+IhyaMkvVX/Vh0VxEtRgBhvJZk53hV1J+GP85WlnQXgV
-/4zmqjgpqfBubEtZ5vNb1PpsWrNij+plBUEbBKS5mmxGNq2ChROGvma9x9rQH9uacgyvg7Q/WihE
-N82Q9vOmJuFzAJEVCmeihMacSiOqLzjtlwvR6+FIDeO/trBq1XkPH+NZBfOfJOOdcAkqxpv9GsBY
-3x5etmuef+RXpBS6H0Dw0MlET8rYF/KF/42UwvCDS62RPAGjucX//pVjOB7dGroxaDCQtHHOEuD8
-q2NjfrBtrWL1fN/3sGJY/yRUIuT6TZNAUoHAnaYQ+n0bOf8fiLfcam1XOK5xiNBX5ai9F04ZKoq3
-v0WQV885y++MKYK+Pz4GORNYZG2q+ENPryzRLwyTMCi+uxYuvgqGJtXJy0qCRHinh/yya/t0SVTr
-HAegN0NcXY/H97vMgmfBAO/JiQ+L1USXpt9P52R5zomrkG+1nCXvqSzgRvxxefgT/h97Z7YdJ5Zu
-61c5L0AN+ubyBBCdFOotW75hSLZM3yxYwIKn3x/Kyiqnz6nMXXvf1kXlGJVpO8IhAv41/zm/yR4N
-54xPdEDftmI/OTtI5DgCCT855sSVqXkQrbxue6JtOywLrRP6rNOfeZZb5l4f0wnUeFUVy8EFYt4c
-8JaNoTMhRe1G1UCELMi4QUxgeFmCXn9rKCSjOoFnLLDV4DCvfX5gOW4i+qnmDGWzvq9KokuV1stP
-BiuyM3WABOETajKSReY3dlpgFLLSJgM3AgMzT4clFmwO7k0qot8pGAKGhfHr2evSiz4ueTx7VROO
-lFccVxMGmM3q0A+zAgHEHMb6x2qt7S2Bq+KTqecMjXpS7R2RNdBJ64mMYDMf9TYBbrOSI/Qnvd31
-4BUIOIFTr6Q1XHmGbG/QfGjNJv/yqlepdqzcjY/fa/NRwFFCZlNB4sJDNNtvg1/X1zyG4QW0a4aC
-JGYgrr1v7wlT9S95qQUzIl/We2RkvGXGv/4SkKtYhuus6Yq9h6eOu33CdR7qWQu8X7fq5g18WfcC
-gc3/XASl+RCAXMzCWR+C74U/0AZjBL1HbQ6iJO7dIlf7HmMozTY4jN7KrEKXo+mlutUrWOohS6b2
-2huRBBesGs84uSjgS/I+grLPtVeAsWCaLZxbOsAfMpXrYaKK5SGjYDseDL1/qb0WCIDS5d6fXA0A
-XOvW35mksgNr0+1J3kUp7cVXaeCP6LIrUeV44MPJmqS6CJB2n23L1O4takyv9RUczW5QRolfY9I1
-BLEi0XdaSyU0KsEpsalmmebtqbzgbdGLdPyeDiSsSmMpqnhN2a7GmsyDMx/BQDTB/SZkRdRuJuIK
-UW2nvOo7OjqjYGkTXZaKREH6KRgAmoqkY6vV+YgIWq1ChDuEXnIAYZDkLnlfeVVoPXslJVMaY3W/
-eKWclmWh5n0leWpFWesuNL244iGZK/PazYY7hzWCAUzBs7m0+fYoAqIXq7Sp9jKmd1V70D56TV5K
-s1nfpKLeg5+s89apsryFbEsj7Srlg3AkgBCJxC2CPB6d9Ys29taNyRo4Npd1uNG8dY3nwJ0fmyYY
-Q0osp/1S2/cNq0LPSlpsu6XPPnMn6atYvjUu8JJdMo14VF1M5UUFTKIzi90K2Toq07p0Ypq+OEwu
-lXDXax/OiDrh24VQEWap0PVdokH2fC6HmR3qTpnjMKd8EK2IOGAMxZPNmSdl2KMz3Z/mJ28hTcky
-z0sjB4Y+hSIJ0LadI/RtEeg3zWGeVsxRSrNTf0+dsUl1gD8PepRXeJH3A+FNYTM0SneflvOaPkyl
-w6+0unxKb1xBocqurftmvkupHvCtXeeKIbsKEo1d525IZufF7IC3FFC7E43EV68C87kYZ6R7oQgh
-fPfwIBPZkZnUziUrw7F/xJBPm8HBCIbyRaOP9zGYakL7+mZ2a2vPOU6wVp69ZNG2AnUzWXbz6Fpn
-R03bqXOdmJcdoqsHR1rUCpiJuGbr6BzNWsOlpMoF7HG9BsYTZAZ2cIPY/rXHZvURPsP8zTUbkPwN
-Fto9HSTWqa1ocMN6DL++HCv71A16c84xJMeyHjffAaoVX3afFIKwbfZRHlv1veEOxIf7HHB+F8iw
-GXTmeZrFABEn+BtprqlDIbXmcR0Y4Hfo9CM0aDYR98qyu3fbtf1r3kie7ku66q+6JajXaHTTiswT
-2JkTrVPBbeXk7ivoPt6fRRfEHvwJIvdcYvMtsaw1IQE4/pujyfoHbUDVs6VLdVeVhbtSQVS3j2md
-YRzFVjAa3DxIVvO9raKP5/h/psC/mAJRtIgI/mvNLHyt8h+0OOR/8O389rt+F5sN+28GCRxYE1uu
-0Hf4A3+37ZhYeraoAeMhCFXDZn74XTNDoTZouCQdh7pLJpUZ8fdB0PwbnnQAML4OR4YQ1b81CP5i
-FXVQ3lwyr8RIPIuZ07S3GeenGUaiR3QcqtRNM1tBPM1A13atVWyXnzdPbDic5Vyw6yhjXS/lC2fs
-6VNpD0rshqARn3/69P4/8+KmSP48MG7vhoQUKqHHo2gbj//4bviCQnrKRuxrojFQ1lZ2waPX0nei
-Jtli4J3t8cWbOoYkdB5MmqLoIWUn6+DZjFte8z2QUr/lz8jg/leV8QklwzcOIC+Td0CAhtr/+Tv+
-cO/+LNZv7xi/NMsC7nTMuL9IjvZm+HODRd5YGKjTyAW88mnCaA2Cyltah5ifMooo97gfoRewNV1K
-3TrUYMoNGnNa+R0v0GCEuKqdiKKulrKIOuNR6/VOSUkwmac70hXnmv6HIUJJDZ6HTFyVWGdUDEHE
-veR9hnz553+r//fHgGSv4+jCfQVI8VfLMvJ7SplYNdxQOR48syg12M6xVux2XTOqOygcwWOXGNWX
-P3/ZX+ZpHBgexyFmahYS2z+2t/XTtejoKrW7IW1uGn81bowyG2+oNw1zahGe//yVthXKzz+17ZVQ
-smFOEwhk0fLLddY19rIKmsdu/E63XzeLRHVIpL+Yu7LLYlSGag0tfcE2TE3hXP/VRfNHuz0aNUc/
-nYgvGVqXDdSvL49InkO7ZlD3ROlQUj86r6hkvAdnrYeYfoR2t+j86HH2iJmqwrL13mUVDKc5WOxr
-hV8M8gOOeeprPDqSrL4zmaD8ZXlHy+4iXaOULXQoKISaYeGj/Yuj1q8Hn+394z7F6ecGJqXJNve0
-n39Qujs6jeMk2sUYk/oVQNuQ4jApZWPvMLY36XkG5vSW+kF3rVaRofvZVAmZxuT9kExbbbhkKQZT
-4DHveW953ycwEt5fRCuwxf36Q95AtxuAdoub8O385UTo9n6u95m0LoUtuiTwIxlk60FJZQV7yfwW
-9kro9xMudHRnyCRhbzQHThbdobI7OtkrUT90FTgYrL1z+nku6va0DCTsOkd0n+ACkXQkNMDJpyhy
-HEBWgUevGJqbudOGW6FRSZAyTRY7ClGoWDanrD7SNlc9mEV6l9IeqHbV6IkbtnxPksnGitzJ5INE
-leLeYI8r/LHZL64BLfgviU65Veb6+AOgwyOX6xmQf675/KSBy6p380I82IANF62F+kZAUD6OuuZR
-rFFLj7FCjKhspvkkMmMuD4mnGazPszJ5g/lAXWXeCO3rWNMy2nUDDQpwvk6GCKrv+dQRzqJEpnwE
-Aqu83QRa/9xjBwsXPgfKDszgljo1BQqwF3vDUMYUV5DHqDOcU1+EE8YgNhJWH41dcJsl1GhGmEbk
-kUeNOYcNdcqkOb3qi6r17MoE5/LoUNhzGINCM/eDW6+vvtv2Md4QeHc4TbFZ0jnwClR1/kFBdOeQ
-zJHIok1qYnNRsmj5cswzm59p9PEaJbhGpFUfG37pjtt5z+A+0S+KP7HAeOMlM7Nj6yiYlLJKQsLa
-TU2fTRmn9rjo9zPpnSgferqEC64kXK1yDoaDsjx17dKvUiX34yyAzezoqlua/nuWZKa5vgyzprZu
-lQBaT9l+MwHUSQICoxzHTr+RpaRxme4esR4ol5bJqe5zBrnCrNpHHXPYqVgs1qojP4MESgpAZX5c
-te9DZkp4HnKCnkXslnOqo4JicbrNOBB47bFcvDmLAKgGkmCDtLii5qQ1sPeMPAv3rpYVye3EV8eF
-VYI1iQvOKod631R5H5Bx4OGVxIryNqZcjOfUJSR6Y4ekc2rOL8E4J/u58ipOocAuy73TpPUa+qvD
-HbMxSzpP6wwKFWWuSzrcURZUA3ZKc/+HNk5erkd6a0qqif3Rv3HoR0zOjeVJeElhA71kXY4Dbuae
-Lj/CSHWcDNMq9kE/NPl+qdx6OerDUHfsk+hHCT1k6erQ5yKHquXa5meSSSvBFsvFjcT/dA1rp67R
-FSub5jNro6A+WX0gKyyy0n1YR84W+wJwm3GVzdnAod/LzEweEoIF2DAlVVEUP5glcAveQdzKKl1j
-31DwcUAcdfOl9mkXjnGEdD291SCHestxqihNrHSMEIv5ceYeqv+uWQtrfUfzCFzq5STVe9ZSZ+Jk
-gIA8pjktQyHVzgJkfItHax2TktKQue+CuyKZWbaBaixWeloKTAGoLrQxdwn9ql4WeF1skL1tT1kO
-kD0uAxvLyvbrkDE4A3P5pLh6oAnQiQXNQgO6sLSLRqEbsOQbY0U2yHf+ZGvWE3w0c7xxu2CB/kXt
-x4WVPI+kdPBKfkNAx5i1T4CvNy+o2U12Fktdqf0wO2t+ZUBTfbIL03l11OZJ8w0u3v1If7wVs0nJ
-efP0XtOWDgoJq9ycAMHJxUvFAd/cFWkxPQ4YCd+6PrOOkzenSeyXDr6gxk/4c5yqLRRuoQnGj8JF
-ej+QFHoyJAVs7EBBtJBlXTwVT2Zd5MdemSZFo14KfD/XvOC50bFeh01RiOHgVQPKglps6YfoSfxs
-srnhjbU00hpXPMGCZ7pHuLpr7pJ9xKpZtSc5BIl5V/R0Dj+YfhPYJ2UTar9IJbfhM1vUnYO5WeH9
-rHlpBPkVrcRk/Ultrrf95be3PnN/4n3Ru3PDqpe/xSgcPqoNmQoyupz46nQVxKH7pvf4yvcjU0HK
-f+OeSq4xuxVkaTcoUoc18JRxCh8vtUbCf5fro6BFcdvLxyy8cGfy/znE8jfiBkKH3DYnk4x8plUu
-OGNpzH1yt07JdQFQ83UmlQdBr0eWsqTSh6uUMbe4arumLB59nhaHodGNGxGk4oXOBlfA7cxy89xi
-zh+vEg7gU7T0nqD70VusQ2fysWJ2E8u3Eo/fnRoHWq+Evkzl59mt0+GI6a/+saxYVuKNXJFFnAN8
-K86JYA97lNrgs6Yn9R6zaoquZ3ObW/o5e8hpK7iisq9wIsfszZTbnmPzOMrM4BkD5ZTGldnwNVmh
-RwUnu2kN8V5zQ17OvsElFdMDzDVSOPTP7WmkwwiHCU5cGf1owuUKKjnxpLUmndFbFF9ZFwVPGlxb
-47wGsje+U/q9kMfFZTHRKWzyR6na2Kqi59RNTx0/Fgwx9NmQnJomeVGLVz0WE8qk7w1H4pOTc1zn
-rQKeus5hPXTwp9pL4yoblyh9ZnEmmnq6SqEDwlB2hjp7YhIZvmMY5jbCrXOYKD1gUU1Ga/IFT4FF
-PFapMPIvRrta/rRbmcCWTx3cxYA/jHrkOPOoETprSTe/Yf3RprDyBrc8kfQz7rFoJuuh36oV4nwd
-uUghUxTWnSqr1bmp3W7rMe0m3YXOl9HPvjDdDPGcdfzUZr/Jt8JFr+beMQzkZpUFlneqECgOq497
-CK+vSr1oSRZ9CJNucMXn2VmMpyLrudZ40gXPXOv1cIfx2uAGa3ZBsffrjB2lGl/SpXc0TIGVUT04
-FJ3O0QxdwaaIegPei4S4Ow93ruiYICU/TQ4Oi7rOLXwW1x5efeuOzt7KPSVqq+PLldLSS9lr3RxB
-N+CewTQ2yktVIZXvetBr+yHzy2zbouqnBXxoD9fZ9fKdnWTeb5SI/ygpf6GkmJa7nSL/tZRys7ns
-/k/0WrbyD2LK33/j39WUwP2bQyMzVRqsTeHIGD+pKbqNq4+DOAcrHHTBtnH7XU3B1IfKAhqBON9m
-EfqnmmI7fwss8lPbaZAEIs6lf2ut5m0nn38eLPEMcnDGbGgSg3JYOf0a5Ofgz8WuPPN61R07XQ85
-MGiZRK2p72rq6kDXBXFXExXcTT7hjh1BxPVFMyvXCM3cOA5IG9cJSlC8CK3ep9DxQvCdw6VNm2PW
-W+MZpqUX2VXgXrVjoz3SGAy2HLfplcx9esns2n1kL6HoPwaRvuNooh0MCm53NU3qoUvFDaPuCsha
-CGBylLNasO+CZDOpK6IM6ZHk0sUFy3PG2MCyWST38ypuFUqox+e4symLO4oB9wjiVRl6lXuGQwLx
-BcQn4vb30TEIJRXs25E4irC3muWS9BRyzVKP1KR/22pcdqIatDgpCjr69HU94PNjRkrNg0Z77ueA
-nGkMXx4bSGXHlepvCcnYMc3a8rU3pbWvPJzYWMj7o1W7vH5tUCTI9xZ+qx8cl2HMH7w0ayPu1eux
-K00OSy31apAFp2Mqi9t+CfRQDOUaI7viSoCysrP1Dm6s7lgR7GSHM9OoAG1Ww7nMvUtmBAlTcv1A
-B/ocy8Q7BPV47OyN8sIzh31d22Nq4VxjJvqBil8DsOzy7MgJG4Lc/hJdCV2WntioWkYeXI7mxpU/
-vqHqRJZS9Zmatvyqw48QWiZjxOrttRy/jLMKqnZLl3kNltVO4BgPkuAsl5YAQGkyXq6J9rxYebuz
-9NGBJ4mh2hqV2pt2GuzwtS0nE8vHk4dr5zQY/hR53iz2rIicvTloVDsoeCIN6+Kd46cHNbr2TkBV
-YN9QfO1UZ18JzT8t5AxCOGIsKIZ+RqdOD5k1khYG/B9VlRaXhXiiT+jZVyuROY5T1Ovae63J9djQ
-1+zgdfUrHJivhZAED9qkD2eixLHOCe8s4KjZsBLJ7QVOxDUBsFTt2AoCPO9TVn9Fux83QKWZJuzW
-wDJMPpkUewAxbUjnJEzYZYu9GmHZD1dKK9/WxebhnPldXLDYPm4nlHAl5ACfhmsBB7uIvLSzjxlE
-79hmegv1in9XGv0XOLF1VHoqidxmmAhpL+ww6NSLW3AWexf/3D6xik+EsNILsPB6b/lvaTDoZ552
-IgTCoz1Bsa+HECeYHXlVnj/UTNrsDjAEFWW2HLo86J/0RoFE9YLyAbiLHdFsf8EjVu39opypkcwY
-Ikr8JQ4CVtwo+hTJz+h3uduvsb4SyjAGPwuhrZsR8kZB4r1wT4bZJ2Ge+tPRNNOTdCbzihTGGGnI
-dp9GGrP3I8N0ZNpEe900mCN0LbHTnZaOZ6fQPy1sB3dSM4hFTWIlv9l5YTCuBs/5siG7Zy13VNzo
-Z0My8nOMdrM8nLUyi93On7Fh1fR6V8jE1kJIhrc6XtOEDA7H1a6blpwVqwmap8u3fOL0WjR+dZoE
-+97Rn0hWr3ye3To4RyqosCNY+g+VZH6kiDOcu2nljODKR93PT1T9umd/3R7OvfMAqV/Es24xPQUo
-0utMLbttk7ajJvbbiNKSM5onxnhXkZXDDJSjBOfae22vy77q16teetf5vKXzPLZo1JvsGruhaTxl
-K1X3Q8cAM5HW9Cx/Z9j5q2jTeZf66+PQmuAwAKSRYsEMPfsjRQm6v8Qm3jwyNoJLKnX7y2J6+7E2
-XwNh4bvOMfJMgJ4fE4CTYe0FMUgGAl9GcVC2eJ/QM0CzL8mN0xfWQa8M45xQNrYvKnOK2asNRJnK
-LpqD2j9mln7bVuZX1x2uCXQVp8FRzyz9UDJyV4bVYrmnUc+bpyCYPlfAg5B1vHc3m+dwSnIQp2n1
-ZBrjlWdL6tp985zDYcE43lYXIrns9vu7itIxUEMUkydC/Oh7Gi9zIqM7Zx3bA625eZQQmIjFLKtr
-zo79gSwfeQtCZ8eqoGHVyr4Gix88LfZybKvGuFrdYtwDYhF76VcTpFlesVnXJySH/A7K9jW2FEUU
-mEL3cg74PpPz3fejQ11w7Tx2JRQIV4r8ahFUr/aCqXiySFnI0dxBZ9KjDCLtS1WqL3Myjkdv8b63
-o0mKjIUbE6acD0CwtH3aJE7o1VNwC0ziTqf0bMfOb3vj86VjbA6lgycQEA11MW08E2xRIsdB69rV
-yci0z+DGyCVq6ruVdyb3wnGLoa4995qcqRRt5sj9Nz9nGDtAgnOXm33NCcfer3Hem9YhXy0HnO9s
-7U2KJUIqwQkme8XnGczNadX8p4VjzlCKftdp6Q9L6zxwSVWy1yDG72ibM/b0nPixYdf6GfXa3LU2
-T/KVu+q+RzmOZjwIVvNWuUMjP9k5PTgl16xGb/JRzVpu06khBRUtzzKhkIevonAHdtiCq6/2bxOn
-D+ZuE0LK7UvWFtA7rKMAMT1hueuwtX6yRk6Mbrlblh6wRwxqlLs3JTNrNxOXbMzEeaB/1HP7l3ZS
-zdqgikyDF4RFyyrfwfFb5VpW7RBN1r7/z3j933L3GwQ7/my6/r8keNvmD4P1b7/l9y2lzojMLtKC
-goac+eGe+n1LyQITNBQzN3axbaw2/zFXf8AF+F2/7SH5L7yH37eUNDmavk+jN9sNOJ//Fl8ACNYf
-xmqHFlPk+w9bv27w9n5lVNXCGwZFlPTayDv6PhCMZxjz+OUdt9WRKibfrLmSPbkSEjdrUvifJaQr
-A1pdVw9PZm3Ltd+hMuBWrWBcdHPBjr8Rnf+Y03eBByYciwYwc9jNym72tjWj2OMHWY6FNs/gl+HB
-mfV0ovC9HngmrFQxy+7SVEvRsPPP8d0wQjfXzhYRxv016acid5fLYhMLKCzRAaxyGS/a6TC3k5di
-vw0iql+762Lj69fQ0oydwxP9iSgdW3/SCfMmum0KFaCTIJ4twTmYhxbuMrdy1cNaTs6r3pkYF+Cr
-TZecruE+Rr/EOgHgjwN9wERaHRo1VQe6Eio/YiOUn5BgMLwGIMZpcVp0nDuaxr7J7RZ5kH05jYxJ
-ABqz2i6PHQ+OfbH2Hshw6kKQ2O0iUQwIyXRrOknzQrGM8TC7WTMdIKPJKBsGLC1pt5hYgNJlhaRe
-09fjiOmL7O3lOVlbEO59Kjp1Aimttn55h7+ozXrD/AJMXlzP+PnZwrh9bBvlFLtpJ4zdYPTXc9sa
-XQTPZo7RiNlF5uXsnFwME89BwfmfOzyyPOBaJPrsQ66fNuVeAx2s3wvkfPND2Lc2jd/9kPunQnq7
-/GMJ4HwsBPyP5QCbFkh7rAiOYtsd0OzJGsHcNgrztluoP9YMy8fKAc8z64cN6PzDI7LMkGvg9nD4
-Nu43F1iMcr681tuKHxW7ZqfRqu7RaPrsqmQR9IXaMHeX6JMxh9zs5bGa0Gkis/du63phX7JtTthS
-MlrSFsxCBeA8yxUYVgIQQaoQePrgVjlsYcS2jxm3zUz2saRpt32NW1kEbUlA4tpC5z7JpDBPctvx
-QGdNvvJtYPHT0PfwRi8e66BlkFN5SKUwn5IqH09zX3s8pUC27YImGR4pNf+mbxumads1JR9rJ74B
-+an12A+Fy8diKt12VLULcrDc9lab+/EwDZnL4ACrB9LEtuMaPtZdA4svh5KeGwEx8q2SdRKhVy/P
-ZM3rY/KxNNM0Dgk8CdmlcTQebpdWNTfCKVi1yY+1GyVbCclkdnFAMNpPbgogYnNIn5ogTz9LHHIU
-zMukeii3nR7NQd1hkjXlFD7XoZfY+IzsUgdSIthnfawG28Y2ARM6lIZcdZ1f7EZHdrfoVgHLKL16
-R7BaThgz21BlothNagl2TSK/FYj56PpMWI6PrF9UsKta23yFCv+ZRLkTNmUKyi2YTKgPkYC/lTLw
-dSLrRvcO73+CPEzSwh2X/j+Zt//mU9G3Wb3/a9Hp8po37z/H3XjEbL/j709F10Ucch2bS3TzS/+M
-3PFIg/rYB8gGG9s2nCff72KT9zdW0VAO/iEp/eOhaIPp4ZyOAKUbiFGgHv8dsYmX+ElqgouPhQEc
-v76ZSTDx/NqyulBQaslFW49tEi8B4eWLX9z+9Gnc/aZb/Zl/Gx2NcuAtUBfwlp2P4sufDBnJPFYa
-nPP1iE60K1dO0MD9fJeP9B+f+f/gVba/6E+vAisQa1/Gq0DkHrSvrXqXTvi/ewm0wZ9fwsspPWwn
-XmJc7z39fskxKb/9+UsgGm5/yj/Fv62pALM/fogN5wf34FfbzAABtUgngelCa/pvPOn0Oc712QT5
-zUs7SVk9WHqdnPVqTM5wcMa9GiwVu4XiXKqm+ZB3ff9M/sTCEISdNOJ8em869eRA2FDzddBzGkE9
-0SMWNdPemBKwBbq5BdDqsXiiZAOrQuEVV4M7eaHfdl9rv4sK3x/iqjWm41j0uEKAnu80yOxRiTvg
-UnXdQsH1yASQg8zg3F6cMr3yrnR/dV+02mtwduI7vehCc6+qtILXyE41zjRnupLpppOVSlYsLcvx
-esTh+IkSmyqilsTEnCKwYtbeOclr8r+amKLBW+uDbQ7X2InkJ9Us9j2nNQPmk1chsvTFiXNNiS/C
-sPfc1Nn/qM64+DqiBxRgToemmh7YGPOHlL689lZgfC0EiAWj1WBcKLjj+1AE5DXbMbtPimn+Fsh6
-uZ9W8orABxXYpang9fL1fW7c5At3376I6qBaP7mzi/43r8Z73ytGIGew5Q9N2Ar3WQFiNDBzP9sr
-V9r306TzB20fsGMblxagCwklyWbaXWCV1vTfXVduYsHRt1PW2E7jUcY3GCWsAemhkxTaDaf2dzlo
-AFgWOX4vVvXJXs33AC3uRdEXFdqjln+R+ItPOtt/+iAzAchgtt9X2bKoz4hmHwuhq11RdfwQHIJt
-zxg+7F2teB+F8spzHTjDM/VXXsjM7F3V/phduprlq+X0xgHbcXaP17o4pY01RUHf9fvZJHPY4l4A
-QeNiEAiShVUsxVtkXSs/PTuLbR5Xw+UFzNUNhSjAZdQ+baIOO1xiruOj7BJ+cQ+6YbeFy++pvGvB
-uSbl2cfVuLM1xO0pCOxbP+DjRG00kqjGwBSh3FNcCICwOJHaqvddJci5c/g2sNjQHvhgj0l6v4Bb
-fiwajNcwbnLn1qyQTzK6cjCi9Mlb4jlWwFWiJTfmHLRJWGaeR/aOvldSl4l9i4PajJZ0cUO1pvZ5
-6XpxLTTPeDBIe57coHPvEniZh2FbI3lGnV4TzH1OarHeS4/9G+TyST+OmXDNk+hxaY+jqlSIbJ7g
-QafhKuhmwnAWELNDu2T+D7soMT+kG6ZfG+ar3mPcytjAxSnjmsGpwddjZMcAYHiwfR6JXrrQz9X3
-CjGCEX1SVUw/iX40BmM51hgRr6s0tZ90EEgxlRgGIF3NMQ6+1/QHZ7bnL76ZTF9RObJ7nbIkGCOs
-FzaCCgVXXj7Rzkxy+ptRDvIsYF3cjBj6X3vLai7NmDJOGqv1hHlkgTg5+FqsBKGyGf7sHQyVdZ92
-vX9HVKWhytiZ73tKNe9UkckbNQgXk7a3XAYROFdlZzUHQzhTyMHCfewArUHlWNajmDV/Clnu8wLC
-2G5e4KLlfQ+eEBlDT0pv15CAimCntfspmXXwl64klF212SNEqeK7s7rD0Zi4CZVaPRy4NJxIuYGz
-79DImOzol4uGLh8inip2POq2uKpmdwXV1IrsaQUyzBGFhCJ6F1JrVAReEppes555tymqWLuewZCJ
-Kypkl7ByklyEhYtNiURnEZx8JoY9o6fLUSQNThs9GaSnauNOT7VDn5U5qpYLwz70yXXvmRJkrC99
-f9JwEPHXEP6yT3BBxQTMtwMbJnAkOcnnoGgQooLIV3f04Io3PEWS29hU3let7R+yQqekibvA1zwP
-1phDpHeUJg46T2/WvZmSETFxvHO8zAGb+VrRvQ5la7xJr2HpUwHW+zEQwn1eiGbcwpMszx+/3Gxc
-57HO7P4EBrw2wV158+2Mhez2I988+UQMY67hlU+XxiNQ4GTIP14yX7ccuzvYZH8WMxjQwqT+VpZy
-+OwpOUQTURXi5r2lxfl2FG628Ls5pOaD3ajkpbCz9nnKa2bxgHC146yYQlZWTIWm1+GM4Ykz8lie
-3XZ89QNLnrAk+khZI/t/Pyn1I6UVZMSXfroJcH+BCs8ILffYXi5uqaaLoUlWIITB1LGlG84EhWZY
-px628JblmepzMRicPzEXS/hCFHceJVpBv9OVux6DvHQfDTXoXzhar/c524Z6123Be4cq3IOH6wT3
-XDfyspxCk7NaEQBwEpAP94T21OUu2XaNVE/sW6tx3XpWfxorK/seGPzqEuLcY927zlVCVu2QspaL
-SBUTCRWJ5h+YRvsTVVvlM8T04NA0wn0MxManoess9KVsDulGKKBleD0OJEOIKXm4cjcaAG3anDqC
-wdqR3lF3Vr/Yr0YtqrjpuMDhMBE554oOPd2WcW3rzXvBM/xkDvrwhAS7PnMhpXdupqW3shiDR7wx
-UwhlOzjkfdcc/N5yv0gGUmoGcjO5rjC1LOFQN8HBpNjuTspyvV81fXqfyIp8qun5A+8sCyPyNffv
-P6cS7siPBYtbrJBZ9joC6A3ZXu0pTUpuMlaJ4bwyx1hzVP5Cv7PPDmhSe3YZzmfO8vbnqdfsz4XT
-LTc8qdx9JjItWvJcizRqe45ekrSXFQX/oc3qJqYFuo61EkTwx6cuHVTkdvD9W7PU9zqAKR58Q3EF
-LszYiTZrw2Zc55AVqb4HyKZfeQTc4oaWyVO9SCvuRG2ECuoTX2Lq3c4jTrTbxDfSk1FnZH4+ruWV
-BdV9oNlU6HLeuFr9XN0AXcIFScItNGw5CbSeprzVRVGf3EW5XwKwKbRt6igPPrpypK82P/5VrBdK
-yteLIUA1pICp6lBfyoxbIKiHTMvfWI2qG24K7Pm6pLn1+nXFREbOn8N8tzzrqkU+bygmjNdxARJl
-lAGZ8YVDbekVt1aZafvRMsuzPdZ0Us6rusMrw26279QtohuPbi9r5IHubUB/CltxSbi5T/B9UNId
-82yaTsCxVoyv9gDPWKLzh43XtE8oHc1+5IbDDAQe9wqbqLwVKUSFnjalkAaeFXqd0Z0hL23Qbpps
-8Tk32hOFNWxT/XpiYrYtCpiBcLFNGfhqSgfpfR1yp4j8SVibP6U5SKOpnvWRy6nuVsbqIDfeaPdY
-LnYtQPLNs/72X+yd2XLb2nZFfyU/gFvom7yFjQiSEiWql19QsmyjBzb6DXx9BnyclE0pYpznPORW
-JfecQAQ2NtZea84xR7jn3UICmFgokLR2UcOLGWuWviOybTrWqePs7MEc12471ltU4NisjbEXhL17
-di8XbQ8gH6SYMR1VG3wNPGgyEpcB/8s9zL+wXXhB1F92rZIsA/7RG6hhRUogHLjCRkvMTawa0xY2
-pr0Zqngz/6JrJ5JE+npWhAgv1hkYxvmdLlOwZETlricicjYEmrf1wrBG/QsqJhoRSGHujN6ABJ/G
-yj4M+puOWHQGABUGxkT57lYofTWzeDa6TCO5GmYgPyNdZSrhrAsrbOoL162HNXg/fRMEMc0f6pK9
-SdO/W5J87aypEKOdmKx82YLE1kVcLlMUuG+EbL81k3Ut9Ya5hRzyuW6rtm7k6Iys4vuhRAlVu0ro
-s1ttuBE98zBw2mHAxBRE4zOjwHqJvohOY9xUwYpIx3CRGoSuqi700MISTMlxCQIsFbSEGMoziaah
-ekUG25UomJeBsCvWdpzhSSO1sNtMYBm/hB2yqpSQP0CWnezXhIqWd8K0dfIFQ7VCr6VH+yixxU1R
-pOIZDQFJqihxXxpFdG+id+w7R6tNCVZOpNuuH6edHnvpxoQs75MhaslVGVbmjemSCZUw0rsTITHF
-REk641LKmk7aZNv4Fpm9BnUUbTIPwDo5LBzJiQjfhQnMOcbU1VevnvK9BhrVn1KyDWoCpENjEBcu
-USzpvim+Ut5rL9Iu3CsNOTCiXt0qjz3+FmWhl91wE0xQ8toRT1yioJNrXdIy9DzH1Zp6ygywrXmK
-K6JLv5rgKBjzRdN4bWptciysluEvHuUXkitoF0st0g9M5tqXNEN2nzI/egpGBzdmVXTGozp/IW0t
-xy4buZEvySzcR7FrXkV50z4VrWH5TJCGXWaF/X5QxvStpSscLSKNh1uiZL7pmfd/yxtHXfa2Zr42
-TVLqvCJMsjSccJcIgayFPVONF2NfmJx1GwbxI9qYB6NA9ZsGlpaiUO2jQ6mM39PecZ/10pn1ApML
-iCebLqwmS5YJ8oYFNR5ByljxMAh3ihxWNuKxfZJkiZ+IPqOP68AUJE/X3o2cKlZlZEyLQSO7sRET
-6Qb5vZLFz7IArBuyyyObJcCIvj+HYk08geYxVqmdDfFCNZ2qw8HttZvSs/N7kIflZTtl+hZEIqUU
-9K0xCIEupsLtFN9A/p37HJds5fsIlEQshtraap3tPrZKVSw4d7pAuPDS6kocPGSG0l7yUcyA29XJ
-q9SM8iGp0upZdEI6G4ENS1vEARzxTV9agYXxlpLGVNriCDUary2Bf/ILYGUGnh1RMbte776DTsFc
-TnvnUnpusTeobN8KodrLMcDeayvpAa0iYMnGULJNS9zJcuBRXaa9AJqCuKM9mLobHkC5kNJjZgmR
-6q5VXdXwHJdNnei3vP/f5tB0rJWoNxYdeVrkyLbTziub7gahI+cOpq+Psm4MPlywEbUiD47Ih8qv
-TDa/mEkzfDFHeTd1emNeODapAMwZNDRJEzu7UOaBeZfdIbsaWsJjq/rWUrMmXwKPvbCjTr2YegYW
-FiveV9zS3AAidC711B7ZXOrO2Ua5x9k00cOv1mg1C0zMJYNeJbxwQ+ncc9ThexJ6+ZcAaP9KhN6T
-Kc1hrwpNh21s66tKYqMwY/Obk7ngIMt2/BpOAdlGQEnwxhpjcuV507Dp67lHzoBzU4WJrOmvcFOM
-wHly+si8j/uyvki6mBe29jBkIPTEAWN7F5ZibVojQlvsOY9syOm1FJO9qxjJLtqhtdciK4LX0kMg
-nNWD68/hEQdbBhMRG/SLFxCepC8bqwI2NRS3xdSEVLjKMc/zdoudKT8GsWLfOJWKMy2xEXzDdPmh
-kcawLJNBrOsuDndBEXXXhQXhLbNS684UiVeEyxFlUfeSFAr65rTZ5Gy3dOANAZtHqscg6Gw/G0S3
-LBFdbsYe+BDyeHUBykCs0Ryomzrr7sNuQlnsqPbOIDtx0w71l8grHD8JI75YFII7NlLFzw2vv6SU
-A/Vr5uGhCauU+rcsfnRAkWLMG+KrUSXipXHbruIIUEXpV0YnibrXRBfskZODOFbigcXW6PedrhAq
-okD38w5xVoc6+riqkkSClALHckGyCrDW2jsUY53dF6TQLnJr9DYRWr2VoIV1b+vNdylbiAMTpUpd
-GfVOnYY3hyHRzsqYNFJUcUiq+hHRbZps89iDEtpovqLryY7333p2cvsxD6mNTXLAfKrCbEW7463R
-ofWUwHyXasL3lWEBagH71eEIgrnlEn7vkRrKpnNGm0jpXO3N9LJhb5aWsbYrg0ZKWtTXYaD5vacE
-PyJUkjeWqujHRno/KmkqjyGv3gNhJKBSmcxXMfYT1EwNEmiYxhb58p7skKmgK7Pxsy/cgg7A543Q
-911QgkccywZcyNwXC+GfvVZbIonr8ST5AyTWRa/QjIuh/eTYwTmPn7MqvuuCu/PVPM3AQktLypxJ
-J781j/GASOokh+jrEkcEIYYWBE/E2Vkofrmg3+S/h9/L/02fmkvN3BaG0bplsfX9eSm1sQXtR40f
-FrnhvWTQuMC5oF2pTM3OOOxODJh0kudLOWQCmWTuwk/581Ia5ocxM7hUQejFZZq1xAUj0AceQYug
-CmW+KQkf+dsmORfFEgBDBbsyMP+Ti1pxoOlKSaLKmHIXURDylYa2Aa6A//h8jZzM83/+Pl5oRhiO
-if35NNo1ZfOfhFBqPx8jY8Y9Kwmbm5tsU52OZkb74wbsMh3EbIquukyey+SZV8WfnXp+qgGYEjLN
-LPs9WTUjPtNITcPGd3OyZCi6aGRUw8PnP/LEf/jzR2JAVF1LnWdFjv7nQ5R43MbW02u/bWnd4sqi
-igghShwyXZ38iRn5ou885J41RfLnl/5o/Ri6jUDQY3gDrvTPS5OqjGpQN+q5STKuyeZtwbjPjWBH
-UbNqYYRUYGPUBuvPLzuvkNPbaph4QObhFK6NE8el0Xh26cRc1qmSDGFu/4A1evJDm1XrOazfzy/3
-0bsPCAmTPJEXEHhObjAaMFVT3JHLYQi6r/Rqw+FfrqvAUTefX+kkJ2ce7ZDFATwGWzqhGTzQkxs6
-Tb+eJW7a4a35uTbHoPuGmxQmRJNpV7SU1Y3tTuprFMzNpIFW/Od/xEeLlgQp3Ob4WjEun+w/qWO0
-E3Y/ZM/EHB2trqSbj8HyzFU+uqk8wnl8hYxCP5XamJKZuJmz9fzcBcgcYhThjRIBZCLOPL+PfhDo
-A3ogxOwxYpz/lN/27lSi5hxRDvrDUGWwwcsvtlt++fub9vs1Tja12GpxLPWsEUxUV5ONStHNj59f
-4sPFwfrTeDgsD0z4f/4OD1j3UOtt7Qtq16uwU/WdXhYMyvohfib/giUJjuc6RAi3Eohytghxz+1o
-7189YlctRii8f8SwnM4eTUt0hlJ6lR9qNUlaZWsvBy2tLjMFVDhA+nORce+fHdfDZoF0xdI15/Td
-qzhWuaMwKj8vJAWKPR6dSHPOlBLv1yKCLNfSLFq7JJlpJy+4F2rItvBh+3ELLKsRaJXRel06CbOM
-z5/hB1fiR6AyA9iGCs45WSZeE8fTiN/fZ2uDL680e2N07kWdPH5+nQ8ek+aYuqrxrNi5zBPEgU2S
-quHV2HQntPF19qqQ656k6L0gk35+pVPNHFuW8celTrYLelQ2aVpcquvxvpuFGS7ywcG+LoGlr6se
-ruNoUY9ZzD9I0cERuVLrKnixObKuWyzV64Tp70ZvaKPltUEDHN10urPcROxaQyrbcIimKzRbNPQr
-lN4QtZQ156oWHx5asJ3TZ/IwlB0d7LGzM5IACfRATzud+aEzJuXkq8MXnLkeHh+Abtbpxy7LCLjz
-io572kTtk5fPqXq9e4uHK37Np87ZdVnG/DQLXmqJ2Qs7Kz0TaW9tO1/jqxBLbY4R0LsHmEXFskWe
-XpQ4/weCSgIaS3mZVmuSvOk3xoaDYC0xdHLjIHXUSHl2JLlgsjRL02e2Paza1tUBC6TJihaec5kS
-QMMDxmEj2a9XXjgsJyeUK5Nf6HG39DkHA37QV1zoxZmP1gdrDZOOhoKDbxYl/8laQ9NVUX2M3JdE
-aS57UqW2PHXph0mdlAsZGIP/+ZJ7X/AYOJ9Qj5rgnKHwnbyuFWyYfgDi6Xtui0c2LvN1FdbY0A2B
-qxqm1WVE6/XejL3wr8Ja588z7mPOkeBK0Ky8O3PU4dgrUWcXPm2u8bm3B+0L3nbtHh9Z8v2vfyQC
-D3Yjeh38z2npyFyU8yawNx+DE1ORXmOIxySogaJa1FuoELG7bBiwQ7TSadp/fvEPtinqKrx0uMe4
-yae0GScNO9pOReE3QYlycyjuQ5wnsx39l2bsLw47BILyPjkojEgItE42RHpATVhqBJGi8n2C6TGs
-dJf0zzozjL9eppQbCKYQRnH6IMv3z6+naMivQWKZoSvohtVk03g1kuthsGD0pva3v72Bpmrww3Ro
-S0yRTz9bIa4q4H0VP8vKDV8RY1EyQ2Sm02RQEM6UUu9fQC5GaUNpYDHQPv18kbKiRXaX88sU8z4y
-lKdqcr8l0rgPB/tMDTK/y39W3lyKY6nNT+PzYp28ejnBPGOhIMQwRLY26JV6pUXSadbjhy76HW3K
-c9Xox1f0KEW9WQB3GvmmmMJxy/mKldbvUk+8lvh7jXoO84zImYo6/fLvHx2FN1wiqo4ZQPPnOrEa
-zh1471Jf6brdmPVEUMH5s9Uzl3lf2KBoxxBKQIRD9XHaUID1KOOY/9d+r+jKveIU4OIkX8TPf8z7
-rZKraCrFBiQgQiBPFr1USAzF65b6NUSEBZ2eZZZ0P5zCPuKRY6Duwh8ayzO7pP7+S8lV2Tgcov9Q
-8p++akE+tR7HvtT3SHJYzPG4fOsEaGHpMaXHIgc9cvQyHWSkmRKRO3mCsZfqbFpZhVsoddnFQFk0
-AX659aAhrJA/UxzMZUFV6tYeWZz94OmDjc+y+YUi/h93pA8fjAvIg2EgIaGnDwZJQkSUHq8u3eli
-nYxeslMkfc7PH8z7HZZbhK6SlhL4q3clZ25WfEbCMvMLkDSLsux9NdXuXac9V7V88MLCDqO2ZR+C
-b3CyACwnMwpRFWxEEC0QsgTRVtrqOTzZRzuQTQngkh5r0+yY7+lvJ6wpUXUZdkqKeAhaf+/wmZIW
-8H1M+1/7xPz7KpozIzJRPhmmq6qnJ1S3jUkdjXhFxzT4Nt+7OraPeR08ff6MPnp5CBQGWccd5Ied
-3DvZpIU2lbw8BOu4N+moMWILrG8MW8qLOrTctyETyZZuYXPmU/XRnjfTnKmr6ZS9O/TQOlUjw+xT
-nxi867ZQXqeEAEjynJPpju36zNU+WvAcezDdwH123zXJMn6jA7kcG0YogN6j2SeIKFFWn99M7aM1
-wk10dD5HBjLnk33V63TZWbTcfbcb1McYusiFguIYlJUxhy03zvCQzAHKXdn219VYpAcrc4xN5KLp
-nEaBczgEUqtVQbfOBoILoq5Lzp1uT8GAFHgc4h1O2LyZhkX98+dCroNGxa+a87WRJmOCtnrVWuIo
-UJU129hxnzpyCfCnRQwxCiN+TIe+2QZe+SVC0THZot2JITe3dJG8hT0qYuFF/I7Pb+QH95GZNiUo
-+Daai6cfxMzhb4gl5fZQTN/EpBFbLBBTBhn6lfH182t9sBAJ1ebFtuZGLVX3n7dD10ZVNd2W0j7Q
-vqk0HFZkHrw2Y1b4MI+TNa3y9kyF8cFLp2lM7Kho+GK9K7ExEI2yDkt+XmI9R3GoLHVUO8wx6mlh
-YOp8qGpIzqgxev/vf6um0cWkI0WBeLpTmgqkaqI+Sp+z2qGyh5qudHakGw+7h9zL0bXCv6/buODc
-BoDiANFhvhW/7Zq8K0PbmFXpK2oIRocMlEVRGO1xqLzcz0E+n7neB98crkcNZfBho1g8eQPzoAao
-U3Jr5WzqyUzcumoFDthAEft/uZRHXC9WJrjvpx9R4eAIzQuOaJpXFjdWVk2L2mntfdxp2pnt66M1
-avBCzT6EudN/skZ7JHHFRGfAb/LuvovK75ZV4e3n+cVhdXTxz/314YgNDI6Hbmk4CH8yU39/bJpk
-1qY3UwG9nNQq1Rlu665eCfoAZy70wcZMSx23pEHnGRvH/Dx/Wx9iAoCpBhwBs9B6CqXcuFN1//mi
-/4mrPyno/7jGyZrwsNQmmKx5nxNHmwNxxK6xGutW73BSBRkcoDhUh4U11IIciiR8KIfaQSzErJYM
-k5TmX4cakrw+PEgSBRyBETiRx8wHk0OCh2lGR90jYbYY++AlEGqxIYCdsXTqjlDpw2CLeYshhSph
-W2k1Wt2E8f3t5OWIrQoNi3+ZN4Sqkm/kcYCS4XWSqVSHJbkuRUp0YiSdaKPVzbjNLCSavRHlV71S
-976bevdxCQWMO0xwL72iehEhFPQRJ+aLcpjEOugiC7EwMTqlaUAZiPGNf357P1qbfMVxtDI5ZE5x
-sjYBXFftaLM2kQm/VrJ9dSNxbRrKhZGX64AUxf/Da0fNTbFH+56B0Mn1oIEUlQHy0W+raO45HQY9
-3Q5tcaZ4fT9WM+mVMtiiNqFNd5pcT7RTZEDnLnxE5Ech4hrNoEtQ6QND6CsEKTAj9C9hXZw5Mhkf
-X5cuLXeUw/VpQeaJvMrFYNETIaT4OZIqLqHaVI4YXdRsjWaGM84MO1u3aQ8xpEAkqACXY+am91sL
-lb+VDMrWUDvlQmvNYhkgDGXBiQ3zTibYXvLV0noO6hIpYOpM4cprNZveizOtQi24AzsIVG6ySMVr
-EzNdtJMI1wl/z6rNxHc8H9pN4mYwtyTsExxd/N/zyVpGTZusHQJrHzHjnXsUH+3ptsEaI+CMjWIG
-Ff2+R8RqY+VF2he+2r6OTJcW46ASU9T2Z1bWR3vRb9c5LYx60edZ6Q2F71qZuizoNwBgjNafvy4f
-lTY2XCPmCszbbHf+I37b8NRKF2Vl1oXP0MkF+wndQdWfypQwoagZz5jOPrwY/UrOLB7uttNDhF2z
-GeEqLdDf2TknUfiYprhAAYqWuo3P3L6PNgKbtj9fCyx774rfbBwNO0FFRc5YfdQbzMlaMD6VWf0d
-FvMRINmZO3mKzp0LWU4PHPnnNikT/pNbOTUi4/5SpyWSYOh40jVwJvWw1enFr0pDiXxTVHNSq2fc
-xmoQ+WOIqYHM9eLKnQNrgfqODw6WIOwZQWhOZ+7HR8uW52zQRqJ/651ujIMMGpgulDlDJb4bXvgY
-6f0d1MZz9/3D68C2weiCaONdcdD0cPQFejyfk6igm9O+FqMyrMquPvMh/ahs/ZmnCS4d5cZPYNdv
-S9cYPBwcaC/9Fs8IkM+1OxTHGqxM4mrXWVnd55l3ps3y0QL+7ZKnBWsymRkaPTX3iUnehF353TMz
-xO32ri77M2eOd4mH83LiRMqQjPKRs/DJuagdXFNM0snZZvTxC9CeH0Ps2cs+09wl7dtwqcBKX+bs
-yOu4mr0GijYrM2tEf2QZPpk0VZ6Cym38TsexgKsNn1HU1nfh5JUrt8gySCiNeyGdwX10LXZNQpkb
-BFNKI1eQiGhtlvoPdSAOzyFIWQr1S1J2B6Q4Yt1S8sUEWAA+MwjeyEf9TiC65mOvW2dW7UdvsTc7
-dWlxsG5PB7BZJpqGMGEqPzBXUztpC5CKT5aw9vRMn9p4HM5c8KNHPDuzEMo4NFtPb7tINIBjFEN+
-XHkKuriO5J2J0y9xOwHszmbWpH++Bf/UTpwUhChmYJH9JG6/692FCvE4tpvlPkBkbxkNnX1nRlq/
-LAxS/KIyyx4FCdWrxEQ5+dMu4EYkbBBv0a5bJH0bMBYo1z//oz647xQbswXawxj47sjr2aObt7qR
-+akXmuuoHu2rIqJsHJOyeUpq8GvoIr9+fs3TxIJ5B0WVQNdn3rWdd2ffUFqTCHre6GYKkLIaoXmB
-INW4gHjZbIiGMhasFJSTVrb2QkLSR2YyOC9MbfX5H2J8sIfNvnDkGHNYsHna3leRRtg58YP4lslI
-Wvz0NcRGNh3RVhfWnjvjbNsENTIWKwh1GU1kTYFNspiR/TeDMagXI3Dl58ik8NbbSX2mLC42JFX+
-dEylYNo8a4Mk//uIGJstu1+bdhKt0Qqbq1opWj+yKwfSWees3HCvl6lxlxqFvOa1xYRG4Pf0FLmE
-B2Sq80LAU3rmYP7R72cChgfdmSf0p40j2m1J1sxgbQfo0l2ELM2XtoyfYk2JLj6/1x9dCuE1WgPc
-6Hw2Tr6aDJ2qKp8/S15pRCtRubObTxKI6UVZ+PT5tX4+t9M3be7+kiVGl/Fd/jKglqwb8pjDQW8R
-29AyMMbsRYLZhtTCflU4mbbXSjW4aaU+HHRdCY+gRTwIgJnYCNBZ/1T1/88MPcMMBS7OAOO/SQKr
-1/b13/7hPhxecxLC/6NOX4vmtfkT4DD/O7/4Da73L4LgbIotD8vHP0jQX1Qjz/wXyAQodeymLKmf
-aIdfAAcDxij/CoNsegn0LmZZ0n9RjQA40KixPAyHFBNUqH8FcHB16ubfVtrcT8PlMG9kNPL4S0+W
-Nf5mHSpJZ26tzHU5nCn9oSYWdDMFkdwB9wUZrJTI5sphGL9ZZeNcWqk5gxE1bbhlbIreuhHKKzh2
-9SplKn8gL8W4t4kjwMEhbPw3jekcoqxvbkeU1PfA57JN2vXxNg9t7UspAnedAQzY0R9et2NTfe2h
-4fgS9S6BBgltjkXTielNFamyjNnudBSoqX5XNzGvXpEV+8Axsk2HTcuQbXFVWnMyLVxdhuF5tNP6
-BuA1Fs98mSs27EEldHZ51YmMDoa8BlaZwUF2vcuxCftk4dhSP0ql8w5OnKpX2hirV6MxKj0kTqO6
-0B3AQFqph88z2vwA7fhGk3Z3Feja/aQCLdfsAEJRZXpA9Sph/CCKYk4/wOrtan2BKiOv2xtv1EyS
-teCSG6YlCV8GdLPh6CS+DSCWLoza4Kgawz1HUJI+VGYC71pmZrIRuUx8r2nbFR7rfKU6owZ2XO+e
-SjcOrvHvDse2jKc3bxzG56LujGNIL8XHIlAfbCORR7ra8ZLuVXxBJnS3x2dafSWtWq76InQu8Kr0
-G+x5/Aw6SqStMBrqi5/hH2b3TfEMvhoWeFBPYPMNiXJAVdbFMDBTtSxWjUVebipysiCULUxCJnNV
-OT2ZfV1tqqq3fuBtoeRL2njf2oDpbNULtnoe5Tfa5EzAiWg37aKxwZZsTEm3F+aYPIZj7L04FSoZ
-UFZiFwgi0kQ/VPdeYMZXE22AK1LG5Gw4MeKnoDVBEXLev0MLIzY58T50hqpS9S2ZofxJ2cSP0+jE
-V7jXp4vRcSBMExjn3AK4xsSOA8clZsHoL+0hVm9wFTq7MmyxmswF9RtQPXEIbDvzR9kZe7sV2SYX
-dvzSuU78TOaxdihCYR1zDvq+BOp5AHht7PXBKv26K7GzmmVDIrJBDHTeZNtc6UhcDYYAtJHlHvRK
-6C8FZ9+rKjRBZGuZwDeS0ZHK04a+lhlZ15kY9no0mCxHGB8KHsIuCtvXqHPVcTHKVFvjwXReK2P4
-blUy34aj6Cl+c2tbVgHuFsIWVqNT6I+Gmb6NgyGozkNTf3Hc4r7sjemxwbK5mdRCPZaRbRcLiU18
-ZykNXhIauuoh6mkwAd20q1eKneTGCdMqW5iG4b3FgRttYGMWi3CKsweST/JlbygQqPo03+Ncg9pt
-GNC/OlgAnD/zO8do2q+GS2jkomXC2ZbFFgCRvSuHCsuxazM2cfJiEWdJeqR5mN1aQebb49DiIp6K
-rYkOBZd9ly46Nktyobx469DiuRhjOLEIcok+LmRyKxoVZIWEY2ykRPpOmGQXibDSZ0dV5AMhvsqR
-urVc8kAdFcgFTNPK1sSNUktyJuxqj+XfTZYeZhmSvzdBM6hXrutlmyo7wj/pn5VgKLFoGdoxUUPD
-Lxi1NkuChvtDofb1G4gc/hJTXQ0qPqpSG4gJyObe6Ez1fG6dEY6kUKcsXgzOWJLnPYbXU1OmG0W2
-9J7G0SIXpgcvsHTntmAYjGuidhsIcGXXuSusLg/hNJKhmqGBgM8WVmxzDVHFWZdP+1KR1RX4XDi4
-mvKc6CmEzDAEZhVnHjl2dkU+Yl3Yy0yJn9AVqdtMbdQ13pZqoSdpCcUxmvZBGXlHK3ftbQPlM8ex
-pLTHuFXSleMUSwt83auNAXyToDm8YS6St0uRG+qhd2dMMEP/bKG7mb3OjdJ79PhqHCYzip6Q9seX
-QC++eFNr+3wRp+WYND32GzNmKQ3JZQP2YAliyLvMO7O+aZOgukrUoXpUgjg7gHYTa4JFwgtmCeFq
-gjO7tprKeEpJQfBtksXWdeCWF5FM9O+I3rqrwUImYhrV/HHpJvM5yrP4odU1bHqEKnoXBuCWTUco
-zbocEcopWhDdaBrpdwP4w0UfVvJO7bj1OP2n1Ti2Yt1I3d3TZcARLOFDXBtOMrDQ4Klhv6YfKNRu
-2oyh0W2KWLbb1JvEA/CdTayRcp2OwXST9oa5Fn2Pj3Js1SlZdgopRlYoL+yK47rWh/rO08L0y1Dp
-6WrA07DoNT63Ma/4vgl04XNKkaSRV7X3kiI5XOXFoD6DXA18dqZoG7TwRugR3kxdorwJ01F3onWV
-izx0mmstLrKtZSrBBVOl5piNg/tAyza40NRKvYv6WOVyTqAsx1GxL4zIqQ/1WH0tmml8U6eO7b+r
-2wmTtDTDjTQGbUUUgLEA7by3ClXv20VRxxJJTjlYOZkgBUxYdrRYPc7wN779SRLed9YMWkm6CrYP
-sfHtsQpRWeCF9+KFFA6UhQnsM+kogVv9ABOTbvsswnwITvQy1vP16Bb5TU8YjN9a3YtVM49jr62i
-BQPl7mva2i9WHL0yMPkBwvTFLeUt43tCFCdC4wujyrd14YzruorvgSCIHVFQzn0Pt/sxBRL9BvtK
-PtUB/2Jf2ApLPR7BFO4ESRlqtxN08vt2AxCxmuwrSq0itBdktqgWeRJkq6/tMo4upW45q26QnXtT
-tdVoPzd28AOpoOGC3Bt4cHSjdLJzew5iQaluupGqZ5NHoryKRaWUL4INlNrL61eaJLq9Sscw37kK
-SQHNkOgrirx0T0ug2HV17LzgNay+qE4QJjcBopW9EzFCYQQ2RcEmw/4L31E2w1RyKGyt5JsbEcbw
-YFWBtAjL7YOC+OA4LbcVVopVoajjpmZYd9HbzRMhoMOilmG2UkE3kkhqPiElGnw7htY85m134J+U
-F17mUE5m0S6uTaBMmDgXqkIYXRrylVEcApmpRR6KKQItw6h3xxdEuQMnEF6S8Kotw4JwcVCE1aHm
-ae6mFtheFA+vZgrxoIbovGhMpdtohQSY3M3lljFhsPcso97H8TYNLlLHHld9GbS+mxnmMq3ceNNg
-q8B5ah7ziSi7pFLC7WSG7bYLgmBX53q8a9Xw0tboOamOJi4BWLSQepzqS2cgH3YlefNx1ccXCXks
-4OBV2IjYwddDYIINLqOUDxlRE0uLx+x3kDFJGdaRN6sBCBny5MelSEUsmScwh/1mu4XtPjVqB5zg
-rcPbm1oPQWVScaDF5vic/dMq+f9D3JlDnG5oc4rj/3yKO3wf/u2lrNPfT3G//qVfxzhYe3gAkIjS
-65yjxOcD2a9jnOP9yyHTgdMdvS+OUDZjlv/i8JGljroOxaCNboSxG4evX8c4U/3XbKsDSzubszjK
-WX91jPvzEGfCmEUpwIxnDtN03zXmtB5/iaqG5bZnQ4iXaRFa10Y9iMPPhuBvt+bmn6Ph70C+d31H
-roVvgFb23HB6N+LuG6L9Klcrtg57/WHqR+2QdIb3OHIHLis6kuvPr/eue86ZFFCh7iA2YRpw2squ
-FfTewlW5Xq5Boh1UQXxLIift0AJv2RIPaXOQkq52j7BfP9O6f9ddJOpDpbvGQdtGiXcqwyDTt5Fl
-UxfbqW7bbzTOGnuRoey/HLVJ3uKC9kg0Us/95A9uMS4CbDQ2X5b3soWWoWA9uA5fpVyTNxAS2m89
-UY3gdONa3oQqqMXP7/G7CzJWQ63DIiKhhICw+b//bUKRUAcLvak9P1KCcv/PKSFqvXXuGgrZ2L39
-8vn13mupIFCiyMD/jCCQzf+k6wCHTp3CQMIDLCVjJAQFJGVNU0XqqDuYcI/HLtYObobylTRp7Zbz
-Y/FIeJ4zLCMC7zhiOI1z2446e37dW12/ECJqYH958nnU3TOrAEDm6Qvm0GHW57EZT/O9IheHthsm
-fNt8y6HZe68wPwj2TZip1UVYcmjMq1AbdloZjRlk2dbS7nkHx1vFy2pfVzlJ7eLGNeD3CAK1jKa2
-FwiUWUtUb+U+B9ZzIB2adkWv6oQb/YwZy3WV+8A3gTw50ARETCt1TNjYqE/uhbCkdlBqh9NV56gE
-OyujvNVggN0EJCRmi4lcV+ur2xtiXBHZAJbETUmp2NeGJW9sdgkbuFmfen6i9spTkkHsva1qvWbJ
-kWdgUGg1BLCWCyLKNY0hHD3VORUyTuRVa3q9eQSbOFyCXSADz2ZyvugZNhKRMG8EJEHynsq+kTfK
-0Mobj7rUXcqgEi9doouXqVaNLSJNIsFk34sXRHw9Z4amzJdeNbF9STXx1olWW69urcpbQklJaAP4
-LF6MqJW3SqXgqmg5+RAcR9oblklQu6MnX+yyJdyKXjllTRNY8pYjA78URhgTIPrE1ZIkq+CRYw1V
-U+cO1mvWcR/dqee+1aZ233k8tMmtvEfQhtarrdjyNg751HOgtoyLsYzJbPMkkWeLpg/k7T9rNUqo
-7peREQ/dVZzK5luWUD0tMDiLFx2GT7Nphp74NwUNS7TD6hTn27RSqrxdMGxxu3Vr6tFT1A/eoyvY
-T1dt2mEfz0eTdULFab5CixIvEPh4+avcu/TGeg6vyhOqXGKwEtLIhbI0Q1nua4z9GQFtpbzpupG4
-qd7WuaW83eJFSgIIwbml5FX13Rxa7EXwyLooId5rEPNvHfD6L9ywxLU7339yLKyl0bkMVgAUrTwX
-7MuyKjz18POfaYOA4HLIjOwbU+Qr/NZj5LT9agg5LJPrxQIGeOfi808HwZwV/OFeazjoLGnLdau0
-kq53i9xSq40FsPT/ZO/MeuRGrm39i9hgkMEJODgPJHOqzErVrJJeiCpJxXkKzvz156PabXe3r9vX
-uLhvB7ANlFVSDiQjduy91voAaPaFq2fXnvSJhhiqMjfmR5qIuoJxV8+kXkBTXPyIroJJkkYq9NMk
-eod8pLjU4AF2EBO1w6IP2RS2jKuih6apMCEkpCUgI09IhrkYq7d8ofc6fR8X4kBJLerW9C7j7OAQ
-+rloEhRHRZh4ZyQVPDk9r33SArWg1vPUJ3HU4ovunhozSnZzSncvIqll75lF0CbtfKKBJ/ckNptX
-y62HADPSMcK6SkxpPT/Z5VAHSUN0lW1oCwg+oIsdnsVXpAwtZq3F9mkViE+anfQPU9KCtIWQYH3t
-qXolN1g3mUHspfN5dDS8B24dlz7Cy7rw9Xq9umqIv8NSE1e7TJ0bMPf2FR0D3CAOustFVFPJFZ8J
-gAfVEHO+btb+u5cmZLp32hCnIXe3dyOjfq5CT46d56Neil7MquurUGjyuU9QXKaqfauEk10RW1mS
-KEWTNRstEHedotFD6Fdudd8TwQ8+C/P8wD7HzWwQ8ZEebS1im15VeiDnu/liIaB9wX4/0HiN3dLy
-rXEkVZ6e08ucUFw0UjRfYLnMsDzz6Y209vglI27/XNZG/kRIX8aEb+XJ8hbLPEU6KfYp07qT22zZ
-J54HPIR9tH6yrXK3pqTkd3wMegVm6VqkaKy69xkxhPhaKk1jaJvIwT2ZpVrNKRBNN9OJFRzzbKY0
-72s8WjZitvym8JroMmlNfEdoW3KKXe/JIRbmpejV21LO2/Kfipeu9IYwG/ieZi9jobcakRJJ0xhf
-By0apqBIaCI13uQ8cpzPnTAdp5NlDtoYmlMrAh5Mh1CsWrl7rzKqT/OmkN6v0ngpgQqF9dwhuxjL
-hLyRxWjJ1SikRaPPjABXO5p8L4TJ7zdsWeqZXGMDxK47pcpvoRDX+9UloNE34nzgXNTl2oUmyMBX
-V0YNVAErfl3w1RxTWblkhJl6mPGRaAw3aPoWI+q+1LNLMdL0lnsxwXoGuRi5rK0HEy8tOslqIYuY
-NoGL9A5on3slDYV9oQTlEWpQQb4DO/LgFFisbwT+cdO0RJg+dFAfwxj4CrfSEFdJCEFLXDH/sJi2
-tsGinnn8O6PBu7H7xLt0E5cmKAqPhZD0Yd6T4zJnTxvJ/5HkNN/82Yy9i100aRnGBqDrQo3YypOR
-hXAkjYxpLePVi9cUWpC5CKX9jN2kDEyHCEwigniWLIzhB2dhIwcflx7MaJVv68K0Nfi5BjrJFqHp
-EOvFrT/pRXLXTxX+3aGZ5GUaBh3epwWNUPVa970i7a7xham4I4y1td6gsM0Qaq2NC4iUWYXQ1qBR
-Fj3DzhuaA0jMfn1borIYCLTkiNk3kbad+h3Fct8WSh1HcsfuejJWn0p38nZiLQBOGvSJKrizSynn
-W2GTxBDonOG/TLSZk0+GNfKu07Lhs07jykvSpFkcXLQg19kubFrVJUgbNPmFP7k6SZ9BPEv7Zsg3
-iFvaWstjxHH+i50IVtZFadllahQn27wYso49Q8RPk7MSUVeDQbxIekKANV1HPBa1RvtpSLSPXrVE
-3gwTWGHeM2XOT1Qq0W7cFm6h2MpbRHZPJm2Zxo/VDOpXOZIgonhOt2+0ZdbhF9bCvj4QeMOOqViq
-HqPtimaZyWUayg342nEZNdFybOiNVSe62mJilUI/syL9hdA/VFJ8T9SWj7aZasPjSH4M8cLplMSJ
-+1DkGILYqxpvNSEoxe0CCJjwu1gAuKNcpuk19YBwBfUG2U40fXQZ5UFUlGnYTygxJnsxDqXmUYQ4
-RqITdqaSq1lisQJCs+z4bxvO0mJGnq3NLZe/fSCALznlY6K9zpqX3hAjGkEzTth6UDscY2IvaPY7
-2p4hscXnaO2wQqeF3tg7SyYoQVsy+nFZ0k0VDzTyYmDeqyhp28ztqR5J4oj7QjxUkiXGpw5RfjbS
-ERU5JUlvl/kHkB5r79I9OXprDaKyb8c65AmcAlaFj0q1H1qxfPJmOZ24r6kMhlb/5PWN/skqlzEc
-af3b3VIesXW0IO7i6JEx2bLP2ERpuyTTbpbyk9QBas7GUN1ztdmYq7m4YecjV7vMNR/+dE8Go72L
-veJ2QF5JxnCyfNKXJn5uNHv4omrDvNZjubG2Y50Kcm7JvitIFRrvzFI8UPqRvamR3mvZkUWDCcYT
-nUfDy9CGVs4kI9KsspVBic0FkQOP8N6yTMjVJSOkzZOpjU2gsQNDvWJgyQqSQD4mtGRgNQTDcR5a
-QzvZJv372y4vuEnLhNUmtRV35DpuKpwIhV13t+RTlgYjdXf41+eo7Zj0u+EtOhQ6EZsZBZcAPYg/
-i17X0cg8drzm2Fg/q/5xBsaktsr3r1/nn44/vBDZElv+PnojTm5/PB8SLdkPWd03x4L+Z+oPaHCf
-2m5jbBPyQmK73M4uP5fDv37dfzr7bx8QlTv2NHMTVv3pmMiZvDAzeCVHws/tt14rSevpyLreT85G
-mqnLanmAAsda3I5bmfvXr77pY//07SL34FjMA86b+LMnYuky2ifCxm4CiINYYlcZT+626mY/ido9
-liiamo3iXLKV3uSlsLj/fAv/27L7dy07vNE0y/51y+42raof3Z9Brb/+rX9ILySefLQVEr4qTSTu
-2t+kF84vuKOwn7p4iZDE27zWbz077xc8KRvZdRMa05TnnvytZ2f+v/Ts6B+Yf7zBCElxUPc4yH55
-g5iz/6ScNJPcK9Ga6+eK1vhGf4GBpYWzqCLSRsTc7HLwGrW/mCO5+DP+CRLYmt4kGA6Ksl+uQNca
-InUBPUfSYyE3s/XzDLFUvggPL3k4deI9do34uZwHBzCjbX0epexvWz3u71Y0XtE+rTNmJTU5Ebfx
-xB+ySs1ec9CyBF9wn1Vnh1bbsZyt+0L15rvGqrmc9Y6Dm09HtL+MmSerZzOPBufSkRWs0/O3p6H0
-JboCkAKEAlRGN5OWWOu+lyFRXDoc9nm3sDfpZsAIdPiCnWtKZn8YS+02N1Nr9VuwPw0tfMt6RM0I
-19E0qjpHURelz4IN049hphP3mmajfZJo276jJ20fbTkYp87pk4MxZ6TXe8uOvHnoknqb4j0dDeOQ
-GSmUCjO/Y14ZZUd+xbxdnAy9COSdlABuvCm+gk6264X2NucAHziRltNJdY4WrJVn7oi08OZgdEmK
-XBOntXar1LoHoRfWLfzQeSf6wRGnwfPa+tyvXvSylq7z2DhW9KRoWbn0WCBkU1U3VnGmXoaTTnhr
-9jpOKsElYzhBbm+oVdWMFMZzdWN7dXFmOM13OZQkeBk2DGk/X5bp3A997DLDb5Id1MX1oa0YneqH
-iIj0Yy5A5PWKitjoJwSR01qFFMhjQiJgC+saUuCRMs94bVZzYabbaesTY5tCMtSZnPQoNd0tXjC+
-DdVzTJvS0Zk7S2PWgFAVHrWzMWSL3p2S2KoQKWSFlYq3uFsV/ClmOORLky9SdjKg5JRXMr/Z9vWI
-BF2A26d0XMnujOydx2EhyPMaHFpqcc6XdUvXwPZ6DgF95/pbtAo5l5Yx7QpyLwk2cTnKa85TPlsU
-zcYpHtSttWUTrxMHgLS+ynalIrSI0J0hnTh5ta/svHvWtOR+xrbiM1GK9/EKc7Mcly9Cn4jId9Jo
-H43LIyeTDqgC9oXVbrNLW2r6qQHPtO+jliksikc/70S36zSMB5TWKbHVRb3nlJmeKYnWk05kNReo
-MJ4JfP9a9a4MWhE7PnwCWjSESe7ryun7G5r5EDPT6V3R37pRQDrOBBoN4bqWpPI0y4HE+KCTzbCX
-a8P3o7VhSo8jiFuNaVcjEDKQYPnDWttXZxYZ2bZ1g5lFp0ksFbhXvJkTZdkSX8jVxCyRYmVp8QjT
-ICEmvgY6PNLDDKTKxB3vPjtn1qIpCpa+ORHPN/xoCnqHLlG1e0jG05Gga6i0DW2XeO2Pddueqsl6
-bE2oVm56WUV08NSgb0yOp9Qmn1bvvBsmhQ8dooxqLY0Qhcouzvj2Y9Jt3FE+d217cJf5NiMsk8Hd
-MO9VU/S7MWKYHEfyxTYRPxBU2oWiLH4UUlekT0/AEghGfkw1zAit4KTcE1Ta9haLYOreyi0+PytR
-L6HkFGgODHlPMH+1K2dVBY43TtxbDdporodNrhCYXC3xhqOrim+rg8aypf97Q8A2iT2KVEASarJr
-4vXZcXBRffJUiPs4ae9Hgmg1lw8F8vA6uzLjYMlqlg+RwxkhY/bdNIZ8SI0WNUvTJwEXTO0bLBWo
-mZJX6DUjzIn5g2pXHOllkyzFyM/HpI/1TYOvPKBh2XUs6/c9Ec0oamzvlGfOQ2Sr+2nsdeLKHfcM
-WntyAkLz+8+sK0NoMKinFW72tGcMSABtn/cHnQu11+t2uFqxlTwAe/Zu1aw/rErroQ4QRB0bgHK8
-4dMyl3tySsFAZI1DaEf30JFLyDdEl2vQs31m5iZvr5ZviUyvuZmwO7TECuWCFJqsf4K9a++Nco0e
-pxySqdaqYCb9+dnRsmeLxpVfaONbt3qvHEdPxgDxuRFDgwGvAPxtTHuMmafazg6ekUV8i628GiJu
-D5OrvlUMtHeWWrvNZfCExinnBs7R+5dIC89WOyFNEubD4DWXokte7Jz4baOAVYxXxWel3dma91V6
-E0dTaQX5tpY2mnvnduaho6v9MHPpwCsg8AhYRt2veRSL14IcvlCZEEpjDeqs4Yy3zjLuyNa+IQGo
-31tja5yVnbl+OzYgOnB7J0G+FO6hmIf1lNT9Ed37DXi4/NAXekrzDt93Omp7NrMiWCMEOLSQPTyH
-BN59I8e9Z8Em0eS6rLq8T0qp+auj2ttioMuyTCOEj8xK3gkDkcFkDJc5hdFaTcWzkOOxAjrgjSsb
-a+Z5O0P1j/CIri1tnW9AUAlEWl4zJy92sPQCe87rPMBZkJ7HxTwJBk17mUTkRsVQMK6zhX/Et2jZ
-h2hhxNlKrXi/wF9GixmbX6J6aGjbCpLMNQWyguECK9NYmtVdrI3AXmuV2EHPvtak2MKWGm0M7uNm
-Xw3NcDHA3wapgWzF26QgNHOfE23atucpDmsbZrhrXScdT5yGvPOTHjcjYVVLIWO0UCgDH6oMILgH
-PP1mHs1nOevNO65Ogt+jEijPHnrIJgYtxAT6Q9bLyOmoMHZj730rtfFOJE4a9HLqHzqrupsqTWPI
-Ql4xx7pPOdLxTplqTyJufYOc47PbYZyZkZoamuh3go8XGlWBtII4yOMklugtW4XacUKAl4EOYpfV
-Y3KAjgmegDz3oMwlH7Ybv3gx7rFKd7VbcpLzl8ZD0YD9xf2wST4IBwutgJWYxVvtOsujg8DOzwf3
-i5lbgIDd0nlxyLgPtcjWA8OBpl7Fle7Pk77ZDZDzm+Zc00TYHiIuWOabs4lEBAkezzVvL1ZduSuz
-73Tw3hddcx48rxo/m91InvmQXAs9t8IFTRrorkaUgYtmA51coyTqJVWcu3Wtj9kwSGqEKr4VRnHs
-c3ocGsllu2Hw6ge3RDfDcpsM9wREu8fVsdvP2uodyR+dn0b0XCi0UoAhHgOeS8Ustc3db6zOxb71
-bC8ErjQ8A60/26h/Do2nlhAmZ7pD8MkGgZ0oxOMxBglpo1WAHtm4VkgJAwJfWpDNHW2gvlsupZy8
-41SLOXSS9lsRk6kEGSkVd00zikcWyG7emYMJm8bup6Q4yCru9hLKKJtXp1VfWmh35xh+1r6gFnzR
-J2XSv3ILl3xNuZgwakzxXhWW/U5ePaSUdcO7REnra6KgYBj4zg3ybADYuJTH5XjjDKuGzkwPK9OA
-awxMgucWYS78B68ISyqPIHHTMU6wOIlySs5qmJx9Xo7xIzH9vRK3FFpBWY0vyltPNjOLGv3poROE
-+UsPNkTfIMFFFH2KKvLt19nyfDbKA1fuxsqYZHjpiCKwrhkRyeHr2Ms+MNYGiXIDh90q6ohuQcse
-mNfHRFY08qKm9xtXFEezJ64pUdl4U4GQi5R5zZLMfE4l+ZVFY7tn5pWchPukxA7rPS5rsi9GwtHx
-lciDLt6R/lA0ZVFNhF/0LGJA20VrhJEmzdBOGhzjlvJdsj1vlL1UO6fFx1Vx75UKRTTHchHUWkUT
-To6hCzqMJSW1fBJJRx+1le+uefJ18sh1o8jfw4nT4GQ0z3Nd1TvixCCOpuUZPcASkhtSkqFOeVj0
-GlSH2GnYF4v6VNfywSOR42DH5reiGp7rZrEYvQDZKjmrGL217OepkoFq+rCRTHrMxlK3iELHvVo1
-44XUUCLSi7J8nnvy4MndZrtjfuQzOtN8syZVMbG0HBVlTaA9VLqybeZ93VHXpXWUfs+VQMrlAKtJ
-udNpOfqLjtjXnt3oGZ35pU0GeVXSgwvcVh8UwJ2fJ91OwAQPEi03uKTjpznpEmxfQ/msZEZOuRzi
-fSsrbyfxylJ4u4Tsallxm8csMMuUl3tPt9qr7Ubveqfi0COF8JBM+XzfLjQUvc4WAS4vKh/ReJ/0
-JruisBquhg50tgbpgAwv9xOpL1daTzcaSldEurUZOOM4+o7nTBfGPd9rzhyF0L4Y7voWNzazg264
-cNRdNkkpmtr1FLmAdVdNOxTJh+a2pOfYnX4RXdYc21zdEXN4ruaEJRJYVUDzTd83DUfc0VDmwcSe
-YNSW8M0sO7uCQEQ302/03H22GFf4Zrq+zc7wLRri97rOuX9q837ob506eq7HFWzQXMVfNc0g40oW
-pz5d6SibzmX13Fe3qUPlefUhZ4NkQuIi+I4MRu+VLi5SNvcZAQaB1mV60A9gYODLxfo1j+qJEk27
-G9DhuH5ezivbQhbxcdkNWoRvTbLHgd2dFHfw10UlP8wc5LAZTYufmCgv/EkW+LITq/xSMCWpwVWJ
-kpAbgzHPXJsFRV6tnNBIVEU6u9EfR1S9BJ/Y+SGjFa0Y8Co9CeqcqZoxCWbo02hx0Gna52lwi9M4
-JuOJyjo/ecB0DtKrmFIua3ye9MHeE/D9tCgCK7BnfmIgnd1VqSY+rLQbzmuS2jeNSZa6USz5zVBH
-y96apHqSFX4HWmJvnOOz27ySHPJjHRFHPDLdreOLOTtmMAjDuhXkb+/alZQKk9FRmAF82I+O1Pa9
-57ihQloQmVV1GCtTbvMfDlYgDIC09FsY/qL5lUlyLcO5wG4yc2ckRfTJRuyA6Wt5d8vBo6nrvDlx
-wTdGYQtDDm8zUeUnUh/IFpmQ0Jaog+sucdiPva+ergPfxNcX4hAZMQBYFaWQWsMp55/vvAnWHwct
-IAfcruW0x2SGXR9WTs0EfZ8w0DhRO6JHqjKGT+W430xjO1Z0gB2lVe2KPD1khDlwoHIfUNzKA8dh
-ui7mnH1Bc+FRTUs9v2W7ZieaODFcl84742l1/YbEjdCIHAs4EvLUkSNILYz27Cyd7ttxkR67HFqJ
-UlCIoJzp5z5v+5uuNj/adbglNw0wGucLY02vgtV9B2CwvMsUl7HeABpebuwQN6JrnjTho0vtmcG7
-2nmS2V1qgF7L6/I2tp2X2oVjTY2NRKPh9u/meV8J/UDc6rgNpzjPkCexH/KUf8odDD9N+x9r3dyj
-wLhdGthOaonCNTZ3dBo23I2JTkBDyj/1CR+voGVjdoGezKzKiCOPeEdJsMwZ+ZvzcjPxpAbD1j7X
-h541EuUqKW/j++hk76ljEaHU3s19PZ/SbjFCjpFnlugXDJlA04d5x3GLO1mQNN6jMvB5GlCbi8E4
-uPNEK2Vl45W9eVKNwJGkndxs2K2jnQdtKyqPw85afW6lRutkmiag24V4Yu18MAA28onGfgcDntOX
-OwWx4kjYazrGvAYXlOCgGqXTTUKiGzyQ6r3CkXCfxRoX0rVIymyT0J7N9Rmd2R25dj1eZWGEZqfv
-SapzfAl1BTNpDdzaLpzF55CTPZVR8sMV7bVbjXPu2m+mMKBSvvWiBHHkfqhxgZHjpssOPTOkxtIL
-26wKRNZk4dqOHw06ZZT9+dek1ZJdK5mpMfsKcgNOTrG69EtWBO9hBXceeM5K6ZJF2KezO5WwQAfd
-oOw5aODOfCqH0bjRqOsbH+0vOqSRg/nYLopfYidv8Hj4nt60u6qbKxUmvYPzxj43pTgr3QoAzJYU
-Y0wH93RyYtIgB7TAq3BaduilHS6ELKiD7IzC89HjqVNatNGdy6rW+3WHFgVSIpQ1FxjnavdPmrTL
-bl+6nbbslZZPKjBFQrvN5pywsHwYAxpd6YnWQH0+LhaDbSZh2qJfBiSe70gKnLy/RMLr6Fr8/+nZ
-H37Um4ew+69tGPCN4oJ1Lun/+48/dr/+DBxisx7+4Ydd1af9cj/8UMvDjw6I2X//1685httv/t/+
-4d/MjP+mGw/lmS74v27GQy+pfnzr029D/3sJ7a9/7R8KWgSjRC04hkmmO8/A37vxjvmLQ6NdJ/Hy
-V3nt7xS0BrhqbFpERf3mdvx7N17/BQ+kbQHFtgjRoZ3znyhoCU36YzMeXAASc0M3SFFHnKj/2U9v
-GQtezTodj3XFuNRIUoTptHsDq+9fFzt/ZwgOBb7Gy14NsxfkGX2neWZLdEXeBHrvPrmQKm80QBm3
-QFgvo8vI0tFsfF2IlQpdQ1SXQUZchq2ljIFnL81SR6ZETy1xqWIbdA4Bo2aPPpVxz3Kmh3qCEj+T
-br4TrYPIiSLJR3U+BpmgNtb1Fm1G3r2OhYeDImUC0NTGpsd7t7VGD+mbUzIKDAWQOtWpGdWrYEQV
-rNZo+tkKqrKMnBcGpA/A4t5HxcvbVvMK3uwDDTqsPUAKgWMb9yIhldOo+DzgR0CJqvbVFplHbxle
-6vRTixV3Bqa2Sg9HzYFG5QL07ftd1PHVjF60i/vSZG3JP4ycZp9t81XWrurIGOMfLUa+ApnHz3wE
-vgbdhWYDjjICtLrFQTA5bSRmqYgCeEgMTqKSqAMAckVotzZ/msv7ySVRcvubGVNdP/VQFK3oH3yI
-CJ3fFGa/s3qAiIRq3nvktu6Kjpcs4tU6W7KlpzmZxm5oeUNmY+eQD+PnvEOWEDmbvwoKENlJ9bE1
-lRFY0cJgBfIVWqoi/hYVbKS98p4oKvqdWRUNw4YsC5IS8Cp55q5f6yO+z8zrniKYoReOu1HQaADE
-mhUEB70tKtaOF50s5+QK7ennTZK2C0Y9Sex543AfiMW8L0fQn0r3niaspIGB5iYodet+THlTcZbL
-E6I4by8y8jXRhc03jtfT9Gi2u6jnd3HQX1Pwz2Fbd9DAxyQDRW3PfE3cWEMBr7m0rCv388fs5dh3
-SKrxYY69ozvn2q/8lDFXxnikVeHUux0Vf83fKfmWOoGrEJH2CqCbuGnVqdef17uMtxx7fGUBOgiw
-vQm3jOMpLv3WYxxIkrjRRfzBQ85djRnCdxPuTnTPpl9vz0JMQNZzkfCj7WbvdO65/rOHG6nJ0+vA
-1+VI52lZufJTy3PiOHBNJ7dcbxM8fYHndK8OcpvAdrjC7sDNtAFAf34ZSN8Q/mn8apOX72UNHz3S
-nfamMDqLkoWbtsiBNC64MR9KziSB0dCgmtQyBmbfMMQqDWOn8lonlV7yleqUBVOcdGc2JPJWiAi/
-mC2I05YM+13u8FDitbykU4bwYKi5yyr+kMNlfusaPKgQ2XVwklhhMPUUO53nRC/G9H5MaIRtjxeD
-vfWoU8OgmyjccKjpSNRM5H295HLLxMtv0CZUhxkT0G4U22OYE5f589pqJR9fi6qLjWKVJYRbgNRX
-L0DowFxhu8tXB7Ru3SjvQJ8m3y3E0extMynCSeN2/nkDbHc4jzgUWqI9ADp6gTfyfMsVqPzPy9wP
-hNP3itsIczZN/ExEb01qaUcr4aOuKGahmgoNMSRtnMxK3xE3cQlE/oGB1MRbytOjazzNpdl7ASw7
-EPVqqC5Oqs9XayaDYsretThdfM2ZqkuUGzmwRp6IART8MbZ4TuvVEpfFSTwgbtxkFe3Ii8b4gaEd
-y5eTlTj5WRwE6vF0lgdiGzpOZjP/mJjGQHamHTi9boZKEZXRGp06TXbnhk6FbGNOS/2IuMfcaUXM
-oggVYhdNXDrNyb1DNBj3iem5h1VUy4EJrbFryKEPrJaPHY28hWkAkcsjUkPPZgUr0TX8ujYxSaQk
-3x7aMQX0pcUwaEWf3FmKW0JZ8t5YsuVgwz/yQShu287EzdTOzb7DcBXkdaGHSatXF1rC83Vw8g8P
-WemO7CpeefuugVLnIbqe5G4QXFfJKGyHrJeseNdiCdwcik6hRXcGfrjQrtG6uVH70Tr830jqdjz0
-TB9S1hMJpHAvlPrm6pq1qzQRB3XrvJS1rMkOTtB6D1en7uk9TlDal5SgNGSJYGlClD/6zsgnuirV
-jHInROz1Nbc4OfmYLiQjQFd0dLpXlb3TLJlDnJGeFaS68WTFeQE5bGqy2yXuhpt00rmEph4hiKJD
-D7MxA2CLvjft75JY2gDpcG/hZVfdPGZECfb6Du2h6pjRJo0I7LbVbppoeNP6uv5O/tA3pqX14Mfm
-nH+4ramtSM+0de0CHoyJabCq916ZMxL3FY3NoMmQj5WZHDXEQAaSKOFGt95Ur2ixzGrqrrmRuM6p
-8mRH3NOy9toroCcal8TLF5co8aAWK1UIuPVL3qZXC3k2YzEDUvFDNVA+JI799LtS7P/g1/knDY2z
-+Uhc0yb1DyXLn+O0Ck8zVlmr4ejAJTioNflIczYXs3KfBgWO1up56iT2hPCvX/efPCXb60oaQAhY
-CczV/yRu8MhmWVCEDUdw09tixzNopvn3aqIlNjf5x1+/Gv6rP2p1tlcjNYwwDfCY/xRmDpRIk+la
-Dcdi4QbZKgEvJ0kgxrn+6+f6X0nOvzkEkLLzlya68EfxNr2pH78/Afz6d347AVi/6NKT+N2kwzGA
-tv4/TgDWL6hgqOVtj8RR2+Dq/paE4v3CrcvpgAhXjggcb/8uxzHdXyQGNIJSbMvYCGrmf3IAADXy
-p1uIxqeNnw3mBAm4aIP+dMPmGTWRWMEXLfaSvIKPqZrQbswJbPNKOsDsqLLfN+1yV9QGfO4ioahC
-cRlgrW/2RJtU1JyQ1l+jdChBwTMLDVJPn37MPaIedvcMIzzJHkXc31WupiFvKL5KTfEoDimjsZiO
-y2Lq8Y70THvx+RJTBloIYDIExRdYkOu1yCymRu5A3ei0DIeDKCvVjS0QVdKXY0jhFAk2WdX6OHbU
-eW7ZBu3SJONitrLDxJszfFPZzYlZUnSqmd09VKRm3ZCl8jVzWu01LUr2n7ayfdnO1QHbbrwj+dtk
-JNA1n9aZRaKcu/vRjb/T2eZDRnxSUL73POvkAnp5EqLE1/yM6v+gx/lHo8x08nWvr1GocnSymnTd
-G23f7FscdQ/JaNzb5qz7qdPf9jWFwGBQZAj3KRqHWxHBxUzm6hEzDvxYNgESDqqRMdO0/U95qZfy
-It3mNSLnKlgFLE/qp68U2KfNOO9vaR/5kn9tLWo/p64f50xbAQ5THjVmkoS5i7pi0CnqUjJquQWf
-ZjPa0XVh9hbZ21tofdvin/ba2Tw4q6NDK9foWjJ4fsQVVLzUHOZexGxSE22VPzpXc88MfyZJpG/9
-RC8/urW5o/u5HiOp3dAAb99qiRGb8R/d3jRClb3RMibKwLtiso6Ru7q+a/XtJ2Q66lXm7pPdpfWh
-nvFMiA41hx3lzm4FHXD0WtuF3+Q+Fyujdl+a03Mso/hGlqT0UKJ05b3hRcM3TW837UOrm/e9UZjX
-Mm0TEU5GMnM4Sdp1VyTVo6kJZmOqgtlp1OZDV/TevnMxUJgmo1wk1cLPUkCoCSN8Jr0zym2gpPjw
-40YICgQo7RlWWFw8o10ztp+Hc0xGxLCflGY9O3JKz7K0dUbw2IO6pafQS5FihRbfZb0XrorAjM+L
-fp6W1upPdabjBrGyfvkAGbpqB1fVdfSxMGC4LZgBJH5cUaoWG+nPZ8MnbSITjz+3lP9d6P/NQm+g
-SmRp/tftntu6Igvz7fcL/d/+zt9WejLof9Fp89D3pqtDhhZL7d+UlySLb7sAvR6blF7slH9QXuo6
-7sqtYNh81Ft6/W/KS/mLSYyW57DK406lrPhPlnro039c6lnodVuY/MeEfULi/tYL+p3ftaEbbkTR
-knxymsYTNEhLhg5TYliU7Ha+HB1y7Cra2xxZyQkxm9vYwCBS0MD7zhFirbErlQZHVX2zfCVrS2eb
-Z87+tioDxVuVwvKUZbNcamZZxed0le2l7lb9e4ZQGFsVzG3AvoCPlhBFwmgeICTXz6jCHNSLrTeO
-N4yf1XSrsL7tkj5Hv7UwfUHxZ+e3jcALJoao95kvXHSMC6mvGjem6VutJNcs6us4GGpnMCc5SRTh
-C5kqrviB0ZmW68+sQs+NEk68U0UjX9pJektY6HQaisE5ampQp7EuMwretJqhv2sHIxuMsDa8z1PF
-OpjQ4WJMi5+Nd4Ue4/OMnQLDB1zmYZkviSdS3IOIIgSLTC6i/2HvTJbrNrZt+ysvXh8OFImq8Tq7
-3pvFZiVSYgchiSJqIIFEovr6OyD7nJAoXfGd275uOBy2RRBVYuVac47Z8W0qMoa6vtO6hJtXdE6w
-rLWKXWFEB3jFnecqgxKxmEGk7klks7pRbLi9i4FW3VeuyHTBRjWL2gdyFOZj1wpliAu/jcd8C+Jx
-JcXgjXLfBpIttD3aw1VNVngqimVCBP6s2iHpKXu4RUBnOudARgK2xBHhlOy1fzEzEGS+vrYUGt5x
-OyS5zpgLQW4cYUNbJfKm/qIYyADwSK6ziNJh2QsM35cbSaLFp560mDulpvGGYbQxvhAvLbPXEF3C
-K2xFe3Cu7QoUs3WPwcraeV3qY2WSfuR/lEOBqAJLZ385xDlWMwQyXKg2j2BGYqQ5pkzqYNgU+a1l
-1ZCUUuRthGEPZ3IW+pWJIZfHklHlZkKLvjZsC5Qv0J5tHJvzbk6Jas9B0lipHO86T4uU+Xthb9Kw
-Tap10XTxKQg6X6z5djB6sLMgOoB+oplRQPQ8gmxtd+zw1efalsVXu2ssZxfmymOy2DAr6IIoYKCO
-WZ0Omgqtk3IoT4QTF6eM1d06iEo/J2yWuvVcC/dmSVFwkTrJGAC4MC/iTJQ7pMXGvncE0lQOd1V4
-jtxbszXeVnVnLZPpIDsLK/Jp6geUYoTz5heLKozBjq2Y7eZedewH071OuyhjJt4V4pJ20XyqopnJ
-DHbRTa6Tz/yOKF5NZE66iK+9RGlqJuFdmj5tomTMo+ekpXNQAyPaM2QU27zJQalYvvyAP/TarXz3
-dnmyz5HFjoJCFRlrY13NGYOaJJU4VVAH7IKUOSxXQJqvNfkY59rN448xNc9F2whQ8n1eHBTeotWU
-evE+y/p8H6WKrWwj1Ys9AM6XXhvex8IAcusE9iXWwMfZNs+Vg+vKR/5zmc+9e4nYzIANpoYnt6mH
-ZJXl44AYzLE/ESM+0s+b5hpUQmE6d2yY9NaqlPNq+AFiDbzFyS6fM6AnXfHVA1yEijqisDP01ISr
-vPfEPUXvmKAz6uuvIpjiB6Qksbmq89b9gjYC5yjiX36GhPMWFPbacaSxanRfHAcT2VQ+IuANwPps
-oz7DRFnFwWHEgoPFmFYKfT+GqJgMaYj4GhicFSb6gaKVORXX5wEXzy2PNZIie7oMh8RYu3kUHgw/
-kVRGTuOfAhrVISrXIngZvSq5CYsgPfRRXb3QLAo3hTnZ+UqWQDm2Uy1MVBXWMfKyu66kLU3Xadzk
-PN33llHLcmXhp0eH5kTroWMyZ2bWZhpd9Lq+z/Y8K3pWdm06z7Sb8ZAnGnn+YAlQT4QQfXKx220c
-S8539UiTR/jt8IREo1q5uFau7EIS59b741eaTKgGbaej2QUBP3cpuvB5qf0IZvajjTz2PFtpeO7H
-YL6ZiEjfUdJ0N3bbyguSAMx732rnfK0aos12da3iLbHq5mfK13YjCHW8y4RRd/QYEwT1mTZWwuri
-V2a/5qHqK/+TA9nVINauDbczS8466aaePkeMfbSqWfkDijSsk713ZTdzvOaNdHYituwPcQPrD598
-cqqBLt00oIE2Hd1OrmyYTN/SCZEhSQ1Ntm7sKNkoEsMpey3UMNHYeCvL6m3IGdOk18JuvpUlmlZr
-rEMyIuz6CpFptjZAcV3OVT3cFr6xBRAbXmHlcdMVYtwkOjqekV8lptVsmIJnz4Xq7YcMXPeVLwPE
-2oOl2PV4SXgnwhFRRNCNR2ziqVjVkRjWfZKa55Z28VMZ1s0T7ej2BnFA9CjzKL3QY4PsdAjmD1Yr
-pi2hQ9l+Yli4jXAUrkzck8lGcLZs/Trb7I5VMff0wnz9QZAbMa1SoaqNkSIe8Fx6YI2ZmDcNdCRn
-6wdRfaLRgdqqzIfpws1AIuCctuxtQJwE17EbPoqRKb/bI0NGdosmHyXtfLJSy/tq8/Pxm0dVehN3
-ycDs1AyfptlF+ypmPvRBZepipWKV7mCWefRIpXyI/B7xvOG2DK7jKEjFJhjGS93U7U5JQjzW/1sc
-fx+ovlMcUy0sHbT/vjjeFSjRXn4qjv/5M/+yJZl/8SOo7kyGmou/iOL0n+I48P9iNOoBRbFsi4Cc
-hTL0rz6I9ddSSS9OJtPBM+RQsv5THNviL6xKVB2BSQeMyI3/CCX0tl0YesTXEhqB05F/NJd+y4+l
-cTyM5owKSh9sWwOiAimIVVrYuK2FdkLWbJfsjtzTKZCA5F1D45s2nruMX5kNc30wNnoMmX4+etMA
-fe9xZuwHbfdbf8L+aaV2AbMSxvUPt+U3fdHfHipc4Ew+2e20Rn8+FPVAb1ml2+3Zj6f7wrYG5nDw
-A4nSbN5phf7uUFxK8PCA+Jhkv7FPUs3kchICRtw4pjDy5mYDTihfd8jUjn8+KzZqP/ZBv19AKFCm
-MFlD2d28Oaux73ReuFzAMCUVp5/sW+Sm3uvYextk19nar2nPNBHiXVQd9d+Lwv9vPOI/B2cgtDzF
-bPvenGcHuCFyZNftsQiw+gP2R5bC3ufPp/jr1UTla2FvYDSAi+9tCKeKA4TLRL2BpEOMyrMJoGLl
-jo3fbzNJsNQ7J/XG+8pJkQnLuwUQDMC895b77fI5chKr03tmyR1UgfYbu9RXzK4UD0V54UVslf58
-gsvu8wff6fcj2jaaMaQIAm3cm0Yk9T0qQ6fWC03Tpb0YFtyssN7++Shv+vN/H0XYIYEUJjMhZ7nM
-P+yBwdFZFUWu3jtpP+GtNi5plp8ncq3WowmL489H+91VtH842ptHA3dm3MRuofdBP1iwXNJV3GM2
-l1kuGfYuZq88//LnQ76NGv1+hgGRFKTfwnPx3i5lU5J7wTDw2hGBi9u8FsVjbGqag/UcAJ6K2QE0
-d34/BeiBhXrxOjM4Sdc56Lit970O+61mL7lqB19+HUfHOE6wrFZ21DX3FDWrwk/YdOfN/M7CZP3m
-/jtIqtDKAJonM3P57z/cmUAxQK47XiOAQkQJCWPIAbWObr81DIdeKfLvtQzqAaNHLrc24M1nc/YB
-/ljIVX2gp+tYxuHZCpz4nXfB/e2vtkhqecPhwL2NjsnCAvqWW3T7sUtgupCRlbbJuG4Cj0DPJlYf
-2IRka3PwkLfXQCZPRMy2l4oc8JzOMT3PHu89Xv5sRYqjuaJ2jjZRFTAYtOPpItZ2e217s3EkeKve
-QNWEdO3jgGiYPz9qUCOPXR9E69DBbNMKw98RzZCueqcNtoDETl3eKvQohV53kRvCzCaVQuQfNLOn
-6xwBP92PGYYE/XZG2925Dv35gD9mXk2CeeyI4vDSTCbzyWibfp9VAMcjd3rNJ+euC3DmhMCOD52X
-dGd+crX789P66wtC04vCgLceo/svaTSjYobtDstNV8m1wSZtnQbm0UrHBz1Hi8uitP7jV5IjuizW
-QAP9Zb35+TELEbIH2DG6fRtFR0uJbWHFXxEGX7YOqvc89D7++Qx/XbcJOWK1IUZxob7Zb5Y1FYd9
-xb3p9tlUyJXdw46I68HZIvKbNn8+1K+PKWE0trfEGsOzo4H086nFmo4/bim+gkHvQkBurGM96PeC
-DH97FPqUlCkOncSF7vjje1qakVF2AxfQ8FrMibhHjINu4uDmzydjvelWso5xNvAXwOX5Fkq5N8eB
-NTJbnmQ8NAJb2IA7znbeWMYbT5EcLiLlU1Lw4DOEjU9t8NTa8Z7s5PS9ZcnhdH7+LC2gSkiBgeU6
-FnO6n0+3aWoxk3emsNUWPpKbsNhFQ9btxNCRN++IWRzBsYbb1qy/FfXg35GENuxj1+yvynl2Tm6O
-3eTPl+atg/77pQkJO2ViRyoYreGffycaJQaxxY7aV7GujmbrbkNTQ+2C5H4dgQbHX67lp8LlVS4a
-YzprmU5rD2UBLLOqRtuBsdQa++s8IEtoHp5Ra9vrJu3k/VTpdCW71D247JNP1VRcGyaNz//JCYSw
-NRxKet7/5d7/sNZHVhuWUzBwUZPpLm4xvetBxB8SVrG1bPxsEynLXJe+1/HFasvTlMyfg9R/ACEY
-HrWMcF8Gbb9sXsPbevbrh0DM37BaVycnoJ81SFTLyNoNvhVdsWvTRr5zBtZy2395LH44gzdPJ1Zw
-fuF6YnhpZPEJImZ16lwQYuC5Nl3asshrxplZZh4dvHhrNqPlO0+B89snk5k/ff2AScTb1x1Luxgm
-V6t9ZiQdUmzIPl8oq258duirIjRf6qIfn2CoJF9Vi3Gjj9dZbTMAdBIEanjAbFPh+yAkbDWk1lDC
-6dESZ5Zp7hmcZmtwUta3qSKetI18qPX51jWzeoOl9AnUW3uwete8NFxcU3Ndf0awd+9NHCgWll7L
-IVTuO9f819INboVpMf0mRNdkt/TzQ8M03M8jFIUYuounKtr7fVZsjBnmGRoo55068TfLtkcNzM6T
-LFpqxTc7ClXQYW1ZdPYyrl7DNIj4ajNPFeN/SnpdXmaOxNAoFGg5wK7+fFpNFGu64i5PUhs/5JYT
-A6acAe4AQgSgNuWENZieEZwiz/oPU6T+PrSwifN2+DBReP986C4mBiXKcFNqf/oUdcHN6Dd3cJxe
-C7/7wpbXe+cD9b32fPPWkB4F3dGy2XAjYPj5gGFPelma8siyDa/utEPdM2HJmypUBU4/fzOj8gFI
-27iJJ0lxI1C64aJsyfx4L27vtw+Ty0gNYTapgG8/y6nuejfBKbyHAtBtTOkz/E+ASRlpHa/dJHv9
-84r3m48mwzcE4CEhNiab/J9P3AuzPC71yE2eWqSS0orWsw6Sd/aIv72+Fp0MniQu7y8TvkxZcW0J
-qfbskVtwA2NCxkkWonklnWRQDm9nL/TGmBqm79Ay1nQDiu3YGxczM6Z33tdfN+WBt0S1sykXPrK6
-Nzd7mLQLb5zuvtOjR0tiP96pdr6a+ileY1I11lKVhG75nU2TXZvvvMBv8x6/P9xUQ1xs6vZAvH3W
-urhHZwBDcz9ZAvO4z0QeLWvcnWFF4qsYvJp44lrzA1bGtMD2eq8p3I2ZAcBn7OInRPka03DVJ0TL
-YYzstLUGJaBe/vxk/GahQerrATxm6GIhEfr5yUgMbCxu5TV7jFc4sEkk2wpmf1tq+fSdS/KbQ2FF
-EH5o+rThCC38+VDMppRsWr/Zd3NUvgpn8m/nKmG2Znjm/+C0FqYysqalpfbLqiYXzKYMRLMnmKi9
-DcFM7erJjy6ytqOL+O9G483fq8ePZO7fbCE40pJN59o+Ta3l1fuhlrBnaP+15kgpMqJNhH7pvowb
-e8vXbV6ZY8lQGkDxOx/f315K9tcC7Z3FiP7NXWPQWHVh4jb7yV4U6e4IfzED99GatnrnUN91A29r
-DSoNMwxxkiJHe1txB7modTxbPCKiBb3sTeQwrNNEDPOG3JeqWHutsjceNTk4VqcfjB07Ryxh8+g7
-Jbk8Li9X6tBjPEYMUB9tEo+SDVBP0BmyWDz7UF6SzwRVLByiwFVo1gtkrKpaEkAqTgmjq1cHeAJ6
-d7B2sE8duvsQRPaMQnyGOqD9slWcJ9aDp22IhoUYXXuXWeXobclNSuyPIX608puX0SyJV5IdTHIx
-JqBGsEHmbfJBFQwOj0VFd22f4AEVW8OU1qnEPGnsGVr26ppQXw3ppNNTdOspqwBvowNj2JVDi69p
-pUWYVxtyf0V8FfjVkjrhOnW2025T3PcG6qhTWxmkr7d5Fa2muGViGSbpI2hzR6xGLersCLglRt6g
-sc8urMMp3qJmqNrLrGc7iUskZIq0V2oI883YM3Hc1D2T7gsiOSOTvkMp7Y0s3aW4Skkw++wTFTSR
-3dGN6zlAi3ovXVCP+7pT2XSDAbK/r1LRdlt4vKF/Z9ZlEDMK6mN9pIgd4RgwXUO5HDM4ZXiMXReS
-cLivmAPW2yJa2n+mYYeEZik3+JAlTbEeixJTshLEFa0yKV1k1/qWPu9O9658iqRdfCyMwLzrKm9Y
-RWU2Ai/Oiq3ThGddTEBQ1G7ERXAX+TRRRRJvYY6ne1vkwyYPMVHHuj85/TRgDFCfs9wjrkXb0UZn
-o7MrHeeFHO9h21cTOmLR+nuPyKBtKFIP5y3qESrmeZUhvbsA8DN+8TsQvELjmqz8/vPceO6hd0b4
-rmRbAAV9XCaZoKibGzcs2y1yhvQmd0AHQM+wLoKySK6cgfvBbgFOEnzrcXbcvWtYzFEB0pFDFR2j
-UOTrMcs1RQXisIKvxEYpvOd5MR6bDlJAOk8uf8vP302fg2iZ4472ZjbzZjt2LWDUBPgSjGR89dge
-0YIFN1Eg7kojgXg1BLjQ55b4HjRfm8iGeDlTut5FcSGfkd+bl1WC1ZfBmsfotGtfPaMB5NBBJwho
-WO9R57nHtggxJFbReHTMFCXM5KNvG/sTarIdiFRrl7vTx9LUzUco3gffFfepnj66I0ipwQxp1Ono
-Y+nhhuYNLIMj0g4SS4wGI6prPOSIXk4qctKNF9fB1mRkyn1o5pXIwnmDLETepS14kCZugzulyTiC
-InLZTSgPiiUBfDLg0TWDPAROlx5SVZaHqgz6V6E6zTh/mOlw5X3azdNa1001O2zNbbONo22dht0D
-qJoEIg0PzxNgdwdCRcM+go8pi0QW6+ETIoH8uhl4yrIJM0uQW0dTx+BB665GUzgD+0Gyvh15IbaR
-a7uTuoR1Gw/q05S0vmpQCDHyzDezsttPBkINM4MAujJsfue9b9j1V1ADuTw4eWHrTRm0fr+aaqRg
-l4bhodrP/YD5YTH1rnGiPWsqmrRNemgxd8MDIwpus0hoHhK6+jd2kdkPwFby9IhupN26YdpcW4Md
-7PDPAeEaG5pxSarML54ZUU/S35VbfzaLC8lH9mungtjDohDX62xwUwdxq/LuRZ9HryHNfU2eFARr
-/K94l+YpGD8wZypfW9li6JpKZT1XaHE3bNHcM3Bk+SkNKxDWiZr2HRXLQ0AU1qde8XMmoxi3MOGb
-01yzn05H4gRs4agnunCLSlUlM2JOzZOAe6P5mMRB87WRwL7y0QCr1djpIYPVVkB26fJdCuvsya0b
-UGk+aYgboKIl4qZZ8XIUtgFVyMQLFHueu84ouI66wXnh00IG8dqF7S5n31QeSgnva9Wlcf/YREM8
-bwOoaQFio0UlX5sCZ07JaJBguASuy8A6ciI4L7k3AR2tar/V9k5xOY1HPAacoi/zMLmIMXwfgAH0
-jz2c6OEqjqL4nAaQ12sTW1aND+1SJKRlSEeme2Gm3n3f2XD2qESakyeT5JwNSj7TurO3NM7cc9zy
-qm4r9DC7GdvubqhHUe5hwMVnoo57fzGAu2deooaXirtLE7455WUoIEYn8kvbx+2tmFvrQaVc7zTL
-SZWbMMcECRfVYN5+AYChuZVuK7+AQa/adeXNC2KsyYA7U/Ed3JFsL88Abcx4vjkB0Aov517JL90k
-2499wnWdEWl8ra0YwfOsEy5rUwF8i+lGIF3u1Au4J/cs5sYgn6AO4/OYukBaB68sp5cZkQ9CXWkP
-DlQQokwiEOl8luUGoRdSKiyZUAarBOt/oHWEI6g2rQdpwQhJXUgS0kvQERFG/+zFuPcIX0QRZRtz
-BJeK+LcXV+MCirugOU2tGW1iQ/cXLQlDBxH644fAyFgX4yg9fDccStOIzxpB74wV1KUCBxTExMJp
-iiNasAVcHNLE2aQ5Drek7PgfcBUFxLgNRbfJZomDZeY9p41VqSfy4qbXwO9hIsawrtA5Fker7Zan
-XCewX2Rmu/cp5INHUUMqXA81vyQ2/Pwu6Fr52YGMdm+EMzgyWQ3JefLKylopUbUfCxgON4Gn9KMp
-x/wuXW63TcDapYvd664RKICsHEc2HTsT4zVMy7NQXDVoxtONCY//1ZyRDxmjcCuE6EF0Z+OlOaKc
-wJ3mDPzEes7vKNnHD6HJRGYeelTTc0tLfGuUyfTqS9p860gnYIvptyjgV54xIMAwapyoCAdLAPWG
-F92JhC3XSmrVTMey772Ec+dJmkGSsfR6gieNNSs5F3lWW+vSmusbw8lo4vZTwb02VQAvw3PqoFqT
-t/lao9cn/c0sEbqUA/DjOrMeRbzEK8DY/IadVcP6t5EusVrMr7WdyXbt2dWU4/x09TfQQ8SWRz2S
-fkNKLovHl1ztTfSR7QpPBOmhCEzvws5kNfO9/tsog+a2i0Br6caW1x02/08j2Xe3VhfE58hr0n0X
-LgkYKnCOrGOQ16eA97sy4u6pQc5u3rZGoFjja5AUx3qquXiQWa7YE0c7CbKcRYxEI/qmHbnRTeQE
-z7MKuuuolPG+LwriBbySW8Nn89LB46hXrh+nN55QcidxAn9oZQ88CDcRyQb8KyVB+kS9dL64Yezu
-hITKDzQHh5Qzoq3vHW9vcb1WTDTFJu9a3sPOKac7C94PCTfsGiqREc1RxAI5bn3fheIKmN0SBgKs
-I+radjPoMLtu6P8A9OtRGMJElaDvzuZQWteJX7JuQAzEA5kaVyMG6HOF7//eI2HlGI6pJkshLWf0
-pwwbG1wlRzftTv00FWDHdX9lxkN7SQpqhZOymlaU+pSAIeM/WqifQ9gDx9yvxruclMyXvhCnJjUt
-lrSAvzkK6oFnYX3sxAWIEPFEvb3ozsb6Szgsc6a62yV0lo9NVPtMyxIK0j6rpyeIFPGdWSXDzgdy
-7NVFswnBXsWrFLtxMMyf6f+Vn/IS7wHfHC6STX4BCz07nLU/TUC6iDJRx9wwnVUfGeY5LwXOQK3d
-izIi1lWQPnbLP/g05SPjQTdgxZwhjO+04iDajfwbbWKyoDFNfKgfic9AurxHT3XFIU39xzEz4UzA
-p6IOpJRblYvOv06H5CoNaNyAJjlGuEq+wMUedqTKmHuiFOdNkGpnM/S8jEom3WrIaRXG0+RdUFyI
-p0y4e5iU9Y7XiQW4Rl+5ij0MBWERhq99ru2nkeSH67AMZ1QLpXiQgEIIkAnFzmXt4tRU8UgcuH87
-9dwlt0czuPOpC1dt18Zbsmvlt5lRk72WcZdeNxmPASGH4OMQ4hH8KyUwJ1GCqR/x860ZIKzCGZuH
-9j0KehFnnzOiVE8x6DrwKkW2coVxqefRucmi4HOXGuWOV3GXElNLoeZCfMUnfl0KN/pQ5DVlhugB
-oPomuICgS+8CE7RMXjrBhZrwmURmsk3cIl/l6KHPpXRrcE4DsMoZgdlxmur+ynMNPjslWV68cF5F
-0OCYnYvMSXD4w6TmvWsrtqWFsQS3MEPrr8Koyz6WhJTtXYsGPK01JMbNvNAwQQeSwRM5zSXCRqzM
-fBlSEpda0nbDITXvXB8DUOaPhwidbh+o/KrgLl+oavBZ9Wt45wx4cMir7pK+77TyVHawwNJ/BDGM
-1NX43NaVXpfkYa4biYU186sEj3bfWR/HCZBHbftfrNn7FgHofaZiLVDxlTWLljI+EI1g7Jxex9vO
-1+Xt5FGxFFNrMfQOu4XzH2GgLc3x0Ntln54Mpx7EpvdN5R+A0+BmqoRXnw200/Gqmvz6TPtmYXcF
-GdlFuihYhGrLzZ7LMqtu7SYob0GCkWiQTiygWTJ0L4WyzS8VQR4vTWQCWrVR4p8bVAAnt83qe0yM
-wfCxpeLhvqVsckpym/hKECV9LCQZEXM4yk98LemdzcQUaZr+/CfwXoQxVDk707xMxCleUoHKvO5e
-lFY0EdSky9ec7J5kpeYuejZVZn3Jk5YvPbxKEiGaMXomqZVNuIhSgGFyjtSL4UqjxIvfhziAcre6
-L5qRhUEl41ADae36eifCgY6GHhMej8TWFDh1VdT3iadzlxqzjp5dy+XPhHIkbMIHCORuAFDzGFXO
-1OWbXvFbbjM8d8HCrOOsFt5vifdHVOoind2OfaNZ9VayHuSQxjuKV37ybARjfRQD7cdNIsLJ2BvT
-UgJ0TEiJnxnJLMoSE42314KFXhffadDGzKcO9bqOnvu2B5sX63RhLsRu+WprzVF145CGNAgnfP77
-YrpQHjXqUQfC1axMlGm+NZN8yn6i3juhG6+dxlNQF783BRxLVPcu+rFqX6QZ7R6UBQhLK9heB2nR
-BTrbjTtaiJFn9wIpa33vDigquIXMW9dD1HB+IKjph7TSzLMLhYqh35fg0ZIr7O/9a+/RG11p25XJ
-lWdYyUM+9Tap3VX1VFqhfwsYDzyqJL3uAbO9mg4jbfjoDDF4RF/XmzweVOX81mkVcfO8aawM5n+1
-W6y5J7y79P4TArwcwVXsjY7/f4am/ZKye0lX/LJLbHmvvqWZyop9qNuGAUaI9H5PVpE9rgtCIah3
-uZ3zoaL/dxpSBa6I55CKzk2EzI6m19JEaZmtQBNoADDzqgs23HyE+X6tS21G+aoCVwLgboYtfk56
-x1w3SwlZkCPd4SC3kw9WZtpboHrmiZl0exhKDa8iDkYcz3n6OM/J8GGwsUF/73f+r0HrHQ0qz+0y
-hf13a3gB/vwD8lmIQv/v/97Xukv+z5qVt0h/9mn980f/5cgN/nL5UT5Nd6Idvttu/6VEdf5aplIM
-ahZ9yE+GXPcvBmSIAIjW+Vu/+m8hqgOsByWl6zOHt1Af0oD+F5Pon+41OKP/Vkzofheg/DAjYyOE
-MgUh1KLOhG1vvhEc6NTOqzZL68PY+9YAKJyu1xpUFaExVSN3XoW1Yc2HMLgN+RZjCU2r9BonUL2h
-rUuTFqGP9ZBFqfPkKTYgNQX5fU/s7nMoiFUEek43xx9m94BLlReMiYF7kRoEnYAMr8f1MOYeVHhj
-zBT9AQzKl0FhJNe5VeNgB5zgnDSbpAYcfBqDmYPGbgGA9hKUBH0GsLHE1rvy8cHvckOJ8/fOSZ7g
-2jVq5kxbszGcUxtNoNO5BVW2MZzETo79qCS71QktvtFGct3ZEa0EeoqnYabWp5I1K2CRTf/JLPml
-NsTadN84ikUgDtxHi90RZo9VIBs+Lr5XTNvv4Vg0ydBKAoqGop8aOE2JdeYz4sx4VFNu+IE0JpIB
-K3eICRBKo5fZc9kAE2OtnuRs+PxcfrMnIV31VA3sFcPcJDSP1MLzoKPqQaqgPncK+Ty24zHmq6LJ
-PcSr5OP7L8qCahEVP9/mGR/HLRywadt4kgvJzhHwsumk+JdFNjKISWcaEXFAexEVSY35ujWtDahk
-Ph9hsXzpglKt+IgdR1nKpV0Z3rgqIWI5I4T7oLh+u75uwkv6+c1+TpLhMsHITD93CX1Crl/fW1YT
-3Bp8fq+zHEtMOAU0iC2GgGVExyKqgemk0I5hOaXiCAu8Pucowoz7WZTT1vMz6yTUMKAaJEBrk9KM
-U4cZKRDnTN/NqdLmyzCXzadW1/aTNCfhgL1tXO/voZlllLQ1u6TDgTFM4e0o4wQjnQjvbQhht6iD
-x3gbji1ffbZNz3Y0KoCoheHamw5O8mfQpwHcFiu8lNJhkghcA8/vmFXYxX2AM0etJ3vap5E2Lu3I
-6If1YPvl1jHHAGatckKsP4mbuxArB6nZbQMIuUycMbyRAX3DldV63gfSl8VVwsdi4JNaEAQAYjND
-XLD2cKI4+xinLrlyRpYNEiILF6I9TNCbgk/kBEFUpF3RwFn3nIj7Y+DWRl2gm2Eb+EGwi1trtvWB
-cDOjO3We1ETON82UPtFLDwHj8xf7eh6fj8RXG/cTYw1wR9GVX5b9Rdp36ilpymvgJvEl3NM0/JpR
-Lvf2ynZgkRinuDR9zGR2YX5w6SPvaGyTjDR3MxBbTOom5n62nmZxxOoyPKYdJmQjTOorasBmq2R3
-l2mL/nYhbQ9oDNJgqKvJ8OjBFvEOvN4G7GUn2tdtO1Ncuw7IGzOw5AY7c7Px8jHeGR1xnS9YxuAk
-E5GN1xNDpqb5PY4XDB2yI44ieMvM/RGiXnaZio5Mn9U6DGibDik8Qn+EPiY6aiI6qXuMJMaLO7PS
-EOm+xiayHwMLr0pqEwMlO/8a6+E9EezxhrnNPugy9xFOC5obrekLTbo+k+B1hwTJXvXtzG1TIdlq
-AmBzXwDGC6QX7yiY1ipzqwuzkupbNvnX5mxHn3AcDYdxYHJUeX1wzvpaAVVheiGw4tzgQnV2Da1V
-ZDPJtBfefJ02wbQHQdytk0QVu8mC0z4a/CkLJz4WmLaW+O7nTzWMSyyO/nmW7RUiOsokG+lD7tTt
-HphTu8s8w7xq22g4ewpMZqrYS7Pa7iEVBts0mqIdcWwZ6mhXLfvQZpHepOui743FfGhdwAHsCSqK
-n+vUVpvYSohF9qdqY4eaAUxXt09D1gwHs4y7DxkJ9jwYg7HH8vmqW6/YT0k2bbt2sB56y46e4XBT
-j7IdEUcvY+sIo9w2j9qrh/zgsPO7qMgoA4DASGolY3pcksSqU4Dbcj0ahn+r5TIjpFQFOUpKYeeK
-kqfCm33Qn03FnCwnn3AboDy7C1UTPYYNkYUOM02cXgC6QdM2X2DG1zmM5zT/KGF+7yzdYwZN6bqX
-qgv3Ne6kT3KIzKewjY0tfe1qXROScl1BHLqYmoHsJKcMbtluVVfKG40zbfhHP25Kc22Fjd6R3OFd
-t3ZkMUOk322d3DGLL5l2BSGNULdZF11KuzC3HdTbgNfmjRhKJlRExdH7spxrJ2InPZfJyBxdMsgA
-4xnsfekDxWuBtbU071aNoRHxSjrpPHEVmRZ6kBem096ho69vx7kzr1E103PtuNK64DEQw84cbfbq
-ViIONu1GktCEQYaKn31zlCi/6bKFXJQ45bzuu2jAnCq86VRBJ3TWGTSB/2LvTJbjRtKs+yptvUca
-ZgcWvQEQc3AKkqLIDYwiJczzjKf/j0em/lZldWdX7XOTlmYUGWQE4HD/7rn3BjaHlOcqHsYLQVmY
-Bh3Om7XbOOcm1N8Ud/jBvCz6irMGL9lSqkh21nNpogFzT2W+bmRgyxrr3Lo04TPOVXDL9C20B/LL
-G2uHtZVteUigmJEsX2E63KAnISQQon1vCs75bJgPGRbTDf6v+nuE3OkB5DEZc4yUg+1QVmytF5PC
-kVC7pxS43WTdlD2Umn3LdK48F2s7bEi4wHKmRyhM/hS3U73ptGK9jZY+3NRF94lj+YlpG1sp9hfJ
-amjeZIz4n0mLDqi50xuPqMv+iPVQbmbIVO5NkFHiqo1NTBjZu55lT4puV4ExNepbrDOprBJHfG+1
-9jKM2o+waDwHfNB3FfFa5hrBhRZtiHOmiqO7hOu5VnEyC6N5raKVgDR3OBJvFrJ21jVCaJMFTjTi
-vJ6X4mCM9cFaOB6mtvacTEtGZUMTemVia1ut7VwM57IxQ0137ZjXx6qfH034mS35pOB8FLDSWLt+
-9uw/fYaX1WPozER4dCvvdVgYCxME7JYWUbTeUnbFdh6wajAN/Qgj/atGRser2ljGnUFwvg8S8NBo
-PdeV9VHoBbU069Btahy9J8yq14a376KYfPYFnx0Vypyt+ZV8/LTT3qlD0ACzNjdMkkkqdOx4d+Ve
-qRSMCMqY0q3K7vFOL0V43+IIbPnQMb7vkpiyioVeHOLzuUQ1JwoW5Iyg1VLqLuv0GbuQfQnneNhx
-xrYGcMSyugwx5bE0i3gC+6WFiOmZPNLPStPZQWevX3qEE7nZJMX2rhJ95JuTe9LrihjnaN/oBS24
-DAjDqbtbc5o44r7zqTRCHS/eEF5Lov3np6kb7mutv+tpV2G3RnGSjZ6Z9+HsY+Kk1JBRDWkC3OaW
-Q/5NYBmJRVQ4XVrnMkVjsgtU3dhuPX0RhKgppJ7f6/AVp78Pfv+S+RCQ7S8PfqfvZT98ZMuv0Rw0
-n8lv+uk+1H4DniF02/15rvt54nN/gy7He6BLtoYDHiDPT++h+5uGdUcjnYMUMelM/O8jn00lGqFi
-YEvAqPIQ+e8c+f7sfMH7h+kF2t0litXGafSnEx/BsXHrgDEdR3IjYozlmniYmNRsjYlAoQTC/jiq
-3yi9mQ91Y5qTlxJUfWHL2e9bUYw7o4ENUvtEVf8Pgg8yE3jq18MoYLE8EMs4MyLGwFT/Ea6aOwpo
-MgDWg4Agqe7IOlLvnNUGNk+V0MoI9ageE81UWA14RPWRQY9JPXZ+MbtD+OmUpfbQcapu2k29iEK8
-4J6PbhfKl3vfjDvttQBBYOknCxXFdQRzDXKG3epdAdPSKYFp94qzZ5/EU1fNSmK0NSiSDPLGFFn7
-HEPL7Csmdenku1beXBxm5Etgis4ouA1LF9f8oG0q0gQ3M1mOjYNeOmzcyTHuGXYNz1QTs4trGzL5
-3BwVxhvYHn0rlkK9mCFyBhRMi107If2cbKpMjs2gCuP82FN0gDaObgYiMhjmA+xMkAEmbMsWFIUd
-/K5N1vZIoru2Gwaj+0jUuL1zIcUCO+1OcJrHurK7J1EmSL3uvOxEN/Qn9hLEoCgE7WHQaVqPkl/7
-tgHVQ6SJtwqKMmjLoFUXxXRfVYMzusIesaJaLif/PAxr4ZF3Mt3QYq88rENGY5tg0d1MyTifI7E+
-Qlfkd+0C5Q/JXDJGnWwt2tJkY36jLYVCrTrmAYlcBWjDOcK+qE5WX4j5MjgmOsW9Na5CwrpMq29I
-f+qM5zRqqU7SlIQQ/GZjLqG+xSQxPS2qSiJUbJSH2a6tHZHx5bampC7zOWsRyG3A96yl0PbET0lO
-gn4vzuVgN2rNUHXtaaNuIvuBd705OXbG3ljk6jHSDPfoarZzjKmeg/cr1fxr3WvdUyWq9Ecjs1OY
-Ryj1I53g661R6vPZGFXxGYnY3lLzLYtZ+etbnbk/m2USY5KKQynvu7lFTaZzo87q+D3jsvcMvZ39
-niuNx0Q0XVQxTrcuE72TxSNjk5vMZMyG8JVeIV1Tn/D5Y8EwLjGZCyRsrTr1vUnMJU2tX7idRur/
-/LUx7a8MhdivzLnihY47AJJM2rse0W1WpMvynU6Z8KZhgB4489zuedRymu3T1H7t9GVt/VDE2kEf
-7bQNMBItVNb0AsZgrHQy63kA0R6nN4UgtJejA2GphsvmICL2FxEDOcyaOzngJs+GsUqrnVy0GGsz
-8z4eRrGyPSqodTlH0AkgepjpDTyTq2+OpGJ2I3Uni26BbDmh+VFM5mR7CY0gTyspF2epZPH2rU12
-Q4hVuDUqN/R1J5F3F2CB6UW5GY670c6NPNA5LT8IBr4WifuVfUAdfXbjaf0mcEKT0tOZB9dmOpvY
-i1sENbkVnLLE9DrGi0PwumMvqldElKcEWdJmro9uNS3kEbXirYRfGwIL0ZvQXQxGI73DNSMNbWWw
-UuDVSj1tpMLlvLBj0D13GcdDxSydIT+LCFA0AS93CFQ80cck0u+63Jwe7JbDKoPoeJzlBiu/I5+6
-3kH/sAmaqrFStm2nIbDXLecJm+XgVMQuWw4S/YsvUKnNBXmwB2XKdeMmJBafPUxPKC6bRxVoJa2e
-CMxV8kAbCDFQK75uc43iK9KW+DiudLCQXRaTFTRlz8TLl0/kpWl+hKQSFPWEN6OuWHytLss+0oid
-DEENSZl5itHaVG0vufK1BgGd/Llp3ItuTE6yERwD+VAgjNqtqRbud4YcgBuFNr1GTpz7I+O1i9aP
-zX7m/LoqtgJjNlTxXtXTUfX6JjZPsTumWzGN7SO45Zp6oWbHD4xJ9ZdqLJKLIOVB23dtF91D7tbM
-+NBbckJW4u6tWlSmgCaZ3taulRwih4vsPW7chjE99qSbHvSqIruXJA48jA4KVrb08Z0y90oWoH/y
-cgSGjIAHi3txFfTkRtjdGwYVXiJy1fVssjZvU8rYAUrIOGomeplZG+ZDipXkK7qGxn+46Fjnuckz
-AzZtUdGOPOqkFN9VC70ktrcRZy1C4CedQ0f5UHGiHslJJUxw7Jvh1Du2ff3Y9ooTnwq1VWKPuiVf
-HzWx6WL7IzXUKZgck+DaZja+JBplg2ktxL2LxZpXLT50EqS5EK3MuJuV+ozOypJj5edoccKPuUPK
-RygklU+Z/UgryFVkXrGpKXy/XaxK7MxKqfmGddbvSm50k8GEM93CZlKbpZNiBUSio33yH9yVyls6
-Zc1DC6JwMq2GGkrk6vIVyHn8GI28O2WY/gJq6+ktYV/yjR6F6oOr1DJ8k0AClo5UjM5mwS1x7ioq
-Vjwep+3JcBrSriwjpv6EaiphwrIqixlMResaW6rSE6q61kH9Yqd9XzIGbbJvZo+3lFCV0iCi2YxA
-SdnpLyv1Qn1BWnwsJsKLnXzdEX09Kv4wqu0rVEz2hS0cH1f8rpjpeKcAoF0W1X7M5tAiXqiIGCLA
-n64+WSbGTZdMONjBuOmioq/lwBareluqsN/2g1IEVa/yeYVqisYPDFO+GVZT8DOT8VPHKr5R7ZCO
-F4FKSfNip507ljPuom5BqKWJeoSvUPXay52eFF4Mrtk7Gthrp2h2YC2abL5K3fpIxpQigBAcipIM
-0NSYwliSyOAcm+IyxWp/W6Xp8gBunjzO+UgeM4yzEXktiN126LpL5Eph2nKsm9iq4mCuuMXOCfZv
-K3AZlXaEfCUGSENhMkaVh5SQadbHlM7NN8dtqFSlvMk9Yg2b5AbTIimNBnF3s2hrb+L1blcaQWxR
-eS6OiHNfqCslaElOx8msrDIVmdSmc6OtxCJPrCOp36JBWz7bk/ZFT8WiPBBmVZi7gYc+me3VCvPC
-NRBu6HC1j2Pa8iSgh7xs9lnD+0mcUBiHPFohZrwqN5xHTJ5mQLIyNZ1mCjPhtBkLLcnB9c6p7Dy9
-aeMlmxl8ieI2LZ35S6u7DdO9Sbw1oZPuKht2z8uSTPlAbFSOTiWactd0LQUcCsNR2ga0lUcGvo5h
-lxS1dq+Ta1ccnZoEomgQ9Q+3VE1GaWpE9amT5qpfVqPC5BiHSDAPTWz0J9tZ9Mr+W8/jPEZJx/+h
-52k6eR1/pedRFdJGCW6Q33/c4fO//vOP7/l5qlN/c8itdQkN0DXMTgank5/nOus3m3wHpHphX/NH
-+NLPcx1eDsaHffxf/2mo6H3CJDuGyAEp7v07xzhHHgj/4bDEEZOyDBf9kBMlQQHSNPKLE8XVK7ZF
-lUOLnBO9Tgy/vL6DK7CF+rVU7Md2VPZkGDVfnUL7ukw4KQaxbEnsPvaS+YbS0w8Gs8VDJ4nwksfe
-wZWUeLuodSAkOd6Pbku4HqkmFQpTUEnCXJGsORZR9aJc+XNJohs5nHztJMk2VEqq8iJxIanXuZ8o
-U8ycvjiVExVGzEolAtow/1d0PVgk/Q6k7jdjcbd0uuXVkpBPQeWZmKwPVhdaQSVoXtWWaXjSEzdj
-+wFljwiFQwHwfpIEPvVVL7ZZJOyHofOF5PR7Seynkt1XJcWv2R3wtCT7QfM2ZpJ/GUD+B8n+L9IF
-UGAHqAbKfUe8LEErvQKJdA1k0j9gSCdBnTcgP9Jd0EqfwSQdB1SJzQT4GZ+9dCOgw4WAozgUgJTe
-9RHPAtj9EfKD7L0E40EqnQ1rX7JaYnaYpOuhwP7QY4OAmr4L5X5kUJp5Xxsw9rOotIsr/RM95+AX
-fPbbgu0r4bvFJcPFfk5yTppeikOVcdGQk2FpRNNGd0aoAcaAXwcI0AeMt/RVdErPClyCtdUR26bG
-UMJHzt7WycwWGBWlsNp91NsNFEGd3CJ2T19DF/zBtWz3y1wY1I9W1QCIXUGxx6NbbJibwizi/30Q
-0wS3QAk6TLs+WvvecOpXkaQQJzy08y9lVtL9kTOVV2l4ujXLK8FDZ1a2jdS6PQN/O0GdGBpvnqsP
-tCMNyKGdXpekJYcM/tZKLY+NskKdNU7JgyHJZaWbVhUJHRMVE3cMTFt9Eumb0OGFAo7C5QYPWPgl
-1UFyHCMsNnORoEZmFWM/ZOuTKYkO8LX0ra5DlAT640FQkmzVtkWqzJse48D9Yo20X/RZVHpDZM6b
-LkFQWNlc7ElfxC1rcRYP2sYx3xvVyL8sYOvf2kEYB8UwhtSPup53ta34N2zg73kDFR+jSUJvNJbj
-J9hvQjt6fiQe6GUI1DJa7vWIS9MaaD7ZW93IH99QhnXhEMrvSFciVKQ9QIxVFi1aBoeUTe3k/EAC
-mZHUcnJEN8tYLMHcF/VrzP23S2yMckSaQLAiIXcIbXGff6k1FNmFRpjPpCGGURuM+rs1w4eGQ1Xf
-XX+zlLQdZzsOGj8+13XxEMntKdgK6qoRxs6DOXMNmkpf/MgleFVaVNt1KVlwlb3gckzkH34FT/Fk
-9s9iLviHOcGRB2tkEQmI3Vk2qtsR/0En2tv1SksZdK/eSnwFLYWc+U7JPLkbx3TR1WpZ9wlshWcB
-FuCL6U76y1RKX1JfmOKhtSLzUGXhfNFgtIK2hTLUecaa+3rkQx0GszzSQsKnpodTvc2nov/sRZzc
-lmpl3zmavZyaUNMvbMqcy9QoxSbmikQEci0oBh3ufbKKGFw8pCVeGR1eEY0r2+ZRrDxWKykmKyfH
-x4Ycv11FpPPm+mkVU8GsKlo6hwTUsOx9TjaOX8kB7iJHuVrT0XZMPQubJzvixw8TRlWRc4hkZ00x
-n+O8OiD8vn4dEafrbVfGtyPJ6IPSPY0No+nRqt6IwfWiwl7QNW/0foDTje7jUYWd6ON9kbY/LAbU
-LuMjr0frLnVxmTvkc+pze8bZUctc25ITblvOuuvQQhZRPL1eKt+R8/Ce59iA6EtOkkzNu0AzPXdy
-gm6PrOGZnKrbcr6uCdJMkmK5TWY3mOY06BjFG3Imr8npvDbrBINWEe6rSU7w7SqjKMYdzQ2RqqAZ
-ddPuRznz76/jfwUhoIxmn+bn741UCBqpFaRSNSilfmAgJLQICiXCAoALzfbjYMCZoTooyA8dMgSC
-bMHxGWUiH3M66KVaoUjdAhAWCUPnsOvXtl09Mk0zfXLj188C0UOX6of0EW9rBJEyHeqjK7IduQ6x
-T2czH7DUT+ZmCL1UaioZ4gqjAR0EBXZZ6i4qTM9+klqM6gw1gw70Gfp/wUtRbJSqem2khjOXlXpe
-pK5DXK90I7Hrs0ZEE61ofMpkvEFbfhhLfamlPpRIpciUmpEAwg80ZCRGUOn7clWW0rEjPhm1SQVK
-8UKpQJluaDbeuNJTPUuFKkqlWGVJ3WpFE3PDxwY5K5a6llo6yy3mSMQu4yp8lVcRrJR6GAeO8lwh
-keVSK+OyIhxX6meGVNKmq6hWDEq6z8qsDogLpjZWqm+dRW8M7T2HpUBLNer6fZBaXeN0Lj1041dV
-6nh0htOcK7U9BZGPqLVX9rw7Vap/k9QBORxTjo1fwSfVVrlpkQvBeFTf5jaElERLdFKew2A4QY/9
-+Ew5VbRhk+B8msIaL0LKkZkUJqurRtlJuXK6KpejjpaFMz19TsUABCvlzU4KnfDv+dFleuZRWRxi
-t1RAjKU0yiTtOEWFsaFrRL0VUkQ1TOxlUdywszKk07tundt6rKe3knjOt0kqtbbUbC2p3rZSx2UQ
-g6RbXOXdWCq94VX0taX+O16l4O4qC8dSIea0MWydq2yMF+FLL5VkqBCYFAMDBB9ipSKXoUCPWTqc
-hdWaXDElR8KqsWrdM1cOexaa3G1FEdvRlBp3KNXu8HfdGwUcXhwxfL0K471bKrd95FgHdgrZTlOr
-ZpPMeeiTll+Zmxi9vqSM6U6TOv7UJtO+jkXzYjNRIqALvR/ME1ZVTBTemHXik59wyCQfgCtEOaqS
-GaglPVBJjqCWRAG1rbAFkjIIJW9ANNQ3IQmETrII2ZVKkHxCfiUVJLMwSHqBPcPNjMuWQJpdpEdw
-rUAO6RV3SMsRCmBqWn+VNEQiuYhCEhJVm5nIx+sNFBXNLJKj0CVRYUm2YpWURSZ5i0qSF4tkMBoS
-f/EfZsqr0bu3jIu675NI2IDYS791JcbBWbrm8A7a0bZJQq02uId6BT8gQHiCVnelgEep3YEqd3Wy
-vhj1vJunOQo6Y31cbEPczhIrwTAGYFJqOxtk1M+1dsNgL/reMJ03JJYyNhVF8hJVmdV5PiYSXxkk
-yEIT1zmJGkQDywoE59HDstrzKUxJo8GqpMSZtsGmAT7G6qqdxEDnk8zti3Ot3mXFlEYPhp021BMM
-3RRh0ZvMkaY1RYl4JESNCr3qqtEC+Dvly3wAhLPXs8VWJfPTqMiszdKlYzA7srXUImc9zWlZH4Yq
-KIhK1b0uYmr6EWcOziIPPKnS9zwNX2BjHxTVHbdF6UqEe5geQ7GuG21Zu9soJZA3HS3zBlD4a7Ma
-CSm69iVxK8VP176HKij1IHet9K4RtfWtm6vFT0n1/aZ1Wn8zFfQqJ9r4vY0WzHWWPt4442gEFKKY
-cFucfkBxu3vAbf0MQN1cIrYqGz3EQrEo4g1xL/Qaqpjepz5acDe1JmnbYXgslMT2ohSpK2u60h/H
-hAJeeGEelXVOPpuZ7ED8nlylnz0rM0+rwUYbzPdT6BLIaor21tZk6LL5EdN7hscmcY9LtBI5TyMn
-m/4IJPqbCvz/KTIrPU9T2bGP78y9YSeYdVP3USUkj0ECexkF72ufHdY1BPdbV3M5m7hpH+q8WF/y
-Vs1vurj44ADKQKrSm4HZSS+Z6zKsAprUP5qi4KmvNMUn4rZcs8K+3w5lQtO2xqSL7Yu90RnTXfqQ
-nHb2QBcjSa07atGizqOO3jiq1KEHYlm504YSWmuYhlNT0wC25qNDgNzS53dZ2SCJQFHG35hKq7QO
-EwS/LbSYR4Hqyi5DjoZIXVPuOp/0OrNwjJGlMa6OnJe+FfXrahTltxUNjPFtaJgKS75wS39Qp/KJ
-ttdqY0mjbigtux0L48bRVkhC7Ly1NPZW0uKbRJh9NWn7ta8OYKuETGoB6aib5sXvmohNCbImbmFI
-1/4JCF+aiClHuXqK2T1Li/H8u+HYkObjtunGH7E0JAtpTW6lSXnGrZxJ23InDcy4ZM5Zy9y0jjA3
-24U63lNFWl8MaX3OpAl6lXZoSxqjW2mRTqVZml/smYNfGAjwuK2SYqnOr+7qv8X8f2Xq40I0/9XQ
-B+8eNriP/j+qH//hV5CM3/5xAvT79/8kue3faL0iA5j+cLJ10Pf//wBIiN80bNwumfSEBBPb9ouw
-7/zmEiksBXwSTiG9+dLPgZDzG2MdQ8aD2jIdkC/9id3+K5b7z3E8svADkttA7oCLtg35l/86EFqY
-H2sEEaj7bKZIPvqRR8rdvMA9gmmX+KyKRD12KkPScPiKhdRLjS745c37Ay//NRzlGkTyq4AvfwXD
-lp0f/M3QDH8S8Dmc2rXDXb2vGCPdDg5qvZvgGwa31htkCfLKcrDG8Kauo5TTr0mqgP5qUt65xjQm
-KtGNuioejOu2J2qiFtptExNqb1qjR19doOCS89T6wyQ5IKnQPYBt6V1OO4pF+d/FJH0lWZ67tWLo
-2nmdslksd48DlypMJMZzoxIX4a2MDgZPaTvDCNQMB7tRflmczGu5GnCPOF7BKNzUDaIymYIn6fpg
-9vwBjiQkHUWKjbTj9Ua36TJOwcMD1T48oksaNxS3f7DdV81QNl0k3teO34DOHI8QaDpAKEYn/F+N
-4w1lHcHIqLgdssushE9AkhJIKzZjX7/BUas7huH3USdOdNB+WyOyNlO6s21GXPYq+8z7nllaWX4U
-s6nustTBWKhOH6UZYY0fujPklEUbbs0Rp+PFVsYbxl1UYLn+e1n5V5YV7nGdYKD/3RzysjCCKqNf
-h8l/fM8fa8m1vYeQKkFOFzzONWXnj2GyphFDLkM8uYmYMgtWmT9mySblblAxJO3i12DgLCfQfywl
-JkXNJPaADzl4OASL07+zlMgQo19uYwAci+QmCRwRgw82/qfRcjiQn2OhGt8OxWfU5XB23355N/6H
-heJPKUr/9AJ/CjRqZ4My3JkXQAbCjY8LzX1PxtvEpdP3869f6pq89Q9/DMsuZjWsNFgTiH/8p2WR
-+B4rN7Wb1MoX8ra8QtGhQRbPdfSssd66dI6cjxiOtld3aq13CobG3MJGeiQlvomKz6qpHDIZosGM
-afjdcfBSd4tTDt/RN+ENzkN77cpRZW9O/nuHjkMnysmmMSJ8Wpp+SwuXdez6VLtPm4oEGfC+hpmQ
-Lnt6kDOp7IGwUCaCdUeDLTy1nU2cPTZUw4143M1yFCT1Vg5hzgAKeifJ/WOr1cnzMufDKQ8bmOEV
-PIiAojHJjeIkeisNrBlYnOZsa3pTKpXCNaSpxHN6veWIRkD9Hem+9XpKyZZSHicGjSzHxhiFrsIk
-Jkv7mdRDJovd7u9V419ZNTRTaMYvF+8/WcoOn+9x9eua8cd3/Fwz5MJgMlkwuTfVa0HXTwGKBeQ3
-LnDN4qFrO78uGS6VBiqP5f+h7wtK0SVLjAXFslyLrcu/s2Swk/nToiF/AilJ7I+kAc6QPOSv249M
-4yq0RGjfYnpUDlFYzs2pxEBPNIujLSQbeLNeUPl1nNlk5Y9rUlvuNyLov8d4Xh4h7AzL1yrjie3F
-/JIJJTkRtTdjftQd3Nh1abNM0JPkVpi41qW/4D2PKEKJpql5VssmVLzy92s/c7lkGSem6a2gU4H5
-bZM7W5T88lCEC+li6dD4xaJFQVnkZgCyY23jBFJyk7rDQ0ZtYOul6hSec2ZX527Q+91ij81Rd9vp
-c9XyN7PoGTO5nfqKVUqwZiT1W1tkqs+gxSbRons32lTj78VYCiOlt/EJf8y8BzUzt3xQym0Jz0hG
-hhi3Mb6WNvTb3291UQ9aMW6tLufModNlfafEsf4y0vllMqkPiKqm+xy2+bKQS3zph6YMiDt8ya3E
-fZ6tebmbZX1Yrbsv8+zYm5FistAYiwczVZq9ObT6bVsU7WFAGfHVNEnOqOfTwZL9ZK6Sv7t9w7yX
-OD0AHzs7NQXFy3mljN+6TISHJbSMbVZq+fciT9rNKhvPWHidxne6ttq7evJ9GND6sbzPXy3NmeiG
-T9KIwyuFKmD6zht8COyQSEH4nOqlSIqXRuGlcRoSnhdPI7Gg9B4zhao2hCsL36oFtW9iKplxUmVs
-adTbusWjWGfSSjH51wd5RT43OA63hCXgxkMOy/bIKk3ixULQBlGNIigVhgE7lYCMhQy6eRo8O9Oi
-i5lp2f2ydCvEdqz68Wo2mLR0oAAKsS1exajQ64S5M9Mcq0+hGMnjhFPmbJHUdo6Z5NyQ+E1QdBxO
-93Cd7bbsuvmjd8y89DTV6P0hU5D6SVKj/XgytV0h0unMvCihrKnszv215262p+gzJpvEz2tCK+hB
-YC+5DLU4aUgfMGm9UG9RHVXPpkEt99pSV0t2gyOWEYecGCodIWSxcevEH2UNB1dVJIEexeN2lHV7
-2bV5ryp094Q7D22hr2VXDeOlduuC3CUNv5TAKXjs1qXDfCEApUZKln9UCIkbx8ldeo3ZPreW8mmv
-FmnDcZxiz8Gs5RmtMoFtrBj7DIKPtkL26KCOYcloxamW/TqFg6c/jyz120hv9FaX9TtwGetxnWUn
-jy3reWSDpcdMf/rqVpT3KFkoiGF1wu1AIXfkl7Lhp8KjRQeY7P2B0JzqoAiVeLOQAXjP06zarA1j
-AtsmFrmfDf3Q4e2/5GSh7Jx8Gr4QpVQR1lYSzpiGnH6EGyUnpSaTwwLSo0zL5U+yK0ZBnp67MMVi
-IvGopapIw2rKrCdcNoksMhrxXnrj1GjbGJQ5iN2Fj6Q3w5tYVh/ZNjVKodM+wYbYFxx5+7Y0Vvyb
-KvLYLI7WwG2NzK3PhyQsmDROdnVPlqNCvpssWnJk51LW0b5UdKP+pMtGpgRXZ6DYKAnD1E4H59ra
-VLIVoWy1oTmV+aUx1+oNQzDm+dQ84Ttrz4usfmLxVG+7QdqUGIL4pWyHGtXGDSJjUg9ro30i/Nu3
-tdmUB7Il9UPRDUCWsl2KGA86vviQd/iV4iBM6ie2CwtxhrrRPzLxXb4Xal3TMCiW/ZIy3RNLw/6i
-lQVWjENjn01ktiOcC99eyEKu6mt/SuJhfi5zFQ9FXUa+7Yz2jYolH5WZhciVdVkheTivRqXG+0UW
-aUGuwiWa/aIg3lj2Kw/Bdc+BW/mupY3izbKQi9KI4UcaQm2aOCQvXWNrJOMUHhMd9T1ai2jTaDkU
-KAAZ5Rid0vo1IZSv+hr157bIL0DNwzF27dI3WvrAYLP7+1V2hE2yLUyVvWEd7WmN10OnbszIbneF
-yVibcZkTdJkzBoOIze+RlJkmysgGZD0/Y83MvTCDgWqB6c6xgihT1db0Ul+bzGSnGeUZWJmMyn4l
-n5d7w7BBH/F9UEqQzTdlTBdaLVvRiHAz3zLZlOYIOtO0sCx3q1pp7xNQJaLv+swsE/x1omnNGm1K
-11SI+cck0eagpmzoULj5ZaWkjd2D6rmtodmbTJUlbiU2hkAk48NEu+ELJcYQqQOH50XWvqV5t5R4
-TzFxqpENh2jQDQetSU0cl6O7Z90kf6ZXz51QjMu6DvdDlBD9kxNDB/ye+RbX3lO66IXMu2MDasti
-O40kqjWKD66jXDKkbAb3bcWZ2ggx1Mgmu2S2sco5fb4BiCqwfoZnUPQM7KobDlKn9UAJ6JeoSU/i
-hoq3g2zMi/oh9XSm1QT4hcU5slqW7ymc3uNErXfKqNqndezEhybyHPy8Vm6trn0A3rceScx8xkNM
-g4UbNkxhDXFowax3ziCGTWOJ8bmjl+5o2cV7Kmv94hRTcJNRGjwyFd8Pay5s2LWoOyYMlaFMIvPS
-RWV1jyUZVxZPrpF09gfSmfRXsrSmM1kxoIzozOOLliTKntoz61zUSXrkpLCtDJoIVYwJyE9fZmUy
-PZUIyk1SGiGtqGP+5DpRvRsIPrsj/UaDD6zJImzC7w7Ego+cHO8Q2xgAI4PsOzpCzjFGjlMtmxJH
-tyOfo8OBX69EIcHVrT9ILX2Ki7LEApyKR3rbrG2vZYAjBLZ5dmrcjKyqOLa0t7BjhokFOL5L6+qc
-E1lMDNR8XkLNfM5lm2Mjex1NpR13lJa420S2PrZ0llJokLRvjEyZp7uDi9ShjwcxpcM2B6KdNNYV
-AFhtGzE3z+QIO6dQUhksEIqFPhYh2yZdl4DTLMpPc38SFcEJZO0W462ZE6JNkDwRP6rIn1PFLh/Z
-VGX4RR0e9ZYstkyuHZdVRd2lK6L6Fmx1W9gS95tVWGdZjVnOlGTSpFls1ViPzoLs0E2rp8M+YoRN
-MBkpjPeoa3TRmjkasEMv4JKmFijQ9AaLnfoEB1ow2pO23tUgKVQQttqxWttyS4fh/D5cmzw7WeoZ
-Zp1teVkeNaVnA2MEVrXOHyU+vjeb+H5V1oEWkRsG/CI/iqFotimiSeUvpdIelk51QPczZR+tLf3n
-oslwUmhmVt7Usw4ckpk2+YKcIH2CrD6J9dKJn1knHmk20KLlSpYkS+/Y9/rQpPl20u11q4Y1T9Ap
-1I6rbDnlIVwHseOo+9BQ1B94yi2vl3WoQw9jUdk9CQYyPIWtR7shvv7BIvjS8Dp1QYcKO8kh6QSf
-8FG/EWsf7fU5DDfi2rwKE5HB9wydD0DRBc10rWeVTa1NrLYullshQ1LVB1HzQPLAIlJyL3vtY8aR
-Sz86czN11HNQlEzHUr2S4/vozOGQ0nIzOnH1kQwFBZteUeZu8STmOMMlHFpOkp362XGrp4liRjq6
-+k9cw0wBSnbKXtoS/8nYL9fE6JekuQTkbWYCz2BE/yCtpz0dBsv8vSbH8XMiVAOvTGd95XuqN4VY
-ye2iY7hE1cSXq40UXaidkxyH0Wlumpp/XXV29Wpw5xnZ0m55RcKPsS8EA3rVLqF+B/K8nsvPNlS1
-myqZnQMesZU7mPnPrRjsJzIWaq8Bwfk085o201Ws9Fbi5diAJbSXtmgMrJ401StFXTyoE9XrROst
-KMLxNOzNvGdqSHpnwK6PnmGTLYw+dQXphkm2t/8fe2e2HbeRZdEfatQKjIF4zTmTTI4SKfIFi5RE
-zEBgHr6+N9juWiJdLbfruR7KZS9bBBMZCMS995x96szZgomyMKY3gKpEzRHAFaTGZIA2XG/K7ZU0
-uJ5IdUn6UO88NnQVRkC4mml5YxrWqhJZuhbcubsBqPM6ztrpaXCDa8gh3FaRqfEeRU+46ZMwRorb
-zeI86dBaJ23TABHJcMKgN/Y60ETav/Z5C6PIQ2gBwwpw4KrRRX4a8yT5EvpZ+4T62aNmavqrqZjD
-+9ydm52/3Owgj5I9bViqL9fKCfkJ+qGGzzT2W6/T4jglTXUPDEO0GxrIyb5D5XNMm7q4a0OF3wBv
-20Md1eY3Ezjgt6IMH4JcikvHwiSKnkQYB9vS8B0LxXiq68WFVLm+B5RJTCV+qEKe4ULhz4qqF9wt
-KE30PNKzNiIxr30AuvE6nkM8dQI80zWAjuwxEWhq/GQI9j4NdZyfnWkRydu3X5kmDT96cBFrDTAN
-MlKoiRINi11SM8najHUBEcVrXQQGFajBtiJfYUNc1PA6c+rDjGJgD63LcbqppJ/SX8cgcleHoPlE
-NSNrAqhobRt4FFsLP9QRWV9MzvacXBJVEB9zvLtXoMMoYEePxSSM18wv569RyNh55ZkeHw6FSrkV
-bjo9pmwVFit/EGvieudrYyqRPJCdsm+tPrtDcu9v7Jl1Vc/oPswKnEZgpegCOPmuY8a8hyIJTEh7
-WNWoP5eDrOnWl67N4TouIDmwgyGexGEv4WsAP6++le3g59dmmjQ2nFuPYozoVE7vjPMjH/uyx+wd
-qpw3/1gM58ONqZCqeBG6oLjojemxLUY9fpkHAxUaNA0K3vamE40tGSZ00pJ6pex6HC64JTVEjTJk
-FLG2G7NENPJfudM3kYO26WoOxz1q++oLlrPx4Zf2z79ok77PSz70LmnECmT2zKkF3Z3FL/prT0VX
-45BktjlcERvngtCwIiaxPd9IfjSY6gThs5Xb+z6xTsATdoZT79zIhADCgKWbwRq0Wz7qXs0JzNf4
-f9p4/zc76FO/Z2kSvzevmVwQAfU5piw3+6oQgTVcaV1fSc1ZMTjQw/39HVg6zZ9vAPJmR6JNQq74
-+Qa4NCEpejHCxRahbPzPM7JdIcvd+2X+Q7n6K1W8AoDwyzfyp5bkZdkhbX35CLgy/+dP/dGW9Jli
-Yihm4Gcv401AVv8ciyqHhiVfHeuXmeAyMv3nLMO2/4G/16LV53u4oS1FO/GPWYbFD1TU2YqRKJ1L
-Mqf+TmNyCW39dQkxTiFuZglblS79VIajH58hQgOGDqlRfXSxc/ibJDHMOxFVMwoRcCJllfgcirQU
-r40hgy8SzCvCtSKApxEDM1+EgjKT5iUN9GKPXqhfnFZQo30/Nb74YCE2MgK1vy1Fq9ZmlKB2LIzu
-Z1Jb5iWIQPSqVtWCjyBcBgdIcAY/zUsVJWaPgJiIFDMU9bBvc2M+4M7x7ruiG//iIVp2iV8eIu4A
-CS0MhbkN3FOYYx/vQIKFEfu21kcMmPCnkAiSs9mptdW2y+fi9/5lifyLbevTQ/t+PUUsg8Mc3Gcm
-9WkKbBnAhcM01cfBqIn8C7NXrIDQI0hM/osrfeo5L1ci8oXJOz1axYjn0yebO05teN4IRQ9wRFuY
-mvBXcoynvRnfc0h0FsZMcPe3P55EVoqLnsVEPtWn6VgirGbI8WSCpsEltDK6GkQFccIuTEiXPuHf
-vxoAOTJlTLJYYTd9/PJC5Q9xkSd0BJCSpeeihhbOnmgOhCioL7+/1kK4+7xSOLtyEWnjZ8Hl8vFi
-I8VVRCM7PlbRmNlrO8LhvqmqvNz4AKWIOYjG667uzMuhSfsDVS9UcqTlfxVC8ucFxKvFp7Mq4CRI
-NpWPv0ZmNnICb5hgMwDtucH+1iCSDoIvytPgzX7/of+8hhh2Lh7RJQAQJ82nuUWNfdxuay85anOe
-b0u/buDR8QTrSKcR1VbMJE0WKEv/4rr/6kNKzwT3zsyEOfCnfSkNE9ieHnjIYqjIPO/5Nge7G4A0
-x/Qxfv8ZP12LwSc/n8RrRkHsguJzao0Djc7sIxUfY1zuGxSGkpOpqKeLEP3q199f69N++34tBsfc
-Sg4tjvs5YijJW5y7OBqP8zQP5gYIVX7KYrs3N7+/zp/8T3wmxCZLnNH7crU+LpLOy5raK8eYhhAO
-GTx+uGxXzlRYMMBt9z6KY8alI8RRDu5UE0id8zA6//53+LR2ls9qMu9yeD6lxSTt09rBspzGFQru
-Y0BwGLZxFOurcEbGEthTfiqR1IKNsae/2M/fb+EvG/pyWYstiDOtb/MO9T8tnT708DwGkuO6H9iP
-NXXfCcjkdKWTItrXtkYH3gJALCiex1Cug4Ggl+PgFeMPju1V/V3j4znhSggOoTBozdGJJlQwMW5/
-f3f+1e/pCt7tmJqQQJEG+PErSl07GGZpGAdhS+8Vuo1TM3bIMB8HmTd4hwJCv2QYbkiJN3VIzxT2
-HPhtpJfHLi2dC9Wq4DjGvn2lDK+RO2YFZYIdTcl+//vf9c+r1ifWyWbaRr7hwur8+KsC6MYenw3U
-PUqgc00Bq6aoy5t2+/vr/PlJ5CTLVyYlNRgPyKcdNjYsborRxGSlljNMzYWWW6Sle5FBxLr//bU+
-b+esE19ICVUFQDYCtM8j2clv3AZqIds5MuhN6Af9RmQEdmY8KrvA0uFajwxWTODlT0ZehHuMvu1f
-3FhTuMuT+HG5omURUpA1xRftf8a6ZLU2LJ4M4mSYX0xHmVlspq0abX0MOz3fGrYnXt0ooDimd7MQ
-eSOkSjFZTbSZc+FeoCgOTqrrphs8iVa3aqoE9n/FkJQWPPyjcxY1hDZQ/97NmR289WOXPfhTNp/n
-jBJuparau5cVvHELGNVFXws23CYfrDvky969F2lxaE3fvIwKZ/Fj6dhg1jHMt1MYQO7PwDBc57Vo
-X7IAoxcYyuDcGHrCzjUWwRsMcVefiryCfF/0OjjMjek0AESIgljZEiDiygB3Sf5yZTkvkQrM7wWw
-0a+DbesK3t07w30MnLesb51hkzO9iqjLk+gc2jzZjsvWYtZ9/NpFbN4lIcZv8FZ8i2kOx0ZMyoLx
-6hCrsKNz6Tn7wREchtCgNz98SYlfJJV88pGY+XelmbDeePpD8ldKxeUp3oxb32rYO0XTyaeZ6n4z
-pio8y+XPNti/z+Hk0tSt4qEZVjLOjC+qtKcz75nsoaqm4fr99gbe0G6tIhK32ka8QuNTZtExMEPP
-PlkEq5zTUOU00+cogb/yvlthcrmo25kdygd2/gx7jxWJ1Y0w1iwz5wNsV+7dROsOjJYQ0Rd6yM5j
-h9TZwOElihs7tcBQJg4/Z8AXevZajci+kvFrTVZRsQrqegopf1UGTJF09vsktO2vftHX1goQW37K
-ibZ+zcLc2pl16bwAX8AfwEMDfjwgyODWHcA/oIXBHyf6aryOJ6ePNtIx4+fMa9makAM8mJNwiLVa
-1mE+lMHJ7xKInlMEl34zjyYHGDNHg4dDgbUk83Y+hwMJGIyq42bCtNvPt7lroDGfc845XdRopO18
-ANgoyTAH64YFthVNpF+iYZFWjj6rF7X5CPAsGssD0LLxynNL44sXAYBcidCZzqGRJafUz7ZqBl8x
-1s54jfeh2rUJDJxwYK5b4bAlvaesb8M2ijEu1cUFSKHFx5UR4GQ14mzaxXzqKuEdkKkFX8JWbksH
-akblFel54moEn7jyOp/lPoUoS9M3GPciTuwnn9SFFRO4vSinFo0mQnthjPPaouZbm0TR7NRY5mun
-LmgbcletBxX313FYTKfEVLsoquzd0EUlEycbBpGBmh3jglqhIkhOWUrcJG3dbDP1i05icdJBe3yq
-ITGdkThd1yPtTkb+46YnsQNugIXho4q/eoGXY17Q1gWKMPxSqbvWbTHsUwWfEQcoNsNZeBulsYXE
-KrqDaPyKD/dF47nbJvjHNgwaYe9gjDoawv9WgbhB0G7rbD2NPm+1TlvPue2cZtsnosaKryIvJs3M
-8b70fXBRFjL81mpr3kYA6E9RlrMBO8sZKbemKy+27YWGSP5InDU4DZkckZN5mcpq8rE854lsFPO6
-ygqbnxWt2MNklggLwJoHJFOFdnIyS6c0V4ERysvOzfiFygwl0aqfrPmrOzv2bhwyxlNtjxSgBdB7
-zUHJiTaDx36RSpERODKFXwF5DPdTSb4wbWukGyu8B9M5RQ6xDXJP7pwU+Qv8zxpniMc4pFLEpgec
-os8I4+58dxju5DBNcI+7bru8f9wVRBcm/bGu8pumBZUhedKyIyAvjgIWkdXreuIsQkA078LCa9Ye
-Cga2ogJ+rhPwRpChkgedUPp0rL9NzjFvRx4ABAg8Jnpdayu/bkT7ILOZ8ftAG8qpZh8jblb6yab1
-UidZYi1yBv5NuiuS1L0R3djsPNmFj20SDhc2SR5tHAynhFE9cjzmss92MtJpd6HBEwzLPnksVB2d
-7IpzO91zHyBxn7MwE84OlAiZcUusgtzmU03jGE2RyNv+Cfep/9Y6Y8ogrTAZ6OeufByHWc17QUAf
-7d5hJAWs4zyGYOqg51ldjUbl3daMXtd2WWqs5JVk1jOogxpNaPDa7Oqf2vL9rR6S6VS1NtheR5BP
-UTMud5R5CV2l4AhTyH0nM3WLPhCaYGAHNsV/Ejm0KUAwG9hccKVm6sSXqu5Ht4NiGQW4JZHLON/H
-WTS3sjXoGlQFpt2S5jK6eLA5SaFXEwkC+0HSjPP8lpm3HzvY7ZryJmwbe5UHZnIM0CacuYPxxs57
-bP6Bue9dl4WtirNH+2Ad5Mq6CUlBPbi4NC5ViM+k1mjBArcySeYYyn1GXMQumxv/pcOktmajqdZ9
-A/pq7UOXZaDMXGcf9YWVEZ4BMAnfXvhQiNG+6gSsbDEzdUJHW3or3RD3sZ1So3SQdPfZPksL+UQq
-Fk2csgovRsP1S1r4TnacDDX9bCnHL1t76G4JdWJAZGsFaA7KG+90HMhEaZW9e0XFvjiqpKQAMMtT
-Zk4tT1erz0OSZzfac9trvxnHg10RH7SOlX/IQW0fBx/BA/g98uYIoTgnXeHvnbDPXxf3DIN5wKmP
-TugSvukl6Ztyc0YmWgIqM7qCXhJqpAfZ6OecH72tqxKojnIJN1o3OCtfBKAe8haNBhGeXjxbvokP
-rsJzuCG8qbtgpotFr4RR53bxNs2t74OhkGjQrE+ZDqJrL8JwOksYvq/SLHpkOkSb+4p3IBbNeT+5
-U7ABR9XemKJvXpM6Zc+uMt4abAJ1GhJw4jCTdL+2GFJl8505rc8A2ynG6C0iC5ihY5Ohx3fagjKp
-Nd4qLyrOI77Fq3hwu69GGPSvTh37T2Gn6mJVFCjTCDScfZfX3pRnEsJ4kRcHw3OmExQyRXKm1z9O
-rQkVIM2Ryvh9RiRltfC8SH9ac4oKryZrkkBjK7oaVhUc3TIbbX6rdjw4RSLOzhBnG+gCvDMAPOF9
-y7oOLzubU4QjPQHNYAZDezLrXHeb1rFKtrOJ0RN8WQvFFe64o6vGBfNLd4h1CasGDMBsfInJRt8p
-4iC2mpfC3ha6Pek57r5raqOFGZQhT8u5C7UfPwcogrOloyTOkdQW0jeYcAdP2MHD5Fr2i2Fp483C
-eHUZ+FP4xS3mBM0kP3Z0RvUVaz+A/s6tnwPtxBwnhVrDpfvKwRhzU+CJVZRWd56NyQ+C3DSzvQZZ
-wKLKH4RbCEQGxp3sR3jxsoCeIf2dA4YLvVk7rZ1UwGbmcIJqEW+iWRBk6FNjrwobmyvE/FcyDyPi
-JqmTV13Ulrwql7GvYe06b/jZzrbaU8s76wqUzg7nOJDj3DtZTY7qE2vjKncXxytaL8ApBq5GlrNI
-RhjTLulIs/kya35wVHb+3pqqdEW8XLZ32ni8rzykRsSwhGdMoG+GBr5TzagGvb63TjGN3W1DN+sU
-11N2UIL2gDX2+It1Dfk1asVr2poKEbbDW4eD0MnpsLw2BJeR9do2l6Idk8vUHPcpsooV+AMyC6bR
-27TDeD14AmaFM3oHt2baLvIeB2ulmXvhELQ4Ct6MZgO5LEv0zm8bDMZGudVGOe9NL4YNV6nneiLo
-qJ60d9FqegdzKI7J0Nx2RP7EnrMrg2jinKKuirzBjFg9Dfl83aXBqS29r7oOzmy5NIyyGFpQPb8l
-VfhgKnUHy3avOU2viwRNp4iH/ZzSpJQtgltXNOu5DruNMkz3K+EWmLpL63VUJgcr7PMb0gPxoNXt
-Rllil3QaLp8cwGB43/MeTYmV09VeuQYVQTh03eNsz99H5oUe00SIaBmol0lN4aPQzZLYUPvpCaol
-OZjThGcntvfmvO2r+NtI1MEBbs6li3zX7ztwmeRQR018L+0wIjMC4Etd9d03w6r97chA9NBTw1x2
-XW0cYO0tj/kkTtBx5TeP5DwcPxXJOE001Me48miPDslSTmCsG/flYHKEjvECryBxzpdwVYx6F+Xj
-nWt56ofwYEqdDJ3R0MH72vhib/XWYF+0xCA0oDgiKB6ZBVx7jbMyxXlP03mgcQFB9RiCjVZA6VKg
-aHQ1HaQCIkEhguwB8WbKeQjPYCdxWHctusyGXLtqRURwAyBxoORErowRCA68HxLO2QQeDyBXZcTg
-QgYE8+tTSAGyLimLQpZ9twF2kdFnWmYaU9kFT1gnjW1gVNQYJeiMBAY6gVwAWPwqmM4Gkri1FTNS
-bQHeiKvEgF6ybdVE2dFJtqWhSew1ql6qE/TF/c9ktobrxJvMS2Gm847ox/QUkYr4FOYGTe4Qmfud
-2bjt1nNrKhG4ZOIV8Z7nntuoX0pe1WLOjVzdPEJv4OiQGZ7Ya9Ouj5zt+dEIdIxtVFKgAy0DPCtN
-SX0FN+3Zy0i1jmuOf4T26BuXsNvU7ItjgV0M8GRZH6204UXa2MHJjlyaAg1FPiotegTLpOb9er12
-MH7BUzwGns3MBtncXkgn//b+n6D1tO6ER9lfykTtpevOB/Dj+qXJW2qwsbboEvj2cD2Aj9gYFJvM
-eubCu1cpNxNRk4tSua12741ixMSMUcbS33QpfeMsjzVjyhjijaH4FfNoSE8e3J+9l7vNYxm3fIA4
-4Seyj8y3DY2XG8KHzW9EAPGtF6ngdx7G+li7BYl94xIMinTgMKcdBnZNEjfaXj4XUUXBF+1S9lV9
-pKEMTAkx64amtu+6jNxWYl5B88QzXRGal2wGiArQS9cK6UfvgqoIyHVi/eO2u1RlqF9o/sUEGiV0
-FP35QtV1wzQ/Uy0tmQqEHUSEudy16TA4l1kFBMFFNnpRJjMTstmleRXM6el93RlxMe96nK4c/9vs
-Iauz+TZqG1Jle+Q2/H6RDt4MkGo0RSizbrNuuSdZx5TN5B/5rsarUvbcNpqUaweN5NkqzGJfLq24
-pivms5xgBMzZAJEKs+/Oc1gBrbNgclS//MAs8e5DSxlk2fTghTKol63U/mYspPiWC/4IXL76KIvl
-35Ytd8uECzStTVtO554fBOahVi7CJEN8i1CbMjxv0cHHDes+Mjhem2jDeCKXgh/pS/A2k9l+0Ses
-JhJymDCSxfBCK7GwN7zO+6+tNZqXyiRWtCdT8yWICHWZIMACEYh4hB27YzYJm+IUaLN8SWXTHlU1
-GvZqavpMwNLLAvOO4oBPWFge7a8gDFNOwBD99qqIrUvqlvqxxb8PXwIZzqkruU19U1pQHkgdfn9g
-rSaNfuRzrl8qP+bSY9f0J0Q6wbGl5YoByzealxkETUiY7W1b8ecUaekXbL6vHUCidWQi7NSt/k5s
-qlorhnn7pq+Dk2j5dto24GEfeQKDblJ0LAq1b+u+3S4++7NNC/ysc/gm9QDheT17s3mRhZZ5Xdgk
-pbvZkrTVUvm4m4LtcC9sl+YHY1F/4y6rYNC05lzt0lJwHRKuFqhYvRrAlZ08OYvXEFfXC6NIo4Sc
-qHmmy9qF30F1uusE+6NyuFOhFxpf8M4HbxLvPlaSdlmDtUBvh/wqOMWhRT6Rb0/zwZAwk5BkUPZB
-q+l/+h51Mqowc/zWoM16HnufKVTDgbymlarDbcSxgjejTqpLs+mLK0Lvui+xGPwfuneCt7gcYWq7
-UTbhAuDN5MRDtcMRgzpLFayAXlXBU+K5BLY2tV1jBi9pcG8yHQNKem8J/0fo8FdCBwa1tNr/b8fm
-MSPGi1z2j/ar9z/0vzoH+Q+mvhaHdEbNsPeWSewflk1l/sMFescwhi67xfzU/KfOwbH4V5C2GN96
-kl9isU39oXOw8ZN7tOd9MH6Wz3jkb3k2PWcZUfzaZkdeIfFsMuND5kAs1TKs+gUIGHsxPhWziU5j
-BdNsNejSXbkL3VK/gy6nhXnpdCAldFoRPNwSAI0JqPddSDYNSvlDbfJeWfsLQ3N+x2lm72hNXosj
-J1IH4Kb5Dt9MFw5n9Y7kJIyWN/PEOIcJptX0SIJzv1plAbLsVfcO9qS54V0CFpeo+Bby5/wOAS0W
-HigDZLve9sSdgwldWqdNE3BUdHyjelULUfQdj9X6VHjhLACORjojUoEoKcvdmPQqrUtlgWlvVO6d
-aXvLVd53d81CMZXvQFMUq8BNGeLF93ohno4L+7TmSb9bWG8FGUClQb6rT5jWqnBFyLwh0XcZuw5J
-ukOF9aOc6JZ66mTpOr5AX7YH3VKT8lzG5c4tIKJZEGK5mYOVmpsR0+zOaaX1mClAKLFdZ/emNXq8
-ipznkHxhOM9ElwCZsG86K+HJL2HWRqZ1E3lzsyGSnTnYBHJk1EZ2Y9NeASk+3LkC8a6b8S5d6VFG
-34nb1XtHlvYaq056YeY5+breWN31Neo1XrFxeEZf61wNUWHzu3VzdymGbWWV5VWg6/wt6T2161MH
-HqQb+2scP80d5+DvbgArxAzIEfOMqOJ8yl/IHH1U8BZXNVastc7cUz/QuZUEwt8neOjvSLUaL2wt
-h5u4EdUtQ/PXxLKjF7f0hg3quAs8ONPGXVQSnhWAf/U0/NZyzO+zOs2x9mTNFQewaN1yR9aBSml9
-Je2VMWLNp2BovsLYAAHQWOPVFDfAuSm2t6bLb2qQ7LsRfRB+mX1JdFDmV4SDJkWJpaBIEgobrc0L
-O6rEaRLdj4z/fjHxZreyLzhSQ5OkVIpdzfzD6RkSBwk+w3CerxwD71aikc4RwFbuZ9oud8JiRUuv
-ay+t1HGIPrJWuradHRrl5lyO9vyE4QkdkNEuRWQSmRtC7rMKV0PvbKo0HfYolMmtAuHs2ao5Mao5
-9z3DihU0GFLVaVSufY4OBzj3fcoQArr3KCbezAEIRw6RDwbdNuhQdz60wV0gL5yeJE8ATjCouuQm
-sutrgxOXOXHKU5lzh8gy2xa+/t5o+lPwdx8me8l2sZrnXNbZjvRK6vo8ti5ch74hwLWLbPpB90Wv
-SpjRUBvEo9OB9O8nFRz00BvnwVdqS5M73CTCeWIzbK4tnY87A/vfOktD9ziBtXtwsDKvR9rVOLRq
-ASrJ4rEyThJt6pKl9ETmNGBsmdf7TEIhTZrT3MZggDlnkq0G7xw2X4BWGpQqmAYH5PiY5Nth0PEu
-hTFMLyJpCF+ws1vtu+GxT7jNE/Lzo1IePOARhHPRptZGM9yi8h29s1P35PXaw7GenCDd0Cocbgen
-fWACZRyManKvBseMCh6wsnEGAfnNcDJy/0wMAJzVBju/JDH0KucwhBnc3XrerL4kyF93jgX2PPLj
-4AZmeHwNZeilcMC/g3XGPhabL5xjsXdHTA+fm5qPzChMb2qdWRdhVuA1sFyWtAjhn+dMkbIpym4m
-tt1VNLLfZWVNcrEspue5A6TRB+zPfccajKdxelbTSCcarEd1X9Xg6oRX4Qgs8usSLKNizIcA9yZ0
-A4h5GvH3HhkxqtbMhaYOzbw86rQn4z0u2mxT6kLdMRt6Q18zrENOrLsh8jPcE74J/MrwGKhor8hp
-1Ttx3o0Uwp3L8EHHnrEjM2je+Vab78jaYJC5KvBtjd0DBx4moYepL9pTXoio491iVN9TIykn+iZJ
-J7Yw/y2E0LUPkSNhsnVIO5wel6NTe7cjL+x7jkM8IhQevsKS07vfGjOuT9EyKuPIaLuvLas/Xptd
-FWI4MwIJjtzT8q7KmJBuAlPUp5Jx/KmaAgOoSFKEh6Bqj1Nsh9dR1mX3vpHYclX3htxHacDCVfMQ
-PWnfaba95eQHE3Dzi4+8Wa1yv07o6k2tcxkSSYGNxtH4fmbCGY+9RtI/2H3fr0DLQmVia38rmPoO
-K+SJw7ntm+ZmGq1KbCQZtPDTQYvB3nIh0a4cUOWPIrCrl6oW8RPvZMCjBLyeAYbl10HvqjdBUtEM
-iCGw7wxI8o9Gms1XpPAdJZKOn3luez/cQrkx6DO76lad2wOXUii63bI/QlfP1w3nh2kzZfXiow64
-i6skifyHrp9cYhyb7IeRiISatbMADHg6Hm6DyvEeeI+orcbguevwchs0VKQOSJozo/BYx+P4PUW+
-7bAZhSSqpUV/M0rU3RAXI+MmTryF/GLn9VMyBemVnemQQLygdeTaUvkMcbhKfzhtld4Bb7rPEGBY
-COSL4IgzNwd0GPGwUqNV13Nlk/LbDA2oE8YxYF0ntKNnnUXDkztMw8/Aj6pnNEn9Lga4w/iWGbda
-jRV9HSKf+pvCZb9Z2U0NsVtMzfVEunewsg2mOJ2cdH2QxqCfVTgW/nqagw41GN3/TRInFZpCmSeP
-1E3wZfzSbu8SB5sxQed2BeVPZ0eeOfKAmZsxuZ2csVrxm6sto3/xFKg2cLZFLIiRMXvD3XeZE98F
-Sos9jl25LvBm0mCibbRne8bZ5po9VloG25fT0FYnk8Sajacdwayzo8MAUWQlMz2vR79mJi8ACXqJ
-1W7dqFDOymz0rdk17aZxXcI5jR4elQSVtRlloo+NZN66yrOifqId2OKKCrvGXDMIK7+lE9jdbUuu
-NJqApJp/LkT4cyCw2dqW9+qEkfoqoyJ/KcOm3NkRWM0NWzyxolOfAmmjXceOiANdHGMp5FnNjnzu
-3TqDFchQkXm9u/Sc7cl+lQOG+DYw7QcF5g4gRW6PDt4WPN70r8oD0hv+NiVPxj+Qxz7d+WlQ9evR
-isyXXsEK0oWrnxkMtrcuAiEyE0ZLPHUzB8htKIaOtYSUYQUw2PyhKgy0y9gyXCDtSfAN3FfxFY6j
-1xAiGo0XXdMRZpIYRrSZ6wYugLTTYxKmN2Lu4m9VIa/CqUdxxAirp8sGZhIX7dQqmEAKwhG0tQ26
-Bvp6LoPiay/jbOibodyT3beMK+reeVVypnXtlJrRFJkG+I/zARedadgmXYcmFnuVheFV0zIYHqw5
-OFoJHavZcdvNrO2MGlZ0lyZWZ6+r859RYnX1Ou48+dNLaEetesCwm9Qj0CQEv/DqOWWw60tBuATf
-5rwAF53uHFljegw5ZkEIDVy8K3EdJqRxMBj9oYHyFdCP+Is2ooytxR7OJf7YxywYsy84gSKG+i5d
-VzPoLmvMq9jNUs+/SOucJBTBGTEfwpM/50ZDIFHVHfxYQVwCbpJ+axAI1ysM8tgdo9hdkvRo5G+x
-f88XqWHq0+A5NBpFl11aIPu/B3Pcwsxu20Ouq34XKhJ9qiyklZLOj3rCu8+ExaxfQruSN3ZV4QKm
-r3v8T5X8/yGUWALqy++q5PNL07x8jzpmFe2HUvmPP/lHqeypf2ARQNtK99RGAK5Q2/1RKkt7qYch
-jiC39RxENx9K5UV47Pj8MTKu33Vif5TKjvkPCm+FA8SHo2QufLW/QUr7rMHzuQJCWNulecfwU31S
-jip78oxUG5p1mr1FZUi31i+DJa1k+Ju62+VKFsEDqN9AxmGB+FiSZ4VTOEiAuJJFRgV2+WdN6jXo
-Rc5Cv3wPf62553aZS/gAc3MHbJrjL5/5l+I/bI0AlSuiEHJeO7pw4rrpsYV61fzwty9En8NyMHV4
-fKzPdopeZqYq6xn1SZO+pVn6BkT9LeH//53LuLRNJN/4n76j1osQ9rujPnAkU1vlL2B4hP7rdIz/
-jVvHWlXIldXSujE/qc1DLfDyR3yiHqnJ5YgsCEGG5V/WRfIXH2r5SR86NPgUPAsmCN+T6ZEh8fFL
-kj1KrlaBjowWcr7XTXdTOD4QZfmgexrHv7+Di5L0TxcDxodngNodyfDHizHdK3k2S31QVUM7swFe
-nzAQwhYYv6AYZIju4M7AeN3+/aUIocx2MZuAKQOV9vHCXl12Fkw8fdAV5P0OlwuyAiN9MBL+7vef
-8bNql1XvL+hEdgUpBE/1x0vNXdJNcZnrg9GBEEeMM20TSwT3v7/Kv9gvPlyFLevXZ8tnbN0bXcZV
-1OjSER8f+nwoTmTv/Vu37pfP8+nWDbgdSnoTLJCsmzawoV+Ih8jW/4/H692l8nF5LCBLeo+Isx0o
-/p+WRxnkrp+XOoeSb8ECED058QRdjzfzEsCuAkEnSNUm6XquexD1kqqc2RxqK3D6feWijYB9BH11
-hE5Yl8XwXUYxbaEkoAyXYkkbSd8Q39nHcDb7s5YoqRD3EENgqbICg8F/QqhTvhUpZ/6ON8ZBjlV+
-S/fCgv5klUeXdsxznxO0MOSjS+76nK7KicHCkLCeU1yp4bqZCFVaoZzyMTaHzpHeS7ElxYSTLMrQ
-+9ZInBNu+uF7FbDLm63H7+6ZXCVxygsUXH2yjiSe8S0EajIv0yXnoOH3MSzlvOQBHxrkLiYxFerr
-0IKdjsyQnl9PCjNnIAw4I9wdcqG9oNa7SgTjNqmYHRi1Nta54NPNORsXyr12LdvCIkyPzSUKCWvw
-PF4BaHTNXcsED80M8MmTA71tn9RzeYFkB89NjmnTV2h8iYGwHgH6uBdjaCbP4X+zdybNcRtr1v4r
-X/QeCiQS46I3NbNYLBYHcdAGQVMW5jEx//p+krZvW1K0/XnvjX3jylQVq4BE5nnPeQ4a7ZM7ZgmV
-Q7J+bdzCeobmS0LcA57+Whd2v/CeBvAj2EgCQA4S9WM1AaRLVqRE8yc14oNm5FPcMTXqvoR8NNdx
-2tS3bp9+MwXfaZ+61jOptW+TGsMH2gKqq1EvjbFS9G7kFiUebW5S/eEENEBdUgTI+3RK7CtW9I4S
-2yLZD1EuV2wDwDLl0OIZseDAX9kgQs4RfipmzFH5jf40ccbIyIfY5w7d4cbo+zR/cNnnKsJKaYYU
-j7h8ZBnVV88hvcTrxcYWUTR19OgvFr9SBJ7oS7AwHyoaktGhE6fFJu+QUdbwF2gaT0Am1TeUedfB
-BlrT8BKHtRFsLTHQz4DvmO4J1yzbk8FE8dk3SucRcH/xjeK46sjvOG/LjpWT6T4QLWbYTxVVWI9Q
-qrh+nBYf37q1HUQ7iiqGatdPRXBqp1quSM3yFdDsm2GBxG5P51eUGfha6FZRTcttZzOBxS/FI26Z
-A3/fyZoCDCcf6/ipK41o2Pd+mb4FI4o2o6LhBhWdaHsSYGCjJGS6H9m2vyztku2duu9gORitlezS
-WjqL5nNlzaqlSxLe1ZSJX5agVl+thXvLNsJZbMC7q88DGa5XzgLOtYc2cCimijfb9oY8EilKqDcd
-cSmKjG/CiaPsSxNZENx0zUo7KWvNOfIbpYTBKRT4vHkj+B4iakiMWVF7ExdufI6oBaUUKA/2SO4Y
-SWD68w++3thvGfDhh39IhxZXZ1xP8a9lHTiHMnMxjLiI4idb9C+1moe9LCoO8EHPhbDgnzuOOJxU
-qMHsRkeduMj3VLL/2vWtt4kVYlhjHbpqwDM/J4hPLqHuEJcNj0Lv7qNmRpS8LVPkw83QtcE2yrjP
-bWrVGON52bPP4PnaDKYdlkPa/Zap7tbFmKmM0i/4jbLLuahZFadLnNfzpmSscivZVO4ag7s+6+mF
-HYgCIDhQcb+0rG64iRgq6OdubfN7W0X6ltBUcesDm3jLJ6VL4ztxrqJRPKIvyOPUc0VlLKgQYUPM
-UDnV40PJr++ohduIMUtw25X9+A7OCJtIBNBmHduZfydcwv22mb/htvQ3bcv64caGd7cAY1lZWOI3
-oYdTe+XI3r8Lq6w9iRGdF8sglyGWuwbbZdFvUnI568IC6+6OvDRCZHtIlA+1UojxPXbKq7qEcxbB
-weMKNq1tm+S3sgbLHY8SLpYq6lvV6H01h/pr0PNcTGMT04ZaCHudoSKtkjAg7+BSmvux6uLhf+0y
-oHLmyGo16GvEMRdxzsCmn9EWot1AnJM1jp3EyiCyf04jZ6dwNa6HqqWBVC6siF2FZL241edk4hNa
-vLBER/fatW2ocd3zDdPjaLYfrUfl41BHTLzcsiT/1Bd3qmftMSJWjzHgps8Gko8DJXU7iWF5FQEY
-PMvQMn8JRN9do+awH636Wx9e10G5JoU2cRXsiyCi1r5NbiWptxcjTVGbpri7CdPlOTHl+Oxns7/x
-Z5BF9iKcw0IKaAsxoritjTa85NmrB89hk0gAbJFGInXJZ+7np3YwcdQhoW7jiJoQiorqW3tWGAbh
-fOxZ3H8xHGRUy+OhR4DDvjKSmIRGycrblqw4ZuELptICw8jCV4rCrxdZ11ZUyfMd7Dh74Vx0J48B
-mw0fbkbDPRSWY7f7Mg5WlojrkbgCGuqKImIWs5RDHooJDsxCx5gznWREJvVrpo8l4gCAnAHSxCqv
-ZVKsZIRxBE/T2MBIL6zPii7449hIcnJeB6u48vvmSCNkv4GBOFv5JmymynOv59HCCMPDJ29Z/8Cy
-hfeNRaMY7OY0NvZ2MhTxkVInOcA0KUDAHO0BB8QqdHtJOyR78RakGZAU75uaUTxX/pAVv9a0u2N3
-iryryfdqgakvaBW7G8ckGDGxrs+0a2GU7dquuzCXo+whZRpCk7Afpduujlt7s8hei3VKqC9+ZsJL
-wnLwMKZyYk4n3IgdwhzaCRjreTiWeZptcAf9Yvs9TnaNz5upjabbJN5ZLvcXC8dw5zipoVMXBqZ1
-j1JKw7bmPfepJVdVSliE1q3uYDV9t52a8C2LnWzrMXncWiYWJDoIxQtmtOlMhSM5gClqzU1pWz3d
-orlcztyu0XtElr1fZYKan9zDvJTmhnGVTI7p77yoYH2zXZZv5L4eT7EHqWS0g9xhlBK3aPNjASiP
-cqy/y4jpfe13m1Fy/pz9GV3DRNb40O932GoBitIrMz/gtGO9scbhpot65rl+yz7ho61plqAwiV6w
-r8iCtrrmhneuaZmKkpUI/u6gpkflP70fFALhoVBw2P3xoEa7CPcA76ctxFNvElPKWFPpAXkr8/4+
-nHnM/fUR46eTYWAKDAC8En2d6Bw/xAIVrqwiGuscjyObsDKkYEiUPI7LMq6uDXuuflO4/k94h/jp
-TKNf0CMVyOBCSvljNLBs2eDYbpazoGB0WrFK0BKhiK9t0rZ4Iz0aACSP2Q/Crrp8PHbIKwp3H1s0
-CcaCBFaY5c7bR//VpHiu//Xn8YGY/uEbEKSIgRV4nomS9MPxpJ4SIm5kPQ5xUdiAlFTxraJyheKI
-blRYkZF/KeDD7JWu4lR0Z13zrGX3+paGM4YI/BJsZcqjbzX+ZrY4eQIrKrF100l2bVtJcCrbtKXA
-SQU49puk1mg/B9YXq7KcOLhuba8IH6Rt2m/SBfuwCvjHHlqOdwftjAdwCHv5yUwS+Iz6qVgCZPTX
-45LBaPnrz+KnGCfeEPLpLult14XU+xMCoB9DDHUqO3QuNFXHUNUKVzKZP2m/NBg7DwbbxhWBQWvn
-4Fxjnt8d//ot/HTODiSGFws2mIYsEJX//v7sZtK6dSKSA502yd6h7/2a4NLfLQM/KRa8CkKFRQOO
-bXkMrr5/lT7ph9DFpHNwbTbPbsTCVULlWTdWwDnDzSosceCjznjEhpe//gWtn8wzAVsUqfWfQAND
-fjwOE+S2hzYf4wOdtVF4yO0qOBlhGHwperbGuKyd+TYwnEBL+E8ZUxKc5s6IpXZwonVX0eOh11v4
-ag3ub7mNuprtJDXPB/bfwSmtSvWVljnswkaoOLh+vPt/XV1/7+qiRfWvXF3l15/gNVpZxuX1prr/
-/i+WkE+ofjR/6m/fJsX4H6EarA1GRhwDksiyNmfxR39w+MUnVk6eVp5Gyvym4/3h6fI+sV6Z+sd+
-t4L9E6EaztGPDyIhBe+CmlembP5PN16PuyhZ4sm4CuUybWSTs6tPQ4q+eg7DBCNJInJS0vXQqjdo
-is5wVZ7cmPro5aNJWuhS6VDXS3vsqm4XOgy/BB/t0xH3FNU16CfUO1NPXZRL+aVwkG9Yjq3b9qPH
-moOZvCHj6uPD/mi6VkHu0izpP3htlt+3nFFuzeGt0AXZMUaop24w21fO0/RnL0NeLhho6ukNnDWb
-GY47RKYNqZu3p0C3cMuPRu7apZw7ZuoUQRMuWOJnqw2pMJoTKvUaar4J0/SEkCdqu3rK48AltkSK
-tmT72N+1MkgJ+/ip3DdBDFxx0lXhMtWt4QxYaRA3ypz+jUwXi9eqrl+rzlzYIs3mmt50dc0BZnz3
-i4FS8i5hR8/wfb4mN9TczXUavVmxhZMrtXReo6cVs6jXbk/VOVSC8bw4U3UBUlZR6upPDdH1YvT2
-+ZRkZ18W053NvmtXz92GnMaV5409MGzk+aHs25Vrz/sRX/5FNLqOPaWYfVLkluRU+BfXEeAEu7R7
-kDO1agmd21t7nOUhXGpB2I0g2tHpIo9TGpEuwrbUwxM7b47Dksc6AuwEyATk6k6+qWvlW2POnyTZ
-pYded8+nvaCGvteN9Inupsc7Pl3VI331Om11GheavboSI1pF1d96nMLltESif86zuW7WToBOPoZt
-c41bfPgWQKXGZTx3BI1VDhp0sMt8W0NjTumdCWBcMigabrBftboKReeHP6qv1ET7X5Rwrl9ZhF6+
-pCnP8zUkn4awbyOjS+mjeRzYNST3sFjks0W29y5YHF6NyUT7ICgg29GVbV8LK8XUEvdVzLOwI0c4
-V/XG4rl+GGcx3ANe4qBTpNOrUUbtUZpF8CskZa/duUBBGJtLAozbsWmCe4yKy7imVrgyXkiLu5fY
-TnD4DDSql6tALdm7XVcywGTHtjsyl2ITOBBYm0KUj3yP2We8RfHFm1J1o8QcHz1iCcFWVGNzisPS
-BuM8R8WGy7V69GVj3vKsxqBuNPy5qCL7phkIIBGOKGqKxz3sb/hAuMtfplKkNifXCNIGH88EXYJu
-yiEx+VdViqiDdRIMc+rCMg4mMz+VuDZLgqzK6BbEBwjh4YCWdj9TMTEfYySyQzO6F+FzLqltMrlS
-Yiaa7TagEp67Z6uAKLzyBJwJAoRM+70e5P06q60K8IByHvreIfw6J4KAvE2sL8bkcLaxg506ePJ7
-uyH3q2BqwEGeQfeFQ7b1JSDqlvvlPlScyVcJlP7P04e9CmOdmV68hHrOYGPXS28+2AucJSxZnls6
-Z0s0xmHs2ycby8edkfmBTrXj6JJYu4aodG8q7fYqtO8r1w6wui/mO1x11lWv/WEEciPI2Sq/Q1uA
-C/67j4zOahnkW2owig1zKJKr+M5EE5+LlPtDO9JMrGlDeoT/yN8kjYZILe61ABubq/1sHNiOaYrp
-ssESDkJC8ddo95v2wcVUOVyF2hsntEuOyhd1m2CcC7SDbiQRt620qy5dBOHn0J4IA5vPpfbehdqF
-l81fWzVcEwnP12FnkuuxMOyJIDN30AA+Q4nAIIatz/dm/H0Y/Wh8zLf4U+9N7QEMMQNiU7p1xzS9
-dNgEITtwQp6vPe0fLMzqYUg4gRYTcu2ojYbmmA0kFrT7EGa3f/BiquvAQOcrtt/ap4hjsUmEOrZS
-XXfazIhkOewticFRqBmtkV0d9qYgi49t5Nkw0cZ6eYWNqW6CabR3LjV8FpfRtattlGYEhcH8sFZO
-TbU3nJLDPM6MdQc78jx/uDE5xrKxxUlx18xzcC8B3sYbCNP5XabNnG7QfvWq2DxmSSSulyJotog8
-PhKbMwm9zNLmu0JtiR49Ct42zIM5Z2v76KKNpCQC5nOuzaXzINrPS4bqbThAoK0guXNao+GWwJba
-4tLE+YdVFVJ48TDkYXjnaCOrrS2tTmXOG8nXxMSEpL82vuZT+BZrKyxK4nixtD020UZZV1tme22e
-7aR7VNpOO/VcOqlhPjvaaosWgJcincJ1AM4Bx4P3PmKFufeNgHqXfpp3pBOCHa1U+TdNHjgvI5EY
-zL1jZ+PzbbFqnVljjFPaJfiAm7ho7qnfhuClbcJSG4YdbR0OJhW/2x9+4oBczdrL+nsuwvwcVGZ+
-SR3N99RW5ESbkoUwL56t7I22514V2rqc+zLYGL22M4/iizO0+DmEkT0U2vTsaPtzB2F2xyAFTzTL
-ofZHD6a7FrZX7ubEwiMD2GkvtKXaGDBXO2qcafNNpiu34xE5ZYt7ZeTC/R0Z9e8++W/3yYHPzvIv
-0g/V+PZ98uHjB37fJAfmJ+iJ5K8Y1/1phxy4n8huQ3q1PEQLC/Lj/+6QP1wehHhhQgZ6g8yB8g8r
-h/mJYS17bgI5v/Ei/9EOWf6AAdPqBaYVl917YJJ/kPL7Q+NcdN1Qeol/NJtiujZSVW/GzMruJ+lk
-X4tyQDn88BvCN8Z7mH3YED8MiR/exNBTxgW/Fo5FbGrDxZZd+JQt3N7XjTY3xh0FJlfVh/swLFn/
-182HFVKEGKGn3HuanW6869tawi4gmw6FKPXzr4M2VQ6MAp8AtKSYPT9cl92HAxMDiF4BxqtY2zMH
-bdRMPzyb7od/s9RWToCb+a8l7s4ox+aZBtPw3CWNfY9BFRcoY6zwW6etoZEx3GSQ0lFkyyR9XbSF
-1A6j4XmKmmJtEVP9RiM9PtMgchhEtpN3qekNYcs/S8WdHk03iwdLkKyXPX/zCsO4q8oUBDtWheg8
-EG674iyO5TDCPUqkpJL2yYrTLGWGtRCbxo4Vk8yOykMOVnJLhXX8KmZJd7f0CwJiOqeyIpyRP8wi
-jm/ZMeBH7avokIx5tKc22D/CWCSeWTEu2ywF/MsijlDxlzLOIYPN+NZwo1s9fmiKZ2js4Vz+dYYv
-WSPQth6lLfmAoT5oGUuEWXPswyzdgox2lxVpBxqCmym4bhceaToJU67MoPbPyGkBD/7B6+8Hr2gO
-0RxXh8wwFacQWsAItxV5tbYXt35o8pHQv+fjeyXLflcFOXwMAyX1VkAsN1d+tKS3dHJVNNpSE/CS
-Ixau3N7ufMIiFazieJknRiuRF7DtdMNuE9G/u81V2d7S7oCRb0owmEq3BsU/TgSGTSorj11ayHjl
-xlN08bv6m+Jv6Q9mtzQJqWdZfRujLLdXciQGuUrspXsvW7Ydh5DA8FPYT+nVIMtmuwRzKpnSuMNb
-LQIOFWOLlRH35C4wZOtx5ICyI6qAg9eUAJRcOhWlT6Blwmm4Www/oX9YLAQa9p4Ykvtx9uILLTKz
-yL/y7VqgguKiTfhsJ7sE5X4yl5ahxpk0dRGeI0XLSCEqcqR2N8ACH132X8L6HPm8BkXU+AmWB1tN
-0XYsYR+vO0HS9xCWQvek4yslwcGknSK+I4brbKeKDHxLCjF1JnZXRxksKsJzwDioflFmXaybToS7
-NIa0YnidRYN1QG9rJJkEZ+La6gLA6lhIVlNl3wNLPOSj6ZyW2g7Xs9niRDfL+UCIhs+9n6aaBhwb
-zkXpt1yBdtmYZ4Yrs7tRqocg0YZUG6RLd7SKttgmRJWuiMGMp54JFEOuIts3Djb9VVUszbWrmv5I
-kUBxPwsMYczDXGcPRaW7NwJ1t8TcmFmVfmOo91kYjGpzP/vqg6PapJgEVlWSqkcDR805HxnNqBJn
-JXq9eGhBMsBgAHPPuQS7v+kSjYCJH6/AT/lrzOsw6/vsQrfBU8DMnykmN7ZRyUPaRfcu9R7bAh7Y
-miY6LLSJOTCjpoP70C4ujRyZqz/tanyk8TTemGRArrzKXrZW7qKCWql179baj5wvGeaJ1rmigqcg
-ER6wx4xs1d847FO3zZRSDgGe/Vnmtv3iFbA044w9/VTHnI36zntEY+mv69HNJxYpxZrCNgWHOv2D
-xru5TBUiRxYtt2bG3UvlYnpZkHp/zSI2qNVi24feCOhNFlhztpGKJrB2C3WZpVmsR4U0B9++ORc9
-vgqvLbRl1XozXc40mBCG3RSCbHMC+LyFGkx45nwodyMH6G24EMMBCJHzaVsy5UZlExa8J8nMQ8SX
-A3PnZOqmdcyx8JSQ+rjFlAKt3XToZC+zhYOIZW5Nv9Z4Mq/ftcovXjiN+Je4i3CJR3z9LymQIMvp
-6SHJpvJWDH2CPT8yHzGQ5cyq7O7VE5GtwXXlXdPE0XYm07PLa/y8w9L5V4RwGNjkKBtboBk5i26c
-9A+JLSlIipV8k4pLWsIrOpE7KG+YaasDnBtxq5STracOPUMV4/wQiUK3nhrwU7ohYGfOYe2kHHje
-Zuyk6yFVGblxnyUzj25FoNJDgumPkqbe86lPB+URseZvZNohlZAWX45QBuNdgWQEtzsPP8fUT8Sr
-onbUF7Z/SbZajCE5WUOmDpTeN7RZi+mXouuz9SLr5VEOEpN3mHqMDkFbRCuvUZ+baLROC0biE0Zv
-6spz10y53pr43mF4+UBTorVbqrTezGPDMYm29vi5bmp1kYvLlF5ViGYsTM2BJ/r0Bgglf5Sx7alV
-74qJcJGkvsCyl3XKVXl02u6u66k553wuRde9mI2rN7fo4CIzX2aD7M6BOqc2ebY5C1Dl2FVuz5Mo
-M/30dqliiitKqmu2vaAPamY0WWxrc1q+Aktyt2E2cwxuE5bgGHA1Ce92DFdRPPf70Swex2lq9kk2
-RrgmkHX4KvNNX5b5ndRKklN6xz4y6k3jtr/jlP/dH//d/hhFk5Hj/70/vn4r1Zv6bof824/8sUO2
-Pzk+dkfGpCTQA0uwS/3d8CxMizpX22K7i9lYO57/d5fMEOIP3ZgsMFM/QUsCSFvhMgH9BwZnROjv
-dWN2xTiBGdjDqGZ+6f6IM4XZ4OdpNLnXhUV4fm25nhg3riAp06x72JVdA1qImAsD/0JW4bkqZx7B
-rWMaKAdLx1X5kNOdBRxWKVe209ZYptYOD37IFY1uOlAt4TX5Up+z2IbPuyta8mvjuTOzJJ5QcD12
-B7YiNxbtOlgm7mmwG/WeRSM8rcQjQGQZ3tqOwcnlgIsJooK2hIw3Pxj+sojTApIQniBVUcQLWA/T
-ZY/rX5mnchK5s06VySHSa1WiDnmDceBCoWL20DZh8AoRRHJq56EruMmGtL4GNxgjKM/Bi8Eor+Il
-ZnfZTkFuJfsaOb9cybkstrJK/NusKd3XBql2YwTV+IWuE544nGl3VT9Ta9LGjHjSwaLOrJKxAca0
-MiCALUV+lVL69cVVTvNiKYlcLKokeK8C/z2f5rNvttiGMB7MV/wjvBlwPN4mTmIe8GeKbZfKYD2h
-S/LfyKC56wFMjGtznk1AQ9FAFLKmaGTF1pkl0Q4prx2FM8DPXYpLT+DnaQItf2W1M6SfxZvvAmXN
-gNZSrUgnbFwJfRgJptI0+cr14NylGXTE7VBZxi29T4SaHbc9qApOBYel8jFePLbgfl9deMR664EK
-E/bDFMfeYHOzno0KWC3WckveVrYmCQHZIDhDynRIxHKddw6RmaS3+62wqMY29Go4Uni5k6NcGK2l
-9JPPYbN8MeYCMhJE0T3dJcuVHVvLO3K1dxUrUT8s5hyee6OpTpUR9QVmGWO+nfrFHQT9S4PdWS5b
-z9//je4HmvPGcCzqWdaJSSQHa9gQ2GV7TEER4ddF2xvzauN1YZMGO1QIhBVBKctqGHM1LlszJi74
-/rFM/Lui/s2KajmcyP9qRb38WpaK+P1bmXynPPz+g7+vq579Cf840QaWEKwK/K//rKu++cnRs9oA
-5Ikej/2pWwLmAv+X65sspkLrA6zGf6yzwSdPz9I9pFhG2tqC/w/WWetjHf3OpuDZNgNCFnmoRxrS
-/736kBdSwVQx54ODxDbjXKJpgvrmUZ4t3MMEF6yU/p4CWGaxGzu3wUalWpgvmua0W5p2xICcm4bm
-tHXYbGJs/MZKoURu2uC9HroQyJg7X9NWa27spJ/EaoFgDC3NYCCUCugBi5szCDSkgnDlLTi4VxbX
-MW68NF72hrCqp1bN7XFOEbUFnpYtTU60BVqUma7s3Iu3LVVGqZ44NA9Rhi3kYDYBngmBQA8WiC0x
-CCaqklaVK2FemTXCOwHgEFBteUi8JfnVECJ6HwFZ30z8zIszQyWFLhbYJ8Yu2iftKRPwLaF3lGQn
-sraVMToXKuzyaxY7js8V5rhhVMZeYJFbhyYQxlXVDZjLxzCDoxylw9rhQ1lP6A0kwkFn5UWBYzGo
-Q+7e3IHp2/IxC8NDaqQP0DyWuAe2pefaBxo0o60V8MnbiS2OkDeLS8dzYIelmaKsJad+s/fb2zj0
-KZTjFMBgzbNqoBCgd+lu9HY8fgAotn5xQ6IwMrez57KbbbMa+B7QiGeCOd0JatwL543uQSjFgupz
-QqRv0kgj+sZ7P9uXbS+fppzKsrSX/r4AaKVtimF4YzMuZYtoZutCc3scB8XXc8EB4BEPnaM0RvMb
-D9Jyaxfi3hsuNDmWGzXaDchI82L3fVKtVWXJszBUj/pSR59bEpW3g0qdNdoLkjiahlNkPDDjrtjL
-csqPQd6GpwBe/J1jdvZNZlvPyWi7m6wyM8h9/bwrmyh8wCzTbF3DKQ5sTIFGMuuhOi69D3tGV72h
-vE042eNV5Fb7LJX+li3AuI57sgPhUvEwC4YqPKRB6Ox6t4BkOY7vKGfGrrJtkudxl4t7LvJoBciy
-uVKLKFDKArkVQNM2mbTsDaOfu4qrbQ2R5boywZjie3U3RqxecII5q2XyjF2MSAkZ0uddkhlaRz3J
-XtGL5JgPsfFie150RVBYa+F1fTMDRz16vtYfjHje0ogyrHO7jc9ygBNRctmOGOVna18TT1j1GDs2
-nLPCbF27vbMFDjMxQuvoA4wSu4r2LmmJSHz2Q4a+OwXlCVyxIxbbxUA7xlHs348uICLkKiPw+wfL
-oo39wcEs6tgrp8li8SRsrgVatNLk2m1N767zGWA/T/ZSdKteELrYUf2HyT13k5nXx4Ia+LP1HEii
-+sx/IIOv21DG7dYWNH69TCQm06uxskgD5NWS8tukJijdfVvRysjMJ7HHhy5LeuKpUYSgcs6kOaSv
-Wda1S7lBKis91DYHczdYwmDZDJA3WNn6JIpeCxyTxFFioanGRlVweY7VjHiCIw48Ivg4fn0foSja
-5GkJobYpZJdFh7nz7VdMmWP37mUB4dFXPqOgH1bgv6pj0pUS2aAMsw5TQOmGJHDNymHgGpt9Fz6W
-We+CQWywSNBZQxstNxZntn+f1P9fmU+Cmjwf/++zz/nXX9o3lX3/lP7th/44/Tif8GxytLF5PHHh
-6r/vP6cfKqAcHDHAkWDH6unBHyYaCqBMzJ4+Br/A45nFEeY/I4J/9FDWdp4/uzdhLUFjEjb5M1O6
-nMd+fCjL3mDrGA8nWSwBm0Lgl5beK0pm0nN5GrzEnuviKkGt/pWGXR/9jeP2o+O3LotQFz7khR/C
-8uft3wAPcG+tVrmnKaUDDZinUcP8od8XXag1diUo1xdbFcW59b0m3QxW0O9giyVna/JxnThtBDZt
-WKxtLWIoPrMjz10E9BT1uNlBeiguWQbKvhvH/j4gp5Cu0JiyJ7by49E2Wr+nw8QtESDGECdqrKsW
-/Sq4z2O/uG+t7sn1s+UKdX5CpPWii9s4yz2xhvZ+imS44/nq4vrpOMCNsjtCFoYcoLUOYlDT1v4Q
-QFDI8sdeqyKe1keSD6kE9Rver9ZPXM+Nn5E0e25Bra9IrbQEsScevA/1ZXLT7WDCf1gZZjmdWq3T
-+Ag2UORZ2QXQKkRarejgV18eS63ymMg92TS1aiW1BmRqNahJwHJDDkEjAiHIA7bhO/ycaw3JJzy+
-M7Su1BY2IMNYq0251p3SMsOwT/FzcrG0LmUgUI08oKghn6Cna/VKkYA7mGOFCBaX/anUKlf8IXh1
-WvuatQqWTcBGoYRbtz6plgN20fIGisV4srWCxnFdvqVaVUsD0T1g00Jq43GabaG+dTDkYsu/KrQq
-t2h9rhGesSnDvLwjmCIfOq3jSa3ozSD1Hy2t8rla78NDYZyhl+4iHsEvfFbIgih9wYWMSvEiEdZ3
-QuuHpVYSR60pIlgbW5T76WszKnWLUaA6pVqFxPvOaSf9ECfZeAXv8kOybFqcDCvjQ8qctKppa32z
-/JA6Xa16zlr/xAkw7HxGDCtyjm/4yfzrUuultnTqs91SSdlrNdXQumqsFdbpQ2wdtO5aawU211qs
-qVVZ6CrphR0iSq3WbDMnrcGjayUXbAaibvgh8GI7Qez1te6LxcjjpIEWnGhVWBZhymM5d14SUZjP
-UF6nE7qbCS8fRTnxGOuTHGyGu9aIltcmry1nZeT1RLNxEj0Gdubc+g2EKb+O9sPglZfEVN29NcTW
-NnNkh+o7LFnBNVl6DO4bPVXqJmfjqo76CzWWBtMU3w2vZJpymg5A80HWZNfqN7ApVyFmNOT5Niye
-WEbqy1zmy6GMGnOLK8zZJgYV7Hgm6BNgQFev6en2t208N7dFVES3bWxbG7dx5ZccJDQ+e6OdnlUY
-kyygS3h+cF0McKAtcoPglogPjkspT78MJcQOukjg/hiNM+zKejZvCVkKgVeBjNoZK0z0BKcb0xS7
-xrBe200TspIk9cJArfqaYyv2ETmL6UYuXgGEN3OSDN/YYDxFQGkCjhFOEK5h/2IwTERKOiQlPUVJ
-LRjlVe3X052Vm+K5xXHAlKsGg9tQ2lw55nQjMCtPCV9cxJHA2oGDjTQSYpxdP2KigqX/IVSQt93P
-kVfU3X0n437QPXfc7UeIzspY1p2fFlTE24OVjQ9tOkX+uw0JF5Z0TOxxdD4XQzo23tavHSPbGYxV
-0q+zB9krIxsp2pYHFw+3f0/sf3diB7nwlx6BmzcI2W/l1z+roNZvP/THad3RdY/Y9UkG8mzHNPuf
-fYAXAE80iYQ7DrKk+JOZVnIix9eqQ9RoldIykQ3+OKx7nzQQgtM/SROgMfzRPzis/yCJ8vJsQrjW
-TWgCiAY/7gpKsyfZEGfLwYuEw92MS/EUTdH8udBHgChynPWftkmX31SA/0dTz6UCkaX++7/0NuPP
-2gAv6OEdNh1cT1Rjuj+a5vMgpkPenQ/TlLZ3POSGteuOf1fDyt7qx1dBecb+QPCYh9+Hsf1P4IfO
-UTTTOPHEHpu0MFmp5i6rOBMkwKm2pjHmQIHaccPWx7hXozd9/utfEvblT29AuKalW9AIyvxMauj7
-2U+G2eswarKuUzECDAxdwTwMtuMzeYrbI+t4q/YzTXBiVdNDoXseEiNZK1M6DzjziLRWAO1vFAlA
-TiWC87+/jNlutjL+27yaiR3J3CCEMdUpc0CHRYWBsT/P35j1ZPeSpCtVO/5yiBEo2Vq5DaUWKLHk
-Q+e9LlgihRUJPG7ayQHYkMJjZI5JPLrUOZ9bSgIeLYDkl072IUQaVb/5aDbESqth/oaxGaQxvrin
-vC/nvUqnkrgr0bk2TNDWOWqVeDvN6kuczPUrCgE/OE4kTFQzQSrkFH8f4DPoOEnVZnXFR0UOJRJM
-A9ZoDrbcM7vi1zQ9ZaHgJNbjXJEPBE0Z3zrNUp4qO+DZCC+XWJmXtHdVPjCxH7wRRmHHBE7ByrhZ
-5JQcoDqPG6ov22PWW80dROvwuPTetHcbkV/B1uPtyG54SkHVPzXp4j7w7eCGU6Q3Swvvc88A/H3G
-lbiOGPmvk7GcP8ddWL325sI309SleXDHgHtoBP0ruzI4uQJlmenk/G0Ev/DZbPkRBurqGQnDP4UT
-OcQm6sRjT43Hc9qN5WmqyFYUhc8ngkKNqdUuRnx6Lp3gqyzP662qybuO5f+wdybLcSPbGX4Vh/e4
-gTEBLLypeeBYoiiSGwQ1YQYyMSbw9P7A7hvRovpK0V477EW321JVATmc859/GECKFEweKVAf9gRJ
-rWFhN1/ciH+Nc1QcTFHtOT4Qz4FzlNsr+NNsZyw2pr1I++II+VPecFWMG3h2GD62TtVUWxOvs6Ns
-qRu7mYgd3zU0OFmUX1De5juBj9gNTqLeugjj4VtuTuR2dV2+KwvT5NCw6hd0pcNjFNbzdagG/ios
-qvayjIKVpfnF4WjImwh8HQ9N5d0asTmsXVyrtsLNQlLPknI9wIiFX5BUwzfyA6c9EL17G7u8iWgI
-A9gGKIpLDPZhLhDg8X1k2P3qFwh7NEIglIEak20sqaLoIsxIfUG1M19XYzJ9tEfUcWTP5JuiUdyV
-edV9RWyO6hPL4Q1htLi5GzzbNuY9Mq/gUS9LtCAe/dvU8OtnbMCgqM+8CVfU057h5PS9yQf5XMR+
-dCra/HkEZSJqrYF8FHw3+9AcVqmBznvVRqUNcO+9mAQ0PNlR1D/GNmtzZRsYFdiLQtF1ixc38gfS
-VXxJWqHHolxMo3XCixK+0e0i5aLgKh33NuxG77ZHavVQpa187j1RvxgEb2xnH1N6QID6xSm96Zw5
-hvdBB0tEkpHhTB1UY/0aY95crVNnMmA2AVi+/bgA2doRRrJx0ZOs8ESDwXE9wgn+JFsjv0w1EXDA
-OjwfCybJCRZ0uRajmaIjhwG31pFG+qRT4hOZPfOaaImQyiaBerLSPLzKzMl3tsDi6qYTdhzY6Hzf
-oI7hDfdIm959Tq2qBA4ZnLlyD2k3G9XWMbEsu55o77zTGDu9e3FyohKUq6ePVoDjO4Nl+F3gTg1J
-rLPYsQ49QiWwmSGfSXccTX1109dICDpWGD1jfteZLVwls7gYXn/jlrLcBYnv3c/Yyq88n3ScxotJ
-2YluiJQgmMtnE+FukRxLO//Yeq617ZeYqN6dPqcBmW3oab/miU3meBV/mXo3ISYe9Wxl9fKqLodx
-i6WkJnwm7r5aaau2cdqeYRdEu2JsrJOe83CDK6m/LnwPtzSJgsudXYIJQjlM6wYPeZEFJ8TzapMW
-ilB7GUbqyER1AVA1iSGoGXC5zAckGEXxPZZwH1YOc/A9hNdpzYjnMsEA3NqlEZ6zJJbXrcjGnUjY
-sCorrXM6oRXsAZyJJOVF2tZgHk1Cjg6lj++77AAu69GAcrD0KANE+31i+nT5RmmeRy8ND31sfaA3
-CXcCwsAVzgFOsbV59l9aOY5i7anQoI+aeYerGNuJgy1p65i2EmkXkViBRHuNAUV/jMfQIoMmBIvw
-ooUYELVfnHrs97EXc+dxgQe7Abb/Ctpbt80qoS4IJK2V1eXtLh56JqsJ7pmrMNAvAaGnKzp5fa50
-DEm6yPPn0Ihqfy2AL/fEqZHE4QuM7+FiJmt/cB0qREfdU50R7NLDzDtKzleMBTlEaLdh9rcryb66
-dotWnkmemxHhmPbR1hJWe5Kwq9ot1vMKmz5WIHk73kmKRn+cRydbNxkWeUFbHcZi4wxGfbIaMb/K
-wvSO9lTODzKTdby22vCgZy88ln003aW5A74ImHzK6Z/Xwi5KlnsOLAjBbdu6jnvvty62L7hV9Ku4
-GSGpy2CnjKHcGkuo34iWYOOGTvbkC9RMgTmNOzeahlUfDsZOJUUN0ae8LyyDuxxD9mOaOhoLkmHY
-xEYcPhZBbO0L5gJb4dTJMRh0tA3HyL2uwxrldj4aF+IYgxtLzdMJwuFQoNjGzHkL+aL85sbqJolm
-/yrUzCLXYN+E4hSLN3XpJvm1BNA+yqQksypNRHMuoGc+95k/uSvfG/1sZTN3PCegPcE6szLzmywX
-J2dI0kJvzMwcjrNS4VqWRrPvmXo/j0WfEimIA8WVi8jlS+lkgpA+xMMzQAv0SO85HEzzMCY5KgYT
-zSEqc3S+Oz/xhs91ZtXrrhiXukCqe62xfRVqqOptgFnL2dBFgfHV5GewUuwyOTbO0FzhHVW7a0AR
-umAccNODroKohS5We7eTHaWHGaOnz8yUDSIaSWtc3g3uskuJlGUO99CS45h5bYVRN3GDQSW7r5jl
-jpImcbGQMfOWC0dyCn+vioJAhsmILpKsOfYAAZVXfmTKaBN7iyF/gr+QImv9dk5T42Kg9+Dn4pKw
-64Hvgk0MN2NdUuQlG1do+VnLfpbbxOMlWTO389RTFf5RfKnUxmTDmtqvMvMzzDggcFEnl6QhrTQu
-p1vKUPFB59AU8fdRqtrag0vPnNjF0UGOclU083xwzRb3ipoBctdkyNZKSbDUBuScyz0sa+NSxWH/
-mNo4zQL45RvcwuVNPL99i1A9OYagLEXttBzK+Nl+7zJqkjT0KU9Cpaw7jsHqqyNFPWwMEn+5tUlB
-FRAao1UJ+Q9NmZz2CZTBxyQl9mFlKSOo1mbZTPu4ZGgIqs/v74dxE8fc5TXF1jOTcAwLpqX8DUX9
-7He6ONotP8GJXeshKPX0PZhkukcVURMcmoZg+mM7EcIZmcQJYkd5zBmm3f+6ibD+rodYIpTplyCt
-cALRY/yliWkQ+NYMI7pDbNjqFIUchpTDfrVWUBjuEfpR3jsMJQdezAvjzABhWcXD7jvvdw2N9V6F
-jMb57ZsAVhP5gdH/j9+lrx3EV5nqDm5K5Y/zdu/d+gJCadwR4TG5FIRJyJPtYnI8/Lgu4Rt7zoF0
-mpc4qliYlaNOrTNM52qU6qnvXfd2gITxcaTi3v3mwdEcv+v+GDrjKwhpyEMl+v7LBn6Q+wPD34OR
-OoxCW3JqJslGM60suTV6Vh1XEQvMGljxeYcfjMk9tWQN1q+ZpG72cU/5TSj2T1rqkLYNY0BM2QIa
-958a3xhTXyQ0cXvAllg565AonE0LSQfmnjHsm6ZPNhzN83aCm0guYU8FleEVt/eZwaJAG/JLxnjz
-5BSCDNjIq7/KtPDvAxHLbdipGUvABgsx1XnG5teP0/ubheg7SOdMxwzCxVPuXc8OGZMwz2lsDhCB
-8QDxU0bjqoSfVE94jMm0Gjdh4vjfyakeDuRSY+hu2a9BJj+NVexsU49yyfCwpe9lWV8Pje0+gwVW
-1+ns5GfTLJ0X280TfS1jWQ3nJkkCQoqsfIPV0rxLNRu65Cg5xGHq3ZoYrmwbXVKvFjhKUUAS8KSd
-6ewmVPON6scN3pX9o+32xmWIG/HB8PzpexnEpreyKxePWafljBWuoO4d6+LYQyM+kkFDzU6zTF+C
-/6uxguLDCmlIwSXWcqnVdTWr+6pQy5kSLmV7TkEfkmCEq1AqPrhOLre2juB+IV6+ynqCp4ZlDBkP
-yfAYE3+erFD5Fy+N0+fi1BWzP1ypaIx5SCkaQ0O3zCO8OE9Q4EonKvC8B6+G2e3ZnYHSiB9U2Y91
-5FqrVjkyP/piLuIjquKUufLyf4go6KONydhDrKNUWMGw8qi4zyGM2K9+4SAPcEdq+sZMsopUx4Rf
-HDNG3WoOYdzINKU83mt4008U+bTT5oHumyM2cNtPZkaraVfw4UDo4ZqXISFEuqFxCxJXfp6yHuuz
-tEsXmJf9lI+sSDKeuk1Sif6xS4sXv6F/nLUln4OxcNJNMy2JpMuzC3OUpqRr8PC5dIxLk9nO0eLi
-uM/B8PdRnnDoBV5XHDvyKF81+byvLoR76v0Cci3bNt85XdDc0YkGVxMW/6t+pOkXRdV+qjBF/6S1
-hYRbcxp1S2+Hcw9OW2WHNtydC41YvBh7HNvj8ti0GV1L5S9WC6l/XzpN/2hahD7blV2/em1DIpRL
-hyUtuudNU83cAF1ttZ/sDECJCBF5Q6CZzw52OU26qAo2TtDRGUWu2/nr2pvZI1A/KqxoLP4jsmv1
-pa40T6WciVmmO1x5qBcOVcKdqCSTK0oirhwdLldoggRz500wdAkFU08MlQOMqoBZWonfWIx67JRO
-fnUl4MftGy7QfYWZPjZC1fAYuPTR3YhXRbAgQIid5E2Zgw/5KW1yMFbzdygG8bxNg1k+w3W/G7Qv
-P5PQRrtterCcK5f45TFZRGv8pZWxFM7Lt9ZuCIiFNIKFURfLO3DG4mgtW1Uv57tJ0sOGfEf54jEt
-2OmmzMQqM0f8x4YUZGRpXlNt0sAn2lX3mM7xZuqMUuTtLpZVjDMXWM90zhmdEpPZjOA6DpQXgFV+
-XeFP5zkW07UeQNfelqHNQAYPPDQKB90b07Ubg3g47aTu3xAfxBUFPwUbM2GBnKBULo5FhZcHRuT4
-oQQiuOoj4a3f4AEDZvHnzlV0tgCOPPoFyJvTYNrlEkBoTJLvTUAa8Mx2q9Z6iilGRg0WFsSgV2j9
-84uSrsbYCJMO+hRKsh6byDvF5OWQVB2vOMbJieBsfhFEfBsQZ2YL1iG2Z3ZEEjvQjkksc09UIjEz
-wBkAd+O2KtkxsS69WzsX3gcKHrMB+Bpa0nsZj3KG5eppdpA5IEAc1RcoQ4SXm930kYEfuI3dFEdj
-AVcQk3Gs0dGTHbcgNUuI4Cqg1CDRdU75m0obsEfNHHGOxce/4Tdvl6TOwW6rOsFXyzS+mTCHKJf9
-xXShKCmWVGsiUnlbmpgH7KQLNFTVVrQMY6srWdv5RmFHfEUQpHqqLTA0AgLB1PqlVh6R+yCbp9PC
-T7vjcDfs9mtdhPULpiJ4uEHJuhp9ztl6JI8FdoZqvpiVwwvJc9zTWtqnbSsozztSyDC1Ke8UI7IF
-k6nbM7b6IJJh6lPz5g1/nEsUhwM4vg/JgnpTlyy3AA3aixWwJNy5b7/2iqiyxIriW7+XwEbNsn5y
-lwaAkwguCj8nWtCvt/I2wHhhF+dVfinHARTJ5ZoUvmU/vN0NVgcETD5ncutz5IM7AaLinebe+rHh
-cVWMYXClQsoQNeX2w9iQyBWWxHwJxONwQnnxicisBynQ2KU9LxKDaFJ6C7O6woGruvJsithyeQe4
-ycvnth0x48REk+J8hAhnk6z7OI2UyZJh8ZVZF/aDUVYctpxjT3UbyGeMhckeijj23yBBGEnuMbAJ
-BYuh4ZLnRvnZcppIRCDER+NPzwqpNcVJR7PzJi7pUM8fVF2wKSZzqF+IIAKgHsGMnTSiVegonB2B
-JaINuLzlsmfxvB2zmnCPPcgRFlNwaT/R1U+I6u3FBoN4X1CoxiHnHdDmI0zl+WAgfpiIQB54mCbH
-WzKwj3JCez+ZYpD0eA5rzUDmr0fwMgbVZXqsXE+d8JYCRFyOSgePn22TO/ntHNjIRzCqB/Ui4NxR
-6AxXCZAJe7IBna46f8kBtqwHR/n9N39Jd+/46mSQI3QmzpgmBOqv/NyWmGCuFNr9Y1axyVKZJrcY
-sL4Mg8dTm33DOeISyVYZcp5Bh2/ophpG9URVggt9r2FrYMpXh9QtvZfekLzHIYtZ4PBY1xEV5IQL
-7NDzwifYDte5DaT+9q9vG3MqM64Yg1TsL97Incow2D1Wc6fvtG1MuzLJUgJAazZ0SlUZ+x6HzOCx
-siFVz1DIvHS+lmKmIxv9aaexte7duRZkkdLAvgHFPmHLrk1nSnJBSdS7oiWDrN7vARL4xePRL7Lx
-0MNxIlmVIIFlEkOohdz2HoF0qLv64NRFXb16K1f/f1T5u1ElrF+6sv9MWbpOv5Bx9Vr9MKr84w/9
-OaoM7H8xLMNqjVFkyHxR0HH+SVlC7ewyewn/ymb6N2cp+BduPAy7yCcXNDl/5SxZMJU9k3kf/rZw
-j2E6/YNZpfXO98dGueEsfkQwlE3XNZ13TajSBgBq0VrnioukI/Qc6xN9aLylRiRtUDDJSqYS+kdu
-GSNOl5V7pHlIJJdiKL1XPyUT3QLZyxxcET08TaaGEQnU+3NsKwPFYFRhqUWwO3O5vzzpu5+nnss3
-+8vUE+MdvnDAozXxC/NoTH9sn4O2H4uomZszRbW+EKpkrD3cGa+mwTfZ2ETF/bEL/qOVnfOe78VH
-uqa1WPVxfwre5ju+l5EWjjRQFeMrEV6R6Glk6wKNgNhnLhAdQyVlqIPVmOBFI9xmve7dwXcPWNEM
-0c6LE6s+Rj7zyNU8+DwVCIjYJ9sdBKigSsH064qc1kWp9VDYVjfv3aiqz4iMowaouwKqsvKoESSY
-qHJeY8IB4obegGdtiEFfihngwrZm77WrZN2SSx7wUSEuxPG28aPFa5SIJhQSAqLuWvBG8NTs2r7f
-RRgmXU+CiSDsZhbB6OC41zjMeCbXCJvt3EkL2hn84bUfQ/7ZUjyjGsPLWd+ZiVswMEhi+8GiPJxX
-qQ+DetU2gEDwXvVdLEa+hrbTQG8dVBPP9jDmM5eurZJb5CR8o3DynCPMzkR/bBgxzyleu8AINvzP
-9mzXBBHczPkIAVf4k5BPNpdxcuqalvUXo8KBMuR7w2VuKi5cp7D1JwlNzXhx7I4nl7aa7zPh1lof
-G8m4dT1gKQX9W9BRYxk68F9ln/Pt8PZhYKpnRRNnmIQWLc0PRuJ1Uy1YHxh4us7yyntF9wpHbhLh
-49ATRE9lQVz7RqXiPsFbmkTzVvGQ0snlLQiXhIunhCmjPLgzabhbnqPTr710CSNNjYJ7SnugDR8m
-mMwYzNqebZ1RrBfJaV5eib88nFCl5BSN0qnPoTKwVE6LDl3TPAzjdRKP870RmID2+GLrw4KwBbRN
-GOZsW3K/qaIYD+ErKvzR39SDXWyZjUFs85S1YMN6egB1IgjPC9H9lllERzJ7PcOtrPOupykWj8bg
-WzfjIMkKdHKsqvBEPuDp6gbr1K781yrOh0/SIUadho8lm4wgVsM4dME6yRYrT+j5+XSytfDox0nK
-fjQEOoR7OyX2fePBk5xXQ+PzeMe0FM2t2WnP2cFyx1FrXfbKsQhrc4NkdqATuYb9BaN23l3qSHf8
-PmVTL5/5xzL7LvWoL2lpUoAKFJ1rMoS815b6B0ZZHVoPzPl5PQhZlVgZ0ci7pakucE/3a+y6BpvN
-ReQumzKX9RjtWtOQ7VMbQcWGGsFGMNAr6UNqS1vsc+qIs8c0Cxcd3WLzO2T0zFlka8wdPHXo0dLr
-K6fqefR+3fMpeGNj9mOx28ItVA2eix8uIGvvYTNKIK3dPOTzbBiPRu/P6qpDOdQQ5cWcYFfgSjp+
-nCEShh9T1yzzSzRkgEdA9goPdMc5zmQSky04lTxLrGR5ltocKfvDMOZBSNDaQ1QE8CZgxLN7pILq
-sX5byLk2eHE1c45mI4ZlU3QNhSOeC0AmHOa1/ZD2BlNwVIWJeNJF0NswwyjuacYszM58Z7RuEhHg
-GRksydQrI0d0cPCjuMleGqsBkFl5PUM7B9OD/FPDCWEljDlnryFBrqrQBOvYwOjCL2Kj2WLmwt8E
-cpadWuXzzruisW4yQtj0p6CPVP4NDQxqixVmUHG0Lc3Btm9L7p8ZBV8PpnKMKpvw7RW+DKZ5TGzc
-fKDKL7b+RhqbjNVn6vs0Dm4qxwyfvKGPcG+HZTrEelxbZd1/hBhhbEExExJyZbt2+jg5OkUYwXmI
-UBWX6TCuLMeaENL4pXfAC0iM0CcyZaS45+Mwu3Px/SVvq5ZThHmSJANPBuYjYYv22inNFwOHZ4zP
-KM6R6HZkqY1E0lm5HX8u2sj/tlBqGXs21W1XiKt+bNS0zYtG34vaj188Z6i2JZfUhsmLcyFro3qx
-3KTc2ZWJy7Q/l0SHkzd9F8ZTvvZJYXXws82L61TGxUc7a7HKgK+4m40O599B63XVAFGQNSFvh2Iu
-rzwGsdueTv6eY12+ZGGffBjc4m70TZ3tG9W6OzUpTfx8Xe0HsjM/xK0oPo6l28a7pqsYwnCBYYeg
-5lNhhPkOTg+CQzVWS6OPaXM6OPUDl458qrxSJptsbiv0eWb9KYG5xKMtQWeIysDFS/ikj0vBMA0h
-PV5KGKl8R9DcbArw7oM9Z/FuBLG68eLWJ+LU9KqJ0QrlwGZJYT+rtqz3QaGmJdzCwRsvgT4Ye9Z9
-FtVybxJ2tyGmVT7RsGI6DUdAHCu4AMN2Kv3+RnVu9CGUidgbOLLtPCMUayMz5mA3TULcGEmnzhzY
-08Gsquk4GlZ4nAkv305or9Yd8OJa9VMGHtGKhyEd5q+mWWRnDB3nc1M1CHd+XRL9VMxBinP4H1xy
-wLoBPX4siVRdOkFW0E7qjqC5HG7w2hwdLqGF3426ZKjPqIWaw68/9R39jKoIPbKH8H+hhfmIkn/8
-VDeaEz8ZEbsoWrRnGCAcDLKzqTF+/TlQ+N8VfAQPYf8D+d+Gvme+q76GBIJCG8bRycUenzPVbDiz
-F5TP0xEHxj//MNQEDGYokKEMvnuUFnvYiCkCT0GBWX29oDFvsUBG2od/CEL+Y135cyELVRCgkFrc
-xMnofX6OikNfGtoUJ0dM1s0bJdobAVNRU9Xn1gcX//VP+5vPs+hDLJaJKaDGvcuysYinq6sCSc2M
-g+XjH1dQlaCnXntVSzXSphOP99efuTyuH4t1flxgBgt/kJf3vlifMD/s8M5xT2BoVFc+yBZCozDi
-Bq70kofuQpBz1kY58M8mVvb6Hy/SwBMez9n0YYF65rsfXVeuMlHFiRP6ouYwjgAF2hrr869/5s9b
-gU9B9xkKgfjzp6lOEdljFaWtOMVAUYcpBfzxg+l3ntV/9yk0lIHnMYhj471bm6JzbAVFWZzeApdE
-CmIGoPd/WCZeSKCYg9NAsNBLf9zW+cKdJhjeO9kR8CSCdBbFMEHshM1PfkQn9TD/pqX7+fziTOc0
-4WfhtMXH/viRFUKZaSyEe8KXRzxZQHmksgyUIn2BxLUCQSXgFx1s9JvV+fPJQpo6SVkWv5ZY9fc/
-NWQYYM7Ss2EzsrujmnOyE+RkzRmY9a9XyN/8RBYHiWbU4IRWvT8sfZhKfFRpg7ctCA++Ree57aC9
-uSyYfOngSKP9HXX3734fkmFcIUwPZ2/n3Qk9MAVwklBYp0IorN5LwpIKM0j2NDq/3elv5tk/bnXG
-spjwuO6b3OqnnZYETWBynhDS0gLRZVbpjZDBzOKCOqm5qSFIkpkwUSbrkbqOyI+pvRkUjJgd3uMu
-zUVNTgkzm6/omByqzpkM7bsgF7L4zXL7+SBkTEdQOeA/Mm7LfnehVKk3ptBAWOGlwwelEaAuwdjc
-l0PmstSykLL+16/f+nnvki3IruJ6hskcvLf/jgvwkog77mQEBrUu0i36hw6ODE5MFldmIqNlvWep
-daP6Qj0DbM4WcolQX1Rrq2Kv4n5WO6okkD/mdcnm11/w754JZxhrxXI4Jd+zvE0FB3kI2PXlHFB0
-oxZ9sWIyetrCqfBlU+bvYJyf1qZAHs9uAMphiUK2+3HPq7Rdiv5pPg1u5L62zETxZVYVy1QvNvq/
-/nV/92HgRhigiZCj5v3aJMQpNGMVTicdk6iDqCu8YrZLl+OZki7p1x/206vmlwVYD1omagOOs3e7
-DuGWJdvInE6oq2kscRNlZbER6RJ//UH2O1YLGkmOy6V4IMaQK/19ZVRgx6QFHqBUEE3S3pn0cDiM
-Bm2Xf4yMem7PMhtAQtyYsVAyJlhkF9J3mhXZ1VyDtdKXJM3BCYyRZmndWowqZ5/kGtMQQFmgXs7O
-LBb0Y8RUGnkYoRV3XQV1rfynBzF205R3AKahh63M+1IorWDX+mXbnjBoCTYjWRFnZqPpPjanf1x1
-8VGsAZcEACC9n3IpINXYKP8ZGDWmcBjCoAZbqVqFW8PW9dmt9G/xw+X2+svB6HKt+YHN1keX4iFc
-eX/czKVjqcZzT0Jp95sQ9nDC6SZ8fANEhN+C6qi58D7WWtu/Oens90vE5ZOxTRD42y3pA9wBP24z
-tyDaiISt7GTBIS5naH+ByJFKwDpCMYnxdvAZekjuboa6tdqbMCaEqXKaOD3Y3cSk2Laz6WL2JSji
-nC94jWr8pbHoG/75be7SlKIlm5q//87vJqPibxpT7xCSRIY1Q46b4L2XtaQLLcsLcSvVw9Q1BPMO
-zSTbFfMqfeeNGmisjYiNOecARyQ3qQHz8QASX36NaVDebEwSu+9H0IabRnTGXrupuKsny5j3NdYY
-UC47mL2mD+H0CljarNYtAsCQGPhGXnU57hqE3MkZSsukZhroOT3BlLDWjFE9srZ7K8FPHJdlIoTB
-vs0BkreDTo0w1QKN/AyRxCqsr2MT5IDiBqyKdajlAoZCr0zuBoKDY5wvFCl2ogai3EMLj5KDGHK6
-okrN/NdZ+X8Wn0MegbyExVLXKMleS6rCQ2pStVBqcytuaNynBs3oMQ4MfZF6LpM78smK+iqP1dDd
-t8R+lRtb+uzu2iplfqlnk/ui6TtL7SyTqLzcJGE0FqLOL7602q+a9JsZhDfz5m94bvTudaOsBYoa
-C14zhAH+ID/de/Ugvs0f8HMklj23M/dqWKiiIBowendp3uV6JySslg04CMhVNycA4UE5Cfx+nIi/
-sScAjyy4cQlW1llvfNB1ykerHOf4TWgSGIQJceG09m01Dl53sVLcFjY5yyW5o1+F92BNPgROw2DM
-NgxN6+cbBqEY/ssK4oGwOcI93OLlqaoGGgnbH1P/yh0iC8tTqAIR9+riYlA3BZhWIPt23uuCHnZl
-pyEoY9ybunmwKrLDYW94LLAqCYR9Y6QNd8NbHQBmz+qDBgHUkAjCN05Q+iBGoanWqLnnqdbfw26O
-7iA5EWj5BsF5Rc+XcRJEP25me69plGAK1fbtSELq27YSS1ifucwqRx9F0WvlpUBvozdZD5a2EsJP
-uBUVDgREKq0b4bGKVLDMdJPC47na7YKZO1nbfyaTdMRdkEjEuz9GMxivvEaesxQSsUttF9Q++ZJW
-tiCxDfA8keu0PxCSQODfrj9f9ICMCdiVf0Wqdz+vcjPV2Q4mpNmeSRhjm5bSYNJQTC4P1kXO5uxQ
-qMfpPRaRfBHLBDvZycJuLxW6ZP3Sa98xoFb7Xp5fkJDr/trTBRKoLKvcdY+YafoWGEwytlmgbPd+
-siQocDJRGzvsv9EvuY8ZA+BRmgBXsFZcpjkEQjLc9j9RmOfIvTHOgyS6KtJBwlOPorkEm0fQm52K
-pgWtnwpASdgE1RwASZBzdyrNN596EPIuACCbe9Sef9z4/z8n/e2clFvlLzXL5rV7/a9vb6YQN6/l
-t//572tyI5b/lTL9cVT69uf+PSpl6GlSCFpcUIw8fxiVMvSEBoT3EhXdnzNSh3/8t37T/BezUPAM
-jBFQXPpe8E9moiJ4VwRTgZAlapGtJBwnpGd6V7mlWHp5uWzzY5khvvJjqFTwZNiMWDCRJNlBLunU
-IiZkSke5asEncVfDIs+r3Xr6iN0d2j9mD/Ac61xAFQqtxUs2X2YDTQqZwZ8MSiyZN7MNhz3t53OU
-+hNGQq20oQN1KL58qIJ8S06xKXF1fvOm4oJDzv2oUjicTYLP0Qq3AHFhIOQji4A0EYwjx9BC/XoT
-i6HFiE61p9n3ooL9w9eEgBmNlXx1wmregUvBj4CKepyAKS18gF2DOOUCa5+++WCRVGicAp3gpj8Z
-YDtfh9iJxW4MfcN+NIcoTrdlH2vM6fPE8J4TM8SVd6HZdMm57hyu/NVIeOp4pzDjT1Z+HIzxzRwa
-SbCr88mKL2NsCirLvERLn8Yl0XB2O3QmrjvMxI+Wu/x/xnDJ/CeNC1K1F8qkjoY5im/8lDT5OrJa
-BlnWGMxOQHaosGI04qWITJykVRV/Lucpvh38qd7W0KhIofEn5OtWrIInbO47Y1tZI56clULiI+ZN
-x78tdz78jkwNN36QmQRRmLFzINjFIteSAOMxItW1Ke4BcYs9pryLLiLgAgl3shkCTEzpsc9NOe6U
-q+SdYqrDgpE+3P3FP8mYwuh+EJP+mEsvfzKTKV/5RZWsHQZu6w7J/Dej0tmF2p3E31CrDTEp4S6B
-RnfsYBI/I3HIV7DjCFHzm+qI0393ciPS1SyruOC7l98PGgAehC3218QkojgcyQCoq6MOpwfYZ0Oz
-wrih/ewtlLESGuhGQyk65rEgInnsyjOdeosy0i3XDGKLj/UAV00ZVrKPdR1+EchySACImuxuYIj3
-Gg+kq62hBJg34RSQitNllnGCaMmfmszKvG8W8cCIoOzRsYuHzJDkWUCwjtfwk7+kGCphLMKmYrrq
-Yvsaucc4Lwc8/zS8UWf8FkVt8DoTKrsNsSGaEDPG3Wsz40k2c5FZyeiucjmeBzfxbgviMXfOMBM2
-IchXOzRcgUfGfuIatZL1rO0egY1fIZ6yx+4YZjnEOXcKmdLX7UPLXP/WGT0Mup3SOaNy1DfMy4g0
-iaV3TyyhdQMNN3tSVZI980aLvda9c+7ruThgmgpHeXaLLzLuRLSOSKU4pY0z3ymvG67KDliHuZg1
-rCIZ+Jcp67jiDIPIHgM17XUwNQ5xM/gqr0a2xKHQTWRgiJCmi72Yc9sHfXs1NE76ieIN5hRJPea1
-zIf0usNe9qHP+/FDmgp5YjZbbQ0Uwc+1O2WPzSC6c+fVobHVvZ+dzNmf7Z1VJuUdSGl0lAQZ77vZ
-jOkGwmDXqMH7TsgCfl++mD7pDOpdHBrHKsfDpvOiawaecJz7xFyNIYNcq4rxrpDnyTOndRQ6K5m7
-/de+GilO8qo4mPTYq8qT5HtbLXT8tMLiLDE1AmqhPiMe6M+YzaT4chJ/KSp3vM9qD6FTHkyHuumd
-e8DA6aknKfkLvIXhngcS3eLT3H+a/claD+5Ybtgn3aYudYYazM320s0EMdh9nX+UKWUdr53dYoxq
-F/q5/IoSptvPiE/alY5MZ6uFduGpNt0dImTC/AaqV7S/QwJR07O/z3YSGpBHo56lTHImdqwPEE+H
-a+LE77ATC2/s2o6f8Bwo9kjN1A7OPIUPdDnzWqS5eR12eXiDe5V9P+mh56JoJ3gj9RIhXOjbQvUS
-MRAbFVA6xmAPxm+5jsZOH1OK/5OsoZQzgyD0uXeq6151K5IkOWpIw4XxQaljK9f6ILC9xvOmM6J1
-q8T0hYm7bvjRQZOu+jbLDu3Uqs85MRuaSu3EXQLEqWr7JYMofCywX/5f9s5kO24j26K/8n4AWmgC
-3RTInkz2lEhNsEg16JsI9Pj6t5GyXbJqlas896BqYJuiyMwMxD33nH32UqTpk6Gy9iF2O/eGiY+9
-IG57xiHaVp7bqvdvJttdzkPbaG9N3es80YzxoUhrGQd8etzrahznr5jIszlkNKFZubLHkxaXwz5q
-jeFm6JR1wlm+bvmk/DjSGHw32XDPZzJleyudknuebM2r4/f1u9dV7veZEaMIHEjx6wr765hP2Wpn
-9OE+N7uRDtereWrtjWuAzNNgpuahr7Xa0TNySGR6CxCyoYaWli0TNwvhGo2bYSIk1Pqq29YuG1nP
-LtMotJ0s/14Jpp7WH+QnL64cZwtwrXy34tjbV3KKzr0ReVeDV1FlOi2KPgWPfsIceyr+SZ4nheiK
-m07oFI17ZXvOjbnb9l5bn2St0cbbcbvNQMbcjIWLsWSo+k+ApZhXGn9ow5ZYONF6a+zvG8oPrhfN
-n7/pVl/0awc1j2uf3/EV7QDaU5LYIGOB5e8nmGgiIGGcETMfu4baWQh/WzzxNd7XyrpJ9ajiWMLN
-mHvFTG1ZZHt7t6sv74kxpa3Wp3ampDogpPvWe8sRpXd6ar2x96rPWlzZj15MvZWhTxatL77gGJzN
-O0ZmPSR8dF5fQPZ9lrFfOvpvKIVYI/bmmdrj7BibFCiqpKrv6ti0nl1Y1FvwecVOytreaxDpsSUw
-JqJA0KGUp9RS1VaDAUhv70nuii9domg/ADtEBcU4+I8GfB84ga2505linuwoS0RYao24yyOJo9Mc
-Jv++iAnqIhbV4ahb116kRl72UuhnqRvnTjjTye9Mb8uUKYFxUXFEJmP0D1En3QNOriZsi3YOq2hu
-75qlaO7WBrIDSTzzQMNHFeLe1MIRquOyjzApf+IuYD5NYK+A/dgEdbxS619LGBO7KG9ebFm4Wy3z
-7y2T9AM/n07ZEveU9mBy5MVB1mV0CTdKOzqV2WKrEuB+eGjL5UvaqFIGLdnFk9lPG7vm8TbD3uGt
-KdpdmeX2XcTddGekPKx7rNLZbqShIttYcuH+MXEI31hEozatVB8rnfw8ThzRhNGiiz3Pu2pH8xeB
-yQ7LqpYa7sHETXwL04tpWnfTVy5oTsuW2+MCMkeHvsmiMMZkbwauQXT/aBcxNWS4f+6wug4AkMVE
-AZer11xfhxafgpaPD45SSTAu1nh09BkXA25cPifIk7w5fPcrF99kK0Ru7nNC4WfWhlymJ26qFfkT
-fXwc9CJ+1vO6eBYmd0ARt4ugUkjK2ybv/Ksld7itxHZ0JD7d09GK/RD3Xc0TjNLl6Ei/p1o2mCiy
-U9b5Pgj9wUh7rph+fSilGbffrDJzW+BIORq61wRE/q6jgRAbs6E6UWUk7zHJWWch1HzjS2VsfJqf
-wi6W0ympQPjGXPxfFse7yoTzFDvEpHozvWGjYPBTilOZu8ZnwChmAOqmCGXkoCm5JTutZTCPs+ZW
-sIATayNBW24ba3kD3/ROweq918B/8jFbbwrscKSSMNTXHaQn3dLoMoecMTEiXKWFUW7hbj/zstBV
-SIVw6Ld+v7EKLjdakWLxT60zCftXoxWoOkNHqjnPi02ee3RalAW/mHL0CbxgAvcobgnQCapTnNDT
-UfXeLomr+QRt5TaZhfnRUhhVQm+iUEoHcb0z2LCGizbhoct72lTqGUi1KFl1Us+7pJn1OiOi7rN0
-acg0eXuwnO7t5CQr2rJCZeHt9wbSc4trL3rCgegcGi2aT7bZ6mdIrulmiIF6L57iMdcm6TFtXAwX
-bbeE6Ol2OAto4k3dxTcV7rmdn2fzra3zw2VesU0XyKOObOhpQRFv/4s+/auEC3bQhB0EzRfHrMd8
-+GcVNYnEXKS9lx6zsmWs0yZYFWrxOKVtEmiPQq/kl4a7FNT9Huv5TyPz3Q+l+GfMzy/LC6ZSxwSA
-A7jIsy3n4kz+Obu6pJVy5qVJj8YEnWTJFA78tEhohffzh7/+Vr+sLtZvRaKO/63T779bElKZZg7W
-TL4VibFqy2dkxgk2x/W3v/4+l7ztz5r4+o2Q4H2GfqzQzq/oorye6fTI4ab2TTTvWB2Ko9NfSCFp
-dydVzoJm8BM95UUv3xo3ZqIeFwIeWpSsw3WU8Lf767/Sv7/ELATZR7mQm5lp3V9m/17vvKRjykCz
-BJKLbW7eW9nqYBUFhTQbPU7Ul6kfeJ0NyDSX7/2PfvRf9CNL8M7+6WX6N/3ouXtLfhaOfvuC34Qj
-Q/dhf+rs2miMxRu0Erd+x4Ia4oO+UqNspCXMH2vv7e8ee+oS2Pysjpt/CUkurNA1lIsdcK1oRm76
-G+b6C5T7p3c3fFCg4DrV3bzJ8fL/elzUsk4TEEvzGbFFWzhCx2YmJ+KM/kfKxi1aZyd02CGOmyvO
-ahbeM0mbi5p72YAqiUHFbGrU6NWXUKYGi7p5tu9KhHzdCmpQwJEHbnTU19QbpVYiGh80d54qyhf8
-AVvTcxJNftkc+hLepxOPAzlovYi02zX4VJ5qlbGkDxEPau+71bhz2h9G9qbTcIzp8aUUJHJxh55Y
-acnhsRn4JT9qVe0CGYWhL7ZxNqrlit+lsDiGoimE08P0FDerTkPMV1LRs8zdAzhN9gFjkd6wGMB3
-QCWEBXjJAblbmskTkXbrwA9V89TrtXc2lOmTlwmsrQ2hmnsuBjfdpOSRO1i8S+qof2NV/02aVFRC
-GaSdxOECEPowtAqXdczimtUpI4JkwzzEOM55Mo7Ay66gcZWVgfDtTTcJnmXtOMHr5I6ca/H8iK0a
-MhSf8BxPYYSB03T3JpNJvx+AbnU4+3FXGqvAlA8ynx6cQk/VuZkQV3gRGMLMcjj+cyD8T6xgRCMO
-3r8K3rRov+pXNXn9ot/VZM4EHwMThsH1of3HieDbFGfj9rkkZ/44C/QPjkFQQzehQvCAXf+c37Vl
-hyMBW4LLf6B7bPT/FsifUpQ/b4HZ/nKZ5amKbQtvIafWn68QynAy2csYcz8fM0nvEMSNLhD4xueg
-ccTwqselixffrh/SZl6rN9EgpIenPaz8Ptsabqo/Zl2+zFtlTvltwsSVB46G2dh31X7yU+vUVT3k
-/iEFdGR7WEx4UPqC+DQZit1MI+/VUIw1vag+LWW1WVw3aKl3LuTUfan7yT6icW4vKH7rwrjUQCpw
-t9kvaaKOOXLzuW+Z25elTTSM0axwyfySiJ8L0/mU9iYFdS6HTcjVKKYnqh/2mWZ2B/Av0UMtBdDz
-VBunY6+/5/lSvwHS9+AmWxET4+R1DAVsSMfBmXYcJ87tGE0APg3HL2jggydwNOZIHMAsa19Grvvf
-3Sb1by0+0Eea3NS3eKLliRR6Y9ylSdPvSUuqB9GK8ZTlLifmzF0Rwl9mfoP7rYeZjR+fvKIlmQVj
-5ybWq/iqbRbtC7ob/StGU7MOXGR1nFP5MiDHAoxYrf+JNzwnTdc9+n5HBhlioHpfMxUvSuPKEva2
-oJzPibM+WCofO49XYbhibR6YHBnHhMoyN2SHr94k++IeKXT8xBPS5DddFe/gjLuDv6TdzkCX+bLo
-fXGd6upWW2L7lKuuOaloWa5g1w3UArjtzoVLZ24U2HYO97k3FS9qnL/4qc9pz2+p50+jxwFx3Squ
-ZvoEQ1WXDj/o5GcB6aL+2kht7ZDZerKfZFQ84ZZMPuVdyo2dXYFFHRUovS2gw8zY4JfSqUozrRwT
-PW/Ao1QAiXvhLy0JbN3KA4qwo12yrAbPeEZAH9sq4WC3GPFImIzf08yk5qyZVkNRVbCUbbIEgi7Z
-kEDI2b2OVb1syPT3gbl2ITSdll3TImGgLJUjAWK0TXcGq9vEHyMETQedJBbvchoFCUhs93u3oLOn
-JvJwWJqF/S0ZrHhDXN+4wRnv38fRnISjp21BJhH5pULGUfYNrNzhC4yC/AhTkAhUpmnJZmh72HRV
-Ml0tS+e07D276tmvs+gFEl2snSJpymzrU9cAKVlvezjyY/8wkJ2NtsOcG68dC5wqJDLf3xt9JT8r
-Vv2h34zGW64sSBbD3M0rLZM6PGgXI7xKjxk1pVATso+FOknLWYKOFxnWR2vQkytJ3uodwBBdQuxH
-5jh0FQI0xZje5wyy6Tm3p1lH68/9Jwj7tRbOmUvHoaC+stggMNUQ2qryjcW2/8wq6l3Tx2bjNMo6
-G70zf7MbNSM+cB+otpEXVVST960RFgoAJC9WpV47VyikfTdrjl5Ud/ADgRIHHRu16xUmtmk6dc9G
-xEdYTfk8k9eVa4Om2Hq4LkI6d9CqBgr9JtGkG5H4/XYZO0AxteGebL0l02QlmcfvATm37nuONWWx
-3oLhpu8HSAIPJpHufZ3q+URzUheJrXCV/mrmib9dBCfqYOoArv2qTDMUr6Y40hknb3IR4e7wa4vL
-iJcKfrFumX2CcEUppjRoSeVEi/pjFMOdIn09Np9ZG2GiF9ioDlLHdo5HbG5vRau0L7XtlgQgjWxA
-EZt5G8R+7NNyafoq8IUYdhpwx88OJVjfJC3ir7OojLOFpFNuu7H1qOG0qZ0OfVpUmbD9KN8QAi83
-TjJGxFW00QwNvaEkhYpZhrvxSq0NbCVxCmoq3JNY29nANbODWhvb6IeIjtna4lYbdHVMevmEfNfv
-27XrbQ3fD4TxSEyQyqENzl974bBCL18XEjPldjDAw9Vrg5x+KZPDF5rdTrqxtp2KQjo0zgk1Numn
-5VJFNyMT5PqLN+dod0Gi2FV2kIfWArtoYmlhrhh4IyOxRM2zenCAWT44Brh4jkXA8YSqjwz3H21R
-VQ8S99xDb7QR7dxpFn0cV/y8dSHRV2xpTiuw7KN3IdW3K7TeS5vqTu+n8o5MKHJtDNyejZnArFS2
-YT0AHc0uFHzwmFY4lXN606+QfHnh5VsrOj/zdf66Tq7tjAtZv10h+4RG4e0bCvQ+gTgo9pAHzrZd
-QeZXK6RfeOD6sxXcH18Y/smK87cWOqKqS11UtzZHsSCIqLVuaJPiPX6M+cG/NCldU+Os7D0ZWxAd
-axMVch2lVIvUlkNsFPMuE7MZTEbXb2UHCjHv1kqrfm23MruFfioGiJAi1ztZ9ISY1ias6FKKNRMF
-fQCdd6ydjPKAqY5ruBICTuTaphWvvVrr7/NJrV1bMA/YlQnN3UO50m7zSymXaY72feEvydeIprRD
-OmmjFig5Ee2FEw+Fji3LvZmrce/Pvn8cDNq/VFRDMDFoBOPzRDkYBj0VMDf4ZdBe6sOWS5PYpVSs
-X/vFRmutGmszWsdI0BlQ0mgiy2Qhbvu1nWxx/enY8mDEmGKON0T6v+hrm5nRrsVmdmvLF/iqyWed
-fh6ImjSg4Z+kDC29FKMlai1JE4Vlh8At3V06ZPkdvNTxMwgDekM6w3k11641c21d65L10CRYYVI5
-No72slW0NdSP1ey/kGIkSTYkXtKQGJIUuumVZyYshEb/NV0b3zATtvLOUWsRnOWSwQwWQOpw4DJQ
-/NemA65g3/xokaMQkko5Hvz85muMjI+KyjnaUmCbWAk9dI3vuGFC7C0Ks3i8X6hOyq46VbQlnAct
-ebEby07fTIePeEhgUbe3aiTuT1YRaO7inA1jQtDb13Ge6v2Jt6yp8pM7VCiWbzJaXrn7Tp8Yaaov
-2TCZH/2ud58MGTcnIqFPsnLnLbSs8kjXJez4fsD6Va/DzEKrc/8dFtlb1jmvbj/270SHuEEIIJ5B
-a/evrq9lB8f1ijsov9tRlNo1Lw7WKgUpqcLg9t1a7AEJt5E5azdpeSS9+rQ4KBTCe8se8znsoXrK
-oFF+HD95Tq+25WIu9wmyOnm4erRLLfhnhPqfRiiEB6ae/zxC3Xwb3r6+/ayq4E1dv+R3VWWVTtBS
-wKuTc2JkQaH5XVVZXdo/ySj6itNzTAHmDBPOv0YnMO0EDqCceQLy+kox+BtqCjagX0YnHhTrt0Ge
-wzKOOPyr+tqJaahUY53dqHUhrQj7OFuGxnm1FNBFk1LKzdTUJ7RTaQS1IYetvsTtFrNose/NVl4D
-F+zNFxLm+U3NLZHr1DRYIjQbSTtDr8TMJUsML11eqk0XzwBwGoIKIVIKrSNNl8HydaAp7/txNh56
-oGev1RANtwsez4lbQ0VrWL4oao0k66ddWor84MIrxfSWDzST8eDeO9hF66BJ6A2BBY/vbqPNkFfE
-TNvXLpmwyBxQS5d+Q1hYf4edDBSxmPP8q2Q7dJvG9lDiEiin2wjkDmQFMML6BvIuRhLS37l7rGcl
-Fh6//dTsqUTg31pr7HQF48z4UWw5H8lV049clvOEv4e/IH7naIGMXUtAevem19T3vsjih4X6xlua
-yXENukW3QZfx4jCCVb5H93EPa0GYDDNRg/XFVYe3yevzaqMJRf7wbOXmc9c0nbs0mGYuAkpk2Gm/
-LyMzttw9qnke71xF9EbfkIZWlR7mqzJj/VBpOoojjqI16j6HqS4hZGXEFqoqh6VVaAWdFk0hiL/S
-I0U1CoI5mww7jYbpJpeD8AkGF6nyWRTEVOI1eEzioIeE4cShrSVZdBsZs7YbIjhjY2i3ZKr4ZfYD
-DWukvodkE+M1cuuD3o5GdGWqpIg2UrTD+sYBj7Ow88K9MWUjOyQEvWI4dV3fN/oNXNCss1Sg2nYY
-6bXIR3NsjZcYwdpcXumwmCv1FXJUV5aBTdy7iH4wLv8Rkf+biGxBXfurA++JJshvbfvt289nHvrs
-+lW/i0b4DG2U/8uCh3/8L1ILxnlWPvRCEhXg//84/iznA1xMnegKFRWGjmvxX8ef+EDEhyyb6xPM
-+LvKkXB/Of4IyIDdXDcyBkwY0kO/KEcuLiGNnG0FXyxvjWY/oLBkwzbSRhw3He45+M3kZ0fAAfMc
-ljAoNkY7WXuXzPRBliSwIXG35da0gTm0ksXllOv51kl1bCax0wLoUta2jJ3ppaSTBWo0Ps03P66M
-o9noMPt9ewwBfYgt+hA+n6Y7DlYb723a0jeOl8sQuH0SMin3+xk8cEC0VNTB4k/tzk4kCDh00iLI
-5vpFNBLbM0bdYz/FsOxSZ9e3rrvR4VxRA57CxVORd6jmtHgyE4CFEEchEQfkuOqXxOjlnilwObUD
-1Reb2HSc98hzmySYyqbA/6Pi+FyruXvOMT7Tp7XoD2TozU1VuPdDb/hn5GK58co4/lyAXg18Kx8O
-C3ehTZ7KKIgyXe0hpoCYTlm6Mn/e103tHuGLVDuHMWo1Dxu3levD7crZ0E/5neYx/bgRnCtjHr1t
-waQd9Lm0H5VuVdtRCj2kHE9wFZ/aI050DbjoYhBlTjRo91WDxV4uYaJly6ZFmzpLh1D1FoIL7maG
-nycjbcTWNGzkkai096IxiPtLbr760i73zWC2Z8gyUZD35pMzldOXOe+dbTtmyH5u3t4vRA2CcXaK
-ndPXTM7NND+INHPfe55cTTV/5p7e7o3Gyg79EJt7Ztno4wB+cEdFkQNK2cnncz+b2Tmm4TEoaOsB
-4TB14EzKghLexPMOLVv/nXRMWiZX9Bf5VTOIPVw8alb+O+vc8XsMwGK3UN/lsRQvqy2fG3Ev5rEt
-rueseU56I3tm0Ty/aQ6xqqBCJD1rdT5ceRoZibrUeZFTHwZiAyM8wEjvbXiYe6eIxfStZQz1uRiN
-Z9z/1JNSbCAPTEM5CwTJgw6M3a1ZKv9KQGqZ0P1EpsLU0Er30Gt9Ou9Um4PQ8HuR0w/fT+PJwWeb
-VebgB8ukrB1QTo9dCeItSSGzPMw9fotq8bkemwJoWFiYPXGIkR3/JpMIT63B8DOZdCdrGkkYW2Ji
-RwU6K8d8qwvpRtfSKqYE8GXxyWFEfyjxx0SaZ2jHllrjyNwXnYVyGQz+WPlfYNnLdIt8tdwuw9Te
-tT2Yiy9+ZUXLtaj6oPK6/tlGWFsfxInqt0XuPomoRaFSwPuokvdPI8sbqNFRW8wbuAbNQzNpJUb4
-dB7iQyPcXD2bxSgQV1ipV12yqXgKuqeqtb1W25R2Zuq3HJT83ssBXF+EmcchexJH+uuSSJpC9EaL
-b5DxSvcTq2VTqm1LsOG+mvw++ppFkmq61cXFCRckjKRiq/f1I+9cOw88v2Sz7yth5OE0FIBE9M7P
-3l3MAdoB2iadJnZdMKXi/sLB8oO9E7GgEecxLtmpzRCpcq6ovFN0/MVHI+n0AYgcpmgQc+LrLCiJ
-3FOYC4sHJ7BLRklL2SHRwgB9pLJzviUAWOUEJRLIkxVD5AkxleLxRiYDgoehNA66PCK/QQ0cMYMy
-xu4QDNhwMV55s1k74dzLxOqu8mK09U1dD1oQu5Mb0/pcObfTqmzbq8YNCQKuPkUJHehnI5qfilVF
-Vwxx6uJk0TGb+yNkKRT3yhcSKq3P536yo419kebNnktUb5jJvnIHb1+vGn6FmL9cZH1l2DVFdGj9
-UdNQKj52LAAA9gBhBT3CYqBfdwRd5pjrDXBPB2a2flZZJdB/km5VXFvaDjuQ/khaioZYE8Z8aI22
-tq4aqhs36esHb3AdKijk8Gpf1hem5V/NFuuGYnXM5JOI953qFmhCS1/AL2yX+QvckHeeUeqGlSlW
-cjfSQmi7sFxNXeqP8WJEO2yK3rON5+cesnDEw6GCIxq77W3dedqu0Gb9NFR69AXp176D1bFpYfIf
-OTqjAzsP/QXvTbppMZ68DsRR6qCLzAZxW05XLgZYmsVNL8DIA3JvnLPPKNnGyQa0dyOonOu0SgQT
-ANkspEKMK2XGfLDN5mi5c/yM9uLc37dF1TxDDOqOszP0+zVjsudWblOMZ9BKu7QauMyCUh18D1yz
-1WR6QDA54vHq2BukVlQIvv/j5AswhEbKvtSMkrtmjsEWLmt7XubT98oPsMPnRROAMYqEo3ERL3Cs
-cfANtt+8DZ7ZnYHaGN8Gli5EthZrmxuRcXBAGX+Cxg862a/puof+uctIZmxVhU0x10f5sedzeO5V
-p+5sdI1rj1a3EL5+dg0xOt1LKxlucqi6IWxl51Asw2fpifR6FknyKcL8eRNFhs8f0jrcBFZWbe+x
-TAE+ot+0uEY6WtFt787O6APyTUe9eStfvXXyjTUt3b1q7RXbWnrOscS0dJ/TKnRlZHn9PrYsjJup
-1Lf5zKon0eNPkaog41alzuXBRcJkVtqmiFJeoBvay1RFNBYmtTxPlT9fWVq7bmdVzBgIXnsjjITS
-H8S1Z83sO2/Tt3FLZBGCga+NddAOk0MfNqa3cKHplmVEbHahLL1Vo9bzH2EC/Ue2YO7VgNE4Su03
-cwLuOYmE1ZGrZ5wESuXoXxWu/sR9tFTmxTzywOjFyVPrzE36z/3+R1Tov93vSQZx5f3PgsZj3XfJ
-/23e8rr7k6xBZez6hb9d8X3ngyDd7tikJUAk4eL645qPewGzCLAL8fve+I9rvrA/gKRYy8fWe7z1
-k2WEDnjh2YSOSHuzQF4HgL8hciC5/CJy+PwRwG1YRtM4v/pQ/rwf9vW26qJIaldC4HmHzQGdDAXu
-WBZLvsXt2G507hcPMOuHvVeLZUtzko/t2eMinNfjE8p8eUWosgwN2XkHNMLB5kabVSGQ4CykVCJB
-ZY4f4sY6iLwjkgDLOBSi+jj2+d1oio6RNfZCLTfpWXYoD49aAWG5rCBpC8IwgRSF+dhVKINNY677
-mri8EePQPlWWj2XR7cSGj0vxVdfwzXvWc1ZneEs6yfW4v5997CBZ7dh7ObIFIMbYlw9ptvSnuvHk
-1ewmbMMnWmD3dBfRiE1l1PU8Ou6xBMq8zbKFuAuV57uu7cGX5fXicP/XdbLAWA6DUbCaBmjVlIEL
-WD9ZIyjzYdGVvtUbEYUNucJrXXmHojAfGp31t9X5xrnM4V9GUwmB18co6dHBkCdc86X0ol2nN2XI
-G4b6EohcCC45K+xRhnEOSJ4Xq7xaOkH1ia25pzLL4MSzig564Ta7yWSdRJMJwyUSwxTD8FoeqeGQ
-m3FOPmInM5/H0naOk3CH18qo2ai00t/os1VHN2zi6GPlOYKKEUotMfSroYqs5bFSFjDmbYoJXvuS
-FxMPAaxAvbbsehLYiirxuoVBaNcCt7noiA10NuFtaVUeqxJf17ajJ+m/hn8sx31pArlAbGM7A4qN
-QlVDYNYsqw4jUad3wUzpVtIF3kLTRNDFqX3NHZHVuYHYtNXyReP6NPjkWTLuzTfanILI3GgMkDGB
-7EYtSp1BfhDtLbjW0MJo43UfWpe6mQGDXXVizOoc9Qon235QSzOmeeC3dapxEyHiqbLxPkKOw4df
-ey4BHQpbhnFHpFoHRCAWfJ4PQNzX4k9MUK3+qA2XSlA6Y6kyCM24xE2443Hkre2h+Y8y0RHOANWi
-8tIzaqyVozXjzP146SGdL52k5qWfFFvQtEnB/USh1rc0mHJL1j4ml15T89Jx2jnUneYGCmhQ+fIr
-ceQ1VC7N6AFoCbslThICAlneJB+jHy2q2WwaYUleijv86AzcZ9bOVe6MNRtdklsngnjJAUCThpfV
-pal1XEtb1aW/leUYyj6bamqdJAWvMqHqtVhLX6nFk7cOG9dtN1AJ61zaYfkL6GdM9TZDPeWx01oj
-m84Uyjqtqj7iZqBl1pVr4yxpobWXZi2iNddKWnLQ0REUAz21SGN01sYQGTeGRjKRBy+ltt2l3zaz
-LbpujbX2NgEo94B8Vt3JtRTXJdGXGIN962dD/BRdqnMvLbpyLdS9nPL/CF7/5YGI3u4gRP3nB+It
-hpf6z2ziH1/yh8LPsxB9ysDx6pJ1NX96FJriA9ZcLJXQibFNOqj6vwv+zgfTYYeErqXjmblEcn/z
-Sgnjgw+6CQjdBazBDPd3noWIN788C7ENgtOyzQuzwvs3GE3e9rj3ej+9yyCPZ35oGatlSsW5c+tH
-jUA5cCTh+BpCu9oxwsFaDsYhdUjaAp+YbuRFFXZz5u6WTXFnPSQ/pGPbG7RchzOvKB4eqvwQL5U+
-3nWF1L+iMYz6GNDrl3qhMhJPD8zeqBn668TMvYF+IxFvS/DlHPeV8d2C3V5zZknvXTNX7CaVxCc3
-FxL+ZEwJeucWD7Y3RnumyWVj4WRiAZvWeHcsp+8DaSr0FAIniky6JbRnV9fePdYMDNtoPzxT3Rsn
-IamVLkt2TbojPbqD3X8eMwo0BB3YTsAdOXlQLNdpnqyn+W7ol8jfsFAt1dZq+IkDr186jw7GogG8
-kLD2iCAHD5dEw+i8p+PQPbeDk2Q3IO41AHCNe5sqHa/WjP8xDQtnbUF1kwQxyZ98DAV6l86Prt11
-1YZXYn6JZo4vTffZcsxTFD+CQIr8oK3J7Yczf/1j6kTJ1TJO0wueJsPeO2LSjzGSzJaSOioU6REq
-jZ3bOQlkP54hn+BeKBYkMmtDz8WqqrWVXgeaDcchLKPFw286un1gFavngzAo/lZ3StplQ0K2BWRK
-f8Vr18/SueMnMfXQzIdy2oAT4ETXe2vb6uuYr2XJd1cVYpvEaX5oU9HvxtiCSSvTftPXiXsvMZWA
-aoZ+tjGBCDOulOo016Qq9FIa95rtUxoxlM4pEi4tkErZzteRTfAGX2h/gxdwwS011xQCB/Hse8ZO
-VlpzLYiszGe96gmwnMxcjF4T+uD3PAJKWUlapyTv3dxRNpHUx6XioRzoFuTlKkiQ4njGl624ZilO
-LjggHOxhQG0Mauw2JZt/655Jh9dqMQb3sWwq0imuNvnNx0INrsQ51a7bMt+JAmprUDisaXJbeBpo
-lqeMIkH/2mni5GspccBAzXQRoApvZts74L9t6ZKd6ptW89LrAfHiyomq8Y0eNwf3VTv2Wyovy/lI
-33FCrw2ZePLG1FgmhzkrzPoAkatAdyAiZ4Q4+WniIqHk7qo4TUFYzAYaqBwSwKm0n/PJRtaNMBjM
-abdhTdWPYRM1w3C9LCkBJ1MTVlhzE7A2zVAO69JeU0uQaZUf3zmVnlIVV/ale4abMt6QdNT3ZA16
-+kmteOYdJxjUM5fwMc/glJwmfbcshKIigRarO2pTFt74YqZtve94WMYnobcPmEOy5d7vtS/a4ld8
-pjSnZvXHBQuPcm21y66TjMC7uEfmnnAsisCbeyzOdCDUAL0bVe35h/Aqfa3C58dJND8Kkt710bQd
-GDEpV1NnX+iJCe2f/vWjxS3q+6iJZ7t3vGsrtdvlcchNJKwxX4niKpqnjddoBrd+AjRLlJn39GLw
-eYyEn3FnjjnNbORJULMy2y+T5Z0y2kgwHY3aNF1fMIiu1VZcXBpF1zm9e9vCiFdlhteq3tGDmW3M
-RVj3GteWYWf1CYV+fmZe1U7lb0GOwjPWUqza+LmgnjSLSDc6HG5e51zE2buSbvaWkVB9tlQxvK4Z
-ZrVVtRB81ljpbhC92TsYjtYdUe5FWFhoC1snaWN1xX8gekKyDXgmpjBEksDxwOCcRKvZDDkznVKN
-zlKhEAPtu04Smq3DkGI7Kl6lrmY4aFJZ9TbqyjEmp0RxFq2LVdN7gQcg9Qluj/WRTd0nwVsYEu+F
-Fu7T8HNwvNG9p+vE2MRdNG86M5FHF6+fvqXzgTJbjWqHsJ7G6aFiRLqhPKgfUB/onj6Pqq7PS7c4
-2d6TtfUiu+klxrVBLy+asrHBWV944TDoXRvAIYGQwgYXe+JstA8wJ9Cla55f8T2F4ZECRCeKeZkP
-pUU6185CVDEoqBJbq3cjvNzY/XOf+h8dEz7T9n++T918G//v8FY2ZM7Un5aITPHrV/52rXIvZnIk
-BiwT627xtyWia36wbZJxpIpWnOaltP73K5X9ASQdcwTXMOPCOfljiYi8QN0D/7llwRX18Kb/nSvV
-r7ku8kz8QSwrV08GaZn/Z+9MtuM2sq39Knf94wsv9M3gTgBkT1IilSRFTbBYpow20Ae6p/+/oGxf
-WfZ1Vc1rUO5KZGYigYgT5+z9bQq+7y1ktuYusC+YX0OxhzmxsQWYbvr03UX5F3xq7y8CWg2KCp/z
-T4jLkZZ3y/iS1BpmWiFbywYle/Ii8ADj7u9fiir0D0g19VI2lwWDCbXon8CWjUjIwkqt7bhMOc9u
-lZcX0wSdbTR0ACqIe0dh9DDCNscmIwoMyN+//J8up3II2Uq4ZjAefp/9fn85zQrr3+ya2ITr+Woy
-8fDxMv/9S/xQAtu+egknMD2gmi4Mtx/wiH2vrVJPjO7oGPN1caynISBdVUL3DUk54y79/Xb+i28O
-/uSPFxRGKE48+mI2ASP0ov54g1gpY2FS0YYjPA4ibEphtERmaeJcOok4V5P9iMWoo32bdqMeOlZT
-iLBDRIgJgFq6p/5M8tAzU4PpTuGXJyDiAYELzRR0EbmvKV3XISjq0OyMdg4FMWE96ksOncL6h1nM
-h3QaRtz4KriiH3XzaSVlREFTmKshaLPusk4GRASXViz1dXlaC2KPc3xNajTs9WxAXSCuLhblZyLb
-qMpFD0YiJUPWGQmNclVFPdkU/dDoU3gexPkwOEoQh0vqIqTKe2rn7YTb+lYWGludEL/Y1O9Nbv/s
-bv79iHA+mm1fnFt9+ZKCoOAlCnenOfxOUnK3uGy37lB2DtCG2oidoZi/9lnAxkFMZru6WpwHDSRG
-k/jGuZndu2WxFLnATc6IYp488uHPRZbThh68FpnjBKNNC64LRLh4NYoCfE6XXkfXZhzvlxEFdwqi
-HnHyMieMsPMq2RVAzW+Z10Uyo0ZNwA9fnFR3y93ca+NKHO6aBrBkCrnsc6IYrh3TozhDvRWZfu7d
-tARf6KTBMEogBLLv3Ue79rTnrJz6D3QQ+T0+fMJrYzCUrXr8YmjKcAL0Pbg8E2rXJREdLR/imIn3
-IxseBSW3iOiQsDYkShVzbSCNl+Z+yiv9yW4I1KUPtURalpvyReZ6Z6QR07sbshbSa551267OGyNM
-8PLHWecq/E2uOOtan9wQuNjft1vdfxT9cJMEq/WCCX682tIqj6pndmsslnsUNfcC0sl8L8d6OdTC
-esnK3lnDMpcMRzxrOdpDHtzrWDYOTA76WyrT5qNkRmriALiFfNN2yPYrfd/P5JrQvkzTEOIKaciL
-QyhgYMsLhn1y2raMAweejCSxGoF63zNAZaSwNsoMqa7zvEzUkSJRQrX5nhzjx4L5DFCIQjvYgqRO
-3NB42rIJBq1EHEpIhXEwLUSzKMKr4ypG++S0A43SRlcQudRpPoiVfYM7Gr4qoRapfm8l3fo6wBxQ
-SRf1zZQW2mVMXYb6C3IJl8KljgsB0g16ghd3eser0c1seF6A0kQNkZv7pM2gpKJqePHLsabmT4ND
-miTzZSkKusiqFHchOR2GSScluES2adqUXajsl4gM4iC03Go+Q1AxbpT0dZ8UbkDGVlNEoiST0PWy
-Vzw/z4GBjykdR/2B4l8/mpP1xeN71fwq/VSq4hntOM92vp1HG2fRlJR9uNnaGCfkv8WdT46EuxW3
-2tC19wXWlRhm4RvRDoOPFYMOrp+k0ylBpr0jmft+WeV+RCp9LDRoLA0+jMNGZhZEC7d77A3NQ8Y8
-zFrcdn2zZ6pmvaIwIRU8a5FSLPuuTa2r47RBVBsl8CXmrsNHqbUWYl3dP+Vitg5kqeLRf++IZZJv
-yLHb7S6pyhEoDgflx8bwqxsWpO1kEOyB6tl56Rt8H4wetHDGURHB78cIpGc3BB8eMjYAnFw6TfFU
-RSBWwqjvBuGfqsl8LAUoHjNheJdCLbB7X8PEgF8rKTX/Nk3Kr3g/C7Tmw86Tpv0qdUJFC4kKorUZ
-j4ZOxbPHkuB+yNdiuUF7VJ1cYfZHdLtl3Mzb/Jnq1gqphnhlHdLFSieAByhUiKpfAnB7z8bc6Vdc
-OPY9kEwX/kBgREYlioFCu0J6VGXjzgULwXPiLm8oDlGfd2qSwJG/BFrx5GROfVwDoCZR11eSFMzF
-RlLI6lH50I7l5tk3lUW/nVPgNn0Qg68dMW67Udd5P3uGRUk/BXzvXeIUJ7/wvWs1LMYBpKLAH2ev
-kTetMExL21QusuwIhKu5NIt0jg6elQ9ubpTHTEMI5Ksuab4eqjXj8k/Z8miwcsUA5/w9F6m6WoSd
-RI5uwOzRxtLk0ObuXBilzyNYtS8M9rM7lyT656G2YpKS5jws2r6/k0Y77ktRcOdhmmHkUvVhRSRS
-zOb5S00qOcncPdm5aTIw5W7m01RYrBkMrj33MhoCBWdsVoP8Vlf8p2n6z5qmxDn8rbNUFfm3X5f8
-5+Z7mSAiAPVjvzVOdUuZQqHoBtTtqs7/vcr/5kVHoAfR4Fvg2++NU0uZyynjA5/qjB6psqn/2ji1
-jJ8YLhouaWx0VfGH/lsAQ+eHuhRxIC/vUMUxvqcMt38oGonZrADNMs/vTXRNr3Zjs0XXNpM5VCj0
-HVidZzay9Zij8BfaqTGz1ulpQHn1EWivfkCFsr71UGREpOmtEy3FOm2XBS3QV55SL84Zh/Zbd6zZ
-VsoBZ0I1rzjDYYf7kpQAaZrt8FZBm2OLWlPK9x1K1yILPui5NqLBa9DPWbvWHft2/WTVfQKtgyak
-/gK1s8rR1xHyBPo0a/RanHPsWNHie2wxqCxWYnzSzSmX7AaHRNf6nzJs3c1cRLh3dZ5yYY+UozCG
-xHAd0GcaO6zkVqU/5503EqVYt0gnyKbXRa1fcmjIOND07ucM4c3e69r1I6qHmrHmOhf8qLtq25e2
-RgnzLbz8Pw/gP30AMVJ/dyz5E+vhrukZ40evfVPl9R8G+SZfFj/62zHb+QmpjusRxaeO1bi8f38I
-fZvHSZ2/6eExz7eVCfvXozZ6XYZ9hoUiV7dMfoyf+u0htH7ijxpEQVgELDIr+LeO2hw/fzhL4Zkw
-kQvgU0AwrFvvet6fXx9Qww7/8/+M//ZKxti4eoojUCEg/8AKgC1uaFwIZ536YFGjOlraJJZkRFaZ
-K1mwCEwDovk2fMCROTN831vbIspd4zRpd9Sqxph7NbAQeqhn1vAmcrKZyTS1T21DJgd7rn0abURh
-kMmoU6sWtPmUG9Qhc4FmnucUQo9A7XJDLCDmBZVJ2+obKN6poOsfUpyTfQ3ZAXHuZNyJQGh11NSp
-64aywRdwMMlpRtFXaupH3inPZZGvH81uRBBEwAbpgq2KdhkHf3lIFwdRXg61oi9IH09KBfS22sWD
-vWzWZQOatG/8sxt4w9vgI7iraoG+7j3KEbigii2zCRBcqwXoaSnZ5sM2sGnbm2YKnJ4ArqtaB189
-RYJuGk0erSmzHrfZR+9nATAfLB1GuSsG4+5bGiUEmeTpWzQcZiio415QDAPGrW14IwOaK/At7myo
-SJRLOp34eqvnj9kLOR2IM53XNeXnKLZ5A5zIebdzxavpVkoGcaKa6dJCzxTi8uBT2wqq75cWvPNC
-57MHlYPAVM66deeSiU3mm5fdWSX+ZqhVRtjP+XJbJPlEzxfmN5GQ/My3qBz3PeJILAKWHPc1V/jb
-F1pBq+hjHKDBkynVN8zRavnIVzoMn12SNZabGbAOwwgI3iIGi1fm95ow+QjNWvBbAHjxV3+oAHMD
-ruaSz8RbEc77zs9mUdecyNMIfTxgWMD216qa87l3ByDQldi0Bo7V9kuWqJA7faqDp7WaH5D8OfsV
-Biit3CRPnjZzKO49PBk2/LxOi9Aum9fa5gZUbFnuWsGNjlxQJnvIs/ymDR01Y6As4b1l6iYadSwy
-GVUTzYVx4m4w+4FvNrBGUjPf0yN926CvS7iYCp9KB24+zQQdnUxsbSEU8fENNZ6SXY5EWWbwSJmJ
-BAtfMLITlMV+kKptrEAJfa4LYF9RGVRE9k3com5o8FjeNIza7ON7S14rJrjv62zxvvNNQsAX0Aoe
-LF1lqtczHcQwMci2Xhal9IT9Qrt/UvfJivnnRaqvyLdG6yQckIe+MfDLxk7PD4FjEoJnk/+yTlMA
-Y8VoX3r4a0/vt3CuEZy4lgP1q3rYmdi3L4lL8OdsSS7JrFIZ3nMtsNTh6Mnge+9Vmhbg1YALp3jZ
-VtRWPjeMBNd2qXAMcgeoR0JWqFvhB3DxVth4B7wv1om9sXt5z4HoHNXcd6VrXG2s7U9aoSNrbYeC
-wSdCZ5T9qOWBNTakNGx0EQ5V5swT53TBx9Ght3/rqne6CmWlNckNplnktaJu5PokCH6vkznyqWHX
-myENKouctoYkcpLJbzak8ESkvIdSNa2B7K6CbelH0hsy62PRqXwArR9W1lNSM2OdaIsjzHQdsDBp
-sMg+NSTZGS6xpSn5vNbSp/N+GxjKIMgseMIYwPKGIAgvD8Ik9/xhHZb2FniD0nsQsGytPMtloKK6
-65JRB7n2/B6bfsQJJy25aoS8X3WadNfRaSVXUNgLsmqyAEMzK7uXUk+6Y8Ax/4CZ37y+pyW6VEwJ
-Vvyi3z4NhGHYx0WyRFobH3hhPLwB6UXmGBPvbVwTfdvac9og0tlZtSAYVCRETRf6lh+kbSqE0Exa
-R5WrAJWcuKYdemLuqYS0kCkk4oGvtR+IdNVxvzKgrg3j2smVkEwHwmpM4w5JqgDuClRwGEk7U6Fq
-M3BKBqRuZ9zlKjpTCM68tA1aZZQN1J3jGVWznhHR8+tNji9v6M8Iisoc7m7woFdL3Xs9SLziYrey
-P0pD2bbf73kbmVkX6SOfOTLhOlp8my6A3XwiDgNNHJ9TV9vINCNiu5+gcS/ogAfWt35AyFlllrof
-gxXOPU6S4AmULl/ktyWNvNxcxK03cys5id/LU+EP+HUxhc39rkXE8tF2ebqqquR0LGcuLyL8/fsT
-JybffpprcgOipXP6bP++spL+ZrigJf3uyUDIi1IuJVjx2XkPhK1stUoZ05wf7Gx0XgOVF1fITtwb
-mTRJyKzf4EcEp75VIyy/wxkRrqCzQWCC+LubN8axREvoPME+MiQjXDIGuhme5Ww9svxYYo6NFPkq
-MuGGBhzBuVtwEfUwwr30EmbTeJKD6n4rKqAmeeX5EWjH9ImtlASP0RF8RbXOU1PKhbWWZ7KPM5YY
-ZumzyTDJ6nr3ranFU5Ma/Rkfo2RcuPozDg3X6q+mDVolUBvR4NbVlRF0e2GP8T+iAtITnt3JAhxs
-kdhrGOOdoxNQO8gqjSY/zR5zr3OApNbJl46BmWY2Hea6wIn60Yt0D/7yzCDbENp8HMf1NGSyvXhF
-QLdBpQo3EXCV5xrjfEvDa6+5XvCxRdJWCO8hQRujP+NmwWxAuCrE7xPICsGqWvCE264bbxZOz7hF
-uxejZtnqyBtGfBpuZxcRVBdxNN59HLmydGh2ae3Ld58HySZ7EAPz2SkyXCBos9YpNGuaYfvVhS7F
-/Jp4iCgdJLQS08uCy2jZ2wcflcd5KAK2uXzplJce/4nAiYKGE5yqMqfkyqbiKcNKZRCw62Z+s0v9
-Aj+L3i6M+BhMX/pl0m/RfOF8Ybq5vFZ2UzxipXgknaGrbipGfvddmcF4HofZj2x8p3t/sqZfhhWD
-DSQgGiszoM5N2W86x8tjH+vNfgVEetSnborXBcOO8JV3x7ZR2GFhLW79PkOLwPVy34rRr/ebnBP2
-8VwndHp+DALYqyWw8YOXzF8m3EKOsg0hYF8fMmetY6PqzL1VekQJj05/P0DIo/yp3R0y7+VnVCpX
-rWCIb8zDcOvn2XYPlN2JGk+KPSmr9iEJJrrOQQ5NrBuuHaN1bBHv7qdBdM0t6RoK0KUCr2d8Pyl1
-w1mK3jijW9SOTtAMpxLLzk1jgablotW7ifb7p8WlnYmJzd9pASfGghWLqZAoP9pdQcfcP8NjMz6w
-CQAxsKd6T8CKe6qU1QvnQ2TVVn00OREefLVDWGvLcDkN5JFYACSupIa9DIyeYjo8we1WOPcyF2aM
-ek9/KBGA3zRrNT6ai6ndrO+ONO3dnTZTu/5jfPesJZhBzyOcNiiZY/O5oHxPQ7QKON0KYZZXU9nf
-vNnS7nRYLxE7rwfJ195Lz4EZ0ZTiNOue96qV4vOidbjqDK9Swdb9sNc8bhsALbMerhtWPF2Z8hxl
-z2PxT+ON4cghSTPMe7Xz1io7nzka5N4qix+rlXFai956TXodkwgWYwQ7jUkAptZTCSqr4KpMgyNz
-omvSsaKw8vdiR4c+D7Xc9DDMYjkUGa3zQdkQnbky5ptMajTCW+b66GsH1++5dqOjP5AEXmFMcqoe
-4I3X4ap9yBMDWaISwVRHbxum9I3FH+pbYXYxkWRtnEBQbiHSJpzyG3JyD2iGNBamPnePfinnJ42m
-ms+2l5gu+AEji/sW6EuRdTuaFg1RFTwXuTXOTy2+8NOGbB/P0VruMS5uO5np/Gvh5XsX6/TjnC4+
-tziZO7Z2zhkfTSYLqQBRQQBrepN24g7B8vCsAbK5iN6/dcuavGCqgU9CmvrnYMYUF0LvS8Zz2XVr
-/jy4rdRPonSD8ax1xmbKI6tWsKfVJLt5VxgalVPKwQ2H8higM26ZnoVMGRr/JekqFnXE3HO7snyv
-QNyRqvQbjdaCpAonMitb08N0gOqTRqmDMubFzwS7rikL0OZ+7ltYrufEEYCEev47PXbkCLojCIiZ
-evg1O0dSg0LWoACv54FCxCXwRUZ511brWTe25WE1Z+NKLUo0t3JW0VCiPvvuxP8Xg0g1h/4OnGhz
-dHY42JscoE2PY/QPc2omV7i/xrw4Jg15tbFoGrKfN3uTw2d73ci/s0VANdLU9LDdcC7ZfP/+DSjg
-24/vgGaceiOKCGeZqsX23eF9zlyj2cwxPTpLgHM8qYc0j2VgJOadQZ8rpdhM2kNu5Vl6Gdtkq+lm
-DcldWo/G1delccdki6ry79/VX1wWZiUWckiXvsaf2KS1JZMmK+z0WGuUfpDJkZQvOcndVGRk/Y65
-SeUjBfKYWJvS9pvO9v/Mqf0x2VFdDF7eVf+jBIcI8cdrUq9eCVIcs7+zEtJ5hHyy0gxH+CgKvpBs
-xRwG8dm3riW2rpOhyu/axmVJOkPXmh9sd51K9MO4D7LjqE7QbUeT8pf3fPW5Vknof3+5/uJLVGZu
-xyPUE/4LMtc/vuEpSHPNYpZ0rJNJgGZaFzlEmVsyt+sd7JgRTcKaWPahewXVsD50I70KHM7mNW+W
-/kFAN/gn7+hHDzc9XmogG7GtjdSDbfiP70hzAP9I6oZjD1+MVBYEGQ8jLamngRbPEPqEpdFSMAm/
-hFBrndC6+TFaLqIMDEjSeTQMrTqDcWX//o1Zf/XGXHwvIHhxsdA2/uMb8ya9ZX7fZcfWTalQGURg
-KSDLBc7DogSZQ/2pzSrfPq0NZWu80Dguz5NtTg/SngiiySagprq+clpGOsD5GS17fnhPSwYBSvme
-p+jnqwRueNirXk8d6DzZmkjolpRejwSKiJzx7duhlFHa8iA31QVAqg/1NMnxYE7FtnxUddxrrpIb
-623w4cw4XssJ6O8vh/mjDoLvySPL2iUvixZi8GMSbWZoHVp/TztYGXbV0Gw2sr98LHPcM8oaysIf
-3KymP2mfanOjebKIjLcFP3X7tAQuVyu1oKBFzqap4HGbf+Ri8dfFq9Z0994essxWfdl9QZcG2g5R
-ew0WXRHlXjulu3QiqnVbBa9ONBnNGwzYzNF8DgRv7x/2P53of9KJtljFWGF/F8j8qRP9/HUY/+sp
-J+Swzv/QiP71J39rRHs/efSRWRdRAUEfVt3mXzVfPuotejY+NxKL5zc52G+aL1RiRHbqnu9BBva5
-3f63Ee39ZKCfYslyGeQoqf2/o/ly/R8b0Qw5PG5ktRaqFfzHZztd7bmqizQ7DWTaXwAhOigjmdBc
-LFoVMZhP1UorNvFgefACRcrQJl/yGGPMfCyzXit2SSK9fU+C9ycUzBp9typ4gu5XHdj81XheBmqo
-inxGumLEvF1mzmlI6B3tZSETSnfNnuE0+k7lhCRhuPEUoD+lq7Qcu8Q+w4VAOtmvaY8cx08fjXqg
-spkcxchzC4qo+QleW8LSkgzEa2E+ifhIK8AvTY9Hu5D36dwY57GpMdOilZl3Y6JBx2QY3j049HBu
-+BFKx173pkPbaPd50hZDnIFvOfYWh4xtXutwoV38jF9pupAmsF6Z1lv7tR+yj1i9SZUJNvXJK0a2
-O1O4lJDEQe5xLwC8yuZVfEozx9mb1oJkeuD/ptdhXAIjf2yw0ipP2XTr2yvHtYq8kk5v4pS6Dq5W
-bo+fSvg6HyHRoFWyLZ0IKpeWGKcjySeufG2L8c4HITJ4avV2Iqdr7aqY94yjdhjtyG6Q2Jga/thk
-sZ5lWbZHXMU3Hmi5gyGzDynphCPqdaTXsYc0IbIdYpPqKt3sm1HrJ872NdJXn0ZRmIjxCGxgfLSH
-tSjCFrXqTpvMPrKL1RL0GmqH78ORN+iZj2Ohv0DzBJ3EZ9mVyfiU1Lizg7l/XMuVTALsd1/UoPFs
-ZK0XihWTolMi+DBGJya+IH0YbE5a8eQ11S0nre6OKCzCL4JKZF7YisYlpHFwP5YWqgYNEeFL0ifm
-/do1xc5JXZyBW/t1NFFzs01sLrE2efpxm4vhvARsM4XLSc43lpvKLZFOGG6C611L7g1r/IzWvY4c
-rE2njOSN9DKP+PHvFwIau1dEyAPIuU6CKp2Me1e0zqVIO+tT6Spck1PLGzwGnRuNk+CSza3obyn2
-v8y0sO8IuNJ25qx/tWvxxZvnZkAPU3eM9dExV7mlf6CNYAyx6Ff/hSaJvG4a0V8E9FY7FwWLCpmT
-Uhx1WzoFfAWcYHif5/lLhn9Ej41V5i2q825YaFf3BqPS1dw5Huf6vEaMw2x1q6JSz/SbtkNuGi0Q
-c++n1vw4O8bLNgQvei/R/VvBrvd0yOCBmyNosb2s6w/Ed5gHHSHRM42zKwXuV92UyRpCf8I+jqj0
-6FRUJB+yCtQqkyoiFzPXPKasOQ/8Blox1pCBlskvVJHzacG4jRDERRUeyXSYzdshGLb04Cf0YCPZ
-ty8i11r50KOM4C2BV9VkgnulbsK+K9vbldYGUgyICVIPDqttZTRct6m7N2kyA8tLDCx+uOOKS2kR
-bbTLhxZpyaI3DtEXVrLzrCY7ZSIxdl07zqHraVpscOh7RgG4OuG4XZjrasd0HLIDMTlU+a6p7Z2E
-lk+gr/O+tukmpUtVfkZ4ucai6OYLErm9jekzVGMVyeTEBgDV0wFg9lNyBijJLptJdvenEh0LujfI
-wxbKeikB9iAyiyZDpLfknXJAk8W2XTuUcidn9PvbBYU8rcU4k9WF9IgU/wGIK1JLGn+Hn13si/ZC
-ctxn+BVu3PSDeVq2ZNs5/KlL5ejNrVFZXY7iSCP/iShjU48dFU1zKt3JZ6Xqu3sr6K0ro1FUUy6+
-h8whQC1a222FOkJGGh2CsnzZ1CHdXjx0g7ZRhCwQX1AKFZR4Mlsot4J+j1WBRuU23VVbuv4iM046
-2eR5+4z0nopyEfTykgw/w4gEWUqXDO6JixyyMXUQq2KtkLcr4WYlv7CxgIEYq+lYbx3AUlUhbhAE
-59mNhMjHnxm9WBVDEW+4QTcX7KfU+JR6rn+0NMH8Hv8MSku/OFQeALMMzuXAQCc02GB3qP5W4AHa
-dDSBi5301TPIKUOI5872sgNkqF/ckTYJO7a/H1rdvJHg7ZA5ePluMauHxN3QDw2pd8DQg6Is6fNf
-0FNI1V3x7VC0rL2zAVc3sMzu1AWGwHxCPl6sLyBYkOlqzWLSAuERvc3aNCeVia5qSdMyQsUQxA4u
-0zMzl2Q/y+6yCNHBq1uGN6fpF8jbLd2AqiK02LIYicFNPPUbGJ1gFKfU6d+6AFWbLOd/ECUgd7qx
-Gjsp2W6MPjv5/ZAe5VxZsUj8u4mkvxFZ0p0lzBov2OTcz4wf97023KVr8SD1Qbufs+LjwnU9JwvY
-nl6v7lJPbPvFLYmuWeDO6XQCBnfvbLirbMYhZJ5Mcox6e1kfOTyt4Sy5rg+dzFP3vBXjSkVPM7DZ
-meycfQhJn5gZBnkr/UGmSKuOMMzf9B0Zr+32SeR6oH2eB3NZSTb0/C3G6EKsGXQ37M3k/1WYtLzR
-MNYjAtFPZdmQeLRNG6XMAA7lbioNbOyNY1ghDtaiwabai69rgz4zxCrcfTAbU8viloHLs9XK5Vk0
-+nL2SCu8yK4eDmB8gddMwlvgTazldEYxO7P0V8RkIucbkV7qeO0FK6Zfau7rWvgFamdZnCc9kBY1
-uicefGaB5MyKIbYsZ4d2fd5zRkjfOlNqh2GcnY/D6nd77NfG3upHdNCCvKmw7CwuULlySoJ5kT5h
-Ym9jrxBjCFhzoOgQln3M+w2Hi745Mpwbacwhu9s2A8NurUtPCFK2G82+NVASrjKAkFpM+t6h+ZTg
-P8rgFA2ezAlDYHi0DgzX6aUNkzzp2SovVVZqJ63rXAo/AIllyAk2+GA4pOURPrR1+b50CEZvfHTe
-cWZJNybiTX8Z6JFzEiz04t7PetDoQYGQMXBJ82tQVxzgHS97znrukSgjYgvJTJjQLay9R68POtdz
-hZk0ThC03wiC05yw4sv/vFm5vQdGdrDg4ZLcRAsTGWeNDrEriWsbGms6cqynSablQ7qzwBfd2avL
-hJUKqKMnhRrjZOe2/ow4uIiIokiyKJWWX+5bOMx4F8tRj/J+HD+zeG871MvuhQHXP2AfwS73HF2g
-dZQJaP4SiXkY9GW2m0f6Z2EvCdobR5dYI9vNxAcSyXzmMWUmd6OT3bbO3O6DWYw3M23aEx1+ONQ1
-SpT7oeplCQeprg62wiUFfGmcJgc68hWJXG+kr2dfAmruR3N1vUtigwpSRCaPcQmlWZykRhrcCgwQ
-kbl6n0dhDc84KxlnpI69rwDDR+bi6KfeXDeYBEAIXixGJXOEvqNH5OWxDlRmcFsh4fxqohFm3Jwb
-r6yn+TmfNWO30s79PIGVg7GOHS/Zc/zN/BgODq2AUTBCqEfrARestXPcuWbS5pU7rKjBIVhQsjvL
-NF02b5rv1iGdHwjqVgKseQGwDyW6oWf+utIq7DhHN/beyJvRDVuj7XedOY2RaBaGNuSw7TQ3c/fm
-pHtvZm0uNy3txzu/29pP7UzGSMR6XvzC6Hu44s+qPqcGKWGxsxbBuVkxROVepZ/1Nun2HvfrRe9S
-F1XqOJMHR9qfichrp230qAzPbncrzHZqf50xhZNIxhFEabI0i3o/u61zQC1DYqpOLd4y0LvSgLH2
-mt7vQNsWQDgJNysKMd0V9OguLBIgm4Ek8Fsgfw2Mx4BfQuzOtA6um/IHrLYhmqicYKs3JEdRMdAV
-a3NqlIruLAXUWP2cla6zHVHMzru8k+4vEzjcN/ACGTPOKlhuJ9NcrP3c283+P+f/f8nvRXeZFub/
-ff7/QFjgH0Sg337g12O/r//kcJzWdbJBoCTh//nfY7/9E6BIugH0jn9D5/527Mcij6NdNQs8l78h
-Mvtdf+b/hFpM56SOE54fh0zzb5BkjB9P/R7Gfh/vECJoPESo4P7Y0UtmLcVD7DinaeGhiM1iKwkI
-bpOzA6E+slZneMZUT1J0z8zTmJfk7Fdj+xJgz3x0aoRhtlsMz9ALh+d0QVj53ZX8Fzr8vDtT5+Pz
-BpH1uT82QgPp9wkCa/tUTHbz6mT28pFog/qmfk+r7vJqPQStPkVD25Ct/fevTf+ez/79fMFn/8Xp
-hGaQ/ov73rH5vrsPixVpnMw7eP/JZ9El6A9mmQe3ZdA3bswC4N3QO2IRttR6vNhB/migD/uybPX2
-5r0v3BTN1jmF87grXVkdxvclvu8a9957X/hJ3HVOidoNgCq2e5z6drj1MgmLRSCSt6dBfMg4k8Pg
-Niasyz7ToZBlzoul3ARbnmT5AE8DqXAqXPMFNwBOBCQ3IW3P5uKpvQsJpXzI6qGmV6C2Nm1U21za
-BUFGuAC7H3up/qzhIdj5oADlsinUz9axc3huW99Ru6U7LVObaa/21ZV2bFRqm4WhXm27mzdPRDgl
-uGrbjJBqoTbo+n2v1tS27cxFQngGWzl8A3b1XK8op7FAqJBix2ceZ5Xrfs4ql1waM2fQblIh0Cbr
-HtSY914fYAHEHK31l6rROdSgKehjH7nEbpZWn+8nayEtIedRemCPTBe08qpK2VBaXA3s+TuwfrM8
-qSzuNEY8OT4sxPNlkWHNA+EHrqHvka0kwFmAyFB+Oi76j52dbtYFbxNChzTNzZn4ck48VIYUWG2h
-2UeHtZasV5vR3ew4n71i9XeZ49Yfy7pfCB6A2RBKKNKh/V7Epfpi7LFN9bTIqPFIwtEOnFCp+zJz
-2pd6vid1YYp5UoMTXGvxsJkcbRFkUT1uqo70aUS8ZoRVHDdVZQZVS72ZE4OyHxlBwRkrqAsiBCwL
-JaqqVgH1GRdAkWSa+kbyRKANU8Q5m8nY9Jzsqz3r0wfjvfbNa098pdNdNqG5dRRR0FrhPxKBnodo
-uh2LY3HvFjHP3qcs1QrrTmKKcmDWJMKdP1FE50sbgkoEWJEgiUyjYkmwzfntWL7VBY15Pxz74mDq
-7FbIoYQRTiW5KsChEFrrt/CM+vwVr1dFq6GmB/4BOkNy3uRmEYljFdNnl8MFvXTHbF43zSJNNgkk
-6AfP6LTx5zqRRRX3Aab6yB0bO9+Nsq+1HWCA9XZajXpFyM2xYCfhweafVotAwSN+MtTjWlIrTVDd
-izTuZZa2XxAAIkjHEqVSdVenRscxl/pxA+jJVjDWN3025y2GKKt5HRrGL2rm4pDyCHgS3V35QBGi
-FkP0OWC+8/oD2CrSkmXTBZFmBrxarz7bmiUOwJ7NmNFgDImajdjD85i7hR32+cS7X1IsuF2zgONp
-5hYpgdO8zBNtxjBwcKzH2cyDDKFCLloo9UX+Qy96qd8Wee8Qs56g94tacuFeEXUFEAW1atu/L+UB
-nxxlB5qL3VgoD2WpjdPdkpvbUzVYGtG45Wxt5cDh3EwqQnZgjK2vjpQM+88+7ET+VqYQXriP4GcC
-z2uMbZ4+/3/2zmxZTiTNuk9EGjjzbQQxx5knHd1gR0cSMziT4/D0vVBlWmdld+df9V/XXabMpJjA
-+Ya9164ZgmQ99D23/iDxqeLS6Zb+0nSLd9v2Fu+Y+V9j0Mays904RicPbSDKOzSgSiMLzES/pqVo
-ZBIJe8CG+eaG5LryrnNLuMDoixs3ClBgnXC94JTC7pRW18rAIMSRSJrORlQSdbRlBWAa207nLBop
-26K67/yv6AEmZlQZGL4tM811zoBs39yg7Qi6Tdr603tjGc1t6s0YegKP5jAOTIckWoLhiqlvvvXW
-8GLryTsp1C7uwWLv/jB6pV1GBjkXcNaQfmFFCzKS6UUDDcoBeLm3GNLcpLaiVYBLWF/TckIvhczK
-Q7o6up9Mhkl0V7aVgt8sdrlgsrEtLVdfnRLkepyqlIHD0vWboUWIoAEnuZgrO0AORkk+PRIRH/xS
-bDwXPGcWPnI4R07Yls3GaitfbD2mkMEqzIZ9Mg9+PR9ok8g2spSXd/hlaQvctUHQa6vQr03DfwrH
-f6VwtNl9U23934Xj8w/90f+5cvz9b/xeOYb2b665ugzIcP3DCPT7wgiuCGshIXyTmg3E96p8+G/n
-gkPsgWDX5DjrWoid5e/OBeH+hioAJzqOh+AfaIF/p3Kk3vzn+gidvovoIvQFSHNW1WL13f9J/cAg
-0lDYdc3TxKPuTRmOvwEY/BkwFbtlDdLuUoNJg66a4tGfghu20pzjKm+fWK48oSzpzyPUH2LrVt5q
-MxqnOba9+KCaPL0f69b4GP3Vne01ND9OEPsQV1zwM/c18iYb7GtWACk26tLyT8yOAnEbOovZvPRI
-zTBuQp1r7ANJ0FLe0OCiJGRONC2aiXiohopsp7jIHfQ8CfuejUQb276UAVpINtnIZ61zGmpPbFoR
-h8POT01itZloC4nHNMlKtHh1gUh5w+wOPXNW5XC6mSQK5jJJD0pqaawGHJJDNN0hEP7snjAVuthg
-iznz82dgxQbbLMsvVBulrPU/8joOvieMKLB/iB61wW51Nin0OEiRzCeqslxGA2+hPxS6ERecK2uY
-GnbFS5xbCzRZsB/9XlFiqN3SUI1EQZMfq6SR77rOGEaXtT1gatXBbsLc/z4reAdIfdJj1mdPCc9e
-fqwxv2lF3RxzMb3mTWYf8mHKN4zQkyPAR4qZtkrSN4YQSLJneFOkOd80TndJp3F8I2yp3pJFcW/T
-kLKUV6HcqMT7HHQ8MReZGBq7PVLecFto+5To4lWrgZiw0MrPQeB8SzJc7zZx0U8Lcw+43kZ1gCaO
-cJdhPxv86dD7qb8PRH2Agk+CWvbqleInFqHhsvQNNvsiuQUw7W+rcXinhz5XqqmPZNQxKcvsSJO6
-tOln6V2kNC0Uqct9mlTNphDF62pIicbOaOjF1Q8vq72bylvi+ylsPEhWPGPDkbq8t+OomMfi4Cjn
-13D7TuSQoJRSDGOx0LBy5MAmRay7CYZJ7Hx8dye/yTJs8ou7GY0E9v1KActGoQ4VrKRvpIDps+7m
-eSdb1wC5ObN2y5MfFFLNnWsMT+6Q6SdwSeUBoSoA2kxmx5pw8w0+eG9DMcO4giyv/YDX78S5kO47
-RFr7pHKJQ0+N8KC86UfjIgcc0qGJYs6OTZGMGYZtnX1rwO9vlUv2EWIbgEPrYBIlFSbnGhAA0gQP
-5oEqsUb3eECEfrbc2tx0ZfFqlPFpWWq8Qr0EjDAYb+4cmxu70Pk5bV3KHelkP+3R7b7i0AUGOSBg
-hRoOU7f1nM04m8W1UsV48byBO37sgjayncVgeuPV8LJxaLlEjgcmpVmumLLPlTZw6ZrjI+mBk/9U
-OoW890xR1WuUSnYrQWPsbbKcdms4ZY/HeMyh68IaHtCkJYcsb8S5Hon62M72wKtxYaE1iqfhcyxb
-e2vGSt0T1mFtleKySEIFhQqQwfy9lRyqu4Rl6ZnqBdXnQGxbeBi4tIASzJ6pt9jMoZM3/TT8tDCO
-sBOaYrn39DimPwEnYmsJprClGzBbOd0ShNMzG+VqAefppPTWikVFWofVYcrAfKWtwZJNwGdqCxBP
-c05gYdpwSmhy3xozMXauDUYNuzOWGtnauzhcygM5L9gJguWLZibxyoZF35a5gYe+eBNLxg6jLEho
-bIczaWTObW6KIupKkV9qI/se90EXZUJmr1WXUz3Q32Y3opvZJFfU4dFiVdZ9W8UvbQngboOyMbxK
-p2zOVjjsGR6qq2Lp+OjYofFUOL0P7cvNoM3C9IBR3uXYoVJu40kLsYsxD+zncjZvPJhw7OGHHnzS
-MIDfSpsd/w69qmHOh269a9cQMeTASMjjFm+DQVgelnF1X6YU+tncHycLDhYUhWV9liyIOmOvfqDG
-eSd4zD2SYBx+dqJ/8MExTwx2aWHtYMD4BJWEYpY9rK1OMKyCqBgtm47LksPPGPDULjcG4zLTw7GQ
-H62oNhfsNuscErfqGv5rcR4E8202BcXdYpjqZs7IyqznEe9rjVxb9zm3li+Y/DoiQQbh6I05iWAL
-JHxkttkdZgM1Ay6fm3Dk1FpsFiShCLkSUf2e4GK57AlB/iXW9DgGjFmLoMHn58AC5LOFx1brgzG3
-+AZMFTNP18RpeGH1OUs27SZ90na0WGcCCEeFXDUl5rJAMBjNcvgoQTETVlOGUT+0p9AIkbsZ8qdu
-/Zcq85vdEk7j3uwlZq85XOjKYdumtU737J312Sja7+j0bkrm7xcLaMtmmZDKlcKv7wSVyZUhQLOr
-zTnfT9lgEsrsekeDteCmlYwoSC3L0BEjSYYxNpOBkcPKrwrOu9b7uiwmq3p444DUh6+iKYqLK2PE
-4TOL29imjJfgT69cAz3rA4eYzqL4SSUe7rVcviaSf7VYQs4ycGvxDYqJWDAd4ehnH/WN1Ndpa5ZD
-dx8XIt6myupvJydQPNyF3AAFow1wf8qw/eEMWbkvXQoGpZ23iu4QKkXfvpYB/9TSOXgsRz387DDX
-IObIi8jhEN34/ZTeY7HMH0LRyJMZiOWqioGvwS++jlVMdLTi7uKUUm+whnhgDPZTlnk1Cd9ImnMd
-cK57WfmNOYVgljI3p9GpvH2ufPYE2LL3PSKcq7AE+pV5cbbKnr/1KQsiJTyf5Drew4QrYWeGbfDa
-m2JBGAFikadp6Hqb1B91zRcmeftqKPJ3bvtiuBmmOoDx4vJ3UbU8MYE6ebhAt0YZJg9jX0737hDn
-737uPbmeN22bMrl1REPKHYFRyAfSXO5oQviiySJ0XkK3wIzt0sDNECWdhZX5yqpBgTEqvERLy+gq
-w15jbZNGfHdrXbvRzO+8EcR73ylrAfi3aP/oazf4OhW9+U6D+5nLeLhbTBupkVKpOuZysO/cylM7
-a8l1zckqB7VxU3I9hQIyHSO10dKsHjH/uI8IoXtzy6lpUGIIKbau05c/+85mScuNmvCb+iZO25lJ
-x0FKy+WWQfDSHMk+X0ZgSjzmocA9SXa7W38wr6Cz8i894qxvddKeywmteZQ3abJtE/t7yXLqqfYy
-8WkBVqm2C/rBgmXUqE8SpSYrqyLNie9yZ/1plgGpq83YPy0T+eUxh+cNjsvygD/ifvHqC0v3gYBa
-Hgf6aBlLzuXsKf97zO51m4revwsHN3tzZeeQz5q5UVdN5c6Fj4mJRS5MRlq/2jWD3Tx2tsPKgfjF
-/hazJ24hM0Z3xExpZNfXBUMFF7snsjLIygNOH6Ql/kTCMGEZO8n7OgwQtA8EIsfVofXL7I3TrHjj
-ETd+KSdtPpGkEx9NdPEn052oeOPWO7e1wquRGX3M4owMrNdEZPl8UcbMhGlJcRPhwWwAsdD9SqjF
-Z9ESeZtW2io22qnJnVWJifm+7x4GuIpvJvvT766c1DHom/DS5Plw5yRp99LYbldw/zUEsNkt68fK
-RXJOdbW8hnCHmpz2oSeeE6J6uKVPghG1hNJe1VNyVjt2oUNxQaVXkVYTl97LFAeL9yXBDrhEKtA8
-WYPRCbkROw3wugOStnMKxyOjokjflT/hHcGv8lQuNVbaPq2NG7Dk2TtBPPUeowYiumrR5Ym0WjNi
-npcEGwfrb0DPPVVvJsGoD4ALAIFXHK9dFT4xFa4pwtrxW13VzapsyvfesCSXrqYkLWu1MrsrVT0j
-z0g3tumLwxRUxTUnj3EPAyiNsIOXW2ksZb9xO+nuJ6ueHkrH7TqSk8GP5wo6t8qt8VrVC2oOkdfH
-0dfJvZB2PD8Gft41dzrBXBuFTPdbr9gG7CsoFiqZrr46PAsCieB3ys1sZToUfjs5T7hUfvEegFsG
-ftcf8zCtQqzIKx2i1I6xBUBu7cpF1h3StJRzVAclerbes49D6rlvmEOrEelagkmzK7gXvxHUHkcm
-4R3JNVMqazdcwl2+Y3w6gSQdlWQg7RNwlcLeuqrBkMeR0fOjbvGQVcwID4sLK1cNxPC2UydPHddk
-NA52dpU5FK5YjP7PCtjkp1kXkK5Jwh3yg67kc1+EcfaOYhKeLJNBjEYe4oh+WdzIg8P6AzNecvRG
-KLxwuck6b7POf13yydxlHqfzLsRMve/JRfkwKawvE+EzbLBL8uGkeSCKd4R+hHlRykx+SbVTPU6T
-5Z4XmU1bAeE1clOLibSVVvYuKXrIlCZrCLNdp3MFC4EO3umt47QECvEeX3qqyN2gdUiwqJXvEp51
-FOftjFClG3Zj6Z8MWauooXF/hNIe7rvCFB8uNJ0jRkBJ9jsnU4nZGXVOkx6yBGlV10APsDOSrCG3
-ptO3MjTUoRTOna3T8DtM5TvFO9msIDbmjWJVXpQtpdSYXAtaWr0hrGzacd20exlqd9cCwtlgTSDr
-xcoztuYxqoSw5DEea6P4ilQK23noV0cji+3IwLaxrSdEIBsWTz2gEWNmdmnb+yZ2yNMIfeNusJf5
-UU5ge3RR3mjsB0y0ahuZ6GSUO1A96Q8pPecmjrOMg7ZNMIww3y96Dv5R5tu5hMbE0gMWEFEHPHSm
-+SEdzPBW6YSJXI1lqPAySGXwVjdm3zTnzLTug4A5X9/3BPWOMvno/TqPaiJMV8ZuG9wWAEXRe+OC
-ssrY2eRlaL//ytxh6YB8u8rS6t2Q/XtrA05PieZxXG2ZGM3Vd1PzYA1IPDzNoCH4/lDsoHMdRlSr
-SbmdC5vpg5+wglrKDze0053i18KAqL+garqkCbC0pWXuXn7pc7Veb6PZ7ICaMd7Xtr0ji1MgMgyB
-yGU9WUi9Bs4F/G1LzWxhj4PbVO6AwiDHA5t8JTu45mrp/YNFOj2melJeyiQp7pk/mGY0OnoMdoo1
-3G0/UG/j+hZRu45/dNDLU9i2JeHdiiTjPDB/TDUtWj7k6giBZYwmoxUPpIYzEZDd55Dq4ewTyb0x
-2USdmWtFaToTIS69lgewUZzZiyhSytIEz237jX6NUmyuMyaeS16d6lEq8jIRKL6pgZE6854bG8fI
-K6XUc4Z2ZetjKr2knk1EnV4oHJH+xdPSMn0fjS6q1fg1tNqbyZoBWuXitTY48tg9OnvpYSafXDt4
-A15bbfDDwrQ2A7VF+ug+L03hki9aiEs9p9fMqN8H6ffHuU+fOg/4NyfpfpqpjupEskFpxDuxQeXJ
-VrXzvcfXFplJB57YqF41y+KfUlbkNJDWjt6WqQfFt5YjKz0P8dA8AFBrktyKBhnEXxVKHIxfSkEA
-C+fpEYPt0gBijmPGTsM0oe5xZhIyMGbT42j3UIx2+FhzYA0babskUaEphZCNvXNAcMY94JlFdxbQ
-+6clY5eGZiLip5KExueuvFOeQ2FtFTAdxFJkqIwxNuCmDEqr341mKm9BrgQohvAo43ILfopEPDp5
-w+GBrfPMtrY4zy4PV5Zvn3GBE/5QGAUGJW90Nj5ypsgt9XnJfGy1pvXa8UhiGj4A0xDrLFDWyRbO
-o4+t3FPrPUGVlwEKF8jn8NsKjgRPd2o6goE++qr9iqr5DGsdyF0mzVORGDdx2FPrlG67y1v/LC01
-7LGi+Du/8MqzdBn/taHZb1Fwt1sqU7GNnfbaJeoBCMh3EwVahNjV3YW6fmgdWUcMZvxT7SBh8Y0h
-PdC7MEBcKuOOlJS3DBfvBZk54aadl22T0obWZsoEK2RlHTX2nqhzx/4EIslkcjGgSCvwW05x+DAa
-JmO4eEIh0sxfi8RicjYgNkc2g/1zsL/FrrKepsAtIk/PU7fNx2b64fa+euLsExvPA9aEvnw8d6AW
-MdPkJC8a0C8gwDFnyTKx68yiQNpb3zhDCbF7sZ0xEtkUjjs/sSp/k5tpcV4plVa4NNh7Z/lB0mrz
-7iJOWFGby/JJ/gtmX7RwxkfjVd2db5bGMeeBR+K372tkcHlHFggtEsSrPI1Y4507AzS+Xc3zN+os
-bq1EVh9ZbgV3zWTHAJHT8dPIvJ9JZ83430EunVvG0A+LJpvFzfyp3srMnF4C7Y73QqTOctvpoIFL
-41fNgSlohTdzINlpWUJvbzUshrHFZDqSImObly2z3GeS3BrHjI1bi3WZ2ro8DI7Ewj7PiftCheA+
-tQBBWZLPw5H7YN55XW/RXAWvUwB6kT23eEqASGyhS9wFpNN/VBpUBTbgYIvDjHDDkibduEyCouZK
-FFi/aQeVXqghBr1PcJhuuzzzRlz3nD8bbzBlDjlx0uuQCLT4xCyMmqZCQFvT3FDeTQ2ELd9rutdO
-Ou0Fz3KAnBY0JysskxnfDAFkO3MuvIMaD+3bKXPNZ8U/4EVBOy4I/vF9cxvHDI0YUMMJqOf+xh7l
-ePW5euAsyGk4TG2dXRcpJVAJBjwsbceEimmeBvAmw6o1BBy0rThl3jGn+l+dLsX3WIz5cJQBnI/W
-0C1Fa0AE7yZZzRXkKOknd5RwYGuzkNgwZzPglzDC11L02HbTJGcpn8RkqDBTmx9RVZJ5bHOj7Rbc
-4wAkehpvLXhEU4JWMlK2/DlRXu9YETzMBmX9Asv7LAtvwCsyQofN4vZBJ0q85WswEPtLDuylc637
-vl0NyGWrgsfe7XiecpY19+ViqDfDycazTVzD+It8dNPNxvBWSMO8NatpPggZAKsdVW8/9ICGH0PS
-BvE5WHF4MYxUfMN1V5yHPlBPQtgMQ7UYuUubmmN1U7lBDTumT9NVrQq1258cnlikQwNAtMk4z2+Z
-8K8ZCeiuy0tuidndD97k8ktXuGqGLslB8/T3pFSzbCUsTOxsxlDPJuzTc44icUuMzPyzBA7+Hls9
-hdriwb9g0tHdpmGYJZskz9q30XOb/WTw1E0ah4cZl1REs5PtzKTPD9KYUEQzGr10sfZPajKHnQQz
-epVWXfdU9pZ5bSCovSBIHVjXakykaEKcLS6UmONkMB5k0cpbYCHBsUqtZNerRR6m3nS2toSVi0R8
-Gm6CsrK/ML3FEMRS+9mkvrt2TTvtx4Hqn3Gmz5TGgK6S5moLbwdHPbsMBJp9dTMO4aehLKzgVhUf
-vdQdSMVerJtQcWugbkiRxNknMBzBfa09fZpmV509w0cA6wF/dJBDcNGE/pZ5c3fukXPcsDwurtgQ
-vtWBhjgbz+Y+D+aPZK5AxDsYFOMgZ6xoIUeP2m5+NVDj7X3yPnZSgKM3uNAPqZI9tuhZnKDuMLNp
-inoWDNoAWtvaipCXkITjNtSy5tK9ZyW4SVqF5Uh2hYdqw+rH+8BvmANbwISi2hWqfNRuCso35WGD
-OLLBPLCo4opyNZpc1jfMWImimpt0bxXBsgmb5ZaQaP7cjB96W893E7ZKOHjFa9iLL3bCYU104y5z
-8BgwKfkIawyYYcLCY5rSJIKYYkbge5u9sArnODnVASD/4xKwsgcK6G7D0VwQwSx3dpqR25i3b7IH
-1eslI/m04khhNRwUupivhmYNImzjy+pp25sLFbKGcHOQrOo3Ohg/qjBvH9CxP7CPLueN2QQ82q21
-EUxL44545HkbmyI9taD1r44yvjuGP978yofoOP83GWswBj2h8wUNDSFclb4qKfWpK9v/rK3/tQA9
-fOMsev/vtfXrj65q6uGfFtf/+Dt/OB2t37At2/gVcS6v2sX/ljz69m8OnmYsiw7+Ycv1eKU/JI/u
-b/wB4HuBlZ/6wWd3/vvi2hFYJ1mDY05Ej2e6jv/vSB5XReOfVH0C4LwFQp93yIusO/J/3loHFvBu
-MAnuMQjop6s0DbBjoHn603fyLygXA8+y+YxwX+2Q5fhqIf3zbjweURfZILePY14jBEL+TwOr4+Zr
-PSh9X3nohkokdtAJFuSUf//a6+/1548I69CyES0GyAdCtIDeXz5i6pXA8IogPCZO2BA61/UTcz2L
-13XN4pEHTPORhJUkeqdmv9Ivc/ZDG3BJqHI8Oyo7a9nMI+yogbIe9I/RnseCpNI+yNcap4zZa88d
-/jKOhJux9+PHCoxz9P/xIXxEBZYb4jQXf00hMDvk79WwsORYUOBoB51bZUDTogCcX1ob1WdsFYDd
-jGpWWyKfVhjVGJCznawxRFmoCXcREP+Y0tAIQkJA77jsFeHiJ8KJClY6E7yqbByQrS8DeoEKK/rf
-f4a/imvX34HBBgpbttcMxv6CQuhBYowgVkLE9XLCV0oIKqEm82FVqP/9K63G+z9d1L9+cebNNuoO
-iK7/I/WdTqBfFxvhUdmJecQtxI/nBe25G+z2wXSBr/396/3lJvr1eiGqWId18rqQWq/AP0k/hNXX
-dcVy4KiSrHvgRCG+d0Sg9/ev8r98fw5wTtul6Q3wTP/l+ws7jguSnINjJ2B3oGb4Ke0wOxZ98Pz3
-L/QLFfKX788VBPD53Hggd/96KOTQDMKJa/AoFvryxe/Jqgu5ZuaZH26uSKRhBudhU2yG4hHhRHCV
-2EUjJ8c0RVj3cqlct33oQPeDa1BwdKVFpOYGfi1zj1VO3ZQIrzKuzRdIdOgR4RA5ZD7nE3waJ+FF
-tFzh04HIjr3w+rfJW7Lj339IO1i/r3/6lAhSLI4GoAXUNKGLNujPv9oq58OF1+njtNKjUYawWV6J
-0oyqin0DEGfjgZvWZQd3eiVQc/HmRzjd416xE90zoulu5S9o9QC+uvVq880izOzWDWcHFyuUa9Z3
-u86axJMVVi3mWrg+247i61mYRbhPkUNGtEH6JU1qQdUPSbtI9hbpf185zoqjN0DbTkbhHploNRee
-LumxgnS+s4mbPoIknjFvwexOkSQdersJnruV6J0bzA1qqyWBkg34Z8qDZ1v1RXICqw7HHLZQu1Er
-I7xaaeEq9tydVILS1SEmDGAhW7jBSppj0TXFKx64bbnSx2nsjTs3lPP3eQY8FKyU8qQY7IMbO1Tu
-uYdHeqGliagwnQc3tc1nOfbVm5+kxU9ppQ1KIzOc2UZ1KcTHqQHY1UB5++Ij0o78laFO1kt5yme4
-6ksbenfeylofgmxFL1fZdMfIrv3GGA8mH3h2wrnybQqw3VjJ7eiejAglEtJsvztXFQvE0rPaXSHC
-k1ZGfdvEEmqhrmndko7pkOHX6Efy6/p9Rk2ZEzu50uSRzcBdJ+vAhZy5cXRK4BoI1ishVPOL8QtJ
-byE3vrVGAyzjjDF8Z/J8odWFY4/MMTiNhD59dLHX32Mc6llbmyNRpH4P4cXZ1ylU/G7l44+tbX80
-KzO/SAW0RYb+1Wat7F5oRPHWFHrip0G0yUQ1OU5A+NPUfhAxziHONnUa4AhuZgNM7qZLxXcilKuI
-4Zp8mLvyJotJqkGhTt57UpLJtiYAELAFHdqkNRT4vszEYQob6uQJbc1NnHhf0zVLIB0G8zG2yBfI
-O++N6S2yhbpmWtPnW2NNIxgwOWPD69g363E6E/8ebhq1kF8AznUz5q2xGdZ0A5+uhSOKxAOrqklf
-yht9MYIkPDBerbfzmpFgrGkJcs1NICLQ2ZJPAn0MvtIK7EDOEvEYKiCgBB7BC1OGGikhjaHre+Pi
-Lk2DCZ+sho6N4QcOOhOVbO8jWf8V62CKXN5h/OYXsnqL3IfZck4s68ujtaZC+A23i2eQBkFsasvc
-bsR7zgAEsGy7Yd4Sb0lTrz875SRfcpik3z2/n7/YqpvOFWOGU6FCAPqJdK6daaDaJdt+68amOo3o
-zu6MmYk9KRgsRzfs/noLJm3oL21ktR4cOTOpNtpY9IujzHpvr9U9tmW5QzqC93lGUwXTKjtYXltf
-MybfzAmYM7gN/5vXYyHBiOv21+Aw8ppxPhhewDClNwvSItSMAaqbmlv44WUUr1aQRc2okxqULVJU
-QZQlPDmsBXE/rmK5YyIsdnzi7ux7wAYniF6RSM35sgxm/4bkwbkT3Ki3MwkjYwSrAH2iiZjiB8aO
-KSKVkbYNCf9nypZsj2TZf/0lCa9R7T8bJvUFy5OU5MaJ6kRR8hHQhSM2IWc2iqHatpvRwiSjsY0+
-lonTfslzu4gKc5mizKAuNFxJtkBh2afJIRVFApN7bYa+PLVMDr4vRmoeyxwuYN7xIQmaWG68skEn
-j/DxOM+2vLXTJT77fceTa7IxMns248GcILNd2Ck+eZGldyi8JjzfNvC/YSEd0nWSu8WXzMtZffF3
-RFiiX2d8iPne5p3AVDYPSg18JIO4881AvC7eQMbBO6Kc3TuLg4F9U0+bN4iF9a9XbkN/jM/UKi5R
-fF6IlKvszgov9caymVRQA6vXDJLYzm4E3ve5JL+e2gYQBXGJh7g23AuLPONx5gWgVLFMh/bLbhEf
-X+p+hUzGDBq/yfBo+lCaEC6Pj50J+q3zU+sL2sZLX1j5gflvc+hzQf9PvWhfXG0eCDomPqIb7Vtl
-t8we0d6BWRPeVpU5Cmw7TgGbjs9MSgWCygGjfDFh0s3M+y6uybRk9aAOnVRzeuDr94vPzgna9Nr1
-VUtM4MxUHeUOphjskGbU2RD6riEbYMnJiusRVYtw0ls0XLpaTr8e7/8B9Py/AD2uvTY4f9Ow/m9s
-nn/8pT86Vvc3gc0LYA/1M2rq1Wf2B5vH/g31tQP22af5ZJn2J6l1CFqe4aFpmrbnUT2if/69Y135
-8Ta8nrWeDISA+/PvdKy+9T+caLw843L+Sd4F6u21HP9TuR0oOJW4Vy16VjRQ00Y1hM6ujFS0Bu01
-m+ydBp8616BzNuPKVOWsS7bOylkFPTfe2o2X4VFGQuf6sRUD9XCD+3SltHYrr7Wpoa9uaMtPbTw8
-xzyFg+08th8mg7sui9iGJy9wNOtXMXhww6uJ54wSRvfdjWuQPimFPwh296M22xVyJVgq2pKqb7N2
-D6+D1xg/Cu3rFx54lf4R4vrz83NGMuEtA+xdVxHemuj8Ap1DBgdPxfXzZDsJPVlijM7tOAjL4pRu
-jGfDcUGmLmmtdhIFxcancEU/kbVO5APVubU6jdqlSANYFGUgLj0dLF8L3oejpafkmkuLrWbhMf42
-ac93cTBN7t5qiRCK++KbUy31hQcGFrBgcSIXNPuXLu/rnWvFDmUeR2KJ/uwVK8X8COjdosLseXaR
-IyfvEWCaPp6Z1DkRXWm8c2zzCO81xa7Zp1GRAfgiXkq1/iuWZRzNvqdh8i3dgkpF5zGcxThccfZU
-k4O4azMbgqEBQuO5awNyeSQq0Q19NpbLxAmudJ3Ws2ZhwrfMYZewC4C/HBaMaja/2IsJyFCYwXIV
-wQwkW6zuPYDgvW2z2fWHnpWEDQkFsQvdI/PpFOXY1uha+M4T4sILpASIy7/+swRitGxjdqDeph3p
-/OB/V/wd154LqKwrCBp8Q1Vt3YFla07aZLb9lUM6KIeGqARKQzymBtGOfBFbUj1AoqeghGbaBZiC
-uDQd61lYLh+jGlV2mIiOWg56CIFdr7hkqaHaHhz4JyS+6X65hGhs+JwVwH1i5CC75aS8r6B+vhT0
-Q/imh2KBYoC6kDcwWS1iHT8hYZ7I3Fi+l/QqMZZFVTAZnTsbcx3INSdiDuuJ21it2O1+iM3kNEgF
-Wy1BU/QdXgRhp1i60PDq9Z9NqWbLQ4kAqd02BvlFUF3QJ0D9DlZTmfbWDx8wW8CVIwq+wW7S/MnS
-MvxxPEYZmmobpnjPBIhZqrF1DMmHiKEE3QeZ8q6/XtHzR5APyoC1TjfFtdmqNUA6nyCyTwgWgq3t
-uJgGnEmo5UCh6nyY1OGAfwkku3gmAJ2WfGHICq7ugCLkrvPwC1te2GtsMHDKrt/F3gj2vRVruEFi
-l3ysmcrvCmHTe2NuPhuvv95lUNLlH8vZQTtO0iFv1pUeV5lBMs5t2IG9gofQwwnvvdV+hpK+XZ6G
-iQn2vinXn1Sgt+U7yVcB2jDDA4OC11zmruH/w3nF9/2DsW80NN9FsyLxaSSzgw+bjBo7h3bnVFBM
-9itp9CcqHK7I3DPWa8paVWSJawTVoUFliPnVqvS4TWWh4ekVwxQNIeVJv3jTo7mGP6h8Jr+BKw1B
-DayMgOu0xpgYOiE0lYCORLrYSl1htOg8BFzCsarROgL7Imvb9ONLHs7hKz8myiKbYusxT+cB7nzX
-y3e2ZD2LglzoJ8VVfMhRZu0XYtLxoCQutfvQf+YGcUKs6rktyrDUT4GHTtAXHRe26MiGJW2tMa5k
-CBl8OrSxNp4Swp+3A/5EO3LDmgU1XxnKCk2rjwo69D9bGGH2zqqbwN6RwQhGUfQFJrYkd052vX6/
-s07j1w52ytUbW+yavqimOzRHzs5RiaCbHOxpI9qYdVfFCO5ka0wgTRmkKUk7c/JQM61/LBWhvlg4
-cahtfNq5F1YQ/t6gnP7h+JV9jrshO+YqsL6Xrr+8Bsmo/b3JEXhtWYP/sFs9PY+uO58ga1Y7Mp8R
-L2fGC7jL7pXevv8v9s5sOW5j27ZfBAeQ6F+rY7Gq2BUpStQLghIl9H2XwNffkaB9rkhrU7HP8wlH
-yLIlEiwgkc1cc41JQFtKLTwDHnUxGdgHCRzPTgaHWf6fLHa6l0/bItTnH6DGU96AMWuPpGzSCTgk
-Lv0T+RyYT1OaUHyn5xioMaozB9UmvcptSGT2OKodpOzY+MUQ6E52WF83DiwY2/Yjazt7HFlXcqrJ
-eeikd40IdYZALuQWqdJs1gS8t8YpWzBTnH6jS/Rd1FIYVNjUoVHVcKlGRahKFauqGBpmE+hVxQKy
-op5GTWYkwLBbQFfY3c1TlVLx+BRUZvlIJ3Rzn43WbWQP9XlSeMsxbA1OqYZ7X4CgWGU9p+CbWqG2
-wFlwqgkj/UsoRnm0IHLNoXA+9wrSBWyvbC7ssShVGF1Fcy3eRX+bmuNeViRu9pW4bdsQrz9+PrLU
-FA9sVGSwKag7/Q4vfolzjCjjTDHE2sRsJFalDsA2Hdy4GKMgGr8GlcyzNU42QGT6AiWDOwegTDOs
-jPSXulx7Uu8eiHLxnmKBtYKlEL5Zr0hnOcfJy8GBHkA5MvkqWd6PY9b3150CpVEDv6pQp6k9j7Jy
-1i792aeWJL/NgCh5P/madZxkYtylhtP9pO+5+TotaDa5YNpIQAfZ1jVzehlmKaaBuvkC+iS4iyKD
-Jh5Fe2MrSAGpM8x11rKlcZ3m0NMCe9M0nbNtF2TcRGd01o3yVM8xxVh7wq8Ud8OTR1b9JiQN+tav
-fPsGbSCkdLmA6XRala5dLUivyHQQBaguXbujt9reuFY/brldLvmijjxQ1Cy+okDTplNWn4K+0g+p
-3jx2ipOH/cjetIn+ZIjwMoFWd9Im2/oyjlTzeOemBjdHa2wDLYqObcgRzkR8uOrdZu/1SD6pKzo8
-tQbHa7espHUao87iE4KiwTFBz2pYiZ6C+aQRMqN4bqAA89Er9yIzPgcUlVdh5lDhFhzSkZCUx4Ti
-pKG4gq2orG0kOdaFpo/nmXOsswJYA4zQt0xgKFhCzTsvtBwSHpruvmwsrKFNMZR8nqhbp7MEPw7p
-sGxwTeE8/uToUBCLhnqkociIOBNsmuHz/J6GHcCJiWIoCkLsN1JkZH5XqhuLerGNDZSq+m0uG8j8
-isaoKy7jpAiN8MiYoJywvGIGGmDtt4Tudrl/Z3Y6dMeij/hPYVVHM59rEPXQWdaTYkL2Cx4yUqTI
-XjEjseZzkAucS7rpQbanKLgE5AQ0ReX9Y9RHCCbgEKg5eWwoyO38NNA7gGlBYkWvW/PgVOArJbg8
-qpYRgLXe4TnQCw/pMs91Gis8t3dA5ygY5rBwMSuFyMSOwOqYRXRlYN7OLip6FB7xT2qroZLNfZCU
-7q6VdZAgsADg9Ahm2hCxm5JlSQoj7cHQcB3q9hDNrc1MS+KxtCYLgUahnKTCw4xCQIrha+SVu/Bj
-XOabl6QGKoPUCV5mIc1ECjpTuW699xsfEM2CpFFwmkxhauaFWINC7Gyx11V4JQfaOnqvvxorQ2wC
-APdrus2HTaoQOPBph+sZ2pD5ifUtveqKzIyGdQ4d6DbpYpOkF7s8010SOmdcpqYigvqqTQHEJGwn
-61tqCD3cYVjCnTbo7AVTx0hJiZL34ZDJE5atdktvng9SqPUohbMNuBJZVTHzTmb4Be8gPurZRLwl
-9P4phFR0noMxqZDCo12d9hPERtu+rgswhwhltbahgQhbSJl1R2nU04VXxPLWsLv2IRpzfDH1sfJm
-ual9Ud/kbdl+B9yAVtLVzcEY7OCiCb1HNmrjDklmM7iNdYdkRa+MPaRpuoPxEWb4EObR2MX+PEP2
-sAjyobmiwNWSC2c+96ZefZNpDnaQKS+jT5XW1JVZYNgrzGA+pXQs0u6Daf9W86f5RkPej/H9xnb/
-jdI6gvRUpC5+5t4KxEWuMbldAga8qCPTPZdG9rki1SQ6FlntBiez0J+70a+upM1GLvYYC5dA0+lc
-n5OJRN80iXC+LKEaMfEafjOuGiy+tyVugJ0dI/eDMcaZ/3mOaCm0zMYL3dtQVPUtq99l95rh8ctJ
-/jdl1vd1L/KubSqshHhRUbas90XCkB6lSYTsa92msS5Hk5OoHUfiYZ5IC/Mb448VvfclKVC7puHZ
-gtqxbrFVeFf4yqJhgt3dlvsib/wT/ZSAGZiYn2EowFMXZf89ynTLug4HrzcvG+qpAfAJQ4vyK9om
-SJBZYNdonVZzkzcqPU2DFHZohOE/ApCD0Z6WbACtuQjYtuUOlsNQN30O9AQW3gtHRarVMoXX1fds
-M3GvP5f2MHb3LfChdjfDvhsxLzr0a3+dOU+kOFgkB7YwsE32+qGKeGHGeMhdk4JpNrUvDJniJ+zX
-4t70sdmAGVD+ZIqZ1ZNORpEkYVa6mpo7dQ5YiH13s9b27c6HpQBjJCRBbeIvNhAbKgJwmshw5LY1
-vPJpOQsv2UAfP/T3xUcKj7ZjodTQz6ojzryrrafskKk24I60UX05aca0TiOsknL2Kqn9R5a9+ka/
-1suWC5HXxTYAn5p4P7q8hhMc5M1yj0GcR1x5tIZQkuH58O6pFCWV2BcCgXfoHaLN+uOP+e+rU9D1
-fFobLB2vnUou/FX0qbTJcDGT0oCUVOLBGUfUbHjjZ6PImn0pNa7qdC6HAG3MObZ9fHEDk8a7zw7d
-QujkHBouZPz3n31MbFifQVPuIXfw3Yng6q0rN63JZEtajs2YH/jwgzWVpEYrRLneFL3qVwndDN+B
-NF5LtP8nb/5R3gQu/8uz+zd//LmNSIsEW/3WkrN82d8Cp2E4fzFJ2oj2nm8iWlL5/YclIay/lLCo
-VE8mu3/cOD4ptMICXMYXWdbi4fnHjWP/RWSsQdKIARGIWdf4b7TNt/MpFQCG9yv1HIaE4DV7O8jn
-cq57phMafAeSAtesr/0dcZig/+RYt19/uTG/WS3evlHLxcCdQU/TfQuY2PvJO7SlRTJlZ91FGkf/
-JcRx6gb/MY3pa8PJzpQHDMJ69oek2f8vLk2ii+4Bcafq8u5ljrXUkB39PnezCvcr/EbFcUwjGWZs
-/4wHYuWYVVq9QXIDiY5G8vHl366T6pO7wkKi9oBc8eDeX16YcVhQhDLvslxDPPI09ihrktVYeuJS
-XU4quefja4q3U8jfF2WoEEJhOMwi79bKooLLFFa+uLMBNT7AuDQvYaKjauL28h+rDheFFQMcYu7u
-WUqiru9eHLTRi0xzuA819bWLCtVO7lutIVBunpl0HU8w5eF9143jsKRWxrOKiyDyggVYwrgw/+B1
-Ua6I/78KvH6MRXinPEDCmvXOheKNnol8EYk7FEvGSk96qsyUJue1zHIEEZdHmVKe+/juUTz491V9
-Xg8X9ikh0e8GDEKim0i7Me4SwG8Pr1EubhH91BOJ7dkgYce2CKmkoxpZeFJxjB9f/98vpstGR9mX
-dJ9x8/5dgXFUpLBYjbslfSRWLwyNF/I2HMj6+/hS79aa5Q6bBostggUXJHn37SQQTG5X6Hpv3MEK
-lWfK5GjQr4G0gUl+rUwt63nQHfV26qjMlTvyspAXJm+TlJ67j3+a331wU7eYLQ3XhlvwbtQKSyv9
-GsLtXU+tsF5bZFaWJ7zv+rCKVaDIx1f73UuiDI+8l/zjsrF8+9mNijg+zRzE3ZJZSPsQOvGi3C7p
-m6AYEO4GNFKSaBnlSxpgPmBjWNMCr4200M3lUXMGeQ7Rd8Mt/XzeqaNgvzU6ajVRNFA1LaaEtwwb
-OpF1fqT32e7jD/Eu82d5gK7g+WHWsqFTLsajX+pTSRYGvQfG5S4IEuoYRDo0+2XcyC6vnpom19aZ
-R+WimLiBOS0OhMbNKqhm8ut9Nak83zi18ObM40w3lBHo7YvX6PL88c/5m1nQxd3Ffop9o0Uh7e29
-1nDlDw7Yhjt7drkhy202KgRyQ+Vy1hgf/zCy1Qr65i0mJIdRzZqLtxVY0/sr5l0oEj2d2rsRZe9I
-ecR+DmiC5BcTabvXTXnbmA4RmiTgsrPXhyQqViPAhfsYwl7FSW/qXswSa8CS46lrvASxSfkHMmR5
-XG5Ry6pB+Gwc+aeWiITjhCfxRGwQKBiM6tczJPLjx7fxdYf965SIZ51DByVJwxIYG9/XI2cv9V22
-ouFdyVetsUiBfE5cLbmpzYyOmYLu/HGduAOd2MKmfL+OByJ8dn5E+WGV8b319YQCuRaJgFORd+6O
-wCit22Ox6w2kypD+Oy2wEZeAHCGB6NGofaI9Luw2uluWABdDjABrqqbIOLrQeTOSduwhb0dOReIB
-lQDLq4q7vuiio9fmyQkvSHk9JGjBUJEaHfqGyLQvBoRiEIhT9l1PW2MDR4h+DTRC2M0TPO+XyS4n
-59BNUbGJO9bvAzXXHDyimVS3gEgJcqYH1glWVtmC0XcBwCGxuVr12BdZMm7MwHXvfb+OMGuAfHeQ
-0xBDaAgJG1z7JJM24AqF963WaMpC42+7dD/LuYM61fdWcynqKea8zunkJMKe7XY1BAd4qf79NA5U
-Ml0k++ZOGyGRrRK7K2wgC4IcvzwKq+rWDfOMFlTfioKNlxC8RIwEy27KGHFRSeBCqyTeOo9AObE1
-IITX6CgTLQHW4GrYJkBeJ6IMzAnaaOXIM5GGfBlHa5WZrKJ5vZYGrpVEn3NPdGymPSuzQf9FRWG6
-x5txwI2aTFe4CusT9jXP2IVTmUc0UMUS/nYYRyDZ/e47hjiHegdOHIRIqHS+mYfXjbBgZfq00dSc
-rUYCgb8QlhQfBM34G499wLepK0uOf5QGXV8EOzoyyq+539pfSlOzV7VTRS8MFPkj7INElY3DYqP3
-PB5cdF2BOFPZm9xwhzUDa3FzBYWU4GPg9K28snuxanpipR2H1YNme3F6HAqPasqhKDI/f3CHoNR9
-BkA2le4md3NPS1fdZGG9TFdkaAWCfxv4rGwauaxYM6IViZCTA1wwNfzqixYhfPPjpgndD1Qacm+n
-gTq9yGZbnmFhcKcJJSiPeog1ltles55rb6S6A42DYL88DLJPUmt5YlNAXZd2Oqpgg+urkpmqnsUT
-o3IVeQaLqVXgRl/jFYfc27Q8WQdLFKERqqKp6423GX1iM+lOpXJP3DJTdmzB/QCw363nybGeAyom
-qzDW2a92KqIa95/9LIPZf0RGJJcdxecSaZOJx2Iecgne2+ZNRF9tzRvqkdFg8u2nWhV4OXGUR7Z1
-wWNP4gQwrbw8pkUqHmpdlapBoqCrdAPzM9MZYmZm+bA5yY3l/4SzMogNMRuf10oiDhxqix7JQc8N
-Obd0uGUmfwMRIrmmP4wphnO1pxIY/ZPvlvJMJgWL+qvZSs2R7OG8U4C/jkxZiotB6bVkJqhbudSk
-27bnt8tPS2mD8hmmITzlpHoI2K7xdAs3kt+mJN01N0uYbhgi6vToMNfL2XgSo/EA0MTfLqaBJbvY
-zBKVA485Peqk8her3eMkuPcGllNCcnl/E5xGQ/sCMk5SV+R3+MYRZyhhYy9IB/sZY7S/9dX2qMpY
-bcl5qJ+SNGf3K+N2Oi8bhTmtSSqnm9t5FpL9/RIGDvXMp6rjJS+UASiNxTiiL8tadbpFvNJOGejX
-LXiv8sQw4tkhubN5L2sWnhatZ8nh0xOdTXgJ0hRrRFo9wTtjNZ9SPCHbQPjs0lsVtUyVEHxN3Tb8
-5HDp2EHhhyPHrNYaJKZlg0P3MgWpmfL66+HHVEVrYO2YOzN7ssDjQBpK6IKmP/hqtCdq0rltgcHF
-kn3BssMPiKMSVcvTijHZ0gIXfMtQ20hYX14hA38w1XPZqG0QK0+3acY7zxrbl8xveUZV4LG54z99
-6G3NtrBs5rZSHVXg0+IcnDAUMA2Ylw5P+rpoCUrh45RHMDLOGRIM8CItyvhpqeI1e8qKxjW0Ofbl
-YAmvddAvsIisnu8Mv0feWlS++6tqDLWIHrmAM6DhFIxaXNkUbBG8+GHAvCLCQUHgV4PMPznE7kOS
-4lzedir+3Vxy2hdFKspH7qmkS5AjgJoE0syU5ykuuCtZGvsnZ0L1q33esMpRl89H7AKLqyDrjOop
-oZn3SMWs2bPdrwnZMnmqYFhJH2Yh5z6MOn9exMGjFk3yVk6h8wwkhvdVz5DCRAwcbhPavPFN0/KT
-LCPRoiIH6EKluhPqzYTxaiSxwjpsb32YsuOlV6oHlNQWU5MoyT0nqZeoMPAudJxyHG23s9OxKRIe
-RLGVGMP8ftJROs0kwd5BhT+HoMUxxJKegVUI2XllCpoKV8zzRDpB4VKGiooXvaZyeLt8QlYi9sit
-ioBoSvyRy4F3HrXqaUZdfhgwpD/ETN36auRI+4Bb2Xigu5bH0qld2gy7OnvdMS7L5jTrjKgq03Co
-eIuLw64IGxQ4qpNe4Ezue04y6q5hFpQ+hl4DlC7WeF56h09BSoX1XEEgMdeF8k9RoJRnHVp4sHHN
-2dzBXMKRYLch01Gc8nIJS4mNUdsAY44Y8j0DPCDzMA4cczsOFGim2MbNY/t9Zp9lM9LqTM0Ea4zW
-6Pbz346VGOPNEk1IhZZg+rqEd+j73phBSnT4avoDRH2PR3Vkxx7gA1/PalzFyTL3SZFoFySAM8mz
-FQnVkZzO8RlYD2NiVjfgdS5SB/chEcwLamJtQpcVZxm7dPmyrMmOvAnpxtM3Oo2Cu2V8WnAULhKE
-gIuhqK30yu09hggZqRg+7HQ4ROHU4OFdBgS8HO9n5YIdWSOhN3stKQiNhKzyjGvVeFhGhSNTJXWL
-wKC+SWOPURfGdWIrtYGwFBjHFJGMgr7Mxc00p9rarQUiRGMn+Hti9YFeZVXaw7N1Y4382cRGqNkw
-3xvXhsVHYMgZD9jmS7LXs5A3yw1qVhicaNBJKgZNn5T+o2nGxg0tGfMdJ3UGta4ZGLAwcZB17/J+
-WWmHnFoGLjcbUoBavruEu2TCs0EMYgGCkBma07imi5JJoQzJYtvVGrXVbUGXFmlCfcdrZtYT14Ue
-Kc/5ZHEkqDiqPfoSj0po0+tJN8dAh+8orE7bJFYjYbawF5rvB5DFct/1QxHdGFScy0sCT43rhlSd
-kENjp/xPMS26G90gTfmhs3s2IaGW+o/6WMUXRQVTZMerMt5aQBrue0/mN8K0v0daoK1TqAnkgdWA
-6Rpm9jENk58hPLKVi8dkZcLZTNdDafICSzx1SVyxIk0xyIsOydNnhzI5j2kycZ/jigda2hBcL7Q+
-MXd6AQt6FdYlde5B5pdxVSVXptUaxppVM7/kZC/3yq0yrSkBFnDg6G3xZcZ+wRGSyZBNpmJxCwhl
-UradfqjV5H+AMYQQie+YPVVvlZxgsiK71Eqh0khh+a3rDGPNfZgIHk+TV/xKqBM3ybQJHkUBHAH6
-jc2eBgXmpXpgj5OrLV0defKchh07PHpi132NRWk5KKdUGI6j6fOq+lFNKUNv+PFwpSA2gZAbNxh5
-+EnlspgEEfP2TM5z+qNkj8nqgv1gi+kHDjl4pMfACxhBy8Ew1MOiOmR0ejDldcxppSNxLaGnUS7D
-LXiK/ZCaWeUb14s3z9C69kXMcGMhWlF8YjiZu8IRrJ+wChitechsNcM0e1iChJd5009SJkdssybx
-MAXvRKb2m1XgeyeCrukRD7AMPJB5Vz2lAOVWZce812BIu+4yBk8cAHXRSnvnKPLtap5hV60520V7
-QQf0D2tw9Bb4H0nJ7P9wNtpp7Z+gqKsdRl0ee+WKy8GMWJeui/3ykgOb7PYt5xtgXX1zgXm+32WW
-gLlItyd9NOlsPMAVRbKzfWYldB5uiZtoLBvQ6zhJLPUqhyrfQ4RiDaoOs14Fmue6mUMWo9cts63n
-Px3qzlAwi1zf0TDjeltn6sSOK0cPUdPLTzJy5lMEfOUTFod00/KGMDtz2pl3OCsVwsTJQSZNVqXd
-NhrQBgAcfuFtzcaUe4GR7XtfmfZL4vfzD3A7A5hb2bLdHqkFs68SR6Nq9ZPBpuwiQ1z5oiDNDZ0v
-AfiIui6Segs7vj7YGLiuCYv1NmHixJ+JIwvvHfb4hO3lxK+nra1fTJ49XftmFXyKNCztZT3xnaC8
-xi075cIPb+dC48RKgW00FPoOmGfjD85rvev/Kjx/qvA4i4Dynw3sn+P2e0n/xNsCz+tX/V3g8Zy/
-FpmYDmrwEx4tx/9T4PHFXwxoB0ndAmWIR5k/+qfK4/6lU9e0PCQhS+AvR3z8p8oj/mICdNEzKH+q
-soH131R53gtvqtfQprXHwqoP/8dUf/6LPkhhIkrBqDqvm80mpxXZNpgt5mli1usajj4fS1S/u6Ar
-kK4tpbs5xjtVNeVTV6LK7aNpC29jDDQBzUq9djKv3odkm/1B6Huv86kP6FoO94vyCi0E75RFP3Hm
-Fo+hdXTLyHlO1NFi2ay2Nm7mjz/a+yIWl+JRUxKwafHGhPDuo5E+gaM/Naxjqs7gMYy+vd3NTE0O
-TujrDujNo5smzFcBi87Hl/7Np2QkUUKk1Zgy2vuI4LEmm0rXGuvYCmRp0n+UDE8K0CZn+/ynFmPj
-ffmID8oIhMaIxx05573IKMuMJGIZW8expJjHEZAdCRRBnc3w0LmsFgUyXHTIWbxpV2g4JDMHlhxb
-iKFA1hDFn7T6f3980pY9x0HIpa8DV8DbUZwYEefcMLCO3khs63oxJuuU0y7+l9fCz0nhlSHMwHk3
-oELChWG6TNbRbEf0BEtrX9wul+debas/fqpqwPwq5uIwQLdXcAVXZ2i9r/TE7MZZfnrrOATRz1ej
-s0Cw//giv7t3TEKQF7gYs9S7UYuwbbmdyKwjwSLlMfEGDjOeQ8alwd77T9VOQ92d9x/JxNIrsLlw
-C98XlLzANIZZM8xjImI210sBhZYudt+LO9urU05EzsRLqgpOU9RBox8C8/Ljz/ybEYw7m2lPV6+q
-2mS8HTCBwKgSOKl1lF4nDmZaGBqgcrZGldYyQjn45Ns0FezVp7kHGrq8vLjq4wtmkD9VoH/3BCzL
-xL6unjQ18Lc/TJr5jszh/h5b+nvOyz51ae7gJONvP/7gv7sUDiOPChpLy7/q7LLyOGK7tXmMbW6v
-v3S1aJlkqveU3f/ji72d6pm+adenduhbrCxUnt4P3wqkfVbXlXYA3sMJQSNX5qkwM3bJi8mf5mLv
-D2PZeDsFq0sCJHBV1xejGTzBu+WsSme4CIbrH3So8xd0e7DRb5tWnp1Rk+e4DXiuy2mASE1UhZDe
-gZzqwdHVCrbzOIfr/aw2y8sM8ir1TDNqyiqINDplYiXLfHyT6D5780rg+HBcZlMGIpYOGt2cd48f
-vlFiSSJCD22m56B56FUtY0fbhUab9qtSzydqihwWmhIvflJNztbgm93ROY4sgEOfkydGV+bewA67
-lxk0x4sUKUP39VQrqGFEG3aGqDC2wTFvRRglirU69GQOyqqe8GWNUtJcLO0NVmBBQ4tI6qdOVa2w
-C5uHJuEGrrDtT7dEbKAlYlvxH+G6azS++0Ft7I3W5luTAkE3bu5H0BmzBkzoijQD07nIipprKIHK
-aSO02VoFdFiDRaszQhK9T1HJCKksjlBo9t18obHldg5Lba7twhwdvjGK6ED+afdCFal+cqtCVIfc
-ULYrj12LJjqNjh38TvFXY/J5ZO5sOoCrR/ShR0J3GHtd6jynsWC0W3i4nyfDRyBfTFTOgHCbI5N+
-r+ZA7Ifarc+N0+VY9Dn2unFokRzU+iA7Rx+W+HpRHzUs9Ec0DWp+ATKFKS3uKOXCx8kS8cVSIF9K
-x8sJlYZe7o9Pz8MZY//8KAak5cpXcgBBXTRdyaZ9SfNQKNQDbsO5DTC/e1PjP/bVxN+Ca2Ze+kHB
-d8nVsRs6DTpbr+TeZZWDSent4IJlJt1XUZMoqxdgucl11UE1ciwqE6SsuwdoxUqZQXVcxHedVphz
-SjVN0magIRsuAmkdA/PfYN22n10QfaiYSVKRXlbS5rimq951DstRUkPfgvVuDZSIhVQGECAXKbzW
-jnXRKWFlM4LDKdzms2dcRxqFr81k50gyCPooF7SEsN7Qts6B2ShMxvLAke+xxZ+vYtLAxhCdTWej
-oeKwOvLeVToB6/KKmhrn+8qk03p2ibFeGzEl3KGs7WeHahqWnaLxM2z0RnMfmrPYz1CL3Y0IHetr
-MQzFgwc88AriXLap4RoYKzQBw9sBB2kOcVYOdCaoUkKbSUmr3QzwVG8D5yHL5nhc6Q51sZVrJ9O1
-B+wHeGAE5TBPfX8d2y1CP2UPTOvz9JCC0MG5HlUkc+kw8wrGJLxQYmHvkIxg8SVBnyMYNN1Pz5rL
-S1u4/bXv2JByaaAA4NinzEzrWam6o07W46rD8PEFHkXT7lp7cr5LOsMJCiiKE6XOJtwpI8dIJEqF
-Z5/+ckJ7+vLaTwbg+sXcRl9DVYFzy666IuIHv3ExBUeD+Kn6wmtH56lCYYO7A67fCcfyYFo5bHg5
-WvNXrMjp1rbFjGt24DF6WH3WNNQXXxN6mzoYrZR8U71xL9RmFEeqpOa5URaDbc0ecDWgvu5yj+4H
-JiaqAEARzj2S3yV2luoyaaJ2N9n99AO840hAUazd0YaWf4nTwVpnUwEVtYhTtGnCTiBtPrudxfuB
-0L0JBEy4fmiMXV6VfCNPQ3+mYIlzNIDjkDYgXTeOS/2JFofad0171WDuCUv15KvxxE7X29MnN9mb
-Ih5AbYAjplCY+cGG/gjSuLFRr0EcR5u5nAilyMv+E1BDMJBD0e56OwX/H+nfMwDnX/wsFqvYN4gZ
-1IAk9xk/hx90+R2r0kz2ENP7ybHqcVWFOk/UxYVwQn8obrF8VbfY6xjUmsOO7HkpG2gi4ZVoVWln
-W1YdgSCOVDISLbVo6My23UvY6ExI5UyP6aTPDFm9wzjXuD2eE68nVngLWgAGf1fWOjVkSnHzmtJ/
-CZCQgtmieLkTvtWu9VmPvd4Gpw5Emu7hJlPfzZAVuUaLDw+nBBszAIe3muQc1RKtkG+cAeFmqCxe
-/T6yyYOSFr6wpfhUVQzbNam61E1StLonUdYh+7moxx4DYKBU7J62yr+SRO1VP6dqsFRpsaObgTbY
-bZFY4w88KYQW2qlmf6aeT55G5Ld7gCOkkBcyjPsVLbDRt3bonhNk1a1txWG4DmiTar+Aj+y1+3iu
-SnPvici7HlDL1g5AyG00jjWBS868m7yi+oSTAaiq71rjp8Fu8jMlip8iI6wFms1N2gmEKydzMwAM
-Tb+1aM56CbsofJnjeLwPe5cnxxufbGt0WZ9ShAs4dIjidFrVWeseHBspaCNHMJDrFp84Ic19G477
-zpf60arL6apuO/PszDLWVk1O1snK4SmAKkFPeKR9VRZbaXQAtJvGuqHLNbup6eo657FXr5vSaL/D
-48uIEZjNb6XvDMfOqUgksQMRE5DkmfE6jXBPjP080jpYZ0wXfmBDHvasA3aFbwGEyfuxC1N8dL1+
-1RAW/zUdnTRcN7S5sFbS4LNCww6J8ZriK0An5kHzR5/MiiFsn0U8Vkdc6/62oLnhCF5Ow3fRtXkD
-NGKKaT4semCRhhBEelqBS0o6XsAHB3z8fijMmdyGKDjpUz/fdRExD/4Qjk991tX9Vm9bKz7IWEp7
-7ZV4bGiiIdLl2pEI3Bd+1LcklxTaKXHn8pMeA7tfaynNoCuyxPUUXdQbr0dW+J/GULdXfVUNF/T+
-TkeM0jm8cT8KUO0NjhcRk9sFcTZGTEm5otgaDu5wF4qB3PIiCaBEtEx5T6nszJUKlTwRysg0SmeT
-363rigTDjSCHJFjTICKuOnciUQoHleFtvcy1mBANcp6E0wc7X6sBSFfou5ZVg9nIHDpfezc+t9Dw
-P/XG1D56tPFuBzmna5CQVEXAyEHERfZeyTlx4fOMLuDfYI6AHnesQ50OZy3QCOncWNyq22HmnFJk
-SNh0rwXxDf4w+UlvRu3KjjvQOLFZmztPMxu6b6rC3tWtaxMcImK/vegZuz8RKuXnyjO776MduC+j
-0znxTqfQ264pflF1ScrMbUhhRLefOwLmN02Em2nvdtVPOyKloE2wFazmuO0O5iihz5ZlQZiajMnI
-tbCgrVNW5xstoy4sdCfoCDFgzx7OE5EumHdUnhxdFd4x7cmbIb1u+BJRr8ZWE87JDbqwq68COuRv
-Cric3QqYnIZx2OSp0TZhQMyvxkz2jxKECID3Zb/+f1roH7RQw1z0yf+she6fx+c4/tXp/veX/ON0
-ty2UUM5mrK84OBfC5D9Od0dXmA/lWEfs4K8gOP0thArxFysvtmMbX6DlQJP+HyHU8P7yUUFB4pOg
-YfAn/53d/e3RUeEgaVpBVOUAhqKFc/LtKRzzVkYIXiju27aqcKHNeUtyDw3bjdp9qUQtHF1RnDXf
-KxdPTBSl2ln4tJ4VFjsyKOYeDIpW0n0N7GncAOShi1gjfEfi2mnJr8FSptHHvcI6FN8mjaxInWHJ
-Aosr012PSLGtjMQ/CU2nEu0zo8RJOl2UYkrPcwKtjncE15Ch9T+I3wNOF1kwkTQJN0gWGT1eUduN
-zzQKTc8uKB8CviJu2xoqDjvnJm3mnZvpVB0mrfrWiyh57sJxutVS1A0sJ9MTkbANhsGQIAFzmrsf
-QxMaK1HhagmFbtyFkXOnnD6YvrJWfOpN5qfNx0fhxcD7izikHgHaOWBsnz4Aj2Pb20eQz5aVaEHr
-3M+N6V/a5NNtqaerkyxNNSlOgrpzV7HI/VtCOsSpGAk8WVWOR5xjnNI8OkfJtHVdu7z05364mkGP
-Ee9rlS9GnGqfi9puzxGcMgJ4kuSqtzuMX17UZY9ZBpM/jJqK4r5Z3nhe8wm3kr2nY+7khqN4EJEg
-5M2nB9Opv338oVXs56+KGPq97qoBjHKLZAzm5u2Hrji2hYFO+IBV5sGToZ5+WJbGF0OwPWMZay6p
-qTaXeTJ2WwsOgljlGpWqluz3K9lL/VuVGtwG3x7lTQjt/jASt3MfTPyuNoX4IarSOIaaGG8i+hlO
-Zlgj8XvBI8dDceGTu/GYFkCxHIqd+7gYoeBrjcaKpUKVSrJJZh2C3Uo15x712XwpnP400hRHWTqw
-9yT0gmq12OnGkkZEaQPx0llXaTp8yio/OZBNNn6PIxAJWUeuQNWw2C7bzaZDjwhwQVM8JyAxHuWZ
-lzK9dgdcgBlOuH1qKqh/0oCIbhxOFslsHz0LYCbRw7LfxHFbr0o38S+AN4u1IDh84xZ4NWTBU+J8
-GCdXeWTWp8nLBPy4ovrhkVbcrAocAzQJ2/hq1NkJEF7b7un9iI8ZyLmrQFlDvMIYrihp8uGE2aOz
-1NGcwIWOEgJcrFCcNVynNy09fSdTxOEunr15P9rq3STdlJaZsf1sRW39zQ/T8GRZjb/WQyn/VNt4
-O2cp3pDwHTofwFH4PEvffDt2BNJowE5FO0edzu7J74sLzWizx0nSksYRgM2br8YOUeTfSbfj5Na1
-FSkt4xS9JOzjrytHBAeIAvVntybTBu+SflF71Re8qemm7p38U17zXdIBrwWhRGQkZDz7UxkEcHqI
-Nt+2dii3GAXFWeoN8TEuggWEIm26wtxKQIKhTbuBdk01oZbpobErwr4JpBTbWO/hUCZykNdNWs53
-y7CtEiJIaeyerpraNk5GVQZUVz39i6fl7Wcf/9JnGi7qa3JRKXXCRqCzxASf8Q2E/UVd0nK77qVP
-IofZ986FNc3ER6TEP994OvvsP4ip4q2YrW4/nVaeqyoPAgaVq17tX4pnY220Wjg3wVk0lUMjJt02
-xE/V2n0y+3wCI/l/3J3bbttIEoZfxci9CJ7EA7AzwFo+yUmc2OtJJlcCbdMiLZGUSEqU9PT7NZua
-iPRhg7QviCVyEcROid2qrq7DX3+Z+shZFoPbp23MRPUhwGpaeHOYJs89SrjbY4szuDo258vJpQe4
-M5itnZw5g8sKjqiFkU9+5DZV62Od2j1Ec6vB2du256UF2OJ6Jf/PvWwOO/qTkvKHMX3qkgjclafA
-wzZXcNdNz5ZQROVkULAzkyXAqCHtreQuouHglMzHIqA4P/xoVM7kkbNnCYhXFlgb1/jkVJvZZWQu
-cHSXjDq5BcYIQCJiOI4n/bDXO0Dbqex68yH/cpl1bIIhppjQ2fwE8qudXQ1vstWQgfAVQfIj2jyB
-kxaQ5DeDOOnz06bYfJm76/S8BAQM8XqaQhewiNeXWeIxPtE38/F8WOXjzF0Obksn8c8hGizjUQ6Z
-0pedV8SfXJP1V4nPXOGyqIrHNdcEX1Fs3xWTajXWdztGzcyWAExWdjVLz12ayUc0/+6YNMDIppLR
-tN9NQK8XA2/gXRYxPv+E1p4zBrpPzxY42j8g+oIdqFpPxvE2yk93qZt6oxIOgNCYEkQxfdEerEfF
-wjROd9bCP7Oy2Z2RgPeMrHTJTNfFYjy315MfqctRxycAQCOO3sQfTB9yWCjWpxQ6eD1QaZe7TW7e
-MN5huzpJnqw17CtLogioPM6YKDL5geatQ3ueCAsitubJnVwy8pMh0LpoRSMXZN4s4lyHxyqZ3eow
-7dP9vnTiv93k6R4KMSClzCSjNd0sRnlugt+25+anaFMVYPDnmyumIXOXvK3EOIl80z/dBjTBt2iH
-hMsZmy3cwY7bgK1OVuAmIItgHo072uocsOPaNjP6bnlOLiAauWA64YUCaX6GK7YIHLPcXe+YyDM7
-nSbFOBosXYjun+aXy3heVGRQ9Rj40+ApTqDXT89K5npxXGn7vdtW+vwvzH95Z1b2OlzFrj04IWOX
-uIyW88DXMTNx/nmdlsPThC5h9MCm6HHMNPoJQysNoOkM10tWF950sGEa1MIdM1zsrw20FhZvWWzn
-owHZY3/pDK4hBNtWJ8VKXz0sGSNwjX5FTP1aZhcbYwfrlogdmfUnXE7xvS6quPxebGYXwwEZuJMN
-dQtwyNvvxoJhOFDyWse8T8T44CcOBAgjlPXJLCDb9Tz3HkZ2sJHr9ewyM570i50/3w7IRO+W57sl
-DG+fIUe1/dFiNYu+cQ/E34rBkxgtuqgsuDQZsv2d0SI+SJTZ0pleAFbR4WEl9oMELgLsP6BmfTNY
-V8LBAW12qdP6fj4oEuckZ34CkLpoVZ6WmyjRWe4MkzfPCjaqqHL+PilXHINtZO4mokxl2yfznZHe
-TqdlMZ7oTPo73hlP1l1kTeLtaGo4i9nHQVkK98ffXgPryganu+lSv0soAkDts4R8dItlF/O0dsan
-6bBi8BGK4DGVjPLOwN5G9C4YlvW3AVqfArZOZgIgI/NZDDr/bnJ8y4tSoG9IzO12j3QTeGNvtRuA
-0WT0CsXTCVycer6rTu312gfe5MQRwzgmDG7Kaf85pi3CYt7XNIf3isTWMSNU9RNI5eaPrlvdkKej
-lkP8m8FMPHMhD65myZXL7JyvZuIyIdWc++wMnBLX9UH6v4lsm4WINuvTtIzL7fUqzLc3YUEuqPjz
-X/LmED/9msVpecsM29/5pbcFHYW1UBkr32d0KYk3AGTZQgCZAvrRipTrV6rf9y0J84A3Xj2Ef3yw
-fG2oUynRRQVznsG3Lf994NP+TfNnTYVOJVgXcCI+6WBvXlv92wuT2/j277RePXhIoAQng5PH92Ur
-6qdJ7NdW3xFxsHrGSjjgkUAJ1WsUAg83QWCqoMi0TB3sVP30bhP8IbfQr6jA65tAugSAN8kQuMbF
-g/N/uAmgx8AMUOrlyqsfHKR+aQLoCltVFWxTI/vD5UOMXD9s6+EuuIZGJye64OF892v5DHJvXqpj
-mp7bgVeVgOWT93JoVbXl8jsnwbewExgBg77Z+umdOYBSQb7T72+CRaLPx7kTrCf109EBBs9AfAHw
-w5Ha1idjCKRH3Q6IMR6C6UbaART98AQYBkfAoW2R/Ox+d3p2EMhQmIq7YHoazv3QMC0SwIfL9zCD
-HvhY02sMRO90gKiEd1a7C1wNAmxATXAx7L/jw00wDF+jgAyuzgbHJ56+GUMCdEf1RrQtDQiv42FR
-5CI7qgDHnMZtaNAV1rflu/SjKeqAbWhAtY2hZQmLz9Oxgi5OE7N4vJosqF8GgO/LlNfz718C3IR8
-6VRnXnGHDN3ly4dpTuQD6qdvOuARUyrqAGEBSUfmVVmNT9g5Ae5Qg2nPEUR4cg965xNyRsUIJzVr
-aGqOjabb0N+8dBI8ZtmBpwWa3XjGvbsSYHwSuXq1XcDp8eBMgdTwxV3wOQ8kqJmcBWt/Lw+EQfZW
-dRdsW4OJT4dDq7n4OlGSYdiaI7oVcB77ZhBMHc9FVQvwjcEEYg/abpHraK7OaDSBKq+f3p0BeEEF
-G5HaGUDHWTzYgc7X7jE3hHoMBdXGVZA2p0+RAZ0xyteBh+9rA44QTQPi6bgEvsfhIF1EJkkqQQ9j
-ZPCxikpg6xq1cPiths3F39UFX6OJBmY/uPbk0ztDILJdqrtAFMiIVgogzSI7u0CiZCgwBiJSrJ/e
-GQRCXEfGLQpeIqskCmIij4yFdYz+YaBE+hSuL04MibX66Z+DBCmZarCMm0ikyLSe5kCIcPBwF8if
-EiegC6Cq6qd/1tEnnlc8EZauASIiOeY0rkFnF3yDBCtzO02v2aYe7gJpbsVdsIeaReaA+vjPO+BQ
-Fxxfo+/XELR70i70bhdE85iyXaCfmsCZ1tiX86iMCCOmIL1EW2LvbgcapZUtghjUTeT4zxXYOQse
-ywf6KFohpUXoXR4ZBmIx/E3JXbQdzoJvUDZprH/XX7I1Wj0YONjMWe+Ru2iS4lPNoxMreRRSYAF9
-OVbCaabKIoa8NT/vnRLQ1ymazdWUgIDQooPdoroon87l6LMLYhY91KD10z9HycBQKe4CNRXLgdBX
-r6cksk4EHl4LorpYjzXc+5O90wVQ35ZybcXX6BEWLOovhw6Cnd0ZDikuCnQuj4zY+mQXxIFV1AXy
-6o5Heh7++XqR3XK7CB1wqJkA1VQfpPL1ahdoZlfcBcvW6FMXxLlN6MC5PzwRkPRo0G1bPiQT9Uf1
-a/2GshYQRrM4DGOTVe1YBBe7if8A1r8xm/1zlJg1I78ahQCSMgNDNWwBLqmfjhaQYcdNApazr8b2
-0C46huouWOSWQZRDctLYRZTr8Cy4pFQ8zKID5Ur99G4XMGWNE6egCzbgC2ibalx0a/kUIKhEMSAD
-R0I8vcsiWHCbKF+OQ1BWZEpoh5JfcscgkEWwbDhEBMlH/fTwWnAEnY2au+hSTHIsjH7zXXciJ4wl
-NTcB0Njbxd5dDkD8lbMILBKoGdFTk2numEVQGDBskWLt7y4Q3kpPXsEg6GSMQGE05+FZvt11NVrY
-PJGOl3ZBprZ75CjANy8omZROhAUMQ6euREgqz31XF8QuUXsFmCR3oX+XA7ugXHXAXbTwAvCM5So7
-V6SwC5w70g1Nar9PWoAaKN8OBmYPckK+ZqkF+ByHdySZdlDKojTVYHT7dxZoJ5aq+fsWgUy7BTqV
-4KgJnTp3ZA3Oc8kxm07/TgEpENXb0aIAS5UZGsqX86qupzmoAP3UjTvdP09pWI9jU7KINj4CqLOh
-S+9y/XRtQQ1ME/XuJtvSuwAS3jHlOiwpJTD7QJX3AWTHIng6GEW6/339573Btv+SXfyFX/qnBWRE
-E/5D3fwRh8VLPSKv/cK+++H5z5vOh/HDHx9Eb0frF0UviPzsn70hf7YA3fUSD364X3L9Oc1/bxb4
-/KNbn7Vf1f4fL+IwD/L7iJHqotelec2rIKGF5N/z4C5IguetGT/f5I8Prfc88Av+h+Bi1pErylTK
-cnPmwaVtwTV8Wl3wLEiLoNi/ovgambmKeqpKHgXz+DHL07j11hLwqyw7m2d58JDt31K8tQTTq0tO
-0/C+jO9XZUt4jVFVFX4SziECycNDyRL5qCy5aTY6yh6PmLS8Su7a284YzXfQwjN2PX5ofZ94OCK7
-qPr+52GWT9uv3KAhVSW/Tr1y0K32O0d9/BBELQVsIHuqLzxm6Eyaxe0TyfWIj6gsOn2Ig44VkZAK
-ZclZ1VYL2d+jKvbjc9skoWHKghGwup9t93tamz0JulMV/SlbwbDQ3WaJ2VCV/TmI05b1oCT7HtfL
-5wBiriB9ONyOBoGp/spFEdzDNhaWZUunmw44ZfnxfRRPg3aPqSwIq4vmLiiysqXZTa1dXXZRxPxZ
-LOLWpks8w3tIz1Z5V7SojCqLztKyo9wNCEVV8lV4lzOnrb3bEvemLnodtO+tpkKqLrg6ugiSRRHF
-7Wsd+aL2+B7yL8O8CFuWCloSUdJ6D+Gfw01837rGEP4eN/pVWB39yPLZ/jXr+EAWoZTfG2ql6GgU
-5Bk3ZVtdyDoZ+0+Ujei/c7Vf1R9wEsy6Z59QkKyA6vt/ieL2jssktLLY2RyPpB3VNM0UyqLzcNpt
-46971lQFfw3TFNqOddAJE5ieIDLSquJvouwhPBoXz+42CSpWFf+fbPWKIja55Pf5gOeKKMS/gz94
-y+6HRRG2XIqmPKb66rfhph1VQsQlEquqcv8qg2gvRdgUAJwiU6kq9luYJ9xse0G1ZFkmVZYcE9l0
-1BuWR5FeVBX9PeDeYaJY+2hSaRI0QMrCw6I8+vbSy8t8mLL8t+YDKcZm35nHy8bsN6H+NmWf5dtv
-/VKm6Z8s3PP8054Y5KX/1k6uid+4n4dB/ud/AQAA//8=</cx:binary>
+                <cx:binary>1H3Zctw4Eu2vOPx8qQaIjZiYnohmbVrLsi1v/cIoSzIJEiRIghv49TdpSbbErm5rYnTjRtU4pkOq
+QjGBg8w8uQD69/Xwr2t9u6tfDbku7L+uh99fJ01T/uu33+x1cpvv7FGurmtjzbfm6Nrkv5lv39T1
+7W839a5XRfybjzD97TrZ1c3t8Po//4Zvi2/NubneNcoUb9vb2r27ta1u7D+8t/etV7ubXBVLZZta
+XTf499cfb+vcFM3rV7dFoxp35crb318/+dDrV7/Nv+ovj32lQbKmvYGxlB4hwXz4H3n9Spsivv+9
+J/wjzn0ueUDk9xd7eOh2l8PAZ0jyXY7dzU19ay3M5Pt/Hw18Ijb8/ur1q2vTFs20WjEs3O+vPxSq
+ub159b7ZNbf29StlzeLuAwszyf7h/ffJ/vZ0vf/z79kvYPqz3zyCZL5Wv3rrL4hsb7/WO5vtHlbn
+BSDBR8wXmAjB0feX/xQZKY8CjIQvZXD3/gyZ50i0H5qfI2fYbFcHic0fevd1l78gNMQ/EpxTnyN5
+t/QzpQn4UUARIT4CdL6/HrbFndI8Q6D9yPwYOAPmj/ODBGZr6iZ5tdjVRqviJfFhR4xIIhhBd8sv
+nqqOkEc4YCTg/F61+FN8ni/Xfpjm42dobRcHidYftRrNi8JEj3xJfD/AdC9MGGNwPpRJzu5wwk9h
+eoZA+/H5MXAGzB9/HiQwi51W30xdqJdUIXHkM8q5xPcmDtb+MS/AWB5xLMBBUbzPxD1Ppv3wPB47
+Q2jxx0Ei9Eed7Qq7A/LyUoSN0KNg8vwEs7vlD57iI/0jSiRmjO1nB8+RaD86P0fOsPnj3UFic3Vb
+FMBMb29fEBwG/h9cPwruF39G3YAfEEpAvx74A7x/tzHu+MGzRNqPzqOhM3iutgcJz1qbWt28oGXz
+gyMmGcM+kU9VJgCVCQShfkB+sLrHqDxDkv2Y/Bg4Q2R9mKztk7LXprCqeNi0LxDr0CMO8SUjwKgf
+vMljbxPII0F8QE3uh+ZZIu0H59HQGTyfTg5SYRYG7Nl1o67bl8wPQDAqGGaEsDvdmNEBSBMIEgCT
+82dR6DOl2Y/Nk8EzdBaHkSf451TGYzbw5JP/ZfqGyCOGCBOIQSTzWHEgSYBwQAih9A63WaQzS638
+vTz7AZoNfzKFw8jbLAz4l92NeTlbRoIjIGaMIervVRWMIDqlIiAcsgaP/ctzRNkPw8+RcyV5c5Am
+bHmrd/2ufklGBnqAAsF9ck+XZ75fsCPKA04JBlY9vWZm7DkS7cfm58gZNsvVQWKzuTV1/KKRJmSY
+KbgOKvFefQnIEaWUCIruyfRMbZ4h0H5kfgycAbM5zBjzDGxJe525B6Pyv7MyIqYMNPFBM556lYAd
++YEQiFJ+py304aF38ctzRNmPyc+RM1DOvhyktpzc7JIX9C1QpiGBhKT/Q9JlBgzGQKSBJAM0s5Dy
+l4Lsx+N+2AyMk+VhgqEhzWzUC2ZhKDrCgAUFb3+nCDM8IG7BNOCEBT/dzmOXf/IMif4GmB8j59gc
+ZlB5dTu8aHoMgz8nAQ3wfqcCvBhIsS/FVD+bXgDcY2B+Kc5+VO6HzSC5+nyY6lLcqN2L5vvlEaST
+pZAPQf6MhEFaDCLIAHF5H2TO3MrJrwXaD8uPgTNgTg4zJXaxq53eFTcPW/YFPD3ELJOrZzNEBD8S
+CEORRt5XaGbc6zmS7Ifk58gZJhcH6ltM/4I5SupDOwblTDyE7bDuT8J6AvE+Qhyj/WH9yS+k2Y/J
+3agZHicHyoZfut4SQHKYgrcA2vv9NUuAyQCYGaRaIAtz51Cg5PzYoZz9Up79mDyMm6Fy9v4gXcq5
+aZV9YaeCjiT0wSDO7+uQMxMmMRTKcABV5nuvM3MqzxJpPzaPhs7gOT9MpbmEUph1utu9aCkZSHIg
+oZJ8H74jNFMdIY4CEgSTZt2pzoyLPVeq/SA9HT3D6fIwcbrYqeIFk2OUQTlyarR4ZLseexsuj3zM
+MQWXdAfQTIV+Kc5+ZO6HzSC5OMy02KedTaAHtDEvWRUTRxRjSOsH4odPeYwL9tERY5A8Q/QuygHF
+euxznifTfnAej50h9OlQlcba3XXS2tumeckUgH8EbTCQnhT3pcm5dYMeJgTFGRLMGMHF7pny7Ado
+NnyG0cWBYqSuExXvXlKHoE8GsJEiuKcH8wwNg8Ilgph0ikyn16xAdvEMif4GoB8j59icHCR3u2tq
+XO4y0+we7Mz/HnlSsHGQqUEBvu8vn9E3MGyQyZm6BH/Su8c27rlS7cfo6egZTtvDjES3t/2ri9tB
+Xb9g3hm6zagPreiY3jfMzuJRjPgRRnBEAHB82Bt3pYDnSfM36DyayRybi4PUoQs19Zq9rAJNvWQS
+Q7PfPb+e+R9Jj7CEjibQoKfIPEuW/cA8GjrD5eIwM2rvTfv/phGdHEkEyTP/IQ0905tgCo2gsAmd
+znu9z/Pl2g/UfPwMrfeLA9UiaxX8K0v1sKX/d0c0nenwoUXgR6Vm5oiglANt6D4U1u7bOv5CFJ4l
+1H6cLqbpPMxoBtLF+4ME6U2iXtABQQ6BQjMzWLr79NtckQA9JKHO9jc04VfS7IflbtQMjzfHB4nH
+tMVMW7+kxkDKkwvoL7+PPtGsy3lqQRcC2pzYfU/NHo35lUT7cfk5lxk2F4fZ7zSRpONdXkIK4SWb
+nig54gGDvOhD0+ZMacTU1Ak9UVCPu8tpzxjCs8Xaj9Js+Ayq7YGqERy7fdGiKARAkBxgWEKD0/fX
+DCSMwPFQaFfnZJ52+7Uo+4G5eBg4g+Ti6iAt2/a2273kAQFopiWQVYN06M989JO0G+ZABeD4oLg/
+3vGXkOdX8uyH5WEeM1S2Hw8SlXcJHM5+dWJftlBNIZvmB3AS4N6lTH0bj7GZTBoGWKZTg99foE2P
+0wXPlWo/Qk9Hz3B6d3KQOL3JNLSovejpaOhvDqDhnN93cczrPRLaCiFXgJC4T2sD036M0XMk2o/P
+z5EzbN6cHSQ2kwc9va3trXtYof89zpla1iBPA2dt7jujZqxNQAchBEFwl8WdAsmZ13meTPvxeTx2
+htD29CAR+uQM3MwRvyA8PpwekHDjxt+c64QbH6Dmg8E7oXvv9PDsu3zbMwTaj82PgTNgPn05SGCm
+rfbF1NnD6ryA4gAyRPp0utZhH1GDIwSQHoATOA+n2WfhznMk2g/Nz5EzbLaHic2b+jZ+0TopZNng
+Mgfos71vRweH8pgU3NVJIclGZkzt14LsB+Rh3AyON+8OUlXukoQvXtiBkgEBXYAI886RzO7gmAo7
+PkGQuuYzD/NcefZj83T0DKH3y4NE6EOzS17OkE3xDRSsIfC/J2gzBvD92g0BHVM+n5mwX8mxH5G7
+UTMkPhxmrPlRweGnF+2Omg7ZQIctmuoAe91KcMShNSqgD8cJZyfTniPRflx+jpxh8/GPg9SST7e2
+efVzUnchxf/u9+E8J1z1BK24D4R5VmCDGg6H0ihw6ntCPQs5ny3WfpRmw2dQffr/lBz4+5vUftwy
+t9w1u9X36+keXab2z+9+XwG4M2829D463AvlHconN7+/xpIBMj9uvZu+40lY+fPekvmY251tfn/t
+TRUeCjcNAYmgkGSQCKxfD3sK3oIiKsdwCR73qYAbVdgUFBXT5VW/vyYcolkufeiNQz7c6iFAPyHR
+/v0tAoev4aIpGcCJLBnAGccftwJeGu2AA/1YjvufXxVtfmlU0djfX0Mt4/Wr8u5z0/wY1BDhH0FM
+YCiFgKQgRHm9ewfxB3wc/59KVT4t/ZaeMB0Ei5Z53bYumm4zRslwquOKHY+eSd3C9L27YcaKc5bR
+Kg6BGfXvjGlR2NrS22mh0UXGqNyORUSueJqqOOQlL5axpWKb6M6+c2mnrnLL9CZrO3WSxxz/acoo
+WOlUpKeBz1eNs9XXzqbp8eAFtQpV2g91aNtyvEZl5i1UFHN/EQ2Z/762KjuVhS7OIkH0piU2JENT
+XBjmq4XUUb700jw5xZ3tTwqV5/ki9zhZ+l4sTvOqLXUY6eGNKQO9KXUgz52NuzQUfPDfDl4rt0Jl
+6AI7hS4ccV4XdoZUa7i5SG+w8ePPWCq5xV52iQfeXkQ+vhqRM0vMozYsKiq9EFUl+UacS8I+d3wR
+4K7wF3VeN5fSYRriVJAVoWywYa1Vu2EalTd9Dw8hNcnCStV6U7Qm+1DRlFfhoGm6KfMhPZa2aZY9
+7fMlEg4vGuy3n0ygojdNm/RvG6PGa+l697moW/I2zgJ3TFxabzlJh7dQi1QL5PtqXUWsPUMDr77m
+pB2WXRGLddnpbiNwBtOIhyGkWaGPu6L3wyqj7Y0nSahq5hZElmd+EZ/QyBtWrdIozJAplpZFF3lW
+5ide4J3oTGTLuDLjJ9rV1aaqOvYtlqkJbdqos4bTfgO3dkQnfp7kl3gUo7+WXpqdJs5G3oqMaXtW
+Upd+jJ2SX0TF81WqeHkalbx/X3Z9dSUjqi5GxNFFb9HQhW1N1KeoofY8bZF+Tw0tNzmcEJZhXxl0
+zAYt0jDThLwdnVAXcUzHtRNC69ArA/GuUCXuwqKpArgwk3TnvFfoUtawV0zc8GiRjlRft8NQbiPO
+9bEbWnLGm1Jv8pKrL20g1OeqTPC2iEv2Ng/0eDwkbtgiryNnfs/Mcd2a+E1Djb1KRyIXQ271Se61
+J2UR9VEoCxZs/ar0vxRAbS+qmGYnCuvyOE01zcM8s3rd04S90WV/5ic9he1Y1ccealZtEgPRawPk
+QjdkeOWXkdhVpL9l1ZCfxK7swtzl7MRUEV2LoAyWThT+R0Kza9eTMl54MfW/iKC4Mh0ZP1pbus2I
+CvTWJJwX4ZBE3inzLEpCCJfQNukww4ve49XORnV6KeKs0iHEt/JaRUGyKToYFI9KfwgUyhcd8eoV
+6rL8LI0BxJ4QdcJbzZcB1fl7QWzzFc6mdnXYZPgK+mBPYr/np6avNkUR8MXIRV6ESqfZW4Kxfsci
+fcxd35zyaCxOaJabpS3bLGzBWH5pjFQnguXR2ilSLYVthjAqhvRdaRG9HYfKLEiWJosxcVmYliz7
+LJA3fBBF6b0t/dwsAFCBwjrJ/GXFcXnp1cO617w6q+ouSBdSrlmT5pvI9ugCWs/1ptJvuyjqPntR
+b5YZJ/htimJyXMCJDrvQPeq2Berqa9I4kISiZY8GsTG4H1adxq23SuD6k8+NcFUZlmjUKuyFM6ti
+dPGb0Zps4w3NqELnmFjU3cDlIvB6E8aRW7XFaG04mrYNllJ2H+LR0TTUmSyXuo4rMHNW6VC3+Xhm
+vKG6cEWEVhh7n1M/q4MwjkeyUlqKECwAWsi64AvtqU9Z0KMTjSxaGZRWoZ9m5qvmyXgWmUS+ZXnA
+T6xlQx6Osde8VY2XLYUoFqwo7Y6nYtikiAWXyPK8WZQ5QdsuMGgRRPmoQz/QfJUTIz9K8BrbkSbJ
+pzqg6jwfuz/l2PBj8IjjwqW229qYKthKfXpuU14sGufJ87yl9WWTRtVFivrqoxcpvbVZXq4MtvEa
+SxMvRz8pV8xW5FPW5/4xb2CWdRSYdTKk/u0o4vaiZ7LcUVJNzqUd6eck1+pD4+NOh1xlck1SGW/a
+MclWxsX9wsNRcomxAiMuKQu7uBreoxaWvkjYuHSuKVd28IMzuIiApctBm+QNEWkPGw33C+lRVgGy
+7bhxMWk3hRqak0yO5QfdRhuFy3SVuWi8zDpCV2XXoTJ0DRrTResVNGTxsOaV6ba4i/1TiePsz77y
+s2Xv8yDsMLhbBSp+ZiO/PBY4GEyYVbX8knGulnnRo886qqNjsEzJSdT4S+dzdjm2qXddUoFOyybw
+1nks7BusCn3CqBetOY3tW+364EPcB9Eaowq9TzqF4HEi8hbOeXxNElFva1d9LezortHYgvlv62a0
+oR5ovBlIj5cjCUjoW++MFcjvmrCo1VCFrelZ7oW4aJECi6bQW0jn1+D70zS+ahkQkTBtK+0WBZHN
+2yqu9LFJQKXDoRRZFo627otQREH1TdZldtLpxA/p0Hvnys9XLijyy64rsuOGtV9YzeIQbG2VhEHb
+t1+zhn9hKtmhqP0m9PglMMO7Ao/5whv7Ep5X5Sd1IdyqrtSVX8XlaZkIcdWVmf8xS/vimkg+fKoj
+GNgV3IOtrlxTZ6dlDLNoT8vKVl2z0XyoRn4BVKuIeTj6GWIr5ZuGrrhRyfkA0cCy7Yc2uKyayvHP
+lkffWuVIcKy7HoDzXOKXa68bu0Vk0KZ1wHo2eVKaC1VWnvlSggEF7iW7JR6ibF1lLs5PAy+rl7ZP
+/SWQvOwMx644hX4N8YU5Vv2JRBSnl9GQ6DORMFxftcmYRBs9ZnosFoPtR2PDuGHpTZAM1vvAqmhg
+K5x0UREaT2XmpBKKLAsPuU0tTbHuuP1kRdyH9RDrJXKAZBPTT4Pn98dclWLh8qbdwieHtdQC6KRO
+TlVNz1vpB3GIPMPCLAYv44nOOwYu8qEYE71KuC9OwYN47xNPxeeD0HgRF9htuySutjWgeTo2fdgk
+qt/RTLrTWnIvtNRrN7gYXFi0E90io9+GUKGoz5Q6yaJ1JrhbdiZqjgNN6CKrArWxUF5auIi+zcfE
+LtPKi09GGjcnbRRFp3Xuq9MGxecca71AApfnScSbpYtF9WdLuF4EA3MbVXVqnTZWrrwYRataabPq
+I1oOoUkycGRRaRcMYD5uUemHjfbzDUMR+kbbCGh0mZVqUCE0V+IbHhQ8+GRRWwh73VJRZexDVFFg
+HAtVaZXr8PEd1U/Y/7UpXa3i5P5a8B8//ufK5PDv+6XVP3853Sr+8yfoTr+7jvwfPwUXnUzFATv/
+0BTE/fiun9djT5HTj7uyZ6HY3QXmfxOn/eObzwzi4EDrPwZx+vEl29/Dvu8j7kM4SKQcSeEHcNgM
+uvrh3hIoD9+FcHBGAxrNIUSXcMm59CWHHPF9BAc1Y0LBgFFB4VJguOQM4r77CI7BW3C1A7xLpgto
+IL77byK4Kd38KICbxME+ZhTOUkHTFJRA4UGPA7hAdC7PW2A4CRrL9JvOx4gA1eh9r2qWTZP67mOq
+4Wr2tXVE5wtrHWPXQ6TL4hwbZip/XXo0j8B7BJ7JwkJGKAK7qbNk+FCj3INNW9OSjzxU0RB3HnC6
+rqLdgujWjWSp0tb6b7AQpajDGJVe/yFp2mgy7G3cBEvqpPKrcGyBGWyIjVXFwkGlTNbAkCDKi9ZF
+l9pSLZxNosJbPALyfsc/jm8xAP1kdaAoSeCcGbTwcQa3Y85Xx1iOTWNHdlvavpM6BJeX6CysgbFm
+FzJmEh45gAvMv1W8Vu5qOq0LovlJW8N8CtzHw4d/Fsn/i0iQvMaQ+oGQH26TAD7/FDCR+kNubB3f
+gA9n2UVJVZydjrStrNokHld9FubgtTHEK0kZtGGWDmUmwhSVJtuZwbqqCgUE6umpRh0Q89UYxWO7
+HPUAUKyaZkzGj0nNp+iMj1nFt+OYYfhYLqkFPoJi2wp5Z1rubr/fs85TluBnFgEIAywyBPfQLg5N
+R9D8NWUZHmURoiQblJfp4hb1nuPvWaE88y7XkRkv/3n1QKNmD4K+Jkrh9ma4gS6A5z19kNN5JUc+
+RDfTXaiYrEodZRSFPoJr9AegXvRNbw0jSeg40x6wUByL7l2mWJF++2dJIAUzlwSyKQRh6EsQkMaZ
+JU4wiR2SQ8pvOhvUfMtKlzZNWOcepPVOY8tHxv/bRYarLIPpvkQBBVtYhdncPRx7wmhBrnVb1cYt
+K1d6XRZ2wRi5/hfPmjbhU0DBcMGFQAQ2PBzBEDNAfSCF4KmYfzPg2Cp66zstEmCSZQv7LjbVtMTa
+8baVq39e1r/sJOj9hHwZ/POhYQAKcE8BJrW2tUwzez0g2QZjmAoddO8i31Owuv/8KPxXCCWGwmvA
+mQ87CvoVnz4rNQZnfefnN1ZTlotjJaPig/YbsFGLRsRRXL4Z5Bih/NwoCJHQinVJNn5MrShLEkLk
+EA1RiNIol2/TlMMtsIsEkjz6POviGvIubU9pXh//s9B/AYYFUMWHq/4AHYShOvlUZiyzwB98VFwX
+wEFBitqTWfqtw85jn43JuSHLKO9ME/1qsf4KjARUILiAuzumswezB0ceRkNZM+/ryDzsjwspmGrt
+AlIKSY0WmGjf6mNQk0zsXKLjwSyruq5lCXm3we+uVD72dREmwTA2X4HdpRBrFdx3Zyx31AbLX6xS
+MMcWBBTsu5rI6QrRObYs7ss6b2vzNQmUD6qYBq4ZLy0fathUo0Ox6zbSlpZvPRIp0CZbUArOoODO
+gbGUGY3dNWzAPP3G7VShB/dHs7GH0Iua9NudAaZRCdYF2F4MfD6WMmoWXS4y2Kkd/MUWQKeoGw5u
+uCC4A0SSPJpMtGeTBB7ou0EHb6OkbIYvo5soRFgNYwRr4acpASOPRsWrdO3TioF+V0mvhsuS0zS/
+5X2LFQ5JE9nxEtRfss+FKmBr1qNJQUYILWXRTrEW/pxZU6bFquWDHj+ODRHdFaTkePfOpvCbPkyK
+FCxImCTcAGZ+MvTw6JwkKnOLlJQeKHoUwHeQEHICaRKvXVLwgoVT1AGf5FhF8BHFhc35hnVD0rxt
+epGDM3PVkIIJtjVNY7dKYwmP9lQv4eMj6aeneZCf4lsiM1V9AX7OuuOIdpW60LQI3KbHdijOkspz
+7Wk7tAPspSGIJsunOoXdWdDZBJwliprJZ1ZB5IO2lUHVWH9haFFm2fH9BFjaJDDVAtr9ebpEKPJg
+QRkqYPvZIZ6MmM4hGZSvKhtx+I8SpcvThS2ztH74jgqisHpFVASR5AK2nOmHkCQjgzVoiXLw6KFM
+wDg6YmBO8d2q0izrYeVYULbwgb5vkuy00HXr6QVO5PRE4glgba6MOCxL6UQF0wNDP20XIxvwWiQz
+BWyaNOJp/q5omBFinRK4wp2HJUt90KmukBJ2TezXGjAjA4IvhEZTHIl1EzdZQE49Oih3XeVDB2to
+hi6F50O3VoCj94GGWzDS5SjaQPcnES+6TC3iEU6lB8sUDwTecxzYIkwilSUfLioSQbZ4Zbx6wl34
+HViBVT2SDiZj/GjavzWpKPwUB6Qi3am0HYVvMc5QUIU2ha6LFJBvBPiuGgJkEMnB7OGXfZtOslCZ
+wNUCCy4EqKALqgx2ChnhroHjDv6iEIiX5iqYeFvUoUxtLQ1g/6uWwg8LSZwAsVIqpzWuuhxWsB36
+FpZzDMS05zRQQHqcNgOF9YkRn7boRK27qzIo4P8rHGhQYAEhHt8CdRyBZdBegZ672o2T8UgyIGJp
+RepJpamcvrSG8wyABLPAG4uwKTHprqCC4MMqJEaU1h13A7JpftHp6XT+qqptDfKNwMWmXU2Uqptl
+CbkhzI6HQLOhXqboSiZMTfE+3CEzWaZEJ+m45shbQxogLsm6gRwApBVhb+tkGUP+aLxkzg2w/QML
+5RS6knmvXQFEoTd8C+3HHQSoCWo05Px4lBL1xuBERZC7SdsJ4UJ1DuG1D7rceSfKIq1cONRVY+xi
+0NZ6/VkWWQEyRp4FbCoaKMPgkhpcwGQKiG9j817mkGkutvAHr+QQLDhStNcrMMRgblYNiVNXLeKy
+NVKGLfB2SN1HPm+S44ikLYuhrpSBmeXXY888mkzG1sGcZTpkIyTh6mRIkvg8M0mLxbYZpJ02j0on
+kyKaHhKpa8ioTfsStYOFPRQRVWXxmRnNCO9VftfWeDsyAqbSVgWs0jLPAA/IcyMPt9XW9twHk5sW
+VQsoFRjq5wlkAvMevktWaLKC7ZSDAaujyqjp1qgpe/gkhDBQ7gmbOprsUoa6fHgrm3RihAltYzBP
+JR04rF+TeGAdOlhF0AXsNxY2VFfVxJkpM1g5dha4GHZ6oO0IgidQi4JHU6wHkB/MJbijzpUCvHwe
+sRI0DxLpk5NtmraC7ThwpowHTrl2YB9ckHj0zYBcXcYhmChGj8uqKWBKgalNHY65P1Es5PWZu86D
+CqKR+zgErP60OL2pIGG7yWqwqnIVJ2lPvJM2Hce6DIOAxMsq6otoRVEbVe+jaoDJKwPO36061wuQ
+GHKhHqySyRMBip22I9Dp40C10wreb+tc9dN7jhoCG3dUw0ScOWStYVbWg1LKR+zBroRimahl3YfA
+RGME+unFCjSXBhETOOwTLMqtr8DsLq3M6sYLxYgd/9Mrel2/R/mgr6TvyxT2EGT5qlNelF225qZr
+y+syBx9zVse5Ry8ikJTAFeKlqv5UYHNHyCMVRt/QVI/1u9zwHP5u24h1/2aUHuQ+e0835qwkrC+L
+MEgLycpFRQm17brvWQDF1CqJIDfLc5Tjc6LBra6ioOnwogKMajDyQ1CNKXjhrqbDIh6ybqL0Y907
+KKsIp6GCVdaea75IH7f0PdeNo/EirWg2eKHUvotMWEqYfwT7NIJcVpOAJ9MLMep+HJdS6RHV68gf
+e3M2gHK0IW+yix4u1CnXnRQxWUJWdhiv4tRPDDg+3ohT61wbhIRCXnwBtUppXMjjxsqlZ3yRQmpM
++PUiZjo+hkssmiUU2HooEcgCoQ3uceKvo3LARRM2kGxViyQizLssM5PTD62t6tRsUClcWa2kQcNw
+NTQDaS482xTeO+pRO35sCtjVIas5rz+MoosLE+qGi7rcQAYuHocQdaLkSzmMOttEqkmH9WhokJtQ
+Zob4yULUo62CrzhPg+IG0qqmG6A+07jqVqaMtO2iFaURoU8sa9CmiYqKBcsWMraab6Lcy/hWYuFl
+2abjJdDa5DYJCtJIvDBB1vpQH2WNG/mKk4Z48bb2YTLp5T37Rk5HHL/r49xAdrU3anKoUAzJS/ah
+d6ws6bKM+jrqgE+hGDiK6wQDNhZBVaNc14ObuGbh1SkwqJoM3eRWJBgSUO4qmOhjDQ4c1CGhfLJw
+OTQSgClRnotwtE6d7mOotRBb9sHZWMUeUFKWVB24HpbkKXiZpmCxDxUJIeA71y0zE/vjNpsiB5Hi
+EaR1tMu13LRVrvhnVlj4uw0bXHoikxuo+0CuoWwrBmaSWQvMPsg8WKUNtLsAC+4RcDdvARXoEmxZ
+GqjJaUReP1XICNT+0arDBR/JMZxv1kCJCh8OMnkneZsjmCjwkgDyTYzl9WQQc+2Dj+7hXABQk97J
+BhaoLMTkOYOqH0DSOk4EPLsVozDj+w7qLfCeieQAX4ZSE4EuWWagV2BjZTrZyYwKDR/xUyxBogKS
+tbjeyVpOfFVGHVgbv2lr/rXvq8KsuZ+K4jw2aQdusSnLiUsVpZgoSyKbaY2gZskb/K31rMvkste4
+a3UI/hDyBqEoowHWVqKawfKDDXcTRfqe7uE2n7zUvQej0FLQXWUGTRkLLqHnoQgxiTxYyDKmqTQb
+p3IIOnTrwcKCmUknCVrrJbB9HlZirECFwrYkIzBSUSTwjSZveE6XGS5coEMgRNNWVAh4wDuWDxH7
+rGsoK53ewQgOE+OPEP61zVUAhQCYMUkLDBi1thO4htp21vXJ5dinKJJfukywNDtOSh7n/Qmcs+X/
+l71vaa5TV9v8Lz2nCiSB0KAnwLrZy3fHiT2h4lwQIG4SCMGv7wcn53yJcyq7Tk+7J9nlvbO9FiC9
+et/nhn1cOQxnMgnWfgOftIbKQ556v92aCn+sSrTgM1m2QT6OBiyWBnhd4NJy9jUfM1YTdCkFybdu
+3na91uHR7wtj49t1lKQrz1HOfXyfZWXbPqBU+7hUW6PJfFSGbVtkaIYN8GqrAX8ht2xr1AKF0bgc
+gm2B0XyC4OUwEK7QZxc/TldpbYFDEwQVGtWU0h5dYET11m+O0bYec5BU6Kx93IHqe77yFj/g329/
+G12JXm9nFXMcl4HE9yKpBEeG71JHU7E187Tfvu2P7VGPIZ6LmuYOD1UbFL7mTB21xYuN56LUxzDg
+IC7SZsBaUGm5oCeo9kyzbe2qloj2qpmDwo5ZoUwcTBf4BeBUMzV3C57t5NkGn9WuGpfg97bcwIpg
+a62F7TDyFVyU+rPVU0mbxNRTP6K4LDOjZzYHY90meUiwzhqfbEMgOHJMbH7gtgdimEB7icETz3lc
+wnW5pDPB/BRxsTh7cIQO9WcrA4ebkv/ofEzhW/QapotBHh1KJ2o0Bj8n4nhtBRoDVxQ+pq+2GCh+
+KjCz6N3ieZ77Qu00rLcQUPh+SmUvMY5YqQvjHeOop9NjtCo6eak3B7j/nhTb0M2jeOvCtAu2IZ8L
+vTXyRd9hfeQmL/DUxgaAbpe52FtFWmoL5nrPRditT7jrW8VdgwEzL3ivvp3NNj9gOUUhPh7QXr5u
+pbJHTY6OPQ/dKHctd1j6xyAOJEaVOkYf9WPrtVZtrZXyGtE2yTJ0ygzZaK3ZFkY7b/iRl9NlW5Lc
+j+f2xmfOtQNuyLpN3KHwRtzIOeDbFse0XPRXUVQzNK/LXBWHXLZuuoscX80pnlygjrEhmClwsHkM
+/QGkUBalM1J1h18j2KhRq6qh3TpR0hJU8XT+MTW6GiymPA2VDVCk0PBPUWqAXBG1E4XdpsAfg4XK
+1+1Ld6ublyLFLlvKPhnjFRMvgzoCCx1Dko/VP8sWhNyuDKbtq0P9VlEFThE1f9x5rmX1Fe8BjuAv
+rgtW1ELqrWCNeIyeTF1tyrJNIq80K5gBSdv6M+3cNqEvPyqHcGZrdJug3lbl31Gj/4AZIWtT4H1A
+kN7BD/MODwSHHs+5UPOry8dtzrTSUzLMPLYMSkCGpnG9//CR71E1wFSQioRsg/O2+HvyO5y39NC5
++GM0vobRvLE3P5aGir0N2f371f35UZABoMelG2EEauodskpk0a8W6MRryfKtPnV4c4VFU4hijdr1
+9896QwN/xY+RPQKYmiL/F4L9P1kp4wdGzaqmr442EwaZSTZ4JUAajkxiG0rdBDgL16hD0ZhaBs1G
+Mlk1xCrtR4K5GyjExmwIjLxb7flRmX9yH60uthGh5aHBmcCjYcZPf//6f9yqzY+DxhakOcZx5HP8
+/lSczpuxmHmIVx0HDt8DB9Q2FuJwxQj194/6Y80h7gAxO2EEJogg1v3dU0EbVZIWDdRnIWM6Lcd8
+iav5CZK4bYtEOZQY/7Tk3lMoW+QSdPoEKX9A2JFh+vvF6cHQuAB+/7ln0I2taEKw2W6nEpX9viBi
+O7NygX4fzcSCn78pwn19g2oHFdnfr/39bd5eDR1uXAZo0k2J+u6bzO3o7CwK+gJMAqPjIiVQqrjl
+2zj/9096f5fxCmofV0t9jk8DOPYOvK7RGIJxr4KXqe14fQXl3jaalxUmtaOVZOsa//6BMKL8xp8Q
+vGAUsDNI3hAMH+Cj32/yWMUrismiX3QLnkjuNM23MoeiuOC55npQLkgQW7dIkfI6lDgZ//4F2B83
+N9qy6BEdDJ0/vJf0fWVhhVRBz9uXQfpL0e7AZa31DqiHFNXhR9titdxaY9jWt/r9ExT3wnGDvJpo
+bHEuzD9uTlOFG8QD6H/BLu6YoJgWVhW3OBJMPXexyWI6evGclEE9olrzOdwOS7tMne0ymfvY+Ani
+pDb8deQTwKNg1m4u0b4BotvFaObJeCpBLcdr1tXe1lsZKIFRLDxNOKYYA00EnlnUl+htuKHbEd/3
+usfX4j8AeoPWHlWzrsnWNFXx+NbxkWBrlvOqqVBJfFPMuP9xUWkgk8Q6u4EsbQ1Y9u+3/48Fxxlh
+PsK2Y0EgTXy/tCdMFtLz1+W5kwNFz1r04zYCQee2dQA/Ieu/f+S2W34tuVupxeshwdHE0ALwTXHw
+KwcLomwZBxPPzwLCajzBqRRRfRXGnNTeNTR9+AYJU2LCEOWCfGsKPdVs3+bvX+P9lVMa4RWUCG8T
+uGwQ7+8O0TYa2hnPUj7XHeDPixKK5+YDqWeiz8SMiPr6t9r+9sfV/crvv1/kkMCHnAIpirb3MrDw
+3SKPAr8oZW/Mix36an0KK74ti6qCOqb9h+si77Y0fjve9YRc1IiDeaOwmv9+f4vZ+Uq1lnxozejH
+WQ74ciz2BWBUTLpQquN0SEB4N/gHB2CDdenwQuknDGshJJc9YF1AMBh5Nv6+n6lCHxqsbGvUywIT
+iuQoAl9kV8kN1nLeBgPE46YdO9k42mDiugE78mi9gOLivDrEWVQU3sYUBbbZ6jUGgtoNJ89DHVX7
+tvMLhsi7/+J+4x4IjHBQiIOBhDHy/T0Iw2IUTTS5D1NTbSdz3oGqqBPIUjE5//2j6Lv1vD1TFK8I
+ggu4MFFH363nueuBqQYsf4xZ9/ZZUwjotLbD1upPKPUoQT+4dwWRDu5C69oNJf35k7bThhB4s4+b
+GzK+4ZmYBXtUOtKYHIiCV1eTt54NtmoEBqtv6vmw0AkD065uc4zH5YqiZvc/iT+wRRuJ5KmKYO+s
+sb/iv9mu2R74Glb4FO+NHec/oAkbAAEdMy+U25OsAnQtc8ItCn+XjbrcgOWfFBp2JNZuBc4D516e
+A+WgyRI0MyCQv9/S+Pftwjn8JBzvj4dgCVEjCJB9t4QHXIGN/T7/oizlnyrdhmRPQI8eozruGTB+
+Oe4L5sTlEpcqz3qWt8eG1OrJFqUPfXw8tSBNC5oIb4lNEslx+JBjfjW3yhkrUxlbcixFddeAavti
+e2b6JNKeXFJwOdGNDfPuUvqlucKJJFdM69LWmWcq+nEFj2wvcj1XYdIr4bMMqGH95K3eiOFAOTmn
+RuhbhlOp3jPl0Su+aJuN/TLswImrJwkO/0IpApag6kfAeR00wBXsEeoFqonwcnGFVybTOvhBRnvN
+HwnO58+97IIwyXUkAWEUxhxI1baPM6fTU0mphA7K91ibecDtnutJmK/K6/VDxPDqX2BT07FyU7UH
+TbBARgq+yKVuFqWXTKyxF6rtduMsLAAbWVUfJ7w5Hqh5PtXZOOvuER4HQGIs8CTQPo+l8DLcsXHx
+X8kympeAr+yDnMIplS5qLmtuyh0rlxKZFH/bz78XaywI0MooZngFJzh9NArvFkQH+IcPYdF+xfNy
+t4Lkbb2LVDdWeGx+9OHvH/b7hv7xYRxCue2YRw/3viPJV4bWTov2a+TzBhoh5z8GLfDVpGnqK8vo
+hPmv6Jo7UIS8/od+7I+V/3aZ0OqAskERfy+bmEIjuprp5uvQwuuRUNXXbt/QAMK3v1/k22/6n2P4
+7SoR57e99uQtQPP9EOlIUxMLrczXYO6wZyjBcZF0GHjKDEJcWE1Ik9+XsLn0ia9CCPap7Ut1sGUY
+QUA+QvYFsV50oyMtLlpv4B9w3hr0SZMan5oGzQsZ26ZPyBiwO99W7fdmovEZJgZ+Z8lCPooKc2oS
+dIHfp0Vd3NBGYB17vImA3tTg4oJZAFjTYvlabVLTapj0PihC/7PvRpqueH7/0Au9E+HhlmxtANog
+3Bc4mpB1+PvJGXjcOBYv61c2bTdfllQeaFepo1vd5zYQ6pl6wmUTKUB6DNqLjqxdwjb7+5MJt4/5
+7cnwTazJoAdBeCmO8XcHSlDnDegDyb8WE4gDwGm6TlwccpHBLLGOmWWNO/JmdFNSen0Dtqdrjh1w
+qyvbR9CxK154N2tQsCNdFwBnOhcvTQk8PdW1d1UuLT/DK3ZoaUMfgYGqm87DQ0siEGNLuo4OtEvV
+mTzlveD3aBttB1NP+X2JqvKa8r481ECKj2XR9TdNOKox63IzvS5KTh/8kNR3XhvjgIhcMO8pGecp
+oZAAP85KyCqVg48LkC4QiR0LUAC8GuB14TgTH1joxedSLuxjAFQ7T0A6hO4flv12797fW9ip0ING
+mGbxLrnfH/EESBjPnedfh5KF195Aq6e+hPstq4fWvw5mzBL/8InB78JXrCpEcG+qW+iRYCiAXO33
+jwx8onSDo/Nb1VfsArCZ1yT5tHiXACqrPYiIEZU+LPTXnvrqqSzceC5L4d95VtD935dW9OfSQquJ
+8okYKQ4l7nsxoJ6b0MQFcnoLB4IBc3uXv3R6lTYbmiVMBp/UQDiaLlfJGAIrzCoZhUcJOWwGnESI
+FIRnIzPdRfxTOSq7Qb+A0FvPyKs6Ks1xoNRdRzB7nYqQFyzpuCBzYpaASCCcfjMlOoi7NG7WsD94
+uC37qh69KxEFFn9h5t45MnK5XdyM46wKy35fzDi90y4o63MDmhcdJW1skahBtZCUzBU4XJCeT6HF
+aIpexDyMxLUn+GWoTjSHXAYrEXRRGgH1u6WibEG5QlEHGbwDrzRGShWpgfbhau4FDDNd2UfQ1cak
+C04Qp8z64EcF+Tjqrvw0tfP4nZWkBNRjq/yfgK8/688W1g7RHKRrsBL8getRAia0dnP9LY6ADyRi
+FtUrVB4LWEM8MsxU/OtqpvwUtd7rYuH4gHrU9s3/xYKNNwkyjj4Y84EN/L5goZQyjVm5+pY30TJl
+bw8kWiepzqWKxr2/WvE46HbaL5HMd73I3bOMte2xTtbg8e8r9h1A97Z7YhiL8f7TkEBr+V6xuzbT
+bDtXV98K7kcP8LuZe6I8L4NrorzEuThdT2oYL3rWNiflaHA1wqUAiF2N7rbkMoYguZ3tufQm+h3K
++SFM4qGsH/7hW/7RMvAIetcQWxyaaQyV726ZbfKlEQObvgH1HooP6CxCkwJJXJLJwF5HIluDUzJr
+FGexDrvvcvU5vELwRM0HyjvzFApVnH0+1x+IZhMYEpwCe11phdtdVDxlA+jeHw/6pz3951T6w2X9
+q9PhV+PD/5s+i206/uUB/+GW/58Xsf7ilv/xP/3LLh/AagEgNBR8C0ZGu/rTLA8fPXQcEH5jIQDN
+Ap34b6sFokfQWby96JeCTsBw82+rBXz0OO6RsAQwP4igLYn+G6tF8HsTCZAeoDDQFbwLFY6v4I8+
+Bqm0EvBCXlzYIB8lmMKA34GNW/cUUCaMQVxcWP+18mZ36gfG5qTqYnFvOzseUTHtgQ7BcPDHEpTW
+L7fxP8AgaKJ/O3+3r4aLQwKeTyK8OxTn0O+1xZlwCWsAQyduw767EaL2b+I1mvAdvDyE2GbqHsoA
+8opdCdHJWFAB47PFXnJiyr/GbRvcGXTPg95Bg9jwj2sPYcMihxlYhDTBcyPlGMHUYft1v9rIizMF
+8aF/A0o/Nl6GucyLj3OdrxlkeO0oM0hkIFHJOsZr/UEutjh2zgMGl4pQDfdxbhQYI8B4DZCMVlzE
+egogH1yqndOogvEk9bQToP5v1yCaPogOhv1ZD43dNC+qSCbUg1cYm/17lqOVTCzTfZWWsoMPOkZ7
+E+xtTqS6GGmn6j10bXB6VxNld+1gsnou5n2r8yeXF95Bl6u+GIoqOExIEfhS+lLfiCZ0GQhBOOq6
+i76LzCOHe/M2EG45cDONl3ku7YXzrJeVfB10okQVXUP4s5zbQu69sqrR505Bd+8x8ezTyiSgtLou
+g/VOfoJKsueJP4XzlQfm+W6dauFSDmh4N5fWnQu+wmVaqBu9TPA/rqLlkNtGQbGH1oK9atNUieil
+SRwwoDUFFlJG935c9/e2bGna5HFzG9qVS7h0dFBf0VYZ+qEqtExc4JU36zrs2JKT/QCy63HxfQc/
+K21PLurDg1JNu+85lKppoKMpNUDWd2vLg6Ojeb/j0D0ldPWHnfP77sTgzEsDkPl3uOvDZRzVeg8k
+0r8oEBgI12oUX8jAV0WWt7761I+Beew4KOYB1GaY1pPXP8D3sl7TlrgztTiJYdCJ9gwoyK4ZcPUa
+DtJULVbvSNmNUYL7zvYrIBaAaHUvP9dY9hiytINiH+rGFQDvvc/tfI3UNXsZzmbaKVaKAxvgNBy9
+tU3IXFJc0Ejv5djo/eSvJCl0KbGkdcPz/QzuCf36wKB9wS9JPac8SKDFtAvFHHwmBfrqplqWb7CK
+5lfAMFgWO6ePDLqBOQX1HT0bsqw6zbkMTsRGlc66mS5wno+8XQ62IwRJE1BdxAkZGk7SUAyqS8BM
+LpkqVLHJcXLvEdEQaFYYBGYn6FkCtLVhF+4c7uPJ8lVjbA6UPBd11F4CHsHdg8NwTZmtdrBQy71a
+SFgBssnZF8gXZ+jX1awfYXhtz0IJgdu3DoCHwyrfQ+OXozUrt90l44ElhWK5hfhJUZWRUcx3vPXL
+8MDrLjrVo/4g5Ly+cru6XT4bdgKo30EBvogm6wOvu0YlnJ+tXGKd9HG0+HBdrW2Q1aWuRVrM7bwk
+MEDxlzbnYsrCQbsq6RB6Yq+hkmInF0CsljQYMyogm+CdzkvHR5KIxdpTV0RdiLAJNTRplcfqJuy6
+SCe2LMgNIKD5LtI2gDW+ldYlS2vUDcPGOMwEIAzUWLbz9toEvc16vYLaRzm4bKSA937KVfOUj+1w
+X0507HZOEXqVD/NwhpGuMxmng39Tgul+5AC2VRZMJct8RBWcI6xRsdPBIi/sGuqrmUh5WxL0HH0T
+tI9xOMLPukxN1vRzvUN5RvENTV1/qYrRQ7wBg3Qf3beObg1wW+9TTwEVpm4YxD2hc1zuoHpBy1/0
+wAT2zG/EN8ith4ulCebnIpYqtUtg74PRDkfX9dnqRR6seFMnjz6BcikZB8kupbDVns9WP4S0g+Aw
+DyJ5F2BY/9jZprzni2uCo9GmuGWM9T2Ym7GGTopL89ItPjQMDFhNeNBLpXZ5NNWf5SCGIAkDZ6/G
+GI6TpAjmEL4rGtcqqZdR3iC+AAEBoTX4OFWM9jvqu7gXnpz3A4/MSwTrikoL4a9nCHooxGu0Ouma
+uB0o3WGH2uBOFa/zT7a2Af7AokOdxyavYd5LFoSOQNS0SqjN/Ia0aRUO/AwgQxQJX4jcyJ5guBAg
+mfKTHYfpcgQC9/bYjl4sLyE4A/Q2UVykDfjOyOhLRf05m2MGqH1w9KkMxv5U9ZzfgpAM8KnNFzIY
+gYUY1vTGef0ZaQQoOaE6F0ucf3GmOwk+NUkUepByBo2XxX7b7yD5q64XCPcPrAN8mKyrIzctNjpL
+5jKer8OJ+CkhE8kauRDY6fFHCeDxBYzVcKcJdZfgL5lKTS/bZ0D09oulylzWgM8z3XTusPUlr8qr
+uy9YpSFNGTJOUDoqbuPdInN5Np3FHIjjVF/SeEDmDPhf6FwDjCNsh5l5YdncaMzFi/ZK6GNg13yK
+QJG2uyEa6lcGN1S9W0RLXVIwSLSyyngLqGM1Ng7wJp8hAodU99DXJRyik/X1c2lk/QS3LB6X/Oyx
+yt54PqvvF0wbNbRnh6pqCtgfmOZr2hpJr0w5RwCu0Hjd5HXLkFogu5cFBu79OHlN1o0+nlfuV0uH
+zVK1LzQcGvzO0n4lAWBLP8ohoOWQFlzFgwnOBuUMu8gsK+wMltgEfRfpExWPORYISLHPiE9/Nl4Q
+ZeESwLs1w99wUcW5xxPsOo8ldHG5hIcdGued1w3N/Qye+rqrquWOYZh7cMr6FGMcrIDI8CHefjLm
+vhAzDmt4P69k2MnMIY+IIKIAYw70qsaYFJAPhu2wYcVOKAAEUM3zL3PlhtdYDEhrgQ5GXHBm5q3B
+DIneNVUH9UuwjizRs15PMaxmULp2U3QeG39lCeDDiSTOWzmEf1Vlz0MAFCCB8aSoUt2yKEzRnuiP
+EDMu3h3CJhp2mHDo32HXgpPwsQZyaHFVdGGhkcxTBgnOcKwh43eZm3OZ42hl6L86ReMH5wKWdQP3
+DNbXEl3GukahlYJCnNtFqrrSiFdxMAPw5rpqY/ekiRjuAzrzlyGPq0MXFYAn67L2vrAA2TJxx4f2
+MBjtEMdQND5NZAAmOhm4nA5l0we3UHVLJB30pbgpoNv9Dp0xK1PlF/6pjyvlp21nEQdAp8jP3DRI
+Ol5G8QIt4Y8m+/+PdY9L/+1//6/fQuD+FQz5ZobHVIdx4t+0wh9j3Umpsu1K8x/+p3+NdXghG5gn
+KI+ghuDg8/D7fg52eJVuCALszcwrkIGxvevrp4ceL6yGeBkphpjdAO9BJPLrYCfg/4lhysdAhlQ1
+8t8MdiCo349PABgwJSL+GEoUkMob9/uLf7mMSmBdgZEXbgg4cnh6JFWE2/Lu31b6si16NlXioa8H
+5B2NMIHlqW9jTAmFGbvhqMEk5Gm8baL1bT+pt701btsMYwd2HAK/sPvqbSMOb3vSvu3PJVeghSwx
+9qxmeDAShWQuHAJvOzvfNjkmC+x3s2399a0KtFtBWGEE1juI9hzqxNzlFwY8pk1Y7A2vYisp8VZc
+xlgUu2L1UXHkprpLF0iCQhjMIPA7C7D0cEs00dWM17QmjZ3uzVbG+FtFwyt9Ud2QTFw+9FvJc1vx
+0wUBLl5Bx7fjroNgr4pdESZt6BdxElX9vQp7e8CvByu3dsuxmCNxQXpdXgYyPriSaC+RXdntwzaM
+UoIjAjdzJnWQuTAf9jhnyEcl0NGXMAI/BMRF0ICxl8IuPRq9RWTtSuntRCp9sh0OLRmQW0gLTRa2
+Ed95SxkhLsZTt5R7CjPFfB/6kHGGSmmV9I7LLxGgoQMDdZxqyHgvg6ZRWYnklnurKcdthyTnykyG
+XUPGSPHdpnU6+/NuIF13ncNR+r2ykdjbmi17E5ZxWmgO4CwSX8I8B58PDX4aeRK2SIM/kBH0UTAv
+2PDSNu1VeGHnrkl5KdqHSht6T51wl7Tn8y3MVsNdX8vXikCZFXbRnK2Fu0RCwJKFkwYfR3LU/whZ
+VYDtmgel6yZta2WuCa1lOuKOpLmo7zSETdeeq6e0xI79UMNQmjBD3PUC8DHrXUh2AVjYzHNzkfk2
+Lx5hiwNwruKBTGnVdgK/tqoQ2tX3wSUFrXCx+BNoTzej+jJ1x20LsxlORnHPy7C/izFmJavOqzzp
+i3W9Zh4Fp9RbD2yG6w6rN7X3PnobiHOn8Uxqxi5hakl6Tdk+wLK/6hxdn62Gm3jnjaO8YJUMwDzX
+akgotSwbYKE8TFVe7D30cGAfzIUvoytIaQeerBF6wKFDOldcOe+IQfdN8Y/23vlLg55+E9Sv45Pn
+qT1Q1Pu4XPx9zi+ZFS6BFurTAs/hraT6xhvVU7BokQnF7gPIr3dt3H8x6P5OOICfFirbBBbnl4YD
+O9zESkvalOQyhLstbbcntXz1irzHHDP2W9rFRzZhpreLyI/9bL2rGS+f2OVTX8DYx56RbGBuCPL8
+9p7RXarqIjwtg2FPDCax1FXcwN+lfTQ6BNvKu+C5BE1dkmckMaEz5o0+KD6QU2UQjVOiDxhlMowr
+Bp7yus1BF7IIAI9mmDlchdy1uS/3NZqMlNWVAfpC1V0fh8XJVrjNy1rTkxARGgI4gg/tiAC0HtKq
+A0Dz6Ippe7FoOp/0wnLETwVmvpvZ+DTBcn704Fi7nlkgW2ywzrDZf2grDyqjbAg0qW6XfKbNee7C
+6wYdajdggI2iVTxWdOn3jGDugT07v8XQUN6E0nxuMUSf0NchMKQMPke9DWGg0/74YpCcePARh5Tp
+XpHLQrXN3ichlrRfYABqmNop2M5vF5TdRDrUOwWLWwcCbHlZJ6RIIagtT+2ENVgubnmBaB0BlU3p
+Dw8YPx9amGiSAiFSN7CqMXBoQk39bRHmICv6WZpDjxBPNI8hximMM92pry2MVwjdVFnXt+J+rPj3
+Hj6otCDAnmYZqwmu3wChVl40Qv0TtSB/0Fk1kyvSbgqrCW1b5O0DpHXsYzI2sFUPDlu87Wflpiep
+FhMweIPa8aKBY2/C2eINX2oPSj1YCqvJ32HoJ9EN4ty6CUCji4/1FFfr2TEd3Tkc2A9U59gi9Yyl
+d9KjDT+ZoNQXcm0WkyAaLXwdsfrLNJiGQqaBl3PMI1HP7wflxSTLYZi46GASvhiW3NuPomqLYz6M
+J6TrFTdSTeoh9sDUJ9p6/CBrmHxSsc7yuY+Z2VnCmmOAzu1zjDeriKSJdVVhCh7ZuQAmVSboKDli
+smbQLraPsT+otWDL3YowPpT27y1iPeaEMjJfjdYYMFdk8Dd2AoGgK0bRIqnCCeMIw6zy0c/p8HnQ
+fvmMM7lok7mZrgxdm5vchuK77+S0ZlLl9B5iJfsRQSXrdePzE6g89Q3+iehrCOMeEuEkHSYYPK3a
+FYKVJ3ijThivEJoTB2TJFqXjJhE57iIkZjJ+muwSnlVk1FevQgzERTMRqBmivpzvkOMUPeEcEbve
+rcV+WhbipbBu93ka1AFoPGSiuS81CEmGYlTkT6Ju7a3jg49VuUjvtqwiiGcItIPP1ZLX11AswB1r
+85HxlIhmPUHIV39l41Df93P7oEAjkrRE+OqpDuomC2qJzdp343CzDnTIUzObeEmIKXOkpYFUveoh
+rX4O52X+htzG4QVZ0VA6QVGqk1w0hYDbbPEudFDZ2zZEvUkoHMtfmL+YG2jrijyhXmyOE3x8+si9
+uX8RhWvjdFlzhFoGI52zqqyGJRG8qT7C289YEnd0vK9YDoeU5+hwHUGGe8KeK6sDJuB+ge8MqB6+
+udhRrv3nXIw527WlDxw5sF54mIDk3eei9w8DbN5pO01tBd8/klFRnqsYYIRtEL1HwMPP43ARALLO
+oh4O6cVOJoOOOQJ/1a9IEdBsN/jhkEYVGXehbAUCWU1/F0xmBLYUijOUpBjked6NmeNVfzKcQXTX
+QDPwXOtq5ElZQCiWwjTVfaoX0re7kYkFoFo1rN+2kfAKfj5oO0j0CiGu+MBl23zuCtPtqQS9m6HE
+5/CF2BrGo1nUqIghnH+nEvzklVgZf7GhVsde9jBbkCIEbLnQhb6CN5WXYx7QJzFCLZ3EDXUMkgmL
+RMKOdMcChmqT1ACUY+QWyOUedurBpo7I4LMVlqR9G/YvBeDVu1CMAqCJI/7zBLwt3xX+PGEt+WZK
+oMEOvooBmvcduMpim9Kq/FOJPIIPyzpGBtEd0l1OZgKaWUFumAGOHNKG0/pUFfWtv07IQ235NUI2
+sk42NrWxt5sB6qdILRGQOQn/euKsyAqBqKMMKhhyEyn0hjHieg5DhMYC8grLXgWSYSNE+fXFUwtQ
+Y0kqYJkIEfRosAC9KP0D+L3i2oxk3c1kRaBshQzblYVjtvZUAdz1pzMkVrto0s03WZFJpxC682/Q
+XAANt6aVmzFUfwCrnr9GrMuh6EOSXoKnuZq0B2d4JYmrTwXaLANxXoiQRsS5V4DjalZ97X1h20Rv
+f/SeVCgtdL7q8kF+VDksx2XoywOQUw/zQT6dde8EIM06ii9r3QAK9dEjwpF0gZgRz4CRGCaYowVi
+C2HRqT8ZZDjAr5/PgG5kGY7ghHuEJA/5uv4f9s5sOW4jzcKvMi+AjsQOXA6AWlkskkWKFHWDIEUJ
++w4kEnj6+Uq2p2X14uj79oXDYYkssgpI/Ms537kpNL09zo6ln/gNy5NBz/41XqF8IUgZ91Xb4aby
+Gel3JQ5fLDYvLav/KcQZ0r8lZufeIxvVvuki63/TGP63S/6rLlkI8981yf9bvr2//T0R6zfK3PVL
+/miRyZT36XSZHOEWo0NlwfnH7tMj8xKRy9W+4+j8m+75D1C4/Tcir5AoeThVHLx2P7XI4m+GcVWE
+247DZtD09f+kRf519cl3wWbLT4GOyxDm9Uf4uUHOdQqgwbS0vY9WMcc5saz7CaDYX8gS/qxHtKGk
+Oh7SwOuIwBTIiX55mVUf+kWuwCGH1dJxxFZLZE7Cu6soof9Kj/FnydKP10KiblJCwLcC0s5n8fOv
+xGeRD7404/2iN/6dYG9wC3XMPForUsjWqf5SsQSD5Zcxw1WszuYYPYPlYcO5hpj9/JK422zmC2BZ
+M6z/SRB3zXhqemyi4Darxg49pCnPwnNMY8v+T9J+l2W+7JxmNpiR2ckU2lKyV55Une1ajrA99BFk
+rYvfi/daZf2pA4mx6+LE381rn+0QmhjM4lRNCa9XD2WBDbDU+vGTPjr1EfAyUIm4ys7xMmZnK8Hl
+EZlJnYLuEdUhS4ZlA02nejA0a8U6j500RUT57LbJrZiWbDO7ZR3CUhf7lfPxlrgJxwvT3JwejGGq
+vq/m2txhXsw/GSJjFyXicmt3aR3qzGbx29bzXjQ0o92KJ9eTogl6UCWYBRWl9mgON64+NmfgE8A/
+8ZK9sUfU9qUzdzxvtHnfwSSD86r8GLy6ZjRfB6+qTs56ZW80azqBYJ/BjgIZ3orBYCJdaP5coMKk
+Z2dSurAFHl595iHLcErrlvUI+tQ6nGOu81CwSkahaVb1OyjA9hWaofeSM5q4+Inw05DnpP+Re0PL
+ge4zSwgqYwGfqOWZ2vaIrMGdotZ7L9LSs8Ostso7UUqvDYHsNicXKu3NguzpGVVkGRZx1keGUXLt
+5SBhAgs+4l1m6pdUZQLcfb5c2LY4m4GS/LVyG4AaSoxbjz08MEWYFB99VaW7tE6/Ln3eRonp2TeJ
+700tXmxs/5uBNyet4/K2Aw/5YpmG9mDW2XoSK2inYFB6gfZJCo0VXR7TdTbao8VD+AC0Gn/UXGO2
+XtCJiTyZPpIBt2KhX/dAa0L/TdeesenlPcXm43ztxhLb6oxdHDphAMv1Q5hqDvCuggGAyF0UySd/
+0DIuUvDpwNeBQWmVCgc112GDpyb0Y6Y4bjve5DSwZqDGZAEj4+VvkOOg+GjuF1zcZpQ2zrJR2P8u
+8VwaJycd7m01zzpgEtfi0ubuYdohb83CMja5Lr+pyoWc02vjbWHU6/uoGsiWbmu/t6oo7pjJGFGx
+juOls0dgO6N3YQGXbSZ7/axNvXk21tTYsNcdzpq7Um34zvxY1/7EoseX26VCWjBXL64ZN0jgAWlL
+C5kFS9CvNWBpI4jpPZuIxZnKS8AsLSvgdchlVCRVQVNsTEsRLmXnrCcPZo86oIGH9hJCwBUiiDUt
+waI8zLQKgTKmYU54I5oumhY8Uk9Wn3vJWJIpoDw5P7ks3za+DqiXzUbaF6EWA0AM7E44gT+i9djN
+ErL6Z6VZibd1l8KwD5U3DyLKSnT92wEj9HUJXI3ONinmNbnIwuZvmm0mk7PT9VMaNFVfz/eJoyWe
+SXfbDemNH2uyyYIhnu1XowWElAeijqm9MHr5xnM+zZq97RRn5IdL74r9bUxH7VgsbTL1j5hb6qrb
+6f5QvGp2Wzz6rCV3vbgKR5vKtfcSbtGzGy8agy7TiJcAK7p5tBX1WjCvEjmsjQ18Z4+meZyNuDvp
+Stl7o9IYbapiyZaoWn39CcpJkjP6uf5vN3biR1gn81fHqGMP3Cd2cIvt4qEpFa87IUOOCrqOQzuI
++pgh7t+M1QQ7GcYRMkX8bs0NQh9qXxdEwlZ3Bqz4fVaz5PVHtlrCUwFcZzYbMVph1fNfHSvfx3UQ
+cR5gqZvaSMq5elCm1X6zkEqd+EGyZFsYFlQZFuprNDlJiX8QhNPBE6V/V9qZ8wYGk5/PLKW+BSVU
+PUDwQTJfIP+sQ8yk/JmtjdV3w+vLZ1Mg2SuL3Fkj6szmMalSRNgDtFqdw6NwJu7bMvpR2/y3CvyL
+KpAizKDO+Ne7kp/Trq414O9f8AdqmFxmbDnXkQhVgmFeTZ2/F4G6bv0NCwgptTr5Zr8tQ/6+JxH6
+tS50qTd+hwybJEDzDyYfdDQsVQz7P6n+fjEO8RPh6DQpMYVDueQ7v9onGNwhrVq85davV20tQg+8
+y7KtHMqVqrLMQ6EAdIUySdqbwbaGD31ZMsb9jrpfurrf9x03ChgedZ9frfxVpqtLSq7BPfu9gZXf
+9XaLvYK9q5jkuq8qx4rni4Yooe5CYFHIaT+BUfKrdj9VnJxOMku6JFHGGlItaDXHBk3n4IeGrjfe
+dybqSzbtZ8piJQ+JCywxPsSuglWAuLCTj63kTX7U8AIbG1zQhrVJcvYrN7yXlnlHz6xCwcv+kFY7
+HIRGwnTQWpfx0ldWFU5zScl0feR2rrGaoBSc+KmujPRpHRuT7kvnGFgn7X1Oq+zJy62+gwCU5g9s
+g6GW9d1htbnJ0yae3uKs/dYZWJiCrOgzHnS5GfoNejU3hG/kGvUxT/CGUOisxawMRrlCdjeGu1a1
+zrzeU+cULot2UHMzc1gVMMIetUWHtBVBF8qTLWhyXPo7I2MKtpOxYCS0xzbJFAsa8tVNpy5OSR94
+2zLLqPkQKjbWlfxvW/ibhvWvDgRcL9yV//pAePqm3v60OTV/+4rfTwTfZAeKFwT1M/tO908ngiAy
+3MRyIbi9f0uC+v+28Kp7xeLv4nWiRMNu9f8Hg2H/DS8lglGS4fCFszr9Tw4Gndrwzz0NeATbYgWL
+5QO77/V0+HNPI0ZQFV3TiAPpFP2L1CzkDyU2fmWU51XXuk2qoccCeV1c3Nm7HYZWfnZk3j22VJmd
+6IfjhN6dMZ673lrNpB0WvMkxKrk8vZ/qTnub3KvcwWlEt4f25vJos41kuIf/sJgPlkVxhYa0LnWX
+9WjvGWefBq75NJQstHLEpWtjIksB3nTrtb244svkvBJvBMVvrCxGOkWOoHBNEA0G7Qwd7hO29hGD
+jFtXpX5MfeWQgGQwjNy4qbCGbVpaRnscrSRjj5XXhUeBpoxlgXlS5at+dJvFeLaWZOhQojcw1sPR
+AgS1wzqy2IcJYiJlLAWJmz9RzWiTDGD+yI6C1m7ecuqQj8TJE5c0kwHWyaanEZE0OIObiUe1Xuv7
+kR9h2IHFNG6YCzCnmhw/vYlxY8hwHlEWbiWoVrkBBrsgjG/yfYWp6JWmcWTTB8lszwbXg2rh2a+L
+tJnMmkm6z4bsMSnLlg9rym87o272uTE/501m7vJxps+p/GSPdvaHczNJXwgymJPNQpSX66nbxupv
+0nmaXoaEZedUYgqpVJoEtfTZbyfO11HFBEdM8+uaI+I3Oj8slHmAePesJByixdfzI5iU9yRr4KzG
+xfS4ehNzTdoD0jCMZ82EA2e7KPsHN3VZmtQ7WO0XuWbPTml8b8psvCE2ZwYCl5zXtHPDahpfm2o4
+onOp98WYtdE1zkKBPcQ507LcbwFT9WCGUmBtQWEUz63QsmjqtWZTVPKbk9XObeWs8f3sN04wiCty
+b5pixCZxVCxTsbOkRRG1yjsoNw6lnLzqvuIytJjZnRh097feOBsbHivi4DZZtq3BGwaTxsLlB6Eu
+mwy5q6SdvTODV0fVL8um7WztkrQLu6A8+RbTUNxRzD3aY8aeqlrKnWirDFZnm+1r0l6CKaOuN5vF
+1tjDT9vRs60D50K67ZHebBOojxDgNB855/ytsYvqQNndRDFnB2EcU1bTYGbvjWk1ITgkqK1JnwQo
+6oaoaa6UqJpNp42mMLAFexFdY7kIgfpJJ9wF1RMW3TI+rGs9B9XQdgG904u90EOaNDrHtLP9UINw
+/92c7P7LtLphro9BXqANx+rTORaMEYEBSRasdsGA3k9T73XYYlftO2rf2gwk+Qc2dic66qjP5cqW
+oGLTS7zKdEH2OLuPpVW091ROJEV1cZ+dW6ZoSFozbxO7sTuEejnlT8M1kmgU+prssrwxjvWU9FW4
+mCOvxoVVrEE8j1+xvJihiKW8R3qnh1JyWSQ+YU0BCt/lo2OXIDaJay3HaczqPSa8ZYYBx6WlQrj3
+QoUdP23BJhRDk9518C2SOW63DgSj9PvCvIl7bfa7NcCw3s5nvAbDKwXTLA2WemwCdVkJeBR+tUMZ
+CGSu04ydMBp+s2I+uEvu7Ny04ZRQLHuw92sb25T4ANuVcUPbmZvYX8sdsuSMuKX1M6oV/9nNWnUu
+c+2NW+rFWDMRgHZvEFePx1HrrHOONy1Cvpbf1Fr2Ab63jzKjzZ6rPkeUjCI8uzUYyukBjQ/MD73S
+77sq/tSVRuEFsJT8U2uVzVH3xy3ke3mSU9ZemEtqj4U1uG9GZWdRUvhduFY+LeGUpNzGVDLGJr7m
+xCzlIm6dmNyrMR6HCIzBeC4HUJR8n3rb/Iieud61hRU7xLZIcxt3ttpoXZnu3FLel6mVbbJl2M9k
+HNBmE3/As2T1ApjC9QOy61dS9Ow9NaL/tTeGB4BdKca5wpR70xs/O0teBZkQ2gY/5sEqdY+Gj6Fh
+MOrt+D1uLGsDIFhjWGOnDFwmParFylKvIcRlSbxreaVzHnjLOZu94m7VhLwls45h1zK5UVYrhHlD
+zq3lGhMrIiPZpb4FwBI9cujn1y2w3u8WLek5g8dbdnpuuGKbDPA9ciWOOO7GguApZ+7tq8D2ArDH
+CAqvIZ/KqkjrAKS775TaaUvHkhdBB44+JRBb+NXXBe7lRlz1GJOOs6sdii7Kq6Ykb84zhicfbm6E
+WpcggevCfhi7g68hnu219rvq3E9V5jab1Z8npmfkc8BfXEPNspoN7LF0O02VOmpF9yGL9bYc4+lG
+V3gs4PZ2IZu2+s6gMjkZ6hpoJhb8mNkoKHttZ68xzg66lt2/xIsNiwUNkObxO08FoxHs05x3nfNl
+XbFy1KxANmkxfjGaorix2zgO9AXJR2yiIW+XXD9xDQw7EgqYyBXF98kp/a1q1y9Je1Uhr0T4BflC
+MmHc6LERgMHk3fOTd0r0OcQh2t/HhRGD7dcHZAye5OFugCwQyStcgO+t332zxqzcAmRWgVTWS8Xs
+IySOr3suPb7VCpgvaCc1fu8nywhzeDWRxSEauMg37xu7zB98o2kPwjPWkyxG3ga3+DJVMcW55O7i
+lJIv3tLwwBjNxywj60wm2I+Z43CuO1n5btSjgeENFARMAWebS5eALF+rGdKs1cnQjXkDitQilGV5
+J0BlQUnmuMF8hc7N8Nc2wu+850EYpIyZA9KBemUEH6QuE2TesJYfX45F/sptX4y341x7T51r87Wm
+WB77qyWyVKSglX7yMLFhvmcJlb+6OQkfjjOHTZmcLaMZ9ubkJWao0vwavxbzRqdZan1CJo2WxUad
+v4zexlpjsjs7plJ80pJeZe2qBdeABKuaNAYreFXbETNUCHU0UHcSrdterMrdu8r2vswAwV4nob7m
+cJfvULRp+QZNs9zn7Wje2ZUjUZzlquZkbUcZ2DAnfEP6KIZtmytCVJcODttlXiDhhJyapEwiBcN7
+YQ3l96EHL3O9URM+U1cwiF7c3tkhgbK5ZSB8EuA4+CvcWOydBEKZjy2gvNAdxYlWPv88oGJ8B2J4
+LOcUC1TepCDyEvMDbYD9yPzP+KonuVaFK7IcxkbZhEFsbvqOng9kJHPKRX0VpVeysJ+GxxWjE6PX
+wb29Auh2fu3cM2clg88d3UjyOFB7XVtzLmdHuh9x4jImNAb3zh/t7MVmZ3mLN8FGGY7Z387MNmyb
+di2jvnPBj2KIuqC9otUk52A4K0xjNNIxekd3bCcy9HpvrCKphuWuBgKyS/Q+RzE1j1smEHTL/Fy7
+sXe0XY5zpKIBLrMXTrPihUfc9JlIH/FY5GO8F7mbHYQ9U/HGnXPsaqmxNtIGxmaLM5fPicEO6UZq
+qLT8Ne2PvmZwQ6QChwR6ZkSDLLXDtGI0HShY/pEjE7FZxdA/jKsaX4S3Th82yirAh41/gyh7vGPR
+3n9qTBtbvzs0+RiZnRMVlZ2C3Ui79dmHRIRVzLaH+YmhreEDmrUmP1r91mTJXLaL3GQ598MNi7qq
+2nhIMz/NMTa6z0mhZWskPcWT1ZssnxuxV2Ow9I5KNlZhOWcHGR7qrJlkssadHglYW/RoSGvttmQx
+8xpXdr0lixAca7Wq8oB0QUS5lyObtKxC84KhYnosCBR5kPzVvao4XtkRP84VtfEAj/y9rmp0e6mb
+bwk2TG76mpIUHlEHZ7mS1ZOezkwEhWvsZq8qTpAGOqbSKDwbovTCVltLVP99a29nvZ4fCDzp+8he
+ESGQyltsZK5Pp6pep8ACgYKuQyX3RmvGKAjcvG/uVJIqFOyJEp3D+Ae+HMVC1ab+gotpQvfSDh+U
+m5k3JQFIkdl6bMbEKQaOsaXx3H7Y535akcYKNnW9IStQC50h1zfl2tZ9ZA4p5yiEJNzjg2PuR9zx
+L1dDErFGoC/dfV9wL76zNYwjoaEFPGVSoq3iEu7zDdlyc8QEXeLb0FzyalNc5Sc5akyLBl+/qG6k
+F9A7bQc3MI0kcZLHbu7bA8qlPJpGMzu1WOLD2Jjc71XfWF8F6qM16IHy5ztVtU9DwVLilRHdFFaW
+jyKJ+zHwyAawkf973rfGa5O9M1WU4DqE97DLevd5zWexwRW1wuEfMCEOxrC+CQrrm3lpbcSE5blx
+0bI0fNvjanTjQ9tm7edUWTgNZp3QO4REoVFZbWSnuskuJ63MTVLgwm4QPIWiK4YdvHA97GFqny2s
+zBEoMuvTQBW5GZXyQ1xX+SbhWUdx3rEtMXoCY0v3oLU1wgwa98uYZP62L4TxZlvK2ldF3wZxwclU
+Eo0cuNDcd1liSsgEtncyM8QgQUHqxnvpa3JXGtadqVL/Q9T93dWkE/SjQGMCF3bf6WVHKTVB66el
+VSzJrHnDddNtW5+QwW4p6G+4KAVbi4wdAeB1/BA8xmOlFV8GanryL9xqrxEvEjHensN6dmqPYDJU
+zJrQltAiBWPbxFZFZpmr3Y1AOZCvpHuwT+UtClhySZMaWEECo/0qDky/taSn3MZxlnHQdojZGo17
+d+Dgn/COwtkAcNeX1aYvRslDZ14e0lH4Z6nwvuR15uwhMdgboyQLV+DlPGZCv/c8THPYOlTDHjR5
+G1wA9HWDd4rCrvPOhdb1hP2KYqOXiPvykpzaBIk8k86hJpI6S6tXrR1eO4g3AWymnYV1VQRNKz9Q
+zw6oQcR6IFuE3Q6NJypGe5wChXcoXAqkoTlUpQgS7huW5XQj+bQCo1afW48mIiHpd+0+6rz8zJ7p
+er1NotlM8JOaQJnmxsFLHJSZHx/zbLDfioEsoyoRQGfNRRehRnJuuekRBU8QobpT4+Q1V8vg7nRR
+IEHrSW5FelPcM38QIposIg83shWEt47U27mQpOhexz+KHenBRzW/WVk77ZPcE9/mmhYtH3O5r6xx
+imatMx4QVTERaPuvY6rGo4sqjA1qAYy+YUGRLu3BY83EA1grjoZbyYe1IIuGOLl3+jVKMZSvGIrX
+vDrUE2j/MJHD8kKKyhAw77k1zSp+ppR6yrSOZU0/ujepY84hgTsUjg3BVvPaDTh2tT6q5fTF17vb
+WV8wo+TGM3jOIsylZW1bp/fC2Ta9F0grVWBCa4jwL8jQmGL7aW0KtmxrYdzUSwoZoX4dW3fYL0P6
+2Dv6NZKF+g/bbUBKdP2YNsYrtrLyYMra+sDQ2DOw7c2o1apn5Xrm97attHWbkIMMdqGdKb5Vy+Zt
+daoLWUYsmFlk6RCwvPiLFFPBslVKJFQQwi+djvoeTXccM3Ya5xlSu7VkFP+VTo+jbALYTf9Cbjzy
+2tZEbc6vF7vovno2ctwJ1cYRRX808B3Pa5ZgpEziiI+qdW+L3G7vpGNRWOuF1gQGwHgddfpa1hvp
+4aHYTCIligHn74H/4I+K2vtuJMYFyCSHh5elRxR8xXGxebjq5vw1LsDJ7wqtSDbKmSy8WXmF8EEd
+14ydliZ0LER5HZZXYfVkXGeBbZ2Eiz+xwNMdktltxM9xpts7w6YSTgakp7BJejnv82bag1z7knjr
+UXHBh2XWikORaLcxGDMAltgM8849Ev49bmezcDdu4ZTH1mb81/mEONeU+iGVKchOqzv1iXzw8+FD
+oBuOpnixN76qHzqrrSMGM+4BuDE6d21MSdAm8pkZvXY3G9YLxvsB1Z7WRnPvkK5TmvUuBW2+yRpM
+l4QkaVFvT8OhHhPB5GLEC1zYHy0s4odJE4zh4pkYhWb5UiQ6k7NxMbd4nbMgH8332Jb64+zZReSo
+Ze5DqGJkfw+ufOTsQzzu2H3oim469h3DKKHnIa4r6xYpq8acJcuMTS/gNPtOfWuN5RDGKz7iyMhm
+/M4uHkaX4EHomB3PR91fG6TvS/s26E3zasMXqaJCW9evhcF2JtSXQntDjdDfudDL9zkPPGSjrqv2
+HjlKJ5dFfIiSKccVlyXHnu3zxqyW5Z06i1sraau3LNe9O7zS8S3E9+mrljnfk15fWmzJ2nDsGEM/
+rOT2hHbmohZoMzF/8pQ93RtGaq3nXnkNtje3anZMQSsSy0cTO+zqO1u9yXQ3copMRS3ZdogAgU9v
+sxZ6jkUa1BlJry1Dm4fBPovl05LYn6gQ7EeUNM026ZZxz32wbByswzRX3vOM0T3AjWk8JqIkpyRl
+a6QP8VulYPbnGPBD3TWMLCK9vdBuZpDG5qkkJTvoRon11PJHtU0clP89ufbT0SIFHtf3SHLTLokJ
+lmJIVOLXZBZ2xT46OqvplewSjD6tHbpO0z/3rUUweed5EkON65PCLJjxLW0ehwvnwqvTKN88zygQ
+nyTfgMT1blpfpgKZALcxMSAmA2oWXPUy3JpTO53Qw7CmEu087qBEZaf1agGIeGD5wYhEiYoJUW2g
+G3gNeMxfKyFOmdeqcNwvVp+isymmfCR+K22CjshxilaInWTBkzpASoupHu2pHRk+iaJ1Atowj09C
+85/xVCQf8G/zJEJVnCjgeMtyWTAVFqHJjbZZoWchFx+udDiIDkSkiIqtudl+nymvSULvHhaNsn4d
+HGKtEXNGdjvNuySLuweVSOMlz6nAIxJUiS3vbf1+6Br052Unvctg9zxPOcua+3LVUIZbGUj9tGMu
+g1jAu+0XbXwpWk2cBQikndF68LUmOZgPODxdrMzgaQAvxf4NIlgDVFdWHIn0kY+GYTIMRanBXcpS
+DalpZXu1Qc2YplFmD7h13BmeXzTNTAUBeflJfmbCP/I88XuzvMkRnNvb0ZltPukKGe6I6DRCQHaP
+QAgBnrO0xsZkDPWEfTM55mA2Qow5y/cSz/lrrA8UaivOAzznRDekvo/bIcmz7mVybLBjGk/dhMgU
+HvZQaWl2sg25oPmu1WZPQEOobvpYuQc5i3HTDk5xavW6Rljs6uJEmNL8acyBN3PKZlWUarMVOr0V
+c5yMqPeLrj0TKuDtq1RPNoNccd8PwgpN4jMSTCnzeOuVlfmZ6a3GQ2xunwT13alvunk7jVT/jDNd
+pjRaelnSXCKKS7DzsMsgN2qobqfR/6pJXd9wOMV7J0XqixVZv/Ult4aZG+km6xBwpLp3XytHkRti
+y6ODZgcREjoHa6TrmKgYQ+bN/XFI/elW693ihNXwnXWqvpExHiHiAt/Q36ShYQERxbjKWFGPkSN2
+/fKsZWa8dXs93bSsfzcaF/ouleQ+S6zbBwL3mNk0RY2N24dmnJpKjxwdvQnhbdSyYkWKVlrolwnu
+2i+9csgq0Ifp3kPZZVDolWUEmFOWF2WnWbSkPGxym8wx5lmyOGluF8026xtmrDqVRpNu9QLoLZK3
+s12s/H8RPwymWu5mCM6BIYtnfzA+mwmHta3Vm8wy14hJyZtf9+iBoGJG85wm0UCcUVS7WrM19MLa
+z1a1QxB4WeFyQnGx7dCHlBEkyXpHNqBJZFj30g7E3jjJRByYgRWoG3dyteQXTbEGMUzts0l0Mpwl
+KmTVofhqYTkA3JveKj/vHuape5gao1wC0Xg82vVrI5iW2p0HByOMhUEoAfnxJ0tqH5bmTreNUUMe
+4/wPyIhCjG/51udxtif28+okW2ABfdm9/FfHUo/ZuPzF2hpYo4M49V+vrc/f5v95bfriZ8/v71/0
+++aaBGw4TWQaIKS96nmv4pTftSyu/zfXEfD+cVx4zFh+ys22EDTDGbIFfEadJMBrIMLvkhZLsNT2
+rzx1pME0NHzDPzLD/8TkSr41/wyZ9Oe1NancLKvx+gIXs33AD1dH8E+OX106nSR/qTlgTeAOL+rE
+vjP7uT2Tm+X9pob6l+nIvyqNr68F3v/Hvp08gV/F03IQ2spiqD645kyCB7iOM7wL/xnsgHfqOvYJ
+P30U/+R3u6qk/w5jZLdvox+3rsoAKOS+6f3yu/W4Bl16QF6PmIwkmFkYxsyUVx3xCWKdeiRucWMq
+T3+amU3+hYT7apX+5cXJXXXQKPHpef9AuUNYRzM89PVh7cfxowIxzphKl94JhIG6qHj1n2ND/NWv
+/E/eYrTZSNQxgHKt/ZqjAVU972fPrQ6AVtU9kKXxQ+Is4ljMenWfCLbz//49/ocXvMq4BS/H1SsQ
+VFz//KfrJxd0Y9S3/j7VgBpDL6bdTke0TZ6pIVCVzuu/fz39H95XFxG/4xlwZXlzjR8SrZ9eEDsg
+xLpYyf3UKJQFkxOTuw7JCZWtB9SRZeaU6WevhJyBpFO/dGxzn+sWc3GYOgUGosQd3Mu4ABrBsmcj
+O2hBSKGS9NXnxfD+4iqw3X/y86IN4d63+DS52ZGy/fwG1fB7krwapz2a+MR60irDjm+GpBTdlvxo
+CpOOfdZRb9IFnNcAFfOJe3C5aH7Z74FjO84xGzzzUDErw7Ey8KxKnZJraYgNMOqrp5+RaFYgd+CA
+Vpu6l/q5IhcZhWVhrzow2QGdpwZom2LTWL1ty2TlzJOeENfJFagrtUVd9BGJWswQhM1VLxv73aOw
+XCKHx4zceEXHVrQ3bXXvcEo4UebJwr+ONrSXvEz9+NL1Rs8lF+dXfqY7sMe7NsSprn/jKr0aTPUs
+y9UtZiJpPah6mU9YOUtUXnZOkLCPXv4KJfOf+6XiPsW6pe61eQTEXHQMGlTcta9TbrSvay/MA6xD
+gJ00+e0rti95L5BwVqRSXhPblMh9RM69/eb1Ql2avtQNDP1xy4hhVBet0/QnRkdelK2ZzbTINupD
+vfiKNmFkxIOPiKy6IbbVZbLg7xJFisugKtkJhn6dxc9GXhR9NHmz/VZOvI/eKnnfejwak8+Htnqd
+/zx3q/3maI66YBzwN53JoGS7NNnIplNpDOEHGavLb9dqmicmaGszm6fbrFBwtfMGHwPw4PbVWCil
+dsNMGBvZD0vBvMCNs+pQdFpH70H6vPdjlZq+pBL9IfUJk/axYGS9IUqa60TWjvXWDF77miYtN39X
++Scfa/dzW1Y5hoE648pQlPWhRRjUTS9gMLBDR504TUs7R9IxeEu5u5HM4J6uWE+RUbSVU8+H5DOK
+PUxpjoR2bq+/62z5ZeAlDUHB1/ffUiNl6ORZrC1dN/I9LSVHqsbw9uPvjHGMengROefGmu41fteH
+1B1lNBMfvZ2661Qwvd4ezljM7X4Y8ji+0QcJzFkO8wROV3n+hTG/3rOjxkQzYY1gBXUeO/yiQDih
+T6tH7MaCAU3cEJG7LXMWqbGp8QV1mekItfTRhdlC3mWdHodhzLQdHv98jogLXOJLi0ewpKm0MeHV
+6TTGJ2P1l1cH4OyHXDTshHM+rNl9LmtEx6TAa9bIhqKWu8FI0YGsggmj5sEBakjkDTRb2rzRwxPb
+hHSjsoVhTe0vWx/yUofo5TCbHe2/l5tnGyszoot5H2PPvhkTuhunmpowbVm7sHFYzpZdkAsCV+0z
+O80uatPFCUboHHcaLHr4PN2QAOeQ9pfRKnzi2M1hNiFMZepGuprcW16TQAVghVZSda5nqIPJB/w5
+/Yzdxz2iNXfO5NX5MVwpazmxKKn4xJU2NMGaJ9mubtfxw8/AIlIuT//H3pksx61kafpV+gVQBsAB
+B7CNmcFRDJIpcQMjNWCeHDOevj9nMK0uqSrJste9yKRdMhSYHO5+/vMPmPcyuoMjasqJus0Z2gAq
+lxc+CSy/y41lOI9dHBnkjDW4XHvpDWY1ZDY0NFc150sw6ujYM6bmzG1/xBb/AZjVT/escwxmzNjj
+5CCNkGVaa3nmtqu/uaSZPCEQhtrmRX4B3jgM0/0yxZgZwqm/qR2r/ja32ZSTrDK+TJUfPaWuZMas
+7OwhNcz0X6laeLOC2RUXoUn8S+JBePfrAFg7CMJywzpaPUiXeKYkLTctlxHtLFH47tElSzT419LW
+1nOhDAM/ktjp/Qs0yoh81lbdTjuhLJUdpS3E6xINrtyqMjvmQR1ejUYd3ak2jS8iP3jAIJ0eeqde
+YPPo6T+xntoCM7i05z6hkmSid2srOWL8aD/3RtiPa/TKqJaxVzqhMsogVwzjhUsG3LARY2OteTHx
+dQgr5e+QcpS3U29P/W5x7Kci9utNNbW0dIYiHjfObKOLN2iBDatChOUNVY/zmluCz9csWerRjbHC
+fw38EaV309RhtVv8Cr4sqszeWWdtZlwVeYI/kVdg+bB0bvR19vzqkJBbfuvFgoKNS9p7Vo36YrbD
+9hv6fDYjNcEEV2JMjHVmDTzWhmJ/m5BdyGzh5JG6UX47X2CD5uPhMbMu0K8siGmRYI55Gly5ocv8
+lkmigVdNz0hpI3AUYgz1UOoRbm0iAg1uUHEzmTaS1vwqDfieweZsoFcFV+3Io1nn+EGhM+9RdK08
+n0jJBIuyaBVnJUNwElFwJfOa0j6yMyZ8NZC5GA9MhIMbkZGgRXxXQZ2DdPna0TplNUF3DQnwrhYc
+Xrpjk+895PKHSnFgoo+cl2VGFgbZg3kSZydi/gjw1UMfn+74ThMPSrIrR+cKBqEJscddcMLqjPZH
+SV+V4lAoRoS9NO7LmwNxi0J43EAtAjXX4XrxJu/IEjkmM4XN/nxaVomEet/EKVsJBDSsX55ium9y
+pQ7kEk133cDmF+FLAHMgL+ejPdoSkKNHyzNdW7hT02MjufDbaDd1fGu7A2eNIxXXSiODQ5Yqmb17
+p6nzluVCdk4FuxLBDswTUJTB88CqHHnsszZt1knjzqfQqNxvMraYWTFaS6/GWsEjyiCotawZFmbu
+Hq45zJu5vHIW4bfMi551yqFBHcH+jV+daoJ93I+4l3DObHMSwwue7Alcmc6Y7tY0QWc9CDKOa2Cc
+ibAM5TlQ86Mp0XcUHj+hhC5BQbSrcC/aFoqp6hTqJ5qmgsdEsEuxyVseo2HB81qhrDaVuXHb2ki2
+aNlCU+cxO5BGWSu98SQFFtCnQU7YGJHkGUexf59nfoCsJKuDhbalHzVzsiOe0oisx9Rnuxztp7GD
+cGCx38hNPEESE2sRYjaLBPgPftKIbHFfGLQMV54dm0dEhzHekN2wTggT2fK/ZjM5bnDM06W+5vE3
+93jAxBcZhAlkTUFyNDosCoY2ZumZ/eIQIaxdzRMCMLI3Xa4DZgByRBp5XnDpzJjyN4X4Ap8r2QgV
+9TsI8tZGQXZbqYlEnQpP/RUKK+u+dJhiCC7psIAYAPfwWqD/Lovsl5E4LgyxKjwAk0PQ7BqCr3gD
+xzWzwi+03b+MfL4NJme8YFyzM+jxkwy62oS8gkx+MAs64nNxmHqaEmyOwxPdkHmXsohu0iYet5Pj
+3Dpm51wDK5ZfeNoszOWUH1n5gGrAmWk9wPXyC4l7RX7dQ79bCW7VrYnC6rE2ZP9NVba4we8RQpqI
+THaQU7PPg7yEXQFb17pn61dubSJzfrkydI/afydJUDYGqVkSuDc6oX8w0uUn/CweiAOPNdu5rhjj
+TdGb0DfG2aAJb7ACt6uZ9FdmkBjR54r1itmwS6vLvrGNC0kGUn3dZnRjVkXMbJNIxYhchpBnj24e
+Kd+MWw0BjOy7/1KL67LjQ3mK/I+KwwVZsMAgPtf9OAGmAStefajdt13/MNEGVXrn++d67bfyBxEP
+6mLADOp+h8rtY/kThHHXp1VXH/JSMhlDYrcempboYgSrVnUJP5fa5W06/PNxf6v9OS4MJS36RixA
+qfjxuNTkucANpqatlMuXziB7rGinfIJ5FjN/VUU530sZMxc3g97m/vnomuz/6e4SeEZZzAvOSby5
+zn8oUlPgE0tWhxHrHLhUvrIffD3r4mjEbN9By9NMVUVdorfetuMzub+dwv+Xnp0hu+9VX3Zqvv8J
+Db78gL7pCvt/B+weIff//PF/Tt1L9/OD3uStMn/H7KTEfp0AN5f+MvltyL3+jdnRrvov0Dya2SBw
+IHb/8CAA6BOuQxyYIPDQBuV7x+ss/7+I+nEtcnBsDy9NAtX+A7xOaDn+fw8tfUTMBxDPg12RoOB/
+tgbILeKqrDFzf/qYryMis2tHZ/+ZbynHLs2l7MUxFNqHsplbrOE6G/gcWnYVmq9RqXQqeYWTh3cM
+Ypf0BfoLmFyOAUXude4WoAGrKpvc+tWFpklElyExs6R28DzH+onX3dzf5zFy5hffh4b6nYyXhrBq
+mTS1wIg5AT1fI7RSxW1smWxnyGeGhwaHZXTRpFve3HDKEf33+dIuRJn+Mtqh4t/845Hene/GP+Pw
+Pk46GonCkJrtF+89j++33FLPKpKeLDP/J1mDZGAfELjkziGnMlHeAWvsDkLRktR58is3cRMLd38+
+vPVRC8TxPQ+Ot+1QoPCkOJmPk8+SsmWRpkx+pFamA3RRw2E0S1lhGyQyKjznCKCHYxARBmk4xlKX
+dyOe6YQaWc4iR3HsZFy28OcJJFHWTYAhPX/780kyIP8xjjTaCziKLpIlwAKL/ZwClMm4YWgYw03M
+Np6TW4rRk89165Y9jUTIfVf/+fFcvCu1HNNkVv4ExnrTVIOSm/3NUijXpikY0V9cmRWSbPwO2iR6
++c+Ohw4UhJnro/g3cc78tACIMbSsckjSmxDhoHEqs3Q27Y2X4Re5LdvG45L/fEC9kv3jxfRMgYcG
+3TGy2h1kap+h1ylODDtWwviB7TRg3CaiIek1u9yH00y/V3VSPmdonrqzpPB/RdU/DXZ9XFo8tNFd
+VLFUxJ8GWw2x0KsMgVxq5iUG9jHZiH+NndAuwbzTpE9uS1ZhwgJjuDb23zKCPy51PE+BJynwNlGI
+rg4++rTAR+6QGOYUix+GhxWfWLujKQkM7knuvqigruQ3iUEKF/4DzdyfYC+btBDbOMm5KX9+AB9H
+NGfiIuehj+JLF82f+zlXrSOBJ51h2X1H/UHNs68a8H52yWHRBvMeF3a2OJs/H/L3i6evI3EOxrvN
+FIHzaVDH7CUwJjHVD0eOTJu72ZKLxV5QjX1LxASm8/JZ0d1jvLeSfLBnchkGFWyhqMEw+MtAsD4t
+DdyAwESYqGc++iy/9TuiAEVZUHfGawzvsjAOZBXrGaaYqriFlzemDrygpGhnuP1YEQjOyk3w1DsV
+tUzh0xuWKk9BEeNpsGncStn3BUEK7euf79nHnRneOewGtRrTtTwWRVLbPk6OPUxiZTbL9DqpTjEI
+4GyZ3CxzGgW80UnBST/V5ETpl6YbK/0jwRrhLzfL1h4z/3hdfUYrUb+2K+kT/Q/JtCDVBb300n70
+u1iQE9XBvAEF6gwB1Lcikh6XF9s0Z6RxYQyy0K2pneamWam6UdmLAbo9o/Vw9a+I726zF8AED97M
+mGNZv8LApZI3YTPxqQT8ja+ZowLLMKi5SlDPqkFgQzuWNUGcf77B/0NCK71Bx7Zsi/nv94AlEtYs
+L++r+VFEgF+YeKlGDvfUyUn1vYNMaKMyxKx3eUJWrWNLC6Oy2B8TsJgTcrVAkyHQNRBGPz4yoyhu
+x+ilwiqPYlhYssuElLphj+OnjtJt+0Ry1XY9skSRiqojSpMORM1es8FA/AWb0uFWdJ2nE11dinwo
+CABL6InW5/sTJfgv/EfTP7JeSbAisyL8E4u2y+dpyRrRGMyyMWD9eFhr785TkR1jDAehxicFvvzL
+gqoNDj6OKCoN2qg28l/+xwj/OLDNFBKuxF33oe0B/166uesYUM3ScX+ctHYo8MPRAIBbESgBmfWQ
+D+RMvhS8LNylUU15d+fBow4RGnSIcO5ZMezhXuUVn5oKAOR7ANZW3rw/tqgZS27lhE6XzdfSIvjQ
+oXaTfhD471j8COY0GO7Nqqg4EzfLGNMwg/Qm7c9DDhuE3y7ek2Sp2jgL0Nr9bfXj1W2NyJzmBziq
+kvK16zMUF+GIwccNrEhHYaEUKwmZOrCpo+OVAptpjmaOeSVRpwUSv0sFFA8xudCW/DglTNF3M8FT
+aQx7BwGDV1b5D+ypF0UiIey6l3EhXOfWGSxzwtIjxbqyXjckmbf9bhxdUjRUAx0P7V5hFtaVMJWF
+b3Kp0NmkU9cT/wMY2ZDJEJeDwjIfBe7AyzAsaiR+cTLc1El3gW31zknm3exEa3OyMCzag73GVrit
+5jDqEJF6JrfTo95bFvZ0DMX6Ap8VmGUNpkhyNwQe1nNuYUwLbebKTp6wD4ZGKpzOttYzewnkSMTM
+t1ju6rCMdeTm0cGzRbdpMFJdLkOM3s29NVqxvYuM1o/NbY0jmPMIoQc9BplA5jQ9TN2EcM4AxTLu
+QZE8VCFKSvW4eEOE0LCuKituv2ClkGf7MGFrT+ib46PrDLJK2CQkqqVt/FerSP3yR4xHxTBpR8C5
++Rn0MGfNdZaPrZUeurBsSJVlznZzuQ9JDZM3ELmNLENYS68oj3/GPtJq7vJEoxoRziKqgSGNKJ3c
+hi9Cmp00tyUOt7V30aMnIPetdKesibbpEHVkqVEzR0iEYbSPvXsflrZoLmTqwOTeMVYQmKzqAQBe
+rfPWh58Jtc6RJAxT1i/pfDFGLbnP6EaLSVbrLBgdJtihTnr3a2XA+movGByjEUL5Klo21309pXxJ
+Nwt/krdI9jx+dOdfGlDk+ZsZsANT6wVj3+Z16RsEVcdUqjqyD9ZkGACcM8Sk3ttPZWoV+cqFqwOY
+bLpGwuVEAjGweJlChLEB6Rxx4Ea381iPtXeXhkY65rBYhWHXF1k/B/5wK1PhJkgDg0DvHz3VuSRI
+eFEYGsul4+QtdwqZI1P2NbN2E7uXhgiVl1/hsptY+V2ajqQ3bEfEsW20hfApOHemLH1K8wC7yYbj
+Fs9JszFr+Kj+puyIhi6/wk0uOV4BOT94xOULgrhiz8Kdtf0+YQVZE5Wiv4Tzx5WchkCgN1RO3HL1
+6zq2SgGZPR71HRM5bbtgVbXwqBFre3rKdwAPfdw8xq5iACwlW9F9F6iCz9XnS407d+H2NSkOEB5r
+SRtytDyGH3cqrUQ/Hku7lLj/snJo5/mqdHCRh/YGW51HYWBBEDs/4YIGqCtUkkCPWI++NXugzn7s
+9gZP0Omb/gnSHqJa7pcRLxUwMh5707VPxAqnkvCk6+UkGVkcQfCn5jU0Jj3ApDL0k3dnEGGEH4W+
+NcMAwZu8xs5vRs5hKFsOu36/HqWEaF6pNmN+507kZ50y1wlRtDpjwGZ9VdPB4168j55waQO+0ksN
+fXEhekZ+NMQ58PzQtSEn2gXu4ur/Eq1LnBVuJcbp/VYb54//+yafP8euzs6uPbsuOAGrNOLhNUuw
+RVL7pETdMF039jJxECD+CFcFQRRlRSbP+UFVy9Ax1Npu7lV0QTztHLrgvPEwS8xmerR0p8Eucj5i
+19RDas2WNByCVWbOEY8bwT0mumus6Uyc+M93kChzhyt8v6bYTvoZR5iqlKN1mHtfx4qb50d7Hh4y
+zHLuj4SOyg+XdgjfOMk55lYgyNOHQS4u+eVcNaYXPy6gz31HXnAs9O09D6Sln7F23nKR+lugOLf8
+OzJjBKOr7WJ96ucbaiwjSlnknIK4ti3J8xSNFwthDVO9j3T1YZJLBq98IItA15Q1XdXmNRk8u3ml
+T1IyfODDFvriFT1+edsC5OgvJPyKH5iW+fzIS1O/DiSU6vMv8bWKx8deB15hixDRLz7FjbAiccja
+2bO6S3EeK0naBp23f7/lAag7pzMlIuNLWAEqDp7WScY6P1jNIs1Hdm6pT75TY8B/XJttFHJwN40r
+dvddjnr0Ih8bvcvmMcU9tgwwiu1Nz/rK73B1kKm/y9gsTvMRs3ni2g90dky6X3ng5HAZwzaixCOt
+ktw1pGZNyw82jW5+Q2AZ/z+/AQquiYTLQIpu+/kNzI2QuntUKUfH/bkaniSujEaxDedFj/0xYCpP
+d5NobGYY+MI5apqckFU+MhklaoULIhNhpXwzSV1lvonyCqXs4R1LSbs8RqZJlGhZ1d9np3WEONRp
+zO3Yi7d3pqmI5+Gxhzqj70nEfjV2j1A04lEeuvOlT0EEbWsjMKzOuKIsGluM6RYkAziYKEffPgss
+g5tpwgXgx7nW9duMhvbK6kkoNFYdigJ+KAa4LqYSylaD5LEFDCBwbJL+VipOZllcC3jJfELOln6/
+aXu3jCt4f9Rmi4UYJtzB7FahfRGF8EqM1XIuk0LLF1R4jUt/f96HVubK56KYs6pcd3mez+4ljHT9
+PnXOmIBARZnfMVXiKIMB5k07M9OkO8BPffP6RFjcX7v3M4AoWOIR/1zNOVf5bWR7RjrNGLYKS4lA
+pLqgrHqWu2sSqYTsvjgz+uVwO4UpDm87OdZu3iL9MkBk6GyFvnx2ImFxOSyGqLPw63OISdhhBK+X
+jcIN9XCDP2Qx+M53Mu0qUAORmIkYjuPiFqH3BSvn0TjhUdJRKi41LpDPzLcU1MZYw8rYp46pryGs
+ESk1u3eIKU/Yr7KzDgrY1c8ywFreenXo0OU3Ujb1HO60arszfo0JloHhlhVN5C62PWAVxhoRj6ee
+kMCOWfdgRk0aResQr514uh899jbNj2BIhsb+1mIeqcy9ynrMFdaGvbTZ0+L0WNetelaHicgl7LjY
+U3qeG/QWOq+gSAN7PfBLA7cdNBzsPxH3vV3J+VmS50wxv6apNOvLeptu8nzQ818wR3o2YfevX17i
+LPQnyjekJUxt/TtaMQafmKNZfzDEc4RPDODp+vN5WPMqR+wWw5ulm616i5e0RsM4K/2X9yHLnpKZ
+KIDvxp/O2IWeTo1oraZZYXdv2cr07/rYi0YaXiZRLs8OrueBfYFsQr/lkQHpANwDgI4fMF+YLRqU
+y3hqmmBFNybPjfMC/+Ofvh/IVQFLGiRpHva5YiuTdIFdk5Z173zJzhMWjWL9zVBJNXBg5I3GL2HG
+KQdVcVQ0VbiKG9kbJ+TfNddMLzVlKCV2pLdxsTNxDG/I9Wn1by+cUWWsI0jke/2S17bG2DflOOkx
+6YUL/SGE9FCSim1MUASj93xDbElwJ3OlL/UWy4Eikl7Gtsg9/y8ky08QH6iepgeb5zxYS8pPdsBx
+B94DUctGLFdJztqL4DqcFHkS+U1jOPoNIvBDv12ogfW5/6W6+1jb6cNLDXKZgUsr6zcoVfVTZYyt
+J0/vU2PK9KTvP0hcfvPnQ30C1HibTBBijoUPMf8vNcb3j8YZ3iGNH7KV/PcYwfOe9AqoJzR9cX3W
+ozuQsX6ofZLyhCtHOTyy98nxz+fyEU908QWjZWkBIEt6QYzzT8BqOAh7xuchOgUgoPI5cTFlb3Yt
+duTkZlZsnf92n38/oK1JrSZdQ1tCcP0EpWYkfFh5YcKnnEoWCiTOQadJrExz72/2ny/wUyC4vkK4
+36aLYYFv4/T3uTk75akTEd0h799njDFeMOvFmEDM2i3CaXECwWdiUV/6Ucwp3W1UmM+OQDB+MrCm
+Zj36yxl9HOmcEaUUFHFg7MB1gOg+AapzgAbGm0Vzn59fqpF9He/41Gch8zrE04RHANtKY/mBYHFg
+a2HE+kTSWqDsWg8Nlf3OLUTlYkfG1IJpblM3fJz3I7RuYMZQT67HM/ZYn6fZv1zEJywEhFN64E8s
+/0j/HNpQHwcxEUJsmltZvZY5ShPoQXSaWIqH2exYWUWIretLi9kr2A9O06AHSJuU5R7IEdFwXIO+
+/a1LN+sFHH/ifLh0eP1huf7lRD+9bZwo+KvHNIXnmm6Vf5pXJvKaa5wsxStkYslcnHZtnfd3rLJJ
+jS9KMzecnIHKmL9VrPNU0n62zMZprOvwog1IWYrWhXaouQTAgU+PBJ38QYx2XECRe4lR2lKwuSbx
+z17bRjqDITLt53xrloRM5n8bPp9AXS7Forqj527R1oK+++kNAvQum6Ec6mePjFg9lZ93UmHYwzBb
+WwvMEKb5+dyYOa8i/Vunomanwp/g4wjGGaP9770C5xM+yMlBOAOjtywS4JjbPg2LDNVaEcZV/Vyz
+91PNVrSZ71zbVizmS0GGBLcjCGH7QtSb5tkjhEuNTbymlzTK+6hZQuITCpyxn5TRgwL64K4MkwlL
+J9zMs97Vj6dqRcAQmgcPtLBWabY8LbnUILDJrpCnkHD3eUBVSXYtRqNvMLdfTBPPTpD0pgHdxYwQ
+zNVuK9qdxCGHf5VNGqPdNG+Hh9CuYQC/AjihR0mjlzNH5q37uF3tFoCVLYGy9S4YlDWcHHJWuyul
+spB46LxQtg44DIvpgJ5+jL7BeAudp8Ec9P7NI7Um/TU0bN/FX8bGx8kVJFhiNA+7RE95IJWfKRlY
+eJSRBVvvGTZTCyl4sk0PIepYpRXa874ZmWb+/Hp9bnTYHsgtGLxmENAW/HxE9oQ4RBRi/CYWgo7c
+9dg7urPyXsrLoWHPHqZiYSkd7b5ro2t03B7j9M+noakH/8SlaUWDE3v0xFxSC2h2fHopFqzRGiOQ
+xVOBPKKDLk3ukvGzgnTMbBRnbWltVYgr393Q+rokrUnspFz2O5s0W0CUMWcHi/XrZc5u/jSB/ZCg
+00JvAY/2CR5dN+4CiYVBBHWWVC+sXFe4lNF+JaHMZBxWQ8we4yJMs06/+QNr/61NK7GescdTgl7C
+n6/Y+jSv+YLeF/ARV83V4iP6aRXJZAgBG4ulRza9GNhu8Xix50t7WPS4dejfOofYIjqbLjSrAj+i
+7o2FgGW0HtICErgdnqjg9ZC2m4R64oBIWugpsgFot3YNCfCU2otLyTVvwrHQ/AcLih1vp2c1vEZ/
+viQ9N/x3t4oWVcCU5rAJgY/i0NT5NFOP8zIlanGzg1caKkP7XJAy8ywVe4a/7UJ+PxS8AJ/3xXcA
+O1EwfVy9itAu5j6S0eFcjQ1ILtluETtV8OPPV2V9nK/5dhgaAb1jWvRAIb/xpEqzi8N0qoPvZkqn
+7n1nYctMV8tKFBpRG30ETGuzcJSN0YHKAcJW8K8xAOhEOXmP6WiyD/zLeZ0pIv+44bRxuAXI7Oy3
+/rb/eWk0TeYgLyHxTC2ocNqt7U66qd+jN+urX+1S0hdeV21E24tUrxCxCwx8N+qs4pJCCmoQ8WZZ
+DShPJg2wsHlXhG4UVYeZss0lQ3FKMmtC32kzvX5rG6Leoq1KbaeE9Jj3i92tzcqUZBX6yqULciVg
+ywl5F5zXrkyCE4lbrOKtZrrOoniAM079KROE2WYKheQABuRBPMyNtGaIvNeOkP/1CpidKz7AE5/J
+R77tMM8oUPZ2N/FrtpmwQO10hTYOtgHWUNk+EE5p99xuql/ZezeizTVQYZzLzpqNAM/NRB2+wOZt
+u8JaViXasDLZkKeWoyb/NxrdUNFAOj3XmG/FLavIyP1FH6jrK68ZAP2BfTKJ1xZyCONUYKRJEYfH
+Fsbw63wqWt4/Wq15mj8KEAlU/pJQJYeoamkaGqdtB8XSRUybhsiCcW4F5rJZX9ARAxz3aACv0riD
+ur02+ioazWLVCFhN9l3QBFB6t1FDWkrz4M7BsFQPtIL17E15Dpvypupa+rsP2GgQZLFhnNOV38UK
+K4AUiyXwgF8zqGDrH12JR+UzDF+8327oaIT1lzII0owshrI1TEBK2DJTt1ZdzL5xi2cOz3aDL+Si
+UAQjrquGNVWz5ZIp5hAjeJUFbddiypSnYwLQGfiKPUASm+3ewchvfJVmkc3xJnTAQkjjwL1XfS0B
+xQ1sTc7Lyzs60rD3i+SVj+IDLKiMcwlt+r0EpiepS/iZ+Ad+nIdG/laol16egaYpUlCI1RiUKQvs
+jtqo8jgNO8P4Y8yMIXhgf135JyIBSZwsEjdyV3EUjSd3Ttx0MydjuE+cQRwSUywXhdJyPtwH7j2F
+N94UuPENHgBEGjfOoB7wNAkOTuTC4uftIxqU6MOvkUk+d9mbEHLDWDk7cEjQfrt0L/3afK4yXscS
+YdKVHLXdrRPHPF3TULsU48stXr797ZLmnbm1G9Ft/dkk5DRrZfE9rvuTbTn1pXKM6LIYWnLRWrqD
+8Dmiw1BhkxYHo//Fq+OGPWyd/EjaJtzkMUF8s1OWGzcMGnKsbIIMw5IdD2HxDl/tzyVGTaW3G/nK
+Cx+o7BU6aL+3iSX/0ZD/jo2xlRNcGaTuLk7N6lQjG4ajDnreEn9ZRY/jtPgvuVG6oKx98TD6NmYF
+dmceHXJYsFcwDHHl0EHZqa4tf7YEq32hr5NA++lE8MOiCw/UZNXWPdTfONnVc2lsrbbo7tvBAQtm
+Kti084TvQ4vYbOUWo78OPfi7/tdksIP5gt12/721HXwDKiwsQKCSIsZoUbj+Tx/VAQKN0FDHImDr
+vXGsLv0yDSIDwiqqS7ftrAb7gLh6MdO2vpo8x7xsJWYKzJ2u3i9Ew4jtbz9dm5hAX9CYNI5JJmJ7
+4zP7/bDGEWXhgtoxBtGsjW9j3Yw/G4N8eTuxlhf0YRUuA2ENrXFZWkZunJPUDfFI9Zt6GbPpKPuo
+gXNr1cnNbHlMxKBd62EUOm2GQIn6qKZG7ey6J8w0J82dJtyTO87fzT4MbxyL12do+25D18fEzXYq
+Bm/jzpXYOl5X3tSxo77N9US5bLKVI7umz9jvZ2TcRogcjB5JAbswnC7tvNxXYLgr2yy6LxOJ7V/a
+GJ+sddZ10WMDo/+rmmqMnJqpn9ahpQjWwSoqZ3fh0w7hxZviZe1M/ngXkBtM6OoypC9pUS8r+u8F
+SfP4wdX1YJH94/gXtY2AsldmeHQI33lpfTldpYulUL3SC+OgYbcKe6MBLMSiTPoGySW5lQUvygCn
+wSylhqTnpm1zJ0eZ7ZjopVwHyeIdOiSrd9Sk1DFjrB4x5633A5rIPaG38kWJ8HEEwnxcGjSq+6Z2
+yKxriujnzA3Zx53X91sq9PnUqcANV8ppINNkUbcy42G4wB2y3jdABJZW6waPQdkFr2KqxUOqwuqV
+ZKzlZ88A3wxeZV87bKL3JivFppma7kTpb6zcsRyuDNVmz5igl3uRWyEEJzp9N/FMlg8MWGYkM018
+oHq0dAePbeu6bst0nxEz/AhFSnD+g320zFLsUinab7RMmrugjNXBmvPgVKD2usQrBGcvjykXhJL8
+qBJhwlH1znhXtqF6UPh4fxfZwORgN/Nw48wFLw/thltLdP3lpLzxIhknQe5V75f7UGKLCHIJ8xNE
+OrhYDLQNIdPblwV3ykcf4uS3ZvG7BxZ8bNsQ8V4vltFRr8tklwehewX5yBLrrghyMk5mbKNNKF27
+JTKqu4zu6B1k8xopK0lVOzWmzbe66x30ke6yXKnA6S8pyjOA26J6iMQSFMzZxbTFk80/WNAx1kO9
+OLf+EAmapsr4YYQEq5hXs+ssSaD9qMGZNl5Pt9G/ylwxeN3WxDsh71b/rXwDAM9vDGcu/19Ub5S1
+/WNiD0Ozj4mJcj6I3cyiDI6fNW5+sGjrpqUL3jVulcH2/RL5pse9lubYKbLCBnrw1qSsEeuqpsDL
+zzG+eGWQEFM14Tu/jYNa3SN8xE8QNs6Mc1GSVcnGUKULsTAMLWPvEc663M9+iTPuXm89zE3QTFVe
+Zdy1aoyyYwZcqnIMkdi5rN2iD4fr/1nxBOsttDajxRbxsgNH6J7cBGAOR0JDoZwjJMCMSkrow9BJ
+7+jak1mmD4vAUW1A29OYQX+0mezMC9+hWbtv8lk7igyt258ClCop1WaUB3iIGGGU4yzmBNMpEVSI
+K+yj8i/VjKvqfpQAfmvTa2zzagwwlMXqjhbrtQ4OHTeAQcumoulwJDgUHTfO/bhozzjH3qKDleid
+kBiW5kQAK4bkmUYkatstbrvOSf1uM8sUq3p6n+irtpUP82TdW7NdbB2rz+MrlG6pXBUlHbj10mkP
+Jfyx6Ml7fZodSvRF1TYa3fE6Syj/NumUTAek9VhWY20We3QrUmXhbqZqmCK9S1qmPUJMkp3d3Rhu
+MGGCmWLfukIQJuiS0E55smpD/RgCtiZC1Wiuqiq08JgcYrvHGldOsVGtoU0Bu6DEiuU9Wt/KY2PW
++3OSr5lJOz5QYZo/Jd+BlK3Ux1a3/epGDb4CeOh7lqdNcsg9ca8tY5A9ArAS25608Z2XaBhweY6j
+xygmkzSo3XRFlVCcRlh329AP1d5k7cANsZcKYoKHb+iMaaYSSb8bYhWs66Ze6pUHIomOqHCLkypz
+uVFK4jDsJw7TKxEP31GCLTuvwpy6iabwGu4HRnDW1OoYOdYa5y7AvuvkUSvjfD6AwjMcGC8QtZPx
+h1XV2Ze6KVt/23pedEVESnXqm7aLtj3uUhgkl0WEmLSYAqKC02Zjlw354E2I729mWtugi6vLLHSN
+azubnEu7hk5CDCy0ooCqaGPb4fBS9l6/X3BER5TssQZvzGBo2m2NjuYGqGzsLmo1YtrdjiYG81mU
+rh3ZDvUqwAAJUQPYX3/RSi5uO9N+PC2Y4P8IYSQ1+xTmw0bxTqLKnjN1wyLP2p/IjND7lO0FpxDe
+s+gkux4Ll3Vf1vFTmkTWs07O2UGnDPaVGRQ7r/bSOzKO1RovsfgrLguPqMppdVG37TwbT2gSCrGt
+cwW+cMIM1bG3RTitQjWl/joBcDyGtc1FRya9x2TC1IlUxtuUquQ4jFbyPYuF95yFkfU1s8R4NcCp
+2bh1U10ImnlPtEXxqGdKm+qVSM0Gv/hQsG1FEazHoPPdyXSNPhMgxqI92e1rhV8DckWZQFGhzVfJ
+i9Itk2rdqmTqYAEsFW0cb0yttciZRlZItFL3muwL+zWOY9w7baK1Svw6vdjHG6Zo1jQmGBP4UJKV
+JrEhJIQDzFKx1cqiY1FX3b9qirYYB0shzGfW3VGtAgLChoPRZXLT1alxQANqP2pGF7HfJB6sktmo
+b/EaTF97ogFZHSg8d1UfwlOtQldcQapQpIBB91upiB3N1dT29Wtmd1OybmkADatkyKfvXTfzrvBO
+Uqb1Nf2lH/gi8Ee4Ev+XvTPbjRzJ0vSrDPqeCe4LMD3AOEnf5FpDoZB0Q2gJcSeNNO5PPx89Misj
+VFVZXZibvmigUECkNidpNDvnP/8yhFU2kIfWoCfkbCWKer8ipN9N0NJoWzpJh/qR9m2jUI10QRE1
+ihUqDTYJvroM1kMni+LJEfg55aCiQaEqDcm9I5pUeA+uB19ztTq1uzEpdiM11ZpVXiFVbJKEZObJ
+o/KEX6fUVwbidMXvyenGtbdULRG2YoCnD1eQReSvarjMzAmthUzXeCV+mzk1WhuuXezgR3OT6pTU
+RhUtj5Xsq/xar7VRBjQVEbm8LN56EX6r9XEx7xQVv0jz2u4NMt1yrUmNlwKEVMFcXXGnLNpCZcgn
+9TJParv2fJrtycRacklKiac3KnNrDhKYBW6x6RlcmDOWoHNU5hezG4Ho+LKfPE3cFAOgFfmETDS8
+ftv2okkfMUQ16zgYeVUYcCMSMvCsGqamtrttTKlWYR3RK+WHbOQ0WFhE5GlJWlwDC+ILlldMxbFg
+y1YbuHY2EeuTl0XSvPVgKhBZ0fxjGz0yV59aLv87AllH5T7KjJg6T2DQ/Gi1lp58+TFGU8Q6Cu4K
+bx1a6Vo0iQvPQ0EEGYZtHPiC93Bx3mMzUidyJTAb5X1rNOmlTyixE4UUYhf8TaGxjbLR5oRgO+4e
++gQ8wT111JPTFbYj6mxiEStJI98RLqHztDjxsjp7Ndy+GlYnz66fqwuj5/KWDaI2XZcYoEgcWb8Y
+nSVSO7TBZFPjqPZ9M9dnGzlKHFqHGLNgjCHYjxUSS3L4oZc6NFsqd+GxY84eaYOda+7SzsFHUjAf
+G5hxpT5k174YCfWqJjMtQjHChfSADqraPS1UfiSDoKmPQHcH0sT7jWY2nhk682KYu9XR5UG4ffFV
+gffYbfQaTdzG7Hl3QniAJV7Hqzc0gx6SFcPalh6O0i0MwmmzrB7O6Jj6+TxQOuK5N9wgSCJpounT
+09m0Odft/jLT5rkMhVFCox08KDpCKb5k3jQ6hwaXAtyBqzX+ZarGvNqdLZW7yRVjhcRlyN/FomKi
+jvkK6mybc7QPztbHMlXGifoAs2MKUBrEKMPHdNfaJn7uUelOr8oSTTNa+hi7BILB09wKxrSq3loV
+atFGZpgEq6TtDDQjbYa5HdUEvt19YuXDe0xgEIALBbVe+WfrXeRjQ6Rsy57J1Ndeb0hOjVSzrkNz
+VuVek7XzRNC5CV7pRHqM0+WipxYNqjPLq9K1VUxGVavvHiGlQWhDXQD/2Ydt1wzUR5oO4xNs6yqm
+8S43ZkMZfjlBhZiIJvjDplUhTp2pTW8xR4T1LEpIdfpM0rtbWR5kgb8ZsS64mSsbDK+aPWL9JvN7
+8LLXBSoZa+MPk9U+WQhq0TCMwUhpCkwvcrHUWd1UFWilYIeZiE8K27B8prcck1snK9u16DL0dE8F
+Yx9b/MbSV7ZIY94Zg5ndnZ1MIbDH7z9cTF2CpyASkwuEld+STps/HUzHtki4BNR1DEX+dDCdcsu7
++2Fe6mX1eNDALPDrg7X4bTRM5I1ny9LKzDKI43/4lXZ6pT7aq1Wp58AQT9piYRgll3mDimi+QuqJ
+M6neywFp1NmU1EvJhj+c/UiZiiwQ9f/OhFRUzqxvmd3DgFEN9I5BPBgDW6/CaA+x+z+0FI11Df22
+asXCwe25EPfj5HToQbqKq4Sn5Tyj68cTsqT+vv7ZNJSSGs9PO4885sA5UZcBB3oGJxa05IYcGV1u
+FlsIO8wHqM+B8adPaGxBdIbQ97NFKP4bE7lY1vzksFsMF1NXtSL4yQC0UyxSS36Yf5Z6fWkUEcla
+SZE7EDj/gcXnpAiJXl7ipZu6+gsD4L5CW+fgW5j+nbcnTrskt/dJ6hbsv5+8PZUoIZ0H4Co3wAKI
+u96c/TsJoyUl42zdWcP9U0NntGZ6Ak9ngNdEKuYspZYl97k1taPPuUlVR3mO1WTbuOt9s68x9gSF
+NvQ6whMMt80G/lu8GfriyZBl/dh2NWkLaQX0CNcdCisemxgZtU8x6n+8XOWkkGi0aJdtzyRbArs8
+VzHhbIQCDURJpLlz3fVdfeyshrHm6p8JLODslUh1HwCMUwdn2dh+PftjTqYq74Y/rTGzwR3Xao2I
+acurQHgcuCV7aSSVTRaDQuFUpt60+8kDswXbClrceU2/Maw+pHz53fqyzEbtkdyT6dGLOm0jZK8i
+QLRyfNiK6APBh0ogi9l9dSn3d5oZaa812qBHlR+xNn8zqmS87F7+6lGJdKS7ET3eUBu3q1UN8uZy
+g1sm+vVWwxvzhwdl70ojwHDgAhBNOY2N3n7LwDqCc/odZhvVspkSrX5Q3ML8kiUG4ZHnjDshKg35
+Jxx40mbf5h7wvw0xPzeb9pUDivAxnKMY3TqPNLR1Ke5aU2LCed1leA9NoXTdlTXaNsiymetPhBg1
+jBqggtTX5gzJcd6NOmNJPTBqdeqSg9onZNMdkNjM3dconUbrzarMOsch2y07E3frVu2UwB3IomrZ
+vHJ4hozaYK5lnpbaagAlWlsoG111Tv02t3EZO/TzBIiJMdNkbU2zGt1nu6o6NpWG8B0MiEbHYgwa
+UOfBIAvIx4pjqIbkXw8IRSjj4bvOSLR5aRAYEXI0D4mov6uNMpMlDV0ICnUoxYgDGOzJNM7hcQpy
+K5ltsAZxbdphGryoze1AkBMtTGpMdts+1O4YDVkARcal72M6nk44LxGHQfyyHG3X1kJVGL1sXnv8
+VLUZW9yYNBd/rE1Kss0iEnaGfYTYMPOIFZ/XKzHtWPWKXRJPg4OFLmHMurVZE0v5Giolx54ulE7S
+L19keIkUNn5snusM27+ezv06z2Zo6MBUQunpQc1CB/PZRjK1Zqbdceq857VYx+Wkpq3UtzL3Ch64
+UjOV+hdzyl9ZSetfRMXNrHJVuiIn/uzhBzbndiqKse/lj784/OAVGlbVwhrAh8vsoQEP6qQgeksz
+ZoI/LvnfMnPYfa+vXsrv8n+vP/VWC6gZcdKdrQT+/Nd9XfK/v/yWy/StrWX90X3+rl9+r/w/5y9j
+Ihq8dC+//CM8O6fe9t9b7BdkX/z4DL9/53/1i//r+3/Jf1U1XR7GP7dzuHyBiPxSvf/iAPHjh/7w
+X8VJlcE5knPVVNHo/unlgCUQTqooxKE1qo579mz4PUrYwJlVZ55JoC5ckXUI/Dc7B8P5zYXhp0Ei
+cSDPoX/+d+wcfuUEWfx52H6qusqHUf/bn1cW7ISsLZN82eMxbxG+N5jVKZ7i+WupgQ7EHOP/gg3y
+ebrPH4QQ4qJW4JOjkvxEJKANQpKz2PMeS7+WAdEw+ERYpf+CgfErAeN8WWsU6rpd4Zmo658IGJ0l
+VegtybTHYQktlj41t3lNkFHqmCKE4keOh2xxIGsy5U7Cpv760xq4+TGm/9n/AU7VJ74EdAn7LIeH
+XMBN/uzAgIGhmw6z0+1r2N5AODAbt4AY6h7yiXvCQL09TtnUStBbzGE3gnhJSe2dKiAK2Jx+qfH0
+xZQ7IupZjmtOeKwxxnOZJG2R1PC9wMBIIYxCwU5qAq6sNlYkZxQC7jx/NN2c3+FeloOsucsefiK9
+O5kvx9K2mscobaDsDyV2OCLWcE5nIgAcAJtl2asIhu8ppcVVS/LivY6F9E1n9NFxxNbwxcWgnL67
+HuaPRHJFQ1UMD0VfzTsJQnsCh4ZLGKWuxi6uV6eElONnZAbiSWNcqvrjlOJ81pCeDMc4uvMGp0TB
+JIVaH7hVsCzilRDLmM40jZ0OqsfA1ZHEdi6pfj+Tex1gAJKQSrdUpxoqNZt+DFgnnLS9rYEBqKuc
+sfNJMCHHCfUB0r8p3Ud4xgdGlLbHnPboVpZddFxwqdzZZOMcmm7h4xjd8JCp5fDQZIv9haejh9Bs
+GIfrVuH39tS8zfXI++BorKGxmr8mXVQ/YcTNkyFCT93bo8c7NLbR0egq72RrSrpvmKZ9jL2Yv6ot
+P4JMX36za2YT0RSbhwauxj1qF/ktw6fkBM3YO5UlVUCAKzfO8szqFfIzCJDGmKwQnMDkmTJV0hng
+6PmdsBMs8LWYyBC9bt/MiH/GOdp3P8504CX6RDJbkZu9AYzMX130WTs77YsDc1ZxNTvYthEvi3ua
+BBqpQqgexUFQz2w6qjYG1sq0U7Qov4tH/ARsN2muYE5baG/i4TsKq1Ub3+XbslBVNg2tfk6nZniI
+MD+/pHPkVxnJvMP+wN1oE1fs4Tp4FaFv9W2lsa6ZFBJG4HEttpmhfSSSyh/ynKU4IIb9rhFusZtT
+Uo1iWDchoi46f1rxoFSo3IICy4mPMY8FHnSe5U9jlGVBNylpFdRJBJCqRs0bVgXLZTUm81d9LHGM
+rHkZirbJt0pede9QVLT71EzHIIkL4j4x7vNlzHPM+vVWr0uUsILhO8V6vl3yWafch11CAVLPO1Nj
+/bdM1Z6K2ImOhcyfRkX2R0iV5XXsfsD4UoEEFSBahD6lfkik9azqTFZ1ek4S11ibG/Jz0p2O5XqA
+pPIZwezwvTMdcUUCFoty0gdi/HhQNt0zSZumuBalYeJTNlrX/YwVZZVii9rjKPmsdCar1ckZvOtR
+/WyU1nyRoYP6Mrmzy8wmc6mfqrF+Qf0oKz9F0bHxWi8PzhfnrtE3spbKHZhE1REJki2XozvLb0Iq
++d1cd5pLbDD3R+u06AhlG3+0UU33Xa07aGwhEu0suGFvAqUcj6lEh+rPcEketTT3TniewlbHh7K5
+6mw9dvVvbu5puf1EFPDYvaXMKp9SrcJ2dz8YS4WQv1swx4evNfaXTCFwPxtjozfvjJxkysac5q+a
+O8Mftfuk2kBraQOMu+0t6xC+dYe0G8x26tia+uqqrz2dcX2GNaiS33RIP26x9LtTrB4mjCi3buJY
+t0trsXc6k3HVWjEOfNFVCXIQqA4vUYyJ8KHU86/SMkkrKKI+7M35NXVLep+hf88TvTwoVUznYCYH
+ZF7ELGu9ONXlMIaFRTso0Wi/06Y3YZxKOt4m2hZjqx3RdnmBNrcOAkUrDmIRp1e4Y8yXiieGGZAm
+OqJ/Oyq5aIK0aOhfhBc1B1NXi0BXJvovlQEyY0AokmVRfMQ4orowaCtnB1OEzEWzupsrJw110MmL
+DAPeS8ZS49ZOeGGbrNQu0jmawh4u7WFB5ucDEagHFTuGPX4Fsy86ww3rkXpSGC6vJQFmROU4woeK
+pV6M6IP3fax9ATz0trbpSDxa0S6FZCJ2b/QKo+1bjQfOWC48w01ckORFmK0DsEMDW0ftqZc63AFd
+7Q/x6OEbXHg2pA9I9sEcyTejRuceWzFnHge4y5iJYy7Rpw7Wkt3cQb7WNlqXS3DqPpkwzCTU0HOn
+Z9caGC8a+XRRMRXCijHPn4AOalImkG3uAFhwXnJwAQjwNEJ0PpgGdl9Gc0t15m7N3jKcg2B/VYOZ
+TYQEW0QvciN4ry7NQoqLcYmWsIbmetAnIQMjSXirJFnNebOpVsb/3BEYJ+x2+rqMRkasTMmMRVb7
+sQiMQSGet7WXF8bf1kGfy+WeVrGOfbDePXnUTK4IM7qBdkLEYdQ3x7wUJHpgq81yJ1eqYIobIik0
+bx1y2SgOZo3QhXYsV8rbtlGYDuPavWzweyaCC63co2PH5CSq87g1o3nY9EDQ2ybBILCPy9tCUzjL
+ye45pLRsBvroIYiVmCgYN9Z2RcqKtw0iudwBaZo3RuZlDaUDYt2o3JUAoVfIPOcjtjYDjZnlJWaI
+G2H5HbT4ivBN5+RNnW775gisiNWlbhFcleSXQi7aQSTQWHxcftuLYokMzLUdcFbHYuDIrLSQF8kc
+566faZn6XZRlSVyIU9lToGbqcFiQyfmiVNodo3zraSz6NA0w385gH8XyrTTg311q0hwIY9YqLbae
+PBIG9sSwEpkNGUNiRz5hyOkk1vBaZxqTVYSo1AWiuYWHXgQ2FP46dIcyvVDI0gXjnZ3MYfmVyQF3
+mPbkNYAA6NAkjR4aqHQ/VW4k/SytrWtcZtP9klTiVReuIoFE53x9NirALiUS5p6cQ4W27DNLVidP
+jyw2Z9G9u1AfhB+PBOxu1Vxy4Ah24Y+qKKDCz0p0J3JnfQdyygQnUkUUxBY+4k6S4rSeCOt6SVPl
+TqmF4HJTg2BggGU8aREgQAgkQSUw7Um8gt0uIkwYDF9pC6czMtvm+KP4YrSj3QOJy3eEdpkb6EjO
+qJPL1QwSPYAeUoZCv2amSnwSBSMOlYOJJyZMiAMU8OpUAA/twZgwhK0Blro2w9+7FDr8tMTCUnOD
+DlK5q2Kvf0gRfF+j0M5JWLHFVbycP4XXPBrK6tIYNc26KS/l/NFl1CSp51CeeE2j3bANVu+GsOsh
+UGKGuJIy8WjHbESbsuXjzFLMuwS61EOSqjw7rVHcylfLdt5hfzNfqAPhuAnBtwFD13lXU2w9CRmD
+rc1r+csAC3SSYFCdKe9mnerfo06YP9xZpLtpiUhRzvBG0NJRzhsCjTGtRCpQHHLda27/uon4RE5e
+m5hV7Obo9EvwyNmBfiVCtzrWGDEa532s6M0xQvW8lsNO5TdZ095CmKO8ZwQUDDyYZzmvTgpjxc3u
+O+tfNTTar1qCH59l/SSGY2l8nM/SsL42QL+yptubcJIT3wbtv3ZgNIQ4ZkRHmKFIsD3uLMlp040T
+1xDVpWXsl65+jiMsQRSg5qM0hvkCVmTz2Pfo6bD9nb6OVNz/Ap/RaI5/IauvN87FoNAg1QR+9+cP
+i2VW7sAzloRWMo4eZGV/mQUvGhLq5FrpWXUcRSwwbWDF550EG+ecOubVRKS7oG52ULlc/vXTPLec
+PxG6eZpI+s/yB5fG/e8a35jBnM4kSu5LLAsNH+p3FEi3b07LSIRnC20nYGtewtkwOHgioMjHjFEm
+QfPra2oO+V02ms3RKOxlT8ph/U48r3Pr2rGA3NAsKx1rHaZ3lhL89Se3/sFCRHzoAl6srpO2o37q
+2XGuMERBLNl+ajjTZpLss7Ap8Y6v54ndKa3GwIM48DHo87CHExNvFU1/cTPxbaxiI0whG4WKNcZM
+xcv6kimd+TSAvF6mi5FfqGppPJPulEyXOGBVw0WbJO4B+UYeqGa6bNOJF5pBeLaPvdS6VrWEmTXD
+nLupIE+AAnLZVhMKJjOhmm+bHnLQusPouOLeDXFrfyHnfP4o3Vi1Njq2wQygJHsselPq3hHtTd+z
+gSVRTc1Os0xfwuwYnTtDpIpxf8lOfK7Vp2ppbquiWfcUby3bcwp6r7QkyXWpzWAnF6E+ReIqNzRM
+nPuGGhSeIwGYyfAQL0qM/6KlF8+t0ef2EeqDM5yaiFTdb2NKQoUyyW4KrThPVCyh8aRX9oZBKAVT
+Yh2fYjPggir9AYsnbSMbMrwODoGj8SGnpAkIC+Q/rNJ6cnklNGs/SlGqEb9NxX2BaZt8x452EpzG
+1PStmmAoD6+PK44rrw4J/KYjKSZKeYTl6kYBxybJPFb3dN9ssa4pv6kZraYOWu5LS6kBPT2xXEJO
+K31MT8TrnPVYXKe4jPcD1ZWaj6zIpaOhYJrQPxDe/uy09I/LhC++OxZGymQ9hZG43jsvH930uCzc
+fA4d5Q4dgnHQODhuc2NId1GesOm5VlccOsutXxAF1C/mDBuj0wsdGhfuXVujcwmRH7j1cwOrvR9p
++u2ikt/Q+ctvE3r5Awh8/dytvV2VeAWh1t3A0GYpGOTPxYjZ9BITIiLxd4cobeCJlDq3pdH2Dyqm
+CqFe6fWLBXFlp5p0WEKjew7aauEE6GpNftMJvqEXKcRV56QOb7DJboJbkRsAi9MZRaZJ/HFtLbwj
+Uu0rbQP51g06dWne6mpaw0SWYiPpDjHFM5d9lXAmQn8FldNHjpzJW4/QdXywtWYHAKjUm8cRu/uT
+NgKz4G3knWKM7vFed6qTHXPjWg7QHdldll+71fDgkhWEFn1Od+6KAIGMi6syBx9CZwJCgJnXh8tb
+uuAbuIin3C5vhskRzEE62m2mh9daBWutHBPb10x+aaWshfP6qSfTA8Ry05qFURfrMzDG4qCtr+q0
+7u8kW47QoDmmrAZz/6kt4ddlSCnCfkhBRtbmNZ1UGnhSl5tbYox5MjUY/vv5LCZntIpWrGe+yFE2
+wndqR3Adw+ZWraBEXTjzxRLb8yWTA/d0Xob6BATD8m7U/dQr86UZg3gYcm5uz4hPZbB8UKEUcAdB
+TpqSLrjA5AeTVgoqxL/uqY9syz/DA0qscBvMhs4WwJFbvwJ5S+rO21wACI1J8tFCd73EUYVaY8Jn
+D5LPBBbmMjZnyjHldxCQJ+bnSe7Rp1CS9bUz3TQ9QbxJBWeecGS1OEwLV7SaegDikKDr194IBBeh
+NwfaUVGT9kodYjkEnAFwN4Y4CLK/TKV1ree29YWCR4U/YA/yGylMIIKLmTePkCkAyqxubN5iCMWh
+RAT8FatFcBs8Tg5oJda+0WRbo6OPjmekRkGQQEaiQ0AnHEt+U6kD9pBwI0JD48+f8ZvzITnlYLdV
+nZgHsqC/4625lsuofIiJKCmWGqkSuH1eminQpTCBhqpai+4QmlcnQRYGRo+me3I72TzWBJtCWIjB
+1Pq1Vka7mFwPJp2WH6sdm7uiy/e68OrnKabYadXGO40O+2w9JtzCxGpaEsMNHkie91ooaZ9CaVOe
+dxnv9Lqem3bdhmVUy4tC4s4Bk9yh5s1bfpxDFKdEg4IvWVFv6pL1FKBBe9ZcloS59PK9b6L6Be+1
++BqWMbARrle+nZs0AOxEGwQseRCt6Ne5vHU9ENI4r/K7chxAkZjMBTZS+Pvz2UDoIOw8N06uHbZ8
+cCdA1EGxcBmIFegZHummEIMpQ0jo1u/Hdh58rzTBz2oqYZN2mDSpTLsXMMM3ac+DRARaHOZCrU6L
+0VcnaLnFoVyfQUJ5+CTl2Iptu9QU56PGbobg4WEeKZNJg3RPal3o90pZsdmyjz3W0hVPxDxFR/AL
+2z9DgpgymQdXF9GRfIsR1ivlp2Q3EQznZL6NMYjYNvVEccIgikwL9p/OMEBBa/wB/Vkd6udCVwCo
+kXM+GGlEq9BROCN3HgMdcDnksGfxnLfZyeFugBzNF6TAx9/o6uHLwM9d+wk5gUK1xnTTAtp8FQ5V
+O75JQBaDHLiZzEXJgOQ9YibHqWUPgh7PYK0p+BpMGOA962i3UojWVnMcRQGIuG6VBuYXYYtZ8vXi
+6gj8SBgH9VJkaOAyRtsFZMI72YJOV50zXzqIrO+Nxum/O/gH7To++qaiwDPQN9OECFLbX2XZUnI0
+cikOeAPSxIiU9Aqneh4Gi7u2asEP0Op5VYace4DciG5oGJtHqpKMWIdphu1CLINH3dJb6dWoYCO4
+QZE9PEAPpoKcB4zleh74jCj+EkZTdHf+5/nFnMuMI0bR+vbNgkR2JzhUDhVs5psJJ7YtNL90VxNj
+GxopVWXMiBg1FcZ316ZwFsavVrpcCnuhI8MPYTvJ/KM3l9oOYZ1xfStQ7EjxbOp0puNaBUD8piWD
+Z9DvABK44vGA4m7ck8BEbFacBMs6iekAVEIo0fyxHMnBEapi/WNW+m+NKv9/ppC/DDf/2czzv+Go
+kqaMuvyfTyqR1Fff37r0re9+Hlb++LE/ZpXab86q9KXphDKpn1vOP7IiDSaSFpobhnfnIElGbr8P
+K039N5VNWseIGNsMXG35HAhMu+Q//4OsSA9DBMvFrH51+WBO9m94z5vnceTPTZRLB0quAW0U5r2q
++nmuZ+kz5gt1OuxrxPSBjotzmCyV51td9zjb+StxLxnKoqULK8ihfp6xEUzTnB9dLRe+2rn37uDm
+RwV7wMupL04DpS0ENftKb1qyVFWF+LhsQEuyMtzgTS5b0yhVArlQV4Npe1tBoo9PqIrnO55+K6JB
+DeCwwFA23TzUGtiHscbfPB+QmVbxN9WGFKJcPg6Fd89rTGgJxx7Ey+zVVoQaFHjyQo5lP68Hpz2I
+oX3UCGPwF2sw0I1YSoj91ANkoDsccF+Hlj9vW+KxqNOPOu6gvaISBtHUb7WExpUGB3dXAU6qts2j
+ra3DldapNqPC5VVUI/4EMzgYFOfQtu4B85UujCS3ZvAiWvkSG9cs/9BzhUxhm1tZu60M1IZfWgzc
+AjOPv3IJ3AbVPZSplEHU8l2DymcYhKmECXx3fCN0stJNzpsaVzngNLLWh9y8Hd2eFGN+MiO/BEwH
+Hu1C0s8Gmygw1gIdpNVpy21cF7feXAwhgCvPJF6sC8ts+PijQb3Y8IGAf2gOl/grBjUT5QY4mFdX
+H3PV1PuGtHXfiuY8GM9jG6+I32imNO6Dd89wuguNak0KV6HqnYtps2Mvo/nTAWs9eY/eIefgtVFj
+KUyGIHku+9Hl7hnELwej5RxcTbk/LxKKaMImzUYGwmEdaLNxWw4utBzVQx1JYajn/B8k69sh5UPF
+WW4eiH/ztloGOZIEtOnoeEAog1hXUcf3QgC9SiWdb1OvY88hyXw7sldGKwurL0rhl5Z1xXr+mDyY
+aiuDAFQ4fUW5z7Nf+FdGgsoGK4sqGDsXyudQ8zMld0lqtGVYHiyXaiM9v5Xt4/l5l5Ssm6FgWXEw
+U68kLBlILTx6xpekW7rFUdXiD15yVrXN97oJq5OET2NTr+9CzKz5a4FjzMZ24RprfBDePEZGIk+v
+2OkPkBju54UnPza8J7g5MEumabikpxM+uN4j9Q86J4cn7PYsJgIer843g5A3SjmFbxV5+QqkyCQQ
+PdCRpHIrJKdI+EUuwZ4qT7uDA8hoQoyA/2ulZHRCYMKmr0d6rQZnYJCATj5DnMgLVzLcjG1dOxlN
+hHvEOgHOEfLhhm2gYMuI2OlrVlnFF6exyi+petSV3IgecUiKMJ/jIlR5T9RiSG+HxOJoXhdIBvx5
+bhUnE9C2r91pdaqrN2rJ4zYTLz/GiVrtJtXIQ1QNvIa5W/vnZ6uUXL4S0bfh28gWwhKo4N/7SBsJ
+nl9X+XnAV4vW28nYzEPcOxm8GEkRQDQW/nkBrCucV/yW7hHF4cw25kEtDc2Fsvr8mDt8ZXgPWEYT
+4oVwyLToRaSWsrcSLnUhGxKJoqYQ+0cRncGhTee1mtbyD+YbBrJf3h5V4W0u8dddwYDoqLbUmk4K
+Bd2arJ07Zq9KnM4bBU+5U5TreYgZWeozxFb2Z7y6XiztNDuJt3VsFlmF09BJgeruL9WKu2XlC8JF
+hsbkpKaTufOSgo4IuB5uAfN3Uxq273SqgbiIPgyfo/YAMQEYvILgOqWluifGysCSLWZTjDU2t5FH
+pzi5t4t6/TYxPHe3aBSXzLf0kHZkYE7FZTNiTvFH0XiLHFHvS5cdrAQy+bE36d5KWVhfWjQ7A+4x
+yj2/O7khZkQNWsu81eeM6XqkuPRZKBnybGQxNZPYShsNX17DfkwaCrXJNqer3sk/yDLg1sy8Aed7
+bXtgkiRYJTeMNLytWdl5aE6dDBTXYgukVN042Obc6NpSBrD0i50bNR+Nw38mPC7kpadDTNlPTKVI
+aUvaNxfpdUiXhwtE4zyUtVmHuZLcKGN/5dRdtjFGNz7O6URFrdAKEYyOpVWo52PNZH8ioyrArp24
+iNVoE/sm0w49V5M0REubveoEGwWayBi+ozS4B7QqgDJHkV3OCBCOKabb9JRqhNYFKZHZhyvJkCTL
+tLshEMCO4o2tMTrftogvwBNzZPCk7LUyXMxEaL7dNMpRRP0LaoP6XXrDm5mqNaMuY8o/3MaAPsQu
+ARXV58UY97CI6y1SlckTSAqBVkWG+LHMMEEm9kpH3KW50aU31gupY0Y1yqscG3bnUHmmLPfY1nbK
+44w43U/6eChOECmMbtO2BSgavVeTXlmDrc/Yt1YR0wtMKo+JY9//VIrd/D1h6DO8Tl2DYRdqQdBV
+3NeMT1B/4eHaiLNnDxQzz+A2yUeac7gYlXvft7XBsuKtM1NW+l//3c/0r/PfNbHpx20FXpb6iSfl
+zaY+k33W77XxvNnxDhpp/l4BE8Iqyj/++q/9SpykRFyvEiqjrZt44nufzdWWEafsdKn6fTGzQNZK
+wMsjJaTNUn9c1/80AT/Cp17eS7CwVHZt+vZLNa+xcfz0TFbq5O9Ex5W6+Z//8X9Jjairl58bgB8/
+8nsDoKkebEUoiXBNDWyILEYrvzcAmmb+Rs6K/cOuDxoja/QPtqLzG56JKoEWNAfrV/gMvzcABqFU
+VCEULgywoMm5/079D1vj18kOa8bic609hsrnMT9bSZUNFPUpt0e8swXeK+wDY1cWFCUQYdSLWgwu
+7l5Z43S0oblO6Ln6DQcRqMZ5JUp5r5dmt7SblWMLwafNWioGaiS8wtwvwFxC2ljHZVWq9b4YJzSV
+Jg51JTomb95nyjgqKGOwniyHA8KmUg7IH5AcdOKyKmYg9WFIeYE8VwC/YCt0rJUSUkWWAkzOZhTd
+Z0YjsEyxHwmyHXYjBf/q6Y/vvpWJU1bCpC6zqdc2lgXkk9i8KszI8Z1lcArdCTviwQtHJq8jTKaF
+iGu7sMmcRZf2okJRyKFkyeGSQBX0enrSjWu+eE/OpAeSX+ygMxW7acA8K7C8Oj3YZdw4V57XsQXL
+WSUoQlHQIthi7nYd7KaegwEIMynNfC+idtxmS+sQU6pU/GKULtHkE2w9kMcZVU/gQNrdSGjUsON0
+AfSXciCpESkzFJh4XjaAcW2QWc3w2LXm/BAttWP7bdyI6UA27rTqqCwuFA1crz+SadPgwq8VO6nb
+bWhq+RAy52qYfGjtaSRKYLVUwSFHpQISmzQfrQMx7M6Dl83TSe9GT+7SDKfvbSJbhgEDSz0gV2VW
+bxtOVuYpVbkzuiICTbMm0mhhDGJkm2WKbw0Ya2zodNs6UHvI8AiFSzCsKAkglPTuVh/HMRyJUPRx
+hxpi2Jgd2c/IQoUFj6MYP8jIVl+ocuJtbvE2bnOYhyH2tPNLSUSbvsVx3tqRHS++aFWbXJBxUDzW
+8NE2kTpoI11H3BHMkcRqoLfONZ7K5H3rSRTiAwBnAlY8Z7qqTdoA66RotvOA3jhxWu96shpMK6K2
+93vI/Udy0SdnUxtlTnyEQYFgJX3xrmZKfcBUVD90JY4pcIyjZ94G/DiIDvBeo3LQ0s0suyHfxV2j
+30fE6x7GtnS2KHGZanhVJL8g3nlTRwaNw+wuAXE6DCZ4A9JD7SCmw8pjovaMGdGeSrswj3liuU8u
+eMOOIFA72vw/9s5kO24j26K/8n4AXggEAs00W2ayb0Q1EyyKktD3gfbr3wZpuUhKlso19qBcXpZI
+JJBA4Ma95+yjkICIjeqZrLXIk+SmDeo7OtDNRe2Z8+dM58yw63C67+IqZ4oU8AgahumzszdmyXbJ
+aC+nciwuakXWAG3rJIlXVh8Ha4VNeyOY5b1z2Jew6/WJV2fo+l7XC1IFA1B2k9qVtW5pZe8xpe91
+6XEfuoHdrUBZm9cqqrv1BDbL35WFbUEZJEAxOH2yP3ZKV5fNongiXC37Woh0OtQ+yUbjkiTWU8Ks
+ikA/JmZsb2C7D2uF+f1kiTNYl7b1MA7Te5U1zE3S0B83qB/dhp2eBMuVAb2jDO2cq6EFisBh4Wl3
+U/Nva+y/UvEr5fMi+UVr7IGkPczG8asX4/NPfX8x8vYT6NUVbzdLKXQF/3kxWvYfvPwQ0tvmE2sR
+LfiLzpgAxOYRAMezLRaryPcXIzmOkl+IFP75tfmPOmNvR/RQPR1BkOqCCjaJXlqqgJfcYk3ISVV3
+3XhBl4R4rwE/G89+4sL1cYf+2jHUdExGkuK3ppnqj7q0+3cE047wsf2ifv/i6v2kmhWv/SpYaReK
+sL/Q+2y8EJbDFXn5aexiqlIfkQ1ttUJchOnM+K5zS2z5Y88GadUPdvfR5UGOV03uETkLNJoXHAEU
+ro0Hzi2++Fqbl/yOCHsqcql3NMI8sZ8cFXwV5F+Mv5GMWPabwmL5xJSmgI8hfZuUF28+MRNbvttJ
+X5DwEoYbh5yadz3zUrmj3V8yCyDcPtnELnXr7DqYIqfUlPscNx35xH2pv0Rj2wpikSvFVCQu8TTn
+y3zdbVQKy7JMoqu0Aw+DTbnd0GX179uoPiXThuxnQiud87iJ+vw3LogfvwacSiaNSPp/gvV1OekX
+MGt3MrAhV1l7ARnXvy9D+r208CxujYr26NUwNv5tFYjsw6+//jdlvglMBMypS6OWe5F/LB/rxWFB
+VoQ2kiry3L1ZXJDY0V1A4VuTRhfd//pIb7ZNT0fy6QIv/Gsyn7w391nFW3WueTFewFyzH4hsImg8
+wAFhrdIq2po18vq1NCe6LNC0hvx3N81yU7zoRnN4bhRLWUguHYfV4c3hoWXGUbhgl9yafPY86dRD
+mi2fAeVau3UayqnJ5KvfD1k9QNRKS/crQlcSgNh40QyQjUmHJwHRk7igPEC/WHITYeD4WpHfvDEN
+2EFrijW7OVESydXz6+BvgxvFj1+Ux27MEjA9iSrDX/b6izKdThVKBca56IL8IW5AwK6EkerCXskJ
+XO0R50n6OfR8gGlzTbgC1rx4UQq737Q7zyU675CReJn0X2OQ/F96VUXu8ddfMfaXt1dZkimIgBAo
+gsDt5y5qrxe3k9N4sdlEWp5T0VWBj2SCwep+yZvyd7rvOoSYtXnd55PqVkBD3HUjCgrHptpny6s+
+zer8piJadqSHMoTvhyTHbtJij6womN4Bu/IY2hYBI/mljoi1pKYIkra4GJZCo15KjjAUVB/49qlE
+rD7KT4AiZTdWEl6FQK7GVda56NupYvRTPeMspY2IJ4u1we7meWUOXnKWLWUQ9a19jJbSaH6qkgYz
+wovKTRcfjKc6alhKKrEUV3MyPlYtQLGOuALiEXLt7oK27g4ka1p3dUQI755RO/XaHKXBZ7pzVHFx
+URufuqW0q4CoHMjjqA6i9rMvcV85PPdLORg/VYb9UiQ2S7k4LYUjig7/EurPuMV5Wu/EU4WZMdSB
+ujUQxrTulyI0byXlaOVfRgEjjg2xEvqEV401rAmVYTem3ezDmJvRqdX41a2CK7Hv/MSwqJjy+cFz
+ymbbmiOKEFqfqMSwxj4AyBm+wTGlfoY6Si1dPNXV41Jiy6XYnp7q7mYpwTMt85OCvwqEf6nQqc2p
+1pOnyt0NBvisT/W8vZT28qnKb6j3Q3up/IdlExA/7QeSp72BfNonjNIdzxwwAFlw3Q21zvMVSCWI
+VV+iILKs+WM7GKObU/nSckzLR2TbiZYNRJKuq8wLnWo6TyAm6nkPA1UHwCRjBAyJlZW35jLiTRD0
+LSW5j4wWadLSyo0AlG2KAGEH0uN0qLcAskNz3WQ4LC5pFDrgAdPJJc59GjNfnzkt3UqyVAN0RgPN
+VGXsHCNKgsueR8cJ17VX4d4XEr73rsjixl9hnQWcsB3pV66NwBfMkKeATci6xJCSryOfFMzdkLlZ
+vm0DqoKdKsJ8XnuzYsUsrBQ0Xx4tIel9S0vvCqZFDoE9jL1vRtfT7t2YpaUhaHqdd6GoWINjIV3t
+qmRdjC2ycBROrG4gp8LIJT6k7Weyo5q2iHdT5uTTidkit0bZNmX0aUc1ZfuG8DCDyZptvTeqfBYb
+oC4pG5Q0N41LIEcGcwVdFO8Tphn5QTa+phFPMMUNowUJIQ8ghjiNhgjRCoQstr97RlNVccvLWB7x
+J1vprqv4BNtSM1LaemKcscUkUzWc5x4QzK3Bo9KAVxXdsWGamW3CQIbd0lnm64yfYtMLgpXnr1jF
+fQcKkoYQJRFW1wdBxX+CWixFIZfSKd/EZRxs5i5I8bYPTeWTszYk9loSjoElAua/cWoGGdDQKsDF
+QTfcrbZiIgzsEMViCLepb0dsCfh7aA2BEHD7hIQGjEOMpUKPsfEJQxnhLXCHUs9CyQ2kH6F/bxvY
+GbLB6i6cyp/gk+JOP1ddwSsphFu8GH9A4cgdoXei+AjPqIiONaOEcdcOao5Pyd3Ud3ZiqQc1BoiY
+PGZakgCgEQ9P68z0EsCMJDiwJIGjawze25jQt4/ZgKRkhUSzv22VM3yumkjCNxrCYOuROIxCzwv4
+PSorif1D2yUuIEhhY2i1EndCwwlaDQ7JgmtNWNq4JWIqiU8aQFzw8FwmGpex4fr3hVkvN2eS1O3e
+zdqovRonhndrs16aI9FQ8MFKwInilDeYf49Fnrs7Z5VsNp7wR7a9rR9YV0kDGvPG8mj/HkY7Gbpz
+Peql+Iym8UqlhjPie8k5dFkiSIQ7nesZuqO7nPzy0ZG0Lp+rysWFrQrOoqtJCFqE+em89tOeR6fK
+wjS+LlAHgT7rqApC/ow11dJFdFkLe2ogylURtsdoaMbuPGfygorH7Gqcoovjdzv1tbUsGjxMa86I
+BQTU0VIn45K8Dwg0OJJEEXsM41TKfQFC7mEoFg382CTTjdSj2Z4i/bcSemKEiN3i8hr2bWGKi9oP
+649g4516iS6LrWPpIZc9JRcA8gR+pBpEGQEYe9SXZEEyb5se0yxVV2PXmkxXiQ9O3w/0jtAxBwCU
+iM1a1pC4xknIPsBD7QtStt1VZC+8R3KT7/KhCplT2CxzUzNENzHo4lPa9YnaKKuxyPPJlO1i/LP8
++4b8iXCbWQWPyWwE0j/YqMXqrzkL8sQMn1tqC66SeyRRYJJ2gJP6LS+ZoT4VTYfbJPBxGvGmlUiQ
+3KZOPjU+LGBjokw/zr5uxBfYtBMiRiHcHvQlc9XtmIuFaDqAHD9UfC3D2gC7QDxl3+vzcXJBAvVt
+DYi+PbFzBIYn87CQiqHKtfO+ytKyPMebYp8Z2mTKEtVF3p+G5CtGSFbbPLqjEmm/mECoEdi4cduv
+0qgdaBMOvVfzFpjq2yysRfxBlLP0+hVEzXR6x3zK8PllUDzp7kC7OBpBNXymLWT0WMaYRR9ihBzX
+I/2Ced90YBi28bx0+2JLJ/JqTLNZXeROteD2mC8757aIwAhPVDftlqki39rgFQiPm9nNWTvwsmzF
+KPHT9RlUzf1MNCkf1R5DF0fWZLbrgPZo/X4gU/cuiWiD8DjE/j33et5eFT7dkF1nVT6pXnnkkArb
+fQynRhkWXUqR3Sh4fAPj81Db8FIzr7/BRuLDFQu5o7dVLPk22TjQvoulTsszt6kieQVaMnMOZKj6
+nNc4GuF52hjoOPN2MV5QjXX6PMsCPj9+xnDXRl4awa42zcNU2zz3E/OWmKZi5D6r+f+dL/xmvkCr
+gk3O33dSNl+zh+Gh+fpywPD8M98VRgsNwWdXSucDmRHujL/6KK5CfATV4KmH8jxE+D5f8P+gSY/6
+yCfNhuVvccJ8b6N4f9i2ELRlHGUR5PXPaAjEz7zebODSUI4QpEBBy1pGGW/6AGmC5kIQBXgykfL4
+gVZ2UQF0kbS8xzmn0+c2ud5V9XSVldaMyDVCtMEOfF1gydolfVygaZGzwGPfUTMWBSUBz+nwddTO
+gnVB0MGrEH1hqK8Kz1gC+jD/GqhZJc1O4hfpXE/SBMU/+tAzuYjonNF83D57xDG2XmQJWl6kEuhS
+XJYHmDHwr47wQ1IkB4gHiDaDUb2wBClTmlOg0snKycGLG6NK9gMfzlrJxqkOuOqDQ2k0+qbwQ/vY
+tPGnxK2ND3GWM9+uC2dlA7CjfrdC6jikODhjqkuoVN4mH9vr3gu/KCPlJAGGrURkXdsWVjff5xGc
+lCQQCXXR3gzTbxWkUII1fdhxhYk0C9YcQJhaVyiKOXrUW9cOeTcUWfqcWHC56ixEDMK7C/ruXBA/
+vIrG4naoZ3E2MmReZWnRryyQjvwjP4ODcGZ71Ycg19Z6Fno8os/4hIDn4KBIXGVSXqdT+qlenKFu
+Wd6OiTF/TAnB3OBRjzapV3U78EL4+uNizS14N8pgG7jsZsA3LR8BMoLiV/v1KPfu7JqXMjUMdp5p
+eRu2fnZfIha7Z+lEc7EoiyA8SmyuiD8QV/GSNaEMztUV3UMcEbZx1AQWPpS2aO4qZi+wn3idr/HX
+sBxbwAwHdRJ4M292petLSDzNBzv17pw2LsF2I70WFORngLhdLN++OPFrx4MJ7L3L5sog5U4O7wAJ
+hkebxG0XCUSbX1t+0D0aJjmQa9jh8hqpsrzIYzaQm8GKRsRPUT1vs6i4lTTWtrJhLLGxSnnTZppW
+txeQRSkj3q08OatksZtEGS+hPh9rf988WVHCSkDKjidISgQFrLTXg0y1xNidLv414rAbQ72jBIhP
+7dwxP9mc+KadAPfmcQIDTXEty53w2I2u5DjhL55qpQ9lgn5WqQT7AdT52dh7dFSCb5PvDueZ1YDc
+CQukMJkbsx9DUIApNBG3T8vXvwv9bxZ6X0iWvl8s9PHz8Pn/ym//R3uiyz+/bp4///z3Rd/5g3H/
+kka2THnoMtKI+i4rdf+g1KKla7Kfo79jOn81z6X3h+/bPsswhilWOoc/+s+qz0iZNCvfY0K1JO38
+k7Hy8vp42cdj0ad9b0tBJ48+mlzO/GWHiVSwVFD9myeE/THW+5aFxiXq6wPW08VSeQL05NiamKCD
+7oNIWdlAsL64eD/pmD9ZEl+0Ep8+AuoPgbzVp9Py5L980eQqCUerPA/HVdlMkF0ZR7PxW81dW62s
+2kRuv0R12BnY5CpM9i683+1gfbRRLc4RUjEqI5PNYlx6O+1DnXYp9JdRG+CXFUKdDWU11O7qcTGh
+xCW6viJaGemnBJXh8q+Tba9sjDgtcdRx3q5aYzspMi9KjQYwTJ0zxHPFtJpNjQwHqr2Ej5DSOJLF
+Pdpzii8hT0bHW+UgWGxLnoYdvRhAEtc2gW648FF7esY5jzKyIC1brBlnttFds+Z0mM8Wg52vrx3/
+o5DGtg3dh7nlE/Aw0+Yhq9oBmF0TKxNF267MNv2Yr9nD3YwGE3Voi1vaHtteV594U5n7mPw49rqn
+iG8/z2G31km6rp0h2+OW81aD1oRqw9rMgeHtIVBj4jWHx4IMldDp2rOCfTAy4GpdOS0Hw5WUSnzK
+YHj/XVb+K54W9zYl19+vK5dp9hCV+cPLAtJ6/qE/FxOfaZtkzVAWQhAplc9U47tExZQIUajpWRNM
+S9gef/S9hFwkKuDrqC9fyVPkH45QzPOQJBFDqNx/pE9Raun4v3iMkc+ggGdZEnwCsSxbr1eShnZM
+MTqiPtraGDfSznY66vVO5tpjtFxE5UHBLixWGnqS2qYNZGBQQir5kjHCKdGqQ9hH9UGPKw725MrL
+5o5cvuyUPXqcXGmnaD71Tex+VLNTHCMRZqd6SEiiNNjskAsS50csqJhbU7/fIOyAN1DVRvmxAOh3
+3k94lvb5JPbhgLI2nCOr2gEqafyPmPCkdwK8nu0gNijnQz+MnXc1UZJvCGaLzmAMaXsrHRCCaz+s
+vPih10b0Ad8RErqyKdl8gXxkodDweDWdXZQ3oIPNNI5GbHZ4goeLLMIU7e48ujjVRdnCnKGuayGg
+YPZBEX6iW1qG4zYncdPIj4ViUsDe1SLRVxEt5eYANK056GjOZ1xPsMlTTsOWsoT6etP1PRATRv/C
+fBwgSAwz3cFY4eFPi1ah+SmSMkjXedeQwbZyuoI4l8IDZrIeYdAGGer+ubZRJSSVPa9Tpw/RZi6w
+74i4Lw/87Jx8mQOQjipd65yA6k0fljHMCotU9T1M+aC5gGZlHEzClK9MSLUrEJpyNfR2Q4M6Kg6R
+gc2bMBbrlh5TF69ka6I8EcVwLSj6do5fTQ9ulaRbgBYZokgylOKyJZLby9MzZP9yX7Z2TldKI20q
+euQNJIQ56PKzbkF0rN0ugseUF+VGOlF4qSDhrFErjxAcw3Rja4SkiUMAWDv7wXWTD/l7fPkaHw67
+cZotfUWX1XmXlnl4LcO6vRqi3r3OoF5/pF09bkIftS+b8vGa+6FEdlLG9xlerKvMKqf3SLhBxQxd
+18MZs4INLPlFW5QG93BVeTdEjnFpwArSq7Yx/B1OB3kWOEG2J3E0Zt6BEmK6r2qPZijYxne1QwIv
+YUCpIJ4H2iOx8bUc13HeuOO6nOb5UDQUBXj2WPo7FFgHwokaxmxpeC+rUp7682IxEpUa7myfknnl
+VU2QbLq0yb6JAev3SuJyQmmNaWabWiXBR1QtV+h1MEYMiveKu2mTzsbyIEf3TExVGFL7zkjNmJj0
+l10YWqdiJK7atv1upZOJ77rL2uY6ypziHmFrse8DzLNU2O9FjQ1cZ5535JvOtxOtzzWYCu98Bmp5
+HThtdCzIhEZTLOcPnZzzfOcTwPWYlI15apD0BsK9lu5xyEa0wUn1tffr4IQ9cb2NxnTmG3STWz/1
+ug+mk2Tvp3SO38tBx8R31176vjYKHzMET5hj6GbPVNPaUkLrHTiPU6xmzjr34myfNHK6pI8DcGls
+F97vlCbQowjQuhQJ+P5ZzUm0Uo4ZXxWLuA347ojbN8SH0AtkxEy3oHDGeNU3tlFPNFG7aj0EA8VG
+Br/bZVsKttpcV6odjqQZsKuYlHVvMyO51EbzLp6b26Qy3C+jKknxMoG2AAQaAFKsrWpO7twmsU9z
+OLBnJglMKydpgw3pRgdUvO45cIKaR6Nrb3nLZxvVmOWj0+G6roa5vJKBP39epsM1481sXOR01Sm4
+UZvEC1uhN84sm/laPW3m2Q/PbUt0HxeOQoF/ZR0wgYC0LcS8Bth3ZJsePsDIjb8uffZ129dnVhcM
+W/reIyEnnfzAnCw+kYZreatxGKYz/KsLLcCh56e1ZfDE2ZEJPGc0dk0pwLv7pldep0lLr7fSwt9m
+3Sgu+jZePM+Iydgj5uTFnTDTGEFZ2/TJ03CQt70OvM/pkDOl6WJyHgiMH/wttv7pxjYC76zsC/XQ
+qaY8ZTPcOAuaiHWuM7FOhqIIMNl6EXr3wTaf7YzErrQXLs1gUKydHDZColZatXF0KHO6zatqwtgN
+2IEwjBjDpz8oyDnm+FjzzrsRgzMdQgMKDr80xOsStAeVVv5e1/ZIa9TCNcWU6hGRs/pWGvaXuKqt
+M5qwrUYpv/CWfZgS9H95yI30fBgj79yXaXpGl9whgWp+jExQ+Vj7y5U9ju9Ks7kdyaVbe6JBlLkM
+K+LOiXYxvaK9Gc/+dS2acms4VkQFSb8ViEp0kaUo9mDIBxj3G/GeHAh7n4TK3PG8PyZYEG6wFAzr
+qM4IIHIFK0jUVMchScndaQKVnauSeSjgnv68LEwge+S6wMfOHQ0UTpTX3Lk5PQ5/uGIv3HyhfW+Y
+K6sSGWWP7d2HTmAf+YTTxhrINy5VhSyP5np+RS9d7TJrKg+ioNdgMiSFZGPGREiF7gqcb7nX3dht
+7G7UH62GDXrmlfh23PSTbsXnBNLvGuPqfNYPeditHJiRV7ZXI8uDdbEZ8wg/ghzbb0L26bYTU3eb
+mI7a9sx6Get56c72QFrIxghu4160F47p6v3gE1g4tXFz2YeYz7bJ7DdLfZ97kKYj4zB0p01sR2tV
+DJ8bE4pdPUJRCAcv/ZJ7rthOs8n36nmfIi/72qRxu7ifXGYK6eL65t8C2i1AdJRz0sca+liS2Tgs
+BHxzHTMgJ4Hh0SfrnbUzMvZaFehDofpegzCXR6tNyJDTSX3oKEjwhWX+ibTLdueOVF4GWCYEwFF/
+GuclU5hshKOmhWFsTPT+65FUw62EhvfI7CBe89nvYnBm626KnJOhZ9QWq/PZHqqTAqAdGyd0m6VQ
+j7VZXXfQeAnFLkh/SeY9S7SxmqQB7Y6EsQjRLlsGCO9OZkJFN8sLt2quXcIR/bbez0Pe4QaChWBG
+xQ1IxvSYlHPISKzyVjVCl5UTF0h0ouiIazjcBXZ2LnPDuPHbcdhnuA5P7CkJof7k12AMryD0Rjud
+kwc3l6RqONl07fed2EB+Qjqrq3Kj56rYQHrGmBJ1Yl/A2GMRduWloUfGcr7h3kEPBFiVBOWauLOv
+deAYWwX/YxXnXb6y4krxIkuZRhayux4s4T/G8P23LuPSFdTAEwdRGfKy3uNlPEdYiDuBja3qDmPe
++CdJAfA/jGfvmOvpmgTHhXT47t+91H+zlwIOZf2yGX+KV+qhfbmT+vNH/rOTUnReMNJ6ijKF7+7F
+TurJ02thRsFq++wD+K5ppDvyvQ1DX4eX02IfAbUkIO3+ozbMm4ByxeYJkQqoKwHzGNXg2+Z7jXSL
+QPfROc2tCqc9GzYBMkEME2V+1xoVRb/7vAUgZwigfllM8GgaZWKqxF8ubXGbPe8e2ue9hDGPDXWP
+F3SYeTrZ4xlzn7Yf6fNehIFubg8X+nmfMlnuQAQOajx2MCTu5M5Zj7vzkbfttbbR/q0FyTBk5Dju
+LqNxNe3aOlws79Ot4c10p2cNamFd+3j76pXlW6wPlmha86wgW1Otk9ZsDMaSvD5Pshr001ViBOlt
+Uwf+xzabZbRukPeIdYOntjplr4cqoZz8D4Z07JJDTM68Hf3MivdQDwhLkgQtbWUZe5cp3fqPNd7K
+jeGXw6eY0IurWaEXKrsJj1YTNXoF+4Pyu5QRLjVdGtU+nXPIBOSdfXJaqMBWS0jBiowL/7H0vcds
+nC488kfiVZ/m04F/BOd958jLWMXmie+zvjNn9Ncjvkj+jvTra5wTDE/NaTI3egCqsLLBo0MX7kqC
+1wnknlaDIISlQNaGz61r78coDw5WMw37mZnztd9a09EAyNYgwbFGYxUEUHSjLIm/cD+o6wR+LPLv
+0jIuo7zw9qNympO2HMXZEOjiLppdArG9rrwqgTet+zGMyrXtaQIaVY+qpMxae+XU5F3BlOgI6slo
+9iFhPfDKIdJMq6nfxB1uNWHRliKxC1WCEYw7ycwELExCb3AK6vmTQXLnjorZ2NeofmBxWPOjmVsu
+mFdR3fLOCy4ItCzPSiPs8r3NfvNy7GanF4J5ta0tOJff/1+nbB+jc0NZVdXhpctdwjPrHnhnc0yQ
+UA7FMQ/aISs3LuqyxN9ZjcF7Qyy5Df3zLhe3B1vef1fU/2ZFJaGOHvPfN6dodJfNw5fy5ZL6/DN/
+rqiECTLelJ7v00cGQLcoQv/qTeGsUoiMFX0pWhZ0mr73pmzxhyksOlloWJcO+NIef7nCCos2t6uU
+dOkv/ZMV1l4a2S/aUybkO89FR+l6HI4x7Jv2lJlHlRkYqI9wQiy3E6J1b+o+4Ct6uuOe778U+1VE
+j7nFc6jOJPoOoqhzjGeuXqlysiumS4TypPK8MFAA81gT8BOabBa9rInbfZcmegz2qcdKEZ+pcOhp
+Is/816A74fnhWO9MBecEPCcPSDdGZ6LP1TQTOuq5Bo0YAwVGj9U8P0r0zSgtgEnhKa4DaAsfraIJ
+FvyvbqrpNmEmSE6iZ4cDKLxo7CL/Mo6xeT/3dLDx0uBB/0SzJ3vu/KCJpg1EljOauX/dFf+Vu0II
+c/Gr/v1js+Opib+8aun++TN/Pjae+Qe/wlQC/wTgsCcd95+Pjef+wcjIwcBBsbN0V3k2vrd0eWxM
+3IuMh0z8enhL/3pscGTQHmbg5KGVdCzs0//ksXkjQLYZMiib4oEnkH/lUX3d1A0RlMxeVXYnltWF
+GuqAj4SSIHD/zO6kT0mhmgK8VIdl04/wob+4Vj8ZDXGCL59Z5HELWoXFhKeX3vUCV3k5nCIxcCb/
+fWQ71ln91p1yZytiK9uAYcxP/odDYbFEsWCTOf02m6GRCS+pXC2bWSbNmSUGupQw3FC+1//DWXEp
+F5ykWLgxrLsvz2oWY0q0mq33T9TBEfnPpgEov9aj2x1+fVaLiv3Fovd0ASXnZJuSmwKT6utD4Tjp
+0kxxAempYz2ZLJR5nfNt7J0NWDn8nyViBRaXdI2JoHwe9Pytxp578CcHX+YO3MXIbN+cpx4B0stK
+671R2s5KJGO0LYRdn/36FH+8RxSGWIvV3Qaljojm9Sm2oSdpRAXdviFPpOHeLOi4qbF2+21S5YjW
+f324N74SrqhavExU/SB9EC4sJ/1iWImL05KRoA8dTg7x7mnz1ZXWNw/qK2P4/NQh8e55bf0HlxFb
+LRUzHnJhix9kOUEEUsGT5NUjCcBAh8yPLwty5a/Pa7lMr+8UjsKwCfKhyftMLpf5xXnZXcAkuE67
+vSS7YyUN4wxr+iWdYbA5Zq5+c04/u4ovj/bmS8NBRSC8yrq91w9iFRB8HvY5roQkxbqFL3fVpOnn
+X5/gsj/84QwpApb9FZ4PNpCvz3CKUscbBh47ETn2pV3a2X1IwPyB2E7vpKOZu+nqGxdb57rOgIY6
+gCuPlZInXdiU+x5++LYbcSc2g1s9jqM0DpNj+ysr0PXt3NDscSNo5ik02l9/bvHjY6SIPXIhUyki
+l36447w2ZDymeYzigVSulW0MqQvYSfVbw5Aoh1pB79QDbie5elsIb/Ync4awSChidYEbHKBiFfqX
+6FP/nOT+7Z2pfvrRWJ+XJ1zxvzcPQ+JnuAcI18SREm2tIFIb9lvkA3uOJkgibN+NMdBcc3DIRC+z
+uTiORdKcIcPvU3RUKIB6tnJY8WjyE8W2kmjCN1BDwXBY4cQk3WouLGc2DjNsjk3da70ZXMUuE9rL
+fYcg/F6Tlbz20ZavG9twd5IcRPZjjcf8ejzqtGnZxmQMwhmUrcZMnUZ2+q4bPDAY9iTpXc2AW1Gf
+AZLRl6UPTq+O8XlPNvSTEfb3mUnC6Hujqft9UqQGTbvpWzrJG+2ROOu7YXqinUhf8puL3a+/9R8f
+EI9gJInfku6E47pvblZyS1SnmNjv4za6MNIuwkJmHkQ83nVzQMuvA4f3PxwRtTGxyous5G1qj9+M
+PenGqd43QXAAIb/FbP3oF/ZZI/FOoAr+8Ovj/bhuwzNgtaHuh1JNeMPrx7EN/b7gu9H7ZMoQetCO
+PYTlQEHLpnjz60P9eJt6ip4KHR1aNmht3tymYYf+bcCouPe9Xp2WRi0OTGjc31zAnx6FMS5lCj4C
+ruHrE8rZXeR64AIaJNM1q9r1jRO8C97Vr09G/LiOcTYeQk2qRXIy1ZvjpPggBBaHdj+Ootxgi0l2
+zpjj22wL5gOgAPaj5MYHeYLHyXuPzHxf2mn8u2VJ/rCcYgRmp6dgW6BJeNpvvXhh1HVpz3Hvtnt7
+zNztgMdnh9FD72ymbx5Qptmmn08Ae2OWX7NycG9SnQwMgc3+PJ9necRQFPzmG7B++pmwHqJfJX2R
+5vnrryC0DYM0S9nuyYksDmajtr7J0HwudH0RtLQZIrcjuQanwzoj4u+yW0L3nJiMQt9jeOwW2deM
+7K+LlKHvPA+fuoTJbh3r6nYqGFtXzBVPVBgNx2LKLgxT/664+PkJ+OzbJCU9z//y3b+4qIFo/Hzy
+Bi4qk6ywcatdN9jhu4hVbF3VbrIJWmHSuXE0b6wmP+KbefBi965tHP/QVUGwHiFlbBkc+dfl7JZ3
+nj1/naFUHKUHdwo7wsQ4NDF4V+gMZnVd/aY8Em+22dRH3BYvzuDN3TmQJ0HPfULKayThMZj9gnzO
+sVhEXBsdNyzyHbvmJDEPskR42lZE6/76AZE/vQsg7NBy8Cyy4t487t7EWoIhsl2i5xnyd5mnPlNW
+Xbl2y17YN+Ho9uN7RCzRI9Zc3fXhOikt5LCkfwI+bXeW2ZabhmiX1YAlKafxyjg34oC03UDn2Uko
+vk6FECyV7q0L0UyZCYY8w39PUnRzInplnhkgPE7msnwAj3frTBwotJ/QKn77u1i5H0s3oopNOtVU
+CI7Jbun1TYM23CUdmwWhZgJeBHu3h85tzGa0gjgmf1Mn/mTZdqiB2XnaTHGxi78+WJsRIM7ott1X
+YfHNx9fMWxt1sY2l7DdHWn7T64qU0wKbafkkBrjm28K+DsKORF/FndSEd6mQ4fuEwBTI1RO7CTUR
+DLYyHcM7gsuPfnML/eTtS2IhPXYJT2Dhe74+SR3GaG8SJledO32kM381uvWNaQffMld/ZsvrbH59
+y75VYS5PDXAhel2CMFCFnP/1Acmmacc45pZlG17cQL6/sKZAbqYCjb3s56+Yie7KGEFLOFUUNzZc
+ub4NmyWp6Ten/tObiV4dbxY6TD9QRuNO9yrqeX4Hr9Qbs3KRwuMGXRkxYT0qSr79+sx/8tJ00KYt
+dFT23mzyX5+44ydpSB+ML3lqABNWIljPzOZ/s0f86fVlZm9zJ3F5n8RxL9fVpBVhKTDm79kjN2sk
+QwSmF2SrOoHHLBdjL1EFhJgb6M22Q0AiCt2AbDv2xuk8O79bI3/clHuOYFfIphwEhnr7vA5Tp+ao
+TfkwPfQ3bOS4d5r5HKQx4oFcGOuqzYt95GryVdLO/M1j9db5/nSvUQ1xsanboXq8udc0oTGWLMxm
+Pwk7+ly56NNX5BTpyzYWKl+BiXacddnxCwhDAHO56hGJqA1NTqQpUKiidD0Y03DeRxLInaU1YxsV
+qvbLr++Mnyw0gDUdZHEmSAUMM6/vDEY18aQIvNo76Mt2AJj7rd3W/pZaPv7NJfnJofCL2a6P/gci
+ydveT5yItqqx/+31HOTfbDm513MR5Q3QT/N/OK0lDYVW99JS+2FVqyB76sqz672y4uaasbNDkogb
+nCaNpov4V6Px6nmlfBnE+ZNFjCPRFqFEBHDw/+yd2ZbcyJVlf6V/AFqYh1ef3WP2GBjkCxaZQWI0
+GACDATB8fW1ESmqJqu5c9V4PopiZET5gMFy795x9fu9UMCzMSql5pwJTzY4pUfsM9gr8ua1w5c8C
+2bPMzV8sH//toWR/7UO6c3za+v9+1rLMbkAUBN0R5yb812Ce0EILd9fbrvqLt2KuwIv99oSg0iC8
+NaKr77Fi/fubxZUvdbY4XCI+QPxDaMwAaiP3p2WHLbWBT98rdxdSk9fbzhsnAsCGXs/7BU+veBJx
+wM1VePQYz8SH1m9uO+Lk7BvUZFDMwaBvmBTk3yVAgrvKw9AIIbZG7aXISsD6w1fyttEaagnPKJic
+wwQSxNwEVp4cC9ykhKURLV+iIc+JFdUuvu7anwP3UDpiDvde0ubuOykHhfgZljRLSL1iB5PfzHlP
+PA7x5n3+qmrpmDWcIQmO2KOFv7fs1rmIBUPgEdHpqO4DAZfxzh9IRnwKFbbmA/9sTXhPe1VBzvWT
+qtk1eHOzuzhqELXqwJPlQQdd/TxayKMufWPJk9NXaK5M1rv9JsmLN8EU2cfJCOHiHGVEtWyZLpI1
+YsinzPaihRJwW45sJ2EyJy0ac6UmchXxiJp5R0hqat8IC6sifQfRurtWIAHewIgjqz7C2GkQOw4z
+uh1EUc/w2a0IeJoqzeNEGuRzU/j9sDdWl0RXGwVWttewvvSZInY+dPGcFHBCM5gODGSWZavILTk2
+6ETlvk7X9p9tkR+16VQQvxJWXm+Jy5HeVvn5iIsHhMJJxPqJPu9Bg+34krZu/V5bsX0dGtybKSC6
+EzEw9cq/f9C1OTSdOswwe68pmp3RzzGp4zo/Etwz7aqkEodMjxfynSbUeup7WYX+JtAoQUly8A6Y
+zj98z5r2uAigdvp9dESiZO8TvwiPfrJIKMb+sgGTn90ov51/RANuUV8bCLHR+H3pwuA0eiupbTak
+o9RvaL33oRV2j0Ei+r1jN8UjU6IFxXHh3MSizu9AR9RHdgsFCrb0bV684BhYzlNRoAvF65GeydOq
+tnNZaYoKrFI1T4mdUtHyRGY6qbD+sCkWQ7r4Uj1UdJfmySdAdp7d3WJX3X4eCNUo83SEr1SJm8lD
+rcuZfSS79oqde947U5wfoKUuW4MDape6xj0ulK7XNKvbb8BuUQXkEfzooQt3sz30v0hGbbbWAPgl
+pmF9xKsWnPsa5+saMXD27MI9K+JesAaOF7xVBzLAHRhz5l1gHH9vivQUBf5zoc075n3sIcjQsBem
+7yK0sp47UMTnUUfNYbTICIMh8cKgbw14IIoHXXC8t0sCL0jCWzYkZi67nH3Dteit8bHL+viqNNaR
+yVO3A4nF6KngDRir+ak6RFKxNxSnQgnYHCgFf/lq0EzwEZkDtUXZtRjYKkRYemzNXbuHCoDIYHip
+ZJyTbcPF80Xg65x3Ucc+gocpi0SJg+QrNsHqvpu4ykoDOjqunLOtMwOpYZA47Jb4hr+QXsQNsU8J
+GDTqNjZTNqmvJu8j1ZEYkfoTIWnAYL5ajncgwwhOBmFqU3uMLFf+MUdw4E5eVbt6J+I+IghI4la6
+tZCAlJsqitG71WYMrAvtWVvRpO0AE/Qcqc1QNfVuicX4ktPVf3TrElieaKriPJUwCwOIIPfORKgk
+tPpp2ZCOMBMQq+wfpNNST9Lfbck1tusbshD7PwYVZyFA4AxSEeGa3u08q/DZH6v0V0JzX6OxC5FZ
+fPLmFxPPr8yZxK++7cGnG6GcbyAa+h1btOAhadz2K8yIaQciwRwHKpaX2Pjl11HxOgb9KwgMt7sg
+Gau3xdz4Z9cnKYMu3OrZXFOdgepwJeRIOt5zyC9/kF1THarZ6t6jDq1YyQCW3A6gCYcCX/gXZqnw
+/yI5odVJA/KL9aK4OT7DPiqbNIwsJEinpOA6g0ogW5gWMvKKIekPFfsmcRItzKTNUGTj2xqIBZwj
+KAidTbKVSSttHw62YDR4bpu8Xq9Ba7pkSZk/M86uNzLqNXgZDqf1BtKBrxit7LEbolv5qMRmvqF7
+0dNdlpJtUcTE5UkbCLqE+n7r5z6v6pHs9xlDNQ4uOTBUIt0lbPP8Aac84S8MJvc0zoKHDGtEuG+k
+WA6LJuxkkrMvjghIsgfymccIZXMePHATEXSXcnZpwpMpx+D8IQKZ/qMnjOzJX3rnRRUc76KszHEB
+a3CMcw6qBRXzxuLSfGqDvv0RrDvMbRMu7birOqI6OLLFKZhJtAkt0F1OT2hHC97/dhkV2USm7d/H
+nOO6RBFxUk6G1HnROYcVHAGJLWvUoUYt/5FMKnjwl86aNqNMsoeZIX1LvQtn8gO6iY9ttXUnjCsQ
+op3U3Do8ltvdlOCAsghA6LBcruFhsdYp/G1pOy+tYwJEQTJ9bfEd3IeBlt/CDFb+oHMEgS7UJGcz
+xhSRgYa5nQ0xgZO9TX4lKJmbXvDlgdHOr7FF1E6TrdrpFe/f2lb2oLG3EuwTB1TgDZbyB9/r6nNf
+rXLfIaGJs4P9mV5I8uIHPmOis2yqh125MK7dLNzntLHIADOGpnWM2PgjyhB8p6khnaof1qtcg11k
+5uIGz4UgWQXLGylPk+RD1oFdXeOhb797ZU6MXLJ0ZI0TKf1gQkG2ikIz8V53y/wYh4qQsDXmqVhP
+t9ujvg6Aq1+7Ne8Ix6A5IMND3kmRkT/4iqMWl7l5tDPL/LIXSaDSDEsEW3acXoGfEA6OQPQ29CZe
+US7VlZJ9fv2McVsmIC+XBZ1FvrcE+eJRS5tvm2qglxv6LQqnS2hNiEEtCQkHiapAUm0RDePnbLk2
+rVadOYtxJEUr11xJi9X1LL2hz5XGmpU/1FUpHSJD0c1bXkkTdzQ159pWRNWcCYQlzCdRwy+Jex0s
+ni3KbSem7pdFkurbZ8jWOCnnJ+ERkLm49bonVovll3TLtt+GLq4CchYC/dON4RhxzjC4W23LYQl5
+kqujPVVOv8Ep6rwsbo3ydbBZzaJw/ImKvnsiT23V+rqErBEJ9HUu0+7JGeLsgeBg0mUSkiCAZANd
+UvkKl4i5vxuAql86zN32U2+RaTWyoRTBWRrJwYu96I49cXpoddqziIVuRN908DQDYS/+tqh4uE9F
+mx3Huh5Pfig4NTw2b73eryCGRlnxGPqqPUCiU699O8J7gd09ZJJ/pdq23aVj6/3A8xUc/BZ6TetD
+5XG9Gaf56IVHh1CyDRNNf1eBem434K3M1RH9/EgRguQWyu6bW2f+trbkM5qWuxG6LLNIm8i/oe93
+E3CtewJOL7bOx0sp2p63rcIHe4JOA3mJdcNbyC21C+tuJm7koSGy9DlMXXlOZhTPLLpiISSXYWOH
+n+QcFMNlNKbeFdybd3Y29bdNFjXkFuD+pNSnBEwY/9FC/Z5ASj1XUTNfKzl6HyOc166wHZY0OI2L
+R+B1EzoEDQz+zTyX/hfqbdKR7Vn+SKZ1ziSB89JZPpOohacH+CkVXomTKJ6n7GojJETI3Z5CWXc7
+IsnglBSEe8TT8p3+n/haCZz4PHM4SK7lZyz07HC2kTHI0cuqUufKsvGlpBYQSeHD4YfCcyNSPe/8
+2hVP/CWiKZ9aL7qzQpa6JLtqxZvoII0eNeaUDY1pvKGAYb8DYArfQHDVp6KI3ubSFkfapQQaAbin
+E7e63mUx5XdFTONGOu45hbHwI7fTCe+WZR8HqP27uNDebhq5GVWbQ6ataBVmxoQ3FBf+l9IPjk0w
+ywO3EwuwLNmdZiH2+gR47K+x0u6XufWd+0QkC6oF4b9gxCq3MzXsIWDt4qup+g1TYvRkRs5SMKq5
+O0TUhfj5eviT89z+XBg1EeedDcV9V3IZFA0pCWsUcsuy1pqc7PZSIY0ve5BhuFIWjAg6Cino/az8
+DlmZ/ArM0EPV1eUm8K1bvcweZKv4+wAe7MCteADjQnoGUz0KskjfCz9IXwHkUGb446FiCQThGw/F
+FWHpskPDG98oA3UhtXMiiQn/qrw+eBBtIOU2nxKHoUW9nI2R410YWDx2REyOOxq75tJmc4lhzcvJ
+0ylht236vmFbWlsltxEztPEuSYfyXbh+eAwcGvC01iRPrKWlpaELa35MUq+7NTSz1zSTEYOT7suK
++LvCvgYROIwymk/pOGzHWFV36M/kjWpwNStf1gxHp4E8GjUgXSsR+6vy5MxW8p4wM2Wf872XzQpQ
+C5ZtBz96pTvmJKKMg/MOsqo/Szf64Szhz5TE1m9UrPU3bJSSRUtZr1EN3c0bdbYfIi2eTEjFUpve
+YeiNwJ60P3B7lEPzCUrWWFwsktIxTeAwiE4RJiWeMX4oHyyiwsmiN5F8oH1DpoMblwDDdV2zCOFk
+KL8J8sGe3C4WT2FBHxk3JQtomU/DR61c+wcp2flHl9rLmvjOC3aoAC5BX8pnIgPi6b2n4uG8FWxy
+wP3gExqt0DvXbcwTJSHMkqclvbOldvBIZTQkzzIt3BfqY3amlcj9S1bN6kNUkFOVVjQRlNHiV+U3
+dBXUMqTfbFU6P6pPzpD0IXOpbk6/uRWWzK2fFhYJ4EuqPqygtXApICqEh1EFzXPdzSwMKp8neYiy
+YZQHP5noaCAzXD1qrqbAkQ1svjzU0NmSTKbfAifgd5J2rvtdVCZVsPMbm8uo8cxQ7UbFp4Q3hVxq
+16DSitjEzLxpWfiNuimQWbNvtJvRybdTOxXZgeKVV16sGOSYP9F+3OV+YqyjZdYSYGBCCgx3Jru2
+zG2/2YW9oGitUwD2ECZ51G3rWafYfMcc770u1oSjLBC/XK15V915EGcn30u+/XkwgxGZ8cZjPEmG
+irJRpkXOMssN+wl59JIg23odjMstvSAOPQzE5jlAP9YQ8F7S7kFZULDBrGYg7w5doAe3C2bnQCRl
+cGP6QT4HuJ/IX/SZt+Lm6/h+VRTQD+lbuypvFCqGEU8xwo87wmbGX2NIb3SjXUigd6Hl5C+VGd1j
+oyH3gT+PnqoI7+IWnLb9AoRKGbABPtBDX/OlT+5o8xmpyvnUuN84eaGZG4v5nwzqLeeEe5fef252
+9GU4iqM18PNLQyxkwe6lwC5IRWzUqH4WQCHrY6J7YHE6ATMCwg1N+ba2uX82E6eThFX6f5cJ+i4m
+YTlQ0QW535ZnO+xpovTMVsju6YoA7TwkcIfftXh+YSG2V9Q+4WCwQBc4wQ/56NkQjCkh66hxB7Tu
+bv7qlEQM4COzL8yk+xPOH9KhCEkkX6Qq3pYln14nxN9/jh7/F1fyF7gSxJ6rRuCfreH/CL64l/2Q
+/58tK29d/Hv+xd9/9e9SVCBUTAPCFSi8KkAoJv6p4I59oiwwuaxjxnV84jER+4cUNfzbKkeg/xmv
+ehWsK/+Uonre3/hRaFJA+QIEjzRw/wcJeJH9W3MZt7LvAglZpaAxutffabhRNXcC131J5CgxcRsH
+3FJEhyOjX+aOfTLvaSDZ3P52lENOcwm2OTcu8ZNEtis2Cu4UwmD0lllUexnIrDtZtFenftOOjbBh
+bHisygUhuoRP+udWDs49955/HnzNs8W4JbTHluUczwRjyKkkImLzWauKhbI4YRfytVnDQ1t7gVw3
+lmrdXTYYRwFE+d8/2Y/wOzGrEeCHgVtLN26PLssHYNjKWn/FWwGlVVmYR7cbkDihu8CIwXaQVrSK
+52s2B8mbKJz5z5jotCLkFJoi/Y8HInoqeZFYXuNLmETqQ8VstepG8Cx08sbaOk0GcJQifH7Ees2y
+W+mEr9EmPv5Y18168rs85wWae/A9cuf5UUpLnzymPK/LxKOt8SSOE8+mkgjputxnbsf3b6MsfSvD
+mpfuugKSY5TwKD+2yaI+yk8abONL96VQdfvVS0GpbBCn8GM+2pUbIYPgu8n4vQ2mckDPACtBvda8
+m+1lhMVCZhR4l0J6ZWEy8639ivdEfo+Ig1o03SR1AKlPT7Z3HxJefENbMb/3Kqu8jUe23kQlz3dl
+WoyIDZLq3BSQFEjxWI8nU6Uy2wjC1MMd1zX/5s8TWkPt6ncZctk3V69nGHTE/MgpVeo9ZN80305t
+ymOIFDGYmzbz8OLJYiOPbtHg5+dayvkzVmuxgcCR4zIB3cLHTCYyycjGJwY2stg8HeHt4ggi3y23
+v/Sh8r1DLRZLYm5ZfuWp5kjYIyxPmKbXYVHBgWFwyG4opaW74AB9ikZcDnQjOwaGjnBfGp8LcM6n
+9aqllKZrhajzgHufV1pSlz8jyMUFn4SLaFit0LAK+edoGLka3H6FUiTeAO40MYF3JglT+3d1RDua
+wllx8VkuxUQKC7ndRFM7fADVhklpDy37rWlNZomSmRMsecC5mzjJFBixsgVeyaS1KpCQ1YAX6SZx
+vWEzSm5liy7sFJWpd7ZwaHlrBh2f+0+Uo6jS+crgiqFEMwmumBTX1Mc8w6rcNwvaEoL7uE7MWnDp
+9RTRiPXOIkDfQ1gXLzbABDmSOp/sIyqroxkJkGEf0X7tW3aWn5fwJ1rVVEreQJZw7sv1Ik3Dcb5O
+nuaQTG5mHmf2D49iceWNT/OnOiDQhK/qrnPRQbYeiVt1zAWjI1ve1LQfuALWW0LXdNaoLjl4Jtec
+bIbg509g7BL1/akLWpHvQh06L/4k0zertEdr01J4ghHrmD/X5HLUmxAL3H5xYwTpeQDzbSoEXwfi
+7rkgCijDEm74KYQpXGCWx02uKoDV+7QnyXnESHw09oq8o/PsnaNcEhkta9pm3ZqqPVD6ZpwsB94o
+w48+ZsOjcjY13Qj2EtCRYT2lKtrZdRudQrACB7umxAgw7+/I5rP6DdnzfF+4mdl0WChi8z2+P+4w
+txd8oMVjxRIuAdVXo+b2Lit1sv8stT3DvVwB3jvHqCqTPQHkvM5nh6GqMBGUpHG/2HbqvAxBqzmC
+wp+vLRc6USd51X2t7LQ7gbbIAN7n7ktEu+4+JE8gPWDe6ZdnhUfJP81wAc7ewheeqwo4qJVQQu9o
+zTov1PZLe8lkxGbNaxiZYDWj0VjaNAy07wKzHSfOUl2wBVaFy9JMP5BrigkHFzheRE5rr2qyh6aE
+O3xGC/TS6RUOGpjJ7CrKWnLDbcn14qgh2X9m3E/JyB0hws65J0bUeRHC4fPQuGAoMCbrlRM5tTQX
+n1Fwt3UzSvysoj9W5AFX99oVQtkIJ7YInPLGb3V/0k7E2PPzmicWg1+yh5WF4Hbr9c/21bnXxZi8
+gfIB9erZ67KH3LobnkZ60fPBpvyrN70a2GXl3no9JgbAQtvFyZsFiiP9+5KGeqKAqR6toOOAxBsN
+HEx1+AbQWfX71rGcRz/k7qpxh5RbPXF4PbDKn3ecIGX2bWqG2dnOXdDnh8+VVcrcCY8TTdU3pwBJ
+9TZlmam+BJPHOoFdkg/qjISr+/kQfE9WtEOpO0HMq3bJlW8+mnxOzn1LSukm7jAHAPhek9OTmsyF
+aQlYyGrqB73F2N86mznPGyd/gM1rTiw/noDvkGlKiBWBQr8PAXhyI9gi0LGN0hkOkCqS+mkp65/k
+2RDiuK0HK3vjUdqfCKwXnCKI77BHVlaF5J7s2eU0pNtakwsF3Ov68EPCKpaZ01/gzWt72iDqm6lD
+YBpheTkjNeboqrDBe2+y9oZnTPzoNBGcNcjd3gGyYEFXyhnuacWw+dawOGBO5q9F1AVswZv0W0d4
+KmOc7lbZRBH2w8oWKLkHNiiDhUUy4GDOKtftDbs6gLWPsPZxuSfDl6bTh7YFrmOFUfJIDOSmFNE1
+BQ9nfzFhDU6N3pIAIQnUQbCqMkVcIyAw3tuaOa7dih1SW0BNmOQC0gw7v9yS6itOjtMBWiv8FkSC
+X3mHqnHHZAM7+mDreboEZV5VW8IxDezKps3NwYTsnU4JlyXyG6VB0rjgwG8GtKMP8TxEF8a6POaK
+uTsVMw5oYErOq++M8s6yw+aBCVl8AbjD1eusyb95LPdZXLYr7A2Df1lFMBrmEcIHGWAeXLdg/l4z
+zn41kXj1S8zQt3Wn/Keuyps9u6kpJuiehNp49MZfyvTJjzyGmMZY24X+xiSkC6JiR1BBf0DbmJzs
+sYMaPQ9iL+J2zre+X7L781R5FzP2N3ccr/CjHOKGkcmU8hwv7H1WTK9JUraHqoj6I9j+b2SeboOi
+jH5k3WyueWCanVN37sGropJ5YNA/KZvDGiZNuGcGMv9RatLqyyjdOJNSd3GRL0+CYe1W0jJBSmL5
+xzQZo9s2Kfw9LKOXLtFWuelDKqO9Ep28Q+TCElWBvCccvd1n1A0XLXoHrERPHGoi6SAm2r+VHogR
+DlqzH6sueJ5DIj3mrov39DeqTcmKhWNaVI9+VwLKii8WoJgHHgKGLePYHDLCbM917xlCjYF84kM8
+uZbqj/H6hPAMLfcZ3soJUApdj8JYX1U6dzs65cndUgZPukA1AvTevlZ9CdDF1MOrO7vWLQ7kuttY
+ccTvMZcOfwykS1OXkFdwGeamO5bFIN9LynfKO02fiOvbrSBRp/EpYoB2b4edveXJG8E/9Q86CsyB
+GBJxntAhfbcq8c60j6aQQ0DAdux7dYAq65NmEmE8BqChj+yBAX/EwMdZ/CFSBDUPoiwfzkBnPto8
+80lZI83Mae16Xa2cs4Ev9D3tbTgcqVTzOxXxnuqaOCziBJodcTrVHlYMxNWOFYWVvxf7QhJuYRVu
+dLIV8FXGfWaHR9xw0mpnus21FTmb1tMlCCYVxj3Hbgjs6zhVtbPHWtND+o4Y0JTXIgVGiv1K+PUp
+Wsim+2Dxz+hAux1DXOLkUmsE+JXlKagwmXnpEVODxcLUF+EprvT0ZlUKoI+hdx5CmnHQyLQDO5Ac
+FAZBL3dICIpdQaTEW0tk8nmBHkxiBDzcZRmWvc4RoiZlVBxCt7Zfp2yOucQ9YlmtS0FnE6t5pQXO
++4SsvtusE/dQ49QXVDT6RvTxXQjEbMvDK30W2rURzKiQLiZ7l+FSdZ0pvqiw1fZZVGEyXJD2L65m
+KI/BF+CC7qZ96VhUThkbt/QhZXBGNTvCxp3J8iaSpKtZ1FOi1FqsvJOxEyLanH6BdluCJwG/VPu0
+SDL6JBPivMDW3tc4Fzx1XV2acBtDd8sO5DoH4qazVxESmcvM8G1mwTFXj8skBikINPM+p9qibUoh
+Eo4+zya017W52DSsrsadnBcw//VWdBNleQIT/y/EUr+JadetM53bGBmR50Zso39TtDIiqwvk6+Up
+lQmtPiGlN39ZfCCb7+QIASD3RUI1Ihta0SEteh6+/9Jy+G/UaL9LMNdPgEZr/T8mS3yK31TZUx4C
+eXeHjElughKBllxW7DRkNfce+BKamiFLW7RqxArdDG26NHs4lOk9IGUmhrYmcYAggfF/flgSL/bQ
+RNI59//DZgPXJZV5yRAFMANFOpS2bD8XkpqUUPh6OxQulY8WC8URGNH2618ck1UN9y8CtvVg8Pbh
++j9K8P/wUNCjrnQzLhwTokGIy3M6w0BC0ZkuOSG5CQgd9qbYe6mi1Do7a/nd+OAYbmBztO6DH5JI
+gJavGrL8NKw76LbLmvKXSgP2MM2aifAXH3hV1P37B2aO4gRrvpWNWPJ3xd2YZIXlWXF9okNJQzIx
+RCNs87BqKZqCJOi2ZEM0+5Dohu9kZ5prN9Cr6HL28oWc+6tour/yG/ymAeQQYlhao17Q0mKG/rzs
+/sUxYQWEFGnqhhP8LMpGhFHzdaAl9aZo8Siyktft7+TSJkXyjOJhZH/RTGtQldPzSEY71q57MI7s
+//9Q/e5C+Pxg4aqAXOkw+Lt/U0JGo932ou/yUxtmVKjMZUAJk3wwwfGjKvJU80ygZeyfDc44+gme
+VNVl9N3xqv0RZ3U+TsmbbRt2y/5nXewMbGOtgk0UHWnK9yJT1NwpUpZNv/Z6msTmzqbDTrekivpZ
+38HhYqTxuSktxDRfNUkw62Skna9w2pgJjCUT/LWO+140FdcWM98K8BwqkuUvzpP7mxp1PRyRGyEL
+pW/gow/9bQHKHasrzBhZRy8PWAPBDpK/Eut1q9PMfHoWftrXbjxaz41L/vYWcBcfyxR6eYYHz9HK
+PIfdSbAg3QGWxV85WPw5R0iH9p/tIc9t15NNDMh8qyedFSeZ0QHbFlFLtEY2dv1pMYJ3D9yK5k1I
+f54rhA3Bn9Ll/+1E/0Un2mFRYFn/f3eijz9ln/07LPvvv/N/aQhr/kCC3fWTYbv2mf9BQwj+FuJM
+ZsgUgSrBOc9/+kcLmkbxP6Ah9t+w3nGBwbVloYrd/0nHGa727+vdmtLAi9mImX0srmtH+l9Wl8SV
+xPdI1jsvzr5OFUDXQTERw67yTpbxcz9ap4ZJ83ssnHdSTx3KSchIiBSHVa2IvsQ9exMIIbVqGRuH
+rN5k1TfCuSbFd9U8DmPS/zIpfnyZo4iUqzbSWlWSmJvsq/WpnFw1lF6NwhP2bHFIrWbe6yy6krgQ
+P05LQRk70PmciolX06t4qev2ynLdnVl1m8grt90oHoxySfRdtZ0lIs9+VXsGPCh2MpqirWMm/eIW
+CXiQVR+ar0pRH8notGpH1ZB9CX1B82XVlUarwnRYtablqjq1V/2pEyrqnFWTiqhk7yNS1YhV9apa
+Nat+VSBklaQnbdhaTeTCoXItVr1rtSpfvVUDS03PsHrVxfarQnZatbKTj16PDIOPoURH66+K2mLV
+1jJe/+6OqG0RjF5oLZKzU9B9hGEIA2loMgifyWZa9boC4e6AgBe930O6KnqBE82n1kMdOkfSuSar
+8ndYNcA4RA8imZ4IURDXioHHbVHT6diUeKsqJEb1Xd962bRngWLe1XTVu0a79IRlzD97yhq2ntcg
+yGizsX/uPFCCLn30Gx6BTFctEfSnbAg75l9tcc+YZnqH7IsgLQiTt1l4FTg5qZEQyii+zceEUCGY
+pWciHOOnaJqYuNUeC1vtEsAzeEwYIjaMIaP1sX5rqia4CWo057ZbUyQ1n7NnGknVIeMJdItsMd6R
+MeNw8BJXOyifULIpt21IvUhTIjuk3VzWhyj0pbiJYAsTy/a5tSvuYZ7LG0NZd3CnqPwWuUy6d3Oa
+NXvcC/T916C3mKHFfhaFfHYq6dx74UyrdH2e0jgtv7Xt2sxJHGilKxzQOYjSoq+4dp9NMBb3mvip
+hu6/PxOkRAg4mMD+xFaCtmYAiGDXdzHhlvST3gyCyx+95hluESpX0jEYOKq95GfycZ1WaGuLRJrV
+HeQ97U8ZYDcfeEnce0bv7IZmrptxaQY6NdUpUCNfvjOZuUb12hkT0qYpGWraLRDpq61nOA9tXPOC
+BGuw1wHw0+zNKMyOPX/7Nef+OxYhFg/M+Giv0rmgvRflQ/3WOk1xTwoPo1mYP0dHe+3PYEbZlGrZ
+Pnx+shJORHwAWMjL164bPYGkRqwW9EG49dI8fvLnVaRpDeJXvUoGmqDRL6r0J/A/JPvANeOLf0qm
+cBMNr9Es+MF6zbYORhaRHcAIs7cThXF98stvn1ca4Sm824Lxmu2gQTlTzHTWYj+RD1NL3OwGmQBq
+W6R+b3T23S9TsyrqB+FHT31As1auLXkHdcGu79HHuJmO/FM7clK19puLJVZ3nptO7QHU7/AxRHlx
+34AwfaBAMjdd6rjXFDr0deossc+5IgHrJkH6LXFRbE6ByBE6pjMvNMa8Y2TontZZbj3LBf/9EqK/
+6DJ0QZJoDkjZnC1AzvK5yNamparSZtg68AC2kuiCWxP5wa1DeyfdsCfNR2TevLyesFhF9cxVz84Y
+MD/Z3IhP6ZhKKsFyuVdNfj925lFb6mXsUI2MgfzWEDaWidBAcb1zB43CLHvMV0JvPeQnUfa/gim5
+STyJjhdtRuNG11l56FhyNtLLW9arcBfYc3wbIjVHxgz7XFmQUY3cxm4jrwPPMb1xV8KHUzjhlTn8
+q3JKWtoja3jlxNkujFpv60T48Ath7osZpvFcEh0uL14TpY8OwPUHZ3bJn5IZvoEpDvNjKKuSKczo
+7wkkRt6Hw+k0joS0DHQu2M6QB9ZAlx4792fXjPKmg993U7Ih3DeucM6eG/zRO8OpiYMnNKr1thq1
+h0IiS79amfuurPgPo4GeLA3Bi4C46c6ZBiSF8MwOCReCJgLOxm0bhvJZe74Pj7tcPsTIlnrBCbI6
+4A7tMD83pW4vSVQdcSTTVQkWTnARgovrdLopJ1NBF3JeQ8NICfnEuZqNOBPu5p0mFuGdHeuWFIUq
+hZmsEUYt7cGS8mtna7wrjbRv6a1El54LHx19aO+CMf1qO6LbWqLbaMf8ohF1bYs4+kmnBTHu1Nnf
+IuSjO6eqXgas9d+Nsbw99zoZdV5H4J5uGEUhub7AAfO7zbgsrAfeWJ+ycvGQUcSw3xd0jkn63An1
+kZsh3dtNbO6x9UzghGADDls4t+Bhm6XX+2V0m1vphPdw26snLqt+b4ep8+gtxt9Prm4A9dHAO1VN
+1e7gM44b5bjtT0UJu1+EezZCVoyA2++aVKZdF6tkVzrju52CubclT/sEVQtIAv0HkKCvXe4dbdOl
+r5NDw8PzqnEToLQlox2PU+8Hr6lp7G3IbYjGp8neCYlU20Z5uwHj3O0UI82iSIg//CgYrxFqn9eK
+uBpqCOKr8LaE5jINKTESI23ZGU9l+VpGGvmW8sVPBar7J8rN+kJDOiLqFIi1HC3EcaE/HSrF72aC
++L9lsO+jtJRP7PowvOYdlZW3ehTbPr5vx3b61tim/gaPlaHvQFc7oMKiwQlLveYuYiUfCnTMecN2
+lAl5nDDrLbPbEdG+c1Eu3bBNrpbw3k3ohMfsO2xuiextCGfrIXSYg1Ue0l1OorS3aZ9ZtD9LfRsF
+vc8V06TMzJjeMVRbJh6Ds5b3knC+i4/jbJ8Sh0jiZ5e+JVADrigdi3K/qK4h9SBprPshi4MzlUJ1
+dGzZ7YuZrFYA+NKnPzT/aoTrPjgiG16nvpj+i70zaa4bubb1X3lxxw8ViR4YvMnB6TuShxRFaoKg
+SAl93ySQv/59kMs3SnLdquu57bCrIkTqNAAyd+691rf25Ak3n52mxyDEWrhmFIfKypXdWrNquL2u
+OmRIAU7ombWjqFjAat1o9hWO6aBu+xTXwRziwNA93laOIc/Kv7odvPuuDeVd5mji0oZlu82Z6+8a
+cMFMbrIwoGa4TPjDQCnsIiNCkeWp17Rtq3qdliNWKtm0gdKh0ydxl28LS0CkazNrpyp1mZJ43rXL
+iRQu+BJ62Y33KqPGy8aqY+cavTt4pvljk3aSJl2mvZq9f9XLuvsmf+Afnbnf+hyYt0MeAmA3G/oK
+qAjWAOx4xMG7LGr6GztodVe6dDVrH2J3J6QN+n7aTXKK1p2pHmfHdK9TYugrrA7pDq/+zkHsFOQ6
+yOexir7Ra9+ZPVve2FT5ZkxSsljENB0XAHQwgFc/yCY8J1Fzs0LbXhN9nh5m5UynMIWjgMheizN9
+g8D45mesrvrJHTQnWYhTca6DFwVaHj2YTtoQMzV0En5+JwlLWPmaFrElRI1Ad+WLaEayJvN5OkzU
+v+psU6oQiB0Vmb2Zu5QWuVcbCE6HbErzFfv2UK0LJ8GH20VjPL/HmYcmfkVrszL2S6wBqq4HDXz8
+tij9RXw4yMeQtOqNPqvuGqV2RU6bbV2QuL00ykw2qnZuiV9pQap60sjwz6xz307vGre2v3ZTNQep
+Uaqveqf3F1m42jbRx29tNGMLsY3x4o2juSbYzjpa4N4XEVl3j+TQOCP9a24RpcrGCBH/zpr7Beha
+uGqKIX2TfTSjy28tk/0+PBZa4qyiVIggazpyG8ZkIm+R6Vwd1jlkISvZCc9/8sE2r+zMOimTQhuB
+2odr0Ni1kARdHT0L8sp6j3OjQx2e+Mc5IiWE3u9S9JPF2H8VyFY/3MxOz1KWHXV8Z+1NII+HNvUf
+BXgnsWqoZTRcW312UCr0OooEaz5b+MAeiIxUn/NW5JcuLt45gEZEAhvNgMCnX9SCZVitkzJ+b4qC
+XV9rig93dJY1K+z77VAm47bVRftK+eJsDDTwN0LpVUANdDOT1L4zUxV1iCJgewvLb9burHjShlI+
+O/QxTk1tlmeVjx7oo7kHqF42JAMoz4y/Yk0UNFPTZNoS5clWIPwW7wNHw4o6IPe9Dy8SLBxjZOs3
+VO/e575161dlFkQExdiBEIqblsaS7y5RuyR4PJWLscxeLGbhYjbrWBiJDFaHZDGi1YslrVrMaUmE
+TU1fDGvOD++aXcYJ9oZUVghuK26hiKIk/eFzKxfLG/LRxf5GyN0PNxzV82KOm/5hlTMX2xx6xfF7
+vFjp3MVU12Jh2U/47LLFcNct1jv03eesHQrOWa13cwox3jN3qW+0+9FUL/Y9tRj57MXS1y7mvnSx
++fHGPnHwIzLBJ71DSzED5j98gT9aGf/p+vxd18dydbqy/3PX5/BBrNEfubGMAJbf+L3no+v6Ao7l
+vzrZmA6a1//u+RB19BuKP90GTAcIgO7L7x0fC6CsEBzkDAdFPdAlmkG/d4AgyiLv8EGHkFTt2+6/
+l4pJ1trPLSBgWBA2eVsghcDvkZz8cwso08NmsN3QuaKQ1Q5RWE7NqcRtwfidiGhsMCtikjOTwyYx
+cPmjghrvf4VX+C1mfvRouZlpB3plPjmOPn3OXC052aYLjZqkWQRhdel4BX6Dzq/WaC7m/oZRISI6
+MZKy+STKJtRWpHCT+nPK/KTbUcGn6dUFwMmRqcm9LWao8lCEM1Z0NBIBEUfRGkWLtQYgZW9jEgWM
+DTPCB/IoetJ4hAzPOeXiuRsIMZ+dsTkafis/lE4WJzOrD8vvxGsuK3cn6qT+0haZCKhtHOxP3ZvZ
+pjqfFxUyeZJGG5/UHE97UVcWuihPu5ZAvTFUueM2Bp3ehkFLgObYYksc9GLc2qQqctJJZHqnxbHx
+eaRPC0a0XsM1qwPSNgRKoeVENDTlGjbG59xO/E+TPUGRLhmC1ob/eZo8ZzOKOQjNsXiwUq3ZW0Nr
+XNuiaA8DzYhApKB3i7GSB9uJk4uv5W9+33DEgr2wsfHXnZoi83d5pY1fOwYrhzm0F7WCnn8rCJDf
+qNTTvy30xybwurba+0bybRiMdoM/YnqxAVCXYP0RoDUkzwdNkXtfDGMAAuSSETN51eciKQie4aXL
+pmY6E8sRhoxmbyj8qg0kLjewa7cgql2WHCtyzkT6ykz84tFVE2gbHCH1YbkjPzVj52xx1uALoAOV
+7elkNOj3kOTx7kd3XWrsvzuBm2oGWEAAxcrJ9OhmZXp2T1yTuiOBRgSxsppzjMRxidmebF7FrGiR
+udbOShkTrwrNTB6l0+VnG1v/OaZ4uoCHgyoWh/Jetk27Lbtueu89iwggdDV9MGRa/d3Hdj+sImnp
+u8JN5ZkSLdlPdtmdCWehpTc5MvqIMbIFeY3DCWgmaXfkcLknnW5DRVyOK0gUn8XKaX3FEKM0RBk0
+KIlWkYepkDRM2F1o/g28slnDXiGYMxtRPG4JzLaDTCsQNlSF4Z/GouA439cWKl8qunbJEDoTOC9p
+fzk1gRJz9yliXywAuhvx94re3cbzSM1waSieSWr+cJQNmiqO03SlhRG2qBYxD7m3SPFMXLJbNxX+
+ZxpS2Wps3VMd0vQsQEXToLDF19HR863B2f09a0J1RGA8xoEzxkicFrgKx2j54leWea8RVwSzxwu3
+Q48DNSgzOZ8qqVl94NFnPnpOJus1gSjxZgYYcY+pvdqohp3ZcWBo9ZOJDx4V2y3HOLcj82Z4xndb
+4ewvkV2kIfmMLiO6k1Zj4LIL3ysCz+cjORXV18rI/Q52mMQe247zRldjSnkVzptEeurTODUT8rBG
+38aEJqxjf+aS9FZ4iT1SvRynWetov56STHNuTNb3bWmqO0nFEFSTe7QHHms6y8Z0SMKC4l461T3C
+C22jS72byKDy5scMgeWl6EbjyTDIJ8cy16w1h8P7IFt58OYkDg+l8F1yahtCZzkymFMtLtSdHKEr
++RBZTXue0zoNWDzFFWPbEiRTkoFTJMDxReOvI1OKg2r0D3rtzrW2mvIAiMQ4FN2AdkHvyDwrayNb
+LvKuhVi5DpOa0Xs9w74wzP6RQ9b8rRB1HSjNnfczqokHl5AeUrZ1ukicQOJAT+xs5w5TvU6WVC9h
+qP6UxMP0qcyFtW3qMgocb3QuYiK1papYiHyYcesQ8+SrWYl4P8PLCLQpB45n9bNGv8R2XtkE1Z5k
+Be2bniKumyThPbNjDd/TUKuuFnKFW9c4OgruAuVpI94iVUSbRs9zAmvHEZJqp7VBDbHk1VBRf26L
+/NbRFT3GvlMGZtvWJ+yU/b0qOQXIyVP3Qk/8uy5us2bVD6HaWJHT7gqLkyQVqrfuMm9E1xpb36Kl
+syPd6Z3ABKAPrJn5KswkmQ1Y086xRh+kqm35uQbMESCxVTdIqz7tycp5BebEs2E6NToZxCF6kk2X
+EvUKC1aEm9JOrC9ZPmKcc5vkqodluVOi0t+I8rHos6pPHB9ClPuzsbdHpy5Ae4TYlZHAI0VT3qHw
+85sS+oHqQaz8lngNkmdmLnBp2D4ZWeODZCb4mfxnmE4D8Z6zU8b3ad7N5UprIvksIqc5+mbjHiM8
+BR4raOjvWTfR0vbi3LmaeVNquGeYiE80h1mAszwLbO69p3Q2igWOsOKRSHYl0RdnR0Xxwfe0W0b3
+mLMyany6LGEUgCvxULE5ZAQhKtuAIygC4YVnDEbZrnK64bC0RmkJYW+VNVZbHqh4OxToP6N+QAnG
+ARHaQ1icIyT+bEWhfIsTUe808u1PauzcdwRL+de2q7Wr3aEaMwv7EbzKJzFb4E79sOHgY5Lw1mtq
+5w3usEHONn7qing44ip9S1XaH+IUFlWTkbc8chDdD4poRnIZo+6ICHZgsBNZty4qq3u1wAwAQNio
+B9MHrLzGK8ZrecZYOMY4rcLxs54k2j5Xo30u6iQ9Gom9rcwUjaqBL9WxnidNWisBr2STlCaq/GjM
+nxCG1DuUmc0dVkkUo10NuKIJv3kMCQI6uPGO/hZnLjoPhF/k6hxbljzVdha9MDJHQNuN1bpW+GYt
+x1bfQdw8kZaB8yNL3ccs5C30esasBjUvIWrmZWRV3dSx/iXsODYgSQJ8UFfnHL4VnuEJI4hufcqb
+jAEJfICNpbXjDsKtv02mLPzSDvME/TJpv3BK4QjrM5qvRmM8uDIdtrnTfZE664ovCp1kqBHQLafG
+fIjftMFmajED73W9VB1JU1m5GXmWU39yK1CpgJmK8WrlENegDuIHFW7+KdWc8pGiKjuVjcdWb+sc
+iBKZeendol7fgaOtr/ilt4Vj1jtvEu0FlgHon8nWdmhciq2IjejsAprZtEY67CNOjXTqQHbc09Ca
+DrGV03ZlJL+e09Rm+ia/dOTnIixs7XrH8V7d1UyBgsxGK1ipttzanpzeBi8kq7Jr4B2EWefYWGII
+UF85zD/WdqWm95KAxC8oVQJBmftWRH645o18R5vXbFP6FESLlFp7mDvhBUWaaftItUTHu01WpCvd
+ysoLck7mMZnlbORYNDHy0ugDD7iBV1FJtjQHm5rtMxDIsvSOujfoE5FvJQa/rQhrdlAZ6kfFOkCf
+k2oz9jyxD01NfPfAs636OcdC0jPWIFkh2qB1Rtk+D5hy8uzBhpKCdlTMtH7Cbhn9GbjkuNRfYCBG
+exJHw41bDvgTGENkjNTQwzCz6NaNzOlBN27ovjSxQFaqozSEqCMe3JoNCSdIlAJJ6fX3qXZzouVJ
+9hWjkTP9yYxtWBK3qD96UzikIJFHL67eE8SMTD+LMveLJ3dCTWsdQ9tLslM/eX71hLCWbw1T6aRp
+88ovqZRXaQsrhmDiXHfHoMT6twbOkrnrOY7KtdaHaQ/wcp6+1UA/PiTOqxU1gv3C71RfNBgk29kY
+6wONxImU8REqqui85DiMXnNpan666pzq1eTJMzNksbwipCyfBsZAi2iXuHZdobybyo82FPqlSibv
+4OAI5wnmMHd1B+dJxUyaG6ZeH1ZedwSHuqo+QWsmVFD57a0tmiW6s2iZLtXFg5Ck1sNhmGnCxnLY
+W3lPrjGolzVVn7GuLEoYQ3bFKoqSbO+0ubXBU2ycRNnhahZIaRLERBsGQtPadubCxAzE64msrkBV
+j9bnDvvqhBy1pkHd6ZqBwyLPAsE3hyeENLYk7+dXaYd3UYrwbyVyf3pkiBatxxRhe9APSlxw3BhB
+2nfdukUGz6yVBN4BH2vt3XnswgzBmW1geIYysepqkj6mIk2fIi/vX3tKT85M3XidSxU9FrbqkCPz
+ZYdFnO4Iiub0ZRsFROgQgwJm3mncOEMtUJh2zWMYFqInOJUfHRisHbKuLW995ANAavTmmSQk/UWH
+JPFSVtFzWLjibBm4dhnhCG1vGsTwkIpGR2gYxYnwovoRqkpXrsOwLt0LJmLroYybN1e1DHdqRcTQ
+SouFCgjkYdtPVGTBc8DLS97fnH9OBWMsL5XhziPyOwpmPHQ7jkL9Jxo48mOESRTUuOux0UY1aZNR
+uU1bmkfrqS0V3fzepqffwKXoSRoy1rDF5VdF1UfFrxFl1VbTfN+4XkYCuJ8ntzaC4yAaxSQR+oax
+6UgK2hguaDcm6ckhVio9w7VMDgX+wis+cw6wk8PNJLSvxAmqT8h2Q3vl6A4fjqFQtRF2RrYrS4Wx
+eBGIwUxddafNFVMGQLu73hjzW7nUSabivmoVoxa9ESBvDTwMNZVvkNBZ3ZdpqINlgD/J+XMpZHW7
+PdsmxXVSisVtrdArzI10FxV0WjQvVS+94k4nE9MEiuRwGGt0dgGQNV2MRyd2aHeDIHDUh8asRt7r
+PtMhB6Mcf+GozZ/7cqqnJyU1Br+k03Dg7e8H0ZkucecDEi1sEmY7yRNfSeuBaIoISw/MTq+Y0/zf
+whq7eMlvvqpo2oWa2zxh2pqe/9D++TMt6CL2+oOMUHiCTAob/jdVGd2dxWj6R1lNTVhimpu6vJIx
+YK8x5sQ0P0euSHHQwOmF0RejMHdjahzNzN5qVru1Y33juUTAD2rTVf2Gj7rzVQog6O+Eqr+YTP/x
+3pBjolJz4YX/qlMt9LEpRWjIa123JBhSK4b7ZLz+9TfwZy+CoggpLP1c4f76BdikBHHoHeU1MSD4
+8z9Hy7elW21/vMx/WpJ/25KEI/iHK/IvluhD+ZG8/eyF1q0fv/NPIZr1m+vbqJVA4NKadLmA/9Sh
+eb8xbgBZD6Pb8/+RWPXPrqT+m2v7LspY1+b2+YGZ/b0rabq/gfgAVemYPn5o7vx/R5jGjfLzE0QU
+yOKrXqRpJp0141/03EYXJwpP6QJcIWy9yfM3OwXzBd9DGFD+GCtjVOtm4IiDNkpScw397ICUuCiC
+WKdAJ+1jA8Ni/HBpzd0pdBdffJHCc4n8DDQKv1WspyrsmSSp8kthY9JEJGfcMZkk9yQdW/NCz9Aj
+LzwtKGs7P3dQw3iPpFnnN8Sn450Y34qqbRm2xtlzz2D7tcqSUQvUmJdql4l6eqMfWEwkWGgz9jwc
+v+F68llTV2ZPtsKmdprsa6xlbLRmWyBXnTFxMHaZE2QAzcQcPveHyyJYM7eACRT1Zmt4BBdUnmsG
+remn0B691Nw1/kLjIo4mPpupO3obCK8Juqwyd0zaSFn1Xnd1/Vr1Ql2HbsYdYubdKfI7+c4Zp3y1
+4L7niwFrPlFwNw9znUZvRmwYsE3JDSyYI49DUQdAPgUTDU9eydeu7lnlK4Ro3rSE+hXSJe8nya6e
+WUwPBEyobT3367mrDmQXgiMieyUYywEAlDXvpJG498hXsB6lZvE+dTktwqnw7h1bpx7r0/7RnBkF
+J13XbaCdm/tQEbULZIuzit1j4ExnNZwACiXhQZEQchxVDpxCRPCYKIIa9+yJwiiDVpvzZ7Ooh8fB
+yugPDzrAPrii+ksCVPyl1zgY1NKGaERg6lkqppHIkB3I4rMVyClUZxXpw+c8m+smWICU5BG2zYkS
+e/zu09YDfzr3Wrbucs5Wo1Xmm5p2VooE2+eQQP9/vOTa1OorHybJW/NjXAe/x95FhNdCN4FD9yVN
+QbcsAI6G/OjGjO5Lzy/1PRtOcovrzPxsREXy4CtCulemcNtHnaHpdmhi66Qb6SiQvFXxXjN7Zmwz
+c2yjH5u9nPXxFsUFkFjM0q9aGbVHUxT+N1pRbrt1BA2IlY74Ptmgp/RvfuooSU8gqrSXNDKd+9hC
+M804Gj3myu9U9m4Rvu6vhhhhRiRUsfZtjrBNoZdPXMcMxUUX37tT2l06fY6PLuoYf6NXkt5sWFr0
+weaoWHO7wuw3G7EQ9ypG/Q1/rleRdcFsOVQbtvn6mrJRJCSbFDzlL1Oppxbwn8j3SQbPJkok9DRj
+IvhHVepR368mf5xTh2YQ9uz8XAr6Uv3KQLSomBnTYg1HcE63WY7mfIxBfO8b6dzrXgqIznIVykbg
+UKB7/Mcp5+nZdNOQv4Yhh1Y9D8ccpiEzgyCrjYo+XGc/gptiLjoneh/01twgxEjE1aqL6dzTkN9h
+F7NXeM1RFGUIt/2QVGbPpJPX8rzcwo4u7yphzPFpCqVZnJ2hF+m9myAp8tdWrQbxaKkOlWAOsay0
+r4beaHs5tM9WHkuSgb0FQtua8mC243GMSudSsZHvij5jtD3lalcPxfzQVJ5xGFKMZJVnR7Qeu/xB
+tiaNVdLGAwsEwzY0/Xzj1lxIwtZWQKbwpDbxtcD4ORRYRUWfnMf0SAHN32RqzW5ww2bjJ8arQ7G6
+slPtmKYG0BrYNjqWdP4awv0mJGnPMbMwkMNtFeh8LVtSUrq7RFiv/lBHayS3tBHkqF1SpYec0lmt
+50F8LnWyDEI8Mqts/mi78dQrvsOwF6c0Mfo5gIaBQ7uLP00m+ir4Lc+eO7sHvInvqFSAmSfGTeBq
+ZD5O8JHZ3jkyTe/7pnyh8OXYNJ9cFJZbXMuPY2IWoBHcPpACvCVcunFtlPmIvXGqcdHFjNvpoxGo
+PnYNpKPYuTT0Vo+t2Z36NIy2M0ErO8McmUJ1M+1Fy3AF09csPhLpbSV8vFq9crjoLj5s2a2DdMDg
+Njo5XO2ziFqDNt9Q3gTk0J1G9vUOjxJ3E8X3dW7DFOtspY8rQhbrh2ae/RslOAcBWnT5Q6ZNEp5e
+++FWsThmSaSfVOE3Gw1/ZwGmciKEYSxRIIKRmKMnl6H0GggS8UKTDUISkivMzmi+QnmlJTzq7SeV
+RQM+SLpohp882K3W8EjgAGxH6MtFmxUBrdbicczD8MGGurpiHoVmoxLz2uQy+aGAEkxo2Fs+hW9x
+J5oHAy/1vTH50ylpO/PmQCx9hPNTBL3pHDtGQ8z+uXWIzPhsd3GzAinNRDCdiDpyeKdG5r7LaexI
+Q/VdcPnTvDVn5W8H6ebf8UyVVyU33aCGs+wtky7+0FlX1hjtnPaJy5k2LpobkuF83UA/OpmEwAV2
+aNQ7f+ridyvPebZovncB7qQbN2F+9SuR38NN44BUOu4mcVTHfFEsiRrWujfS9lAo07zPSWVZa8Nc
+39lS/2KPrUN/WssesZbhHO9d43PPEX3bSSPTuTNiXJbUBU7AvLjcEntLQrC9kAHrlhHG6PhHu5Mz
+CsRkOjg9W+SUKeeg5ZDH1/+pk/83oa+Gy7j9r+rkW1x9fPs/2BPeSjww/4jEPHz8v//6/Rd/L5Zd
+/TfdwLCBL8MHzUNR/N/VMn/kkd8hUHj/MsEnLdbQKboXe5T1U/ArE3zcimLhBenGv5VeyaD+1zrZ
+8zwTdQHvgffFIffnk2bTRkNb+JzDNRLvV+kcV4/cjH2CUxx5d2LYLxIBHTVIjU94qF+Y52kHId2r
+UTFxDQoVswuiXiRcvijv80E826GgPsavkG4rS3prNWjmoaX5HljInLZ4jyT4F/daL+ulMen3KWOA
+N98sLo4k0l6TQCuIOevxy6G4K+i4jQOAvDb5PoghuRZ8jwHyK0TxZdWwDnoAlG1DMrtVp8oX947e
+mUw65BsAyEUQBerTYizZ9sn3LmfPLkww0fixr6457STWJ+gtJLXQRpVUPOFkAztMhi2Ui8swq3sr
+nU8i4qfwz1EiJ29z3dMJbdS73WfHfNTfK9d5aeZuW+U4ItsiNj+HjbVPWg+fqMCCVnUh3hbNu+q9
++ZKN+ZuLA3YLQPMm2uyyfAN9gT7eyvLv0GCYq0R9ujVzYKBmgbcBKwsyPDk+Raa8eeWEqdZwooX+
+/S4ZmZHWZ+2hQ5wAQVYHtYCGNAnfGnkIuoTkaMQwIaZsenJITJK19RKbsBqn/K1t0jcUGFc3NunP
+OBZ1Mh9IWsn3qp/vrZxrNZv9tvFr3ORWdlTQclbk2BVL+BwDl4ovyojbcBUuFDTfgNOYZD6zbw2x
+dE9w1CbSlu8yLt4QEtP6mnHF00UmUIrXqi1+QGvUvezEfW/IHUDgE1LugnhfcapdJHdjFn83gSui
+tUouWTadDC7O3qt8B+0tnxD037MK+xCZuQOV1DfRpnW8ENqulPGspRhcp8dqVs+t1YSr2J6eCjpK
+01zKoIzbHq85Z+ARiT9T2Xd6XKcR/0OQxm1yzRr3JZnEV68x75A1wMDAuzQb/V7ZcEWaaXxiwgPz
+s+65Uc19VHCNNOFRs/VjvxoGdXKqOd4gpdOI39NNFNzcCRMiwlVD6waSjXguI/3dN4FFFrT0Vn2U
+H6n2n5p2eCIx7HvBYTMQDhkzQzE9mSEZPhlBW9vcqEDeOBpjViZIwY/vXS+dK+XtC9IxVAmWfa3J
+sdtydHwy+ZwAjZhSSdPhyNLOe8BOHCb16VobWv2F4amPMgZsXkvPFEkmt10+RWHAeMIOZr8f9407
+j8emssdDVzjeYRo17S6L53yzADPvSq2emZzk47GImy4wtNx8Rxj+ZWZ3O+sezlfumiph2EEJUqdr
+n4712s2UfAvdig2N0Rgn45RB9DMBC8/FhBR7razOR6dsgI6JQzw72ZfWZECSTZRpMUYDpJnrup/b
+TWNNsb5uiUnBrQBn5+hVwNkdt7nmWnxfVsgDUA88VxodVgga9mYc7LepnNv3sjRo52ppvMmdhukq
+ip1a+Q5WqWJYG3O1uAbsHqQ1t79KjfdKr2qmOAW9AxxOzmToWwoDrhsF12qASgkVWBfrCXzJnSXc
+YTcZ3HRz5r64mnMdjEYewrH9rsn2ZDnZ8Q+bzp80DJd+4B/6hXRmfIMqmI4KeDr7X7JgkpQ5eCqz
+am+NGu3ZoelB8UxXzrEXCNvO37icf2nO/Xg1nw1tSWmxSOj9RfHlW3Iondkt9xGP+rrUsyPCTBAc
+Jgv6X3+uX/qgyyuRFOi5vJgwlsbRz7uTdN3JTJlQ7Y0+e/NDVsNlOU51OdORpcg98G/iHz3B/zG0
+81dL44/X9NjASS72l3/+/JqRWfqxR5G4n3s73mCDeqomHmzNtPZSW1CTfF7gZae2Y3X764/7L57o
+H69NjUqDTAc69KsJmAmcVOnslfuuaM11SrLH/RxC42a5OKVVmu2FP71L/JPbTI54+0YmOy0doVW7
+iJ2dkNtVnYYICze+xL0PTI+hfouYV56kw/KNzb4OMjw/TZVeSqeFjTTeyEZ8FnaM33eyroOHHmmq
+Kn9n21X9GtGbDqyFqvnXn/RPbiHkjOSkUYsK2zB+ubBGjpyrMqxyHxvd1qrEPbNPKGJMJ/7mdX61
+vy/fKKpE5A22Z3ErLXfYHw2qUvcm/pB71YdU2MEqm3XALyJnES5J11rj6L70kV485ON87/aieIgX
+DqClou/NyLq8lCrg+DMa8NOJdjzzaqyg5MJcOUDvYo/l3q6TIogi5EzNZEwvkW3MuyIyMN5gzz4N
+ou1uQFSfp3ZxghmJdSQAstjQJsQIWCbfGbs7qzIDD9yijttNWvo9rNSzFw1b1Xds3rW5j2cEYjQK
+gggTGXaW6YRSMg+MQd2jvjFXwF30LbqKLy1TGSiv1Fh//UX+yQoDQMDzlwAo18Cl8/P3qFytaiwQ
+ansl0R1QTkysbNg8HKgg5v6vX4sK+9fVzMRRbHG18MXYv04YWhqYEGXmEvbNeLO65IiF528WzB9P
+0i8rJnwvg8Yx/+/T9fz58yRxQ+iREOW+8kcQ4MlkgA5W78tKnyiTaIw2PGaGtfc14ypDP2aInR+1
+KfzcpelXz0GQA2K5XXlgpmGTs4nHPqtTPRcXXY++K4egVnDs2T43CSlI8RCtBhCJ5zxBnOnVnzyc
+byuHYI+DhW8zyMGi0exDOdj4Tb3FGYZIxG+MHf2ERUCVfLeB4wOczS4jqO3MxiDgOSkFKjHsEy3P
+oFzU5aPob1VpxBvLVKe/uSZ/8sRyLeASoC8TlmUbP39hBIf02B2Kcq/nHBTGuGCkSXg6iPWMzwwb
+epVQboGj9q6FTSQc7RuxUrTO+5R7OcxASDnlsJWhkqse1Mka7s2LTGtz7S0hfdnoXEOQbMEQ2tcY
+dSW9alaiGioE3OX5WRjyHYTxKnGTR1AQVFX48ejOTrssFnhf+Zpq3MM7M5c7v5a3yGamnLbcnxb4
+fghAo8RcYqWIB3N/R5bHs1+34+Wvv6Q/eUjYM5b/6ESXGb+yNmTUuHkvx3IvQfhQ4sCxkLwdSzDe
+rqO/uSLIwP/1OfHYhVnWwJwueNmfL0ljmTMYmaHct0ZXbvCYV2svTI/4FYD/cX1UxS0Jc59oJINl
+Kk2pAKMcYBAF4FCFNKlLvw6SYqQt5yjmoznE5HL2UP3qZ0ymdwgpoJf4VPt4Bc21WXfvtPduUz6f
+kEmyGXObRWb2FsqlSpVM9RnvNwNhplNlBJSrm7FPvS2JdNcfx0tlTeY6sflBv82OjoZJNq3luK3D
+Ab236uPDBLLyxyEIGXm1lj3I1hJgXsLMd43IaQhUw1HPVvKp7SNwUwSM++b4RL/kHvrh0TSp1nR3
+wGuSzevlX5BFNDRwlxuyHsatbrXdZnmMusm+4ux/cqLlALEE3npOvaTeUi2JML1MTeat3ZqfRqH6
+QkuWR4y0s7NvT+/tkrMNkgnMRnIhH60ICExgy8itlzQeEUJYDIwrMgvQLmi0QFWBoxxTEMefPj9y
+KN4VITsLmTbcmDwdjuwvuW5/iTtZHjPdvo4dSkqjnYPlYDQR6LHDVFadPCr7vLdejDb5u/34B6jh
+l/WQWgdDANwE7qhfY0vzGekZiLti37nze9mNt06w79G+5HjHY73UXz+O2lXvQwD3qfR+PPNl3G+Z
+syBDTvm1pjAJqyjTjZ/5a48RmLvO+whWo+GVG38a5n2uY+0FqI+7NKLP2RAz8A4m17/ULYwyFbEv
+9iqGtMJ7D5RrXg2NNSbt5+fRpNwSrckUSSRDMEUkjOcelXXEwZD9MMbZiDOMMhud/1MPhXXVGv2t
+9TiS+uAJ8IbdLBvSaJXj10nazESCpE5FLMHoFt6aXEm4J9X87nSYZFsAXi6ng32WONfx/7N3JsuR
+G9m2/SLIHK0D0+gjyCAZ7JKZExiZmUTfOzr/+rdAqe6TqLLUrTuuoUzJQAABOPycs/favEQoMvtH
+vPt3y25eyX+9X/87if7HSTQR539aZf8+ia5Gch3/f2cNItTyB3901gLxm7kQlxgl/3kGHXi/IQNE
+jALLK5DWB6n7XzNo+7eFVoLnjhTsZQTNm/+PGbQDGwWmIwspfhl+U1QH/wGOmx7aX9dnYqeokGyP
++TgvA2l/7Pb/tPecC6WGUiYksDTFdGWkHWFJmZXdT7ab/SjgWh2xvzkSw70bRUwtwuzGtov2Kwt1
+xyhDdsadGUnsa3E9D3eOrcLnTNNAv2qSafoeQyuLjlVjw8wPSyYsa+INMIaaYbANiRx/nl01Xnqw
+HKiB5iInCin18x/DMLvXQ9P7zzE21pYYhhaDjfJNa0ZlhMhOMRuie5IcEa/m2zS2G2wTZeACHyhs
+7wfdyvxnKeQxogi6SYNp+KKo7u+z0Oj1ph/q8F3BRr2lNjxniDnJICuT9KsO7ebVCaPhyxQ1wPHn
+Ln6HUwEXi/ybZXmc5F2NtYGh+mx39NKj6axly/YmAEDwLgvDuFQlKfUrORTRzWBY4dFzah7MqPMh
+AY6V7VxbcZql+Fu0GaAPR0iqae0dci/sthjb46/mbOPot/3C33dL+usqKHAkzSZ5Xszkjm7VV9Eh
+GcEVYib2T+xMh72o2H9vdFF4D0UcAUGDy5TL1TzHFmkRRFiQQYU3BlORUwU/ZlPg1JmJi8NXQuPy
+ikmLWlth1pz6MEu3qNrY+FlVhW+4mYKrlhw8RmEMizAm1v4NEUBkN5J81N8PsmgOEQ3ZA3k1HXP+
+0GclS4q8ojjx6ocmHxUdI99YV2ROXMDWwRgw6jK/NRFVCkIedHqb0M/B5+rK4YXeLKLe3lH+FUZI
++lWxBjPMxEwGDHa9UJEdM6ZbdnftLQJ0gkKnpMED70FldMYJQwo8XHVSabHU+vEU3fmqficTbu4P
+Qukm2RhANd4JF8mdFeQbUKuJo9X3smWwdwgRwT4TrZMeB7tstjqYU2BjpTe81lThd97YDpuqLt1d
+YNitZKjf2Duzgni4mogYv6UQitLnRkDYGC7EZyS4kk1tKLWX5pDcj7OM7zC6zGb+g1/XGp01yXkJ
+13ZyStSm10K3cwWvxYMrexN1GCEKs0K45qgBueLoMeE0rafI5xjY0zcEaT84Haw7IHGmu1amyaYu
+LM2FnhDSAOUJXQ+0ZE6zIv6OEJCCx5uQZIBidJOzcSVLkqrAj1fbDiDsulFmuIPvCkNRwqUFUIGb
+M7KLTZ6ZVxav1HMlTEmfzLlHD3XIR+Fe69qhCwczEed1ubTtGq57T1gPJh1nDjel33IHOmUjbgze
+W96m63o4om2I+hq38skqFkpmyojTnoLxuifsaTPi7No3bs92i6i65srrmv6E1rm4n83SYUtSee7e
+S0tcdkF30TEPZlal7zhpn0yDZQCU9w+/rZwNmUqkpxOk8Wj0Vn6Tj5Ncd2UD3pZq5AEMPauWjxKX
+yT9bNEGuAKgBXsnpGMEls9ACDn12h/z6OXDafB0RXbYyKvuQqujew4EAv8RM1yFggHWaiMFdofDw
+D632MA1k3nK1q/ERv3u8EcMcHGXl6C19RFweVmrdA7zsNixPGa3/1j3iEipI3GPrxqaj688uk+Bt
+M6Xo11GQfrFzx3mRBbucOGOyNxHvd5K9ko+omPqrevTyiUWqY01hEMhambih8V3oiX5gnEX6VpDH
+h7YwSu/0wNqYIWQ9VNpxDr0R4KY2DYIXoi6adqGl+7UqRbEmaA9aZpI1N0UPJUe2hX+VtdargDBN
+wx879BQSvuUGjdriBwKlYnNRLoTVIErS9pLcG+VcbcumvbNmzBl8TwAlc83tIYFQNBEdC8u+vE5w
+nN+mnY+gVLiQGspMM+q3xFb4Ndt0R/a7tvOLF+b9/l2sonpeR/z8LyneSMvtsUpkU3lrDn2ymfNI
+PFJK57B/HfVVmpHzIJupvDTwC7cz2s5djsHsPGjlH1PhdOzP0A5tYZDlLLpx0j8kjo2HK+7sV+h+
+88G2m/GaNml5hrLaYWV2zduuc0leVSiGumKcH2jMeD4OPDMh1C1g9o0c4rpzkRyKGJQ0GRIZqmaf
+JTOPbs2A6IsEnhI+sl761JS+hNdlRxvYKYiRgKHrE7R2YokQZSEtzMOnGIV8vCJWio41MEvqJWNI
+rq0h6w6gMBo87ub0VlDo0nOu9aM92MRkhalscdgnEHRl0z1hk7GuNWbAaz1WQAxyT6Tcb018TxFq
+PuDwtCBspTW8sQYhAgyH+Evd1B0MEzaUcVchS2Nhag680afXmAwt+vaO7FZAeCdmCDYKa8vR8Kx6
+dWLYclE98AMUMLap1ItovGV8PDOhyMTLDByNpsYk2+QLRfwC/VGV1/MmygROCF3FaOvBehbb3sSy
+NtvDBMVJTPqHrwZvG2YzQpM2YQmO6asN0CVGuorx3O9HUTyO00RcdgZCn5s0PPJT5hvie/KLvWi1
+3FKe+sioN43XJr/zEf+7P/6n/TG9qV+ax6+rHu7XZ63m73/1L62m/xu7MosJkP37tpbezR9izcDB
+Wo7IFr2lZ9qkxvC//tgoE04jLPoLjKXZRge03/9no2zxgb93giwLj7kdmP/JRtn+1O+jsWGD3YX3
+tqhC5d/6fYCUxx4OS3t0yxDGX5oa5r2IGw0+I6l3VZP6S49VirfOkOEjCHTMMEUZnow2IaMYnRg7
+aGleV0DP98BUhrU1mITB+n5mPPp10W1kTIL2thIqWJvIRG7N0uh/0hwyr0n+yp8di2W2Lny6q3ER
+8ip2sD+AqRqgq/FSNyPRjntVGPpQNWwD+7Kf/kHu/KlxxBVwHI/ymstAuWJ/ljvT8m9hLtf1EaXf
+dMd+NdhHcx+sLaWW8+J7/6mE+jfzok/NvI/jBaStIzyg+U1L96+dIyIexBRlWX0cjdZeTVH+tryB
+10nINfj1kT7pcJcjSZKRpI+bnpmR/WmaolnCdEcIHKVO022slEQ80lOMPUb05AE7j7Of4zS8//VB
+/83pka0iBehbxm0o6f96eqmwEMCVXX7sGXrjZV30Rh0lmrvpJxdH939+NNcxPcCtPpr4zyOGKPDH
+pCxSvJtidLNzSbjHDvU6u9Y+Dx5/fSxz6en9qU+zXE9cRhxE2sA+qXv/emoTNrgY5EBybOIpZ7sX
+E+64aZqC1l9rUorAG7jt2968Hok6OeBPJGwY7l73H58zBgW680wyFyf85yEZbRw5F72dwmAkn2cz
+dXMHQS4MHwOvRs/365P++z2E2MVkSkSPk3r987CobYLcVq2XHmtT60vlt91GGTzBNeLWGF9cwtZN
+lmC3/uG4f7+NGMSRHRaYHolQnvg0I8iilMg+j9S3cmwGQDD8mqPdj+OqTHCc/vocPx3LATDIzj4w
+kcCzCtJg/+vv6iQG6pM4SI4JKRFo7SBfr2rRzlcRcK+nXx/r03r7cSyXjjGSH1r5jOD+eqy0UJ7R
+GtxDemaas6lCWZzyxB7+UI39ryepyzmhR6PNwiLD7Wr99Ti9l3etV00J1l3woRs8LZwUcx12YnTz
+HuIkKRDfouPFYrWEDm3RFMf/0JL/dO8s50r9yEK34JVhnnzqkQ+zmSWNq/gOQxdtcBY2oKa1EZ1D
+ey5OVeQT0OjZ8z+s5x+X8E+P6XJYYM6cOPB03qGfx0tD5A2VDiXGKj+0v7Q49E60XeebOi3jPU1M
+IHnKqKYSm+MUyXU49vNwHL1y+kF7pWm/13RCTiAb0bcKAxM1zIBTqFPj8us74d99T5cfJoD4GtCl
++jzKz1w7HJntGQekYd7bPPdOCyAiR1Yf5t7ogX1Pa5odqSHl1mCccMaCiTXLhkt17LPKuQpUEB6R
+9Ns3geF1cgfVoUph9QZy2P/6u/79rvUFVxMuisuOxPv8VcndRfCdjzjUAgEELIv8KQO916ntr4/z
+9ycRzxE/mZRIwXlAPq2wiWFxUYwuOTJ60pcg0bBPiY5zr/LOcR9+fazPyzn3CdMt6Vu8HV18L59H
+OLPfuZ0zpSznMOI2kR8OS5wUkZ88KtSLdbSuJxAYZj/Jr0ZRRvupctU/XNhl4M6T+Nfb1bdR/pOE
+w6aAr/PpnPO2NiyejPAg+7GdjzK3WExVMNn1MeprfTFsT7y5MNHx7BGFQtBmTOh7kmQtQABEVVfg
+1sJT0PfzHWUawpquSYn0bmiaA0sgSuWcxx0NSJyK9zq3w/cBxfWzP+f6TP+RZnrQtN5STSIlKXz3
+amgFCy4VoHUP2817II9LHBQq8eu4dBZYbZ0YUClGfZmj0O5XeRkPt0Ur1GseQsHVQN7PHcIkWLdT
+Gb4TDezWp7JoqKlLOpQHHB9Ot0slCe8rG1EUe4Qqc8SqZAbyGgeh+b3sC/tp/JgnTaD8UeVNofOe
+D8oZNwWcEbJiiGk/RzZPtuOytJjtkLz1MYt31UXuOzYI30Lvz7ZxXYYCEM6YBEz0Rew5+9ERbIYA
+9HU/fIkZs0wb+dVvxta/p+3B/cbTH2VEZSzaO9T5xsW3OtZO0fXyq0aOTrpeEJ3l8redW/E1Zhf7
+fZMskxiZ5MZjUNnzmfdM/tw083j7cXlD5kxbq4zFpbabOMOiLvP4GJqRZ58sUcTnLAoKsAc6Tuut
+/FitEO5dtUqzQvlkGH8rK+Rca8iypljnuakPfVJz7WZM1t26FSJGuZY4X/pWMLq1IlHe2Zkllz4D
+nzMCzT57CgU/mvjkrRUBnKCwbecIoyLJVCvH5aWAdcR+8kuSQVaGxbUtbCt5y6PC2pn0nV5TdwlV
+5KEhVTgkn/zijsZEiZsBDyZvaLpNZmeIN9Ixk2+5p1iakGc/m7Nw8q293IcFaXJg9elDkTtH3PRG
+TyYbGLOo9A58I/eSLJQ+RyPB9kCFkm6GaD7oS+EaCCp1wT6njzvaJCkn0K2KdNThuuMG22ItqF/j
+MRJU3z53Lyi+6a4N6bIfeuAnNyjTDUSYi5RERM58jow8PWV+vg00/p+pdaZbwJDNTqXSPKADqrYN
++PH1bFTtJVJxAtW1La/GiN4mTeBk41mdOJt2qU99I7wD45HwMVJyWzmLUcgrs/PM0dZh6MrbQss9
+EW/g8SCX7kWSktKC92kFK4UG90zfOINCKIxJry1pWWvTA3wZTCjunbZE5stVtZ6DZLhNIuIKUzPY
+xTENWlrsFWwQm0aYgaUFqmMAwZDTyjO/XWPAzzfzsBCtFsywcp2vrezsM2ak23bCmA6cadoMs09o
+IwmpO7dJnrzQKyA71tZVjtRKEMO8rlU57rMACil47KVrLbxNUMPMTIL4vovnNyDlr3VvdNsUuO5m
+9uhjEvpsHdFjvjSL3B8sXp2v58nnrdbX1rfCdk4a9Rdj8eQm9hLsB473OAzhVVXK6EXVlt7Gzjyd
+4rxgAXaWPVJhzTdeYtukQ3XNxWRUzmgXxofW3nUmm9mHB1+kiDwhqzRW1P2kV10fZrMCAUUWSNis
+5shOTyaKRHMVGpG87t2cL1TlDGNXw2zpJ1cTcTmNOSARxpfkfJlmc8tGyYk3o8d6kUmRP7X1HD1h
+oxsf5oroKQADQLZWgBnncwa4ahsWntw5GaCytEhasJke4IomKDgou+hzG4l73x3HeznO89bWfb9d
+3j/0V6saJlNSN8VdpzA1SZ60/OgYDlsBK6sglc3sRTJ/4l1Yeh1DWJmwFJUjLdWQN4KMAnmoU0qf
+nvtvU7DN2wVaOPt+HBzE07VV3HZCPctcA0oaMQw7jfahlGNGTDfKy5x0Sauns1t32a5MM/eOVLRu
+58k++qLSaLyy+2mjknA8pUCV8GdB0PlGHCaCLJeQZ8QvrJPHMmjjE21FHFnW6HcHPRTcmCl7B0qE
+3LiQli63xdxi8afDKQra/6C5/XflTDTnvdIEvVS48ss06kDvhZsYeIvQcYRVz34MtN2h1jq4IQHL
+u7RAcpjzV/XaUI2EyjEGh2AyLZQoZt/+rC3f39ZjOp8aZZ9l4Qhi51vARk5gXpOLUrKFKSWuqDy4
+5GETggexQ5viP40d2hSt+WjAAF2bKg9O/Ki4y1wGbLyEGfMANnO+T1p0F4kD8Tg1JUTzCgyA73EL
+0MDHX0Yw+H5EJLbz6Oxt8ek5sIi76i5S6OOL0EyPYdpYZ65ggtB8WDcEwu4H1+XGDsozmTzQfYvA
+uoua3D1giLSvgwiDYFtD7QvdxtwU/ljtc8G0PNed/9pD8MUPIJv10I2JvfZV1YL+gcCxj4fSwns5
+mlBAupCkQDHZN73wq1uSgNn2wwb30DgaKfz4zKgcbKNDvs+zUn51AfE+cmrRFe1hvwK24OTH2Qjm
+n4py/JphZX9RjgHKw66DoVvj7+SdDp69XZfV4N5QsS+4WSkpAMzqlJuz4ulS9XlMi5yJo6tufVSB
+B7vp4mCdBP6hQHBxRMCDTgGg11VF6NE57Ut/70RD8bagRUEo1UHzxWFwuUN4nL0HbgHcopZ1dcSW
+RS8Jbtyz7OpvBR+9bZvKydeBq4GXYAUYXkXtpLgKjQ5cYg1HiJcrkOAGIPPGATB+BX0HfnGVbvnF
+k21WWN9HIwCmBVaBYWFgQyBH8H+WQV+9SbMcAKqlxsYPeAfCr9b72WU85PiZujPF0L2lbcaa3eS8
+NVgE2ixSaxQNTeY+KWjdsvvOKN0HNeSUU/weGzgSFXHEhD86qqRMUsZ748XleULtd5OMbv9kROHw
+5rSJ/zXqA4Qsi/U130zgplxee4yaJZEyJVIxw3Pmk2WlQbQtvOHLrGjjC7QfTAoHDLtpQ4g6hmFz
+zS4qupmtWW5U3tDVQDrNNJYUZr6Vmg5OmYqzMyY587KRdwYWZ8DAed8D+mdxipf0NnIrTHRIJ7PF
+rLtRjlWxnM1AQsg6s2DjgQ4+usHEa8SkO8R9mZPFGXWaILc8ELuAlPdtzUthb4tanWqd9N9raiMq
+DHxgJSi996b1k2+htdzKdJTEOZa1BaTQaqeDJ2wCDF3LfjWs2ni3oNJehz72ObfUKXRLPnZypuCJ
+3APCHXu3/RZigGA7KYJ10yVPbIwhv4YeVtysufdsCMiawblmeQ3zkJuqQKFbEsENOUuiAFylsiRa
+RPo7RxvANUrGCszcitXE5gS+JOBms2wZB1Fj0+1fki2n5C3LrbgkYRJRXB9jYpm9BdBjWLveG38q
+bJV7anln3bRWsMtQUKyzwjtZXQGfE+7zihxVcOBQ+ZjoGCCfuZ1FOplXs1vAUzEZtvPBcdX7e2tu
+slVRzPkeZ/j00HhA4azej84Qst+NmrDJRsN39IbBOiU0drcd3axTQt4UaZe0B6xpYPBct/2+jpV4
+yxSzN2p83jpshE74fB389AnJrqNitKum9DozEQICwFqRDTGtKaq9jRqn29ETBHo4k3dwSZpai2IA
+793UEErAJ1tsBe8mE1Ghykmc9FUHfd2otrVR6b3pkVdaNMG3djaKXTvXHp4Wegc6Ekc81xf0Fq+J
+5+yqMMam0Qc3WHshNTdfx0Lf9ll4YuryVLfhmSWXhhGzoiuv1e9kFz+jILyXVrmv2U2vyxT6pkjG
+vSbGkahp0Kiu6NYaX9YmMEz3icx6iPeV9TYFJhsrsgU2fmwB6MXAgvljlxJhOsUSfWnkfS8G6F9W
+QVcbTyQVQTT2/Rdt6+8TZBcv7a0dCkVycOZgjr6IuosgybR+dnLaGhrCPDMATuy9qbdDk7xMw9Qd
+ehWTaPwk/KF/bPyGoL4ueSAwNCYrkjScthn6F8Nq/e0EuuYwUMNc9z0xmS2IQh7zWZxcO5EvXueU
++6RoPLB58dgek8ajPYr8k3IC6vC0r5iTbgWyLIeJG6RvNbhGu4uL6d61vOAHg/vZOBl4xmYTMHjn
+i701WKN9pfwCzCaWTSJOcqtdPs9qMmIJaDqPNC7MUB0jJp4BIYRZ3WKL8h2gTiKF5QWgClVDxn7o
+IO1egp9n6ptsOqNKsTwFNE29bqTkBCy7bnsr/OpHWfjehR4PIEdlxEDaL4WI5VNIbYA6UxZF3Pb9
+hiSQnD7TMtNAfxF+hSttbEPsTruyIlckTfR00/COe/abcD4b+LTWAA2MrSINSNykhgsqXQUzZUcv
+WZbGLrXxHSzViZlMw89UW+Nt6s3mtTAzvTMj1JRxNoZfo8KgyR050rw3O1cxhGypRCI9iDcwi557
+VvGwlLyBwoYVu3X3hWgLtg654Yl9bdrtkb09H41U18BLT4G+cSGF7yQByXcCxfo3Lyd2NGnZ/uHs
+qu/cFsAF4ohjWUfpWvPKP1pZx4u0s8OTHbs0BTqKfHh69AiWSc3H8YbaMbZz5bXH0LOZ2QA43Avp
+FC8f/wQqp3UvPMr+SqbBHtGiPlh2Vr92haIGm1qLLoFvj7cj2RrkdKDlX/m69DAucjHBz7kwZVWz
++2gUg31ljDJV/qbP6BvnRVIjIk6IAzICviLyP4SohCLtvcLtvlSJ4gSSlE9kHdGXjsbLnZvk5kvR
+C371MhN853Fqj61bTnfZxH5XA3k66KyH7l/Ps4LCynk5Bb3w2qXsa4a4JoJhTps9WzVq+77PZbsZ
+ssXNkmi6IjQvWQzAP0G2xX5eOYNLjkcoioL7X2jjOqii+pXmH5z3LKWj6OuroG075Ct5oGjJNAy2
+iYvQ1U5l4+iQ2ktChGuO7lWVaiZk2qV5Fers9HHfGUmpd0PKL2BrnO6YmfUlVh0ahgEwGt8vRsJl
+lHTXUBM5+pL3yzXJe6ZsJv/JbzWhnB24bDQp1wvN8myVZrnHEK1wVZf6LGcCFND/ENcFCR1DGneA
+cpYMIdJW+MA89R4iEuK3QYxTpc7hOChZ+5uJgOeXQvAnWem0R1ku/7dSXC2T0CQc/LaczwMfRAZG
+G7joNw3xEpsuqu5M4YRMOu772GB7bULx44lcCn4gZeG7xk97NaTcTbbmQ9PJqF5pJZY2tn1reFKY
+MK8DcwxPQxxWr2EssImEMY+OEfMIk0bKbJLgjlNYm9VrJjt1DJrJsAHIDLlgSJ6H5j3FAWdYWh7t
+rzCKMnbA4VjugzKxrqlb2i+KcANMbQDTTn3FZRq6yiICA7/axwNrdVn8gyTN+rXxEw5NcuRwAqcW
+HhUt12LV+0b3qsnniQQdOdXwd0EL3I7F963HprSOTRCctaq/l8IPUIqFqNwGbAxC8esoFfKwTzyB
+YT8HdCzKYK/aQW0jQgjONi3wc10Q/tKOLlnJ2tPmVQ4S57a0vfDk5jbfXFH5uJuS5XAvbJfmB2NR
+f+Mud8FY05pza5eWgus4GPV8RU04kuV28qQWb5FIa8QtvlGtmcXyTFetS7gJ1ekOU2/4FUtZuQcr
+YDwSLBC+y7DmhAO13IOtwPgHKC88JZFFYKePlR+zMoZZ4FmUfUT5DD8xZEARp8CYXjooet+mwWcK
+1bEhb2ml1tE2ZlvBm7FOoYV0Q3mDX6F/TMTo/6gHJ3wnfDM4DS4ZwvCaeTM5ydjsYJfD0YOk0h6H
+oAm/pp7rlqSDILEiz5kG9yavE1KkPlrC/xU6/KPQgWDDP3XP/yYEPpOx+fMvSuDg4y/+EDl43m+B
+7cF1sy3mA9x/zA/+EDngsYdaxjgGn4Rk30rH/19iYPkbLiMa/RKFrk/CAlKLf4mBkT+gLGYCiNGe
+gQDyh/9ADPx5qMA0gYKZz2EWFaBL/jTemzGp2ZCMURCE2znYuvMZMc6frsY/z/SZ5SHycN3FgMJX
+Rknx12kbI6RlcxjoA4EVq0z7K/B3GP64pP+TTPB/OMpyon/SNKMunHDIcxRZfuuMb9X0U7n/IBn4
++7X664l8Gk/KpHIo3TlEry9SXOZk0+i3X58F0PVPkguspYBOHYY8FncG/plPl6uDaJB+JJ66Rtl+
+x8Mvxi0LgrVlX6sPbgilC9wRq2fe84ruRL+bOnvaomQ09/M0jPukbttnKybUCrZjl25aJS+WWwzu
+hr0opF8Cl6gOWrGxFX5NcwjDh0RY7L4kGS+P89JKk6lMr7Am0V6vaBb4RAj5fgefyxwOfdqu0f/F
+gp2o6W0yQ8ZnOPEzhKe+Wnnk21FQ9GwHRC6vhK895kOoTrG5z/FZNIbH+r14KASN0dhwweFERT8B
+QFI5SIasv+6DQj8lOFI2cR1jxJHNd88qJLNGQqZ8oxk2ndTFngzZawcixBOuaecyhr25N+hZbSuy
+DtjmLClvvensusxv4BPW5tmnwt9CA57IfZiGe1sqPoQXwrXE2rqttG/N9Ds78xyCZjtUNAfWUdXH
+lzAdxu+BAj40aBtKrBeiKZVDyvES/XMsvfAlrlFybEBa6yeGk64NC8j82bYTTkjGaOrdWOzga6KA
+1DOhBNDnJ085l2EQfNBygVFxnCvKdCz3JBQixHO9TVGH6hqJuI2BbeEPh6jYUHADOqVlo+S6z1Pj
+Jo2cn6ozHMa1qv+R6unJ0dbPAFX818lCyun0RvKiCCE6Eh7GJWnjxtyXo/Nz2REHq5jklUPaCELD
+GO4BpQi1eu4Fn1dMfI90ktmpCNzuOTFmuYaJKq8Kv495I4/h1gYnvO+7cZF/wtaNSnvYBG3dwu+l
+CqpwftIUIjpvHYCh3frTLNiI5350cmnaHyimOIClYWY0qdqPhZ8dUjcdHrJK9w+ANvjHAFW5MaAF
+XfIIwB2M0uzEWBtQj1H124HJ8a0fcDnJGiAls6CXu7FYO2/UCDv/mDKm2YH7QHc6QTkK133LbghY
+RMRwLhEPaUk60woMlHtr5Wa6j6NI7E2nDd9CNPgI9S0jvLHGgB5zFjPSWjlmiXWPRt/tHMMwJoHS
+W+NscE5z3TbXjbEUN4Uejl5Qe3chcdv7ro7tO0ky2PXouJBbG/ZHEjcVXZ9BMH2hAXFsWgWPqZ/Q
+omZw9N8UE8hVUI+VWtlGb+zBNfjvTpr577S31LqDh3TV4i55iwNhbqO+cWCwQTvdGp0K6AcHy/UI
+0f5uSKj/kTOrSdfdAKAgjphVmjDMDkSrWdd5FDmP1A56G84+gkqS2sw9huR2747O+OJb4fCtDN34
+IopGHAZEqd7G6Se29cDZadTS5fxuZgjvG4DQN0TGjq8tQRnnso+C2wkQ8SNFADOlrqPEnBpCVUeL
+JE+8+HoX1a1/lyZt+TrH7nhp53m6m9JY3UxdA5xhYjuNFN69yshP2puNSxzhrLyHerb9jUIccmCH
+7Q9rV1gcoMHrEJPKEqpLqwUZSkDRMmLqPM/dMP+vdkM4incn8VSxivMqfmjaIf3haq87mAOLEHEU
+3Z5bg+El1EbgfnW3VxWRdpuuTroNbxVn2wunucpHD1BdXDXxo2bHF60gn/OZbhh75BVJaPc0v058
+2+jRMit9monYu2J2sNhow6RZp14JBdct0uDos2PYVaj1mQhGwdElRWanqCVQvEbGvo2zBDG/B4V4
+TZeQMjcQaivmtj3+XlXGjT/vQoTUeHn7EB89POP1ECquw1RpmGBUSXdl3jZvCHsVy9iQXYjZouGd
+EsCiWAW+wbjVQM+lPICBGn5KQfFloTq5+qiZxooUXTLY2R0Tm2y+KVkycMzZu793mNae5w5YF6Ih
+Ct6lxLJKz8WFQm2EaqSgGeXKpQpG0dj59LUHP2M7yj38gU6EKGNGy2RmOSSzPzordGFIsZst9u52
+vjTWMtV9IWun27D35Z86rW1sEzwj549y3uoi656uMFtfJ66eh6Qo9iroyz0VebhNtCkWBBdq9oY2
+ppiWzX7Vv2LIV0dfen62inqA2nh/xQE4Rcbi2Q43AU1nqtUYNXprBglu1GmgSAPDvGJaNh0qevsW
+cRgm0CAIaTCk/aE44ZuhFpAAyPulR64Pqqz5wmLy9AFgt/dgTp14+ZjUJs7SmfmQc7q1X+7l6FG8
+6LrnsEiXw9OkiS4zWwraSjbGY514SLqMiZ/etzVyS0kbpAdo8eOjIsyWarVoPfcqxI9CkQK3mpTP
+YXn6DX/PbrQ92rWRPY9BEuzLsqEP0XjG1gUIyAyEzkL00T9aXnZdwATESOmljB7dHtukdKoCxjEx
+PaU7u52dV7I3821Zc4ODIQW6wx29RsSFDcAR5U+S7/ojc9/uscuITuVGiu682IgwWfcBUaGMcYDr
+UAm3dbn3Md68KDakAGmIJ4DaT8Tv75WfFRrTnVKZvmhDDD+HMjSeClmHdHBUam58PI6//06ZmsL3
+WfBlJ8ced8KpzRv6IcZjhFL8Dswbk4Xc6reGOyVfy77zL0E1TDtD9O4Xu5+dL0NrOF9wz843vKm8
+XdzExmYm+WBDb4EeYhhWZx0Z7X1FDsHWastiC890uvm46orIW9QUvn9rLei+sqx48XXpFQEPJgSL
+GJ5ir8d1xY24m+DJXUlmKNsyIKihmJUNSbOAVdAKh4dYBvOpp46+DX0zOjLyZ+zycS9rotsuOMNx
+gFJvXGlgajegsMItY4wI8hoszBV1X3YrmrQ4enSWX4IwHPYqRFoHYo+XodAOP79GsJx1hDyaDQ2w
+aIRotUaoFLMEmktbAslDNk83LArz0SIg51a2WkMjdwG3MfHG4o62xyXhAhOWRuBP0y0LrnOMUvBG
+ZXoLUs/Y9TbNL6cv6CGOeroz5Uhfsa0nAgk7Xt0yLnFENRWtiUkXMttYhEwlK9+Mgy3vpuEYtIwp
+V6HTMQBTEPTXpSyrxx4l2q5nwWEPxEDoynQsRT4dSuq29wZU0TRw5tGsTw0akh1yX/j5hD4Yj50Q
+/4+9M1mOHMmy7K+09B4hABTjojc2gkY6ByeddOcGQp8wA4p5+Po+YEZWkjBLmnisa1FZklUZqQRM
+ocN7957LDdvJOk7MBj7DtKMKqAY1n2ZjQnKfXrWZTldS8ZcdVQgtTx9VSq3bTFKZEm6kfX8VQxgk
+keMy69XvoBEpoAxRIaBOzZohusbbCHUoXS70PlVi2werN8atA3kH2xb8/RVsIIQymWt15M93KHlW
+OSmXd6pFOwRubkrtyOffPBgkmoCqorJz1TYK/iL+o7exAPULr7X0PVKFjX2kiukidnzCiWBnz090
+Y4fgISh+hNfaFOkEYEbZvT5AFqN3nW8nGSr7xiyIDxPmqD+PWOjhY+XlPW4RxHJJpFzSMbtt5Wiv
+4PuRUhorv5yysbGj519FSyssjUf/isdINqlasHKaQV3tHKfqtwVlmL3v0zfKOZdcIv6pkIeVqr3l
+hBjSqCK4pQnHW51axJp8iewHvuUf1PxuBp2UZX3os/ncVl44IWhDe4oe+iKc1pWjBB6r1Z4X0a0R
+pBKgSh+fPpjzVclRvTcxrW3Qw8QCOv1sTxU0HFSnocduShjCtuR5c0BTnKp0y2DFpkUoAZDnYUAW
+MhHoVpSi7CxE1+6hy4fPQUs8ezJoSH3GFjA/ETvFvUQXT8J3gCAK3lN4GcaWvM3J8v2qBMS+s6tn
+31By0YzrbBRiGjKZTerI5KLtxonQFDfZAzZtPfJGTRqDQWncGk413cZk9dxLLFZbFAA2/b+hAnAz
+WdYWawyG2YqslBT87q4rE67kahodglgbKbA35Xe3mrJLuPGCum5qutWmL4Cv0SJqhyS5rPPvHO+1
+b4OVO580t23UdaUTMtWVMTwruHj9rT+NxUUzUmUmCLXeNQ6SCD0jNonehUJzpqr4FQmKN78boVH2
+6w4X5Y2hNfFdbhIp2WKJ+GZVnK9Wgxbq1yMm9m9JGtoHWP35kz/ac1Qont9Hdd4hLQ0qlRo6oTfk
+eXsZRo7xKczq5ilvoABhpuoPOIy7S1Jbkh+NESM1CDV+3KJt/NvOltnPrMavSkqX8UIzpdD5RKR9
+0OCfXFUN5XQLvwDFzi43uOvWRrsdlcb4InI729Lf16hjd114XSjjr6Szna96Yec09ScHKE46zal2
+hO2SCw+pJJxopYRk6qxaOKQba6xYyeI09mLZpStp2So/L7vtYeRWgYxUTCsIPpugltOmjrIHJaUv
+lTfQA1jlVxRuHOIN6FslmnyqRAx+wKKuS9fYLtuNycl4Dy4ueyiSrLhqplS/qCo6uJznM/QRgp6p
+dFqyHepeyTyuS5byi/xQFCM9tkGttZzHRgHDzL3T2XOL6Ve6EvlfqIY2V2yK6S1Hxfhl0ETxJS6T
+8qts5WDvpWLSpIp8MBP7rpihoIB8yaxRmvzOAOqfr19rlEllgSBvqz4+dHr7K+gdeniUd64G18kv
+BSfbH7lUrTW5nmjrleR6KrqURAyhpPsGyREmwri4SjqJfw1oTHNNFz+4jjkMrWIjjeut45glgh8L
+fVqFKZLv/yfmQzyk7GnuqrUJgRJ+Q7xOUbe3CWaKjYG5AExRLdi4bG2r5Zl/R8RQ8V1AijPiun9G
+FXU/tei5djZ1141CyXUflxMru1TEmk8tvYch1Ddr9GHVZ1NNCRTzLWQ8Yavupq4jlocZ7ylOYezD
+0LKv9ASu84rIC/siBIPqxbEefKcEXdMzVYuVKZSApvNgP3DVYT9Bofg8J3NsZOA+GQPhRqokN4P/
+FrK9h7K5NyLjp5061U1XNCOuFp8wvATxC+9tjD+57tTvCajjjWF43JdBTG6L4vJShG8/2V1oPEQd
+8XhxG/HBgqRY9TlnqjG03J2pmPtGhPotd5BHFuTkZpCTdSiRmK2avrG2Ms39l8JNpnVKYdxTShFf
+z7A9wtxJU1vpFafboSZ0O+j6/HM+1UAcdeUuy7LmonHG7M6PFOvWLlXy7GNLvyZPTfzWAiywRUwy
+etVGhGfgzL7JzSG8glli3hsSaRNKxgnz/bc4V+haJfU+Y7nddpIkn6kZ1Dvfby0sxaiKC3gq+7ET
+6X3DirtqiXrbum6n7qu0fQhayFKDrVoHERQAkPrqOXRz24uJlVrTphgOLKSKRz5Id8VRzgYViWij
+DsqE82+R/24bImvhfcjvAvHvt9ppWlQApGck3ws1jtVLTbb+pdP78YZqSc9kq/WHVleGcU3Ahele
+R2kV6OsiLwmpEeRpm7syHyauZmFFe32s0oc8c3NkCKO7D6NZzU8J6wEZ5K9hQGSoThxVqlJUB3Xq
+f5C/ntG30DMC8EwuSSWKgkmjfZZFrjbb8D0FYcqB79/E+2s9ZihqIEDh/+dUmG4od/yo9YhOrjrO
+iZnsr2Pfe+1gvdhcQYZ4ujIr9Y4zlEXljDKR0jraD8NN+0ujMMXWKgWFlAQrfeBrXucq/u/QEuat
+qSr6XT24v8vBUB4DPr0vum5X4casC6IrkfD4m9rBCq6QQreH9tZu9YiwT4KX4DkjSj5jVDiugmLg
+s00LN5+rHcPurCHVSQpxKq83qN91CsW4SBbMyXLPfTw7ozQ/quwSZYNhSEPED1zDWppc7MEcOCfZ
+lTcWAU1adNKrKLOHbRrIdPNxhffUUNjNgCKauomvbqFoV2uLUKxB48FCJ3gY4EsSod1pn9TmLKRw
+aTEhFgNnG7Y9AwMPIy7q1SQiqSNhLZWXV3l7laTNnKwEvNNn8q7KYMj2mILHPy2SM6iuQQ6lDmfi
+31gMaka+pitQ7r0x4S2SE8QuXVGy405qnLEmLTAmVMoZSsfCM9u9LMNavMqExX+SUqm8bAwJokt9
+sDhK6cQXiU5FExp2eStHjQpiOoWf2nQYzow/V+LfmhNexxckjeBEnXs0i0r9GBgyVJOg9pxMoQCf
+84BW2X/5eL7MD7EcROhMzNnXhiVjdki86WsMGttF4+qV1zSUbu0+5BQR2MK/TnV18qYR1ELXYuQv
+Kg7JHw99av4QUmJitaV5o81dsLdDu6YxaIEuqrlIMqJBM7GVx3Mh2FZUAPxobczVGDb+9uNhT336
+gvQWGDg8Lu7f98OK2rUKO2JYu4xBz2bdF+ADkxdYzFoX5No/mLAYhfHWwNwhnWXxgoOqVDX0QAxX
+N+ZDqZd7Lv/DtgRVcmaVOTLVzBNGzNxAbuAsNEtqqDtNf/+W1tT2P+rXuTn67U+oCMNKISoEvwR6
+F8uZ1JfQn4tJMGL/waQlycayLUPgQT36aGzRTHgBKnT5gXFnErDxSQYssR//hqdWOX7CuX2l0vhc
+umsNPCmtkbH0vK4CHdECqIvHAa5JLM/8fqe+QgPhAKAlqvKYFN9Pl2Ro825MexZUYrU3aOeeLad4
+/vhxzo2xWNQis9EtNurKQ0RNDk+1N5zsnONtYaB9Xc2YfwD6mIqmfTQ53NjpK72pPMnZ9VPQqvpB
+L3IaZV0ffQ0VVhgkSuoMV+g2UqD2w8B3bkU7/vQAsROehGYR8DsT9f27NEyJfLBwwftoAEeaorHW
+wBvKq1SJUf5IN9/86XtlPOCdpHWZeLGX317JtcoZMf14WU6wmWGNd0RU2GeOEsdzUdBDJwqC0q6O
+UHbxgbuB1pAykZYeWIx2XUtwbHgKyNOkl/Hx45wYiYcgHc2wNHxN9mKauHUUTePoFB5LG6olpb4k
+r+hBVvHjx+Oc+Jlg8JJ0xm/FymXMC/ebPYE03US4lV14U6Ruq/RFAQMcJ/ksuDqDI9WP91jxbqjF
+HkuNypqdG1iFOpfCfW4EKwKR/pVNgyWry6cvIxSbPelafrUpgTht1ApNisWVFWKe3mxjur97vaaM
+BjqYAnhmIPgynVgeGkEMVtCH0yc/5R4IaVsgFqVbxL2qgX1OWNLB7tLhui9aKtgjvt01ZbZ41VvR
+dOZBjWNmJTs4fT2VD0DDu7LY7IDyKMLNW95pHTZPbpar11rnfB4tK3rJphaASErAIIKqbxVe951N
+bhI9a+vCwhcUmXRmtVImiIm/ZEQhrxuLbOsi+yx7B9A1hSVIseW2RiQOKxW+l1/FAh0mVJZV1YFr
+UmIFdKBRGGAOp37TNHj0GCfeUMKzrxIDLUNMFDDxIkW4cYMeBGEwbAguIoraCXSFeyMQ0u/2LOz6
+47mm4+dHwcGexZF/Mdd8IJycPkbeSwyuqtNcccGvPngBoY9Exfui9z4e8PjAQxa3DcgVBw8Ej+WB
+B09C1xGkXHiu0xg4eItsWwZVc2UJ2ex9h4DskNLrg4Fr8Qy49MTny2lOtUgyRbOiLz9fQJidErZW
+jntwHL92cGueS/o9DxjV419//JAIPFiNqHXwP8ujI31R7psjhNSsq+iKYOioKNcCh8JqUl1YdRI5
+65oG+7jqdYr2Hw9+4jk5V8H/U9G8cYJeTHUSi2EjFDkwb4IG9mWfPwSz19uJx+qPjwHGvEhpGHi5
+Xh3FRVIDqgOMo6mH5ehpJN9gozsDhLFUiD+ephw3EEwhjOL2ceQXl3NgetC1KbqCtt9MFoVXEd/0
+vWntKDz9/NMXaKiCB9M1AwKDudy2giiVuZGWPJaZCQ87b17QQ6SnU6ciOUe0OF7sGYyjDUcDk4b2
+cvsq0YaEVpvxZIrxEArlCXvaz3gQDwgCz5xB5m/5/V2DobiWWjwa28sSpQw/LyLRGSEGtsStoFbq
+FiZpXWk3ETWLmyfVz51GT48I/wcZ2/zRLbcXQ9oOhuTEK7XukLjypRi1BzEH25OXmpL/pl/9+U/H
+wRtPOacORlxs0Sa0Fdy3duIpbXsgP9ozjAQYoXpmmOMDo6ESSDyzPAFMQPN+v0N3jgp4l/9qDx7k
+bAjPjQs5sCN+/DDHSyWjaEBDWZkhsC1N+jhkBoh/WuJVgooWlR40pe1vO7fu4rKhoU7IoxiLM6uk
+frxTMioLB/p2qLxHvAP4bzgAQooJromPvU9dynC5TJCZu3Tpp5wmdj262AwwzJG2RZSvpO2l2vtm
+KIOLlD7yDiziwzSa5WeEuNAFpORwMB8LyII2L5HFWV9cHcgDjkDzzF9/8oeZ+ao0A/EMLX8YJAlh
+Smcj9ahO59t4dOODMlDn/PiHOV5heUXoKikpuTryx8WRMzNKtpGgSL28sdNVUXSemmgPjt2cO7Wc
++GBNYhlQVQKe4A77fpqZdiqIAclZiAYpELL44cVgqcPu46c5tQJZHAHAL3Ap5929H2UCWzQErZIg
+HsLR0tlsUxgA0dTX6Xf0+n9+iubOiEyULWNmJC1vqHjfLRJ2+ETHxP85v7sqsu6yyn/6+KlOfTxk
+QFs2klwuBktsx1ADR50KPp40Mp3bZNRosfnmT5otxa4KTOdHn0LYoVpYn9mqTq15CEkNztVUyo4u
+PZRO1VAYXUI4kn7T5AoOimAn40cZT/cs12dGOzXhufYQ7gUHGFPpYoUFhoCEFOuyJwOZ7DPLtO96
+HVfmxy/ziNcC/0idM150tiOBzHmxrrqtPrQmJXfPaXv1MQrVYgd1FT1aLLqU3pzdf4k1p1i3RdPd
+lGOeXJupLYipQNM5YWKjsQyHUCvxmOPPQI/RtvG526128s3b3LD5MmGZLQ8+lV+rZp9l7DaDQZug
+KV+0xi3WqMrqi8h2nqDAyrUNZvMqzUX0mPRdfeG7xXOIomOyZvdlnxkXVJHclTUq5HGHPMfHL/LE
+t0ZPmyOobQvYAssNMbX5G6KB43afTz/lpDU7VSKm9FP0K+PLx2OdeB3aq8bYnAu1nLrff9c69AnV
+wA3tEcXzU6XgsMlM9aUe4TTaRL1i0rKaMyeMEx8d8YIatlNuWzzkYpp0VToShlTweLH5NYwCaByo
+duhjVNNK4M78UlZ9uUGN0Xl//qwwyty5IsUBcblSGhBPCT6rC4+72jUeP9J6q/SOajwQ6yR4HAkT
+PXP2PfVLcmSjDKBr3H6XQDS+FUygRll4igppntBaVAm5aO56oAdeZnGR/vgJT+w5PCBnqDlfmsPi
+4tVC7jfCqODVDl1A58Ko+o1aFuVGoIj9J0O5uN8dAgCp8y82BGkbUZPlXNE0t8hvzbTErWk31mXU
+atqZ5evUHBV8ULMPYa70L+ZohyQun6gMEDzUPkD1+GWaJNvX/H5RUN45mNr/+HLEAobpggQgnfbJ
+8gPUBnptej2RJ6NPaPzs/nPVVhtJHeDMQCcWZkrqcMhIOYQd586/55sijpxw66k+V0CSC5+CYdg7
+U/lwZkoI/jsWB/p3YyzmhKuAHTfmIA4E/RrpgZE8gKgxP+stkUx+2te8RRVrVF9JaGNx8KXoKxux
+EL3a1qkSin8tasg8otNrgGNVhKYBbMANHYmmInjPCO90F3J5PuLQ8qWa77MacRa323GNDNa/CE2H
+JoU6YFbUZpoR1Gft8+RmiK1yDZ5GkdXVXu1Kn7htpKM3capyOixmc3gSVTcExIV7rarHixTD6HUn
+wuxTp1Sd5yTuQ1Qk9Zo3nOwyakXElSMU9BAnZquin+TWb0MTsXDSXxWGiKAcxe3u49d7am6yixMC
+RudwppS+/wVBn0DNtZibyIRfyqF5cUJ5YwhlJ7ICU21f/IPPjjM3hz3K9zSEFuOZ4ZiXZETmXlMS
+acg61uvJRd/kZw6vxyW/mXiqCwp/1AgsdzEMwJFQVIMLV1xN7qSMKjSDzo8y+UIT+hOClHVr6s9B
+lZ+5Mi1TCSiAv5JWbYs3yuV6eSBzJRgs2ZvURIhG/BoCF185laHcYXRR0y2aGe44pZnBI0i6cpPm
+iASBWrCQl3p3YaLyN+NeuRBqq+y0xsjXPsJQJpzc0++kg+3G302t46I+IAUESRNs3EazqL3Y0ybQ
+/Hs9wcfvTCZk8SY2iESZsOfF/D2gH+QvPB8EgjpzDPWABQ9HF//3bDLXYd3EWxt2wWMpzHM/xak1
+3QJAC+WWMoPQ5p/qzRoRqbWZ5QmIdwBiI92l1dir+0RrujMz69Ra9Gac5cGokx30frBXnmOmKhmU
+VrvOwnD78edyakO0oPXRV6DfBpX0/cOopS6J6qpIz2oLZz3OlkVVfyqSEE19PZ4xnZ0cjHoldxYX
+d9vy2GtVLEZ5yreihFbGTXTaQ/sh2xT1kWiiM6/v1EJgUfZnt8Cyd3T4TcdRWDEqKq+KqzuAaAQj
+++NTkVa/mgjNQmideZPaqXkx97y5wCIhsJd9mqmWKe+Xc1o8pNBEJl07OFPVX+jU4jeFUELPkEQt
+DtIVnyPVD70xwNQQFBFE88BJdi4RpV9sLEHYM/wAZNXHv/TJP48FkTIS9Vt3uTD2g18rScgxpy/l
+L+EGj6He3acCHck/GMd2uCly/Z0tc+9nVN0pYyjR43ncRCXVnOYlH5V+U7TVmY301LF1RttSYpn/
+xV58h6J3cXCgvfQaPCNhjcS1z++qwjzEjnaTFuVDlrpnChWnJvCbIZcH1ngyUjR6auYp/bAP2uKX
+a6SI261DVXRn7hzi1PydQdzUosFtU0t6/x6b3jHkNNgZy4w+Pjeh/A0TkCCJVHPWlG+D9cwHWGes
+yNuonL0GijYrMytEf6CNngyKKkQLQ7VqdRwLuNrwGYVNdU9YCfjfPE3XmV87u8HunUfHZNUEaEVW
+W6bUw2ZK5tJmof9Wex07CzyEQarPcdFeI8WR24YjX+R0/SobRbRts1G/l4iu2ex188xsOvUW3Nmp
+S4mDebtswKaprIkYkZz85HQxNZO2alTjCfP4JTVTsmRIwvt4+p76iWdnFkIZm2Lr8rXLWAvGksOQ
+F5UwBzrZVnL3SicQAXCdVT1r0j8e8VU7sTgQopjReUA+F66Zi186UMaULmmaeVY2ueuwb617I9S6
+dS5G8zIs0vQRHhocAgPl5KtdwAlBMWTtBJwKSd9e6UHrnXkNJ947h43ZAg0cnuvEokLhWqMDB0Wk
+HuhIYxtWo/UpDzk2jnFRP8XAoz10kd/PvIgTRUxUCVR95lXbPrr7BoM5Sb/ji64nHymrCIwdglSx
+q/2q3sNcFitmCspJEwxiUIXrkZ4MzgvjHIpYnFgrZ184cgyY2TTa9Pffnoo0wsqaKMO3HINRefU1
+RAL0Bdrq3LzkzdgXTYwaGYsVlLKUIrKmZPRR4Yl0t73o1d04+uAmXvnyzaR+5Vic78OeKYVjihCY
+wTX3SPJ/jYixWbK7rWHN4cJCIflYyRsvtEqb9OLW3jjBpV4k4j4R+XDDZ4sJbeRDeAqd1j2kqv1N
+BQp25mJ+6vnpgOFBt+cO/bJwRLktJt1P8PxpMtyDKUWLag3RU6Qp4e7jH/3UUAiv0RrgRmfbWBxA
+aDrBI5+3JSCk4UaWzuzmG2RycMM0ePp4rNffbfmlzdVfwe2VbXB5/c8VKyUkPuJy0AHjWTU0jDF7
+TYa2Jza4g7Gaapdaofq3zaD317quBHd6Q+S1IVK5lzk4l9c/6H/xDWfwDXOTk2vx/6AETuAb6vrl
+R9gC0WrqtxiHv//Jf2Mc3L9YnoCu0/YQXFDeYhxek9sEVTTHRDtqChabf3Mc9L84NjAF+MeopXEa
+/Q/HQfuL+h6HUyo21qyu+6NQt+O5PTdZqWpqJoMdIc1dMaLEl4r0nCj9HRYBS7VT+KvI4Xr/5u3c
+/msK/x8Eu7ecBpv6//3fUyPpFAapoaLsOrr1psQxGbBpGUnHsYV15FkSz7bq/bA9UyE5NRJjUK2l
+hoY6b/7/v7n9BI3ig1+HVtr0SQseRr2pu4wQ9XI6sy2eGAjNE1K1eQFSj47THd+iW1QTWNQ6+Z2k
+yW+ien7H/O8/fnMMQ9zzfLGmfLZY6tGEoC0xB+lRG3C3rlOWqzmBgvR4ciP/fChLY9Wh607/aVkM
+DKSaGbipJMyNrLoa4NXiDNedqyqPzzyUxY/wfp2jGkGljDudoKmxvNXZHYjhxu2lF/Zwo6x2/DwG
+wyNGvEfZQTT6+LGOz+EMJmh1Ic+wXHcZRwJ2ruDbLKTnljWcHex8XgypbFUo0Qsoa+iOOIVX2ohP
+/uOBT80QeoYIDF+PTcufzqoK0sTCXHqyjIr7FjU/vEu8tejixJnva96Fjl4o9RdWBc6gfNXvZ/3U
+xu2I6EXSoS6RNmPO28a66t//gwd6M8p8PnrzbZFObnRKmzKKO+D5robHLiPkNa/+2at7M9Ji1vfE
+cBRdzkhh2o4ba4hfJnDSRNSe/bxe41Pevzo6XI7DzLBdA63SPFffPBQJeKaTFTJjz9WLjVQ7BQa4
+bIbbycjGreurxUZzK20HWsD01Iog3zgV7laURn7oSlp9675A9e/Q7VxXRY5ZIyRA3Y59cTGjbXat
+nfwe0aFeBJPWfZI2iF+os7W10t2iXBWS/8gY+tlWTUgSbrFVePZQZndj5epPia0XF6Yf+89d1o2b
+PhtMz7dBZBQjxKs+Zj4n9gAtox5bJVuB9HU2XRkYF01Do7pN0nzLUTC/xx5qHPCw9T9Kn1Veayz+
+dox2d2NsFJeghbt4HdpOWBAxl6rfY8y5tN/4exQOKS+Zz0MnYGZ3hRvIm0Cfik2D8ovLnvD9eKWR
+DIM3QDQgN7Hv7koVKXRMKCc4O1KIM5Wnm+bUYJDSzdpucn3t2ywuYRDhq8RMhW93IIcXtBwwV8qm
+ByMjR472TnGpqaA9nQzvquMCn7dTqj9B2JmXQ6DFz4FTpI9WnyBIqoX8VlqZ/uTz7JKoak1+k5nR
+TvxNnY8qxJZk5wox8q0PloGJXiGr77HuoRfAIsvuwJk1zz6vBtdmKW+sNv6tavymLe6lJ+KUfg91
+79+TdF5c9PPSGNZ1cTmmnH13VYqin2/bTUMAFdbwGZWoccGK3qyh7Uf7LkjFimNANBMn2hz2F2La
+lUHq2HUgpAv8MMh/W5BxriFs8xLblAKirvSOs3qd9mkNLwRAhXMF3zvfJhEvgUo1sBMDXmdWyuDB
+mTDzofGPkmcXazGwT6LGAXHEpDJiIp7wlVdWuo9yXZWftLaT7sYK/e5r6EvF3epaVztoD6Gqryw1
+r64wY0xPDradhyFPst+6DRqdZxy3uBX9GTtZegZwxccCKf6DAHAUr3EQAX6sDBNLCuqODuPnkLlX
+FSID6qg6P0HjDwlsbnIgihV+WIUOnuU+1oRBb6QBGnDdGWxxE55prGlydtfh8wof6XYHHa2FPH5x
+ue7vYJh1n1CXasEqciEr150/fO4rt/s6VVOyR47c0A5QKj3axfgPpu0UO2iDqjroCX0cEu074pL6
+pz7xbRmKP2qbtDfrLx3hQt+CGLSePaasoUPBH1u1ijiQdUNENcReZa0l/BJmGCTPZaDnh8HHGVwN
+NfHgVfxbd8h69jUCCPhDAHJiy9woY132mzCzwmvICQNJcwS2x7hFV61g60M5na5Dp4I8R1DDfdxV
+eGtDOYS/cumaXp5YkEytEISoobVfZT12e/oEGNLdlokwAXbGuBZB8aSSXSp4d2st3WOL/9W0lb0J
+6+EefrvXFN33NhyjQ5Zb+rb1wb+yFdp3YctHqeX8WaqWdp+6pnK3QcJ3ToPXhy9nJ08ORMRLnFs7
+WNhzsuUgm3XWJ8QhJlEcrUSTMqlZFUn+SyWZu23s3ggOlbtS4atP2nTcdGRUrEQNLmmqWN3A3HZ7
+bd53pcFz61n8EtWKc+PQ3X1JB6ALoms0Cjm99hAbvjgMLTMKBa//3Lo+bd90LDYd7aWtWU98Rhkc
+VxQRszdCqeCX4q5V1iGMpjvNqsqVoaYvpslCWVWsH+Al7Lspgr6hk9Ww8W0iBLBlts4d7vnqSutx
+xeA6YhrCgi7hgWftJiYwZp3pbbGxeoauiqLyIgyBa5wM/Y+Q+j0xtTke3hrXMYLDbRWlN+hOi13Y
+g54J60ze1OV8ri704jLVJJOpL8MWeqJm0FTg7US+SxCH1WqkW7HqEi7xrUkc7Zfas1p18xwx1Um7
+Tvwmuo7NIdh15IyxxnGSWClKY4J0Mnc1KJE1fk99bZKOui+bYlh3k1V8iQbe0GT7OVRru1obwICQ
+eTWs3KlaVQimrPyhk4EPfTDPCeZps7u6Ze1RAlaP3uWjTzoiuTq3aHcCkv4qyLvoWvi6+t3V2uay
+U0g3SIr2xknq1KsttdvHIRW/zA2UT00V3QjimL4qcVzfjEPYfPLj6QkuQf/kJKOzcYiy3RuTZnoT
+8TTbPCyzG/xZ/m2afLNLfO6RCH8XwWwGaaIvfM+PVaeCekYCCJ0og++tCjpoYw3JuiB+g8X9OxGy
+5DTYbHpzeehCiUKiQ3JW3ipnxVEzRwOXqEEynfhJ5b8WWVAjVNL4DXbcvUBqWwC72LfzNUaRofUo
+HRrVPg/dla6Fsl81tRsDtU5TFrOYS17JFIndbM7XS+aILRXIs7TnliQeK4IjyomQTSmojoigbFQA
+QH05g130L3WmZ4e+FAQ42Y0q14XTlgeR1u2m1Shdphu/HJDjXI69DqGVzSetWP8yu/c/l3qP9xSO
+KswGI+qy8NDHroAbAWmocw5GB5pz5VutsMWaszh1otWEB+B3PcYhpJ4uyX5JEzWDFgX2xeDYUoM2
+DZWE041JqGw9sK6PzlyFgP/TNLe5ZWP3jw3oGuvaCWLqe2FlbCCcaV3G2lM/O4maNGtYmPd9LAZM
+8JoVcEIYfSNaSXvsDnkaJxuwtd8NpyViIY4h+4lsZZhUbnTynTcsHN2dacbKHAeikKZgZ/icDH3c
+853qYlXEQIXa1Gk8vURPNpT+SxKaCaQ7PYFpRC0YEA6IWzCo1y17tLYaArh1uaG3yprUiOmazzX4
+EaQ24q1Eq5VVakPVjVNFuSDvV3V2dpCxvhkWy7cRcDrhtmT0qx4/rLmRPLCXUKTJ1s5onkuFOi4A
+EUDJ3V9VyS7SBUrh94fReoIM1tZq6oGAZr3R++4T/hPwxE7FOQEMWHQ90qkB9z1xrkhcuHl88OYl
+tbAggiBw7qJ2VGad/x4qBMjOEBMfSVLtAPoWIq7UqzINxhv5OQlram8T4Zm2n/2Rbe7jK8bRzZC2
+DBofRiLqnjrHoq5bG52ZBb1MgW9zCMsBVbFBsR3neVhcKgSK/6vC9V9T3Y67YvOANnFVzpxwf6Tx
+ySsOOIaVzGpz+GAzh6LYRDW5Spu4yl6INXO3CVk4N5bp9Lev2w5BWrSAQ73XdqFGNBBwRfMF4kq3
+HwBcnbnYHZd6+ftQlaA8s3EZHF3KJV4GTLBt4oVZZhzars5+FwKr/6pv+hpGPoElCHegEFOWjLXm
+mtBmLrMJf7HUOGhHPARHmfzg6KWzGXVunnUkc/IGxta8NECOXOU0IK8Sq3aJkigjuWpa3/SCWeUv
+QOAVW4OU8Xu8X8aLsKgXr1z+Ze8omn03+hobsD8OKDOiKH5+3RXzHGfoup8SArI/nhvHVsj5XXCi
+RN85B1wvi/5Bi92e3SvxGmQncAjqYgUunzAqYXwtIY4j34f87sShvjNBKq9xgPypdhYrJr0uJMz8
+JEzTxfREudFbtJIiz+W+vTeVoLiURn9uGTiqWDAKhQrsFhi2EDYsrqRt1Ha+lRcRljAOzxYyWrTS
+FqEauss9w0qgCY0xlwfgxd3Xj9+xPlcK3l2HXY4oYq7/IHs7tqORMGgguOtpBtd94HupUbhXiu+7
+z1nL0Rj8vzneuIrpPhJd9pi4Y0kEgtlvm7GDHNkUeRjN623VrEpiCcQ2aCTHSSOpPM7f7lVc5PXP
+0p859oqPju5fFZf/rVefqVdTGdRZuv97vfppLGgbBG8r1X//M39XqtGPQgjGQ2Wx+qoUrKm4/A0c
+RiA4w4NBq81aYJK3/lOoNv9i8aQgTR/dsGZp338K1epfTGFK3ipdGqrV7HR/ABxelLfwsJuqhhSZ
+hRDZm/u6SL6p0fhtr5FTX/bXbfYzICI2TL+/eRsn6tOLfe5ogMUXVw2YDOXAAE5M6ocDn9x9IdUp
+ot2Z/fx4qGU8oUp4sEO5f27y4IY/MnSPGnc0k6bgp9hMwZtKWtpY+S2ihB09Kc3nOh4C50dY+E6j
+7lWp1wq399Qco/yARaUMsp8FAfd2cBO0Rkh5f++Tg7Uf4WnQ9FadKLtqKwO866Vq0ZNOOaf61YMD
+w/GSskfhP4xls4v1yDwgQkKeVBbc48bYL1FFwo8nZkVUJolUnaUg9es74hVgD2WQT+4x9QVdBZQv
+72wOagUt2BV8RR28TasfKm42X9gLWvD8ZWuvp9lhvaOSk4rs0m6ItTUBHF47ICb6Z4V861WikJ62
+chq9WrNFG+LGUGyum3Hjhsp9D2LfyLcgoXxXkYTixdD79nZaRX9r6/931TizauiU6Dhg/vdV46b6
+FRT520Xj73/k34uGZv1lUDhlteCMSGOH7//fi4Zu/GWSF8tUNxDA8J/6z6ph/fWqJmB5QNTBh8CC
+8m9MuTavGqgM/mdJ+ZNVA+zE+81s7uJxbsKcNm9pdFQXZfGkbpFytm50iw9WxO6aTvZAJShIrBug
+YIZxZ1glrfsipea1Y5PTXJMZH1nrxO+KnrgLFJzUEpNZ8tRESSM+h6SLpMOT6VAmVtcWl7sVKEBs
+GVOu9rfkPak/6W71NNDALuLHrLTQUVd6qxXE+RQhSaTd/2fvTJbcRrIs+iv9A5BhHrYEZzIY8yBt
+YKGUhHlwDA4Hvr4PIjPbpFCWZNnrstrILEsCCQLuz9+791wgXjYRUonIjmVWGd+smNp2FXTC/6yZ
+eRoqF9yxl8N4qet4DhVuoDuKz2hHJsa8toJCv87ztF70F+4wrITZlvlqLprWWc2WrSHR0j77yk0Q
+5msZeUmBd4FuRRYzIKWzgrl28KQzfBoz8jZtvQmWxCU3uWs9P0/WXa2mGwk8KVg35li2G6vhG698
+xBw+wUZFs4YvlZxElG9jmbLjYyj8nI6yf+ykm2QXx1QabLPGu05BVZJZk6okDQvg1CGnFw4uINcD
+iYgPacy950AUXfNLTC/RxElV0wO6fhNdtXtMcsh7u3qKcmQUiTykbpSc5lGpFxTJhrNzbaW/4aM3
+gYt2IdSNrOTozrwsJjTUap6nViFCjUWGQJOB01HrKhBcmuODjiqjmYZTPsJntgqbRyKDhEhDRSXd
+vM6crmvXbuFNH/uBCJsbvompE80lS7WmxavWqT5Ym05vXZbuLPnmtQUSFOh8+y61h+0YW+6a+EfO
+73Xi3YrZVjGI2Dxem1Nf3+Zu2R6nmgxJGMnGLaXUuKkk2VSRTSrQAtNzv4xNYBBDjp4Jn8BMICXb
+ewJ+itYog4hKa842IRTTlV5xNmyOqFBHv+GcWnWk9HEjyCgsJZOnGzsXSX2Yq9QgEs1Kpxj8m5+6
+7WooO/s8RtiZ0lVSsWMR0M0ObK/p86XW7UCYUAJiSnr3ZVPRY/A0FTTEq0gPyWzd6WtwgMjBWz0h
+VtNSaqG6ERRZHzMo8cHZbWLiP4Q3gesuPMDKBUgw7SydNO7CyFf1hZZfepZVn5zcqBpfTQSPeOO7
+ERwfx5PpoGIoz7DlTMS6WuHqyBEzmu1EatkQJnuS7+hVAFvtmcmU3raK0/QGD4wxhwkhNdmqbiMI
+zWyiHs3HZkr7NdbzYQybiBHjeSYRTdBit62wTvg114hZpRHqlYanJNOqIL6Bu7zkwMKp9q7Aj46X
+onNgi+XesE5iFNU8cTawycwj66XQvPSi1XUBny2KSJtbDJjtuiz88cVMuxrQMDbGo613d7Pqs/k2
+GLQ/tDmoeKc0lz6d72STc+lrq5u3CLXLfhsPU/2ioloHRjkNwKNn36x3dtS0hNPoNuefAB1Ov2cl
+mu5tQbzpAclQL8K0KEyXziUH1MPbFMqqm/YbTJhHBwTg2Uppm97LHNLofswhJx5aDnBrv9GMk9UR
+wjpHmXlLFObSObKDDPr9m9p/QFkNmjrbzcryjxnwmxyUpqbUWRljffIsLBdrrpTvfD+C+m/EETMk
+fqsacPecrU3yQG9xPetyaw2E0LlBZp5qt2KS5meMILS0gY9rJ8p4aGY7XetWYfI753acfW6Fl71m
+eq89Wm0hP3a6ku2mrW2bd81WgPsyskJLw9X6QwugPCRaCmKgm3Rxe+L/YGPSQ4xYrDhxETi6ApVD
+p4wSyQGoNtmeQ4hSNhW2XKsBBINJB5PTpdvG1pKvLMFDtRba/L4c4a3WDgehq7oCogjCLCoejCm2
+nuQ4P9s8wtRDHaQHclZ0c+/6o3frOqmxjvtoWvdmIg54pEiIq+be3BSaQ1OzVqO6q6LOvpBFNchV
+2XqlcTXSZb5CReVmO1/U1ovo1Qt2D0iHPRgLY22kUeGHUup9txpkpoarsimNy0xxeVdmNWkLJGSp
++NZQMiJ8GITiNINwJ77AczI6wFEcHUXHqnEhWfGvHs5/66nf1VNIfShz/nM9dfn6uQV9/vpDRfXn
+X/qrogqcD3T93jgWDjLDt7Lp74rq7YRGa/AtD+aHYxjhLjrtQgweXuABraEM+rug0v9NAYXw/V0B
+hcoUszgnLwq1ReS6HMy+O3jxImkgAyEMW0g/ZXJFrh9SUVCbtsim6iy91J6a8pDKKPmaDBpIqBwq
++YPjt+6hm/vovij9iJhyPv5Va2Tutdl27lllAVCAntASXrYiIUTSarVtxZr8YndleWl9T2RraQbD
+ltik9GIq3wpzp+X1IxvY3DTIqQkhc6wLMSAOw2RdbHXplzd5Tkp3j9z0LmDSla3Y8PKnFtbh0dZa
+HxBz61YvuhgjepmJZq6EXwd3Bee9OyBKT0De5wO8QrUjIY4NQDjzHYOx9k7FVrS1Aj7+HPVqo41W
+D2sxoDYbrTxkkK42cEA9jFG5KB6GNFOvnlfCDupqUJn2DA6dbmZ3A18reRZlPrB51DhXrVia2yDx
+DCohkdxxPIJ0qdtAcDW9Uuc2Hs2zL7pHArKhqOFS9KDaS8sMmXjMD1U/5GxC6nMODhgGvsy7va7J
+9CxSEocXmnH3iXQ0gKqC3/CxyLPy4o8y2Wp9Mh9bshhMCgsrXheSdMysyhn5ZIiYbiDqw8Qr4usx
+z7ItyCOCoROWjY6jwF4f6/GsEtiAlUYAamKULkLFcpzup14M21yRo0gAsnntMxfd03Csrjyhj2e7
+q6Y9enLrNbMtyoTA6O/ptBFWUOZaviHQql+SRkz/UDb2cDUbQt8Kw9PWrLHVLaNN676f7P4jBtji
+G0dO/cGUA7nhuaquy87RLgQzbmNH71+4VySaC1UFN0w5yxerTUmsgei8rnpT34xVPu9GHWK/hmPp
+ixi77trom/qcQVQLmZ4wSs14cJYNNgj+sKxsaEPRGgL49mxVRYh7IkcOWyW3VSeJR3ED0W8mCAfo
+2mq59btkXqGUeZWm9E/VgJKBU0pzsVsjDoeKhAHNnAcsQLHaKgMlzQZQZXZm07Nx9TX+XqeF+zWr
+4uyG4rzimYrn69zJGpKfnUj7w68t+hNR3BEjKka3UCsyooZTlboe6xcQ7TQHw2WVkEkzrXBeUqPU
+nwmwVGc3yHWiwLvhKvUaR6E9EfK21eL5I3U9ynitaNSpoUR7COzcufaFvWr9Jt5J6VU32Ir6O1Mm
+5iZ3CH9i10GEzzNZedSDYphXSa+ctduhWV11Y6WNyAjd6GBlWXTACkfk3JR1xcoXxO6tIiUguriU
+aE8sI83NVBXzvoqFvpHQ4DcpqapXQL2ISkepgLtapP6mTSZxXcZlfN0mtrl2hWt9Kki7ZVKjteq5
+ixJmU8ofpnvXzS2SzqsCsERmJHsHGtVxmGW1uAcYm4VSI29jW1GMXCPTMbCEgcQvL1rux09EEAuO
+fG4dNaEtRMRKkoJrnsv6S7F0u1aDW6ora/YgQKe5A1k3gwD0FMuOBnqGqTcKSa5Says1MuaLGfP3
+rVJi5pzoN+rWLHTjuSXGfQjjxmwbsS1cHBvqyqDdrVJ+uCXYyNy2DGTLBbw/cRrcoMXr9Puom8zJ
+fYy9sunvgPcOcl8LpDHVkbDapUvU+1mpmrUtzXy8b9/aSDYhn8TkJghnRuexlNmIbttvHC3fAjPp
+sy+T1zQGRRs/UcvGxeb23zrgd3UAlnG24P9cB1ylf2BTf/2xs/LnX/qrDvDNDyy/TMDojmAcADvw
+f52VQP8ANYFOBN3Dv0uEv4XD/gds3AjHyTPHLf9DIWB8IIcGuMwiJGWEQRf3X/Rj30MR0BnCaqUX
+jHYTI/KfeWTf1QVCaYDYi844VY0tOXRIGnlq3zosduRNVrjn6mSCUp7lhjYiQABlQ55oQmRtFzTO
+K2FAlWms6X4uw2onc2coUtCR7OwUm4JKPYgqqmiC4OnOfHen/6HT+64lRPY3HxikJl5YJP0McX6s
+aPxuGAtcWe0JGqK6M5JKCx2G5udJevoFpjw6pV9fkDHpj0UUlwRotUxQUVm7/JrviiiNBmijDXV8
+ct3gTAIoWQ2FZNK3w2bNmkcGmib2Rqs3HwN8/kKFgy09ex+4jIG2Tryc0SIvXWJfJBiuFdlhqNrM
+nqrCr1LP2tQVua7QQYwHjkz9zCGxqk9AocGDobBjYmfkEb0K0YpyDh3Ql/Ruxop7rblS3RUzg0G6
+DM4rKTR1R465z6UCxGHxpvWiRQLigOddETyDRszlF0Hq0HfDsMWwN11Nbmo+tIbFQzBaDEJbi8H0
+BDoBNllPvkrroyoLvZgddYNBbIw3SOzUjZ7YBei/JDYfDINItFXqdXw32O7io5aQ7BS7Ix9Dmamv
+CA0zm4+mHIGRuwQiJ9cqKflEARXggRF0oh5bscD4kUCZxoOZJUaHJwV9+IX2n6dtiVt2mxfTGqrk
+2Lcdzx9DhJl9GK723dxW5gPIQlM9N9R+2ifL7Llzf57jaNhwsG4bn3m/hAc5w3/XuHTRSD5tM5B7
+tyEJiXmqmoUuqduyLLmJpIG+syb/hRMtJWK6gBad14yB2tMwucGTHAiuXwUj8e5rAagG7yz/tN4J
+blI62fwKro3x4CUZOYDu7Zn03A330RpCJ13CS1OtQFWmnF7M99Nc87NKE8TZCe9ckRzn5SfxlpsT
+QO3n9wN6fwqEhtItLXpt6czL8SqJCSDRfD0hx03x8uJmIptAEHoGpIec8ILkJuRuqxYmhbeupVls
+7MijWnSEQSDIqKYHtzf7Cw0slDJlRgwLEU5D/RpnvXM1TbH7pEnPuIyyKW7I1olfTaRqe2S8th+m
+ZuW9VnEunxuL2PWtMfPIJiNJtZJeoh8m2aKwKMlum46mch21gbQdPGnY5/tbM501OmwcPuaVbD1u
+75iWbnutU4FgxnJijSqtHIRlkM1h+4QaskfbmvkH+ll+O5qD9vhtyqah+cgfy+wb7mx1l5Y6gjMX
+A1NYxzwjHcMQyrQ6MB4mc/nli1wT7kqLRn7bfJwLRK3k8H3kzvByEdHLS5k39RhtO11rupcuctQd
+2gpeBI2emtqnZkNjJicI4OSYMxrVSHWor2SGgjSLTHVDmSj2A+EZ6mwRM0cfsx64CpLFbAYz1NEl
+USrjvpDOSXbsQHLQib6i2T7k86xpTyQZzuLMNEVrbyYV8EkKxCLjI82rKXhMbb3M7yKZtXtVaq1A
+mmpZh5kMY7map5J7icJnaT/rIyKAIIi5ETgC2j2dhkIxw4XWf2wEDIDw7UHOlcYPR8AV77Erl5ei
+b23+Fc5ErKGVXZsP6aAZBAcbfuK+qMIfTMqtgIXCj428/sOzRuOSuD6tLMyFXFPL40yRohS32afW
+aMe4WREn1H+xmITlzy0rhEEeYjQ77XVdVhXnDhVrUbDxCjKXNmaO6ZQmp54dO+Hxm/dFa1yyfrbU
+sz9EIv/qeJVpogicREwgki5N87pk/5kF/XkSVg5RZRLWTdfd1fVDYlootqAUorbWAF58StXMAS+N
+/UuFL+3FkUO0hDXde5BTxtAo6+FxqidtQwpZQqJu04XWECcHqwiiNTLplJT1FEuqYRkToZpe6ezR
+4bkLaCIjahlRM8Kfrd04bkXzspmiikWmPjSNrz91TmOGVql/0hDerfoKpmg+VfSaklH5e5JN4s9F
+F3lfl3PqioTf6hqS/3kYWzFt8qJVt7Cx40+OJatNySa1Zghv3WGBqD4ZdlJuzUpH/Ec8JhR78qlv
+gpg4Ka/J0YoQx1hcpU1cPJpZ560CDgHbWesRZEkFwYP8JRJpxuZaFnN5dtCbbYbRK25Z1ptPWTAk
+99IubkZPV9mupd+0FRNxCDoqgJ1M6/Q+7tziETxSF2/bvqrOAOBQ4+ZiPhZakG8hDqcrCWuSLCYP
+LR0RgvUDm07zUjllk6yzuau2fqrXz4nrLreWOISV7zpDFbreoC6Nqyxy62VJGpDXfUtbwreLgXOW
+udCzCKA0L0QTefY60Z2KQJeJcmC9pLYjjy3rnV+IafEcWPVhyUzidGncZlHd7HSMj2viHZqXLG/R
+AhJE7R4q1DByM5XecBG9Hd0HTeLutG7OydrAFw2sdfZxXbruRUt6cWLBnvbgBqbDqBkB1uF83Exd
+S1SRaQ+hGKZsn1Sd+yBTOX/R9SI7BX4wn9qqDX6XLvBu+E19wsCN/70prpjxL3KU74u5uqQFW5BJ
+rfoGcRsH7lAfLTahpWmyznRZnyLe8v2v66J3M/23qy6eSuhwNC6gmv14VTuaEy8ZneAoClbRFDqQ
+CJvepMb49XXeuXDergNiDAYd1d7iQfvxOjKp3aEL6HfaqJZZU/WWNbtSzUdHRSwY//5itOjIbqdA
+5pD/7lYavMNaTBF49As0xHWd2Ic3t5aWDsHm15f6uZBFsQbGgFpcx4383tYk4sBryPkj4MSdjMtb
+n8EBOYAus69P3eKJ/9fXMziHGDwm5CYwTf3xPhp+zWtblM5xVkn09OcWVBFlkIaMnahGuhRs+29u
+53K7vhMj8dvx5RZ8AnEU/Hjvi/WpjO0+aHv7SN+O6ooIAYofFlR24Eot+elLgLYVaqXkzzoKY/Wv
+H1JsGQ73WQcUwRj53ZeuK1voqsjd4zCkCyxesw5v445f39qfXwWugpM5AMfomJxMfry1RWSOVZR2
+7jHuUZci9Eh3nv9bcsA/XYUDpQ9RF3HZT+o5t7dMwbnfPb754NwUPT8EyP/HY0JauYUln9MOx813
+dyxfGhKEtzlHM2pTohuZexKQPOKQwmBnXPpGyfk3R7qf1y/WdNYwvha8Ly774+2r6D5PY+HaR9Qt
+7osxMD6fdUkpMsCn2VT+pJuEhc48Ir/+2X5eWbCFY2AEHUzX8ac3Atpoqs8NWX75wNsd1ayTvYt9
+cc6Ys/36Uv/wFXk4MJpSgyO1er9YekQVcKnSPKo2YWZVGvVp7vCrFPYiR15OcGp5an590X/6fhBh
+fGzGzj8Qi6WeVhZTXuNYoJLYVyUetkL3kx0Hnd++6W+axh9f9YDuxDJieJth/PSmLSYYnfUE70wX
+0Ig2SmdcgcAo7mj5t5c6w0mJ1JQyWY3UdTgxpu4ihVTRFkmozeGixj4Sm90XhgMWVedc4cbyc7f5
+HRzz54WXGbOF5IUVCQ+2+W5DqVJnTCct4gkvERSHaZQ2HzOlsV/CNeVRywLK+l//EsbP7+4CNqWu
+RBjqgwd+17WIC/olEXvcUfM1al3mIZwfCADpv/itwZaZNNHyvGepcRFDIT5K6TAltNJA3YnOFAXh
+YMMstlRJ6a6fjCJZ//oD/tM9YQ3jWQGDr/8ktNEFTW/p89aXs0/RrTvZJyPGOgXbukpXo9B/18b5
+6dl0EeLyNtDK4RG13yt7RNotRT+hidKOyPnTMxTRk6h4TNWibv71t/uni9E3QoQHL/nnCBa8dQE4
+RjJXFTPYGyYlwVnvfE45jt5wSvr1xX76qflmyKZsY8Fdspy9q4uYhhhNF+kTkbkOB8s47XmyeBE5
+Jf76Qu+ZzAweWS6X4gF3OVv6+8qIUOBUuY03UkG0SXejc4YbQs3veqhtwK+6U5MxPd7YsY3xcEyw
+YRQNccIoe5dtsBbqLklz+gTayGEJ98fcfJw9DEW65tLKoutlbXXY5hzPRc7h+C3Ju6/qoC7/7UL8
+Rv5FHMq+hhX/fSmUElHaeGXXHc0ZQ9GIhP9U4qHaxfr0r6suLsUzgN4VdxcytXfbWx/rZi9V0h5b
+ImwOvsmIhfBegX7BVPVpiZf+Xf9w2b2+WxhttjWM6wvqxDfAQbz/laq5tAzROvbRBUD7FQisPLZ2
+FDy9NURcj0CgtZgL57FWyvzNBmC+f0TsxTKPdd7iyosFwbF+3FrtAscZxsfsaBh0kua1nvmorXYT
+WUSMIWF2+Z9dI8/ttaw7o7sEMd448lbjdG/2E9Y6UummO30o6SLO+dKvESSQcLAYWv48ezxHbel2
+2W7g37/x+kmr+JfG1NkHGETxDeVEsd86WYfpa3m8mBhTPUw9UtOjbMlcX5luByZyVLTGugg3zymn
+cYShTsh4QdPgCboipS5v17qRl7cj3YZL6/baThHtfgM3Xpt35HsyQ5J9NUPuFKZOGGamE2vJVC1Y
+EU/enFGheAbeY/Cb6xr6EgfoOT2Sw2iEtiycgdBYIxHM6gZB6g+9b12O9avF8AfGRUGUwRwOjVEY
+X8aWUPNzpmW8L4FqlmYoE+rkRk6KP3uawFzsEr0LTagl2HcP05pTUSVm/ussvL+KT5lHdF4CxMNM
+sBvetaRCHvyNbnk6hrkRL6AB1G9Bfoh9Td01qJeSG2yjBQGbsZD9bYcbs1zj7+Ttro2yye/qWWe/
+aIfeEFukS+ouJzjhHLtund95jdF9IZCcbzFi/5u/Wm6FBKYVxtKKGsmJXCk95S/y1Z1XZ+Tj3jdg
+JjDOmJl9ltxNSUdjoDeHhDJXW0Q4XJ4+CJ2rfk5ohPvl5Fob3OT8i0hwIiy6o1UdhMoG7V4RKz+H
+Ip/ZtQIdH5dYJYXVmdfVKJ3+zkgJpV3nPC7JDedVEpyNyRubED+3fZCy7QiOHnqphXNTNYS0mgtX
+dI55gqpKcpAwvTH1zraMjPGQKA2GVq8M/I11W9DTQi3YzTuFXNtcYZahy4gdS7UPRuW0xc5PHR4w
+wFMEXGppy97wVgfQs+fpm2OXVkPi4ok4Gq5nTSeECgqJBHG66lvQz9GNP0s4A28tOKcY+DDWon+y
+M9N5TaMkiTbd0EHJ+PO1chcPNeHl1mH0rMx/rYAgE+brEH5gKCPBk8KuKEKzx+kWtq7DUyR8d3Ef
+Fw731eyWnrmVdcNnUBGj3Cqc6kjmltEMcUGvkWMthURsU9v5tYft38iWTmxLe37VAELeK0OnA/+2
+/XnuQJMxoXflnR2PecQq11OVbUl71rsTxk9e07LRmDQUk82NtSNpW1tkH3F621WCD2Lo9E62TWF2
+hIcaQn0alGdpkkaPk+d36DLQNDmqMB7cLKvscCD5e/rqa0wyNtA7TPt2Mhq6wMlEbUwCkDF6Jfsx
+YwC0tAntCp4Vm2kOPn27t7xnCvMcDYXT9nVjrYpUNmhjowgXXbhMybNj0XZ066eCpuSWDtrs05LA
+fnwsdZ2IXiK8Ve/TIJtRW41/7vj/nZP+Zk66+BvZP//znPSezObkf8LXti7S6gfV1F9/9a9pqed/
+gCCvezBeMIi5JvXbX6Ip3/qwbFvsxeyjf/6Xv2allvMBVhNTdXwYrm1iePo/0ZRlfgC7hOWFk/LC
+HUX19C9mpc7b4ez7HZzQC/wrlAw+n4PD4ruaYUhNolOzdIFse8a4CZLcGsOqSgl+RWuwdaul44fe
+w78NUotuvMlR7jK6QDck2iSc69hrH7IotZ7dLpluates7lm5ok+Q4dRNM1ssEd44O/uG4VtEk9Zw
+TqmGf9TL2YDYpZEcr3tNZd0qIfHTOqPoTi65UUM6KfB9oo0QhdiIII0ZAkzTaIQ5qzCYRZlV32Bo
+05v3gsne5hy0rhMjUzd5EtmhViupbXRBnY+GtCpRTThVttaIFU4OUnXNStZw+UzM3Pg3TIAoAyem
+44hr/xCoFDCkKoT8qCNLDNaijPqvXMUg3MquAgN0E11q1l8BYMBzC1Asy0RLRZXbhrnb1zkykdHZ
+pzozlo3FiOxbyg++J6Faod11lr11TqMvs+sAOciNsXtuZo1tPOKTPdNn756rUc/v0MSom0ilyfU4
+RNVD0/n1dd+1cjqhUYmdtT2YBCojLiGhpCgLg/xcQ9T6igGOf6tyPpdwG25kZkRRuWisI7WCbblQ
+BuaGQ5Dv30RFDdZZza1urCOg70jei7HGZl52K2fGeN1ACMgNEdw4XZIm54xW5r7j/m0lleW5cFOx
+m5NkPCdDgJgkkazmqVPV94Yh/FvN5mmB2FKGAUD6fQl2An17azxANLAPnFStIznjLPKDV1/nrZDa
+/byQbVwvMxDBjmMoinyw12xlTkdeUNnznQ1ry8FNfB7htnxsh9p8bvQJsXQwC7AvTuxwzNZKRDl9
+0rsrn/nSrULyvZomO7g32zS+Vdas4k2gWvB0jrQ+mUy7OgY9iG7XfaKNr/6c+2GOiuncNMRKbodJ
+RyGtsioFcSP6+TAMyF12aTRoZzPS5BiOJhHtFltolaw65Hg9pHC8RCSiNcMdbUsnPyeWCm4azKl4
+YFvXfayMifT4TtPHOETpr+m4Q7MaArNrtLO1i9WkB9GKxuHYTCuNG0H7zUlr/6OQpKwtjCrB2dq1
+In4fbZQrvGmDGDe+5/vbmJLUHPZR3Wr9sXebQT8UQkzps9l0QX+k9+0gauDxeWGkpd1PY9thIoiu
+vLKUp1T23TOog0sUWPG5GJhc/JHh15CUGZRqtnaMS92r1h6CoUcOPemWlEBIG2iCNxFQ9C2GsWTV
+W3pxEHM8PqW9ma61IKmvuiwhNA6FUEZRysCXoSPTSYJtVjnP0JPrwo7c83prDxXjol3dIoZglmiV
+TYjspFmnmSkWWV2MTtDs4i9OxWfYT2zvA6Gx5rCe6DucGBxnh3rQnfUUVJSP/rnPuuhAKHEXBn6t
+jgs6feOhaNrYPVYCUasdGnTtizOz0qDACEVEXeUb2W5KEXpDXPIuHXnsPUniay8ed36fOU+IkqZV
+NmBzmaehvh59/Q5hisnYl3hvrQuSdWwLGoxF1LBUuPE2qrqwy5zqpFdN9zWbvIs+m9FH0ebjHgZ3
+cV/RobvOOK4AnEeJZhedvDEGIJ6CyfRqTJNpZ+NSS4U/7QpbX7Lfu2KLLRaOAD0eCDAMx9K2rZt1
+7s8f68hzQvio13PTXoGci8LGTGSYW3W7Y8BG+Lqr6VdtG43Xblf4yMPrzwGr7Q5Lhr9Joyna1m2f
+hVXkdGBzTQHWlqzJQkrtmJWpAWFokquB8V2dmh3Mcdw0uTeBBwqGelX0dfs8ZmLc62XcP6JUJPoD
+4cQubtW3YQH+wAmZNn0LS0UaZvTJyh04USpiLuFmjL5XGmDfw+DWI/ldJQbfiu7tNgjapeYD/bxD
+4mAf/QgCidJApwxNEuzSeYFglR2tJFIceSrc2bvAuUFfJ/M5zTa+SPs7DE3RUwB7HfkG/HUEy8ll
+hl/3GcxQjWFJpflL4xXl1hhIuYhS09+WHQipepaQm8ZIf4ZjQxykZJpXE2xyqTBAnCZBaGtplQsl
+ZqiuOldp15AonrxYlHpoBEhQ4252L60ZEeI8qD43jg4e8XOQlySwxBWJ9UWfYk/MTatGMYKcHo0G
+Yj6nt2tkFIYF2STC+1ImCucJ5pedh4tk50HDOWptXKzbJsZ1pQ3aU9/o3TNPXCXW6TA2J91q79wo
+q2/V3OsXC9HH2ieOEHEHj4E9bnVldiGlOgNIs41WsrM13Bde9tXq7PLrUKIGcROU1qHsoxH4kO1O
+xwrNNxP3SSCuxErwWCP7u0uC3P+C1jHeNIHwzyIyP2nB8C3FAvzimi7j2amCBWQ7jxVgjSveKVIm
+rVyupME6N08ieoxbe6es7BN0kD9gAzi7ubb71RyRxIBP6GWSU8AEvTbXnte+ipKRs7T0Q56ofNMa
+ZvOViapc5ZlWk85nZXsJ16oOzXmyN7MbGTdF57aAE8b8tjLcSxX31bmc22EDlkOfVthI0x7MTTs2
+m84o50s8kQjdlN2XIUsegIAssrMQWZBlrEaygPaekc1rJ9I5+wXL4po7YilmhB/2dtsxudWsTcIM
+5dXM8wfNdOu1RdPxU2J6KE5S3/vaGu3dII1vUSlgaaQiDDTvY4Wicy2cPt2pXPeOwRTN50Yf7JVn
+iY947+DBBMMRwXDE2tk0G1kJTC+xtECoT+XBkg2q1qXj6xqP6Tjl54JnfoUSdzlCdMHOzPoEDQWz
+bwlqvO7VvT0nHWIXWtmFdEIQXvOXnvoz7K2hvscXJcGuzdzrqLSmNSR6uXHoB6ymqiu3xHiWq1bz
+/4hi88VAw/BRF451jXYftYvv3AoDJIrp/AFOxsDsN3SbJkmbU1MxlxiE+dUrx5C64EsHDStZD3yk
+0Ki6ce83kIA6u7HhdGOckr6b7KhYvDt4jDGHxzHbYr1R10h2ops2qo8tPzqc+h2BTZdk6uzQ8Roe
+UZhOuMKUuUbob1ysJntUeePeRQzLdw09nWHlmVV9NyRDHWZgVzzp8u3A59hs6WdNdC5xIvNTn6W7
+pdgURnUNEAfszxicSAH4hjB5L0xOeYmmX6PCuZ4LhoFJj0kLaULWlJ/agh7M3KmHsRtuGqO/7rXq
+imotRbo+T7z3kQqnCdV8JIc4xPOMUcvHf7B2cEXRxUDCd64y3z+7pUAzi03OnDwAyhqtrxuzrfI/
+ce3/Pfj95uC3RGDS1v7PB7+rtKq+dnX/w5nvr7/1t0I2+MB8kYkROtiFIQoJ9+9DX+C9QXJ1138T
+wb6JZ/9WyAYfiB4Cb2FzrmNm992pz7Y+2CQGOfAFiUkJ+Jf/zakP88XSG/3u2EcWNtNPgvyYFOEr
+Npej7veyCgs6R0mkiH6qdK1OxBAatqutlVFFhEobqtnkttXXq4llpN0qYnKsjdv01lelCqwk5ZxW
+CAyn7koBTwpq+IrZ/KzmwrafjIC2+nrsjM+xb8aPJaV9mMau8yxtu78SetzfzKC8o21aZ0RU1UDP
+ruKR/4hXBRvnDtMq8Y99Vp0wd8yg7pzbou2tz9poR9MJGaLymayb/VlmgV09Wnk0eOduFrMeDoU7
+DuCaSmv4kr2pds1OIYrkRBRkrJdTR5Bq3k1rq9UtZOfW8BGu24jIcJCldpXzoi1N4P+l7kyWI0ey
+LPsr/QGNFMzDpheAzUYzznSnbyD0CTOgUKhi+vo+xshMyYzqqqwUqU3v3CMYQdLMAOi7795zm0Ds
+Kt7bZ6D1jZ843BgqwOlp8Wph848zjI9rIosSX43rM2xQG9A/+8xixyFQ+d6ey581C5ltERRc3GZf
+cN/Cz7WHa/CyVE714JdYVw98iXNZSEEy/85OcVB0aUmeq56zVZbxQRia9IRZNtORWwgKYRs5jMF2
+BDgt5LaAQ6X3tiv7xSfLrL3LGGFEtJQOrKOOop517xqlb2sTBs8i8NIXqRbyK9BQHWNTDsKrz/Xg
+IskFMi2/jpPMiZzYnDzIcfEaiDHu9dye/Kirz0qQ7QGwPBU3STvFFMwcflZaZWFiZCLfBoW/PvVt
+5hbmPs2w5VUWOSxFuCm21UQ4dlqZFsJlzBM37ctduKTpwe0a+ysCwdJwWzTWl6gOaoJX2cRjkWEo
+rN/oN9Pta0aJFrFEjbg6G9tJ1dEw7DHFLeZwzDOP0b4pa04fH5ytZMY7RwTXo1xnS4o4sXvhXld4
+ZsQUUoCe8BkJhK1PYZ76iB0ubLiqm0pGVkkYisQCd9ZIgVZUQxjfGrSLePDsaVuv6ZjIOaT40whe
+KtIkjWcfMy0v3hKW8TqtcVB0V7dfe9qEqj3lUik5+XbXspJ4NYycmdMKYsm32WXEbGOQqe+WOa07
+vGPpLiUni41qOPaSlprV78u7vjHMo/DcaqfS3j7dArVEkK2BUC4Pwsadi5OLh2A3hV1xNohQHs2e
+S9P2a/s1WuxvrQrdpLcynj65MhJXleOuawPF8Eds6Igc/10iI59k4WZneuv1Zl0bytfFssc3yflM
+6J27Cl4fgxNkY7RJ1huRQRK7zBMC2L8Ylr6CRi3xw3cChrW5Ql+SzM3oV9MGBlF213oznTgFjUU9
+VZCqMIbY6gorxl+WJq6E8MFPX55LbzE4ZePwOjJA6V/iRmsMc4cXh4vt0IsRkizKaJutilRJD8LO
+e+6d+qkipr1aKQsJbSalvb4UviKAPEQnhrSnISqObKjsTWgu26zk1c9I0Iaj+zr0/T5c5ktpG3Mc
+eXreSVGr7ZiuFBKk7psPozCe2mbYWE39i0mLh207+cB1c/1c8NwmKWQlkfKHuMdPPC9FeHEF5Esi
+LlgIyavExBndR1NDum1m2SZBNE58tgQVGLwf/h7Be0iMPNKHUNY/1gCUPtud6ORzuzxpiVWSIvLy
+mkeqPIAqyjdcFdZjlvePI+lhBqNNuHbtdQ7d8qO+3c0qnQaMmZxdzkLY7lNh9/6pE7cznlWiZdOc
+A7Ew/2oaAzq2Pf/OVWMdsmBgN1X0dUwXKw1nOFZPwKMACHBbf1SId3G2+tGxKoOn1JeP+J/NHbeJ
+8NyVxhQkA2LXF+4remOPQTrGwlHltbT1mPSqUnuTN2pnksDCyujlT0Txo4ucTWztBkJO2bwPmW0n
+eDFhLza7tifGRmFlQDfz8DT4LXeXG5RBm+WudCqHH69zP3K3uFZOztOhpz2+shj5SvVSQyPd2c2a
+Pk/VdBGkopllVPlKnuHVyyLOYsb4MazRVz+zj7b2fD7HWtCzRkSNMPpumOSxI9Ac2WXKq9i7V9vK
++v0Uyh8tYc6tJ1cCjMp+EVQt8wGusLA1eT2evX7ioGk5TzoSHLHzN+KFa2zX69akkijmTrsFnvvN
+jSY8t66XVLd7qTDCh3Bw9gNpzKeZt+4G6qBTkdto+K1KM+tr7YU+2mrApWZAY7CD8QKgcDv21Ym1
+qNp5Y2+fpV+GcT8KJgZKPfOkWupwDw9yPeadOlBvchqLtNqr2iySDE4NHlWSrF1VJyA0wPZBDWQf
+6Gr3h2vwfsUKmtt1WU33MW9cgxWo7C+1hiy7TGO3FaWXfxez76J16bu56HkmTPWr5Y6HNu0u0bjy
+YC0jgL1SPY8YYKCeNT/GuaX3fvlaBlW9Hfl9cIx3VUKBTHEeF+dIysDauXka2knmeet19qgJAkDZ
+i41m/Xb2Ci/bMUEt8aAz5z3ttHjCNlAB5MCVK7ZhxZ1pbJz2ITNGyIidzP1E8VwTBe1fSwfZB4aU
+2LVa6Ds7a1Ps/TZbK20WceoYr6h9t8fzlG06P0Jx8K4TPP03XPrtvZmJcd64pO/hFy5rqZ9a2ALH
+aKjW0zw6r1A+xHfK+4zskDaY4ndeMDmEXWuLNkfX7ZbxwHPW3o4q+tEYSDl5AKvSndTT4LUP5BAN
+NofGY7Pk+h5k/pdBOnKnZ7879av/JRzoR0KIONkGqQccK+PGbuv+G7dX9zBBrfwoV0tuCcDIo0Nz
+9rbsxnzvo8jGYSgqoqsuv+wwvkcZJWGtGRqXjJjKG6jpKablKPztU3C70fi3Yy936g+4TWBPJoME
+gQ7fUWMAdYRN8BYEK/Jd6oMZCfISZa41MdLjmmG4gxjqILjM7u0i4g0rY2d2ql2P8Znrmh8vY3W1
+bcqfwBe+L6YRPEVRO35xhnFrYsG+AqdGpaOXCRlQWHArC0o/2YZKNxamrM9AJ7sDGpvLGaHNLhZq
+n6rArhiMdVucbd0TrnhENvDG+tHonfCwBn7/BXzFoVPL/DJCp95ZUREVyMNVcQeV4mdfhagKbg01
+3Y82LO/0a1FaZx8azV5EkHc90j1bQMQ8INiqwkZwxiT3bPbuRlfaWOxpX6TXu78rrWFF5xqWu4ZB
+8DB11rwJ8v5HnTVWoue6sB6EGK1nbpADSSHtILL5asrrvdtmGOobt+LhNRjte4+Qcs4g0exqzoJv
+5iSdBdhqHd7woovz3OSO9Z1Nuv/dLVCY+1VlVBHnEHbxS20xPFQ7G7A1IReC0hDKT4FejbjQsEUd
++z5lUHG4blup01OOR7vh5AHauRizHD3ewpBylpjjd1UzZs+RwUHUunDQSpp2fJPRegT2+RP/or8f
+rP4723Nw6ZgloTVnt2RCZ6OYeRH7GnPPO3fyStSaiDXmpu66Mp5d/W1ULgSvVWii36kDswvksEx7
+noFVd8jdVsRLKkjQh1Z9cHCZx7ks4bGaE4Kycy3z0iEj4st9LfzwXOQNGTLFVqEKIjJG+a4ee/lE
+fZC7N63vmgz0TmGG35ZN+orloInr3t6kAFWQsATFoGjf4VimOHeXdhv01HW1fPYaQuGEo20r6YxW
+wAcZN4RLem4phReTnoMM1ENwXKv82xSpO59D/s4MeZmbSLyCsey2FJoQCyma8+TDUUZ0IEE1czwk
+2OTWANAFz8W6O3ad+xSRLNj7mfOjbvUrkQrv3vDXR9Uwq9jKW3YzIbhECrURLlq6Izx5IUk87uRq
+2G84LgcQBU3zOquB7bkNUwOZyWXRI43Y6QgG5LhpY7vssFU06ysYduIwhHSSokuLn5WE0jEHK3sg
+Pulz7ceLScuoP4fpa2DVdwCg3at0YdLrniWbZw9oTAPwnrVLcqOyeUtHcm5DTruXbl6lWxabGmT8
+jt6BaOtSicjBO/TixSjrS0WWOF5oTdhFptdf/TD9bg6SsspqhlQ6VfNjv5CDiwbfuonVnHwscLKm
+KK/tvOirbXZJ0/VTsg7ytjA3l6tdRieD7ngIyZ2TBOOI+zoKpjssvz87Zo7aMt7tcP3IhA8tYdB3
+jLroemVFrGI9pmE1bokk7ev8txH28Ff8wbyzhlIc+ko+9IVzbuecW2SOgkdC3twJwYhLksrZO2rc
+251nYVUozyFOe84KJvD58NULchq2ivVjDvSPVGffu67i89M5j1pdEGlfu3FVaL5t9s0w7JEYZX1U
+UK+SzAnukJ6/hgJ8dxR1+4oHJCJkKK5pCibCaE3rznXFY0lPbWIMpZkovQ5FTCDchLrdsWNajQft
+9yNblGZeeSyUKb8uT4Me37nId0tIHbjkE/xtkfkvpwIl66TTgkZpDzKeXCD8ce4173VX0vMKwaqh
+y9xmATF3Ts0hrwPXbueyfZzI1B1GY+5vdPxqXxZGJtkpAFpKOtDs7zYoRLgTI/KwJ/rXSYc1LhcA
+WZysKxon8nbvRq27E8uanSkq8Hey1S+LXInTdtF9FOryoS0MCzlt0Oc1L/yTcEJ5sOulOukuXXbe
+5MoXt0WFDaX9wRxfXqrWZcjPzHv4xGMyDl1252DXSDTx5Qt+IXfbr5QROx39E+XIxDQGrrFTWNo2
+7AI5BLQEflroUhmhMboJMGsWg8o26BsG3kbzPnM12VJROls7r9N7n4wo3V7L97DBg9XYAYnNmleM
+g+2l1VRYynI5Uu7Lunoar2SvOFoMOSnEKvoG0bjY9GFA6K8BLQKdtOUoJNcNNAsO3RHsc66dzJ85
+8jH57+gSo5V1thMMdOUu79iocXY8Bk1LTLduADqgI225oy+89V67rWmbKMHrMlCFT7o03D3jMKqL
+M5fvYxVFnKZds7rwuOZJNDExsBqJziwJwlhQrLyx2RjFugIDgd8pvq18zsEymGBe6+IwVK6VSClK
++mQH86yqXp2Gzvndr/qykMGJb/OFvRZXi7v7dl6z5qGUvI1d5eM7ruytVddTYhApiv0O5lVFmPc8
+ueVDYZNsq7rmkvnBWxdGw54zdp/Mgo//MM+71jL32YTmUSuPeYba4J2usJMZpPZIvalfayeIkanL
+gnkLk0CKvckhENoza9lOmzRG08aTyvn1aiQbZ0gIlnJX9sz0QEUgYeBKeBxcltPElZroW1ehqRX3
+SM+SGw6B38eg/F4E3jF0+4eZ2O2xAHewYYw8c4t+o3ev3bl63jJu8UnG4pWocYDKbRXmdbW0vQ/n
+CSll5cGL4YfIrvUEt/8YsoVcR79KevTkiGFnbb/0roF0Mk1TuLMxGHHvfLKXbOE3GtW28iemr3AC
+HsxIqNgYrwDYNKrAxkqL6ZSHmJc8t/3eqi56LDODNzL09v2Epk7cbH3FTv8QrEAzZ2HZG2cwd2qg
+TN2VsqQzsPOMT7RczJBTvjRgc0Krvw6rfa5C/wNYIpaoD2U1e63C37gQBKNuAYHfWuGvNNgkyjax
+SlFu4E3/Foq67dqovuW9kW/7m+9roPygsjtWg2uIXrKWUbbBamLFOVuHmLsWLZnlg8y5QScDG8KZ
+/YQb3Dd6tNlu5TDY5qwm7D0ymI/9IvkinuSknRt8JaLftsPcyk2ugnjq/TPMqbM02aaXM8Y93BB6
+h5JD/KLWXlytVtDzhF56TZ/IKvcuiP4IL4crj0Xd437jrgZQa7Ck13A87kHSA8rw1YsBe33YNSFR
+v500qkkCbsyR23zmhIXbh62p9nAjq7fjltfIY/krgSQv5p2Gf/B9qOagUjRxsCqS+g+v8f+0Zr//
+1V0/ml/DJy3jB4cL7nO5+gOe8fe/Dn+HadwK5v7pLxSpFGp51L/k8vRr0DX/6R9M89tX/nf/5f/6
+9fl/+RdqPAVVNyTBf67GIwLCCSj+SYz/63/0NwMWZip0WIjYpG9Cm0vg72I8Diyf+isCfsi5N10d
+n9XfLFhI+JyKLdMEIOEjkAPP+iu3yvH/wv8Ne3XgM2vbtv9v9dwF/7HClG/vBDdGKT8FlJab6f7H
+xxP7UMrqrP8djn7XUQ5hHcIQ1gx1s5RJSyD8SL5Lf1dMznZu029LS5V1TH4ofzW1YPNkEpwv8kxf
+nY6RL5Kjw/wJvRowghc+5BQkIxC09UvX3szOhBWOfape6Bua6arW/QecpkoWPANl9jrQm/n2SW0Q
+zYSTc8QX9dO7oRq6PIvu3GX2Plqzx+rKltj7cITPF91ijW/K74xffKbnV2wFzfyLTHkUlKcCfts1
+74KtROcKs7k8Y6kU4d4f8TGBRM9UGWcGp0yt8LJzuugMriyPEYD947gVt+B1gDEiHpqid3GaOPPV
+kjML7ioPv9VVHdrnQY0hL0tn2wcLi/IdAySNSJWPioRhHCheOCE/wWpy43SovrvN2p6zW37cC1d3
+40m3+irLgaoWK3U3Bv6wpE6d6Y3T9PLUcMjLju6giz31W+IhjVYz2H96EwD8Ge9qqIsNQ938mptE
+qumbQbvu17EP3sSAfyYJWP7TFyRvWfq5TIGApZ+p9WB1lX3PIZPEi4HF70X2+Fu1cAEz+VQKvX8m
+Goj2WC9/hNXtz+j4Z9Q/qnDCxwunrJc/khc1z0KiNk6NiVl2JNgG/Cc6CdSA+9wBMgSZwcNbEVP+
+Q/CEYD2m188IgiVrbN6ff/zDA864K8Fw6JavW/KbG9dzliq4E7c0qh2t2LqwUKdvJUw+UpU3WqMa
+b01VdU53GGcnqOt/UCBaRQDA0gaOVhnenEqRdAFfWB5vKbfyYs9DlsTFrCLn6OTK+xA47Ya9q1h9
+x4xg6zlqF77/Z5DMJo2PrRcheuCMz4ti90wbnD0wXJM3WvgBJgy6+NOzkrRLM6YY8T9d9lnKc2Hj
+LdIpN+HMamETBrgTr+lY3zAIKjWzoxK3JF7WleonziuQkDhEsN0wSgEe7XpM1FQXYHJnHhyRTXHL
+8C/csMXIiA7Gn8MVYGa8fiIY5DTzTz6d8Dwi8LTNOW/LekvCfVLyXUPwS6R4rh4YvP27z++I7o7p
+fDTIa0y1xWezh4+E7fdG45hkhccZ0RC/tjvZuJaltNwPc1nwQrsZkQ7/lhfu4aOwrfFmeA1F6bmP
+WUnir3JucNXCKShMwUZBFqy3C/7/mVPzay0Ni+Q8rf0v7AUW4+3zpwzrVWcHPNFFyzPN44f1hE8g
+AgK4dY0kEmtcV4ODou9PRBrQCjDTYysi/IN9/4Z9MW+vT3jbzFzVEsH18G81ZBJF/hotBQfrMMow
+kvPApR+kM/hARLf2tD98+gi68uACulh2RS/q3yssBQ6OvsH3ahF+ujjzjLDZd5oAwzmw2CwiqFdz
+cnugThsV2Svdx/70ZE4hqI5ygaDBJ80BZ6cxmBHRayw2FMi0KtRJJ7wQX41tMNIPNngs3WA5SxZ2
+bVffDNJzGS3RG7EGWMVseq2nMl8UYo8cxLty9ZDCnrPnZ6Q9Z89k1uywg8C+GzPvURdq+FHedqaQ
+Zbks6qien0Ofw1hgY0+JbQlBM854Ae580zX47Zpba8LakVVO1CRr9JGI2HLCSzauB9qOA/S+KPjR
+ixKijtV2dBe46YQlzOZMfswoBjviiLylzG7xZxkEuAR0D4U5sJvpfqJhdQu4z862hqI9yKbjgMFF
+ugLdsHAgTId5noAwy/DDiPaJmnb/5paqyw68dM46qVuDnTHJ5Rd1G84plao4lGNo/ay9YH0LM9zx
+O7LW7KykX/xy+nl60Z63HEXTNlvIuLAoCuNVloZ8y2132OBUYbdcRyEwHouZi71efWfNLZN7NLdo
+KjhA28xcf90QiVwBUz2cQ28KEGrLYHFZP6fO+1KVw1kxw2CXsW9Lz1VWF5ZyHvLdxDKPdZLtE4Bc
+CQFkPcEa2fzyPFZ+2zXE8oItp8fApObwWk/GkwXnnqYxz3Iw8IbjYN3VFXfzR8Cw2IXNaK/YTu/W
+0Rk59VfiMuEoAhGv04d2lNxNlgBrjYHV02rbrw71YNCno2GFT6cL505UIFdfU1A3b4h/8rme3Icc
+Cf8JeEsWT+DynlISXc+s5/K4xhgW3ve4jA7EoMXWzHLzawbT5uym4cua2f4XzfSx72YPHx+Rli7i
++mBndhjlfLvwMRMKyp60sB+GAQuLD47C2wLdNe+oh6mTJe2V+TjkXbedCXxv61Ja8VACHIzzUeVi
+W09ma27yNJ++pWJuaswB2sNo02jdHJa+rkniWS5yvtN3STib6sUG0PhekEQk7FIwMmtqmOIG8eE4
++g6farI532Ye7+ep1vqKzeobaaP+IoZ1UbE1zcJPgjZVd1hhYGvCFXheIkoClrm0Htklq9+jO8tv
+C1mT/mNWZj0+wolOs7OiVO+Y1VWbiF5+tZc1fcxzK91UPrYojoLzHXVtTlID9xsDX5704Bj3Uip/
+O9hgkuMlaH7Vaprv+ps1MPUW+7Es1PgeQvTeZDBzHyKq7u5nPbFHrdocgxbWfHENjLS6mOxl202u
+TePRrTpvE7iaNXNTB/Ho+vNJDE37rdAKC1InXlMtzFNlyjfFI3Gbk6LZIOW8W3Z2LOnKvDMWz/06
+gefGqV4x2oDUsbYp+68zCnZ274SdvuhAHkI9sQcObBXnJtZQMDxiBpadK5ffMLQSO6dvm5nV1jQj
+LMaVscTemxi3G1atCCnWF2pqglvtOn4tOFRJO6mK4bCuNxZSNfdCvFb5zC4kc6J0vVlY4Rn4PMJ3
+t2Q97V22cB7DzPUfQugHz51E9wPSjqMfc69KqnXeGYEaL52kolDo7NU3e1BsmDY3ljOLJGsRuSPV
+NM8FCwsmdCJoUF6sYjPbbMC3wpyNWCuc8fEy5PkD61NnVznm8mJKOZ6XwTG/sHPhBoU968IdaDwU
+81AMG9VEj44yR7rGNaErRGRxxq/YPyFt1WOCTW3aUjlW5HGOUH/Sbqkf6ZM3NzL1jxh6w7uOEslX
+c6hTPwak/Jbr/CvujDTxPCtM42wes9cRTyP0/BnFrB+cky8a2t3NzMZ8nYc7X/u8D0qWE/T1xgTC
+Ggbal7uFEjCuhEZViZi9fucWbC7OdR6hFhANwoHmhuxl+MVHMctnXJrBbqA8rNzyOMQEVw6oRjea
+ZJiiTMzSesK+AHhGljkFZ0s2nNk1uk5s5os+z9LFFWDbM7Zh7qdYuuc8TALuNz/pPfV/YyqbtkXl
+e+uB9XL9QwRBf7hF+rb17WiF0ZEyuBGjy+oiXiV1U/qkGXqxLQH8JKEO9WW6qQfpUqtkGfvbcj5A
+Iiib8boOoXBeeb5VF0hADmbjJpqRgVRBBrfyMNg1c+Y/1awYoL3BYYtHRTlU2E7u98qyzWwXUfPH
+BWRyFqxIb1LoOj9nYz3ftdUwbPHH4X8pyTc/DhwDLnYtWBe3i5N9DZqx7TYrGbIbGvw9o9XgaU2n
+W4VJlu8I+S533uB5154SPyoq+94Age/pE2q5Os9Wv+wB1s0PlqeGl3xqTogmZxGu8wbPDWzPoRt+
++Nwt9xAF5ckavXQvs/CNg9q0C0Dyj4F0H8uRzr2YktEKatbcZPWJ6DmZrSJa1wWhFe2MtpSWnUhj
+45jRDvvDuWpqrCeQY1mftzgIwWvxgjjYPSstjebHQibkwYiW9R6BSBbbTBSe/h4q8YJC2YKvl4V2
+U3vfGNzcjimiek+S5qmz6i/Cqef8zNIwSKF2mR9qisRlhicK/5TPwrGaipT3uVwq9qhlznKOjg3z
+S9HwJznFEtzOA7Ao0pPAPyU+a09MX9YcL7LryDALHjJb9A88/Y6YCRpj+hdkgT8F912gC17o4HnD
+Qme5rn9LH//DYJxFEymLjHNtIKV7nBwmUa/I7Zd1CYaf1B7/S6bEn7L0fEPXIXFuQ1AwMeH9Od6O
+23IhrzV0h7aR0R3xEfGOzON9VIYif2d3+kdeQ3C8ZmOokfEk2YslGSwjb+jLKQGRfaJ0/L515X0j
+R+vasNQRJ2lbYPVyFW3xDXAAdNc25dhGuPinmZlOxEDvqvXZ9g0ChP1MzqPQmmMmG/ePzhsn9UwS
+xRt2q7KICiUtmWj3G84vlrzYchnYMvKRnPUzZpHqRoprAke8T/Uy/Lxpir9JcrbPDvXILI36ga+n
+ZUkQbXIB5GfMRsbt3mkyYFlG+rga5Dp3EZnKYR/eItMLXyjv3Y62xL0kEDvjig67989ZuPF76/oP
+8s3/g4H5J8QA7wEZeRelBkYLYJs/A1NYTdkpC5nu4C03yptXlKgX2qoZ1/7rb3T79PyDBfKPbxT5
+LscAzJqQGv750xVKJrge4N2hJoP6gTgBx1B9xj+59sA2FCGzddbNDCGfLL1/97uHYGgiaKfuDZzx
+ZyyAAHgYmMvcsS0Q9ouP3rsp+mLh/AjMqpsNvquvAoYAY7rh5/7rb25Z/+F3x6NuY0QCmYTV9M+/
+O65HI6ULozsM9CIRhZsy7V6okrFf2nJgbHYtFqUcYxZshJngjGqyqGHwa7OgPtBaYL18/kD/08Il
+bFrZDd1v9WflEvnx78Ll//n/SN5E9TD/hdl44OxCJ40o/gnM/8d/9ze7MWhdkzskNl8PsO6np/iv
+GdPI+gsXk8fsyb3ub9Imf/yblGn+BeIu8TNu7HwMEAb/HV8xHuY/f66YoFBhQrRMh66+P99Acbz2
+XiWG6kjPw3oJsmrdGfaAJLU2wJw8lZsH1aOs0VOrGFd56lacW+lRgTTYLa9rqslDQrik6YutEajw
+yFoIzVepPT9gVKw2tNAA8kC4XG1GlkKv57QIFo30L+ytA2D2EgWZeeCnZIez5O5cXemaGX8FZYiM
+0BfFupO5E0GSdR3/CexokMgynfdIhYTdA35e4ZCyCiC3nDrvJuj47dze8WN6EH6mVnw4UbvuoJ9V
+9EkTd1+A4bHPyl0sA2gnxG/ks5Wu2jiFLJHJjuFkDX6OlLL4uykKWN6bY5oV20bzYGOTlhveO0Vp
+9AyDXI1onOmUA1ginljZTw+9HWgSplk4ZeSTDI6YXbVY2dOUmT78kqoBg14QxmNZNGDN2xg5j9Qj
+3S98JXGsKPg6y0q0e9yZ0FqMCiMD0TwWM6k1gEu1pnB1QmJjvpXxhG/8FM0bsnH2veFUeT8GS7ft
+zFuUYQiWXsRY4sKvK/OpwdJnmsHV98Fe++tG8bcbWUL+8Mp+vAZsxYekMjPnUJM6xmZgd5sppdJd
+1o+gAus9cSLzAhwITEG0E3IMy2SE5HSWLD17txcPVLrZfGBEYNL5WXSJsUTp4+gv6MzCq75y0q3i
+oG7zxAHrmtB/5f0y2rl8ghAzxzTO9JsWRP4uZ7A4qjBy3ksPd9hEAn9TBLI9FlGrTm5Ktapl1U85
+xb+P4wzmMQ6MLGAo6veGNfnsN9vjHC0vAbscEldRNHz3Oit9aqo82MwYgY5V5jdbc1LUyJn1QLjR
+xee5FjULf1SU3rBykpxd9MPP6F/A8yLLB+S+/iMb2S6y41xMtLGQ/ReFd8apBRZJczPz9yNK07Kf
++n59c+z6pTSE/e77Gcq/7VY/Ctu33vyQi8pFTd+xseRAgSKHD3dujtKZfqXpEH6sGCS3keiINY15
+pj5wMW6pk5IHK5/cuBLTeXRz7x5Zr94548rw6VOuepCAFo7AZf1L2gXW+2zr8GoF7cRMPaljVFb1
+kYbNCBNDN7wM0KPvncnrDpXTOOcJQPIVKivW/Ux4j0Lk1hVQfvmVg3f5zjta7+dZO2eNFHFAbhbX
+anWZQjLlp0SAsuBUSGd9IPk04tsAHsbjj9x1KsKApanigGwwPOwMpKtLiLr7iDLv0zjLJXGoZ5ni
+UA6L4tTirblnVhnuRukUX0CEzGPsLJN5EdVYXFRe9S+aruRnRkBxggDcbo25iN4ZpMo3OfrqrLwu
+MrazZpthrsFq76wmbx48MrlHsc7TXq1mBnMmCneyH73f3kgnO0H/5ctc2tUGv+WxragfUV564ZTR
+blKdm/H06dJvs6MdifPimQvOTYfdu6t/6nYCgVG19cGE5BS3HoYQyxrGvSzaYGfnJpn32e+/i5RG
+BbOfil3t0n3tt+70WHY4a/IqXA6d1M4jyLnlq+6K9Qd07PGRFyS9n6GcfMFobCUjkcIN14nasLAp
+DxNk871wSx9Tl+6qV1EgEPO2c7UYU7+Lgkr8dAyM1WvYYJCaU5OFlD+z7mikeggs6F8YMBcfA/aY
+xyFuod+rneMUN2GB81HGq8Ex5EXM1XjJ0+ZBoJle7c7Ovtoh1//qRf1udhbwGuZSmBe/qMxLpKqI
+zqrGflzmUfOgGBbo5Iw0e7TU+7rXoo4tLlTQhxkTMD7WJkknxV4exMxJdLgmIF0WCS9Ge9E9brTA
+4VaDqROuOEANu3etZ39BLkyIj6XJ0PvLD7jOpCon47aH0ENZHgZyo98JRJAdKCvi3xUgvb6zv5Vs
+Meiu9CCX0ff2YrFFespoL7rCFcKvp0EexXqp+teh1RGO1mC9jOy+PwSZZJ5o1vRUFx2mRa6e4K6d
+puXngrFwSQDgeJRJe9OJ7slxjwI0XkclnZNd2zeWbN+/TZ43PMweFofFZSHg0GD3yJONFQORW4bC
+Nvi9ALLBz60G1PUo+4nBqtzCPsYuqMRuosAdWW1ArbLIDxsdPydxwwEzglWVU4z6MX4IOuhr4qYw
+0xN/NeCP5G7/BvNAbbsA7m/oNQWqiF9Wv1sXts4Qjf2XMGMu2bpd1nx3sizct/2cXrSVhucxbOkx
+BzFwzKMQ521l1yyxeL5hGFT1VXFAvi/hDVwqa1FbHVLURt5ZXVIFQ6V0Kyy5NXlOY2z1FzqBoOII
+7KskFAyiQIMz6UeRDf+XvTPZjhtJm+yr9Ok9dBwOx7ToTcwDg7MkkhscJiVhBhzz8PR9wcysSimz
+pb96XYtaZUmhABAOd/vMrnlXM2fkr8Lqsm7ldyAIVj7X+JwNrfEYRbbzTF00S0+Kh5yxvpEUy6Kt
+2dvPQbBtBWQF4hrWdUxMhGWpn0hQZ5NJ6YxNvpYo8/JMDMgY0jdgzJtRuab43ntNQR/uRGy9MhMo
+LwYZ3gcPv+2KMkframh9xTI4yVvATIJjWnFZbuCpyixzP7fdup+KeOMnlbx0KFDHUDIHqKOivC1D
+aX10vbbfcjzDqVqV9t5wEnySPjAiOFcSFDGil1FaGsy8aO5cO1RvbVRnCKotpSDd0PsPDN2wPleN
+3ImoNh/tAMEIO4xWt2lQkTCU/ejfZWHh7kGSletBwN8I6oHbnitBWAsX6CJl+q2kug8R6GsEMKQl
+wYvbNWgr94C/Xq+brJkIiU8NvI9M36aTrg70XMvDaOFvmm0c5MMw+/M+MGv3M3sB+TiCSKCnxbbc
+b15udM956dm7INVPdpW5WyNBypN1A6+jFC37jsFrDpIlL1wlbRKdBl0bR9AkDfB+XKGooNCp3mJd
+o882cTCcZDduUF2H84RLjkdT4dhIUvs2YG+6M2Ne1p2TqoTwTO0mG6ua2X8QuGKWHlK911T1p4Lm
+vht477QVBjji97zvil1P1zkmJJwfRmy6B8nk5IY6ppG3ghs/s0FzMLQmeHarKTh0OgkIyqS+5GBd
+m+nRzkJzvST5b4dSE4WqAUrYK5fxFB2LDTRs3CT3Tl1HqwFsytERE6zstCKDkQHB4+HwXZybc4TB
+MpV7QsHzhXwfm+mRnWqxQlUfHnqRhR9FWmYflWQPqMhEoT8HVXWj09Y/z6nDbiW0g6NwNVE5ihot
+4lwlbzAcscGRcm/MaKC6kxNFt0idcW/GHVtMvzxgbQmbr1aeuA1KZAqp0dMrUs5XQW+nG2YW9cnO
+ouqOKgbrggd0uvYrfKZ++t7EWY2nqBjmbcjG/2nGxJso5zF0aG/sZHwNt9LkW6pTnrrmS+wqiY0r
+y+AwkNhauTnk1LmXx8lw0X2HyNpUnYFUbM2vjK1wZhl3nsav6Ee9s8koXcCpiwG9bCnpEZah6OeC
+EcAR4RxnZs7AI/zIbbF23URGCiNOt7EYCtMxFN/0KrYuja2ezYbcxdi3HZO6NNukqYfVMc+4MPmA
+1TmfSNtYll5BoypOBHMsIgbeLkLePjHevYkmJT9ZNTh0JiTUUAoH3oIJx3c9GyNNDSm9jnPJ9KNU
+OUDdcVgxgWCqxRgKXyW5q9z39n5guze0pSIbOwUsLx6/V6Nxt3RDBI/0XDgHbQTTCX+uuEQUcW36
+cFBr5lu85qC1HKk6BevdtPMaaiMoCAYUK1224XVBR8POT5PpxhZ8ucTLtvHc5pwTdN3idSRI9nPF
+4W9iy8I3siyiCZbreJwPvxdbIPJMWdx58RE0A8c6Y3RxX88eq7SNY+NBiaJ60+ylCl7ZIt38/MP/
+Juvx4Y6QcuH+Ws57/81fdUTCqrUzzTo+mmNZv81JXVzpOIsoWfXT+59/1N/UK3qFTY//LadfDyXr
++++JhJM4FIDwUVpWxZbfyETfwBSWX3/+OYtp6Xv1ig9ajEsc+iGfOD8qOGkJzYa+z/DYaWyxkYdA
+6nQjxY1F3N5inAED2vsRwZ9J5a/aZfjLqhJGN0YQLYdrogPF9uf/pL/fYpcwsTJdF+s1mczlX/wX
+tbYTrRe1nDKOtJvNF5HX095Klp4UlUFO2jDGrN/Gruc+m3Vwev/s/+pHv7LHceN5BP/f9rjPcfNG
+Y0L8XZ0ThrblT/2pHjkfYH9JdCMw0S4VTTyzf6pH8oPHwyUXdjUgfiBl/xKRlPtBoJoC1eW/SNxr
+/IV/iEqKfigi6jjUEFfRGPmsPw2Cf+i/eAt/Nwz+gx68/GL+LdMqJFJYZ5ZAk+dvo4Lvh18Uzrwo
+7ezIOb+DBkmL8bY1YenO04QzCByljTfwXxfof/iBLusFPy1beM477vgvzzHii9RS5/bZsqW3MXuo
+xLNPiZGTedUhnJpfCd7fr06/f0F2KVwvEv4YFH+I4tPcODc4GNTZLSPnFUAzfIokMR8bG6/Uz7/a
+9z/R94/iVnOvbdq5GHEsq9dfvloNKDfsUlOd03yA4uhSt2K3MwIw9cjgz+fZ/+Sm8DHqwB5/sTD+
+w7fkSbJ5GjyBV+Udsf2Xj4ay20/CqNW5gbt5LDwmiCua7Tje9yETiZ9/zx/07fcvyhNoYn4nt8r7
+5ocvOpZZk8N3UuehdPggV9eiXw2JYKDQty6+o8JKdHQirYuVilBE3zwps4TLSGbLWAtZ+L9gpP/9
+6zs4O0EAeiauUWYO3195mv6CLiNafCZ0ydd9tz0J9Lj9/+dn4RZB9F3eDq764YEK2dJlEa8HKpMH
+tBdlgCho85E8gNTPP7/Qy3X8/scJ1JCXug3sHMb83/Telo24U3bqTMfqt99tVDI3fnE3/+nasQgh
+UvNhrFI/3EzRY1hoZabYvWInS7ye0YQH125tzimvl59/o3fyxY9fiQSzCVt40c1/LBzx6FzsZxht
+Z3ANTEIsAiVnMzCwrb17v7wqtV/V0mrxDjCfIvz8YQ8+8Bf/jO8nNMsTjPeLZU8sP1Ulf3xgAskY
+LOCMch69VqJPFaaxqgLfu9Ic1teiQvHYptQrEd2aO16v7z9ePHvkP36NeP+nO6AUir6/3GlX/PBE
+pZnvjHmq+fHiHr7HMk22YQFZK13/imH9Tx/F/NKjvIhXy99GsHQ+1MSNKuscU91FWHSZARrZyFLv
+LWbCn1/l798tLN8KbUG4vuLNAg/lx8dXR20JFU8bpwCs8oywWOvnwsqYMLxbCIvFaPnzTzS/X4KX
+j3SJoQlewe83+McNokbsRLp1/ZMIqKDAS4qLj9q68R4yGj1fDZRhmGQznXleQklViDMxJ3Fydpkv
+DBt8SUDYFpT8+wrSKoYtPACUjhEGNfDhxmb5q4vEFvm7XzntFQ7pU7zpDgN5bPTOD7e/8MYEngWn
+syYT+U7M0bwrY8dgwtCkHbJ/Po0hcaSkJjxDdfDkbE3+srsax8C7/49/IzYabmRg05iFytx+GWXK
+o+tHM78rSalitBHgIAh+mwPTRjOkopbIBQWAS7sDAP32yzvT3MUwV2M0kthlJW18be+WZ473QD4T
+LuAKU+B0yyiDGgLHkv4nCM4UGkZ+UJkHs7H5qxsXsNcm9yNiN1kdB3Qw4dCjk76o+AyPK/3OMa0q
+T4iV6jlFr0CM4qyOSp4QrUz9PEF+mvdGMPsOSoRFoQ1Nz/Vmqk1gyinQpy9pQs2Bq+kNPuXmMtTF
+iXZryBaNk9lVGL+Yk88tc2fLSZFZPTqf34uGijZ1XtNY8rS/c5YnUiJffh/ROn1vv+ZTKt/0HMgD
+RvPqvnY4suGLBOIShwo2K0KcvUjMvGHMCbO0gUHvrEa8vipIjbU1Kq5oEAefOJxShmlZzZe6aT1U
+FgTaFhszkiGOyntsg/Mn2cO20b7iPuXOgKWbIucvaQ6xYeVYeBnmJlgK1Kba/9QRMcHWG5Dn/70c
+M08AP79XLKpOMMR+f8sVvKl3mlYtCOB5VCfLIBmlcnJdnmwV4VRb5cU0u6do2ZgYCboK4DzqDDDa
+3nPgwXmQCWNp14ONBl2g4qnBGEZjopNyNack0e2a8MQEEEAELtnBZb2k5w93eaN6iiYk6YWKiZGb
+5tu65b3ogB/KeIJDug3zpR0iMnK41ZOd47wOSg9ANYZT3jeEzkk8mIXFs9wnhv+pwf2HQaLtaDdh
+FnGrTY93UUvD8LgDGMCmoy1sLPbaCufL7GZzuDZjEORQU+1XJwKWyjR9qcuyJ7N+CK1ZHuYZl+FG
+QuZ+Kfq+ePTmeLoAoc02VTOWSJFGZnqoV6I+xVnZ43tcbPJNRtkZRKKy24gmcB6zbI7RcR0Pl49r
+J9M1hzVxzlUEpIUIIglgu7HWo40qMhXz9JiSysUXRy4aeyIYkoJnkjCWaIq7FuAsBr2gy7+Wdt1+
+8xQIeJuR5LX/3mOGPRNoWZeyMq2pHMy3g9DopOhj+skBV9rsGnty3sbZNTfNUqFWNgL+Dcd0l3ht
+p3EEvretlV157Se9CXh4bqKX0DKQxcpW098Z4WaivOyMMuzCbGkG51nHebujmHl+ccKhPFkKgRUe
+gZpfMDqlW3pVZzw5PbfRC2xol+lQvBBKc9tN0S8wdlG7+2Uzit9lRBnd1HVubOHuACDsZE6yC4GT
+hQlWXimC+y5FGy/SSh8Teih2k91NX4OwHLaRERt3mNzzpzjt1RoeHvH1Iga2WxHOddP61W2B0nr0
+QW4CmUdrpDVzlyOfJ7VnXCvSASz/VkAcLiXNZ24clzI3DJQVswoCtGSPwnK583q4YqfrHXDhU85X
+xP2wUu+VfZyrgw3uy+joYdKCIEcQBUnJ2Mql708ThNHrvmh28IiQZyPxBrqrfPKzmNCkb467xiCJ
+T1heoDO1+R1vJeoEYe1HV46qEIpCwR1FOUiuqLcsbkXb6dusaXmoDToo2tf3ziRDJvwkmqVQcgtu
+RiZnwqtssAnsEJxgtW2/hLVgQSpnn7JKSP5yJdrex6XeEdvwutEW2zSOFgGzpLxnlbsBMSMJ6+U5
+MNV4SwLfWLsTrpi28Xkfe50dkDqRimxSvVDwBbiyZp/GLUsQqzEbM12y2o6co5omYQvn9LP52GvF
+T7+L7OqgRhjIB9tMQXlqHtt16fbEHNKsyJ4lMwP2cxFCmWmVCLwrGnug99lJ5Olvk+7VquldeJAZ
+IZttkajha+4NVbi2U8P+7DuBf6wjvzlkBLoiesBC1FMCNtFvjOdfEw3by1ZxGK5hq1bNE4ApOgRQ
++0rr4KHXXveguNdOFqfbaBgQ0bGPkd4u9MfZD3OXKZYaPvZ2nd8zCP4GZOZplMq8SZdYNuvqUppF
+qHCrsH5/oa4r/DLH8fAQdi53jl98sq0oR/JXKoTIzUA4Tif6Uhr35NigXzfjkOkcGiHrODihJhwO
+rT+Ks6rK6VI1rXXvwEU1VnWedjgeuAvJms2ODysFyMsW3E52GTHq3ZChyW6oUu/u89ir1nVpNm+q
+N7Jt2c7Wb6Xv9OfW0Rg47EDGzqrxwGmk0SJ7dzPSal5lLBdIn2SkPXWCPfNboI3hYWjD9M7sOnEh
+zmi/pIOThusaEy3vSqb8aO5WeO0zEr3UVK2eDOwUzirqw+ZVxvBP8cTRt4V18mw6wqCdDXJCvTdZ
+8og20FAH/E5KyjnokR13UVZYj06q8dQXFo0RcRRciakD0BCJEnhKODwTi6y6rWgaFZ8A8I/22isF
+7BQvGLz02qGpVO/9qGsOnHKNq8Sdy48iriUx35SoyUoarkgPHQ/P9cAb/pvZV82l07rfkyyaztiw
+8myjaTpuVvgNrCM1GtUeogsBe83OwliHvdvfhbKnYKBgSKV5LrP6OR1bJkhTZgPokSyj+KahOFS6
+L4aNzMF/rLGfykvrTjN4Br+C8+tlLjFxVt+vpXS6YMd8a97hM1BHpSpMNZlDrqZz4/smN6uPnTk1
+n5iMqS3lpCkd8iNGXWKzgDJx3gMST9yNpaFV4WCfoy8ib3kPtWLq12Cy42yjuFS3PfyCfZEBGMIb
+H8Q3UpAfFPVgXOy4tUJacJHTPcOq8fbqwt5VjWsPIFdiouEdz+63IItGGpGt9g38jftlcFon3glN
+mSLDKBOxPykzOEsBDS3foFJXxBypru0Obqu/2dEY3tIxYvGWI+h/soaRWoayBJQbQTWaVgq7KfDv
+or4x4ItuJXPsduOH7NlD6m/he5FrBM7ZkVg7px3WCkO5/VPkTCXRu3BObogPYVsJyN/dFH7GQK4g
+4XIXGRZ3DVOmyUxQD3CaPo0RQ1L1+wn2v1roL7RQvHS/Anc2KJT1j0a65Q/9KYX6H1AtfYX8t8wr
+/q2D2h8gGVNdj6L/bwVUfHBARzFY4ETHbGH5e/601TkfxOKvdPk/oJL+hwqovcSQ/yKzYClBTTcZ
+KADvobwTVfJ79ag2HdzaVUh7ti0A0mRZ6PQtJP9ATivtKGoKeDtQdo3BPtZTcc0yilrgYQVeF36X
+bE03Fg8JoclpW8sxvYkYNqfEGWnz9d16P/qxdWoLVvW8j3W1sT063JgR+ApeRAoWaIrs6ExusrwS
+IWTRVSmzK42N7NYtLW9P0CHaBzzze5Uy0V+HuRFsGsY6+zmO6mOKsnshsQSVgd0dp5COjqRVPpDg
+nTLCTHGHsXrt5pIRLDD6tQVEep9wWmLtLYP7slJqWFGnMB478VuazuUrKDHvMqcWhzeQjC3zUAoV
+hiWglWJ/vxlIOFOw4PiZWEdBKY4mkNJDWkvjbWDS+c3VsX9jJYV3LIO8/hqOMgCkn2vzNo50t28t
+q75X5JdPScpB/v1Mma+tRH5NRAnVyl7OgZm2YC/RI34diiI8N9Q3vGE5qhm+65K+Hc7oxymunnqc
+aPfJIOnWjrz+Y6Tb9sH32xEkkTHXvy2l5U9QBFK8VDbnHwxeCTj5wqcvzytoNKSXaiV5b9Am4Kcu
+pB8T4DWFTB0usOEzZ3UoFF2R/ZbFbXvw57jdmVhS3mbRZVccFG6MObRPad1iQg/m+awDkjCF7TY7
+d/SWvS+cItLSUydrbmqYPkHKIj7NVer420gU4Cu0sjNe5YD3eO7wRUcfKIcZdFdmbBuHxBbRnqTK
+EjNX0ee0jRlWYpMEg4+5udzmuG1M4GG20HD2rJSWah5AMJeKOJPy52bdlcJKV1RrBLto5giVhWzN
+10NTRExyLabb6EDDN8D/HfPXcWnsKzJaj3QSFbexY1NoAT7oKqxLGNws8aQrvfyiWyO5kgY7ZmKq
+Ayw7bF0ucc9Sh58CvFxIDxiHfiOpqDQ2OBtOUAY5qdQiP8x65hgGJAZui1eY13Nu+3dhMEXrwTPA
+VufAwKZ+49T2dZz5/VvhWulR1OwuhwTQ56Zvummvimg8zzOESIqF2oIIZRI8GbkTojVVskq2fuGa
+X6pBNN0qEkN3388D0JR+Ss3nFu8qEJii6tjuFNVLDcZ77evBfOWgUIO4mdrpvqHK2jsoYD7EgDzG
+87GcGuK0nPEx+kQRdhWO55+sXkTnSkTqNwBBogADwEO7dmu8dzosvJfEFe4ltamawOaY+o8zCQV4
+fwBq4ejCN2QPEjblziM8+0pzlP8RF+5vBnubjaNr62J2zvTV1jVpocY0y4LMfVA8JSFIEtSVBBIH
+lqv6uXVBQnHQT/TRC8p2AwwP80GLmfgqkiOMq7a+wwzq4ymL+T1D7SD8ykiTvYme1yB2sOn0XbMZ
+FWdGFflgU4a2OqWl6Z5s0bjr2YoSj+uAk63sOpa12sLZa/iavE6m4nvZG/a+jEU60kPRBsRh3Vo8
+yzRCxlCsqD2BiGlNRj5OMPvo7BhOVnXNdov6NL+02vvaixUX1s2TzwRd2SRUJlFaVrSgOwbhCKrS
+Mwb9gmNWE2Kmp/BQCXqdVzj8mhsFXuGttF0AoY2Z9JiBJh6D0GcrnqBSkUZSqt8ZXlS9OMM0fEXY
+GJ4nVZgXCzcLqYShIatskWUP1n5gVZgL/ADYO1MqgGZDcIykMci1KfRDmDZ6w1x7OBN4JQ9PX/nG
+KdyT0lO76YsC+y2VEfgEYvowUpbN0lTVfhT5I86lbt/U2CBihryEogFDuNDFUVN8wq/bSowz2l0/
+5tvedKpNaXX4XsuIUhCKV5ObUZhZ351VVjlFu1b1oOPPsxHCQ5pwSKTiyZtIZUrAbti026cOenRy
+E4z4NSUjsBszIZU/mxklBXkm7jmMhrcsiyPeiHQ+suH+BNemuK+YL913ZhNw7ouTJSPvkLelWg2w
+HAbVEyHm9JNXOAs5aOBn5cWak2tHBs13YTA0YW4vZmFFGyBgCphcYBNh8rJs88pbj/kUX3fS7wAY
+uhXGoCbPrxNf8M91UmNnNiSEEFwMzU/dB1Jn1o1zVZn88+exlRfbLgKoT3MbPCjiJcckTodH2C8e
+pXAMSL5aszHdFEbY5fvWqEq6/Kbg2i+1foBS6x5DvvgbMM/5OEy1DSCBvogxqOYXnEpjuZ4rYz6E
+ZjbtEjKdUNLablu1QbdNW5v1qIvN+SxbKnuo6QGZNiS3VdbVK7uS1k3AQEyxyKbB/TAHC+lUckoq
+wxLFRbn81rryNpxd2Axcz8e6HM0rP5mxCSvD3SdVbdykad8DwJIDOG6fjX3QqpjgJTSnVV2Nms8R
+7XRCvZvukGgHKPm+f+zNrvkElT+/xezcH/g9ORMg6bIGTuHCHm0GuhZWTHLFBuB3BP3K8qu7wRI5
+jvPE8tcek8RtZMfikFSZuoFMFSCm+eOx4cVIC4gcrgvfexMlDTVmY8lyRcaveopRNV7EEKTHpjT0
+noJSg3aTnqWGxy/iJa0yy15ThuXu4j5JoXuUwws5yGGTtqaDCBB7N3IivN5Gy6JJczly6QxNZN7W
+tZTlQzH5T7EsQlbsiJjQuWqqzlwLWkAivLCD/xwTEH6grbOpbp2ahMfBcv0KpKrjpPY6T4CSXEkH
+/tte+yZgldXURrFeGN9c+VLO00NdhZuRefG0syLH3WnfcddRUeCRTsLhDhUFbnJbM+Y8dK0RPdna
+suNX6fATX6ORI+nVAzRsUJ7Ogi26mOaIl2lfhmksuhOPrKwhyfYFZq1Xym6e2fuOn0E9F29JP8pP
+PhzxR2oc9Kmq4seqcKdtblX5ESlVr92uB2VQMrLI5mcWwG8qjl6T1nl2u6H7zSobdhCqhu3e2N2z
+6xvJAS0ru63MbDuo3Lji5kAkqXWKrtZW36zZJs3b6mqRwiF4xmAr4+xQY466s+wB7arrVFStdA3I
+9NFzuhqpVs53EY5CxMZysHPjv0eo/xFtaZmC+X8ZaC08pz84TQsw6v/870tZtK/ft9398Wf+OEGR
+Q/oAXMchWcaYkFQixQN/mEk4KlFdB+HOYowrmIFzXvp38wFDQ/4TSTSgSwzs/3WUUuoDxg8bzfN9
+FEoQ9D8xkxDn/OEoxTTVMTGBWURLGcb96AzQ0OgYrE7Rjav56a0zIwdAQUewvbYrJ50ObplaBXi5
+MEp4EC19CWVmrDMAWl+aAOY2YZxc6rUnOLofo7lCysHF7bzNtWRSV8QeSkiup6sSlmT2OZ5Vheo9
+iy+JFY7+yoT20q0Ew89p2QT11j5mfv7RZW4gj03l9/1pBNkyXGoMf9uIQlK2TdAPIe476UUz8F8T
++m9XJPuvRDdpgDnaY7KQFLPcQER7QcKuWaUjOHf9SLpgSjzzK5nWDrXHAoXre/i/tgSZAOkpJ4ov
+wD6GI55p92DUXX3sy5zENImD8a6vjL1MOrkppf95KEZrz6ykBZNKJpJ/FTzkz6PNcgDWFlbzNF5F
+vkmyZIESQ3QaUhPVpCuzhMyAa9U2r9gC5xmSat3ggQwgsK2481xlMXccvWRsn1QyN7eNHhLnPGBw
+eOOKTOe08ZOgfpyRDI9trRq4EG4dUvWzYCu0GpxR72tPR9mW8c5wKRNFoxytPExHTFHsQGrnvbke
+VMSo/pBgmKccmjC67jv3TJaJIcy8Ntm9wv8YsBolvOL9sB5lfzRz8OI9FnLSsA41mxwpvffeWiZW
+Gw1u7Lm3pMm0bEKmrnxj/MKuXifffLjA3yYKgQbrWhaNnZsPLpTdHQv+UjCsOSo/IQABNWa81V8N
+GExPDoBqLlSdBhEU1C45xpAyrW2doXmaZb0VMbvHIEqHm2YiKS7iOOGxBBW6mZgorg1pmicvSctt
+CDhlh+6bQtiJbkAKjfet06kY/m0mN7GPvXydVW148jy25QS5udprmXjBgdARjMHMmuxjPoqafqG5
+eS2lzt5kW1G656eNw2CiWrJKXuABtG2TGvWx8c1TYwGVVhaJ94Q9tHlQRfcSJQoQFtVNNvH1hOhZ
+qXT4EtZKnCHWMGlBkt73FpWDLh93ISmm9+ZsjncFKKuFDMuuUpmBiyLsDd0qlSI9L1R2zAek3djl
+OsWxHwTHsDZI2BC1mbpyvGQ+sQuDjJgIPPwdbyYIUAT2wIzjwLl2IpSJTaecK8LHzROVUcELewJ/
+V+Yz6IjEUtu0SotTZ7r6I93O11TM2XfLk30TmI3YoAhQI1GZF4ROCKoxI0fP0jbpDDioXAEtvpXm
+JG5Khs1PoY7nc12p4aoEp3NoMhCGU+yE+yTp033AtH8F6Lz5Ioe02Wun9h9ChWiLPUJeean7aZbi
+BqcS813w21cAaWyMqxWn7qQZPttVOUSrJB0HtF5LPuf2Ik5201xi9cwEcr1UHbSgxvpmuB6w5Jar
+sUtnqgk7sA+Op3xaTEiJbYxuqvxV2jvqQS9qKJzvvnxT3hQ+gnIOBVnM2v4NNjGiLeUb/B3aOBLx
+kmsM0AhN1DUdBwG2PB0rEN5JAkqlT0ZaGkPvMNpOsBooevJWnQPEtLWxDazcro3PJvr4I5EFJvFc
+n0eIFwA5EpDecrryB6QiOw38g+FG2sNrXbknD4qIz2kpo2DMKaJbP/PiQx+UxRcELn+TCbY+K50L
+4WynUgnCR+YxcJL7Nq+9I102I/PiyX4wDZhuhAomSRrFCtZDCxlToFOAuYPzAg+D0sqMTQl5Heul
+zMJhlUcd9TiDqZLNKBz72fYGf2OZer4vUc+Yg9TD5zRqsDNbSblgKVA6end8M0Zodr202m9hOkC/
+tKt5i8+soeNbWk+Seoqb2USO6kdvvp0Ku9yZWdjeyrrW58AYxAPRAWR2EglptSvLJtw2TMlePd3V
+G0Xp1n2iDIaGE574dZR0xkrhr/8Ge1Ucir5wny1OBMZm5tHaziw566idemYUYTRsipKV3xuQPVyv
+dy6SqsZlLGwRGjDlx7AioOYNdnQq/VqzeQO/2jKf48r60QSZqW4fbDoLErhiQbRpxJRxyjGhUQcj
+xBjTxK4/1xRarenE/prndErgvvY5xcryQslDsjasqr6ai3K4y1xjSw7Jv1S9tJmdToxbjpZjpBcY
+N9XGRC95oQpRPiZNpi+u9qYHMZgNUSsn8u+VPyIVeoS/yjGICfcEalgz3BI3da/TzzkxoM+hV9S3
+wHmDTzoN4nM3VrCOCL9+NGs1bZnp0PQIrHMbTG21EqBVoo3i25LxIVXRHhlV9LAA3O4jhiIE/1g1
+xcYgY7R2bFVyNI7ELTMKoLMu+sapoEyyhfc7TGcG8PlSyWjKrVcqi+vYDk9qhLJr98y2pzEnCEKT
+xXwyY9N5k/z9xroMiviW+d0Au1T4nxnVNAehZl70XoGwt2rCJt6Rk3Ou3FjrR8ru6hAzZQ04NgwQ
+KjYeRCP4X4CptKKh8H3H99/5wi/mCzifFuH9X1biv22OP39t2v/1jzzS3//kH1tk1/3AfMFxKN56
+L3Be1P4/tsie/ODYknEBIQX0/vcRxJ9bZKYN9FoI13NJeHnOYq//c9rgfmD+j7/UxaClOKn5/8kW
+mR3391tkTAcOFn4aOFzTxMj9o1U3nNSQFQm2Ajy03RkN1OYlL3VzpqpJwXlv2cOgDuT3FrVUE5Qb
+diMjAPgFVcQclzFzQCfXrm79+sH38C36VuZ/QtjL9sRCQyjpC/0IfFm1696ZSOOCR2ogtdF+kXTB
+QgZiW7fyAZ4C3k9tZ9P7U7qxF9hSFahT4aUdwMsprFdh7oUfecdRlMtcHHnMSZ78YfiEVAPFSQUN
+UIG2x041oJtQf4LQsHCfMI6Yp/YdBjUuXKiWzVG/7Eqre3uqYtCWM22ztXDZEpTGXRzopGE6mAyH
+GkvVZR6mYjU2lvg8L0wqDLfTY6Anawc+MLqVoOypgpyXbw40scGP4cQ48+BcQWDgtRINU/4QRra9
+wyWhwRnxn1GnzDPbjI8UkNqr0IOg5alp5/VAlgxWok0IN4wjdazahxQ3y21QmgR9sZASvH/Hc5VT
+xzfOPGOmfCnwV57bq63UML0cmG0b/s0pghY4MlUivTB/dmHkWZ+7NNUHE0CYu5DCzC66CeHFtBs5
+CZVt3D6SEMoJixdZOKurFvRWgHOJ7bDnALQPcsYOQ9F+VA3+qxX7HXNr9LJmJj9ZEMaawuZ+2N3V
+7MlDC/AMId/edAsDLQ3aT0ExiZM/1B+ndCKJRe79pR6S6WRGYJ3yyYs2eFeWzJi9IbQV3jeqsAq0
++TK7eEleXQMAIPLnZ3nk8t4vnRuUZ+c2tRhAGZHbPwd1QIS4KpOtHTrjFSGgr/hX8AvhM3MI88Yh
+ZXRJcxp9ovmJY62thRmXLfS4zAQB1xUQcUyrfUIELwCguukxegfPDe8QuvEdSFeT90Rtqug4xcR0
+B27PPidhZT2kHG82jP87yFMkjIGC51yyQef1pVsQeBRjXBPrx7AziK/Ywl/cYaDFN7eL6ojpGefI
+wtKjEwG+N3Ea75n3dveIZ4SOyj7I2IYGoPjmfMHyiXdEH113RcaIfxhewLKWYmNOuBepDMNHRCEq
+B6aZu7y18YNv46LpxV2/EAHThQ2oF+MRrUkTnAXQgYNtPhNMeBZQqmuBd6J2RU5xjhNrHBe0nNR7
+Qouw5UJmeDZkwjDQX4XsqB5IFmxhrQAY2nQFezdRxpQFnQ6uaeTIQ8iac8/fAOHXaqJronpnz/GH
+I+2DOW4HR0WYysJmkBcMPyAUvWCsw3WHNzd/RyzSZAf0SjBZWfiL/UJirCuYjFO/0BmXMWAHsBEe
+WnRkXNhXd3KWHjoZPScoivA6zrgGEyraGyb0q1GUNoE/K9i6VhkdIw5q20pzmnFcw9iY9I18VnU+
+2at2pizRNQ4hPqs94WAQk440dnZAB7IvpmFXLIfZcMzSJ/wnnO+Tajh7sbtTRUu/UzCZcL0aRXSy
+Tuy7qMwpFXSovXUG9uZenyr2AXnF0NGaNwwx9L5X5Ft7Mw8vNCrQEd79X/bOY0luI+3atzLx78EA
+EkiYxb+pQtl2bMM23CCaDt4mbF7996AlakRqRhrttRlFjFSs7mIBePO85zwn0/oBYpE8yd7vruAu
+Go/0FiVDcUFmLg7LQhGLT+Pa32FJLPdZcwEv41mwEw3rTonTTIPuTvJfXYC+r6+swm7TjSRG3VG/
+0AozlGsg95S7Iyg7r2tv7aCzH3zp09rkgppIJNiI7dLo5RDBD/K2QZHnL2Dchw0jzXQhHdrguEHA
+Z6b0JBmHZN5IL+j2a0wDa8h4jQ1y+TYk8GqT0fP2CZnlguI8tq5zhEkoYq/gehQIbxK3shAeTLYr
+5VJsa2BFl2kxfOTBAkelL+ic0i27iiKqDY14OE3uliGz/0x0wy52nuOpS6eMgv0YW/cxkcSjbZTm
+RWp6zbar/OzAzFlu4KkdVeObjKuBv6u8eqF11hiPoqvMk7l4FnSGPDm5kzNTSY+N0u0nE19g5zNZ
+mQKiuxVczJVHh4ooKEijx9VTsXeYGpxqGwze34aUanA2X8hCZcO9d8KYGAa2aE9tQLfwJoMKEhIV
+f99ZME7qWVDCxiV6lTRxShYdVHdekHRYdB6EUqTWmQE12k9DezGXZbsz9ay+gAGdWbo30y4rCui2
+Ng4ajWR66nTwyQe1eIpl96UN4mE35NOnsuRYaOIPpj+Jx43V4R/sVHwcJsCzZYQJDb5Jr8jC26Wo
+Nv4wytvJSUto94ou5OwOR69xOyXZ+5nP9RzNkrCuWVzHXqn3s5sT2J0xaFEaMSp3LzVwPCcPYo5G
+49Cvoeflg0OBJG4vPte7dqAc9MyhdKFEQplxvQM2bXUbkc6Ea3vTXn10zlQv5o5COG3ukiho9H3J
+ec94npSYF3gunq/DVKqVv5tXHr0lOVUTzs7rLWs50oF4T8kjOW89akYZhUnheswhYG+BfNsbwXm1
+xkUIH3ahwElS/aDbG1ELdrlN1uknuxnmJ4p55rMHo+WCShx1YIM3YTYmZORitc7Hs+nmE7f+AjjQ
+PCb9cSlNvbNK7pg0lLmv6HBZyDxHJRu9VzbgYa+88/WQnkuTNgPUyh0OlGm/CD/+QoeAcVD9JN+r
+xW8JqbfW3l4rUfFHc3vNW5sPiKp3fGpmHD86VCeFXlZSW8mxk6EDq/4x7TT9RaaWw2aCfzxteLrp
+aZVgbDorhjLZ9aJrOImLZQhYjmSjuZdqzdL7C9EDnJsDmxnc7GcMS1Ucal+Nw+kNMEm9knEy2tZl
+8IvMId+YthPcWBJGCJFrzFZ7jrnBjiIPTRuDPbghYAvzReGhtMI5M7NbP+lwRQQZu+vAhWFSIyRT
+hhfRw0h+7UiAG1hLm8+juTGXzlt1saV/KgjQhRFq02UJLkLiAZ2XZ22nzt5Vkmoe4FEbUszDsvIk
+bV4PpIJ+khEstjHBj0g5PduzUV47i7s6VA2an7alK/yTkzrmE8Xq2TZuTAS4eLD9fN+wgmXdl/cm
+BzhWlty8NdkM5V6AxvnkeOwrFk+a5Ya/UTCKBfZp2iQB1O+mfoBu0A3gRfreJcyN1FrewGEA0Iq7
+etjRY3LVyIk2+6nsL6eBahEXgyk2XZIxt6rohnxHR9zaE0ZVecBf2hmUDajNAg7Blznyk48BM/cH
+sbjeReQkFaTjZfQuFbZtN6RAMA6uSlNCq1i857601dMSYe53Y+nsMZ7AEMJ2e+oA5lKikWXui904
+47SF3gl7EAsSzxIRXBXZsnwVBp6cvqVflftpek6pb9ktreM+jyNVutucutxob7Rp4oe9iakzRmzB
+no1dFAIndld3QkdZvJxG4TQ4BHM57OQ8jhfaGyfaZ+LpTmGW3mTVBNhTsiCu8yZ5XdqJtTxdIbS3
+pXW/1jU2sBEFgmJZYzm0oU/sOP5T+jia3heBw+6S8JO+9lvd3OOV8OSW+3n2DSlRPQSVWTzH1OTG
+2O2z4Iw5NzoDV6a6qYnavcf39cJsY/fW1v0EBQOTttAmb6ClsbE8p9kt2DWY/RGWpIygh3sAhLg1
+l9V+cht5yAoDTpTJLN4ExfSAMdneG2a3Y6uV3aQx3tZsxaNm+LwuuEmwrS1h5eI7xr4zcuezaWLY
+JitkNV9xq8sbeRWTerupVxxr/gZmTZlRitIkhLpiW5N8Jbh6bzDXFes6sgn74r6xXpsV+zoKAQF2
+WmGw/5z//5cqEmGbNkfl/37+v/46vn4hbPzLqu305f//v19f8n03ZrEbs9ccHUnQt/P9bwd/Qvz/
+XoYJzINrIQj6rCTHabGR+37Sl/wr6fpESddIoORo/lOS+s+S1eABfzzpswnz1rchtm8HwGt/DqMB
+jZ7HqmvsKy9S3uMyORKV1DJY5uvCDBfOVi1NQfUZuaK18CG3tDZqyiQnF3DTQJbmUvIAEM8y0fl1
+jYUKr9GMor8FC0tF8oC49miPzvjc5wSk+njRm6RZxLwNRp/DbNNnNBG58PkOw7RYd4Ot6pdqjMYb
+DY54xlJTrbq/7nikt2Bp9imFicBgM+DmXT4OGw9Xy8EN+BE3TZLN+TaO6/XItRDIcZaFUTGZQecd
+A8fSQzjnmfkpG4DVbOgTy7+0UGO4OOVYQg8r55soQl/dtLR+m2HZkLXaYG7OvVO9dA4rFWtg0cSJ
+h39rK9mIM10sC5w62S6n2KgoGi0JwsH94wckdRVpBsy6LUv7VtDtdhs4WXyns3y8ael44QRf9CGT
+P6JepGoMj1PnHUv0gpa2i1rHeCv6+T2+lhyl0elm0jB2Lj70TdN7ugGmZ9Z9e4wsmQ6HMhK0yB2g
+aeTx3utSU5s8Z0uG2G1OeO/a9nRZWVukX+PkKKvmkd3ELT2pmUsAseIk5BdkLJ84PjjKvmOGyjFQ
+uRYxW5lG43ydtzDZox2EkS4AIBJ35b6BPRdvBhtzJ+EHKqkj9iOLsUeNt9S0leQF2PaxGvCgupvG
+mITMAK5XH01CydGF6KhSC1tHjesXx9NHDQsHqhsSCwck8mbFeO57TkHmtbWUWW/TjK7UOOlyk08C
+x/xzzCJT6Jc5JXnTfemnFqT4RuZaF9HtPze8//GGF3h/fsOb/nV8LRtQMt3Xn+576yu/C55vRmnS
+/78qmr+KnZ54JyXAG/JnuJp/4U58FzvlOx6lFpROz7be8KW/3QKBS7gQISA22p7FCt+0/84t8Mf8
+On1QDNVEWvEBcEtltPzJWO0Y7gzSkq9fvi7Ebc2qSrjx4+8+lP8AlPiDnrq+CQJtIDk98w+U299T
+F/p6NJog8PUR8lm7mT2lQ7Qpbwv1r9/9+VvxaPi9Ufzt9wFbgU0ddjLz3U9vVZcsXzLChMd5TPtN
+SpDoQgia/Kx14VVQGnQsaQg9zFo6yKvQPf/87f/wcVKuxYeKKQtp2wZE++NvSiCJmg5XEFyqpgdR
+ek8+iLI/f4ufs8jwSAS+UOGRRXb9P2SRu85YBjOy2qO0pgd0lkfOA/V2wKWCj6DlW/rb8/s//M0R
+PPz5AwUOjeyPJ4UoE+aV1U7yO2yFHTPpzuw8j85kt2cIm1azBQtZnnMZledidD5QxNLilY3p1GD5
+R4MmkSoOPmQtO555injLxoOuEWxwqOanYcL3Rkh1DOg3xMdfE50LONiJ1mrWLWOADBmIkyCe8klk
+0yEeVQ9kb82Wdr0pHhcVNCsLdShDzFr2ddIO7CGTnCAfp4/HBafEJQvmCZVdeB1bLEABDy7ksad0
+8UgulR2icVzLG0ku584lEwblmYLcIYYKNYyVhaJOqhBKYIujD4V+HLQ+AVG7ok1y3Ntl+c3xirs6
+dT5jrLjtMYVjrfDLc2POH+MRp36wDrAso8pNaWc6zBtNbqmVsBhRdKTKpq9s29uTlyU3zeIaOBJw
+NziCY8FUT+71TH00QEI3OvNMe/QMKzpnSUqESXlrf/n4lb1g8IBon4aLlWVQcdv4oXedYjv4+dYk
+mhV6NcbbeYrGIxjWaJeZc3KFC4PwH+UJkb8gVMUc13esPvtlG09LHICIzYZ5nxJ0fGi9EamL4Wsr
+UO8uGzPLzIuqsTBwVOTb3A9O5RlPST52N1Vt8ef48yweaivHKQKK/8gUicu96xD9REtuIirb7qpG
+ttsJim/2uAP5ipQt9kxa32h6qixs34PYk44yH5069+nDxqFiJKkYXoaUvUC8NRfr0tBe/JAmLJCr
+lDRw5LKMSVp3pdqmVnDSRhddcobtbhvNsrPs1GUULPYLbLv+waEg+kgPo3VlzbZ7LDka0VZGZmro
+q/lQlfZLwoofaSGlxDfz7PmI9hjcmsQRDobddFc6Nur3Q7GEAnf7FUDbhtqdpjD3yPXtS+3KmNSW
+2xDdn2V66AJnuIDDl2/IgLnvU/IGUUQ9HM50jw4mKwahia7Gy57mMT5zsFznzOm2WfIPeGdYZpKx
+Pji0T18AOaOtIBlZpw/xdGtEk3UQNoZQ3M4FKkvvnGSj2ouFsC56RCzrG8RaX/CNxmxGJj02b+2o
+XV6VQXij4KK5HOPMAGvuioM9BxRjFkj0ZA2pRgOK6IWt2fJuMXV2XC+wZsmdzdE+apLlPBt+9OLn
+fQV3Pw4OcRRNFzPyEW7IgWUtgOYDmnrEtY8lUTgmiM9omBH0cxbfbjGdtUisy9XWuY8yN3ik9y9j
+T5xWq+r5Sp7lKbDI6MR9b96lePKPYrQ/evy9GsjN93ltYjn2+KTtVJ97h9TMGHF0pgmgD6NpzGmW
+tZBqdXZlqJbCYNYDdC3pL2nsI0cmJnFPP4rHU4QFeWcZ5u28DPseGzBBUyCrNRmDg875Y2OE2A+d
+ZXhYdNVkhE3b1XtiOvYrIcN8Q1jc3al53zax/SAl+4DKymEqV96o3g9GY2NENf1TWk42fdwJ6D22
+SLskoVgVubnR11FBZJUzfLOgP/rFJTckfbLmgLlYyJeuRhdiS2pARogoIGkiTslmQlVBdUh4AJBS
+wqi0iWNq2IrSqq5V6Z+KUXzISwi7IrIITwAjdIhZY9BnFQT7wL+Ko/xrRHgFH7XaeYOgdM90Gs4D
+9nhDNrgMNhLZOuSW4N6kSzZfBq5VnNxSdEc8qXlYT3p6rmeEJaYh3tkEYLlsC5cLiI7meXV9GcWT
+NbUmC3ntICVkLlhBPIYWFSrsNWRhkzJJenRMvl/W7M5fODDgrG7ZQihVIaV42aNMJI75AFbplv65
+YUsEmsUA2bAd+CkOXdpzLgs7nVos1Hq8KZVvHOGxudu29T57lo2VfQz4e28jmVEw63sPhZqtQ0Ur
+OdkvB4F6XNKjyB3qeN0gOcLWXnexg4QEJeWNm1r5MTHi+KMvd2WcLodiSVaRIpk/WNy5QuEAPOZD
+Kh5sH5ylNGme2hh9Lu6d1t25VO899dDSP86jm1y7naufUJLDmrredJM1XXc9WE1Pz3zGN49AyJHI
+GHUzsDtCHp7f2JYKLFFdvodDrU48Hyc2YTb3jBbaqnvRWyUHsFAUavhlrvjH1fAXrgaoAdZfDvnn
+r536uvw44b+97PuEb78L8O6uIB2U6pUV85uy4UmmfG5oHmlI84caAsfC2YsA4Yt1nAMgxzT5Xefw
+3wX8cWgdgaDYwPx7Ogcng5+mOBAWtIr4LHF8eFhcDj9OcaLteMTRFXwMRgOEb9XZ/Q4mY5dfJMBL
+L3AftuN9LBXMf6qyhtOYVv1t0hhjeQCHBiGZLX/BuijH6uVFyPfRALtfNGBvYqBe6W0wKpPS6gqa
+TIAlSpOLuI5zC1Ap69ToYRaswbnsXwsCabQZlQ8j1+d9n9f6VnXBA7E0+rwrDgSsPwsi3xiEiXUx
+P10NiDIsYbDx3ikXOnDf9OZzQCcovBUjFXdVNeVn1WHcrEsWrG/ozonV5Q5/x3xdzjXV0IZFv5xm
+z1wqIwDT1dUmp3gb5igLacCyI1oBG7yccoPR6slWqWCrHZVt3j6oXANh77zkE3//sJgMxatZY3Un
+CYzWPzCvB+yjy+GkaRDfejbo7I2SrGZCUa193G4ZlMHTmGkoCVXhm89eSU2D24zBVrLrOZYEi45E
+nDAfGwPvbvnTRKQdyK5K+2A7pSSNNpTndHhBUtg4m0lxwOkynxlYNLHxMgy2vCfRyvnfHWzrsvNV
+YB7YXxePS15Q8z7Gg/XclesQnc8QonlqJPON3xTGN51MwXa22+icJ3PyxeBmed0Qwz28/Xxq/an4
+ZnfstPnfk6CAvNpUOEW3nkvcaM9yvDoMA+n22m808yMfMlmtfleRV6O4oU8Fjy1SclCEekgkly5m
+ueQYFbSaHl3VU22WQKNJD7Zex40M0WhTGXV+1k59GjuHp2Sfjdwq01g8Nwa64t5qFt888FXhPNmX
+fBf8Jj9ng1Ih755uOavIdOdAc7rH0Vo8doZd3CdNtzy3TaIuKZYKHjLNgjexReeGDKL2meRXfBG1
+5DcpzaS0MljkBUdWyr5AfBMh6Znex5pfMkMP30ktVHWQ8BM36ObrojxAn8fSRxikmqjRclRwKKiX
+/Ta59gQ+uSvLGpqGntGABJmofZCZfXKdFzV/VjAUzd6lmJUAm4NWSKpn7FjW7aA9qLuoDJarVE/5
+1uYREurejK5Kt0znLYkw/2D1gbUHAWE/Fkz/h9KfDWgqmAILeMRp6R9yy1T3fe08y74YLktpPqGH
+LdmWCXv1zg7a0HQyFVdlHOkeaozr7lNfR/gb8PizVIfsGyHFkkjxuxukpfq9cnV5qwybLfSyUAeQ
+OlTJxRXWftHCEIKEcNSe2+9E4Ohz4rR5gXF5omq3kPYHHOQcEvG1zCyHXbWZCPJuHIV/uxKAXbYe
+kaV91Y/zTtQ9m3EzyvR2mJRxaBsbPIQdkLPz7fyiMlgO4qQV5I9GGEqmp0xAxWURUaZmBIwIQZsO
+4TSb3jM0u/SKesn489JlGeJ1ferANYW6WTtMAG6yG7TqhPLQzHarrclrXnUbcNEbWTdXx7gu2/uW
+gvWMjLWV7IZktFOCgZX+MEvWsjprk+uRQ8JZszh5NFy5HETrmaAjwNqzlGSnRl/IgqNqg5vJCUVS
+qZ09VNLiUpaTtRkonAxH110upgilNJm1egr4/e0TKuqc0SNaeyp0dUyBIwRzzr/uQNMVnI2ejeja
+TWa2A0aYxKsteiSbDiyISB5cmmAorC7wF4uuzC6omiNMNHY0AIKUojPbdsHmdME4H9ijVltcWa/1
+uvbp0kWQDW+9azxVxgP4Z27+gwB7FkxzZvMWRU9Yy9cdAi3efQ9zM/MhN3MCWNyVFBiNl7c7C0Wn
+0Td2Xvm5qLlCBfZ2EuTrVdS43LRmAo+P3VT6oWuQLSeGWlOhQJ8NwfbarQ5zzO0Zk4pwuBwmcUeI
+jjfCMT2HlSAgty3GXF9N5oQ7NZmMoLrmab9cqw5aVljXut8RDtdXnW/JX8h5/4xLfz0uraLabyLS
+H0yg11+nf119ndPP9U/j0vqy74sg02aP47jSDpA5V1n0t3GJnvl36HYgH5G5gh+IuzbEXfh7XuAj
+Zv00LzFKCepYfJCfXFgQOf+OKCp/kvEA0fL2EtFLsmEKkBJ/HJdaEjSgyKrsshP4V14dEhxqU4F8
+cnYmDk5udva02vRYFdeqNE61SBrZbZFtq2M9peaBVOHypYOlT+e42cjtnC2jxijjel851Hhh6npu
+p9tjxSmcUAnopWlx7kGWa58y0XGgY1R9Kejc4cpeYtTOHbp+lgQ3Zmr0Hp61YbRsLqG+a5Z7u+oi
+mOXT2JsvBV3B6bKeiOmc6pIa8NQ5JZm9nX2PE/lIRgLGVaxlPieXhCXbxr9PBGyeKdsC8uCeZZVU
+8a3r6KZUD6CJXGvnZ1Sq0orYgv0bDlUz+gJMkllW+ImsNCeMbrafE0N1e69tlvdSFBWJ9GXKeKm7
+GPpjg28svXr7Vv1zAf7lBcha9E8vwLrrk3+Fr3nd/7SLfXvhr5dg4L6TMF5I2nGfJYu4Lll/3Uu8
+RRgdEozmv3nY3/cSXJyER7g8oL6sZ4rf5RTlO2yLJpenKX7BwfydS9DxflTyVw19JeUj0oK18R1I
+qD9eg5yyG+XOnrjUpnRifcC8svQIs8LEF6uujN4Jdk3JEnEz+nRubXzH1i+GKFxky9Q6qrExLlks
+Dng1jHIf44FFpNLqqo6rIxH84QzbkFp5yK4XNS7Xe0xNKNtVjDKW+muurnTvR7+ZP2Q4yKrNUCPI
+WU1bb0pFHskl8waiT1t7QUCYqhUIuOTEAwzYvGaDr+8I0+3KtcvuzCTE06mNbidsVTOcMXY+oDXh
+rRxbxbjpuwi3XuGeLQepZsDolsTtlwF9PxwyHtAlULRtZ1fLFe1QcF6oOcMYxAXHExx6mbGLoGXv
+Icvpg1xbdapYHFjHVk/BMmY71axzI2YwuqFuOlzGOyPOKcISvb0vvNLfNuArjnbp8v4ldig+KSfs
+Kz84LmpI77yYwrDSsvSxyWF34UNbw0wNnqI+u+mWwESYzvWuxB/DhABwzDEbm0CJtENcR8A4y2Gm
+4K5Q5zz1rhILn7pll3eBWa6mc+8QlMORDCNCKRU/G3CCOKft2AxFZB4MgnRbmSyPVGExtxBv25Er
+6sOezFJYLAP0MzxX6ELDp1KxBZhnZHhIaBdAGJetTZ6xXnvbUwZsCY8mhMhjbFJs/5tWuscgCs49
+qunWzwXKuo6Mx8VO641NVpSQEZEre5jnvXCgVHAQXk6CGfEBhIc+KcsfQ9Ly8BRmCxO7MpZQzaZD
+5RrtPNKPD/MAEawl3rkLrOxjM4MObg0iWFVUgvaz23BQ9MvaRXzAHwbXroU6VBTGLs/ah1q5j/6s
+LzMx0VNNKG1vVKm5swATHrymfNUy+5i1vXPIMIUCYpho8kF7O7ci+OrQVhT2YwA7LrNW5Qt3LV8J
+v4tvIbCgYcZMgIINP11L2Pd8i2QAUFsac+SpFZn1cXG0hRCnLmYj/6QXfJ+UJ1N9nPK0k1VcbrWu
+UJVxR23TKmtDL26cY6JxVDr0nm3Ngv8Pa+GzoXo2NN4chYSJRmxoS3tA6XR2NZTlvcuBex/Z2YeO
+beNVZSbl3vY/xYEyz3MMzlU2rvEARBREBUdHJ/SKNL0rx9zfVooTRJZTUQjEqHswqxlEvRfkd5r1
+VaiUvuJQWexJgk47jpruXkObwzlqertqBqbTC8MEm9NpjBxAUIGuAKbEdRUSjkUB9jL3ZAlyFEjG
+2GApJ+/lKC6UYQ6hwVP+AwZhPkUg2QiBmbd16egNJV2FG1PW6RaLn/kB2BKdfYaFIXeEJEehPEbh
+gbQvQbbqPjfshRqewTxbvZok/j9SyNvJwDWHxXji3Fa624HYBKcHunr4UYdLj00X/6FxWdUp1WS5
+e204+acUhXELxak4ja2HFcEfjdDTfJ6NVvLoUelHftv8Rk8tiNaplucG2gc2yP7epIeEiif37IO8
+WFEFd26UtdBL7XqXBPjO9FS4oQOdlg1O8Jm05F1KxDeyhvcFJVicHlLrsKTG19LRy77oyHj23mU6
+8d8rrzpMLu7WClrJ3ouNbssmpgmXCM038WwfAk/62tZEColZ3Ct2C0cPKCPuQQaUycchC1Fs2QkO
+82FHh9bWjN3uahHefijFa9BiivUpisF6quR9JJJ4W3rBblioW+NSI1bYfh0VBhNPwxaRXYYCXxAN
+Jq5LJXUhiF0s5IyXPsdDEpT+MSFhUBfio+uqyyx2spOS86M/KWKQZJ7Bmtou3K20egiC8anAhBM2
+jfcV6gwZu4i93BQXD8IaLjyn764bX5zTmtWfrEloFB7N8Wb3vkgi2u9sSsjpIfrWdYPJ0o9yHamH
++uA4A9FkXHm7Flv35VJM3cGZO59dKtnPgtWosjE7Ln7wsDjU2xWVdaFd1ONRLO2+9/HSzT7vWK3e
+eOSD94pYXGbxEJqNiMzDhABPJ1yxx42JtbeU9w1rgtDF0XixtOoUd/SQEcQ3MC4OoGwSHi/4ntyX
+Ip+fp2iAGbh4X+pBYFmPi4QtSD8d5mqGfl1RqUPreHCDHf29GcMEBFW2/uDTVdOqaNtLRIQSglmm
+ayxT6X5uIfNyQytOVmI8DUGT0Q85f7GJDnMvHIaTP+qOe03a7VAN3SP33/ScsFQ9xCAqd+CnWGKC
+t9oQvYUcoG25h+Rp74mbEtxwGusQe9nTNKaSbaD/sPTqQuVtt2mM+JttNN4ZwileTWDEG6dxrb2s
+PWq9nNI8+7jZ8QbzJNfcVfewg+jr9BdtV58KV63xHjLWbBpj32iD6jhT60Ix1ty3fj099hE+6DXF
+6Kqs2LR8+0r/JpJdQHOVlwCz5iJjLy6VfWxBqxDG9xp0sA/2MK2wYVACnQLYJlXN3TtnL9lMYHQr
+Eck720FR6V5qAKO6Onf2qLwAtqPPkQCJkK6GhHadpiOF9c94/b8RQIgdc9z77+fbG3rgfjjZ/vKC
+X8dq33wnyQyaTMeeXOkf+CW+Zxudd3Rf4AuBlvjd/fh9rLbeBZ4UayISNyInTnyK/94E2BxpiSPa
+gmXBWsfwdxyP7CF+8Md4tBOzb5AswtCl/0D/iCYjpg5YyhNwjCYKRaZzul+b6CwhcG3JhiM8obrv
+maD0nk7b6Owj9bzwYJ4/UFbSvDhupp5Mu1JP8cxp8Xef5H+wm6xuo39XT0gOAaw7+PX5AQUFAStQ
+8vdmkwCRMbKmwDllo1O/ysSZ3xMtri4rOSNdtzjdDhDNmCaamk3Bn7+3/bMZlNgnSBQLVYJqGN+l
+8OfHd8dOVzTukLbwzKLnso1slMchDa7yAC0K3Jv0LnHK4DS3V9P57ATpByvr0o+zrvQX782dTjLI
+PscFDtHcHYpD/+Zj79ravfXe3O3zanSPVsu71djNnlnZ2WigtBgtS+7TzqjKm4TgIYwhi9uE6beQ
+1vBye+Ew6JLt9YBHemP3LjN15ooXNsJso1UGyVX5dCSsBv2uLoY7FMZqX7/5941+9fLHbRAkwNOw
++BMYMJ8M9sg7EAsPw6wJgji65RnsuU11TUAl3hnJmhjo1vDAYpTRNje0vcnesgXam8aWnDXDR5PQ
+P1yuKYTqLZBgrNkEOWUMfWtewZ8itjipibq5YQ1OpIG/APeIfrvsp6Rw4W4i2BuOmBSZc9HeBYOR
+3ZoqTa2Q/CBqRm2S3Ko8E5R5Mge7abC7dD/aMzQ4+gfdO4IAMVLyWxRDO0n/YAFy31W9Nw2ntWY5
+Rias+rs5HRjzLHuCN5G6lrkvAYH5myrqc8YJ6TYW66JY2xf4W0wGkzgVE83UxLqIv5AiaTLDOTIH
+Cmo8HZeKVCmfvWzxIXO51fu86mCJxy34C3qaeLS8JVVic7b2WGc6csBo1ZA+jYN+C7ckYtznZrqH
+KjeGXKnBCWtyeacF+T1wTkRk9BqW8UlbviZe3xz1GqUJioZQTQrmcQ/tOqY8ISP8sOWRPzPIr5Ec
+NkAWzASfukrfih4Bdg5Hf0p4CBWeTL46kzneWG8Bn7Tyyq8sCvN6I3RLUkSmVbnaUojDIVRJe0P6
+zc1Crr37JDYy+3rAGCMb9jM4U+9JCqVzs2m9qoZqjLkk3mZzhHXKb/r8S5UlUepv+i47CBNLPuC0
+0tqMOdzIBEB8M5pXqg269BW/T0GesqJj4kYpKtH0oG2Qn3Y2PrskqILLBVbCqzZsikIjGqg6rorW
+6D9X0ZAVYRf0LWYPlhvprh+6ytjVeJuuxsWqFtQpsk+7YTR0er/YdMUd2XggiRlRhXWhrroyDrsh
+iZuPDulbVhTrgXnD3qfqMETl5pFlXcKjoK8uu2RKG0wxdv2qas8+WStdmgI/sz4tucrvSFqsN0OK
+tnFqp9VNpgfvWgx1GwClCXi3bv3dloR9JwhSa9q17FmZhUk3PvWpmznQhkZ+eg4++tjW7ALTempe
+AMrXL9NIlnoTyLEZw2TiQt6x5piNzWDOwyczY5K8ytJO0qAdTdS7N6KpXztVcPxrjAK1fr2VowLw
+ORH6Frs+e1sBGv14PadCPxbKNmg9zSebZiESiALyfMiTwFpe5TB0ZnP2x9TkH0DTVxEDohATMj54
+PY3PFUnPVLGEldUrRFuIdUunFUx67V63yuInxuVXG/tp6NNs41Atc2h9UdwsVTJyLK1TATbfyuZb
+AnDixqlrLqyUMf2mkwUUlSp2axn6yziecD6wB8TykpSXpYFJhFsitNCNKBuatCwO49dO283ZhoEw
+GsJKdd5HynInlpZpB1mW4PYapkSLNDdDAlcTNcabXmowKNeJu2DqYM9XA8s26RAXdAjmk6o/Kav/
+wIrYPY1BkMl11TbdDnR3FKGRO9F48BOf8nnLTykdFzXKjyOzaG+xNLtK7JE8lGEs1WXCPP8g8mF2
+GQUH+Zn4O2Xdo20l+3oC4SSIb24hds+XToFrPkrGhFSl7tSG2bI4za3fSAx2nXVhA586BVi+PRh/
+EVsZnjOaXzlYQiegPWVjtaUnAHIovE5DLSBA0hlRLQeyYLBbrdHNOjyTZJ9kTApqXvNQak1GvT1H
+/9Fl/0qXle46Ufz3wfH916pa0VSvVfqjLvvLC787SRzs3WItSYNzgVvD/90Auc6WAUlc8cuMuI5H
+3wdI8Y6xcc3FYGfB0C1RU78PkME7D8zGSrSwCLmsI9/fGCB/8Rf/fkbzvdXj4lkUEjLM4hz/cUoq
++MbosjFRg7wqX0IybjytZbGSviL4NrsAFcleo8hkJKbehaskVNedHL/muatb1ibbhBabAN2wL2SY
+oJgZZAzjgRv652bso5tpXYSWi2WGTjrMJPZLvKib0lBqhxeFtnO3QLAzbMVTm1N+g0iRRPBluiyh
+lQgw5GOnlu68rGtZ5mpz5xlaf4igIa9VnF6y6952uQTQW3Cx64bXfNv2Wm+L37cdcP62D67fdsPm
+uiZGxQSGkFTH1NPpV/wk8edpXSvPvOZZLnU2hMG6dk7eNtD/x96Z7ciNZNn2Vxr3nQkzo3FqoF98
+9pjdY5CUL0RIIXGeZ379XQylOqVIldT1XiggqwqJCAbdSbNj5+y9NuIVptHkLTTkoC9D6mIZV3tu
+kF72ywg7KsL2ul/G2nIZcPvCZ9ZdLGNvSibaFE4Q9zhIGIuPy4DcWEbl5HR4uCtLnynpMkp3az5m
+FIrM15nMigvg28QoL+N3tQzilccnj61TXhA8nd21y8AeJ2Z2EssQP17G+eHrZL9fhvzYFMBwLIP/
+ZAidnaJMx6kMRxrXXyC2GIlQC9RImWPg2eIdBWl71aEqaKygvZdo99w9pTuqA2XEATE7ixghrzvz
+CRiA2iExBJKOxAfVAmHj12h8ES+bIsHKyHTWsvrm7NiFG29t27cuTLBPXxoD/p/O5Nnp7xZX0KYZ
+4PTC4rrTuLYLGorKvJFG032QUxk81nCfb/smtkgWRH3duO3ayhLITiEJUWY+phdeioyUjkN+AtSq
+r9H/vYsGjTW3IG6XefpETHjg30+dVW1tw8oOgyC0uJAE0iRxfMZbK27JXHY2/qiHI5sTyij240zT
+CAo7+CT+XLAHen3hH2LCOxa0S/IFFMsn6XvGrtDaL1DxpPLMQ87KO47VsZlltppTDzQUvgHYXErT
+LrVOBU/bmq7mJZrecJW5lQ3No3k/ZzDkZvLQdyFnxZU1AXUYmtDCrovgW3YyQpAfGu+1QyxuSRT1
+2UrL8nqCLnnhuE21iY0QAL4c+3Wq6/DG7CueGx7bYTXakCxKipRVl4fRJhbkZa05DbH3sDedp6G1
+VjCTSbff2zqbAvno+ukY7Sj4h6WElrO2u008hEHoniESAnpbT4bndvdKJdZwj2mYMQ4s3iSUTxIM
+XrwVVhxd2rVwTuTm+uG7Uc84uDsoMSRJewUHvhQ4O9fvoxusGoqDaYlEII0lCPCadhqqeVkY1nvk
+xHl8HJYh7Cot5pi7icWs831dwGK476NID0jNXgvY4LWaTUwyFT8kSVvPOab4V8t8uNjnp9L25k3f
+LK56HrMg+EB8WUCaRigJ6k6MIuPxfPXij8g5MObLV5e+O0xOAKAld91tlZltEhym1tUfuiIf2k9O
+4snE/sBn5EHtSbu2uKCuNCG3537SmvyXDagXtr5lgMYRXes/5Alc8bWo6AmsVVsrTuqGHL+etv+z
+U/9mp5YmR/xf7dSH5+E5ir5v8vz1I9/kCxatnEXN6ZiWaeHyYSP+Nju1xR8Kr4xEZInAEMHn/+7R
+ij2a/o7yGJtqjav+7z1aIvckd8Nl9xaO5N/8W4xX68c2CpNRPPKafXMRmZPw+Mq3+s6zQ4clnWO2
+nfumKctuVc4Zw8peUkssKWXeVamD+hRGaf2pdBL1EIIzOLNfUCkCxy9hvbrWmtGRnaO/SoeNwUi1
+9Yxysa1zLhGC32MbS6C20RfRHRqpMlkZpWUeC2iSuw7n7raUsUf+gCDG0SN5J0J4tC/UxJgmRrvo
+BfQFQml0n3MEaJTjetC3xhiFt2OeomYKYT88e0E5PTtmOEWbIORjW4cB4lV2oXre4VyvLmDAlh/Z
+++JntEHTHaR2uVFuPH3gHIIYowzIizCnuf0MHU4iVk2X6l7IUxDaJ9kaCO0YS6rHziTHZ/Pd8/KT
+RtbrdPrvKun1KyBjmlk4rUBO20sV930nK5u1jg2/se/n2vSOFtrbbalGArq8gsEa3qSKaIBIZd5d
+4ZTqKh8UtwZqp7DWUSL6/RzGE0AMqzh6c9dfz74VcqbUxQt6C+NdzhHyHE7GuLWiOL7urFaGK5fN
+5SlNfXcfhHW56xqzuHXd+rEF9X2wlhA1FFQPKlR7J/ReaFZXH39904vD8bv2HTetsW3zTWAkJFoZ
+H9yPN10yyA58Ueb3Gh/eB/wV5BcWhXxPI5I8Mro4xy4262MWDy3TwjxTFHXtvGs4pV6P3Sg+lonk
+Y/CsYbwNcp1cDAUaMX/if7ESqs+cbuVlYKjhNuxseYU3bbyzXP8p0KPae1GUPiX50AOYSMUhygfM
+EgZev6Q37c2EaAKZSsYzbbaivxSz+ZLb3dVQK3loO986cCxs4KIz2MN4kmxHa1BbSr9wZ0Uf0tKL
+L7Quhk+Q5dGHtubwqWQLOr7GstUtaQGoWvt1+apUHcYzL2Vy42B75D1KokNivkB0j+uVvageNwkC
+uEtXM0zlvDt2myhqqmX06O3FXCvkC2QqOnk+nsecb4kcxSi+zkKzupqYe7yb2rz87HJErlf5UCMe
+Qn5eHUYyBnd5iFEPN3h0meKgufaZyN6R4NFfWwnV9kqZHXmkVTjHh6kO40XjHKizEbXjbQMp5spU
+UbCLZoyag7W8m0YynzLK1Hc6bKqPXpAEV1rXHhO5cbz59bPzZs2ycJ8iDkA+YnJI4bv0Fqf+d2uW
+IkIYZ45jnJk/kTLmISs2YNg9TeOwiK87kFve8uzQ//o0KJeEw7YBF6KHKXyJybu7WSYqF3gQq3dO
+pctNyiGDfkNJdaDxBVGMPWZYBde41qx0Ffdmvk/57q8KHGMrQT8N3EgwbqesUOdR1LSXnYlbRf44
+XWsaWmuWq2nXa0stCyoC5doq6TBZraG2EOUrfueIURzh4Xx6fWxL1CDrKLKn67qyJP3ewv9SLOpv
+18hosuPyepeTknMTNRFS+oxYlXBjku7yMRfJHnSlgcd/9NBQm11n7zWyLWeb0HO4dUVVTL9pvC+0
+he9e3eXjx5rgOuinYS5in11e7e8+/qGSjYHW0j/DxMGT2DKJoJ1TGffxjAC5Bpcv1nbVGA/xFNHG
+s8bSKwm7I+Rl74qI7cXkHSR7JkVI7iZ9+QxMF9G4Vw1lsC5l7X+o9cTNCJXKI8pcY/fr5+dnN8Ag
+hj8L1KTpIKH48QZyGli1DAPnTFpbux1jOd7gzgp2le3jr2GCN+98kCqI02yWmDxEgUpCaPkMwMe6
+lIPtf+HdM1mYp+LZHB15ZQ9jchGqkkC4KnX9h9Sp6OWFeZC6v5k8vOVNLh++BsgFYRtXL8yLN3/7
+kJE0MuvBOheMaElbIEzyC0+z7x5oHaZPkjzBayji423q9Pm+fdXxK6IQjm4Z9RevtofBU/UxtYb6
+WDiVgR80AzUz6BbXadXlt8CLoitHcf8Dhyk09Qj7v/RsE3xF5Nk0Pv1y9EMuaaEV0csdgpx8j0Wb
+xCGoBKtR1SxDXee/w74XHwzXcC+aiGw83wUxQRcx2HHcGD+QnTHv66H3j6Qq1duZRBJ33cJh+SyD
+hvVKZdpYpjdKbmez9HZo2j/KDARZaOaMNZKyPKa69z+QKETHYGDXeH31OD8FL7VvhP2WQHD+vDyh
+WTzW6pyqZuoAzZn92lMVaXtlM+9iEfofePL6zzrNlhVk+Whix7/oIk6bWnBuR33FyldGNYhklSUP
+olQzXsXKjjBnxJ9wahZHGsDjEdYCCula9YwpUnUVjkNDyz4db2I5s5f8+iGmSHz7Gnomw0NGdKzZ
+Szn4pmxgrc66JukrZnKyJZZE8IKtXtfmFBzQnszMcO2EPjcQziFBsqIon20Ix+RhsCZtg6w5MiBy
+Nmg/0gvmZc1A0rCIknVvxFHGYCPftRXUohVvkvg4DSJ9ZPlvP6pB95+7yNHGhmTbzNk0obvArinH
+rvu8xQnnCNglI/TJdEUL1E93qSRZbEVGFkOGwBg3oCWd46izR6QmdCackF4YDfBo71W2cTJ5sQaS
+ukT3UsGoOPF8hZu6qIrDKOdmr5eMRUQ+S8m5fK8MwNt3zZgcLAMI0GYk33vrmdM7WZb5xiwIZ+Pv
+CTFnxrwQXsBZj2lIo9cEKzifTEdnmxo600UhYzr5Xoo4BPhXtZ8rFRbXuFkhf5cYcJ/YB6KnxgAb
+t2LojjiliAg4alyCuRCkVHaAFdARGFhNVoNVE5Y4ZDD/n41+WAocEmQuhDuyVTWZvak5SWJNDfHw
+tGOYCW4X4DhH0sUw1AyMG7D/drwGGArptLh2o6HJzjJ/CEAqHn2h2XVmGZsfQ9NHwBZIu0wujbZd
+yh9vOgVtVBjbmcHYxyzFMQWUCuH8xMou1kY+y6uAsBASaHBQr+C7FpeGngjCAfFmvpfFHLk8TyR4
+xrnnd9ho4/FcU1seWvTM9COaef6i7MQ9uphCtmmXYXxxbR/JlKjnYat77EouoFZGLjVIerzjPIVR
+RZW5GgPYNh4BsCuL9tQmMuf0C+q4M3m2ZJ5blK1oBhMH7P6QZDeOk4V3sBGGNZuBxyfjTfPp9UX6
+z8n2NydbWCGSovtf96Dvi+6n2uC/fvBvbTAFqrQtICMW5IcljeTb+XaJN6GJbNIzwgP0epD+1oNG
+AIxIgdPnkvdoLhbIv1rQIEs4hNKCtk00+oID87/Vgl70GD8UK1AoEOwJus/0wpeskB/3eg/GW+v7
+lXHJpKo/cRbOtjMitmOWzsnWKclJE3OvzgS3MqUpGInLfvKOnNLwXyXF8EAOV3ZpNojYZdW6CHUF
+qfGIaPM1PAO87JD1yZQKzkFpYs9tKe71MiLX+dPQJXeD0i2yqsAlyFbRAbJpa/qN9gA/LD5mneB6
+r9gs7tucHKCyVEs6WwB0b+ibB9xnIRo5TEBTV6cvwuhWvMCPMaA2s2yrFeZKMrWn9hzDBthXA5lf
+KzPusnPEWPECUSpGfwfH04qggWTfmzO9ujQH7Ivl8ZgFZJPFTOmxfkP+bJvOXJOIMdvYzoS4qW1D
+jasBWuKmH0d4KM5YkQHLJjMdZlELjjvaRw5cWVeidg842M6lACtiYjK7JgnkMvfHbBNTlC54ZqZk
+4RKfXLn+rhXkJvPAFFt2MFiqoP5XOLTXMATA60F/vZxbnewcy3AuMmh7JMsTr9dpp9yNivC4w5gD
+U6HjjfIgSef7CgDwhsr+yZukehwyy2ZncfoPuSzIT2N6vBEMdf0bXH1KbNMCQzrzBOgO4rLPffKK
+8W0m+BKioXCNT0k6kuzNYb8zZrqyDecwkLnNvEayqcEiArpvVy2g+nNl5i7BaB52LZiTdOZqZqfD
+PmOCcYAeNu6dLM9zpAfauR0zhAWG04qWRAsDmt3KnRuzX7VBZF0B9MPmJKFnbTlEceBHkptxROh0
+cmNMEaERGyMbcTfti6/ireIvLVfyVdrFL1qEXuVX2Zfj5+0iAlsEYfVXcZjXFNGiFavboo6HE0KG
+bJ9XhesEt8Cu+n7YIfVgtd/ruazbswe2a7IfB9E14t7oJw7qWyJJaAYhBma2oXYCzycoKcyDBRGr
+10OUT2W1Q8WXY8GHbP4Of+d4oggBQDXFeaV2qOxjZsdGMIL2tph/GngwvS0YRuMpTCyIAYwq0axQ
+i47X+BAFgguverHYwOD7Vso/52nICZmVBAViDPTwyQfgld0Y8aTkmgwhcTv3g90DbMQXuO6qsCC/
+sc1zRjsyPAB6NrbR7JjBGtkogWF+iArWZFMmoTAFoUuekflnFWq1SYMsuK3Cqbq1yVfctn1Zru1Q
+5gMdglJcz6JZvP6V2FLvMH6f8vLObur8CSksaUVOJTWqjonwhRXzOVywcUzkIJsjBbhjDCtYXw7S
+wBbiG1bjdkbskjt85QiMV7FlttNKvvIfRNOe4YHld5xLgz3HVHpgvXXrxX3w4KfleEmqqrJWFSex
+D//ZEP8vBC8TxxL70L/eEB8Yyn5ums+fv+/2/vVT3yR9kkwCogCYnL5uan/thJ74gzUJi8oyrCWP
+Zmnx/bUTmvYftiuBaWmFj+x1v/u2FZr6DzZIG64X8P5/OxhZO8vR8O8+Iy025dE28bSgQ41tbdmp
+vz+306MwjXCw8qMBjFSCzCZAOO63JKcMnPIygZNFEqUwXLUKWEfWVNNGNiRZOYHvHKpMRyvf8pts
+q9AhASLX9sOYiGRrRyLfBAFY2fVQm7wb9vie9Qoa4kRLnNZsLo+qFDCHaNatqzCANUwMeZeX7bE3
+m2CPoCjY4GupSEFPQkwDbbefeiFWkMJ0sZq9sdlZITKPlCwDFsapeK/Lyn3O6yY7diyMOxHZ9DBR
+vom2F+s+joJb2gjuIZ8iBNcoLPBJN5pJGjOS4n0ou2qvkPtcAGiBaQP7xv7I6bQMV2NWksySYZ25
+LlClPSZx616N8SzOHd2/TZ7ip+ukdy1ibBluBvmDeJpw5ZkJ/CSn6zdJVBFTFIt6X7MSH4ZIY5Aw
+p1NRFs6xRmC2I6kFzx2evNt8CUnPiWooxuQOWA4TSB/HvpwGd4sssFh1oKDuawSU26HSYs2cSpM0
+OTbHrpmNg2/M8kInoXGRNjksVDJpoKJCkWoYD11Xdsj0unKNJbFt6B7ItiLgAMHpVeBn1h79c7ZT
+FcGOYm7mU9mr5tohh3GVdOrBHrPx08RYadsMyAV9J2lOc4JbephsYhm6gmDYcpzOOoqdjx3syTKf
+/qRp2exRKsaHrsdURPHnP/VuVOxYAO0XNyIv7rqbVHwdMGxdpewQIRNr0PrugniFiOseICrXNGEU
+A1+xZMCg/FyqB9IGaK99dOt8+BIMk7ebFyfHuvKzfMt7o096GhrU8HH5GDISfHTHYnpmECFI4pgt
+cQ0ioL90jUW0nQm+5MgLy20ZuM2Kxgn0qjkBzE2Oza0p++I6HeRjOBooBQxTVwe3K5LTWFSgKnPg
+NyqrvUtdRYgqmRHE9TqSRuYcOgPv567G3QTeno07WROWNlzYCGPjXPUek9iFXqBLd61IikT8Xqjs
+MHWwo/PZI/2R9CnBmUfhPzEHCtJNXAWcrGUW0VCZszuUUwePiegqJOT4urbVc5FWjn9VmekYXpYy
+fWeTQHvOCgvaPDEixybqtK/2tJ8J5l71xE54n2ClV9GWdOaZzXJs7ppOudknLzf9+YoMslXutt2j
+VY4A1hGP1t0Wn8UDsSAEMNed3BJP69FmdxTyP78Bb1WGdnkugUTHw0JUDjBnUcw8qnTQZAdbiAXa
+cIOPtXAuQIq5jbHJLJqDVB02n3vWA4EgcGqBNgMhE5jAcTWsBQL8G1KqAeJRZ0Ajodk6yVNOKem/
+xH7VrK1o9lascOyI2sBl2xX3PLlWsnIxiMFUq7VMoCilUUmz1os/kgc2GQc371HhWUVKCCvENnLN
+erio5BKMYaevhyDznrKptJ4T+oY8KQL5Gs4D+v+rfOkFohPVL8QktMke7Upf4nRA07hhykT10Erf
+97a5lXDJOQ0Y3WQk/D6YpEpk66RJg3glhjLas/ZxxTbxYTsh1qOLCzUoNld95OXFrcPgurBpI1eh
+2V5i87UEvvQes4UzOgFu4ty+hRQ07qwlwl2ItCe62eIzXtvSnx7SJSSeun1BIJNJLtZz5g177Lj2
+de7p6phEcMP1aPnEhCzJ86oDg9pJFe5BUbn7Yomoz8mqn4Mltb6WVnE1LlH2Ph4W9Gct+fYpTEVe
+qtfc+y7vJLwNWy0M1z3j6Hh5VykzZWBH2zooTGOHk1fck2+BWEOhX1ibA4ho28jzG/RtRJf1jn2D
+7Kf/gBpOTcwcvMvJpGGTVrXcJKMO9m3dzs1qnjt8Z1kzT5+qqfrIHlXf2KYGK+H4xjpCd+gS/F6J
++2CW/m4UsfuID7Q5aW34bA55ChzJaW6L1jUoECdx0efC/0SyuXU3+XLTOHZALyz2Dxm/6n3iyGgD
+48r90EtISqvWV+Uhtqrx0pkdmoKWomdSjcmmHKb4z5BO8wXxcugKg3FHg0SvRsYS8bo1QyAOdI30
+Np78+c72iHqDirNvgNc8zk7RHicICHtZ0wiFq2tVq1giEJkb+p4DB5Vbh8FtvKlH5V5GJku8p0zE
+mrg7VwPXv2daYa0UaTSrAPfaXTkF2IzmMNnq2EN6wQ3sShqEFKLkObI0zvq9aVY1e6Hllc8Ys9tr
+zjryc9+pYme1s7klhlIe7KYy3xHFVqILKoJNCWJuFxOdta3zNr1JyG556ngPr7u6re8wxXtXrgNF
+bA7xwMOFifYcFPsbgnmIJlKpfSAO7M/K1dHVRKrkO5+YuBvflx6/pLGpBOCurDoXa2WRmeKmoRnW
+riPe/DsrdsY9+rb62aUdVIG22zB9bU81pisYkplrHzOv8U4gTOZLydn144CwelWOmcC3VYgjnIp3
+fo0Gn6gUaHY5Xk5kluYWLA6WKSGN92PuC3Isi+p6zAnPNI2GUw27P4A9QH4bLUMUrKNsH3HIty4+
+zKBpVtoZt56BpLTpR5ujJCP89YzohElBoGAvZq7CyyUSWwb8NjG4s0k3rYM6tIFvaT2r0aWm0GGM
+LFvErAQ1ulM8Wb09hc69CasnYMsLMlJUHxqb2NL/NLz+T24d0xJLiu6/ru+fPtdoyNofqvuvP/NN
+byn/oKpGGEm22KvzhjL+rwrfMf/QDGZIFdNfu1Zc6e9e19KDUnzt/3su+LvZhcYD0pZmjiYRNTn/
+TrNrUVN+V98jFuFl84BdmBw+yL57o7ZE/NTNUeFaB9dlgJuFoUtiCor97z6Tu6+/77/yLrsr4HY1
+//P/llPCd1fRLnHA3OMiW/AEn8SbU4TfoY032a8PXZwjY++RNKzc0S/+XFA8d5mN6j3FIFJvIKqU
+X4+mn8b/Dj4XP7n28n394+JYblzh8bE5fNg/HmFCO01BnuI3D7RX0CSqm4H+lOS6VBvnGD3nc+Bl
+pccQLzI37BfR59GgC7C1a9vcpLWcV1MXR/u2d9O1WRnVRbcEvzZunBvrOMWj2E41EVBBAEyscfxz
+Bohy8+sP8Kc34RA9R6ODhqR6y1EWNQkVUL28A+MztR0BmO8yI9PHyBmmxwq52dqXiWNujQyKlBRj
++WHwmPJbRTDx90XeeGeT4HBXNC6rWD8zNfGg7fScjY6j1yc7tx/kQxZ1LckSc0vIEEnL+1/fA+fi
+f3wPjOsYPiEa4lj7BnrSaAbNkzN4QE3KYVOjE12NfT3tlxCJX18JsdU/r+SCgaUr7Fr/OLRavWyA
+H3ClHqc/SrmKL892q4u6NauTsNBF/Pp6b16i18fbw9OlFY840oLlCfxuuK1kk+eZkXK9IKpPrChU
+Hx32kl9f5SefH8dwDU0D/ZUy30JjvJrlgkKUoa0aIvrO8ZfS9NB+NO7Dry+kfvK6WoqGGYg11oV/
+LApxAHFu4Bk8KPBJx9lpYIsSBb+fJr64KTPxs8gQyXBRtMl56i33qiTRbaNjco04a8yXmWVVpxr4
+cERGEWibUtICRyGGNCtYzICYjKd9xLP52Ac4COCCC03JGg8zmLyAi8AzgBTjqujQKLt5N9hzdPj1
+TZqvTMIfFiVURFLycaqFGe5Zb7r8ixmFoKx6PAwL/5LQ7eFI16IheAc6ZpE0iple8QW6FeTMhaHJ
+wxsfII3ijH4lbJY1fuxX7CZiy01l5+iWVRLdWN6k/3QWTicNQtSwg7qXXoaAox5Sua7RCzwQtOzt
+Qsw8oBTC8TEMcvoECwuUeAFJt+5PlrPkYLfwQoNOWYd+YYiyu4SHDFbr1qRaPjBVm8hXgjoaKi33
+zMnch3phksZGnG1yWdExRnD8KWRcQmMmCY6AYSGxpnKoVv0M5RTdb7rvfRvpWK+YbeqyW9udDRi1
+lUFxSOoieSKmijBr5g75QlKlBpxepmlqMEjDWYXzYe4tX8cNrn9iDOekREi8sFktXO8PDEqyd/A9
+ki+lDAus4sKjR7TkYzOuKzhpF0yf3ztYDDfOQoGFVp8e44UMCx3NvrUXWmzrRgsNKYuGW0jK1Uc8
+ydazADBrLKTZEOSskcCeNejVbnQQ0XV26osMGRbgWFnR4PCOY2/kN4VfQp4fkcuugoVwa4AREGV8
+tXyeGzLUaRMvPNxmIeNKaM1WCLVNj6E4giTPrvRC0jVeoboSs9yN7AyKsGnpugr2l3WcQeLFpOMe
+qZjN59q3mzvotU1+bAWioMppzIdEo5+C61svhN+uMs3nYqH+JqEyNmY54jovVF4/5mBR1gWh03w1
+WI6ahR48gBEOQ/OkfCjerG39sU2LaYVAr3VXdaheqAAZSduyPE11eh2h5lvjr+S4GqTdplsYxpTI
+AJuEuCgV0Uwi0HoVe2NwTw7ptR/Yf4YLDTlE1XX2F0JyXNsIwZJnxUBigwqMNOGFp9ySQ7gz61pe
+OWM3wDWEu1z0MwNsQSZaF1cGbWn4zM5CanYXZrPM8hhzWDFeGi5E56QZc4TbUJ6NhfdcLuRnHOx6
+DWEdPmMtKjAObEbOhm0IOkXg2qCjhyjadAE86bppjEtrLgpyMin/69GanuOhEXi8Gof+/yuYWqi4
+vJ2RtrNMNZKB1iT1MUSjf5AL19opeF1sg2o/QT+k4HdsYSOGwCNCwBRt6K85DOaf6l4H72OQFC+2
+00zvzb4eLjLX7Y9J78EEAktyVQsDzxlH8zUpLf2xk7xfxpSU8PamKTDBWDiNPOaR58yELFd2ts1E
+kMFNmMdH3Yt8R3c5PJIsWG51WkAhnnDqemYX7aVd5VcRbFH4DojWrYL/G+cdTAm6SNUFJuVkYxfd
+tDdsWlJVIxJ41/30pW/robgB6ZVu/MXIPPdY0upCce5UzPKjgJ1DzlhTCf4rt6JHg8gd1xeOzbxt
+qCdmKqGYmKaJ5t2MvudW8aLeTDDSuw1xolA2RVn0n7ElDxsvFfOBTNL6U+iMAYjJyHl6NTTm9Hof
+DEF9gYogvIXKSXXSU/KRh01oXcBcaIO4v6oQ42PxHkHFn9NAV+/j2Ew2iZjR8xrUhYZVTvs0keYR
+awZpYYHXPRVtk6LvspqX2QgF+ArN2lNzk4ixYJ6mBcIdwJCHaTLLGzOc/Qunqdm5BhOBL6SqZBMX
+y6m47rlzCEq3CyiIWEZTbat2VkBddXA7OyUGSgCg/IzyUtyXtr2AIUz+kqTzxL7vW26JdiGNGcZh
+KCWS2NoyerVuJQvDeoaevy9bNR9EbKdrz+n8C2oVa136tgdPKq0veuIOIRWF0xdq4P4p6mvW9UIR
+T4nFK11R25AVK7Jq7+eGdUkMgHGeuEC4MeBFrGbfqfizp9D6cwAEsSRlhu1ZOPDhsd1151qoakHK
+yvfCtWBUAC5x+qrYN7Eio4560by0RrFnMMn0re5M8JKV3pVhNR6zBE9An8b4B00/3BY5fWDfUGS4
+t2RZJgM5epG4q/3c67EwB/2+Lvsp3PPxO8knMkmr8IoeewXLdLIYe445cXEklolNbcK9ufLoJJes
+rAST0TtUOrwZBzVm8/F1e/+PQuN3Co2FZfZdJfQPfOK7Z8Jk8oDo5R/PrK8/9s1/IO0/PCojnuqv
+Cg1Ko2/6DKX/cEywadAdKFC/HVcXbJvSSMv4IZTZiyvh23EVPDUpW4huJYbvxbfw7xxXf6yBeUXw
+IDICBejI+EstGMYfKu25mKsOT5aNbDjN5nUejd2pTpsFjztUzZ/ffTA/OTn+WAa/XgyaBXAMSLs2
+t/umrA+scXHztfoU4lr4kOtCQXzpvackaunWcsApPwTC0c9eH9e/qU5/emlTMLN2F1XLYif5/kQR
+GYkc20LqE4MsLu3VhkeGxUAXyUGZ/mC6I/3mRtTKXBPrTZn96zv/8QC13LmjQPYJF4YBX9zbyysz
+AriLT+qUZkYCpdjo22ot2m4uoQ8tlxvZCX9zvHnVHv5dj/91UR4VvYhsGXm++bjzEtt9UHrqZKlc
+IWRxzaPK7Jn0QGaUT2XLMUNH+MnZNbq62Ydt177YJQttauCcXVdsQPsSZ+N4aIw68LfzPOtn2yVE
+be1bvZCX/RIRvInmwkBGwywr3Ixpbpq/OQwux4a3t2EzyMUeYzEuentMcwfX7EaoPCdqRJ6VDlfI
+mHZEibqw3B6AZxaXY8L+9etvDG/PP6/q8Xo4RBEANn3zwEC3RW9n1fIUw/V4QPhNS9XJwy8iHqvT
+JOfxbDG+uyEsGIDEFFJi/Pr6/3wxgQpyLnWYofDcvH1XsLDnCXmihHOT+HSOlheGDB38GX0lfyPl
+lywmb+8VEzJvFkd8OERvZ9L+5LS5EJ08afoaZ+pIgkX6SFLu+abZvIyJ1s+9sJe3U2TZunQGXhaD
+zvAdXDfjN1/3z27cZAqPT8thWv/2qVXaKLwKkfepYzOt1trx0+JKMRnvV1Ge/K4H8LOXZOkI8l7y
+H8daSJ3fLwyyjCG0mr2io01zOZ/CFMAeaTGXnSOKy6yO9RFpT3EJNJKnHJ+WvAGgBUYfSQtKEgkp
+69Kw+/EcVNYihoK1edVS0W5la+OlCnvKinyKecssN2ca6SHySXe/flYIF/jHF+govj+6GRB6eWJ/
+vIk4DfzOnTx58pl6V7vZqevD63PDaLf8UNeZsU5dEBX5xAeYuYO3DaIZpWczYUQpp4x5WJRoDq/z
+MKf1RvqieXFrMZ5//Xf+7M+k/YHrCN+RxsPw459pYDjobV/LkzU7fCCvH7MsSUmX5GORE17/7sle
+dtAfnmw8qjzV7Lk0f5FOvL1i1oJvJ0SmOQ2lWVxabWY9+964/MPk0NYJUhdr08aS40e+X1O/xyFz
+Hcbb9xEAlXIFw7N9MYF53WFQjfbC4CWITM3CuTwTrx9Rw65hYysNvaumd4rLCZDTFVJbfSTOSt7M
+pGl/JVn/ywYsd/D2trgTvmdKbI2p/x+W/tlNPKeKpuAEtI4GQEko7iZ2jPiWSfTUHnIQ68M6dnrC
+KpVFfct0LvPDnRcy6Fyl/G6xnjCErFUMXo/zkLPriUtqD/SgOkk0TjCZ5BBZ/rwR5ozWWISD8Vga
+WdBuhFMU8HQCKuW19hCNb4QSvBlxM5DQkzGMXiUxbAvtlvmpYy566TZZfMVhqbjpY6rsjVvUeO1L
+lRrvJSm7EG6m9JNADLNJqQPCFRG/5A9PJPC8TFYx2TA/w3yD5wkbLp7MDPqNGZd3cKaY646hRwKe
+Lhqi4B34HitC2o3yqcvTeNiYvuPce15Fxg4Zc8ijsQVU/SqzgnqGzuhN2CJb5X6sjLQGVJk1bUKq
+4wy6pOo6jWysQih49EFQXamgw6xc9j6x2Z53P8GV79aO7vFlGgNiXWRjbW4xIFOIZzIwNeWdA9y+
+XjMfDP2NGw/eUxB2bLsJzwi8dF45u5g83Mchc2RKA2/roETjryss67nBAxWtSQ+XN5SALMR9yS7Q
+RBM/NjlNGkInpFnuNn7KpBMHtvP/uTuz5raRZAv/Fce8g4F9eZiJuKJkrVbbsqxp3xcELdIgCJAg
+NmL59fMVALlJSta1pxTRiIvu6LBbVBEoZGVlZZ485wZqqKhkZ9aWmgvV+6bk8HJFunbVQGqbpDfk
+d1wNWt1kvURMM6zRkA5CaPAjr3gkY2QnFDCX6rlK1xty7+vgNtNNqJA8mi7ThOy3qrZ/Qr4ZXuk7
+t4Z/xdW/NUUCWh1I+TldMv57vTWS/6UaaP1J2RlUnA34HkOpFwEc+MVJS1buVC15PaSZCpq9g60F
+Ua1Dp8Y66NId/qauXZIwCrxZSTE3U0SCEOcKtveKhaARUFE3j8yrzSZGIs5Bt1NFCWMZN4lzuoYY
+V6A2G0TxIOgDDO2DjUfioNKt7RQhZ4WGy7CBhx/umEjztn/SnALacO1Fq0122qTNGpEgmKzO45b2
++SSKmOkN7bLXakDuGG+vmLPUragIwBZIFw76C/GXWsl5Y41fsClwQEbdyvHwKx7Y/fOwwSpPlq7G
+ZmoCvzSmFFMgZgOfgugJOYMYCfNEmapq5kJsWWFemyDn1dOM9TULzeBTiUh8MW0b25z5FgojQagS
+rxaxizdaV9as9lvvoSI5Ps/bpXlJphHHY+KHaKfwztbZMiWTwQp1IfcwGL5JLZGpMqzkmrDOfyht
+uPkjGuiukU/V71PVEh9KYu+mKIBUUFp1fPSqTA/qJU3030JDLjIoIA+0W/DJ/A+OqFSAXIvJyXR2
+6hN6V/lERtPRLRgZXAxdz+5NkNLE7DlJfadbNpt6n40QPpIYzr3xSUBdO6s0u/ATN5+niMCVpDVN
+7T4HEQ1LkrjbdVmC4OBUTdGFsBO5NCtsPkILxB+j2DbRtkPA8CIIdtpt2fJGdiaRYaNThtnRyH8G
+vU5zV4YcN4x4pd+DdWB7LtBwO21E9NjozD1aTTwUS5Jvipa7fB4mGMNK/InCyhau5RXRpxrtrBmV
+A6hTRHi0jdltUy9Iv66iNdFvTXfdXRcotAhlNVf1Krb7ejN4VF5tys2AJljN4WiHOTekZHAJtEm9
+BVuiTO3EpwCfxVFygxnx7nRxt5skZePJEzqvfO5IXakE4QmMVWeWFm2/+mXMbt5EupKd+bBXz2wo
+X3xYnO2Gtqg84853/M5OJIya+iZVUBeadgFOKUKVqF0V8/7wY4jQB8Fxsp+x1aBRaCpRujqB/lLg
+cyCwgDDFMmE5o2ZxzrbDDZJypIoulI9X8Htr/rdYWfLlm24JaSTQ6/e7OhNhEDtPcZpVn1yzgizf
+y3lHW98luOOvXqCxAW9MC9+WiKMK9GOk1hqNwIAK6KXNm77d5IZzyeMk18ZOsaG4LeGthVGTu92V
+YXZRVey4hTBPlOi1WxXZPADSZsnIqx3hqkmzeflhWwUKiX+6sojS7A1WS9nCNc4os3EzsHhB5WRG
+zFmhud5DvQud+1VEav+sSFV0b3QPG6Fb1Zot1xVzCjCf5++cQBQbUG+EG2YlBulzYzf02KNnyYKz
+xdevq8KdrsSqjwtt+xURk+TaQ9XpgnA/vYDAkLcKy5Z7GrORMw8VIai3Cf0HaEDqj3UT2LPMLViv
+KuQyMO62Cp0CFis+y3LupLNEk1bK/LoKcQGWRox+piEtYhDTpkH+0YMyrLp0E/GCVqmJa9JRDblY
+Z0BBwqKtPejsWiU/a+2CoEh3S2IgHVjW50ZdWTNDUFTrissZwFtxDDFrV7uvjIxJpltM253g5z2y
++KG3/WoHdEdMU62qP3ZPyE5EjJzbeKAsIYHYHXjbStl+bTWDJUrF5j7EdaPUxJH2nnS+do+2Ja+l
+EFFaC89O3EeM3bbZtCoWtY0V49Jwlzx7i6jfzUan5ABvGqn7suQkI2aNbFrtkfHWYEqjdsSit3mK
+KPTN2bYsWK+bJZXFOKJ7W20beModlI0AssYaxLhgTeZpGLG4dNPFOy7zDK69JSYPUC/y67tl6NsG
+KjNOCtWfRbO2hTyQdVdnFbx0GyB47VTJVGtGfg6r4dPew0ag0uK4NC+jNFGSM0DCVXy13tn8NgU0
+Pf1MErfCRHwKJdNWbC7hqvN9tQ6lfRJoOHlCkUAcyc2C8wqliOS6m4DeF4mD+26l4xeEY80C5Jpo
+PcN2/aBmW0OZO7uonbD5Rine/9TZp6mX/vmKRMA5EhNm9MEpXUzEVcvswrSi3dUyaIDr9Aaxhi33
++xYO6N10ne2yC4UGtbNYwPZI62r3nVXYSJcjeIO04a1tUvnW0o12C7SeSYhyQWFng1vY0MRBoXdK
+q7QydVKdJEQGx0x7EooHUqo11gdZXjzNTCom5w2BUHaKv9duIaShwUM4B+pKSXWqxQEry/FTdhhH
+N4z3yRajKVcJ3t4ItT+oWbafOKlj1CqEU+W0qHDanQekXyhaAwpymOzChw3pxANAB0rZqVg2YgOC
+5T4wmormjgKngJb4jg5jxfVwV8AYWgyuYJkZacP3QoFR360bM7NPthzVaEhoCPysgOdGc8vFumlG
+Uk5XZgZPVkYs1H7ewUhXQ2mw2yz/0ARs+BIlD+02U0VzouUWfEMQJli7qvltdl9YJUFIoETeQwdn
+3AAV5Xkdr4JoSXc+l269/gOM2uNS8ZVp5K3yC+j5wHHT+3hdRcHqe4Bo/Ymjg5E2bI7UCGXRI2rU
+bI8gzNiRmrBqpwUpT48IpbEfolXDPIdbXmhiVW19jvSm8V7dQPUHBA+9pOWuXl8CTlt9MMxc06bs
+mutLTvb1xUYDlYwe5nbzwU8o/np1TLxg6zXOkCBTUC3qhXtW13mhXqXC+V+t/IBEJIl5YioaETnB
+wAF9qSQ6WRiybOU0jSHF/RysdF5Ptt7y39TTmCTDohGaDGB14hoVAgmZcP7pjhhnLUK6dOnWd3Do
+E+HVqUJzSsWaEQdlyCeYGMNjqXrLlFKqmnF7fuuQbNIT4gP0krnTuttMfOCEX1srTKJFQozJ7uJt
+vTP0Z6GZBLv44Ls+FtQdDAMUmrZXMaVQXF6BT0tQx/CvyadlF84y8W5C+mAvq62n3Qa15T1oSpHP
+9bZBWsmIYD7BnOBVsnX2zwxaxItyHeCtWjvU74Ve5rTzm94qwjl6bJjIZmxYE7GIN7e+596sM5gO
+qVqRvqqg2v5KV1UFZxl+L0tZQkUMFjb0lehKSaz3diA8c9sm7ECc7ZYXurUMF+bOVvNra1uy4gqB
+3YaWwruBJFNEGCk5EoWdeR1tXPPScVrVueTAVhcXOeebE9C92TnVpfJ9DL+My1mloNActdo9gtmk
+7CwPr0SehylxVgrbhu/rnCTWNhuLTcPTPc1hSH6lQJm2Vs16aAPhDrqQ2VLX322IH0/Ikq3V91SU
+oQW3m0J/zzcv70FN11/qpd3eLM0m/LJFQ+EUJlAP78xpp0V/TUfCwbHXKgRS5lb5mCl2Qk9g623c
+MyNDS1gPLOWx3BrWfIUQwCImqoQLos4Jt6s4OCGu0q+1ba7eaARlSMe51Z/0ldgZpWE/BlieorRw
+BjUonDdGHd6GztY9DVZ2+O/1tgg+o4C8q6flGvR2lFvqeeNaza1nbP0vNC9Hj0naMJK1gaaBSJle
+34/tRuHEGqtBBRN5oUI/gQaY/f+s5WgoVYkCzFnXSvSpXGTN3SIv4yJ/YkgUP+1Ac/fJf/eh1wd6
+t/iVJibAxiJteQBy7G6qu+PXxohnRViU88U//0HfEQUDkeGx8VlcNBLFqNkMP1awpgl5YeB/oo+J
+r9qbnp9NwOvP1s/k65957d77qbmcg1akg1328UUBjOQ3G5XXX4ePj0iraQvOb0Lw7iLzN65JsLhx
+2UlwJjrd3CD8IKUSF7N6YAOaN6GwIyCtYE7FNbZJYCXYsqZAM7pnwLIC40Q/C0crAVOgNKhaNjT+
+3UXa+W8xhUdkpwrhkQjHDorBFHJ/zRKORtjzBt7EIjHj8JSHJuCxTigTdajCbnb+roefzdeg68K8
+yMLHYr8SLlLVv/b0R0PsPb0+cRAdhB1vWAdHFuDaE2oKwj4oXHbX32QBR0/wl0dEWEJ2GbAh4Oqo
+0IFY7i6KAvvOwIOzwQDODIi9Xyaj84h0XAisuNS2iAQ3/bug7Ae37x3NgqNBuQydnU2Gt7t62xvR
+5kjvb/9m+nrPj4Dl92IDAYoGMjJ4PErm+6agacySmAGhjCGu3vZGNAlAMHpHJTEJUHDSkm2p9Gw/
+PeTBJKgCKCOkW0ZnAg55K/l1YKFXY8Ec/uLTO7jMrsddH50b0ABxyEbHujuBb4u+DYOQZ/+tu4K5
+xjFM3RVgH67RvXwCIgFCkPKChstTmsB0HLBU4mLA/Vnw3AnwfI3NYvCCOIi/JST6+YbIopXdCwx9
+YsOnALcXMcYLs+DSDgb1PbCIYUccnS3AK6H3r+a/94MiPIZSQrd/EhdoqjNhpQAiBHbXXaOzBdrY
+3mAWgJRA+0F3TXfxrg9WhEEAjRAuUrn9z8cXJ8Mn2RuohC2YrHuAXPSn9K/6KDrSNMQqLM9w2DTH
+ZwWuaGOU8oumOtF4dho5B1M/en7Xm4D1Av4JIHOsawEJEclZMDzAxoKwZpgEkRbYXwsclwgdiZEh
+Nu+u3hGPKDyEAkWVngUiINTdnB+v+ngWyJ0AKWUlDPHj+DwCLclA5ORWhDWBgoGzwF4ksG8LtjfR
+iUgEHq9fEKOzBbqcBZ5RahYMtkCdghMpw6OlYLEUCKKg9x/p4wOIeaZS9Lu5ZNyiiyoxyYPhOgoX
+HWcC0hgBd+cvtzmycBGFJdnN0VBh8iJSpAb9w/nvLwVPY5ZogdVpbO+u0S0FA3clu0VydCCTRpwE
+yWx3HdkCeqhwC6B0pA4/H1/Q/EJHzm+vCGdidq3KKD5013EGRUe6i84bBOT6aehPbGPaIlXOubJu
+kRSK8ItCfGx/JTj2BAFbUkzesCmM0AYM6VSi2BR4SHpyXj4yOKwUXCJ6LEOAMLpMClS6pqxX5PhI
+BYlDsjMkTI78AQlVQPQk1wdrG9MSQFlPNotoklXn2emZePnE5Frk0VRiaRFRi2t0UaKuOS7rVyo+
+Mp0JbxjiGnIl3YVV7TsETSVYBnanw+fVfdWorMAUuopyz28TJdMFCSXBi5uiZ07gB6KJd+AuGtHj
+GzQXSNcToFSyDRcG8ZdjAoqMVBhFtnGor/VByIhmgQOjtBEQGRk23W9PW744ge4vAlFgg9dJZA/G
+6gp0eFdklwIFNAAFBrxO/VI4ngVvQhAtDGG0ZUbhr2VnwYAQGEQBdPovOkRRZmSGiB6GinTvgca0
+IvBW0n6Bdd+3n/91LtxfEfD5k0OxCA2EgBjX+KJkQxNiA3KbA0lFjkMeTfi9LRytCIecKlkmhOh6
+t+CNb4s0bNHzKzULBtVUOAdoyR1s4ejE5JBadTEF2x78xugCJfJgumy4SGrVIFhm5Q9+4cgWusq7
+Qw4BtupuwkflEWzR3SxlBQSKpMrgG2RF9NfhHskKIZQQ2ISnxTC6WUB0TDadSD7NBGhDyDiUX4/C
+ZYrQZNKIE8Y8C57syVF4BIi9Kbr1bvFZEZrzNQBVWO+GHEsfmoxpRZhs8bIrwgCdSLcrgJaXV0SX
+SSKyHiCxI3p8oSEkuxQMHp9WdKDKw+Z4vBRE6pkCPI6xn57RucVBSUnOLQLWZo9FP/gn6UTcIm6H
+I+aQtRqTFbyguPG76VRcAVydHrm04VBwtC1ScTRQmrLM0YbLxPnPeIl/dxbIJakwiPDP0SIAjIVK
+pw3V0rBrji6TaKB9LB0bEAfzfFana9It9sPYgOI7JThQW7BxdFe/Af3SUviFD/1oAZkihD0/E30a
+4SJ/qUfkZx94an14/vOh7UH0Nggs98EHBX9Y/9093Ff8/V8HuKeuNWPvh0+tGt33DL8+PODzrz74
+rqenevqfF+Eim0EH2HQ/aIbbvJ2taSD5n3j2bbaePYdi/3Un//zHwX3u7YT/x8B5dDSuqFNLj5vB
+FLU5HLjDysoPHM02+Sx/ukXxGntAtuzI01kcfk+yTXhw133nh/TYSZxks3myf9c9bFZ+ZCSUHovw
+sSwOBu9QqbKDny7iWTXLFvsj9/1A0iMPzQXvku/vpmi/rb8dTjsEe29ghVBoZuH84H0OgFXZ+z9f
+JFlweMtaj4KUHfmCGQ/D/RlHXEp0isgOfDmfLQ8MEJ08AVKTHhc6ik0SHq5Iiq3klaWH3szD2ZEX
+gQGKgER65KQ6NIsetig77PVz39QjhKUHZoDyMWqenrxzez2YRnbomwT632fT3GM0ZMf+MAs3B95D
+KDO8wcL+MMuaeLaZ708H6C9R1pS/5TyfPS7LfFEUBzY9FGilxw8fl2EwO+wp64uf8kMLOb2kOLBs
+eEBFNUV+7DwP+Xe7PfBNA7jvLUZPyux46De5cQRIjnzIUGWVvenbxbcMBqfD2e6rNvJD72aH+xYn
+TlECkB+4encxW29zRFkPFibji0LLW4x/tcjyxYGnonNUZO7fYvAPizp8PNjGhgbttxj8a5JFT7fZ
+nQ/6jlfpoZMM3efpLEvYKQ/NpU/mv80XnM6i47UPyIyToOzwfyzDwxnv067Sw0YxEcnhqQZiXZHL
+lB46WwTHbbtdelB24I8oluZwjM+OjgkDslN2+LtlMl+8u8yf7W19t6Xs8J87AfKXDHFIH77NFzw3
+xCEvJzv8q3qxPydz+JEOfO0kfL+oD0+VAxhD9p6/FLPlk0ELnzJUrmSHfUVaS3IiHkJONkfmjays
+SHbK3vTr9OqS9/3vRV68e/Hme6St9M2H+WOCNMFB5Dbk2qTHhqkT3vmnGe7spG8ne33klzJNP9hD
+nuefnlhBXvq1w+Sa+MRjvJhl//oPAAAA//8=</cx:binary>
               </cx:geoCache>
             </cx:geography>
           </cx:layoutPr>
@@ -7326,15 +7333,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="26" fmlaLink="$A$1" max="10" min="1" page="10" val="9"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="26" fmlaLink="$A$1" max="10" min="1" page="10" val="3"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" firstButton="1" fmlaLink="$A$2" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" firstButton="1" fmlaLink="$A$2" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7423,8 +7430,8 @@
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
@@ -7456,13 +7463,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
+      <xdr:colOff>281940</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -7994,7 +8001,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>7%</a:t>
+            <a:t>23%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-IN" sz="8000" b="1">
             <a:solidFill>
@@ -8016,10 +8023,10 @@
           <xdr:rowOff>175260</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>144780</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2529840</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>175260</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8069,7 +8076,7 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>2575560</xdr:colOff>
+          <xdr:colOff>2811780</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
@@ -8223,7 +8230,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F33021C5-6599-904D-4F21-CA4ECD3FD9BF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8843,7 +8850,7 @@
   <dimension ref="A1:F1919"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H27" sqref="H27:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -47239,12 +47246,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{948164EF-B902-4A6C-8E3C-A935061C5153}" state="hidden">
+    <customSheetView guid="{A1F01C08-243B-48FC-94A8-F102AEB1706D}">
       <selection activeCell="F150" sqref="F150"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{A1F01C08-243B-48FC-94A8-F102AEB1706D}">
+    <customSheetView guid="{948164EF-B902-4A6C-8E3C-A935061C5153}" state="hidden">
       <selection activeCell="F150" sqref="F150"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
@@ -47260,7 +47267,7 @@
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="H27" sqref="H27:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -47673,8 +47680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E91CD3BB-DDC9-4DCE-8D3B-967D89566134}">
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27:H28"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -47697,10 +47704,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="16"/>
       <c r="D1" s="7" t="s">
         <v>68</v>
       </c>
@@ -47772,7 +47779,7 @@
       </c>
       <c r="T2" s="5" t="str">
         <f>B20</f>
-        <v>Employee Per 1000 Capita</v>
+        <v>Average Wages</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -47782,7 +47789,7 @@
       </c>
       <c r="B3" t="str">
         <f>Dashboard!B6</f>
-        <v>Finance</v>
+        <v>Trade &amp; Transportation</v>
       </c>
       <c r="D3" t="s">
         <v>53</v>
@@ -47807,33 +47814,33 @@
       </c>
       <c r="L3" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,'Data Prep'!B3,Data!A:A,'Data Prep'!K3)</f>
-        <v>77330.083333333328</v>
+        <v>43391.395833333336</v>
       </c>
       <c r="M3" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,K3)</f>
-        <v>8021586</v>
+        <v>27033069</v>
       </c>
       <c r="O3" t="s">
         <v>1</v>
       </c>
       <c r="P3" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O3)</f>
-        <v>94715</v>
+        <v>372620</v>
       </c>
       <c r="Q3" s="9">
         <v>4887871</v>
       </c>
       <c r="R3">
         <f>ROUND(P3/Q3*1000,)</f>
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="S3" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O3)</f>
-        <v>75982</v>
+        <v>45853</v>
       </c>
       <c r="T3" s="11">
         <f>IF($T$2=$S$2,-S3,R3)</f>
-        <v>19</v>
+        <v>-45853</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -47849,7 +47856,7 @@
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F12" si="0">IF(D4=$B$3,E4,0)</f>
-        <v>90040.666666666672</v>
+        <v>0</v>
       </c>
       <c r="H4" t="s">
         <v>58</v>
@@ -47863,33 +47870,33 @@
       </c>
       <c r="L4" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$K4)</f>
-        <v>80167.854166666672</v>
+        <v>44830.666666666664</v>
       </c>
       <c r="M4" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,K4)</f>
-        <v>8120224</v>
+        <v>27186117</v>
       </c>
       <c r="O4" t="s">
         <v>2</v>
       </c>
       <c r="P4" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O4)</f>
-        <v>225922</v>
+        <v>546143</v>
       </c>
       <c r="Q4" s="9">
         <v>7171646</v>
       </c>
       <c r="R4">
         <f t="shared" ref="R4:R50" si="1">ROUND(P4/Q4*1000,)</f>
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="S4" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O4)</f>
-        <v>82956</v>
+        <v>51498</v>
       </c>
       <c r="T4" s="11">
         <f t="shared" ref="T4:T50" si="2">IF($T$2=$S$2,-S4,R4)</f>
-        <v>32</v>
+        <v>-51498</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -47919,33 +47926,33 @@
       </c>
       <c r="L5" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$K5)</f>
-        <v>82837.375</v>
+        <v>46352.958333333336</v>
       </c>
       <c r="M5" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,K5)</f>
-        <v>8251469</v>
+        <v>27304411</v>
       </c>
       <c r="O5" t="s">
         <v>3</v>
       </c>
       <c r="P5" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O5)</f>
-        <v>51950</v>
+        <v>244074</v>
       </c>
       <c r="Q5" s="9">
         <v>3013825</v>
       </c>
       <c r="R5">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="S5" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O5)</f>
-        <v>65321</v>
+        <v>45673</v>
       </c>
       <c r="T5" s="11">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>-45673</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -47975,33 +47982,33 @@
       </c>
       <c r="L6" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$K6)</f>
-        <v>90040.666666666672</v>
+        <v>49366.8125</v>
       </c>
       <c r="M6" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,K6)</f>
-        <v>8142043</v>
+        <v>26277342</v>
       </c>
       <c r="O6" t="s">
         <v>4</v>
       </c>
       <c r="P6" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O6)</f>
-        <v>817007</v>
+        <v>2888684</v>
       </c>
       <c r="Q6" s="9">
         <v>39557045</v>
       </c>
       <c r="R6">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="S6" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O6)</f>
-        <v>124107</v>
+        <v>58800</v>
       </c>
       <c r="T6" s="11">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>-58800</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -48031,22 +48038,22 @@
       </c>
       <c r="P7" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O7)</f>
-        <v>165271</v>
+        <v>465887</v>
       </c>
       <c r="Q7" s="9">
         <v>5695564</v>
       </c>
       <c r="R7">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="S7" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O7)</f>
-        <v>97276</v>
+        <v>55719</v>
       </c>
       <c r="T7" s="11">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>-55719</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -48076,22 +48083,22 @@
       </c>
       <c r="P8" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O8)</f>
-        <v>118168</v>
+        <v>276491</v>
       </c>
       <c r="Q8" s="9">
         <v>3572665</v>
       </c>
       <c r="R8">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="S8" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O8)</f>
-        <v>165086</v>
+        <v>55859</v>
       </c>
       <c r="T8" s="11">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>-55859</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -48121,22 +48128,22 @@
       </c>
       <c r="P9" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O9)</f>
-        <v>47390</v>
+        <v>76267</v>
       </c>
       <c r="Q9" s="9">
         <v>967171</v>
       </c>
       <c r="R9">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="S9" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O9)</f>
-        <v>103154</v>
+        <v>45667</v>
       </c>
       <c r="T9" s="11">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>-45667</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -48152,7 +48159,7 @@
       </c>
       <c r="F10" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>49366.8125</v>
       </c>
       <c r="H10" t="s">
         <v>60</v>
@@ -48166,22 +48173,22 @@
       </c>
       <c r="P10" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O10)</f>
-        <v>586706</v>
+        <v>1739110</v>
       </c>
       <c r="Q10" s="9">
         <v>21670000</v>
       </c>
       <c r="R10">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="S10" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O10)</f>
-        <v>84307</v>
+        <v>49391</v>
       </c>
       <c r="T10" s="11">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>-49391</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -48211,22 +48218,22 @@
       </c>
       <c r="P11" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O11)</f>
-        <v>242175</v>
+        <v>913981</v>
       </c>
       <c r="Q11" s="9">
         <v>10519475</v>
       </c>
       <c r="R11">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="S11" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O11)</f>
-        <v>93145</v>
+        <v>52104</v>
       </c>
       <c r="T11" s="11">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>-52104</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -48256,22 +48263,22 @@
       </c>
       <c r="P12" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O12)</f>
-        <v>34249</v>
+        <v>143264</v>
       </c>
       <c r="Q12" s="9">
         <v>1754208</v>
       </c>
       <c r="R12">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="S12" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O12)</f>
-        <v>68833</v>
+        <v>44610</v>
       </c>
       <c r="T12" s="11">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>-44610</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -48280,50 +48287,50 @@
       </c>
       <c r="P13" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O13)</f>
-        <v>376539</v>
+        <v>1140749</v>
       </c>
       <c r="Q13" s="9">
         <v>12741080</v>
       </c>
       <c r="R13">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="S13" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O13)</f>
-        <v>121634</v>
+        <v>55780</v>
       </c>
       <c r="T13" s="11">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>-55780</v>
       </c>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="16"/>
       <c r="O14" t="s">
         <v>12</v>
       </c>
       <c r="P14" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O14)</f>
-        <v>133449</v>
+        <v>583686</v>
       </c>
       <c r="Q14" s="9">
         <v>6691878</v>
       </c>
       <c r="R14">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="S14" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O14)</f>
-        <v>72283</v>
+        <v>45931</v>
       </c>
       <c r="T14" s="11">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>-45931</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -48342,22 +48349,22 @@
       </c>
       <c r="P15" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O15)</f>
-        <v>109283</v>
+        <v>298376</v>
       </c>
       <c r="Q15" s="9">
         <v>3156145</v>
       </c>
       <c r="R15">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="S15" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O15)</f>
-        <v>81131</v>
+        <v>44146</v>
       </c>
       <c r="T15" s="11">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>-44146</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -48370,22 +48377,22 @@
       </c>
       <c r="P16" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O16)</f>
-        <v>73310</v>
+        <v>255575</v>
       </c>
       <c r="Q16" s="9">
         <v>2911505</v>
       </c>
       <c r="R16">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="S16" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O16)</f>
-        <v>75889</v>
+        <v>46012</v>
       </c>
       <c r="T16" s="11">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>-46012</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -48400,89 +48407,89 @@
       </c>
       <c r="P17" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O17)</f>
-        <v>92079</v>
+        <v>393361</v>
       </c>
       <c r="Q17" s="9">
         <v>4468402</v>
       </c>
       <c r="R17">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="S17" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O17)</f>
-        <v>75177</v>
+        <v>46839</v>
       </c>
       <c r="T17" s="11">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>-46839</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="H18" t="str">
         <f>$B$3</f>
-        <v>Finance</v>
+        <v>Trade &amp; Transportation</v>
       </c>
       <c r="I18" s="9">
         <f>VLOOKUP(B3,H3:I12,2,FALSE)</f>
-        <v>8142043</v>
+        <v>26277342</v>
       </c>
       <c r="O18" t="s">
         <v>16</v>
       </c>
       <c r="P18" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O18)</f>
-        <v>81149</v>
+        <v>358336</v>
       </c>
       <c r="Q18" s="9">
         <v>4659978</v>
       </c>
       <c r="R18">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="S18" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O18)</f>
-        <v>69409</v>
+        <v>46029</v>
       </c>
       <c r="T18" s="11">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>-46029</v>
       </c>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="14"/>
+      <c r="B19" s="16"/>
       <c r="H19" t="s">
         <v>72</v>
       </c>
       <c r="I19" s="10">
         <f>SUM(I3:I12)-I18</f>
-        <v>108507296</v>
+        <v>90371997</v>
       </c>
       <c r="O19" t="s">
         <v>17</v>
       </c>
       <c r="P19" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O19)</f>
-        <v>30107</v>
+        <v>111483</v>
       </c>
       <c r="Q19" s="9">
         <v>1338404</v>
       </c>
       <c r="R19">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="S19" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O19)</f>
-        <v>75870</v>
+        <v>43084</v>
       </c>
       <c r="T19" s="11">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>-43084</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -48491,29 +48498,29 @@
       </c>
       <c r="B20" t="str">
         <f>IF(Dashboard!A2=1,'Data Prep'!S2,'Data Prep'!R2)</f>
-        <v>Employee Per 1000 Capita</v>
+        <v>Average Wages</v>
       </c>
       <c r="O20" t="s">
         <v>18</v>
       </c>
       <c r="P20" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O20)</f>
-        <v>129771</v>
+        <v>441680</v>
       </c>
       <c r="Q20" s="9">
         <v>6042718</v>
       </c>
       <c r="R20">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="S20" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O20)</f>
-        <v>110159</v>
+        <v>50800</v>
       </c>
       <c r="T20" s="11">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>-50800</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -48522,22 +48529,22 @@
       </c>
       <c r="P21" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O21)</f>
-        <v>212062</v>
+        <v>526726</v>
       </c>
       <c r="Q21" s="9">
         <v>6902149</v>
       </c>
       <c r="R21">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="S21" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O21)</f>
-        <v>159120</v>
+        <v>61082</v>
       </c>
       <c r="T21" s="11">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>-61082</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -48546,29 +48553,29 @@
       </c>
       <c r="I22" s="13">
         <f>I18/SUM(I18:I19)</f>
-        <v>6.9799306792471413E-2</v>
+        <v>0.22526781741986554</v>
       </c>
       <c r="O22" t="s">
         <v>20</v>
       </c>
       <c r="P22" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O22)</f>
-        <v>207448</v>
+        <v>745824</v>
       </c>
       <c r="Q22" s="9">
         <v>9995915</v>
       </c>
       <c r="R22">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="S22" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O22)</f>
-        <v>81720</v>
+        <v>51869</v>
       </c>
       <c r="T22" s="11">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>-51869</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -48580,22 +48587,22 @@
       </c>
       <c r="P23" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O23)</f>
-        <v>179728</v>
+        <v>499190</v>
       </c>
       <c r="Q23" s="9">
         <v>5611179</v>
       </c>
       <c r="R23">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="S23" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O23)</f>
-        <v>104989</v>
+        <v>53843</v>
       </c>
       <c r="T23" s="11">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>-53843</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -48604,22 +48611,22 @@
       </c>
       <c r="P24" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O24)</f>
-        <v>41912</v>
+        <v>226629</v>
       </c>
       <c r="Q24" s="9">
         <v>2963914</v>
       </c>
       <c r="R24">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="S24" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O24)</f>
-        <v>59263</v>
+        <v>40176</v>
       </c>
       <c r="T24" s="11">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>-40176</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -48628,22 +48635,22 @@
       </c>
       <c r="P25" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O25)</f>
-        <v>165564</v>
+        <v>519916</v>
       </c>
       <c r="Q25" s="9">
         <v>6126452</v>
       </c>
       <c r="R25">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="S25" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O25)</f>
-        <v>82664</v>
+        <v>46520</v>
       </c>
       <c r="T25" s="11">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>-46520</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -48655,26 +48662,26 @@
       </c>
       <c r="P26" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O26)</f>
-        <v>21986</v>
+        <v>89315</v>
       </c>
       <c r="Q26" s="9">
         <v>1062305</v>
       </c>
       <c r="R26">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="S26" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O26)</f>
-        <v>67330</v>
+        <v>43996</v>
       </c>
       <c r="T26" s="11">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>-43996</v>
       </c>
     </row>
     <row r="27" spans="1:20">
-      <c r="H27" s="16" t="s">
+      <c r="H27" s="15" t="s">
         <v>83</v>
       </c>
       <c r="O27" t="s">
@@ -48682,26 +48689,26 @@
       </c>
       <c r="P27" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O27)</f>
-        <v>66588</v>
+        <v>182745</v>
       </c>
       <c r="Q27" s="9">
         <v>1929268</v>
       </c>
       <c r="R27">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="S27" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O27)</f>
-        <v>74942</v>
+        <v>44095</v>
       </c>
       <c r="T27" s="11">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>-44095</v>
       </c>
     </row>
     <row r="28" spans="1:20">
-      <c r="H28" s="16" t="s">
+      <c r="H28" s="15" t="s">
         <v>84</v>
       </c>
       <c r="O28" t="s">
@@ -48709,22 +48716,22 @@
       </c>
       <c r="P28" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O28)</f>
-        <v>62325</v>
+        <v>252623</v>
       </c>
       <c r="Q28" s="9">
         <v>3034392</v>
       </c>
       <c r="R28">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="S28" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O28)</f>
-        <v>79236</v>
+        <v>48334</v>
       </c>
       <c r="T28" s="11">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>-48334</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -48733,22 +48740,22 @@
       </c>
       <c r="P29" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O29)</f>
-        <v>33027</v>
+        <v>133196</v>
       </c>
       <c r="Q29" s="9">
         <v>1356458</v>
       </c>
       <c r="R29">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="S29" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O29)</f>
-        <v>109751</v>
+        <v>54425</v>
       </c>
       <c r="T29" s="11">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>-54425</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -48757,22 +48764,22 @@
       </c>
       <c r="P30" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O30)</f>
-        <v>235676</v>
+        <v>820259</v>
       </c>
       <c r="Q30" s="9">
         <v>8908520</v>
       </c>
       <c r="R30">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="S30" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O30)</f>
-        <v>127870</v>
+        <v>58675</v>
       </c>
       <c r="T30" s="11">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>-58675</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -48781,22 +48788,22 @@
       </c>
       <c r="P31" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O31)</f>
-        <v>32608</v>
+        <v>130261</v>
       </c>
       <c r="Q31" s="9">
         <v>2095428</v>
       </c>
       <c r="R31">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="S31" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O31)</f>
-        <v>62343</v>
+        <v>41086</v>
       </c>
       <c r="T31" s="11">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>-41086</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -48805,22 +48812,22 @@
       </c>
       <c r="P32" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O32)</f>
-        <v>700031</v>
+        <v>1366746</v>
       </c>
       <c r="Q32" s="9">
         <v>19542209</v>
       </c>
       <c r="R32">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S32" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O32)</f>
-        <v>207014</v>
+        <v>57939</v>
       </c>
       <c r="T32" s="11">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>-57939</v>
       </c>
     </row>
     <row r="33" spans="15:20">
@@ -48829,22 +48836,22 @@
       </c>
       <c r="P33" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O33)</f>
-        <v>251672</v>
+        <v>844765</v>
       </c>
       <c r="Q33" s="9">
         <v>10383620</v>
       </c>
       <c r="R33">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="S33" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O33)</f>
-        <v>97234</v>
+        <v>47171</v>
       </c>
       <c r="T33" s="11">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>-47171</v>
       </c>
     </row>
     <row r="34" spans="15:20">
@@ -48853,22 +48860,22 @@
       </c>
       <c r="P34" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O34)</f>
-        <v>22496</v>
+        <v>86570</v>
       </c>
       <c r="Q34" s="9">
         <v>760077</v>
       </c>
       <c r="R34">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="S34" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O34)</f>
-        <v>69243</v>
+        <v>52657</v>
       </c>
       <c r="T34" s="11">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>-52657</v>
       </c>
     </row>
     <row r="35" spans="15:20">
@@ -48877,22 +48884,22 @@
       </c>
       <c r="P35" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O35)</f>
-        <v>287990</v>
+        <v>998325</v>
       </c>
       <c r="Q35" s="9">
         <v>11689442</v>
       </c>
       <c r="R35">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="S35" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O35)</f>
-        <v>82336</v>
+        <v>48088</v>
       </c>
       <c r="T35" s="11">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>-48088</v>
       </c>
     </row>
     <row r="36" spans="15:20">
@@ -48901,22 +48908,22 @@
       </c>
       <c r="P36" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O36)</f>
-        <v>74614</v>
+        <v>301828</v>
       </c>
       <c r="Q36" s="9">
         <v>3943079</v>
       </c>
       <c r="R36">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="S36" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O36)</f>
-        <v>64030</v>
+        <v>43388</v>
       </c>
       <c r="T36" s="11">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>-43388</v>
       </c>
     </row>
     <row r="37" spans="15:20">
@@ -48925,22 +48932,22 @@
       </c>
       <c r="P37" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O37)</f>
-        <v>83937</v>
+        <v>346783</v>
       </c>
       <c r="Q37" s="9">
         <v>4190713</v>
       </c>
       <c r="R37">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="S37" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O37)</f>
-        <v>80727</v>
+        <v>49251</v>
       </c>
       <c r="T37" s="11">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>-49251</v>
       </c>
     </row>
     <row r="38" spans="15:20">
@@ -48949,22 +48956,22 @@
       </c>
       <c r="P38" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O38)</f>
-        <v>325571</v>
+        <v>1054388</v>
       </c>
       <c r="Q38" s="9">
         <v>12807060</v>
       </c>
       <c r="R38">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="S38" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O38)</f>
-        <v>97231</v>
+        <v>49535</v>
       </c>
       <c r="T38" s="11">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>-49535</v>
       </c>
     </row>
     <row r="39" spans="15:20">
@@ -48973,22 +48980,22 @@
       </c>
       <c r="P39" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O39)</f>
-        <v>31304</v>
+        <v>70764</v>
       </c>
       <c r="Q39" s="9">
         <v>1057315</v>
       </c>
       <c r="R39">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="S39" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O39)</f>
-        <v>100316</v>
+        <v>49493</v>
       </c>
       <c r="T39" s="11">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>-49493</v>
       </c>
     </row>
     <row r="40" spans="15:20">
@@ -48997,22 +49004,22 @@
       </c>
       <c r="P40" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O40)</f>
-        <v>101637</v>
+        <v>400537</v>
       </c>
       <c r="Q40" s="9">
         <v>5084127</v>
       </c>
       <c r="R40">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="S40" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O40)</f>
-        <v>71361</v>
+        <v>43717</v>
       </c>
       <c r="T40" s="11">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>-43717</v>
       </c>
     </row>
     <row r="41" spans="15:20">
@@ -49021,22 +49028,22 @@
       </c>
       <c r="P41" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O41)</f>
-        <v>27809</v>
+        <v>83179</v>
       </c>
       <c r="Q41" s="9">
         <v>882235</v>
       </c>
       <c r="R41">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="S41" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O41)</f>
-        <v>69345</v>
+        <v>44162</v>
       </c>
       <c r="T41" s="11">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>-44162</v>
       </c>
     </row>
     <row r="42" spans="15:20">
@@ -49045,22 +49052,22 @@
       </c>
       <c r="P42" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O42)</f>
-        <v>155926</v>
+        <v>627005</v>
       </c>
       <c r="Q42" s="9">
         <v>6770010</v>
       </c>
       <c r="R42">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="S42" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O42)</f>
-        <v>85116</v>
+        <v>50111</v>
       </c>
       <c r="T42" s="11">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>-50111</v>
       </c>
     </row>
     <row r="43" spans="15:20">
@@ -49069,22 +49076,22 @@
       </c>
       <c r="P43" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O43)</f>
-        <v>778554</v>
+        <v>2453267</v>
       </c>
       <c r="Q43" s="9">
         <v>28701845</v>
       </c>
       <c r="R43">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="S43" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O43)</f>
-        <v>92477</v>
+        <v>56485</v>
       </c>
       <c r="T43" s="11">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>-56485</v>
       </c>
     </row>
     <row r="44" spans="15:20">
@@ -49093,22 +49100,22 @@
       </c>
       <c r="P44" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O44)</f>
-        <v>93379</v>
+        <v>288623</v>
       </c>
       <c r="Q44" s="9">
         <v>3161105</v>
       </c>
       <c r="R44">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="S44" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O44)</f>
-        <v>79806</v>
+        <v>49353</v>
       </c>
       <c r="T44" s="11">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>-49353</v>
       </c>
     </row>
     <row r="45" spans="15:20">
@@ -49117,22 +49124,22 @@
       </c>
       <c r="P45" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O45)</f>
-        <v>11578</v>
+        <v>49851</v>
       </c>
       <c r="Q45" s="9">
         <v>626299</v>
       </c>
       <c r="R45">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="S45" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O45)</f>
-        <v>80135</v>
+        <v>45701</v>
       </c>
       <c r="T45" s="11">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>-45701</v>
       </c>
     </row>
     <row r="46" spans="15:20">
@@ -49141,22 +49148,22 @@
       </c>
       <c r="P46" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O46)</f>
-        <v>195671</v>
+        <v>627729</v>
       </c>
       <c r="Q46" s="9">
         <v>8517685</v>
       </c>
       <c r="R46">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="S46" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O46)</f>
-        <v>97246</v>
+        <v>48371</v>
       </c>
       <c r="T46" s="11">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>-48371</v>
       </c>
     </row>
     <row r="47" spans="15:20">
@@ -49165,22 +49172,22 @@
       </c>
       <c r="P47" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O47)</f>
-        <v>147772</v>
+        <v>615415</v>
       </c>
       <c r="Q47" s="9">
         <v>7614893</v>
       </c>
       <c r="R47">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="S47" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O47)</f>
-        <v>95674</v>
+        <v>74160</v>
       </c>
       <c r="T47" s="11">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>-74160</v>
       </c>
     </row>
     <row r="48" spans="15:20">
@@ -49189,22 +49196,22 @@
       </c>
       <c r="P48" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O48)</f>
-        <v>24190</v>
+        <v>118677</v>
       </c>
       <c r="Q48" s="9">
         <v>1805832</v>
       </c>
       <c r="R48">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="S48" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O48)</f>
-        <v>56764</v>
+        <v>42085</v>
       </c>
       <c r="T48" s="11">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>-42085</v>
       </c>
     </row>
     <row r="49" spans="15:20">
@@ -49213,22 +49220,22 @@
       </c>
       <c r="P49" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O49)</f>
-        <v>148829</v>
+        <v>517930</v>
       </c>
       <c r="Q49" s="9">
         <v>5813568</v>
       </c>
       <c r="R49">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="S49" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O49)</f>
-        <v>80470</v>
+        <v>45165</v>
       </c>
       <c r="T49" s="11">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>-45165</v>
       </c>
     </row>
     <row r="50" spans="15:20">
@@ -49237,22 +49244,22 @@
       </c>
       <c r="P50" s="9">
         <f>SUMIFS(Data!E:E,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O50)</f>
-        <v>10919</v>
+        <v>48509</v>
       </c>
       <c r="Q50" s="9">
         <v>577737</v>
       </c>
       <c r="R50">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="S50" s="8">
         <f>AVERAGEIFS(Data!F:F,Data!B:B,$B$3,Data!A:A,$B$15,Data!C:C,O50)</f>
-        <v>64480</v>
+        <v>44879</v>
       </c>
       <c r="T50" s="11">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>-44879</v>
       </c>
     </row>
     <row r="51" spans="15:20">
@@ -49276,14 +49283,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5.88671875" customWidth="1"/>
-    <col min="2" max="2" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.109375" customWidth="1"/>
     <col min="4" max="4" width="41.33203125" customWidth="1"/>
     <col min="8" max="8" width="1.88671875" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
@@ -49292,19 +49299,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="15">
-        <v>9</v>
+      <c r="A1" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15">
-        <v>2</v>
+      <c r="A2" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8">
       <c r="B6" s="12" t="str" cm="1">
         <f t="array" ref="B6">INDEX('Data Prep'!D3:D12,11-A1)</f>
-        <v>Finance</v>
+        <v>Trade &amp; Transportation</v>
       </c>
     </row>
   </sheetData>
@@ -49344,7 +49351,7 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>2575560</xdr:colOff>
+                <xdr:colOff>2811780</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>167640</xdr:rowOff>
               </from>
